--- a/FlexTool_import_template.xlsx
+++ b/FlexTool_import_template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\data\Toolbox_projects\FlexTool3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C79382EC-4474-4591-B3DE-D98B31AB9CE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{915369DC-7E2C-43F6-9D46-B66ED24A38DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="1000" firstSheet="6" activeTab="28" xr2:uid="{D5BEC09F-8FA9-46E6-8F36-396DCDACE376}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21240" tabRatio="1000" xr2:uid="{D5BEC09F-8FA9-46E6-8F36-396DCDACE376}"/>
   </bookViews>
   <sheets>
     <sheet name="navigate" sheetId="54" r:id="rId1"/>
@@ -40,19 +40,23 @@
     <sheet name="node_profile_c" sheetId="55" r:id="rId25"/>
     <sheet name="connection_profile_c" sheetId="56" r:id="rId26"/>
     <sheet name="unit_node_profile_c" sheetId="41" r:id="rId27"/>
-    <sheet name="constraint_sense_c" sheetId="44" r:id="rId28"/>
-    <sheet name="unit_node_constraint_c" sheetId="40" r:id="rId29"/>
-    <sheet name="group_c" sheetId="6" r:id="rId30"/>
-    <sheet name="group_p" sheetId="46" r:id="rId31"/>
-    <sheet name="group_connection" sheetId="26" r:id="rId32"/>
-    <sheet name="group_connection_node" sheetId="28" r:id="rId33"/>
-    <sheet name="group_node" sheetId="27" r:id="rId34"/>
-    <sheet name="group_unit" sheetId="29" r:id="rId35"/>
-    <sheet name="group_unit_node" sheetId="30" r:id="rId36"/>
-    <sheet name="reserve_connection_node_c" sheetId="31" r:id="rId37"/>
-    <sheet name="reserve_group_c" sheetId="32" r:id="rId38"/>
-    <sheet name="reserve_group_t" sheetId="50" r:id="rId39"/>
-    <sheet name="reserve_unit_node_c" sheetId="33" r:id="rId40"/>
+    <sheet name="group_c" sheetId="6" r:id="rId28"/>
+    <sheet name="group_p" sheetId="46" r:id="rId29"/>
+    <sheet name="group_connection" sheetId="26" r:id="rId30"/>
+    <sheet name="group_connection_node" sheetId="28" r:id="rId31"/>
+    <sheet name="group_node" sheetId="27" r:id="rId32"/>
+    <sheet name="group_unit" sheetId="29" r:id="rId33"/>
+    <sheet name="group_unit_node" sheetId="30" r:id="rId34"/>
+    <sheet name="reserve_connection_node_c" sheetId="31" r:id="rId35"/>
+    <sheet name="reserve_group_c" sheetId="32" r:id="rId36"/>
+    <sheet name="reserve_group_t" sheetId="50" r:id="rId37"/>
+    <sheet name="reserve_unit_node_c" sheetId="33" r:id="rId38"/>
+    <sheet name="constraint_sense_c" sheetId="44" r:id="rId39"/>
+    <sheet name="unit_node_constraint_c" sheetId="58" r:id="rId40"/>
+    <sheet name="connection_node_constraint_c" sheetId="59" r:id="rId41"/>
+    <sheet name="node_constraint_c" sheetId="60" r:id="rId42"/>
+    <sheet name="unit_constraint_c" sheetId="61" r:id="rId43"/>
+    <sheet name="connection_constraint_c" sheetId="62" r:id="rId44"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -201,7 +205,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1257" uniqueCount="427">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1291" uniqueCount="440">
   <si>
     <t>commodity</t>
   </si>
@@ -635,9 +639,6 @@
     <t>[factor] Coefficient to scale the output from a unit to a particular node (also affected by unit efficiency). Constant.</t>
   </si>
   <si>
-    <t>A map of coefficients to represent the participation of the unit to node link in user-defined constraints. Index: constraint name, value: coefficient.</t>
-  </si>
-  <si>
     <t>constraint</t>
   </si>
   <si>
@@ -1482,6 +1483,48 @@
   </si>
   <si>
     <t>constraint_flow_coefficient</t>
+  </si>
+  <si>
+    <t>A map of coefficients (Index: constraint name, value: coefficient) to represent the participation of the flow between unit and node in user-defined constraints. [flow x coefficient] will be on the left side of the equation.</t>
+  </si>
+  <si>
+    <t>A map of coefficients (Index: constraint name, value: coefficient) to represent the participation of the flow from the connection to a node in user-defined constraints. [flow x coefficient] will be on the left side of the equation.</t>
+  </si>
+  <si>
+    <t>A map of coefficients (Index: constraint name, value: coefficient) to represent the participation of the storage state in user-defined constraints. [state x coefficient] will be on the left side of the equation.</t>
+  </si>
+  <si>
+    <t>A map of coefficients (Index: constraint name, value: coefficient) to represent the participation of the storage capacity in user-defined constraints. [(invest - divest variable) x coefficient] will be on the left side of the equation. Invest and divest variables are not multiplied by unitsize.</t>
+  </si>
+  <si>
+    <t>constraint_state_coefficient</t>
+  </si>
+  <si>
+    <t>constraint_capacity_coefficient</t>
+  </si>
+  <si>
+    <t>A map of coefficients (Index: constraint name, value: coefficient) to represent the participation of the unit capacity in user-defined constraints.  [(invest - divest variable) x coefficient] will be on the left side of the equation. Invest and divest variables are not multiplied by unitsize.</t>
+  </si>
+  <si>
+    <t>A map of coefficients (Index: constraint name, value: coefficient) to represent the participation of the connection capacity in user-defined constraints.  [(invest - divest variable) x coefficient] will be on the left side of the equation. Invest and divest variables are not multiplied by unitsize.</t>
+  </si>
+  <si>
+    <t>node_constraint_c</t>
+  </si>
+  <si>
+    <t>unit_constraint_c</t>
+  </si>
+  <si>
+    <t>connection_constraint_c</t>
+  </si>
+  <si>
+    <t>15.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Added new sheets for state and capacity constraints. Changed </t>
+  </si>
+  <si>
+    <t>connection_node_constraint_c</t>
   </si>
 </sst>
 </file>
@@ -1519,7 +1562,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="22">
+  <fills count="23">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1646,6 +1689,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFCCEFD"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1660,7 +1709,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -1755,6 +1804,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1764,6 +1816,7 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFCCEFD"/>
       <color rgb="FFEEBCDC"/>
       <color rgb="FFE088C1"/>
     </mruColors>
@@ -3101,89 +3154,87 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F991596-B8AE-4F8F-B051-2E61303D5CC8}">
-  <dimension ref="A1:E33"/>
+  <dimension ref="A1:E38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.42578125" style="28" customWidth="1"/>
+    <col min="1" max="1" width="28.140625" style="28" customWidth="1"/>
     <col min="2" max="2" width="17.85546875" style="28" customWidth="1"/>
     <col min="3" max="3" width="18.42578125" style="28" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="46" t="s">
+        <v>283</v>
+      </c>
+      <c r="B1" s="46" t="s">
+        <v>285</v>
+      </c>
+      <c r="C1" s="46" t="s">
         <v>284</v>
-      </c>
-      <c r="B1" s="46" t="s">
-        <v>286</v>
-      </c>
-      <c r="C1" s="46" t="s">
-        <v>285</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="43" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B2" s="43"/>
       <c r="C2" s="43"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="43" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B3" s="43"/>
       <c r="C3" s="43"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="43" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B4" s="43"/>
       <c r="C4" s="43"/>
       <c r="E4" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="43" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B5" s="43"/>
       <c r="C5" s="43"/>
       <c r="E5" s="5" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="43" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B6" s="43"/>
       <c r="C6" s="43"/>
       <c r="E6" s="5" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="29" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B7" s="30"/>
       <c r="C7" s="29" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="43" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B8" s="43"/>
       <c r="C8" s="43"/>
@@ -3193,213 +3244,241 @@
       <c r="B9" s="27"/>
       <c r="C9" s="27"/>
       <c r="E9" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="31" t="s">
+        <v>218</v>
+      </c>
+      <c r="B10" s="31" t="s">
         <v>219</v>
       </c>
-      <c r="B10" s="31" t="s">
+      <c r="C10" s="31" t="s">
         <v>220</v>
-      </c>
-      <c r="C10" s="31" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="31" t="s">
+        <v>221</v>
+      </c>
+      <c r="B11" s="31" t="s">
         <v>222</v>
-      </c>
-      <c r="B11" s="31" t="s">
-        <v>223</v>
       </c>
       <c r="C11" s="32"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="44" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B12" s="44"/>
       <c r="C12" s="44"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="31" t="s">
+        <v>224</v>
+      </c>
+      <c r="B13" s="31" t="s">
         <v>225</v>
       </c>
-      <c r="B13" s="31" t="s">
+      <c r="C13" s="31" t="s">
         <v>226</v>
-      </c>
-      <c r="C13" s="31" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="31" t="s">
+        <v>243</v>
+      </c>
+      <c r="B14" s="31" t="s">
         <v>244</v>
       </c>
-      <c r="B14" s="31" t="s">
+      <c r="C14" s="31" t="s">
         <v>245</v>
-      </c>
-      <c r="C14" s="31" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="31" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B15" s="32"/>
       <c r="C15" s="31" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="44" t="s">
-        <v>229</v>
-      </c>
-      <c r="B16" s="44"/>
-      <c r="C16" s="44"/>
+      <c r="A16" s="33"/>
+      <c r="B16" s="33"/>
+      <c r="C16" s="33"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="44" t="s">
-        <v>230</v>
-      </c>
-      <c r="B17" s="44"/>
-      <c r="C17" s="44"/>
+      <c r="A17" s="39"/>
+      <c r="B17" s="39"/>
+      <c r="C17" s="40" t="s">
+        <v>227</v>
+      </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="33"/>
-      <c r="B18" s="33"/>
-      <c r="C18" s="33"/>
+      <c r="A18" s="45" t="s">
+        <v>260</v>
+      </c>
+      <c r="B18" s="45"/>
+      <c r="C18" s="45"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="39"/>
-      <c r="B19" s="39"/>
-      <c r="C19" s="40" t="s">
-        <v>228</v>
-      </c>
+      <c r="A19" s="45" t="s">
+        <v>259</v>
+      </c>
+      <c r="B19" s="45"/>
+      <c r="C19" s="45"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="45" t="s">
-        <v>261</v>
+        <v>273</v>
       </c>
       <c r="B20" s="45"/>
       <c r="C20" s="45"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="45" t="s">
-        <v>260</v>
-      </c>
-      <c r="B21" s="45"/>
-      <c r="C21" s="45"/>
+      <c r="A21" s="33"/>
+      <c r="B21" s="33"/>
+      <c r="C21" s="33"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="45" t="s">
-        <v>274</v>
-      </c>
-      <c r="B22" s="45"/>
-      <c r="C22" s="45"/>
+      <c r="A22" s="34" t="s">
+        <v>239</v>
+      </c>
+      <c r="B22" s="34" t="s">
+        <v>240</v>
+      </c>
+      <c r="C22" s="34"/>
+      <c r="D22" s="28"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="33"/>
-      <c r="B23" s="33"/>
-      <c r="C23" s="33"/>
+      <c r="A23" s="41" t="s">
+        <v>230</v>
+      </c>
+      <c r="B23" s="41"/>
+      <c r="C23" s="41"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="34" t="s">
-        <v>240</v>
-      </c>
-      <c r="B24" s="34" t="s">
-        <v>241</v>
-      </c>
-      <c r="C24" s="34"/>
-      <c r="D24" s="28"/>
+      <c r="A24" s="41" t="s">
+        <v>231</v>
+      </c>
+      <c r="B24" s="41"/>
+      <c r="C24" s="41"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="41" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B25" s="41"/>
       <c r="C25" s="41"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="41" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B26" s="41"/>
       <c r="C26" s="41"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="41" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B27" s="41"/>
       <c r="C27" s="41"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="41" t="s">
-        <v>234</v>
-      </c>
-      <c r="B28" s="41"/>
-      <c r="C28" s="41"/>
+      <c r="A28" s="27"/>
+      <c r="B28" s="27"/>
+      <c r="C28" s="27"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="41" t="s">
+      <c r="A29" s="42" t="s">
         <v>235</v>
       </c>
-      <c r="B29" s="41"/>
-      <c r="C29" s="41"/>
+      <c r="B29" s="42"/>
+      <c r="C29" s="42"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="27"/>
-      <c r="B30" s="27"/>
-      <c r="C30" s="27"/>
+      <c r="A30" s="35" t="s">
+        <v>236</v>
+      </c>
+      <c r="B30" s="36"/>
+      <c r="C30" s="35" t="s">
+        <v>237</v>
+      </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="42" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B31" s="42"/>
       <c r="C31" s="42"/>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="35" t="s">
-        <v>237</v>
-      </c>
-      <c r="B32" s="36"/>
-      <c r="C32" s="35" t="s">
-        <v>238</v>
-      </c>
-    </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="42" t="s">
-        <v>239</v>
-      </c>
-      <c r="B33" s="42"/>
-      <c r="C33" s="42"/>
+      <c r="A33" s="48" t="s">
+        <v>228</v>
+      </c>
+      <c r="B33" s="48"/>
+      <c r="C33" s="48"/>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="48" t="s">
+        <v>229</v>
+      </c>
+      <c r="B34" s="48"/>
+      <c r="C34" s="48"/>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="48" t="s">
+        <v>439</v>
+      </c>
+      <c r="B35" s="48"/>
+      <c r="C35" s="48"/>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="48" t="s">
+        <v>434</v>
+      </c>
+      <c r="B36" s="48"/>
+      <c r="C36" s="48"/>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="48" t="s">
+        <v>435</v>
+      </c>
+      <c r="B37" s="48"/>
+      <c r="C37" s="48"/>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="48" t="s">
+        <v>436</v>
+      </c>
+      <c r="B38" s="48"/>
+      <c r="C38" s="48"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A31" location="reserve_unit_node_c!A1" display="reserve_connection_node_c" xr:uid="{3F855114-4A57-4E0A-A766-0317F980F4BF}"/>
-    <hyperlink ref="A29" location="group_unit_node!A1" display="group_unit_node" xr:uid="{B7C2FCA3-F9B2-4C44-95E7-EE78C953ADDA}"/>
-    <hyperlink ref="A28" location="group_unit!A1" display="group_unit" xr:uid="{B05CA82D-DD0B-41C5-A4A2-737EB6D8AF37}"/>
-    <hyperlink ref="A27" location="group_node!A1" display="group_node" xr:uid="{920BB948-3B7C-488B-B8B1-7504F3D3AD1A}"/>
-    <hyperlink ref="A26" location="group_connection_node!A1" display="group_connection_node" xr:uid="{811FD465-B06B-4481-9ED6-DE1222C0D3DE}"/>
-    <hyperlink ref="A32" location="reserve_group_c!A1" display="reserve_group_c" xr:uid="{2CFA818C-9B6A-474B-8E40-2E804C4A9677}"/>
-    <hyperlink ref="C32" location="reserve_group_t!A1" display="reserve_group_t" xr:uid="{401EE982-2E1A-4DC0-A8C5-8E9B177FDA74}"/>
-    <hyperlink ref="A33" location="reserve_unit_node_c!A1" display="reserve_unit_node_c" xr:uid="{78371C66-B81A-4E9B-96E1-6659A71B0BF4}"/>
-    <hyperlink ref="A25" location="group_connection!A1" display="group_connection" xr:uid="{A00C70C1-5203-41C9-BCBD-CC42FCD43017}"/>
-    <hyperlink ref="A24" location="group_c!A1" display="group_c" xr:uid="{8516B270-11A5-45FE-B8AE-F8BD21CE42EE}"/>
-    <hyperlink ref="B24" location="group_p!A1" display="group_p" xr:uid="{24A5AB85-580D-4C07-9C0C-EF096DF9B6A4}"/>
-    <hyperlink ref="A17" location="unit_node_constraint_c!A1" display="unit_node_constraint_c" xr:uid="{E752EE81-721A-467B-A89A-558EAD27CD18}"/>
-    <hyperlink ref="A16" location="constraint_sense_c!A1" display="constraint_sense_c" xr:uid="{E3638194-ABA1-4B52-B562-9CB1B5A7326A}"/>
+    <hyperlink ref="A29" location="reserve_unit_node_c!A1" display="reserve_connection_node_c" xr:uid="{3F855114-4A57-4E0A-A766-0317F980F4BF}"/>
+    <hyperlink ref="A27" location="group_unit_node!A1" display="group_unit_node" xr:uid="{B7C2FCA3-F9B2-4C44-95E7-EE78C953ADDA}"/>
+    <hyperlink ref="A26" location="group_unit!A1" display="group_unit" xr:uid="{B05CA82D-DD0B-41C5-A4A2-737EB6D8AF37}"/>
+    <hyperlink ref="A25" location="group_node!A1" display="group_node" xr:uid="{920BB948-3B7C-488B-B8B1-7504F3D3AD1A}"/>
+    <hyperlink ref="A24" location="group_connection_node!A1" display="group_connection_node" xr:uid="{811FD465-B06B-4481-9ED6-DE1222C0D3DE}"/>
+    <hyperlink ref="A30" location="reserve_group_c!A1" display="reserve_group_c" xr:uid="{2CFA818C-9B6A-474B-8E40-2E804C4A9677}"/>
+    <hyperlink ref="C30" location="reserve_group_t!A1" display="reserve_group_t" xr:uid="{401EE982-2E1A-4DC0-A8C5-8E9B177FDA74}"/>
+    <hyperlink ref="A31" location="reserve_unit_node_c!A1" display="reserve_unit_node_c" xr:uid="{78371C66-B81A-4E9B-96E1-6659A71B0BF4}"/>
+    <hyperlink ref="A23" location="group_connection!A1" display="group_connection" xr:uid="{A00C70C1-5203-41C9-BCBD-CC42FCD43017}"/>
+    <hyperlink ref="A22" location="group_c!A1" display="group_c" xr:uid="{8516B270-11A5-45FE-B8AE-F8BD21CE42EE}"/>
+    <hyperlink ref="B22" location="group_p!A1" display="group_p" xr:uid="{24A5AB85-580D-4C07-9C0C-EF096DF9B6A4}"/>
+    <hyperlink ref="A34" location="unit_node_constraint_c!A1" display="unit_node_constraint_c" xr:uid="{E752EE81-721A-467B-A89A-558EAD27CD18}"/>
+    <hyperlink ref="A33" location="constraint_sense_c!A1" display="constraint_sense_c" xr:uid="{E3638194-ABA1-4B52-B562-9CB1B5A7326A}"/>
     <hyperlink ref="A15" location="unit_node_c!A1" display="unit_node_c" xr:uid="{588C2786-F4D1-490C-8299-996C761D1B0B}"/>
     <hyperlink ref="C15" location="unit_node_t!A1" display="unit_node_t" xr:uid="{848C3082-4242-4C02-A2C8-1DDCCECDDCE4}"/>
     <hyperlink ref="A14" location="unit_c!A1" display="unit_c" xr:uid="{0B24F06D-DF0D-43E9-A754-3D573B0328ED}"/>
     <hyperlink ref="B14" location="unit_p!A1" display="unit_p" xr:uid="{6B0EC5F5-0D3E-41BB-B4D8-64F5821432A7}"/>
     <hyperlink ref="C14" location="unit_t!A1" display="unit_t" xr:uid="{563A1A91-8913-4B2F-8BA5-4D350923C03F}"/>
-    <hyperlink ref="C19" location="profile_t!A1" display="profile_t" xr:uid="{78412094-AA9A-4901-935D-64F3C1AC7206}"/>
+    <hyperlink ref="C17" location="profile_t!A1" display="profile_t" xr:uid="{78412094-AA9A-4901-935D-64F3C1AC7206}"/>
     <hyperlink ref="A13" location="connection_c!A1" display="connection_c" xr:uid="{03E6664B-5F07-4921-A88F-1CC8DA8E9FAE}"/>
     <hyperlink ref="B13" location="connection_p!A1" display="connection_p" xr:uid="{46902093-FDC0-4939-BBFD-2D41FFBE0F05}"/>
     <hyperlink ref="C13" location="connection_t!A1" display="connection_t" xr:uid="{5D63301C-ED60-425E-8FC0-334B75B4F98C}"/>
@@ -3413,16 +3492,20 @@
     <hyperlink ref="C7" location="timeline_t!A1" display="timeline_t" xr:uid="{0049663E-A2F9-49A0-A576-07D0A457655D}"/>
     <hyperlink ref="A7" location="timeline_s!A1" display="timeline_s" xr:uid="{252B2493-68D2-4C5E-A6EA-89A71C7FBE09}"/>
     <hyperlink ref="A2" location="version!A1" display="version" xr:uid="{5528FB5D-B49F-4A94-B79B-BD7CACBF6421}"/>
-    <hyperlink ref="A21" location="unit_profile_c!A1" display="unit_profile_c" xr:uid="{BFEE1E54-8BED-43DB-81D7-EF22B030644E}"/>
-    <hyperlink ref="A22" location="unit_profile_c!A1" display="unit_profile_c" xr:uid="{F130C8C0-C1F9-49C3-9475-FD4618C13C76}"/>
-    <hyperlink ref="A20" location="unit_profile_c!A1" display="unit_profile_c" xr:uid="{844403FD-DCCB-46C7-BE3C-C68DCAAB6B04}"/>
-    <hyperlink ref="A20:C20" location="node_profile_c!A1" display="node_profile_c" xr:uid="{826B47E5-87EB-412A-A0AE-C49CDB5CEB93}"/>
-    <hyperlink ref="A21:C21" location="connection_profile_c!A1" display="connection_profile_c" xr:uid="{DB781E38-3ACC-4F21-8D1E-B47D2A016C51}"/>
-    <hyperlink ref="A22:C22" location="unit_node_profile_c!A1" display="unit_profile_c" xr:uid="{B2BA97AF-8BE5-4D5F-8341-41044F5963AA}"/>
+    <hyperlink ref="A19" location="unit_profile_c!A1" display="unit_profile_c" xr:uid="{BFEE1E54-8BED-43DB-81D7-EF22B030644E}"/>
+    <hyperlink ref="A20" location="unit_profile_c!A1" display="unit_profile_c" xr:uid="{F130C8C0-C1F9-49C3-9475-FD4618C13C76}"/>
+    <hyperlink ref="A18" location="unit_profile_c!A1" display="unit_profile_c" xr:uid="{844403FD-DCCB-46C7-BE3C-C68DCAAB6B04}"/>
+    <hyperlink ref="A18:C18" location="node_profile_c!A1" display="node_profile_c" xr:uid="{826B47E5-87EB-412A-A0AE-C49CDB5CEB93}"/>
+    <hyperlink ref="A19:C19" location="connection_profile_c!A1" display="connection_profile_c" xr:uid="{DB781E38-3ACC-4F21-8D1E-B47D2A016C51}"/>
+    <hyperlink ref="A20:C20" location="unit_node_profile_c!A1" display="unit_profile_c" xr:uid="{B2BA97AF-8BE5-4D5F-8341-41044F5963AA}"/>
     <hyperlink ref="A4" location="solve_period!A1" display="solve_period" xr:uid="{1A642A0E-886B-4C5F-9459-AF06B635D1C8}"/>
     <hyperlink ref="A5" location="solve_sequence!A1" display="solve_sequence" xr:uid="{3B08721C-A5BF-4AD9-9840-41F099D6F77C}"/>
     <hyperlink ref="A6" location="timeblockSet!A1" display="timeblockSet" xr:uid="{4C69C415-5F99-4696-8AE3-CE2F554DC3A9}"/>
     <hyperlink ref="A3" location="scenario!B3" display="scenario" xr:uid="{6595CB33-4050-4638-93A2-B2C50D1ED6D3}"/>
+    <hyperlink ref="A36" location="node_constraint_c!A1" display="node_constraint_c" xr:uid="{AC3AB525-A059-400D-8A88-BB691B8190B0}"/>
+    <hyperlink ref="A37" location="unit_constraint_c!A1" display="unit_constraint_c" xr:uid="{52E2C769-7950-491B-8D4F-A3098C5C0800}"/>
+    <hyperlink ref="A38" location="connection_constraint_c!A1" display="connection_constraint_c" xr:uid="{4F42D9DB-BE6E-4724-A8BC-46902175E215}"/>
+    <hyperlink ref="A35" location="connection_node_constraint_c!A1" display="connection_node_constraint_c" xr:uid="{8884D5A7-21E8-46CA-9DDB-FA2BA31F034A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
@@ -3469,35 +3552,35 @@
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A1" s="37" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D1" t="s">
+        <v>183</v>
+      </c>
+      <c r="E1" t="s">
+        <v>414</v>
+      </c>
+      <c r="F1" t="s">
         <v>184</v>
       </c>
-      <c r="E1" t="s">
-        <v>415</v>
-      </c>
-      <c r="F1" t="s">
-        <v>185</v>
-      </c>
       <c r="G1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="I1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="J1" t="s">
+        <v>367</v>
+      </c>
+      <c r="K1" t="s">
         <v>368</v>
-      </c>
-      <c r="K1" t="s">
-        <v>369</v>
       </c>
       <c r="L1" t="s">
         <v>68</v>
@@ -3506,25 +3589,25 @@
         <v>71</v>
       </c>
       <c r="N1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="O1" t="s">
         <v>72</v>
       </c>
       <c r="P1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="Q1" t="s">
+        <v>369</v>
+      </c>
+      <c r="R1" t="s">
         <v>370</v>
-      </c>
-      <c r="R1" t="s">
-        <v>371</v>
       </c>
       <c r="S1" t="s">
         <v>21</v>
       </c>
       <c r="T1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="U1" t="s">
         <v>24</v>
@@ -3544,13 +3627,13 @@
         <v>58</v>
       </c>
       <c r="C2" s="24" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D2" s="9" t="s">
         <v>60</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F2" s="9" t="s">
         <v>61</v>
@@ -3583,13 +3666,13 @@
         <v>14</v>
       </c>
       <c r="P2" s="9" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="Q2" s="9" t="s">
         <v>7</v>
       </c>
       <c r="R2" s="24" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="S2" s="9" t="s">
         <v>6</v>
@@ -3612,20 +3695,20 @@
         <v>29</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E3" s="14" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="F3" s="14"/>
       <c r="G3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="J3">
         <v>10000</v>
@@ -3639,20 +3722,20 @@
         <v>29</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E4" s="14" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="F4" s="14"/>
       <c r="G4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H4">
         <f>100*8760</f>
@@ -3670,13 +3753,13 @@
         <v>29</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="J5">
         <v>10000</v>
@@ -3690,13 +3773,13 @@
         <v>29</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="J6">
         <v>10000</v>
@@ -3707,22 +3790,22 @@
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D7" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F7" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G7" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="J7">
         <v>12000</v>
@@ -3739,16 +3822,16 @@
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="J8">
         <v>12000</v>
@@ -3799,7 +3882,7 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="37" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -3813,19 +3896,19 @@
         <v>70</v>
       </c>
       <c r="G1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="H1" t="s">
+        <v>372</v>
+      </c>
+      <c r="I1" t="s">
         <v>373</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
+        <v>369</v>
+      </c>
+      <c r="K1" t="s">
         <v>374</v>
-      </c>
-      <c r="J1" t="s">
-        <v>370</v>
-      </c>
-      <c r="K1" t="s">
-        <v>375</v>
       </c>
       <c r="L1" t="s">
         <v>21</v>
@@ -3834,7 +3917,7 @@
         <v>24</v>
       </c>
       <c r="N1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3863,13 +3946,13 @@
         <v>13</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="J2" s="9" t="s">
         <v>7</v>
       </c>
       <c r="K2" s="24" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="L2" s="9" t="s">
         <v>6</v>
@@ -3886,7 +3969,7 @@
         <v>29</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>79</v>
@@ -3901,7 +3984,7 @@
         <v>29</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>80</v>
@@ -3916,10 +3999,10 @@
         <v>29</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D5">
         <f>250*8760*1.1</f>
@@ -3955,7 +4038,7 @@
   <sheetData>
     <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="37" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B1" s="8" t="s">
         <v>1</v>
@@ -3970,7 +4053,7 @@
     <row r="2" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
       <c r="B2" s="15" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C2" s="9" t="s">
         <v>62</v>
@@ -3987,10 +4070,10 @@
         <v>58</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>149</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -4288,14 +4371,14 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="37" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B1"/>
       <c r="C1" t="s">
         <v>75</v>
       </c>
       <c r="D1" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -4317,7 +4400,7 @@
         <v>29</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C3">
         <v>0.34</v>
@@ -4331,7 +4414,7 @@
         <v>29</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C4">
         <v>0.2</v>
@@ -4366,12 +4449,12 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="37" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B1"/>
       <c r="C1"/>
       <c r="D1" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -4393,7 +4476,7 @@
         <v>29</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>79</v>
@@ -4407,7 +4490,7 @@
         <v>29</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>80</v>
@@ -4421,10 +4504,10 @@
         <v>29</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D5">
         <v>22</v>
@@ -4473,18 +4556,18 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
   </sheetData>
@@ -4529,28 +4612,28 @@
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" s="37" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B1" s="37"/>
       <c r="C1" s="37"/>
       <c r="D1" s="3"/>
       <c r="E1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F1" t="s">
+        <v>180</v>
+      </c>
+      <c r="G1" t="s">
         <v>181</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
+        <v>186</v>
+      </c>
+      <c r="I1" t="s">
         <v>182</v>
       </c>
-      <c r="H1" t="s">
-        <v>187</v>
-      </c>
-      <c r="I1" t="s">
-        <v>183</v>
-      </c>
       <c r="J1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="K1" t="s">
         <v>20</v>
@@ -4559,19 +4642,19 @@
         <v>23</v>
       </c>
       <c r="M1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="N1" t="s">
         <v>26</v>
       </c>
       <c r="O1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="P1" t="s">
+        <v>377</v>
+      </c>
+      <c r="Q1" t="s">
         <v>378</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>379</v>
       </c>
       <c r="R1" t="s">
         <v>21</v>
@@ -4580,10 +4663,10 @@
         <v>24</v>
       </c>
       <c r="T1" t="s">
+        <v>379</v>
+      </c>
+      <c r="U1" t="s">
         <v>380</v>
-      </c>
-      <c r="U1" t="s">
-        <v>381</v>
       </c>
       <c r="V1" t="s">
         <v>19</v>
@@ -4597,13 +4680,13 @@
         <v>27</v>
       </c>
       <c r="C2" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="D2" s="10" t="s">
         <v>282</v>
       </c>
-      <c r="D2" s="10" t="s">
-        <v>283</v>
-      </c>
       <c r="E2" s="24" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="F2" s="9" t="s">
         <v>17</v>
@@ -4615,7 +4698,7 @@
         <v>11</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="J2" s="9" t="s">
         <v>15</v>
@@ -4633,13 +4716,13 @@
         <v>14</v>
       </c>
       <c r="O2" s="9" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="P2" s="9" t="s">
         <v>7</v>
       </c>
       <c r="Q2" s="9" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="R2" s="9" t="s">
         <v>6</v>
@@ -4665,25 +4748,25 @@
         <v>32</v>
       </c>
       <c r="C3" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="D3" s="11" t="s">
         <v>149</v>
       </c>
-      <c r="D3" s="11" t="s">
-        <v>150</v>
-      </c>
       <c r="E3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F3" t="s">
+        <v>173</v>
+      </c>
+      <c r="G3" t="s">
         <v>174</v>
       </c>
-      <c r="G3" t="s">
-        <v>175</v>
-      </c>
       <c r="H3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="K3">
         <v>100</v>
@@ -4703,28 +4786,28 @@
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="D4" s="11" t="s">
         <v>275</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="D4" s="11" t="s">
-        <v>276</v>
-      </c>
       <c r="E4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F4" t="s">
+        <v>173</v>
+      </c>
+      <c r="G4" t="s">
         <v>174</v>
       </c>
-      <c r="G4" t="s">
-        <v>175</v>
-      </c>
       <c r="H4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="K4">
         <v>10</v>
@@ -4735,19 +4818,19 @@
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>32</v>
       </c>
       <c r="C5" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="D5" s="11" t="s">
         <v>149</v>
       </c>
-      <c r="D5" s="11" t="s">
-        <v>150</v>
-      </c>
       <c r="H5" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
   </sheetData>
@@ -4788,7 +4871,7 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="37" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -4796,19 +4879,19 @@
         <v>22</v>
       </c>
       <c r="E1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F1" t="s">
         <v>25</v>
       </c>
       <c r="G1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="H1" t="s">
+        <v>377</v>
+      </c>
+      <c r="I1" t="s">
         <v>378</v>
-      </c>
-      <c r="I1" t="s">
-        <v>379</v>
       </c>
       <c r="J1" t="s">
         <v>21</v>
@@ -4817,7 +4900,7 @@
         <v>24</v>
       </c>
       <c r="L1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
@@ -4840,13 +4923,13 @@
         <v>13</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="H2" s="9" t="s">
         <v>7</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="J2" s="9" t="s">
         <v>6</v>
@@ -4894,7 +4977,7 @@
         <v>32</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D5">
         <v>150</v>
@@ -4929,7 +5012,7 @@
   <sheetData>
     <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="37" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B1" s="8" t="s">
         <v>1</v>
@@ -4941,7 +5024,7 @@
     <row r="2" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
       <c r="B2" s="15" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C2" s="9" t="s">
         <v>3</v>
@@ -5201,23 +5284,23 @@
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1" s="37" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F1" t="s">
+        <v>185</v>
+      </c>
+      <c r="G1" t="s">
         <v>186</v>
-      </c>
-      <c r="G1" t="s">
-        <v>187</v>
       </c>
       <c r="H1" t="s">
         <v>20</v>
@@ -5226,19 +5309,19 @@
         <v>23</v>
       </c>
       <c r="J1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="K1" t="s">
         <v>26</v>
       </c>
       <c r="L1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="M1" t="s">
+        <v>381</v>
+      </c>
+      <c r="N1" t="s">
         <v>382</v>
-      </c>
-      <c r="N1" t="s">
-        <v>383</v>
       </c>
       <c r="O1" t="s">
         <v>21</v>
@@ -5247,28 +5330,28 @@
         <v>24</v>
       </c>
       <c r="Q1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="R1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="S1" t="s">
         <v>111</v>
       </c>
       <c r="T1" t="s">
+        <v>315</v>
+      </c>
+      <c r="U1" t="s">
         <v>316</v>
       </c>
-      <c r="U1" t="s">
-        <v>317</v>
-      </c>
       <c r="V1" t="s">
+        <v>199</v>
+      </c>
+      <c r="W1" t="s">
         <v>200</v>
       </c>
-      <c r="W1" t="s">
-        <v>201</v>
-      </c>
       <c r="X1" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="2" spans="1:24" s="23" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -5279,7 +5362,7 @@
         <v>125</v>
       </c>
       <c r="C2" s="24" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D2" s="24" t="s">
         <v>110</v>
@@ -5306,13 +5389,13 @@
         <v>14</v>
       </c>
       <c r="L2" s="24" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="M2" s="24" t="s">
         <v>7</v>
       </c>
       <c r="N2" s="24" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="O2" s="24" t="s">
         <v>6</v>
@@ -5350,20 +5433,20 @@
         <v>29</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C3" s="47" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D3" s="47" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E3" s="47" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F3" s="47"/>
       <c r="G3" s="47" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H3">
         <v>100</v>
@@ -5390,20 +5473,20 @@
         <v>29</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C4" s="47" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D4" s="47" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E4" s="47" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F4" s="47"/>
       <c r="G4" s="47" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H4">
         <v>100</v>
@@ -5417,20 +5500,20 @@
         <v>29</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C5" s="47" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D5" s="47" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E5" s="47" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F5" s="47"/>
       <c r="G5" s="47" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H5">
         <v>200</v>
@@ -5444,33 +5527,33 @@
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G6" s="47" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>405</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>406</v>
-      </c>
       <c r="C7" s="47" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D7" s="47" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E7" s="47" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G7" s="47" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H7">
         <v>10</v>
@@ -5489,11 +5572,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4446509C-CB62-4FDB-A8D2-BE0D15E8AAF2}">
-  <dimension ref="A1:D30"/>
+  <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A31" sqref="A31"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -5503,399 +5584,413 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B3" t="s">
+        <v>192</v>
+      </c>
+      <c r="C3" t="s">
         <v>193</v>
       </c>
-      <c r="C3" t="s">
-        <v>194</v>
-      </c>
       <c r="D3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B4" s="25">
         <v>44594</v>
       </c>
       <c r="C4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B5" s="25">
         <v>44595</v>
       </c>
       <c r="C5" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D5" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B6" s="25">
         <v>44600</v>
       </c>
       <c r="C6" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D6" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B7" s="25">
         <v>44602</v>
       </c>
       <c r="C7" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D7" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B8" s="25">
         <v>44602</v>
       </c>
       <c r="C8" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D8" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B9" s="25">
         <v>44602</v>
       </c>
       <c r="C9" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D9" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B10" s="25">
         <v>44602</v>
       </c>
       <c r="C10" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D10" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B11" s="25">
         <v>44603</v>
       </c>
       <c r="C11" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D11" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B12" s="25">
         <v>44605</v>
       </c>
       <c r="C12" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D12" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B13" s="25">
         <v>44605</v>
       </c>
       <c r="C13" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D13" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B14" s="25">
         <v>44605</v>
       </c>
       <c r="C14" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D14" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B15" s="25">
         <v>44635</v>
       </c>
       <c r="C15" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D15" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B16" s="25">
         <v>44643</v>
       </c>
       <c r="C16" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D16" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B17" s="25">
         <v>44643</v>
       </c>
       <c r="C17" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D17" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B18" s="25">
         <v>44643</v>
       </c>
       <c r="C18" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D18" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B19" s="25">
         <v>44656</v>
       </c>
       <c r="C19" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D19" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B20" s="25">
         <v>44657</v>
       </c>
       <c r="C20" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D20" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B21" s="25">
         <v>44657</v>
       </c>
       <c r="C21" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D21" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B22" s="25">
         <v>44680</v>
       </c>
       <c r="C22" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D22" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B23" s="25">
         <v>44680</v>
       </c>
       <c r="C23" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D23" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B24" s="25">
         <v>44690</v>
       </c>
       <c r="C24" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D24" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B25" s="25">
         <v>44695</v>
       </c>
       <c r="C25" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D25" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B26" s="25">
         <v>44701</v>
       </c>
       <c r="C26" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D26" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B27" s="25">
         <v>44701</v>
       </c>
       <c r="C27" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D27" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B28" s="25">
         <v>44712</v>
       </c>
       <c r="C28" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D28" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B29" s="25">
         <v>44727</v>
       </c>
       <c r="C29" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D29" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B30" s="25">
         <v>44734</v>
       </c>
       <c r="C30" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D30" t="s">
-        <v>425</v>
+        <v>424</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="5" t="s">
+        <v>437</v>
+      </c>
+      <c r="B31" s="25">
+        <v>44741</v>
+      </c>
+      <c r="C31" t="s">
+        <v>194</v>
+      </c>
+      <c r="D31" t="s">
+        <v>438</v>
       </c>
     </row>
   </sheetData>
@@ -5934,7 +6029,7 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="37" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -5942,19 +6037,19 @@
         <v>22</v>
       </c>
       <c r="E1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F1" t="s">
         <v>25</v>
       </c>
       <c r="G1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="H1" t="s">
+        <v>381</v>
+      </c>
+      <c r="I1" t="s">
         <v>382</v>
-      </c>
-      <c r="I1" t="s">
-        <v>383</v>
       </c>
       <c r="J1" t="s">
         <v>21</v>
@@ -5963,10 +6058,10 @@
         <v>24</v>
       </c>
       <c r="L1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="M1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5989,13 +6084,13 @@
         <v>13</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="H2" s="9" t="s">
         <v>7</v>
       </c>
       <c r="I2" s="24" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="J2" s="9" t="s">
         <v>6</v>
@@ -6015,7 +6110,7 @@
         <v>29</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>79</v>
@@ -6029,7 +6124,7 @@
         <v>29</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>80</v>
@@ -6043,10 +6138,10 @@
         <v>29</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D5">
         <v>75</v>
@@ -6081,7 +6176,7 @@
   <sheetData>
     <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="37" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B1" s="8" t="s">
         <v>1</v>
@@ -6093,7 +6188,7 @@
     <row r="2" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
       <c r="B2" s="15" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C2" s="9" t="s">
         <v>3</v>
@@ -6107,7 +6202,7 @@
         <v>125</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -6321,7 +6416,7 @@
       <pane xSplit="4" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E3" sqref="E3"/>
+      <selection pane="bottomRight" activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6345,7 +6440,7 @@
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="37" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -6354,19 +6449,19 @@
         <v>143</v>
       </c>
       <c r="F1" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="G1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="I1" t="s">
         <v>120</v>
       </c>
       <c r="J1" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="K1" t="s">
         <v>122</v>
@@ -6375,7 +6470,7 @@
         <v>124</v>
       </c>
       <c r="M1" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="P1" s="3"/>
       <c r="Q1" s="3"/>
@@ -6392,7 +6487,7 @@
         <v>58</v>
       </c>
       <c r="D2" s="19" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E2" s="9" t="s">
         <v>142</v>
@@ -6401,7 +6496,7 @@
         <v>18</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="H2" s="9" t="s">
         <v>113</v>
@@ -6419,7 +6514,7 @@
         <v>123</v>
       </c>
       <c r="M2" s="9" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="P2" s="3"/>
       <c r="Q2" s="3"/>
@@ -6430,13 +6525,13 @@
         <v>29</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D3" s="20" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -6453,13 +6548,13 @@
         <v>29</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D4" s="20" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -6473,13 +6568,13 @@
         <v>29</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D5" s="20" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -6490,13 +6585,13 @@
         <v>29</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D6" s="20" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -6510,33 +6605,33 @@
         <v>29</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D7" s="20" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E7">
         <v>1</v>
       </c>
       <c r="G7" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>405</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>406</v>
-      </c>
       <c r="C8" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D8" s="20" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -6544,16 +6639,16 @@
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>405</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>406</v>
-      </c>
       <c r="C9" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D9" s="20" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -6561,16 +6656,16 @@
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>405</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>406</v>
-      </c>
       <c r="C10" s="4" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D10" s="20" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -6605,7 +6700,7 @@
   <sheetData>
     <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="37" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B1" s="8" t="s">
         <v>1</v>
@@ -6617,7 +6712,7 @@
     <row r="2" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
       <c r="B2" s="15" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C2" s="9" t="s">
         <v>18</v>
@@ -6629,7 +6724,7 @@
         <v>125</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="4" spans="1:11" s="18" customFormat="1" x14ac:dyDescent="0.25">
@@ -6638,7 +6733,7 @@
         <v>58</v>
       </c>
       <c r="C4" s="18" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="5" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.25">
@@ -6646,10 +6741,10 @@
         <v>28</v>
       </c>
       <c r="B5" s="19" t="s">
+        <v>342</v>
+      </c>
+      <c r="C5" s="20" t="s">
         <v>343</v>
-      </c>
-      <c r="C5" s="20" t="s">
-        <v>344</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -6874,7 +6969,7 @@
   <sheetData>
     <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B1" s="8" t="s">
         <v>1</v>
@@ -6889,7 +6984,7 @@
         <v>29</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="2" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -6897,19 +6992,19 @@
         <v>28</v>
       </c>
       <c r="B2" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>147</v>
-      </c>
       <c r="D2" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -7348,12 +7443,12 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="37" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
       <c r="D1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -7364,10 +7459,10 @@
         <v>58</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
@@ -7381,13 +7476,13 @@
         <v>29</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>276</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>277</v>
-      </c>
       <c r="D3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
   </sheetData>
@@ -7420,12 +7515,12 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="37" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
       <c r="D1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -7436,10 +7531,10 @@
         <v>27</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
@@ -7456,10 +7551,10 @@
         <v>32</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
   </sheetData>
@@ -7493,13 +7588,13 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="37" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
       <c r="E1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -7513,10 +7608,10 @@
         <v>58</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
@@ -7530,16 +7625,16 @@
         <v>29</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C3" s="18" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -7547,16 +7642,16 @@
         <v>29</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C4" s="18" t="s">
+        <v>411</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>412</v>
       </c>
-      <c r="D4" s="4" t="s">
-        <v>413</v>
-      </c>
       <c r="E4" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
   </sheetData>
@@ -7568,466 +7663,6 @@
 </file>
 
 <file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6C017E3-B844-46CF-8B82-D76F5D9D7ACD}">
-  <dimension ref="A1:L4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A4" sqref="A4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="12.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" style="4" customWidth="1"/>
-    <col min="4" max="9" width="11.5703125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="37" t="s">
-        <v>251</v>
-      </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" t="s">
-        <v>320</v>
-      </c>
-      <c r="E1" t="s">
-        <v>159</v>
-      </c>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>145</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>300</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>158</v>
-      </c>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="D3" t="s">
-        <v>161</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>405</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>407</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>408</v>
-      </c>
-      <c r="D4" t="s">
-        <v>161</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A1" location="navigate!A1" display="navigate" xr:uid="{C203C3C8-4694-4AC0-9CF9-47EC8DF4B8CC}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EA1124C-4BD2-46D2-BD33-99ED754CAC73}">
-  <dimension ref="A1:M6"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="2" topLeftCell="F3" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="F1" sqref="F1"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F2" sqref="F2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="12.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="11.85546875" style="4" customWidth="1"/>
-    <col min="4" max="4" width="12.85546875" style="20" customWidth="1"/>
-    <col min="5" max="5" width="11.85546875" style="11" customWidth="1"/>
-    <col min="6" max="6" width="25.140625" customWidth="1"/>
-    <col min="7" max="10" width="11.5703125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="37" t="s">
-        <v>251</v>
-      </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" t="s">
-        <v>144</v>
-      </c>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="D2" s="19" t="s">
-        <v>343</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>145</v>
-      </c>
-      <c r="F2" s="9" t="s">
-        <v>426</v>
-      </c>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="D3" s="20" t="s">
-        <v>344</v>
-      </c>
-      <c r="E3" s="11" t="s">
-        <v>179</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="D4" s="20" t="s">
-        <v>345</v>
-      </c>
-      <c r="E4" s="11" t="s">
-        <v>179</v>
-      </c>
-      <c r="F4">
-        <v>-0.1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>405</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>406</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="D5" s="20" t="s">
-        <v>344</v>
-      </c>
-      <c r="E5" s="11" t="s">
-        <v>407</v>
-      </c>
-      <c r="F5">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>405</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>406</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="D6" s="20" t="s">
-        <v>344</v>
-      </c>
-      <c r="E6" s="11" t="s">
-        <v>407</v>
-      </c>
-      <c r="F6">
-        <v>4</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A1" location="navigate!A1" display="navigate" xr:uid="{78B97120-34C3-4DC8-81F9-9962A5568A9F}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB6AC2C8-7B82-4BFA-94A3-ECFAF63F0D5D}">
-  <dimension ref="A1:M11"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B4" sqref="B4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="21.85546875" style="9" customWidth="1"/>
-    <col min="2" max="21" width="14.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="37" t="s">
-        <v>251</v>
-      </c>
-      <c r="B1" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3"/>
-      <c r="B2" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>324</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>299</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>326</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>325</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>337</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>351</v>
-      </c>
-      <c r="I2" s="6" t="s">
-        <v>390</v>
-      </c>
-      <c r="J2" s="6" t="s">
-        <v>391</v>
-      </c>
-      <c r="K2" s="6" t="s">
-        <v>392</v>
-      </c>
-      <c r="L2" s="6" t="s">
-        <v>401</v>
-      </c>
-      <c r="M2" s="6" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
-        <v>329</v>
-      </c>
-      <c r="B3" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="C3" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="D3" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="E3" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="F3" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="G3" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="H3" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="I3" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="J3" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="K3" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="L3" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="M3" s="14" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
-        <v>328</v>
-      </c>
-      <c r="B4" s="14"/>
-      <c r="C4" s="14" t="s">
-        <v>324</v>
-      </c>
-      <c r="D4" s="14" t="s">
-        <v>299</v>
-      </c>
-      <c r="E4" s="14" t="s">
-        <v>326</v>
-      </c>
-      <c r="F4" t="s">
-        <v>325</v>
-      </c>
-      <c r="G4" t="s">
-        <v>299</v>
-      </c>
-      <c r="H4" t="s">
-        <v>351</v>
-      </c>
-      <c r="I4" t="s">
-        <v>390</v>
-      </c>
-      <c r="J4" t="s">
-        <v>390</v>
-      </c>
-      <c r="K4" t="s">
-        <v>390</v>
-      </c>
-      <c r="L4" t="s">
-        <v>402</v>
-      </c>
-      <c r="M4" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
-        <v>330</v>
-      </c>
-      <c r="B5" s="14"/>
-      <c r="G5" t="s">
-        <v>325</v>
-      </c>
-      <c r="J5" t="s">
-        <v>391</v>
-      </c>
-      <c r="K5" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="s">
-        <v>331</v>
-      </c>
-      <c r="B6" s="14"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="9" t="s">
-        <v>332</v>
-      </c>
-      <c r="B7" s="14"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="9" t="s">
-        <v>333</v>
-      </c>
-      <c r="B8" s="14"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="9" t="s">
-        <v>334</v>
-      </c>
-      <c r="B9" s="14"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="9" t="s">
-        <v>335</v>
-      </c>
-      <c r="B10" s="14"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="9" t="s">
-        <v>336</v>
-      </c>
-      <c r="B11" s="14"/>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A1" location="navigate!A1" display="navigate" xr:uid="{FDD9E80E-123C-4AC4-B1F5-39B155DC9906}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17A58EF0-B113-4E3B-A099-AB516EC20AF0}">
   <dimension ref="A1:S7"/>
   <sheetViews>
@@ -8063,11 +7698,11 @@
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="37" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D1" t="s">
         <v>41</v>
@@ -8076,7 +7711,7 @@
         <v>37</v>
       </c>
       <c r="F1" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="G1" t="s">
         <v>43</v>
@@ -8085,7 +7720,7 @@
         <v>47</v>
       </c>
       <c r="I1" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="J1" t="s">
         <v>45</v>
@@ -8094,7 +7729,7 @@
         <v>55</v>
       </c>
       <c r="L1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="M1" t="s">
         <v>39</v>
@@ -8106,16 +7741,16 @@
         <v>53</v>
       </c>
       <c r="P1" t="s">
+        <v>347</v>
+      </c>
+      <c r="Q1" t="s">
         <v>348</v>
       </c>
-      <c r="Q1" t="s">
-        <v>349</v>
-      </c>
       <c r="R1" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="S1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
@@ -8126,7 +7761,7 @@
         <v>57</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D2" s="9" t="s">
         <v>40</v>
@@ -8135,7 +7770,7 @@
         <v>36</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="G2" s="9" t="s">
         <v>42</v>
@@ -8153,7 +7788,7 @@
         <v>54</v>
       </c>
       <c r="L2" s="9" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="M2" s="9" t="s">
         <v>38</v>
@@ -8165,16 +7800,16 @@
         <v>52</v>
       </c>
       <c r="P2" s="9" t="s">
+        <v>345</v>
+      </c>
+      <c r="Q2" s="9" t="s">
         <v>346</v>
       </c>
-      <c r="Q2" s="9" t="s">
-        <v>347</v>
-      </c>
       <c r="R2" s="9" t="s">
+        <v>362</v>
+      </c>
+      <c r="S2" s="9" t="s">
         <v>363</v>
-      </c>
-      <c r="S2" s="9" t="s">
-        <v>364</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
@@ -8182,7 +7817,7 @@
         <v>29</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E3">
         <v>10</v>
@@ -8193,7 +7828,7 @@
         <v>29</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="H4">
         <v>200</v>
@@ -8210,24 +7845,24 @@
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="G5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="J5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="P6">
         <v>40</v>
@@ -8241,10 +7876,10 @@
         <v>29</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C7" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
   </sheetData>
@@ -8255,7 +7890,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA54FD9A-FB2F-4111-AC75-F20843B34F53}">
   <dimension ref="A1:M5"/>
   <sheetViews>
@@ -8283,7 +7918,7 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="37" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -8306,16 +7941,16 @@
         <v>51</v>
       </c>
       <c r="J1" t="s">
+        <v>347</v>
+      </c>
+      <c r="K1" t="s">
         <v>348</v>
       </c>
-      <c r="K1" t="s">
-        <v>349</v>
-      </c>
       <c r="L1" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="M1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
@@ -8347,16 +7982,16 @@
         <v>50</v>
       </c>
       <c r="J2" s="9" t="s">
+        <v>345</v>
+      </c>
+      <c r="K2" s="9" t="s">
         <v>346</v>
       </c>
-      <c r="K2" s="9" t="s">
-        <v>347</v>
-      </c>
       <c r="L2" s="9" t="s">
+        <v>362</v>
+      </c>
+      <c r="M2" s="9" t="s">
         <v>363</v>
-      </c>
-      <c r="M2" s="9" t="s">
-        <v>364</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
@@ -8364,7 +7999,7 @@
         <v>29</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>79</v>
@@ -8378,7 +8013,7 @@
         <v>29</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>80</v>
@@ -8392,10 +8027,10 @@
         <v>29</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G5">
         <v>20</v>
@@ -8409,7 +8044,210 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB6AC2C8-7B82-4BFA-94A3-ECFAF63F0D5D}">
+  <dimension ref="A1:M11"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21.85546875" style="9" customWidth="1"/>
+    <col min="2" max="21" width="14.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" s="37" t="s">
+        <v>250</v>
+      </c>
+      <c r="B1" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3"/>
+      <c r="B2" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>323</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>325</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>324</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>336</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>350</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>389</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>390</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>391</v>
+      </c>
+      <c r="L2" s="6" t="s">
+        <v>400</v>
+      </c>
+      <c r="M2" s="6" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="9" t="s">
+        <v>328</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="G3" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="H3" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="I3" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="J3" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="K3" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="L3" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="M3" s="14" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="9" t="s">
+        <v>327</v>
+      </c>
+      <c r="B4" s="14"/>
+      <c r="C4" s="14" t="s">
+        <v>323</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>298</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>325</v>
+      </c>
+      <c r="F4" t="s">
+        <v>324</v>
+      </c>
+      <c r="G4" t="s">
+        <v>298</v>
+      </c>
+      <c r="H4" t="s">
+        <v>350</v>
+      </c>
+      <c r="I4" t="s">
+        <v>389</v>
+      </c>
+      <c r="J4" t="s">
+        <v>389</v>
+      </c>
+      <c r="K4" t="s">
+        <v>389</v>
+      </c>
+      <c r="L4" t="s">
+        <v>401</v>
+      </c>
+      <c r="M4" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="9" t="s">
+        <v>329</v>
+      </c>
+      <c r="B5" s="14"/>
+      <c r="G5" t="s">
+        <v>324</v>
+      </c>
+      <c r="J5" t="s">
+        <v>390</v>
+      </c>
+      <c r="K5" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="9" t="s">
+        <v>330</v>
+      </c>
+      <c r="B6" s="14"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="9" t="s">
+        <v>331</v>
+      </c>
+      <c r="B7" s="14"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="9" t="s">
+        <v>332</v>
+      </c>
+      <c r="B8" s="14"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="9" t="s">
+        <v>333</v>
+      </c>
+      <c r="B9" s="14"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="9" t="s">
+        <v>334</v>
+      </c>
+      <c r="B10" s="14"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="9" t="s">
+        <v>335</v>
+      </c>
+      <c r="B11" s="14"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" location="navigate!A1" display="navigate" xr:uid="{FDD9E80E-123C-4AC4-B1F5-39B155DC9906}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B745B3BE-1539-44A7-9F68-00D8AEBADA46}">
   <dimension ref="A1:K1"/>
   <sheetViews>
@@ -8447,7 +8285,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15C65105-DA47-40FD-BED9-039766CD67C2}">
   <dimension ref="A1:L1"/>
   <sheetViews>
@@ -8489,7 +8327,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DF6F0B0-C8D9-4343-9EA4-859E87C9AF78}">
   <dimension ref="A1:K6"/>
   <sheetViews>
@@ -8524,42 +8362,42 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
   </sheetData>
@@ -8567,7 +8405,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5455887B-7914-47A3-A368-88187BB1082B}">
   <dimension ref="A1:K1"/>
   <sheetViews>
@@ -8605,7 +8443,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8ED891B-8A85-405F-972C-9B1BFE92F9B9}">
   <dimension ref="A1:L3"/>
   <sheetViews>
@@ -8644,24 +8482,24 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
   </sheetData>
@@ -8672,7 +8510,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB87FF22-BB83-4D5E-B38D-455D581CF757}">
   <dimension ref="A1:P3"/>
   <sheetViews>
@@ -8698,14 +8536,14 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="37" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
       <c r="F1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G1" t="s">
         <v>130</v>
@@ -8743,7 +8581,7 @@
         <v>58</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G2" s="9" t="s">
         <v>129</v>
@@ -8766,22 +8604,22 @@
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D3" s="11" t="s">
         <v>32</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -8798,7 +8636,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{866244AD-1571-447F-BAEE-EFE2B5B3F812}">
   <dimension ref="A1:O3"/>
   <sheetViews>
@@ -8824,22 +8662,22 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="37" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
       <c r="E1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="F1" t="s">
         <v>138</v>
       </c>
       <c r="G1" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="H1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="J1" s="3"/>
       <c r="K1" s="3"/>
@@ -8882,19 +8720,19 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C3" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="D3" s="11" t="s">
         <v>287</v>
       </c>
-      <c r="D3" s="11" t="s">
-        <v>288</v>
-      </c>
       <c r="E3" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="F3">
         <v>50</v>
@@ -8914,7 +8752,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E57CD72E-4345-442F-8DFC-A799FEED107D}">
   <dimension ref="A1:K29"/>
   <sheetViews>
@@ -8935,7 +8773,7 @@
   <sheetData>
     <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="37" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B1" s="8" t="s">
         <v>1</v>
@@ -8964,7 +8802,7 @@
         <v>28</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -9097,6 +8935,340 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E8C0D5E-7DB2-4BCF-8A8C-24C978AAECC4}">
+  <dimension ref="A1:P7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="5" ySplit="2" topLeftCell="F3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="F1" sqref="F1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="F2" sqref="F2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" style="4" customWidth="1"/>
+    <col min="4" max="4" width="11.85546875" style="11" customWidth="1"/>
+    <col min="5" max="5" width="11.85546875" style="13" customWidth="1"/>
+    <col min="6" max="6" width="14" customWidth="1"/>
+    <col min="7" max="7" width="22.140625" customWidth="1"/>
+    <col min="8" max="8" width="17.140625" customWidth="1"/>
+    <col min="9" max="9" width="12.140625" customWidth="1"/>
+    <col min="10" max="13" width="11.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A1" s="37" t="s">
+        <v>250</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" t="s">
+        <v>187</v>
+      </c>
+      <c r="G1" t="s">
+        <v>130</v>
+      </c>
+      <c r="H1" t="s">
+        <v>140</v>
+      </c>
+      <c r="I1" t="s">
+        <v>133</v>
+      </c>
+      <c r="J1" t="s">
+        <v>135</v>
+      </c>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>299</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="J2" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
+      <c r="P2" s="3"/>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>148</v>
+      </c>
+      <c r="F3" t="s">
+        <v>160</v>
+      </c>
+      <c r="I3">
+        <v>0.5</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>148</v>
+      </c>
+      <c r="F4" t="s">
+        <v>160</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>148</v>
+      </c>
+      <c r="F5" t="s">
+        <v>160</v>
+      </c>
+      <c r="I5">
+        <v>0.01</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>149</v>
+      </c>
+      <c r="F6" t="s">
+        <v>160</v>
+      </c>
+      <c r="I6">
+        <v>0.5</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>148</v>
+      </c>
+      <c r="F7" t="s">
+        <v>160</v>
+      </c>
+      <c r="I7">
+        <v>0.01</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" location="navigate!A1" display="navigate" xr:uid="{B2A6F1D1-6C16-4B66-9828-5A584405A522}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6C017E3-B844-46CF-8B82-D76F5D9D7ACD}">
+  <dimension ref="A1:L4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" style="4" customWidth="1"/>
+    <col min="4" max="9" width="11.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" s="37" t="s">
+        <v>250</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" t="s">
+        <v>319</v>
+      </c>
+      <c r="E1" t="s">
+        <v>158</v>
+      </c>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>299</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="D3" t="s">
+        <v>160</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>407</v>
+      </c>
+      <c r="D4" t="s">
+        <v>160</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" location="navigate!A1" display="navigate" xr:uid="{C203C3C8-4694-4AC0-9CF9-47EC8DF4B8CC}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -9125,15 +9297,15 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="37" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
       <c r="D1" t="s">
+        <v>165</v>
+      </c>
+      <c r="E1" t="s">
         <v>166</v>
-      </c>
-      <c r="E1" t="s">
-        <v>167</v>
       </c>
       <c r="F1" t="s">
         <v>77</v>
@@ -9153,16 +9325,16 @@
         <v>33</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F2" s="9" t="s">
+        <v>206</v>
+      </c>
+      <c r="G2" s="9" t="s">
         <v>207</v>
-      </c>
-      <c r="G2" s="9" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -9176,16 +9348,16 @@
         <v>79</v>
       </c>
       <c r="D3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E3" s="5">
         <v>0</v>
       </c>
       <c r="F3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -9199,18 +9371,18 @@
         <v>80</v>
       </c>
       <c r="D4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E4">
         <v>5</v>
       </c>
       <c r="G4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>34</v>
@@ -9219,18 +9391,18 @@
         <v>79</v>
       </c>
       <c r="D5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="G5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>34</v>
@@ -9239,38 +9411,38 @@
         <v>80</v>
       </c>
       <c r="D6" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E6">
         <v>5</v>
       </c>
       <c r="G6" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>79</v>
       </c>
       <c r="D7" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>35</v>
@@ -9279,53 +9451,53 @@
         <v>80</v>
       </c>
       <c r="D8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="G8" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>35</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D9" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E9">
         <v>5</v>
       </c>
       <c r="G9" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>80</v>
       </c>
       <c r="D10" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -9343,231 +9515,362 @@
 </file>
 
 <file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E8C0D5E-7DB2-4BCF-8A8C-24C978AAECC4}">
-  <dimension ref="A1:P7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BBE8270-58BA-4E52-BE5C-E66A62EB7AF6}">
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="5" ySplit="2" topLeftCell="F3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F2" sqref="F2"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="12.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" style="4" customWidth="1"/>
+    <col min="4" max="4" width="12.85546875" style="20" customWidth="1"/>
+    <col min="5" max="5" width="11.85546875" style="11" customWidth="1"/>
+    <col min="6" max="6" width="26.140625" customWidth="1"/>
+    <col min="7" max="10" width="11.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="37" t="s">
+        <v>250</v>
+      </c>
+      <c r="B1"/>
+      <c r="C1"/>
+      <c r="D1" s="3"/>
+      <c r="E1"/>
+      <c r="F1" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="D2" s="19" t="s">
+        <v>342</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="D3" s="20" t="s">
+        <v>343</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>178</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="D4" s="20" t="s">
+        <v>344</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>178</v>
+      </c>
+      <c r="F4">
+        <v>-0.1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="D5" s="20" t="s">
+        <v>343</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>406</v>
+      </c>
+      <c r="F5">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="D6" s="20" t="s">
+        <v>344</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>406</v>
+      </c>
+      <c r="F6">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" location="navigate!A1" display="navigate" xr:uid="{3BAB7130-CDE9-4992-B01D-61A1B1C5A93A}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88D4FAF7-E72B-4120-9C49-7208AF188C66}">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="4" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="F1" sqref="F1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="11.85546875" style="2" customWidth="1"/>
     <col min="3" max="3" width="11.85546875" style="4" customWidth="1"/>
     <col min="4" max="4" width="11.85546875" style="11" customWidth="1"/>
-    <col min="5" max="5" width="11.85546875" style="13" customWidth="1"/>
-    <col min="6" max="6" width="14" customWidth="1"/>
-    <col min="7" max="7" width="22.140625" customWidth="1"/>
-    <col min="8" max="8" width="17.140625" customWidth="1"/>
-    <col min="9" max="9" width="12.140625" customWidth="1"/>
-    <col min="10" max="13" width="11.5703125" customWidth="1"/>
+    <col min="5" max="5" width="26.140625" customWidth="1"/>
+    <col min="6" max="9" width="11.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="37" t="s">
-        <v>251</v>
-      </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" t="s">
-        <v>188</v>
-      </c>
-      <c r="G1" t="s">
-        <v>130</v>
-      </c>
-      <c r="H1" t="s">
-        <v>140</v>
-      </c>
-      <c r="I1" t="s">
-        <v>133</v>
-      </c>
-      <c r="J1" t="s">
-        <v>135</v>
-      </c>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3"/>
-      <c r="P1" s="3"/>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+        <v>250</v>
+      </c>
+      <c r="B1"/>
+      <c r="C1"/>
+      <c r="D1"/>
+      <c r="E1" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>127</v>
+        <v>27</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>128</v>
+        <v>58</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>125</v>
-      </c>
-      <c r="E2" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="F2" s="9" t="s">
-        <v>300</v>
-      </c>
-      <c r="G2" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="H2" s="9" t="s">
-        <v>131</v>
-      </c>
-      <c r="I2" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="J2" s="9" t="s">
-        <v>134</v>
-      </c>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
-      <c r="O2" s="3"/>
-      <c r="P2" s="3"/>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>390</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>291</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>287</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>152</v>
-      </c>
-      <c r="E3" s="13" t="s">
-        <v>149</v>
-      </c>
-      <c r="F3" t="s">
-        <v>161</v>
-      </c>
-      <c r="I3">
-        <v>0.5</v>
-      </c>
-      <c r="J3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>391</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>291</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>287</v>
-      </c>
-      <c r="D4" s="11" t="s">
-        <v>153</v>
-      </c>
-      <c r="E4" s="13" t="s">
-        <v>149</v>
-      </c>
-      <c r="F4" t="s">
-        <v>161</v>
-      </c>
-      <c r="I4">
-        <v>1</v>
-      </c>
-      <c r="J4">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>391</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>291</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>287</v>
-      </c>
-      <c r="D5" s="11" t="s">
-        <v>152</v>
-      </c>
-      <c r="E5" s="13" t="s">
-        <v>149</v>
-      </c>
-      <c r="F5" t="s">
-        <v>161</v>
-      </c>
-      <c r="I5">
-        <v>0.01</v>
-      </c>
-      <c r="J5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>392</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>291</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>287</v>
-      </c>
-      <c r="D6" s="11" t="s">
-        <v>164</v>
-      </c>
-      <c r="E6" s="13" t="s">
-        <v>150</v>
-      </c>
-      <c r="F6" t="s">
-        <v>161</v>
-      </c>
-      <c r="I6">
-        <v>0.5</v>
-      </c>
-      <c r="J6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>392</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>291</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>287</v>
-      </c>
-      <c r="D7" s="11" t="s">
-        <v>152</v>
-      </c>
-      <c r="E7" s="13" t="s">
-        <v>149</v>
-      </c>
-      <c r="F7" t="s">
-        <v>161</v>
-      </c>
-      <c r="I7">
-        <v>0.01</v>
-      </c>
-      <c r="J7">
-        <v>1</v>
+        <v>144</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>425</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A1" location="navigate!A1" display="navigate" xr:uid="{B2A6F1D1-6C16-4B66-9828-5A584405A522}"/>
+    <hyperlink ref="A1" location="navigate!A1" display="navigate" xr:uid="{EB527440-CEEF-48D5-933E-3566A68691AA}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF0A3667-1C00-43CD-99E7-8F765FEBD719}">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="F1" sqref="F1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" style="11" customWidth="1"/>
+    <col min="4" max="4" width="26.140625" customWidth="1"/>
+    <col min="5" max="5" width="29.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="11.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="37" t="s">
+        <v>250</v>
+      </c>
+      <c r="B1"/>
+      <c r="C1"/>
+      <c r="D1" t="s">
+        <v>428</v>
+      </c>
+      <c r="E1" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>430</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>431</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" location="navigate!A1" display="navigate" xr:uid="{FCA83055-E904-411E-A315-726AEA09DEBE}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39F3B7BE-4684-48D7-BC4B-4457FF4B8D3D}">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="F1" sqref="F1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" style="11" customWidth="1"/>
+    <col min="4" max="4" width="29.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="11.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="37" t="s">
+        <v>250</v>
+      </c>
+      <c r="B1"/>
+      <c r="C1"/>
+      <c r="D1" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>431</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" location="navigate!A1" display="navigate" xr:uid="{7FECFB23-3CE7-4B8F-8DF6-BC1F5473CDDB}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D55AA85F-4B1E-49C3-94EB-B0A94205CD7C}">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="F1" sqref="F1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" style="11" customWidth="1"/>
+    <col min="4" max="4" width="29.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="11.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="37" t="s">
+        <v>250</v>
+      </c>
+      <c r="B1"/>
+      <c r="C1"/>
+      <c r="D1" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>431</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" location="navigate!A1" display="navigate" xr:uid="{912EF3DE-01D5-4B59-B92E-4C5F67ECDC60}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -9596,14 +9899,14 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="37" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D1" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="2" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -9614,10 +9917,10 @@
         <v>78</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -9631,13 +9934,13 @@
         <v>81</v>
       </c>
       <c r="D3" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="F3" s="5"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>34</v>
@@ -9646,26 +9949,26 @@
         <v>81</v>
       </c>
       <c r="D4" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D5" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>35</v>
@@ -9674,65 +9977,65 @@
         <v>81</v>
       </c>
       <c r="D6" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D7" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>34</v>
       </c>
       <c r="D8" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="D9" t="s">
         <v>402</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="D9" t="s">
-        <v>403</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>35</v>
       </c>
       <c r="D10" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="D11" t="s">
         <v>402</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="D11" t="s">
-        <v>403</v>
       </c>
     </row>
   </sheetData>
@@ -9766,7 +10069,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="37" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -9779,13 +10082,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>83</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -9793,7 +10096,7 @@
         <v>29</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>30</v>
@@ -9807,7 +10110,7 @@
         <v>29</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>30</v>
@@ -9847,12 +10150,12 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="37" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
       <c r="D1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="2" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -9863,10 +10166,10 @@
         <v>106</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -10238,7 +10541,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="37" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" t="s">
@@ -10295,7 +10598,7 @@
   <sheetData>
     <row r="1" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B1" s="7" t="s">
         <v>106</v>
@@ -10303,7 +10606,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>107</v>
@@ -10311,7 +10614,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>107</v>

--- a/FlexTool_import_template.xlsx
+++ b/FlexTool_import_template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\data\Toolbox_projects\FlexTool3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{915369DC-7E2C-43F6-9D46-B66ED24A38DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDAD5DBE-0F67-4664-95FB-A333660967A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21240" tabRatio="1000" xr2:uid="{D5BEC09F-8FA9-46E6-8F36-396DCDACE376}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21240" tabRatio="1000" activeTab="9" xr2:uid="{D5BEC09F-8FA9-46E6-8F36-396DCDACE376}"/>
   </bookViews>
   <sheets>
     <sheet name="navigate" sheetId="54" r:id="rId1"/>
@@ -205,7 +205,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1291" uniqueCount="440">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1308" uniqueCount="457">
   <si>
     <t>commodity</t>
   </si>
@@ -1525,6 +1525,57 @@
   </si>
   <si>
     <t>connection_node_constraint_c</t>
+  </si>
+  <si>
+    <t>storage_binding_method</t>
+  </si>
+  <si>
+    <t>Choice how the storage state will be maintained between periods. 'bind_within_period' will bind the end level to the beginning of the same period. 'bind_between_periods' will bind the end level to the beginning of the next period.</t>
+  </si>
+  <si>
+    <t>storage_state_start</t>
+  </si>
+  <si>
+    <t>[0-1] Relative state of storage at the beginning of the first model solve (irrespective of when the model starts). Constant.</t>
+  </si>
+  <si>
+    <t>storate_state_end</t>
+  </si>
+  <si>
+    <t>[0-1] Relative state of storage at the end of the last model solve (overrides 'storage_state_end_reference'). Constant.</t>
+  </si>
+  <si>
+    <t>[0-1] Relative state of storage at then end of each solve (can be overwritten in the next solve). Constant.</t>
+  </si>
+  <si>
+    <t>storage_start_end_method</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Choice whether the start and end states of storage are fixed in the beginning and end of the whole model timeline (not between solves). Uses 'storage_state_start' and 'storage_state_end'. </t>
+  </si>
+  <si>
+    <t>storage_solve_horizon_method</t>
+  </si>
+  <si>
+    <t>Choice how to treat storage state at the end of time horizon of each solve. ''free'' lets the model choose the end state. ''use_reference_value'' forces the end state to the specific value set in ''storage_state_reference_value''. ''use_reference_price'' gives the storage state a price in the objective function based on the ''storage_state_reference_price''. '</t>
+  </si>
+  <si>
+    <t>storage_state_reference_value</t>
+  </si>
+  <si>
+    <t>storage_state_reference_price</t>
+  </si>
+  <si>
+    <t>[CUR/MWh] Price for the stored energy at the end of the solve horizon. Requires 'use_reference_price' in 'storage_solve_horizon_method'. Constant or period.</t>
+  </si>
+  <si>
+    <t>fix_start</t>
+  </si>
+  <si>
+    <t>bind_between_timeblocks</t>
+  </si>
+  <si>
+    <t>use_reference_value</t>
   </si>
 </sst>
 </file>
@@ -2538,10 +2589,10 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>23</xdr:col>
+      <xdr:col>30</xdr:col>
       <xdr:colOff>371475</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="8092152" cy="1395318"/>
     <xdr:sp macro="" textlink="">
@@ -2557,7 +2608,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="16392525" y="542925"/>
+          <a:off x="22488525" y="695325"/>
           <a:ext cx="8092152" cy="1395318"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3156,7 +3207,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F991596-B8AE-4F8F-B051-2E61303D5CC8}">
   <dimension ref="A1:E38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3514,43 +3567,48 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A4889F5-3956-475B-A853-BA105023BA1D}">
-  <dimension ref="A1:W8"/>
+  <dimension ref="A1:AD8"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E1" sqref="E1"/>
+      <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12.85546875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="16.42578125" style="2" customWidth="1"/>
     <col min="3" max="3" width="9.140625" customWidth="1"/>
     <col min="4" max="4" width="11.7109375" customWidth="1"/>
     <col min="5" max="5" width="15" customWidth="1"/>
     <col min="6" max="6" width="10" customWidth="1"/>
     <col min="7" max="7" width="15" customWidth="1"/>
-    <col min="8" max="8" width="12" customWidth="1"/>
-    <col min="9" max="9" width="9" customWidth="1"/>
-    <col min="10" max="10" width="13.7109375" customWidth="1"/>
-    <col min="11" max="11" width="11.7109375" customWidth="1"/>
-    <col min="12" max="12" width="9.5703125" customWidth="1"/>
-    <col min="13" max="13" width="10.5703125" customWidth="1"/>
-    <col min="14" max="14" width="10.28515625" customWidth="1"/>
-    <col min="15" max="15" width="10.140625" style="14" customWidth="1"/>
-    <col min="16" max="16" width="9.85546875" style="14" customWidth="1"/>
-    <col min="17" max="17" width="10.85546875" style="14" customWidth="1"/>
-    <col min="18" max="18" width="13.42578125" customWidth="1"/>
-    <col min="19" max="19" width="12.7109375" style="14" customWidth="1"/>
-    <col min="20" max="20" width="10.5703125" customWidth="1"/>
-    <col min="21" max="21" width="8.140625" customWidth="1"/>
-    <col min="22" max="22" width="18.140625" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" customWidth="1"/>
+    <col min="8" max="8" width="23.140625" customWidth="1"/>
+    <col min="9" max="9" width="25.140625" customWidth="1"/>
+    <col min="10" max="10" width="29.28515625" customWidth="1"/>
+    <col min="11" max="11" width="12" customWidth="1"/>
+    <col min="12" max="12" width="9" customWidth="1"/>
+    <col min="13" max="13" width="13.7109375" customWidth="1"/>
+    <col min="14" max="14" width="11.7109375" customWidth="1"/>
+    <col min="15" max="15" width="9.5703125" customWidth="1"/>
+    <col min="16" max="16" width="10.5703125" customWidth="1"/>
+    <col min="17" max="17" width="10.28515625" customWidth="1"/>
+    <col min="18" max="18" width="10.140625" style="14" customWidth="1"/>
+    <col min="19" max="19" width="9.85546875" style="14" customWidth="1"/>
+    <col min="20" max="20" width="10.85546875" style="14" customWidth="1"/>
+    <col min="21" max="21" width="13.42578125" customWidth="1"/>
+    <col min="22" max="22" width="12.7109375" style="14" customWidth="1"/>
+    <col min="23" max="23" width="10.5703125" customWidth="1"/>
+    <col min="24" max="24" width="8.140625" customWidth="1"/>
+    <col min="25" max="26" width="18.140625" customWidth="1"/>
+    <col min="27" max="27" width="16.85546875" customWidth="1"/>
+    <col min="28" max="29" width="29.140625" customWidth="1"/>
+    <col min="30" max="30" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A1" s="37" t="s">
         <v>250</v>
       </c>
@@ -3571,55 +3629,76 @@
         <v>186</v>
       </c>
       <c r="H1" t="s">
+        <v>441</v>
+      </c>
+      <c r="I1" t="s">
+        <v>448</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>450</v>
+      </c>
+      <c r="K1" t="s">
         <v>155</v>
       </c>
-      <c r="I1" t="s">
+      <c r="L1" t="s">
         <v>171</v>
       </c>
-      <c r="J1" t="s">
+      <c r="M1" t="s">
         <v>367</v>
       </c>
-      <c r="K1" t="s">
+      <c r="N1" t="s">
         <v>368</v>
       </c>
-      <c r="L1" t="s">
+      <c r="O1" t="s">
         <v>68</v>
       </c>
-      <c r="M1" t="s">
+      <c r="P1" t="s">
         <v>71</v>
       </c>
-      <c r="N1" t="s">
+      <c r="Q1" t="s">
         <v>301</v>
       </c>
-      <c r="O1" t="s">
+      <c r="R1" t="s">
         <v>72</v>
       </c>
-      <c r="P1" t="s">
+      <c r="S1" t="s">
         <v>302</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="T1" t="s">
         <v>369</v>
       </c>
-      <c r="R1" t="s">
+      <c r="U1" t="s">
         <v>370</v>
       </c>
-      <c r="S1" t="s">
+      <c r="V1" t="s">
         <v>21</v>
       </c>
-      <c r="T1" t="s">
+      <c r="W1" t="s">
         <v>371</v>
       </c>
-      <c r="U1" t="s">
+      <c r="X1" t="s">
         <v>24</v>
       </c>
-      <c r="V1" t="s">
+      <c r="Y1" t="s">
         <v>73</v>
       </c>
-      <c r="W1" t="s">
+      <c r="Z1" t="s">
+        <v>443</v>
+      </c>
+      <c r="AA1" s="5" t="s">
+        <v>445</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>446</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>453</v>
+      </c>
+      <c r="AD1" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="2" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>1</v>
       </c>
@@ -3642,55 +3721,76 @@
         <v>11</v>
       </c>
       <c r="H2" s="9" t="s">
+        <v>440</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>447</v>
+      </c>
+      <c r="J2" s="9" t="s">
+        <v>449</v>
+      </c>
+      <c r="K2" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="I2" s="9" t="s">
+      <c r="L2" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="J2" s="9" t="s">
+      <c r="M2" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="K2" s="9" t="s">
+      <c r="N2" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="L2" s="9" t="s">
+      <c r="O2" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="M2" s="9" t="s">
+      <c r="P2" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="N2" s="9" t="s">
+      <c r="Q2" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="O2" s="9" t="s">
+      <c r="R2" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="P2" s="9" t="s">
+      <c r="S2" s="9" t="s">
         <v>303</v>
       </c>
-      <c r="Q2" s="9" t="s">
+      <c r="T2" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="R2" s="24" t="s">
+      <c r="U2" s="24" t="s">
         <v>254</v>
       </c>
-      <c r="S2" s="9" t="s">
+      <c r="V2" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="T2" s="9" t="s">
+      <c r="W2" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="U2" s="9" t="s">
+      <c r="X2" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="V2" s="9" t="s">
+      <c r="Y2" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="W2" s="9" t="s">
+      <c r="Z2" s="9" t="s">
+        <v>442</v>
+      </c>
+      <c r="AA2" s="9" t="s">
+        <v>444</v>
+      </c>
+      <c r="AB2" s="9" t="s">
+        <v>451</v>
+      </c>
+      <c r="AC2" s="9" t="s">
+        <v>452</v>
+      </c>
+      <c r="AD2" s="9" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>29</v>
       </c>
@@ -3710,14 +3810,14 @@
       <c r="G3" t="s">
         <v>147</v>
       </c>
-      <c r="J3">
+      <c r="M3">
         <v>10000</v>
       </c>
-      <c r="K3">
+      <c r="N3">
         <v>10000</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>29</v>
       </c>
@@ -3737,18 +3837,18 @@
       <c r="G4" t="s">
         <v>147</v>
       </c>
-      <c r="H4">
+      <c r="K4">
         <f>100*8760</f>
         <v>876000</v>
       </c>
-      <c r="J4">
+      <c r="M4">
         <v>10000</v>
       </c>
-      <c r="K4">
+      <c r="N4">
         <v>10000</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>29</v>
       </c>
@@ -3761,14 +3861,14 @@
       <c r="G5" t="s">
         <v>147</v>
       </c>
-      <c r="J5">
+      <c r="M5">
         <v>10000</v>
       </c>
-      <c r="K5">
+      <c r="N5">
         <v>10000</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>29</v>
       </c>
@@ -3781,14 +3881,14 @@
       <c r="G6" t="s">
         <v>147</v>
       </c>
-      <c r="J6">
+      <c r="M6">
         <v>10000</v>
       </c>
-      <c r="K6">
+      <c r="N6">
         <v>10000</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>298</v>
       </c>
@@ -3807,20 +3907,35 @@
       <c r="G7" t="s">
         <v>147</v>
       </c>
-      <c r="J7">
+      <c r="H7" t="s">
+        <v>455</v>
+      </c>
+      <c r="I7" t="s">
+        <v>454</v>
+      </c>
+      <c r="J7" t="s">
+        <v>456</v>
+      </c>
+      <c r="M7">
         <v>12000</v>
       </c>
-      <c r="K7">
+      <c r="N7">
         <v>12000</v>
       </c>
-      <c r="L7">
+      <c r="O7">
         <v>20</v>
       </c>
-      <c r="V7">
+      <c r="Y7">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Z7">
+        <v>0.1</v>
+      </c>
+      <c r="AB7">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>404</v>
       </c>
@@ -3833,13 +3948,13 @@
       <c r="G8" t="s">
         <v>147</v>
       </c>
-      <c r="J8">
+      <c r="M8">
         <v>12000</v>
       </c>
-      <c r="K8">
+      <c r="N8">
         <v>12000</v>
       </c>
-      <c r="L8">
+      <c r="O8">
         <v>1000</v>
       </c>
     </row>

--- a/FlexTool_import_template.xlsx
+++ b/FlexTool_import_template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\data\Toolbox_projects\FlexTool3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDAD5DBE-0F67-4664-95FB-A333660967A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB35B2E9-E85D-4BBE-811F-52105385FCDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21240" tabRatio="1000" activeTab="9" xr2:uid="{D5BEC09F-8FA9-46E6-8F36-396DCDACE376}"/>
+    <workbookView xWindow="16215" yWindow="2460" windowWidth="23010" windowHeight="13800" tabRatio="1000" activeTab="9" xr2:uid="{D5BEC09F-8FA9-46E6-8F36-396DCDACE376}"/>
   </bookViews>
   <sheets>
     <sheet name="navigate" sheetId="54" r:id="rId1"/>
@@ -1530,9 +1530,6 @@
     <t>storage_binding_method</t>
   </si>
   <si>
-    <t>Choice how the storage state will be maintained between periods. 'bind_within_period' will bind the end level to the beginning of the same period. 'bind_between_periods' will bind the end level to the beginning of the next period.</t>
-  </si>
-  <si>
     <t>storage_state_start</t>
   </si>
   <si>
@@ -1557,9 +1554,6 @@
     <t>storage_solve_horizon_method</t>
   </si>
   <si>
-    <t>Choice how to treat storage state at the end of time horizon of each solve. ''free'' lets the model choose the end state. ''use_reference_value'' forces the end state to the specific value set in ''storage_state_reference_value''. ''use_reference_price'' gives the storage state a price in the objective function based on the ''storage_state_reference_price''. '</t>
-  </si>
-  <si>
     <t>storage_state_reference_value</t>
   </si>
   <si>
@@ -1572,10 +1566,16 @@
     <t>fix_start</t>
   </si>
   <si>
-    <t>bind_between_timeblocks</t>
-  </si>
-  <si>
     <t>use_reference_value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Choice how to treat storage state at the end of time horizon of each solve. 'free' lets the model choose the end state. 'use_reference_value' forces the end state to the specific value set in 'storage_state_reference_value'. 'use_reference_price' gives the storage state a price in the objective function based on the 'storage_state_reference_price'. </t>
+  </si>
+  <si>
+    <t>Choice how the storage state will be maintained over discontinuos timelines. Default 'bind_within_timeblocks' will bind the storage end state at the end of the timeblock to the beginning of the timeblock. 'bind_within_period', 'bind_within_solve' and bind_within_model' will act similarly but over increasingly longer time span. Meanwhile 'bind_forward_only' will bind forward over any holes in the used timeline, but will not bind end to the start. Separate parameters (e.g. 'storage_state_start') can force bindings.</t>
+  </si>
+  <si>
+    <t>bind_within_timeblocks</t>
   </si>
 </sst>
 </file>
@@ -3629,13 +3629,13 @@
         <v>186</v>
       </c>
       <c r="H1" t="s">
-        <v>441</v>
+        <v>455</v>
       </c>
       <c r="I1" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="K1" t="s">
         <v>155</v>
@@ -3683,16 +3683,16 @@
         <v>73</v>
       </c>
       <c r="Z1" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="AA1" s="5" t="s">
+        <v>444</v>
+      </c>
+      <c r="AB1" t="s">
         <v>445</v>
       </c>
-      <c r="AB1" t="s">
-        <v>446</v>
-      </c>
       <c r="AC1" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="AD1" t="s">
         <v>74</v>
@@ -3724,10 +3724,10 @@
         <v>440</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="K2" s="9" t="s">
         <v>59</v>
@@ -3775,16 +3775,16 @@
         <v>65</v>
       </c>
       <c r="Z2" s="9" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="AA2" s="9" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="AB2" s="9" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="AC2" s="9" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="AD2" s="9" t="s">
         <v>66</v>
@@ -3908,13 +3908,13 @@
         <v>147</v>
       </c>
       <c r="H7" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="I7" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="J7" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="M7">
         <v>12000</v>

--- a/FlexTool_import_template.xlsx
+++ b/FlexTool_import_template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\data\Toolbox_projects\FlexTool3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDAD5DBE-0F67-4664-95FB-A333660967A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B86ACC96-05B8-4BCE-BFEE-4E7B883E3AFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21240" tabRatio="1000" activeTab="9" xr2:uid="{D5BEC09F-8FA9-46E6-8F36-396DCDACE376}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21240" tabRatio="1000" firstSheet="11" activeTab="39" xr2:uid="{D5BEC09F-8FA9-46E6-8F36-396DCDACE376}"/>
   </bookViews>
   <sheets>
     <sheet name="navigate" sheetId="54" r:id="rId1"/>
@@ -3569,7 +3569,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A4889F5-3956-475B-A853-BA105023BA1D}">
   <dimension ref="A1:AD8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
@@ -6531,14 +6531,14 @@
       <pane xSplit="4" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D1" sqref="D1:D1048576"/>
+      <selection pane="bottomRight" activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="17.85546875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="13.140625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="18.28515625" style="4" customWidth="1"/>
     <col min="4" max="4" width="12.5703125" style="20" customWidth="1"/>
     <col min="5" max="5" width="11.140625" customWidth="1"/>
     <col min="6" max="6" width="13.28515625" customWidth="1"/>
@@ -9633,11 +9633,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BBE8270-58BA-4E52-BE5C-E66A62EB7AF6}">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="5" ySplit="2" topLeftCell="F3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9754,7 +9754,7 @@
         <v>148</v>
       </c>
       <c r="D6" s="20" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="E6" s="11" t="s">
         <v>406</v>

--- a/FlexTool_import_template.xlsx
+++ b/FlexTool_import_template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\data\Toolbox_projects\FlexTool3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B86ACC96-05B8-4BCE-BFEE-4E7B883E3AFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59471DED-C27B-47EC-91C2-6EFEA8EE4E49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21240" tabRatio="1000" firstSheet="11" activeTab="39" xr2:uid="{D5BEC09F-8FA9-46E6-8F36-396DCDACE376}"/>
+    <workbookView xWindow="3900" yWindow="3900" windowWidth="38700" windowHeight="15435" tabRatio="1000" xr2:uid="{D5BEC09F-8FA9-46E6-8F36-396DCDACE376}"/>
   </bookViews>
   <sheets>
     <sheet name="navigate" sheetId="54" r:id="rId1"/>
@@ -1071,9 +1071,6 @@
     <t>JustA</t>
   </si>
   <si>
-    <t>Choice of reserve method: no_reserve, timeseries_only, dynamic_only, both</t>
-  </si>
-  <si>
     <t>timeseries_only</t>
   </si>
   <si>
@@ -1576,6 +1573,9 @@
   </si>
   <si>
     <t>use_reference_value</t>
+  </si>
+  <si>
+    <t>Choice of reserve method: no_reserve, timeseries_only, dynamic_only, large_failure_only, timeseries_and_dynamic, timeseries_and_large_failure, dynamic_and_large_failure, all</t>
   </si>
 </sst>
 </file>
@@ -3207,9 +3207,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F991596-B8AE-4F8F-B051-2E61303D5CC8}">
   <dimension ref="A1:E38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3238,7 +3236,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="43" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B3" s="43"/>
       <c r="C3" s="43"/>
@@ -3485,28 +3483,28 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="48" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B35" s="48"/>
       <c r="C35" s="48"/>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="48" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B36" s="48"/>
       <c r="C36" s="48"/>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="48" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B37" s="48"/>
       <c r="C37" s="48"/>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="48" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B38" s="48"/>
       <c r="C38" s="48"/>
@@ -3614,13 +3612,13 @@
       </c>
       <c r="B1" s="3"/>
       <c r="C1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D1" t="s">
         <v>183</v>
       </c>
       <c r="E1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="F1" t="s">
         <v>184</v>
@@ -3629,13 +3627,13 @@
         <v>186</v>
       </c>
       <c r="H1" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="I1" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="K1" t="s">
         <v>155</v>
@@ -3644,10 +3642,10 @@
         <v>171</v>
       </c>
       <c r="M1" t="s">
+        <v>366</v>
+      </c>
+      <c r="N1" t="s">
         <v>367</v>
-      </c>
-      <c r="N1" t="s">
-        <v>368</v>
       </c>
       <c r="O1" t="s">
         <v>68</v>
@@ -3656,25 +3654,25 @@
         <v>71</v>
       </c>
       <c r="Q1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="R1" t="s">
         <v>72</v>
       </c>
       <c r="S1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="T1" t="s">
+        <v>368</v>
+      </c>
+      <c r="U1" t="s">
         <v>369</v>
-      </c>
-      <c r="U1" t="s">
-        <v>370</v>
       </c>
       <c r="V1" t="s">
         <v>21</v>
       </c>
       <c r="W1" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="X1" t="s">
         <v>24</v>
@@ -3683,16 +3681,16 @@
         <v>73</v>
       </c>
       <c r="Z1" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="AA1" s="5" t="s">
+        <v>444</v>
+      </c>
+      <c r="AB1" t="s">
         <v>445</v>
       </c>
-      <c r="AB1" t="s">
-        <v>446</v>
-      </c>
       <c r="AC1" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="AD1" t="s">
         <v>74</v>
@@ -3706,7 +3704,7 @@
         <v>58</v>
       </c>
       <c r="C2" s="24" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D2" s="9" t="s">
         <v>60</v>
@@ -3721,13 +3719,13 @@
         <v>11</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="K2" s="9" t="s">
         <v>59</v>
@@ -3754,7 +3752,7 @@
         <v>14</v>
       </c>
       <c r="S2" s="9" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="T2" s="9" t="s">
         <v>7</v>
@@ -3775,16 +3773,16 @@
         <v>65</v>
       </c>
       <c r="Z2" s="9" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="AA2" s="9" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="AB2" s="9" t="s">
+        <v>450</v>
+      </c>
+      <c r="AC2" s="9" t="s">
         <v>451</v>
-      </c>
-      <c r="AC2" s="9" t="s">
-        <v>452</v>
       </c>
       <c r="AD2" s="9" t="s">
         <v>66</v>
@@ -3804,7 +3802,7 @@
         <v>160</v>
       </c>
       <c r="E3" s="14" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="F3" s="14"/>
       <c r="G3" t="s">
@@ -3831,7 +3829,7 @@
         <v>160</v>
       </c>
       <c r="E4" s="14" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="F4" s="14"/>
       <c r="G4" t="s">
@@ -3890,7 +3888,7 @@
     </row>
     <row r="7" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>275</v>
@@ -3908,13 +3906,13 @@
         <v>147</v>
       </c>
       <c r="H7" t="s">
+        <v>454</v>
+      </c>
+      <c r="I7" t="s">
+        <v>453</v>
+      </c>
+      <c r="J7" t="s">
         <v>455</v>
-      </c>
-      <c r="I7" t="s">
-        <v>454</v>
-      </c>
-      <c r="J7" t="s">
-        <v>456</v>
       </c>
       <c r="M7">
         <v>12000</v>
@@ -3937,10 +3935,10 @@
     </row>
     <row r="8" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C8" s="14" t="s">
         <v>160</v>
@@ -4011,19 +4009,19 @@
         <v>70</v>
       </c>
       <c r="G1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="H1" t="s">
+        <v>371</v>
+      </c>
+      <c r="I1" t="s">
         <v>372</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
+        <v>368</v>
+      </c>
+      <c r="K1" t="s">
         <v>373</v>
-      </c>
-      <c r="J1" t="s">
-        <v>369</v>
-      </c>
-      <c r="K1" t="s">
-        <v>374</v>
       </c>
       <c r="L1" t="s">
         <v>21</v>
@@ -4032,7 +4030,7 @@
         <v>24</v>
       </c>
       <c r="N1" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4061,7 +4059,7 @@
         <v>13</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="J2" s="9" t="s">
         <v>7</v>
@@ -4493,7 +4491,7 @@
         <v>75</v>
       </c>
       <c r="D1" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -4569,7 +4567,7 @@
       <c r="B1"/>
       <c r="C1"/>
       <c r="D1" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -4733,7 +4731,7 @@
       <c r="C1" s="37"/>
       <c r="D1" s="3"/>
       <c r="E1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F1" t="s">
         <v>180</v>
@@ -4757,19 +4755,19 @@
         <v>23</v>
       </c>
       <c r="M1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="N1" t="s">
         <v>26</v>
       </c>
       <c r="O1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="P1" t="s">
+        <v>376</v>
+      </c>
+      <c r="Q1" t="s">
         <v>377</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>378</v>
       </c>
       <c r="R1" t="s">
         <v>21</v>
@@ -4778,10 +4776,10 @@
         <v>24</v>
       </c>
       <c r="T1" t="s">
+        <v>378</v>
+      </c>
+      <c r="U1" t="s">
         <v>379</v>
-      </c>
-      <c r="U1" t="s">
-        <v>380</v>
       </c>
       <c r="V1" t="s">
         <v>19</v>
@@ -4801,7 +4799,7 @@
         <v>282</v>
       </c>
       <c r="E2" s="24" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="F2" s="9" t="s">
         <v>17</v>
@@ -4813,7 +4811,7 @@
         <v>11</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="J2" s="9" t="s">
         <v>15</v>
@@ -4831,7 +4829,7 @@
         <v>14</v>
       </c>
       <c r="O2" s="9" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="P2" s="9" t="s">
         <v>7</v>
@@ -4901,7 +4899,7 @@
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>274</v>
@@ -4933,7 +4931,7 @@
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>32</v>
@@ -4945,7 +4943,7 @@
         <v>149</v>
       </c>
       <c r="H5" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
   </sheetData>
@@ -4994,19 +4992,19 @@
         <v>22</v>
       </c>
       <c r="E1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="F1" t="s">
         <v>25</v>
       </c>
       <c r="G1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="H1" t="s">
+        <v>376</v>
+      </c>
+      <c r="I1" t="s">
         <v>377</v>
-      </c>
-      <c r="I1" t="s">
-        <v>378</v>
       </c>
       <c r="J1" t="s">
         <v>21</v>
@@ -5015,7 +5013,7 @@
         <v>24</v>
       </c>
       <c r="L1" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
@@ -5038,7 +5036,7 @@
         <v>13</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="H2" s="9" t="s">
         <v>7</v>
@@ -5403,10 +5401,10 @@
       </c>
       <c r="B1" s="3"/>
       <c r="C1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E1" t="s">
         <v>181</v>
@@ -5424,19 +5422,19 @@
         <v>23</v>
       </c>
       <c r="J1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="K1" t="s">
         <v>26</v>
       </c>
       <c r="L1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="M1" t="s">
+        <v>380</v>
+      </c>
+      <c r="N1" t="s">
         <v>381</v>
-      </c>
-      <c r="N1" t="s">
-        <v>382</v>
       </c>
       <c r="O1" t="s">
         <v>21</v>
@@ -5445,7 +5443,7 @@
         <v>24</v>
       </c>
       <c r="Q1" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="R1" t="s">
         <v>172</v>
@@ -5454,10 +5452,10 @@
         <v>111</v>
       </c>
       <c r="T1" t="s">
+        <v>314</v>
+      </c>
+      <c r="U1" t="s">
         <v>315</v>
-      </c>
-      <c r="U1" t="s">
-        <v>316</v>
       </c>
       <c r="V1" t="s">
         <v>199</v>
@@ -5466,7 +5464,7 @@
         <v>200</v>
       </c>
       <c r="X1" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="2" spans="1:24" s="23" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -5477,7 +5475,7 @@
         <v>125</v>
       </c>
       <c r="C2" s="24" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D2" s="24" t="s">
         <v>110</v>
@@ -5504,7 +5502,7 @@
         <v>14</v>
       </c>
       <c r="L2" s="24" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="M2" s="24" t="s">
         <v>7</v>
@@ -5554,7 +5552,7 @@
         <v>160</v>
       </c>
       <c r="D3" s="47" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E3" s="47" t="s">
         <v>174</v>
@@ -5621,10 +5619,10 @@
         <v>160</v>
       </c>
       <c r="D5" s="47" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E5" s="47" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="F5" s="47"/>
       <c r="G5" s="47" t="s">
@@ -5642,27 +5640,27 @@
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>151</v>
       </c>
       <c r="G6" s="47" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>404</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>405</v>
       </c>
       <c r="C7" s="47" t="s">
         <v>160</v>
       </c>
       <c r="D7" s="47" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E7" s="47" t="s">
         <v>174</v>
@@ -5872,7 +5870,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B15" s="25">
         <v>44635</v>
@@ -5881,12 +5879,12 @@
         <v>194</v>
       </c>
       <c r="D15" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B16" s="25">
         <v>44643</v>
@@ -5895,12 +5893,12 @@
         <v>194</v>
       </c>
       <c r="D16" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B17" s="25">
         <v>44643</v>
@@ -5909,12 +5907,12 @@
         <v>194</v>
       </c>
       <c r="D17" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B18" s="25">
         <v>44643</v>
@@ -5923,12 +5921,12 @@
         <v>194</v>
       </c>
       <c r="D18" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B19" s="25">
         <v>44656</v>
@@ -5937,12 +5935,12 @@
         <v>194</v>
       </c>
       <c r="D19" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B20" s="25">
         <v>44657</v>
@@ -5951,12 +5949,12 @@
         <v>194</v>
       </c>
       <c r="D20" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B21" s="25">
         <v>44657</v>
@@ -5965,12 +5963,12 @@
         <v>194</v>
       </c>
       <c r="D21" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B22" s="25">
         <v>44680</v>
@@ -5979,12 +5977,12 @@
         <v>194</v>
       </c>
       <c r="D22" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B23" s="25">
         <v>44680</v>
@@ -5993,12 +5991,12 @@
         <v>194</v>
       </c>
       <c r="D23" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B24" s="25">
         <v>44690</v>
@@ -6007,12 +6005,12 @@
         <v>194</v>
       </c>
       <c r="D24" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B25" s="25">
         <v>44695</v>
@@ -6021,12 +6019,12 @@
         <v>194</v>
       </c>
       <c r="D25" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B26" s="25">
         <v>44701</v>
@@ -6035,12 +6033,12 @@
         <v>194</v>
       </c>
       <c r="D26" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B27" s="25">
         <v>44701</v>
@@ -6049,12 +6047,12 @@
         <v>194</v>
       </c>
       <c r="D27" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B28" s="25">
         <v>44712</v>
@@ -6063,12 +6061,12 @@
         <v>194</v>
       </c>
       <c r="D28" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B29" s="25">
         <v>44727</v>
@@ -6077,12 +6075,12 @@
         <v>194</v>
       </c>
       <c r="D29" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B30" s="25">
         <v>44734</v>
@@ -6091,12 +6089,12 @@
         <v>194</v>
       </c>
       <c r="D30" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B31" s="25">
         <v>44741</v>
@@ -6105,7 +6103,7 @@
         <v>194</v>
       </c>
       <c r="D31" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
   </sheetData>
@@ -6152,19 +6150,19 @@
         <v>22</v>
       </c>
       <c r="E1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="F1" t="s">
         <v>25</v>
       </c>
       <c r="G1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="H1" t="s">
+        <v>380</v>
+      </c>
+      <c r="I1" t="s">
         <v>381</v>
-      </c>
-      <c r="I1" t="s">
-        <v>382</v>
       </c>
       <c r="J1" t="s">
         <v>21</v>
@@ -6173,7 +6171,7 @@
         <v>24</v>
       </c>
       <c r="L1" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="M1" t="s">
         <v>172</v>
@@ -6199,7 +6197,7 @@
         <v>13</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="H2" s="9" t="s">
         <v>7</v>
@@ -6564,7 +6562,7 @@
         <v>143</v>
       </c>
       <c r="F1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="G1" t="s">
         <v>257</v>
@@ -6576,7 +6574,7 @@
         <v>120</v>
       </c>
       <c r="J1" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="K1" t="s">
         <v>122</v>
@@ -6585,7 +6583,7 @@
         <v>124</v>
       </c>
       <c r="M1" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="P1" s="3"/>
       <c r="Q1" s="3"/>
@@ -6602,7 +6600,7 @@
         <v>58</v>
       </c>
       <c r="D2" s="19" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E2" s="9" t="s">
         <v>142</v>
@@ -6611,7 +6609,7 @@
         <v>18</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="H2" s="9" t="s">
         <v>113</v>
@@ -6629,7 +6627,7 @@
         <v>123</v>
       </c>
       <c r="M2" s="9" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="P2" s="3"/>
       <c r="Q2" s="3"/>
@@ -6646,7 +6644,7 @@
         <v>150</v>
       </c>
       <c r="D3" s="20" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -6669,7 +6667,7 @@
         <v>148</v>
       </c>
       <c r="D4" s="20" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -6689,7 +6687,7 @@
         <v>161</v>
       </c>
       <c r="D5" s="20" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -6706,7 +6704,7 @@
         <v>149</v>
       </c>
       <c r="D6" s="20" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -6726,7 +6724,7 @@
         <v>148</v>
       </c>
       <c r="D7" s="20" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -6737,16 +6735,16 @@
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>404</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>405</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>161</v>
       </c>
       <c r="D8" s="20" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -6754,16 +6752,16 @@
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>404</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>405</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>148</v>
       </c>
       <c r="D9" s="20" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -6771,16 +6769,16 @@
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>404</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>405</v>
-      </c>
       <c r="C10" s="4" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="D10" s="20" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -6856,10 +6854,10 @@
         <v>28</v>
       </c>
       <c r="B5" s="19" t="s">
+        <v>341</v>
+      </c>
+      <c r="C5" s="20" t="s">
         <v>342</v>
-      </c>
-      <c r="C5" s="20" t="s">
-        <v>343</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -7099,7 +7097,7 @@
         <v>29</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="2" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -7119,7 +7117,7 @@
         <v>276</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -7757,16 +7755,16 @@
         <v>29</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C4" s="18" t="s">
+        <v>410</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>411</v>
       </c>
-      <c r="D4" s="4" t="s">
-        <v>412</v>
-      </c>
       <c r="E4" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
   </sheetData>
@@ -7785,7 +7783,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7817,7 +7815,7 @@
       </c>
       <c r="B1" s="3"/>
       <c r="C1" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D1" t="s">
         <v>41</v>
@@ -7826,7 +7824,7 @@
         <v>37</v>
       </c>
       <c r="F1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="G1" t="s">
         <v>43</v>
@@ -7835,7 +7833,7 @@
         <v>47</v>
       </c>
       <c r="I1" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="J1" t="s">
         <v>45</v>
@@ -7844,7 +7842,7 @@
         <v>55</v>
       </c>
       <c r="L1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="M1" t="s">
         <v>39</v>
@@ -7856,16 +7854,16 @@
         <v>53</v>
       </c>
       <c r="P1" t="s">
+        <v>346</v>
+      </c>
+      <c r="Q1" t="s">
         <v>347</v>
       </c>
-      <c r="Q1" t="s">
-        <v>348</v>
-      </c>
       <c r="R1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="S1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
@@ -7876,7 +7874,7 @@
         <v>57</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D2" s="9" t="s">
         <v>40</v>
@@ -7885,7 +7883,7 @@
         <v>36</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="G2" s="9" t="s">
         <v>42</v>
@@ -7903,7 +7901,7 @@
         <v>54</v>
       </c>
       <c r="L2" s="9" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="M2" s="9" t="s">
         <v>38</v>
@@ -7915,16 +7913,16 @@
         <v>52</v>
       </c>
       <c r="P2" s="9" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q2" s="9" t="s">
         <v>345</v>
       </c>
-      <c r="Q2" s="9" t="s">
-        <v>346</v>
-      </c>
       <c r="R2" s="9" t="s">
+        <v>361</v>
+      </c>
+      <c r="S2" s="9" t="s">
         <v>362</v>
-      </c>
-      <c r="S2" s="9" t="s">
-        <v>363</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
@@ -7960,7 +7958,7 @@
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>287</v>
@@ -7974,10 +7972,10 @@
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="P6">
         <v>40</v>
@@ -7991,7 +7989,7 @@
         <v>29</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C7" t="s">
         <v>160</v>
@@ -8056,16 +8054,16 @@
         <v>51</v>
       </c>
       <c r="J1" t="s">
+        <v>346</v>
+      </c>
+      <c r="K1" t="s">
         <v>347</v>
       </c>
-      <c r="K1" t="s">
-        <v>348</v>
-      </c>
       <c r="L1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="M1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
@@ -8097,16 +8095,16 @@
         <v>50</v>
       </c>
       <c r="J2" s="9" t="s">
+        <v>344</v>
+      </c>
+      <c r="K2" s="9" t="s">
         <v>345</v>
       </c>
-      <c r="K2" s="9" t="s">
-        <v>346</v>
-      </c>
       <c r="L2" s="9" t="s">
+        <v>361</v>
+      </c>
+      <c r="M2" s="9" t="s">
         <v>362</v>
-      </c>
-      <c r="M2" s="9" t="s">
-        <v>363</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
@@ -8181,7 +8179,7 @@
         <v>250</v>
       </c>
       <c r="B1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -8190,42 +8188,42 @@
         <v>29</v>
       </c>
       <c r="C2" s="6" t="s">
+        <v>322</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>297</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>324</v>
+      </c>
+      <c r="F2" s="6" t="s">
         <v>323</v>
       </c>
-      <c r="D2" s="6" t="s">
-        <v>298</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>325</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>324</v>
-      </c>
       <c r="G2" s="6" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="I2" s="6" t="s">
+        <v>388</v>
+      </c>
+      <c r="J2" s="6" t="s">
         <v>389</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="K2" s="6" t="s">
         <v>390</v>
       </c>
-      <c r="K2" s="6" t="s">
-        <v>391</v>
-      </c>
       <c r="L2" s="6" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="M2" s="6" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B3" s="14" t="s">
         <v>29</v>
@@ -8266,91 +8264,91 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B4" s="14"/>
       <c r="C4" s="14" t="s">
+        <v>322</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>297</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>324</v>
+      </c>
+      <c r="F4" t="s">
         <v>323</v>
       </c>
-      <c r="D4" s="14" t="s">
-        <v>298</v>
-      </c>
-      <c r="E4" s="14" t="s">
-        <v>325</v>
-      </c>
-      <c r="F4" t="s">
-        <v>324</v>
-      </c>
       <c r="G4" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="H4" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="I4" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="J4" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="K4" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="L4" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="M4" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B5" s="14"/>
       <c r="G5" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="J5" t="s">
+        <v>389</v>
+      </c>
+      <c r="K5" t="s">
         <v>390</v>
-      </c>
-      <c r="K5" t="s">
-        <v>391</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B6" s="14"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B7" s="14"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B8" s="14"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B9" s="14"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B10" s="14"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B11" s="14"/>
     </row>
@@ -8501,7 +8499,7 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>148</v>
@@ -8509,7 +8507,7 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>149</v>
@@ -8597,7 +8595,7 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>151</v>
@@ -8608,7 +8606,7 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>163</v>
@@ -8696,7 +8694,7 @@
         <v>58</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="G2" s="9" t="s">
         <v>129</v>
@@ -8719,10 +8717,10 @@
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>286</v>
@@ -8783,16 +8781,16 @@
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
       <c r="E1" t="s">
-        <v>288</v>
+        <v>456</v>
       </c>
       <c r="F1" t="s">
         <v>138</v>
       </c>
       <c r="G1" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="H1" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="J1" s="3"/>
       <c r="K1" s="3"/>
@@ -8835,10 +8833,10 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>286</v>
@@ -8847,7 +8845,7 @@
         <v>287</v>
       </c>
       <c r="E3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="F3">
         <v>50</v>
@@ -9061,7 +9059,7 @@
       <pane xSplit="5" ySplit="2" topLeftCell="F3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F2" sqref="F2"/>
+      <selection pane="bottomRight" activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9125,7 +9123,7 @@
         <v>58</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="G2" s="9" t="s">
         <v>129</v>
@@ -9148,10 +9146,10 @@
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>286</v>
@@ -9174,10 +9172,10 @@
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>286</v>
@@ -9200,10 +9198,10 @@
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>286</v>
@@ -9226,10 +9224,10 @@
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>286</v>
@@ -9252,10 +9250,10 @@
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>286</v>
@@ -9310,7 +9308,7 @@
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
       <c r="D1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="E1" t="s">
         <v>158</v>
@@ -9333,7 +9331,7 @@
         <v>156</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E2" s="9" t="s">
         <v>157</v>
@@ -9364,13 +9362,13 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>406</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>407</v>
       </c>
       <c r="D4" t="s">
         <v>160</v>
@@ -9497,7 +9495,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>34</v>
@@ -9517,7 +9515,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>34</v>
@@ -9537,7 +9535,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>164</v>
@@ -9557,7 +9555,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>35</v>
@@ -9577,7 +9575,7 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>35</v>
@@ -9597,7 +9595,7 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>202</v>
@@ -9633,7 +9631,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BBE8270-58BA-4E52-BE5C-E66A62EB7AF6}">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="5" ySplit="2" topLeftCell="F3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
@@ -9660,7 +9658,7 @@
       <c r="D1" s="3"/>
       <c r="E1"/>
       <c r="F1" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -9674,13 +9672,13 @@
         <v>58</v>
       </c>
       <c r="D2" s="19" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E2" s="10" t="s">
         <v>144</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -9694,7 +9692,7 @@
         <v>150</v>
       </c>
       <c r="D3" s="20" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E3" s="11" t="s">
         <v>178</v>
@@ -9714,7 +9712,7 @@
         <v>148</v>
       </c>
       <c r="D4" s="20" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="E4" s="11" t="s">
         <v>178</v>
@@ -9725,19 +9723,19 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>404</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>405</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>161</v>
       </c>
       <c r="D5" s="20" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="F5">
         <v>-1</v>
@@ -9745,19 +9743,19 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>404</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>405</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>148</v>
       </c>
       <c r="D6" s="20" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="F6">
         <v>4</v>
@@ -9800,7 +9798,7 @@
       <c r="C1"/>
       <c r="D1"/>
       <c r="E1" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -9817,7 +9815,7 @@
         <v>144</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
   </sheetData>
@@ -9856,10 +9854,10 @@
       <c r="B1"/>
       <c r="C1"/>
       <c r="D1" t="s">
+        <v>427</v>
+      </c>
+      <c r="E1" t="s">
         <v>428</v>
-      </c>
-      <c r="E1" t="s">
-        <v>429</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -9873,10 +9871,10 @@
         <v>144</v>
       </c>
       <c r="D2" s="9" t="s">
+        <v>429</v>
+      </c>
+      <c r="E2" s="9" t="s">
         <v>430</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>431</v>
       </c>
     </row>
   </sheetData>
@@ -9914,7 +9912,7 @@
       <c r="B1"/>
       <c r="C1"/>
       <c r="D1" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -9928,7 +9926,7 @@
         <v>144</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
   </sheetData>
@@ -9966,7 +9964,7 @@
       <c r="B1"/>
       <c r="C1"/>
       <c r="D1" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -9980,7 +9978,7 @@
         <v>144</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
   </sheetData>
@@ -10018,10 +10016,10 @@
       </c>
       <c r="B1" s="3"/>
       <c r="C1" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="2" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -10035,7 +10033,7 @@
         <v>169</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -10049,13 +10047,13 @@
         <v>81</v>
       </c>
       <c r="D3" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="F3" s="5"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>34</v>
@@ -10064,12 +10062,12 @@
         <v>81</v>
       </c>
       <c r="D4" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>164</v>
@@ -10078,12 +10076,12 @@
         <v>170</v>
       </c>
       <c r="D5" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>35</v>
@@ -10092,12 +10090,12 @@
         <v>81</v>
       </c>
       <c r="D6" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>202</v>
@@ -10106,51 +10104,51 @@
         <v>170</v>
       </c>
       <c r="D7" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>34</v>
       </c>
       <c r="D8" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>164</v>
       </c>
       <c r="D9" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>35</v>
       </c>
       <c r="D10" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>202</v>
       </c>
       <c r="D11" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
   </sheetData>
@@ -10284,7 +10282,7 @@
         <v>212</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">

--- a/FlexTool_import_template.xlsx
+++ b/FlexTool_import_template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\data\Toolbox_projects\FlexTool3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59471DED-C27B-47EC-91C2-6EFEA8EE4E49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CBFD348-07C1-489F-9FA9-25FA5ABE6D8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3900" yWindow="3900" windowWidth="38700" windowHeight="15435" tabRatio="1000" xr2:uid="{D5BEC09F-8FA9-46E6-8F36-396DCDACE376}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21240" tabRatio="1000" activeTab="9" xr2:uid="{D5BEC09F-8FA9-46E6-8F36-396DCDACE376}"/>
   </bookViews>
   <sheets>
     <sheet name="navigate" sheetId="54" r:id="rId1"/>
@@ -1527,9 +1527,6 @@
     <t>storage_binding_method</t>
   </si>
   <si>
-    <t>Choice how the storage state will be maintained between periods. 'bind_within_period' will bind the end level to the beginning of the same period. 'bind_between_periods' will bind the end level to the beginning of the next period.</t>
-  </si>
-  <si>
     <t>storage_state_start</t>
   </si>
   <si>
@@ -1548,9 +1545,6 @@
     <t>storage_start_end_method</t>
   </si>
   <si>
-    <t xml:space="preserve">Choice whether the start and end states of storage are fixed in the beginning and end of the whole model timeline (not between solves). Uses 'storage_state_start' and 'storage_state_end'. </t>
-  </si>
-  <si>
     <t>storage_solve_horizon_method</t>
   </si>
   <si>
@@ -1569,13 +1563,19 @@
     <t>fix_start</t>
   </si>
   <si>
-    <t>bind_between_timeblocks</t>
-  </si>
-  <si>
     <t>use_reference_value</t>
   </si>
   <si>
     <t>Choice of reserve method: no_reserve, timeseries_only, dynamic_only, large_failure_only, timeseries_and_dynamic, timeseries_and_large_failure, dynamic_and_large_failure, all</t>
+  </si>
+  <si>
+    <t>bind_within_period</t>
+  </si>
+  <si>
+    <t>Choice how the storage state will be maintained over discontinuos timelines. Default 'bind_between_timeblocks' will bind the storage end state at the end of the timeblock to the beginning of the timeblock. 'bind_within_period', 'bind_within_solve' and bind_within_model' will act similarly but over increasingly longer time span. Meanwhile 'bind_forward_only' will bind forward over any holes in the used timeline, but will not bind end to the start. Separate parameters (e.g. 'storage_state_start') can force bindings.</t>
+  </si>
+  <si>
+    <t>Choice whether the start and end states of storage are fixed in the beginning and end of the whole model timeline (not between solves). Uses 'storage_state_start' and 'storage_state_end'. Options: 'fix_nothing', 'fix_start', 'fix_end', 'fix_start_end'.</t>
   </si>
 </sst>
 </file>
@@ -3207,7 +3207,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F991596-B8AE-4F8F-B051-2E61303D5CC8}">
   <dimension ref="A1:E38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3567,7 +3569,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A4889F5-3956-475B-A853-BA105023BA1D}">
   <dimension ref="A1:AD8"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
@@ -3627,13 +3629,13 @@
         <v>186</v>
       </c>
       <c r="H1" t="s">
-        <v>440</v>
+        <v>455</v>
       </c>
       <c r="I1" t="s">
+        <v>456</v>
+      </c>
+      <c r="J1" s="5" t="s">
         <v>447</v>
-      </c>
-      <c r="J1" s="5" t="s">
-        <v>449</v>
       </c>
       <c r="K1" t="s">
         <v>155</v>
@@ -3681,16 +3683,16 @@
         <v>73</v>
       </c>
       <c r="Z1" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="AA1" s="5" t="s">
+        <v>443</v>
+      </c>
+      <c r="AB1" t="s">
         <v>444</v>
       </c>
-      <c r="AB1" t="s">
-        <v>445</v>
-      </c>
       <c r="AC1" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="AD1" t="s">
         <v>74</v>
@@ -3722,10 +3724,10 @@
         <v>439</v>
       </c>
       <c r="I2" s="9" t="s">
+        <v>445</v>
+      </c>
+      <c r="J2" s="9" t="s">
         <v>446</v>
-      </c>
-      <c r="J2" s="9" t="s">
-        <v>448</v>
       </c>
       <c r="K2" s="9" t="s">
         <v>59</v>
@@ -3773,16 +3775,16 @@
         <v>65</v>
       </c>
       <c r="Z2" s="9" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="AA2" s="9" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="AB2" s="9" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="AC2" s="9" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="AD2" s="9" t="s">
         <v>66</v>
@@ -3909,10 +3911,10 @@
         <v>454</v>
       </c>
       <c r="I7" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="J7" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="M7">
         <v>12000</v>
@@ -8781,7 +8783,7 @@
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
       <c r="E1" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="F1" t="s">
         <v>138</v>

--- a/FlexTool_import_template.xlsx
+++ b/FlexTool_import_template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\data\Toolbox_projects\FlexTool3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CBFD348-07C1-489F-9FA9-25FA5ABE6D8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3F97E5D-6F3D-467C-B9AF-781013E29D35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21240" tabRatio="1000" activeTab="9" xr2:uid="{D5BEC09F-8FA9-46E6-8F36-396DCDACE376}"/>
+    <workbookView xWindow="405" yWindow="1905" windowWidth="24900" windowHeight="17970" tabRatio="1000" activeTab="9" xr2:uid="{D5BEC09F-8FA9-46E6-8F36-396DCDACE376}"/>
   </bookViews>
   <sheets>
     <sheet name="navigate" sheetId="54" r:id="rId1"/>
@@ -390,9 +390,6 @@
     <t>has_balance</t>
   </si>
   <si>
-    <t>has_state</t>
-  </si>
-  <si>
     <t>inflow</t>
   </si>
   <si>
@@ -1576,6 +1573,9 @@
   </si>
   <si>
     <t>Choice whether the start and end states of storage are fixed in the beginning and end of the whole model timeline (not between solves). Uses 'storage_state_start' and 'storage_state_end'. Options: 'fix_nothing', 'fix_start', 'fix_end', 'fix_start_end'.</t>
+  </si>
+  <si>
+    <t>has_storage</t>
   </si>
 </sst>
 </file>
@@ -3220,74 +3220,74 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="46" t="s">
+        <v>282</v>
+      </c>
+      <c r="B1" s="46" t="s">
+        <v>284</v>
+      </c>
+      <c r="C1" s="46" t="s">
         <v>283</v>
-      </c>
-      <c r="B1" s="46" t="s">
-        <v>285</v>
-      </c>
-      <c r="C1" s="46" t="s">
-        <v>284</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="43" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B2" s="43"/>
       <c r="C2" s="43"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="43" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B3" s="43"/>
       <c r="C3" s="43"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="43" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B4" s="43"/>
       <c r="C4" s="43"/>
       <c r="E4" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="43" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B5" s="43"/>
       <c r="C5" s="43"/>
       <c r="E5" s="5" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="43" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B6" s="43"/>
       <c r="C6" s="43"/>
       <c r="E6" s="5" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="29" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B7" s="30"/>
       <c r="C7" s="29" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="43" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B8" s="43"/>
       <c r="C8" s="43"/>
@@ -3297,65 +3297,65 @@
       <c r="B9" s="27"/>
       <c r="C9" s="27"/>
       <c r="E9" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="31" t="s">
+        <v>217</v>
+      </c>
+      <c r="B10" s="31" t="s">
         <v>218</v>
       </c>
-      <c r="B10" s="31" t="s">
+      <c r="C10" s="31" t="s">
         <v>219</v>
-      </c>
-      <c r="C10" s="31" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="31" t="s">
+        <v>220</v>
+      </c>
+      <c r="B11" s="31" t="s">
         <v>221</v>
-      </c>
-      <c r="B11" s="31" t="s">
-        <v>222</v>
       </c>
       <c r="C11" s="32"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="44" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B12" s="44"/>
       <c r="C12" s="44"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="31" t="s">
+        <v>223</v>
+      </c>
+      <c r="B13" s="31" t="s">
         <v>224</v>
       </c>
-      <c r="B13" s="31" t="s">
+      <c r="C13" s="31" t="s">
         <v>225</v>
-      </c>
-      <c r="C13" s="31" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="31" t="s">
+        <v>242</v>
+      </c>
+      <c r="B14" s="31" t="s">
         <v>243</v>
       </c>
-      <c r="B14" s="31" t="s">
+      <c r="C14" s="31" t="s">
         <v>244</v>
-      </c>
-      <c r="C14" s="31" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="31" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B15" s="32"/>
       <c r="C15" s="31" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -3367,26 +3367,26 @@
       <c r="A17" s="39"/>
       <c r="B17" s="39"/>
       <c r="C17" s="40" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="45" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B18" s="45"/>
       <c r="C18" s="45"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="45" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B19" s="45"/>
       <c r="C19" s="45"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="45" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B20" s="45"/>
       <c r="C20" s="45"/>
@@ -3398,45 +3398,45 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="34" t="s">
+        <v>238</v>
+      </c>
+      <c r="B22" s="34" t="s">
         <v>239</v>
-      </c>
-      <c r="B22" s="34" t="s">
-        <v>240</v>
       </c>
       <c r="C22" s="34"/>
       <c r="D22" s="28"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="41" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B23" s="41"/>
       <c r="C23" s="41"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="41" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B24" s="41"/>
       <c r="C24" s="41"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="41" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B25" s="41"/>
       <c r="C25" s="41"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="41" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B26" s="41"/>
       <c r="C26" s="41"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="41" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B27" s="41"/>
       <c r="C27" s="41"/>
@@ -3448,65 +3448,65 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="42" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B29" s="42"/>
       <c r="C29" s="42"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="35" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B30" s="36"/>
       <c r="C30" s="35" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="42" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B31" s="42"/>
       <c r="C31" s="42"/>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="48" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B33" s="48"/>
       <c r="C33" s="48"/>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="48" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B34" s="48"/>
       <c r="C34" s="48"/>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="48" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B35" s="48"/>
       <c r="C35" s="48"/>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="48" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B36" s="48"/>
       <c r="C36" s="48"/>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="48" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B37" s="48"/>
       <c r="C37" s="48"/>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="48" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B38" s="48"/>
       <c r="C38" s="48"/>
@@ -3573,7 +3573,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
+      <selection pane="bottomRight" activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3583,7 +3583,7 @@
     <col min="3" max="3" width="9.140625" customWidth="1"/>
     <col min="4" max="4" width="11.7109375" customWidth="1"/>
     <col min="5" max="5" width="15" customWidth="1"/>
-    <col min="6" max="6" width="10" customWidth="1"/>
+    <col min="6" max="6" width="11.42578125" customWidth="1"/>
     <col min="7" max="7" width="15" customWidth="1"/>
     <col min="8" max="8" width="23.140625" customWidth="1"/>
     <col min="9" max="9" width="25.140625" customWidth="1"/>
@@ -3610,92 +3610,92 @@
   <sheetData>
     <row r="1" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A1" s="37" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D1" t="s">
+        <v>182</v>
+      </c>
+      <c r="E1" t="s">
+        <v>412</v>
+      </c>
+      <c r="F1" t="s">
         <v>183</v>
       </c>
-      <c r="E1" t="s">
-        <v>413</v>
-      </c>
-      <c r="F1" t="s">
-        <v>184</v>
-      </c>
       <c r="G1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="H1" t="s">
+        <v>454</v>
+      </c>
+      <c r="I1" t="s">
         <v>455</v>
       </c>
-      <c r="I1" t="s">
-        <v>456</v>
-      </c>
       <c r="J1" s="5" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="K1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="L1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="M1" t="s">
+        <v>365</v>
+      </c>
+      <c r="N1" t="s">
         <v>366</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
+        <v>67</v>
+      </c>
+      <c r="P1" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>299</v>
+      </c>
+      <c r="R1" t="s">
+        <v>71</v>
+      </c>
+      <c r="S1" t="s">
+        <v>300</v>
+      </c>
+      <c r="T1" t="s">
         <v>367</v>
       </c>
-      <c r="O1" t="s">
-        <v>68</v>
-      </c>
-      <c r="P1" t="s">
-        <v>71</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>300</v>
-      </c>
-      <c r="R1" t="s">
-        <v>72</v>
-      </c>
-      <c r="S1" t="s">
-        <v>301</v>
-      </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>368</v>
-      </c>
-      <c r="U1" t="s">
-        <v>369</v>
       </c>
       <c r="V1" t="s">
         <v>21</v>
       </c>
       <c r="W1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="X1" t="s">
         <v>24</v>
       </c>
       <c r="Y1" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>440</v>
+      </c>
+      <c r="AA1" s="5" t="s">
+        <v>442</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>443</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>449</v>
+      </c>
+      <c r="AD1" t="s">
         <v>73</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>441</v>
-      </c>
-      <c r="AA1" s="5" t="s">
-        <v>443</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>444</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>450</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="2" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3706,40 +3706,40 @@
         <v>58</v>
       </c>
       <c r="C2" s="24" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D2" s="9" t="s">
         <v>60</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>61</v>
+        <v>456</v>
       </c>
       <c r="G2" s="9" t="s">
         <v>11</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="I2" s="9" t="s">
+        <v>444</v>
+      </c>
+      <c r="J2" s="9" t="s">
         <v>445</v>
-      </c>
-      <c r="J2" s="9" t="s">
-        <v>446</v>
       </c>
       <c r="K2" s="9" t="s">
         <v>59</v>
       </c>
       <c r="L2" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="M2" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="M2" s="9" t="s">
+      <c r="N2" s="9" t="s">
         <v>63</v>
-      </c>
-      <c r="N2" s="9" t="s">
-        <v>64</v>
       </c>
       <c r="O2" s="9" t="s">
         <v>4</v>
@@ -3754,13 +3754,13 @@
         <v>14</v>
       </c>
       <c r="S2" s="9" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="T2" s="9" t="s">
         <v>7</v>
       </c>
       <c r="U2" s="24" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="V2" s="9" t="s">
         <v>6</v>
@@ -3772,22 +3772,22 @@
         <v>12</v>
       </c>
       <c r="Y2" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z2" s="9" t="s">
+        <v>439</v>
+      </c>
+      <c r="AA2" s="9" t="s">
+        <v>441</v>
+      </c>
+      <c r="AB2" s="9" t="s">
+        <v>447</v>
+      </c>
+      <c r="AC2" s="9" t="s">
+        <v>448</v>
+      </c>
+      <c r="AD2" s="9" t="s">
         <v>65</v>
-      </c>
-      <c r="Z2" s="9" t="s">
-        <v>440</v>
-      </c>
-      <c r="AA2" s="9" t="s">
-        <v>442</v>
-      </c>
-      <c r="AB2" s="9" t="s">
-        <v>448</v>
-      </c>
-      <c r="AC2" s="9" t="s">
-        <v>449</v>
-      </c>
-      <c r="AD2" s="9" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:30" x14ac:dyDescent="0.25">
@@ -3795,20 +3795,20 @@
         <v>29</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E3" s="14" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="F3" s="14"/>
       <c r="G3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="M3">
         <v>10000</v>
@@ -3822,20 +3822,20 @@
         <v>29</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E4" s="14" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F4" s="14"/>
       <c r="G4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K4">
         <f>100*8760</f>
@@ -3853,13 +3853,13 @@
         <v>29</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="M5">
         <v>10000</v>
@@ -3873,13 +3873,13 @@
         <v>29</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="M6">
         <v>10000</v>
@@ -3890,31 +3890,31 @@
     </row>
     <row r="7" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D7" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F7" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G7" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H7" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="I7" t="s">
+        <v>450</v>
+      </c>
+      <c r="J7" t="s">
         <v>451</v>
-      </c>
-      <c r="J7" t="s">
-        <v>452</v>
       </c>
       <c r="M7">
         <v>12000</v>
@@ -3937,16 +3937,16 @@
     </row>
     <row r="8" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G8" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="M8">
         <v>12000</v>
@@ -3997,33 +3997,33 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="37" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
       <c r="D1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F1" t="s">
         <v>69</v>
       </c>
-      <c r="F1" t="s">
-        <v>70</v>
-      </c>
       <c r="G1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="H1" t="s">
+        <v>370</v>
+      </c>
+      <c r="I1" t="s">
         <v>371</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
+        <v>367</v>
+      </c>
+      <c r="K1" t="s">
         <v>372</v>
-      </c>
-      <c r="J1" t="s">
-        <v>368</v>
-      </c>
-      <c r="K1" t="s">
-        <v>373</v>
       </c>
       <c r="L1" t="s">
         <v>21</v>
@@ -4032,7 +4032,7 @@
         <v>24</v>
       </c>
       <c r="N1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4061,13 +4061,13 @@
         <v>13</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="J2" s="9" t="s">
         <v>7</v>
       </c>
       <c r="K2" s="24" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="L2" s="9" t="s">
         <v>6</v>
@@ -4084,10 +4084,10 @@
         <v>29</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D3">
         <f>250*8760*0.9</f>
@@ -4099,10 +4099,10 @@
         <v>29</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D4">
         <f>250*8760*1</f>
@@ -4114,10 +4114,10 @@
         <v>29</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D5">
         <f>250*8760*1.1</f>
@@ -4153,7 +4153,7 @@
   <sheetData>
     <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="37" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B1" s="8" t="s">
         <v>1</v>
@@ -4168,13 +4168,13 @@
     <row r="2" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
       <c r="B2" s="15" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -4185,10 +4185,10 @@
         <v>58</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>148</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -4216,7 +4216,7 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -4227,7 +4227,7 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -4238,7 +4238,7 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C8">
         <v>-100</v>
@@ -4249,7 +4249,7 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C9">
         <v>-100</v>
@@ -4260,7 +4260,7 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C10">
         <v>-100</v>
@@ -4271,7 +4271,7 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C11">
         <v>-100</v>
@@ -4282,7 +4282,7 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C12">
         <v>-200</v>
@@ -4293,7 +4293,7 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C13">
         <v>-200</v>
@@ -4304,7 +4304,7 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C14">
         <v>-200</v>
@@ -4315,7 +4315,7 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C15">
         <v>-200</v>
@@ -4326,7 +4326,7 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C16">
         <v>-300</v>
@@ -4337,7 +4337,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C17">
         <v>-300</v>
@@ -4348,7 +4348,7 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C18">
         <v>-300</v>
@@ -4359,7 +4359,7 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C19">
         <v>-300</v>
@@ -4370,7 +4370,7 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C20">
         <v>-400</v>
@@ -4381,7 +4381,7 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C21">
         <v>-400</v>
@@ -4392,7 +4392,7 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C22">
         <v>-400</v>
@@ -4403,7 +4403,7 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C23">
         <v>-400</v>
@@ -4414,7 +4414,7 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C24">
         <v>-500</v>
@@ -4425,7 +4425,7 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C25">
         <v>-500</v>
@@ -4436,7 +4436,7 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C26">
         <v>-500</v>
@@ -4447,7 +4447,7 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C27">
         <v>-500</v>
@@ -4486,14 +4486,14 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="37" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B1"/>
       <c r="C1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D1" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -4507,7 +4507,7 @@
         <v>2</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -4515,7 +4515,7 @@
         <v>29</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C3">
         <v>0.34</v>
@@ -4529,7 +4529,7 @@
         <v>29</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C4">
         <v>0.2</v>
@@ -4564,12 +4564,12 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="37" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B1"/>
       <c r="C1"/>
       <c r="D1" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -4583,7 +4583,7 @@
         <v>33</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -4591,10 +4591,10 @@
         <v>29</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D3">
         <v>20</v>
@@ -4605,10 +4605,10 @@
         <v>29</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D4">
         <v>21</v>
@@ -4619,10 +4619,10 @@
         <v>29</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D5">
         <v>22</v>
@@ -4671,18 +4671,18 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
   </sheetData>
@@ -4727,28 +4727,28 @@
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" s="37" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B1" s="37"/>
       <c r="C1" s="37"/>
       <c r="D1" s="3"/>
       <c r="E1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="F1" t="s">
+        <v>179</v>
+      </c>
+      <c r="G1" t="s">
         <v>180</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
+        <v>185</v>
+      </c>
+      <c r="I1" t="s">
         <v>181</v>
       </c>
-      <c r="H1" t="s">
-        <v>186</v>
-      </c>
-      <c r="I1" t="s">
-        <v>182</v>
-      </c>
       <c r="J1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="K1" t="s">
         <v>20</v>
@@ -4757,19 +4757,19 @@
         <v>23</v>
       </c>
       <c r="M1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="N1" t="s">
         <v>26</v>
       </c>
       <c r="O1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="P1" t="s">
+        <v>375</v>
+      </c>
+      <c r="Q1" t="s">
         <v>376</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>377</v>
       </c>
       <c r="R1" t="s">
         <v>21</v>
@@ -4778,10 +4778,10 @@
         <v>24</v>
       </c>
       <c r="T1" t="s">
+        <v>377</v>
+      </c>
+      <c r="U1" t="s">
         <v>378</v>
-      </c>
-      <c r="U1" t="s">
-        <v>379</v>
       </c>
       <c r="V1" t="s">
         <v>19</v>
@@ -4795,13 +4795,13 @@
         <v>27</v>
       </c>
       <c r="C2" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="D2" s="10" t="s">
         <v>281</v>
       </c>
-      <c r="D2" s="10" t="s">
-        <v>282</v>
-      </c>
       <c r="E2" s="24" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="F2" s="9" t="s">
         <v>17</v>
@@ -4813,7 +4813,7 @@
         <v>11</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="J2" s="9" t="s">
         <v>15</v>
@@ -4831,13 +4831,13 @@
         <v>14</v>
       </c>
       <c r="O2" s="9" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="P2" s="9" t="s">
         <v>7</v>
       </c>
       <c r="Q2" s="9" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="R2" s="9" t="s">
         <v>6</v>
@@ -4863,25 +4863,25 @@
         <v>32</v>
       </c>
       <c r="C3" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="D3" s="11" t="s">
         <v>148</v>
       </c>
-      <c r="D3" s="11" t="s">
-        <v>149</v>
-      </c>
       <c r="E3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F3" t="s">
+        <v>172</v>
+      </c>
+      <c r="G3" t="s">
         <v>173</v>
       </c>
-      <c r="G3" t="s">
-        <v>174</v>
-      </c>
       <c r="H3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K3">
         <v>100</v>
@@ -4901,28 +4901,28 @@
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="D4" s="11" t="s">
         <v>274</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="D4" s="11" t="s">
-        <v>275</v>
-      </c>
       <c r="E4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F4" t="s">
+        <v>172</v>
+      </c>
+      <c r="G4" t="s">
         <v>173</v>
       </c>
-      <c r="G4" t="s">
-        <v>174</v>
-      </c>
       <c r="H4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K4">
         <v>10</v>
@@ -4933,19 +4933,19 @@
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>32</v>
       </c>
       <c r="C5" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="D5" s="11" t="s">
         <v>148</v>
       </c>
-      <c r="D5" s="11" t="s">
-        <v>149</v>
-      </c>
       <c r="H5" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
   </sheetData>
@@ -4986,7 +4986,7 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="37" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -4994,19 +4994,19 @@
         <v>22</v>
       </c>
       <c r="E1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="F1" t="s">
         <v>25</v>
       </c>
       <c r="G1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="H1" t="s">
+        <v>375</v>
+      </c>
+      <c r="I1" t="s">
         <v>376</v>
-      </c>
-      <c r="I1" t="s">
-        <v>377</v>
       </c>
       <c r="J1" t="s">
         <v>21</v>
@@ -5015,7 +5015,7 @@
         <v>24</v>
       </c>
       <c r="L1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
@@ -5038,13 +5038,13 @@
         <v>13</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="H2" s="9" t="s">
         <v>7</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="J2" s="9" t="s">
         <v>6</v>
@@ -5064,7 +5064,7 @@
         <v>32</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D3">
         <v>50</v>
@@ -5078,7 +5078,7 @@
         <v>32</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D4">
         <v>150</v>
@@ -5092,7 +5092,7 @@
         <v>32</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D5">
         <v>150</v>
@@ -5127,7 +5127,7 @@
   <sheetData>
     <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="37" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B1" s="8" t="s">
         <v>1</v>
@@ -5139,7 +5139,7 @@
     <row r="2" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
       <c r="B2" s="15" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C2" s="9" t="s">
         <v>3</v>
@@ -5175,7 +5175,7 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C6">
         <v>0.99</v>
@@ -5183,7 +5183,7 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C7">
         <v>0.99</v>
@@ -5191,7 +5191,7 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C8">
         <v>0.99</v>
@@ -5199,7 +5199,7 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C9">
         <v>0.99</v>
@@ -5207,7 +5207,7 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C10">
         <v>0.99</v>
@@ -5215,7 +5215,7 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C11">
         <v>0.99</v>
@@ -5223,7 +5223,7 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C12">
         <v>0.99</v>
@@ -5231,7 +5231,7 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C13">
         <v>0.99</v>
@@ -5239,7 +5239,7 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C14">
         <v>0.99</v>
@@ -5247,7 +5247,7 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C15">
         <v>0.99</v>
@@ -5255,7 +5255,7 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C16">
         <v>0.99</v>
@@ -5263,7 +5263,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C17">
         <v>0.99</v>
@@ -5271,7 +5271,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C18">
         <v>0.99</v>
@@ -5279,7 +5279,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C19">
         <v>0.99</v>
@@ -5287,7 +5287,7 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C20">
         <v>0.99</v>
@@ -5295,7 +5295,7 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C21">
         <v>0.99</v>
@@ -5303,7 +5303,7 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C22">
         <v>0.99</v>
@@ -5311,7 +5311,7 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C23">
         <v>0.99</v>
@@ -5319,7 +5319,7 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C24">
         <v>0.99</v>
@@ -5327,7 +5327,7 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C25">
         <v>0.99</v>
@@ -5335,7 +5335,7 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C26">
         <v>0.99</v>
@@ -5343,7 +5343,7 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C27">
         <v>0.99</v>
@@ -5399,23 +5399,23 @@
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1" s="37" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F1" t="s">
+        <v>184</v>
+      </c>
+      <c r="G1" t="s">
         <v>185</v>
-      </c>
-      <c r="G1" t="s">
-        <v>186</v>
       </c>
       <c r="H1" t="s">
         <v>20</v>
@@ -5424,19 +5424,19 @@
         <v>23</v>
       </c>
       <c r="J1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="K1" t="s">
         <v>26</v>
       </c>
       <c r="L1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="M1" t="s">
+        <v>379</v>
+      </c>
+      <c r="N1" t="s">
         <v>380</v>
-      </c>
-      <c r="N1" t="s">
-        <v>381</v>
       </c>
       <c r="O1" t="s">
         <v>21</v>
@@ -5445,28 +5445,28 @@
         <v>24</v>
       </c>
       <c r="Q1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="R1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="S1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="T1" t="s">
+        <v>313</v>
+      </c>
+      <c r="U1" t="s">
         <v>314</v>
       </c>
-      <c r="U1" t="s">
-        <v>315</v>
-      </c>
       <c r="V1" t="s">
+        <v>198</v>
+      </c>
+      <c r="W1" t="s">
         <v>199</v>
       </c>
-      <c r="W1" t="s">
-        <v>200</v>
-      </c>
       <c r="X1" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="2" spans="1:24" s="23" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -5474,19 +5474,19 @@
         <v>1</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C2" s="24" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D2" s="24" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E2" s="24" t="s">
         <v>16</v>
       </c>
       <c r="F2" s="24" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G2" s="24" t="s">
         <v>11</v>
@@ -5504,13 +5504,13 @@
         <v>14</v>
       </c>
       <c r="L2" s="24" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="M2" s="24" t="s">
         <v>7</v>
       </c>
       <c r="N2" s="24" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="O2" s="24" t="s">
         <v>6</v>
@@ -5528,19 +5528,19 @@
         <v>3</v>
       </c>
       <c r="T2" s="24" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="U2" s="24" t="s">
+        <v>114</v>
+      </c>
+      <c r="V2" s="24" t="s">
+        <v>113</v>
+      </c>
+      <c r="W2" s="24" t="s">
         <v>115</v>
       </c>
-      <c r="V2" s="24" t="s">
-        <v>114</v>
-      </c>
-      <c r="W2" s="24" t="s">
-        <v>116</v>
-      </c>
       <c r="X2" s="24" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.25">
@@ -5548,20 +5548,20 @@
         <v>29</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C3" s="47" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D3" s="47" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E3" s="47" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F3" s="47"/>
       <c r="G3" s="47" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H3">
         <v>100</v>
@@ -5588,20 +5588,20 @@
         <v>29</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C4" s="47" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D4" s="47" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E4" s="47" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F4" s="47"/>
       <c r="G4" s="47" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H4">
         <v>100</v>
@@ -5615,20 +5615,20 @@
         <v>29</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C5" s="47" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D5" s="47" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E5" s="47" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F5" s="47"/>
       <c r="G5" s="47" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H5">
         <v>200</v>
@@ -5642,33 +5642,33 @@
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G6" s="47" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>403</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>404</v>
-      </c>
       <c r="C7" s="47" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D7" s="47" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E7" s="47" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G7" s="47" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H7">
         <v>10</v>
@@ -5699,413 +5699,413 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B3" t="s">
+        <v>191</v>
+      </c>
+      <c r="C3" t="s">
         <v>192</v>
       </c>
-      <c r="C3" t="s">
-        <v>193</v>
-      </c>
       <c r="D3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B4" s="25">
         <v>44594</v>
       </c>
       <c r="C4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B5" s="25">
         <v>44595</v>
       </c>
       <c r="C5" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D5" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B6" s="25">
         <v>44600</v>
       </c>
       <c r="C6" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D6" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B7" s="25">
         <v>44602</v>
       </c>
       <c r="C7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D7" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B8" s="25">
         <v>44602</v>
       </c>
       <c r="C8" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D8" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B9" s="25">
         <v>44602</v>
       </c>
       <c r="C9" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D9" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B10" s="25">
         <v>44602</v>
       </c>
       <c r="C10" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D10" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B11" s="25">
         <v>44603</v>
       </c>
       <c r="C11" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D11" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B12" s="25">
         <v>44605</v>
       </c>
       <c r="C12" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D12" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B13" s="25">
         <v>44605</v>
       </c>
       <c r="C13" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D13" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B14" s="25">
         <v>44605</v>
       </c>
       <c r="C14" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D14" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B15" s="25">
         <v>44635</v>
       </c>
       <c r="C15" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D15" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B16" s="25">
         <v>44643</v>
       </c>
       <c r="C16" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D16" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B17" s="25">
         <v>44643</v>
       </c>
       <c r="C17" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D17" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B18" s="25">
         <v>44643</v>
       </c>
       <c r="C18" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D18" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B19" s="25">
         <v>44656</v>
       </c>
       <c r="C19" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D19" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B20" s="25">
         <v>44657</v>
       </c>
       <c r="C20" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D20" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B21" s="25">
         <v>44657</v>
       </c>
       <c r="C21" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D21" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B22" s="25">
         <v>44680</v>
       </c>
       <c r="C22" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D22" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B23" s="25">
         <v>44680</v>
       </c>
       <c r="C23" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D23" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B24" s="25">
         <v>44690</v>
       </c>
       <c r="C24" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D24" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B25" s="25">
         <v>44695</v>
       </c>
       <c r="C25" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D25" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B26" s="25">
         <v>44701</v>
       </c>
       <c r="C26" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D26" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B27" s="25">
         <v>44701</v>
       </c>
       <c r="C27" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D27" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B28" s="25">
         <v>44712</v>
       </c>
       <c r="C28" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D28" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B29" s="25">
         <v>44727</v>
       </c>
       <c r="C29" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D29" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B30" s="25">
         <v>44734</v>
       </c>
       <c r="C30" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D30" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B31" s="25">
         <v>44741</v>
       </c>
       <c r="C31" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D31" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
   </sheetData>
@@ -6144,7 +6144,7 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="37" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -6152,19 +6152,19 @@
         <v>22</v>
       </c>
       <c r="E1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="F1" t="s">
         <v>25</v>
       </c>
       <c r="G1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="H1" t="s">
+        <v>379</v>
+      </c>
+      <c r="I1" t="s">
         <v>380</v>
-      </c>
-      <c r="I1" t="s">
-        <v>381</v>
       </c>
       <c r="J1" t="s">
         <v>21</v>
@@ -6173,10 +6173,10 @@
         <v>24</v>
       </c>
       <c r="L1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="M1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6184,7 +6184,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>33</v>
@@ -6199,13 +6199,13 @@
         <v>13</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="H2" s="9" t="s">
         <v>7</v>
       </c>
       <c r="I2" s="24" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="J2" s="9" t="s">
         <v>6</v>
@@ -6225,10 +6225,10 @@
         <v>29</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D3">
         <v>75</v>
@@ -6239,10 +6239,10 @@
         <v>29</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D4">
         <v>75</v>
@@ -6253,10 +6253,10 @@
         <v>29</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D5">
         <v>75</v>
@@ -6291,7 +6291,7 @@
   <sheetData>
     <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="37" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B1" s="8" t="s">
         <v>1</v>
@@ -6303,7 +6303,7 @@
     <row r="2" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
       <c r="B2" s="15" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C2" s="9" t="s">
         <v>3</v>
@@ -6314,10 +6314,10 @@
         <v>28</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -6339,7 +6339,7 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C6">
         <v>0.5</v>
@@ -6347,7 +6347,7 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C7">
         <v>0.5</v>
@@ -6355,7 +6355,7 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C8">
         <v>0.5</v>
@@ -6363,7 +6363,7 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C9">
         <v>0.5</v>
@@ -6371,7 +6371,7 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C10">
         <v>0.5</v>
@@ -6379,7 +6379,7 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C11">
         <v>0.5</v>
@@ -6387,7 +6387,7 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C12">
         <v>0.5</v>
@@ -6395,7 +6395,7 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C13">
         <v>0.5</v>
@@ -6403,7 +6403,7 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C14">
         <v>0.5</v>
@@ -6411,7 +6411,7 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C15">
         <v>0.5</v>
@@ -6419,7 +6419,7 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C16">
         <v>0.5</v>
@@ -6427,7 +6427,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C17">
         <v>0.5</v>
@@ -6435,7 +6435,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C18">
         <v>0.5</v>
@@ -6443,7 +6443,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C19">
         <v>0.5</v>
@@ -6451,7 +6451,7 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C20">
         <v>0.5</v>
@@ -6459,7 +6459,7 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C21">
         <v>0.5</v>
@@ -6467,7 +6467,7 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C22">
         <v>0.5</v>
@@ -6475,7 +6475,7 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C23">
         <v>0.5</v>
@@ -6483,7 +6483,7 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C24">
         <v>0.5</v>
@@ -6491,7 +6491,7 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C25">
         <v>0.5</v>
@@ -6499,7 +6499,7 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C26">
         <v>0.5</v>
@@ -6507,7 +6507,7 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C27">
         <v>0.5</v>
@@ -6555,37 +6555,37 @@
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="37" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
       <c r="E1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F1" t="s">
+        <v>381</v>
+      </c>
+      <c r="G1" t="s">
+        <v>256</v>
+      </c>
+      <c r="H1" t="s">
+        <v>255</v>
+      </c>
+      <c r="I1" t="s">
+        <v>119</v>
+      </c>
+      <c r="J1" t="s">
         <v>382</v>
       </c>
-      <c r="G1" t="s">
-        <v>257</v>
-      </c>
-      <c r="H1" t="s">
-        <v>256</v>
-      </c>
-      <c r="I1" t="s">
-        <v>120</v>
-      </c>
-      <c r="J1" t="s">
-        <v>383</v>
-      </c>
       <c r="K1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="L1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="M1" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="P1" s="3"/>
       <c r="Q1" s="3"/>
@@ -6596,40 +6596,40 @@
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>58</v>
       </c>
       <c r="D2" s="19" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F2" s="9" t="s">
         <v>18</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="L2" s="9" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="M2" s="9" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="P2" s="3"/>
       <c r="Q2" s="3"/>
@@ -6640,19 +6640,19 @@
         <v>29</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D3" s="20" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="I3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J3">
         <v>1</v>
@@ -6663,13 +6663,13 @@
         <v>29</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D4" s="20" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -6683,13 +6683,13 @@
         <v>29</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D5" s="20" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -6700,13 +6700,13 @@
         <v>29</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D6" s="20" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -6720,33 +6720,33 @@
         <v>29</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D7" s="20" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E7">
         <v>1</v>
       </c>
       <c r="G7" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>403</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>404</v>
-      </c>
       <c r="C8" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D8" s="20" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -6754,16 +6754,16 @@
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>403</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>404</v>
-      </c>
       <c r="C9" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D9" s="20" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -6771,16 +6771,16 @@
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>403</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>404</v>
-      </c>
       <c r="C10" s="4" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="D10" s="20" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -6815,7 +6815,7 @@
   <sheetData>
     <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="37" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B1" s="8" t="s">
         <v>1</v>
@@ -6827,7 +6827,7 @@
     <row r="2" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
       <c r="B2" s="15" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C2" s="9" t="s">
         <v>18</v>
@@ -6836,10 +6836,10 @@
     <row r="3" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
       <c r="B3" s="6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="4" spans="1:11" s="18" customFormat="1" x14ac:dyDescent="0.25">
@@ -6848,7 +6848,7 @@
         <v>58</v>
       </c>
       <c r="C4" s="18" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="5" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.25">
@@ -6856,10 +6856,10 @@
         <v>28</v>
       </c>
       <c r="B5" s="19" t="s">
+        <v>340</v>
+      </c>
+      <c r="C5" s="20" t="s">
         <v>341</v>
-      </c>
-      <c r="C5" s="20" t="s">
-        <v>342</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -6881,7 +6881,7 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C8">
         <v>5</v>
@@ -6889,7 +6889,7 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C9">
         <v>5</v>
@@ -6897,7 +6897,7 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C10">
         <v>5</v>
@@ -6905,7 +6905,7 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C11">
         <v>5</v>
@@ -6913,7 +6913,7 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C12">
         <v>5</v>
@@ -6921,7 +6921,7 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C13">
         <v>5</v>
@@ -6929,7 +6929,7 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C14">
         <v>5</v>
@@ -6937,7 +6937,7 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C15">
         <v>5</v>
@@ -6945,7 +6945,7 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C16">
         <v>5</v>
@@ -6953,7 +6953,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C17">
         <v>5</v>
@@ -6961,7 +6961,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C18">
         <v>5</v>
@@ -6969,7 +6969,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C19">
         <v>5</v>
@@ -6977,7 +6977,7 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C20">
         <v>5</v>
@@ -6985,7 +6985,7 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C21">
         <v>5</v>
@@ -6993,7 +6993,7 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C22">
         <v>5</v>
@@ -7001,7 +7001,7 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C23">
         <v>5</v>
@@ -7009,7 +7009,7 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C24">
         <v>5</v>
@@ -7017,7 +7017,7 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C25">
         <v>5</v>
@@ -7025,7 +7025,7 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C26">
         <v>5</v>
@@ -7033,7 +7033,7 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C27">
         <v>5</v>
@@ -7041,7 +7041,7 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C28">
         <v>5</v>
@@ -7049,7 +7049,7 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C29">
         <v>5</v>
@@ -7084,7 +7084,7 @@
   <sheetData>
     <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B1" s="8" t="s">
         <v>1</v>
@@ -7099,7 +7099,7 @@
         <v>29</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="2" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -7107,19 +7107,19 @@
         <v>28</v>
       </c>
       <c r="B2" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>146</v>
-      </c>
       <c r="D2" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -7158,7 +7158,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C5">
         <v>0.25</v>
@@ -7175,7 +7175,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -7192,7 +7192,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -7209,7 +7209,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C8">
         <v>0.75</v>
@@ -7226,7 +7226,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C9">
         <v>0.25</v>
@@ -7243,7 +7243,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -7260,7 +7260,7 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -7277,7 +7277,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C12">
         <v>0.75</v>
@@ -7294,7 +7294,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C13">
         <v>0.25</v>
@@ -7311,7 +7311,7 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -7328,7 +7328,7 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C15">
         <v>1</v>
@@ -7345,7 +7345,7 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C16">
         <v>0.75</v>
@@ -7362,7 +7362,7 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C17">
         <v>0.25</v>
@@ -7379,7 +7379,7 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C18">
         <v>0</v>
@@ -7396,7 +7396,7 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C19">
         <v>1</v>
@@ -7413,7 +7413,7 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C20">
         <v>0.75</v>
@@ -7430,7 +7430,7 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C21">
         <v>0.25</v>
@@ -7447,7 +7447,7 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C22">
         <v>0</v>
@@ -7464,7 +7464,7 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C23">
         <v>1</v>
@@ -7481,7 +7481,7 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C24">
         <v>0.75</v>
@@ -7498,7 +7498,7 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C25">
         <v>0.25</v>
@@ -7515,7 +7515,7 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C26">
         <v>0</v>
@@ -7558,12 +7558,12 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="37" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
       <c r="D1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -7574,10 +7574,10 @@
         <v>58</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
@@ -7591,13 +7591,13 @@
         <v>29</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>275</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>276</v>
-      </c>
       <c r="D3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
   </sheetData>
@@ -7630,12 +7630,12 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="37" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
       <c r="D1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -7646,10 +7646,10 @@
         <v>27</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
@@ -7666,10 +7666,10 @@
         <v>32</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
   </sheetData>
@@ -7703,13 +7703,13 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="37" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
       <c r="E1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -7717,16 +7717,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C2" s="11" t="s">
         <v>58</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
@@ -7740,16 +7740,16 @@
         <v>29</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C3" s="18" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -7757,16 +7757,16 @@
         <v>29</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C4" s="18" t="s">
+        <v>409</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>410</v>
       </c>
-      <c r="D4" s="4" t="s">
-        <v>411</v>
-      </c>
       <c r="E4" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
   </sheetData>
@@ -7813,11 +7813,11 @@
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="37" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D1" t="s">
         <v>41</v>
@@ -7826,7 +7826,7 @@
         <v>37</v>
       </c>
       <c r="F1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="G1" t="s">
         <v>43</v>
@@ -7835,7 +7835,7 @@
         <v>47</v>
       </c>
       <c r="I1" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="J1" t="s">
         <v>45</v>
@@ -7844,7 +7844,7 @@
         <v>55</v>
       </c>
       <c r="L1" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="M1" t="s">
         <v>39</v>
@@ -7856,16 +7856,16 @@
         <v>53</v>
       </c>
       <c r="P1" t="s">
+        <v>345</v>
+      </c>
+      <c r="Q1" t="s">
         <v>346</v>
       </c>
-      <c r="Q1" t="s">
-        <v>347</v>
-      </c>
       <c r="R1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="S1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
@@ -7876,7 +7876,7 @@
         <v>57</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D2" s="9" t="s">
         <v>40</v>
@@ -7885,7 +7885,7 @@
         <v>36</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="G2" s="9" t="s">
         <v>42</v>
@@ -7903,7 +7903,7 @@
         <v>54</v>
       </c>
       <c r="L2" s="9" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="M2" s="9" t="s">
         <v>38</v>
@@ -7915,16 +7915,16 @@
         <v>52</v>
       </c>
       <c r="P2" s="9" t="s">
+        <v>343</v>
+      </c>
+      <c r="Q2" s="9" t="s">
         <v>344</v>
       </c>
-      <c r="Q2" s="9" t="s">
-        <v>345</v>
-      </c>
       <c r="R2" s="9" t="s">
+        <v>360</v>
+      </c>
+      <c r="S2" s="9" t="s">
         <v>361</v>
-      </c>
-      <c r="S2" s="9" t="s">
-        <v>362</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
@@ -7932,7 +7932,7 @@
         <v>29</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E3">
         <v>10</v>
@@ -7943,7 +7943,7 @@
         <v>29</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H4">
         <v>200</v>
@@ -7960,24 +7960,24 @@
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="G5" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="J5" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="P6">
         <v>40</v>
@@ -7991,10 +7991,10 @@
         <v>29</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C7" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
   </sheetData>
@@ -8033,7 +8033,7 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="37" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -8056,16 +8056,16 @@
         <v>51</v>
       </c>
       <c r="J1" t="s">
+        <v>345</v>
+      </c>
+      <c r="K1" t="s">
         <v>346</v>
       </c>
-      <c r="K1" t="s">
-        <v>347</v>
-      </c>
       <c r="L1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="M1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
@@ -8097,16 +8097,16 @@
         <v>50</v>
       </c>
       <c r="J2" s="9" t="s">
+        <v>343</v>
+      </c>
+      <c r="K2" s="9" t="s">
         <v>344</v>
       </c>
-      <c r="K2" s="9" t="s">
-        <v>345</v>
-      </c>
       <c r="L2" s="9" t="s">
+        <v>360</v>
+      </c>
+      <c r="M2" s="9" t="s">
         <v>361</v>
-      </c>
-      <c r="M2" s="9" t="s">
-        <v>362</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
@@ -8114,10 +8114,10 @@
         <v>29</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G3">
         <v>20</v>
@@ -8128,10 +8128,10 @@
         <v>29</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G4">
         <v>20</v>
@@ -8142,10 +8142,10 @@
         <v>29</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G5">
         <v>20</v>
@@ -8178,10 +8178,10 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="37" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -8190,42 +8190,42 @@
         <v>29</v>
       </c>
       <c r="C2" s="6" t="s">
+        <v>321</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>296</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>323</v>
+      </c>
+      <c r="F2" s="6" t="s">
         <v>322</v>
       </c>
-      <c r="D2" s="6" t="s">
-        <v>297</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>324</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>323</v>
-      </c>
       <c r="G2" s="6" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="I2" s="6" t="s">
+        <v>387</v>
+      </c>
+      <c r="J2" s="6" t="s">
         <v>388</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="K2" s="6" t="s">
         <v>389</v>
       </c>
-      <c r="K2" s="6" t="s">
-        <v>390</v>
-      </c>
       <c r="L2" s="6" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="M2" s="6" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B3" s="14" t="s">
         <v>29</v>
@@ -8266,91 +8266,91 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B4" s="14"/>
       <c r="C4" s="14" t="s">
+        <v>321</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>296</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>323</v>
+      </c>
+      <c r="F4" t="s">
         <v>322</v>
       </c>
-      <c r="D4" s="14" t="s">
-        <v>297</v>
-      </c>
-      <c r="E4" s="14" t="s">
-        <v>324</v>
-      </c>
-      <c r="F4" t="s">
-        <v>323</v>
-      </c>
       <c r="G4" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="H4" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="I4" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="J4" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="K4" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="L4" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="M4" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B5" s="14"/>
       <c r="G5" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="J5" t="s">
+        <v>388</v>
+      </c>
+      <c r="K5" t="s">
         <v>389</v>
-      </c>
-      <c r="K5" t="s">
-        <v>390</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B6" s="14"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B7" s="14"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B8" s="14"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B9" s="14"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B10" s="14"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B11" s="14"/>
     </row>
@@ -8477,42 +8477,42 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
   </sheetData>
@@ -8541,7 +8541,7 @@
         <v>57</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
@@ -8580,7 +8580,7 @@
         <v>57</v>
       </c>
       <c r="B1" s="38" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C1" s="10" t="s">
         <v>58</v>
@@ -8597,24 +8597,24 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
   </sheetData>
@@ -8651,26 +8651,26 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="37" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
       <c r="F1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="I1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="J1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K1" s="3"/>
       <c r="L1" s="3"/>
@@ -8684,10 +8684,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="C2" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>128</v>
       </c>
       <c r="D2" s="10" t="s">
         <v>27</v>
@@ -8696,19 +8696,19 @@
         <v>58</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H2" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="I2" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="I2" s="9" t="s">
-        <v>132</v>
-      </c>
       <c r="J2" s="9" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="K2" s="3"/>
       <c r="L2" s="3"/>
@@ -8719,22 +8719,22 @@
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D3" s="11" t="s">
         <v>32</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -8777,22 +8777,22 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="37" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
       <c r="E1" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="F1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G1" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="H1" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="J1" s="3"/>
       <c r="K1" s="3"/>
@@ -8806,25 +8806,25 @@
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="C2" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>128</v>
       </c>
       <c r="D2" s="10" t="s">
         <v>57</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
@@ -8835,19 +8835,19 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C3" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="D3" s="11" t="s">
         <v>286</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="E3" t="s">
         <v>287</v>
-      </c>
-      <c r="E3" t="s">
-        <v>288</v>
       </c>
       <c r="F3">
         <v>50</v>
@@ -8888,7 +8888,7 @@
   <sheetData>
     <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="37" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B1" s="8" t="s">
         <v>1</v>
@@ -8897,13 +8897,13 @@
     <row r="2" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
       <c r="B2" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="3" spans="1:11" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
       <c r="B3" s="11" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="4" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.25">
@@ -8917,7 +8917,7 @@
         <v>28</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -8933,114 +8933,114 @@
     </row>
     <row r="8" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B8" s="17"/>
     </row>
     <row r="9" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B9" s="17"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -9080,26 +9080,26 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="37" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
       <c r="F1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="I1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="J1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K1" s="3"/>
       <c r="L1" s="3"/>
@@ -9113,31 +9113,31 @@
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="C2" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="C2" s="7" t="s">
-        <v>128</v>
-      </c>
       <c r="D2" s="10" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E2" s="12" t="s">
         <v>58</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H2" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="I2" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="I2" s="9" t="s">
-        <v>132</v>
-      </c>
       <c r="J2" s="9" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="K2" s="3"/>
       <c r="L2" s="3"/>
@@ -9148,22 +9148,22 @@
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="I3">
         <v>0.5</v>
@@ -9174,22 +9174,22 @@
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -9200,22 +9200,22 @@
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F5" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="I5">
         <v>0.01</v>
@@ -9226,22 +9226,22 @@
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F6" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="I6">
         <v>0.5</v>
@@ -9252,22 +9252,22 @@
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F7" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="I7">
         <v>0.01</v>
@@ -9305,15 +9305,15 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="37" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
       <c r="D1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G1" s="3"/>
       <c r="H1" s="3"/>
@@ -9327,16 +9327,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C2" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>297</v>
+      </c>
+      <c r="E2" s="9" t="s">
         <v>156</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>298</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>157</v>
       </c>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
@@ -9350,13 +9350,13 @@
         <v>29</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>179</v>
-      </c>
       <c r="D3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -9364,16 +9364,16 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>405</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>406</v>
-      </c>
       <c r="D4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -9412,21 +9412,21 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="37" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
       <c r="D1" t="s">
+        <v>164</v>
+      </c>
+      <c r="E1" t="s">
         <v>165</v>
       </c>
-      <c r="E1" t="s">
-        <v>166</v>
-      </c>
       <c r="F1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -9434,22 +9434,22 @@
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>33</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F2" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="G2" s="9" t="s">
         <v>206</v>
-      </c>
-      <c r="G2" s="9" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -9460,19 +9460,19 @@
         <v>34</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E3" s="5">
         <v>0</v>
       </c>
       <c r="F3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -9483,136 +9483,136 @@
         <v>34</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E4">
         <v>5</v>
       </c>
       <c r="G4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>34</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="G5" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>34</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D6" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E6">
         <v>5</v>
       </c>
       <c r="G6" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D7" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>35</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D8" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="G8" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>35</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D9" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E9">
         <v>5</v>
       </c>
       <c r="G9" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D10" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -9653,14 +9653,14 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="37" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B1"/>
       <c r="C1"/>
       <c r="D1" s="3"/>
       <c r="E1"/>
       <c r="F1" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -9668,19 +9668,19 @@
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>58</v>
       </c>
       <c r="D2" s="19" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -9688,16 +9688,16 @@
         <v>29</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D3" s="20" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F3">
         <v>1</v>
@@ -9708,16 +9708,16 @@
         <v>29</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D4" s="20" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F4">
         <v>-0.1</v>
@@ -9725,19 +9725,19 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>403</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="C5" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="D5" s="20" t="s">
+        <v>341</v>
+      </c>
+      <c r="E5" s="11" t="s">
         <v>404</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="D5" s="20" t="s">
-        <v>342</v>
-      </c>
-      <c r="E5" s="11" t="s">
-        <v>405</v>
       </c>
       <c r="F5">
         <v>-1</v>
@@ -9745,19 +9745,19 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>403</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="C6" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="D6" s="20" t="s">
+        <v>341</v>
+      </c>
+      <c r="E6" s="11" t="s">
         <v>404</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="D6" s="20" t="s">
-        <v>342</v>
-      </c>
-      <c r="E6" s="11" t="s">
-        <v>405</v>
       </c>
       <c r="F6">
         <v>4</v>
@@ -9794,13 +9794,13 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="37" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B1"/>
       <c r="C1"/>
       <c r="D1"/>
       <c r="E1" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -9814,10 +9814,10 @@
         <v>58</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
   </sheetData>
@@ -9851,15 +9851,15 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="37" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B1"/>
       <c r="C1"/>
       <c r="D1" t="s">
+        <v>426</v>
+      </c>
+      <c r="E1" t="s">
         <v>427</v>
-      </c>
-      <c r="E1" t="s">
-        <v>428</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -9870,13 +9870,13 @@
         <v>58</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D2" s="9" t="s">
+        <v>428</v>
+      </c>
+      <c r="E2" s="9" t="s">
         <v>429</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>430</v>
       </c>
     </row>
   </sheetData>
@@ -9909,12 +9909,12 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="37" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B1"/>
       <c r="C1"/>
       <c r="D1" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -9922,13 +9922,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
   </sheetData>
@@ -9961,12 +9961,12 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="37" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B1"/>
       <c r="C1"/>
       <c r="D1" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -9977,10 +9977,10 @@
         <v>27</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
   </sheetData>
@@ -10014,14 +10014,14 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="37" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="2" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -10029,13 +10029,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -10046,111 +10046,111 @@
         <v>34</v>
       </c>
       <c r="C3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D3" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="F3" s="5"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>34</v>
       </c>
       <c r="C4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D4" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>35</v>
       </c>
       <c r="C6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D6" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D7" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>34</v>
       </c>
       <c r="D8" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="D9" t="s">
         <v>400</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="D9" t="s">
-        <v>401</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>35</v>
       </c>
       <c r="D10" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="D11" t="s">
         <v>400</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="D11" t="s">
-        <v>401</v>
       </c>
     </row>
   </sheetData>
@@ -10184,12 +10184,12 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="37" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
       <c r="D1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -10197,13 +10197,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -10211,7 +10211,7 @@
         <v>29</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>30</v>
@@ -10225,7 +10225,7 @@
         <v>29</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>30</v>
@@ -10265,12 +10265,12 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="37" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
       <c r="D1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="2" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -10278,13 +10278,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -10292,7 +10292,7 @@
         <v>29</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>30</v>
@@ -10306,7 +10306,7 @@
         <v>29</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>31</v>
@@ -10320,10 +10320,10 @@
         <v>29</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -10334,10 +10334,10 @@
         <v>29</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -10348,10 +10348,10 @@
         <v>29</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -10362,10 +10362,10 @@
         <v>29</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D8">
         <v>1</v>
@@ -10376,10 +10376,10 @@
         <v>29</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D9">
         <v>1</v>
@@ -10390,10 +10390,10 @@
         <v>29</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D10">
         <v>1</v>
@@ -10404,10 +10404,10 @@
         <v>29</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D11">
         <v>1</v>
@@ -10418,10 +10418,10 @@
         <v>29</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D12">
         <v>1</v>
@@ -10432,10 +10432,10 @@
         <v>29</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D13">
         <v>1</v>
@@ -10446,10 +10446,10 @@
         <v>29</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D14">
         <v>1</v>
@@ -10460,10 +10460,10 @@
         <v>29</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D15">
         <v>1</v>
@@ -10474,10 +10474,10 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D16">
         <v>1</v>
@@ -10488,10 +10488,10 @@
         <v>29</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D17">
         <v>1</v>
@@ -10502,10 +10502,10 @@
         <v>29</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D18">
         <v>1</v>
@@ -10516,10 +10516,10 @@
         <v>29</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D19">
         <v>1</v>
@@ -10530,10 +10530,10 @@
         <v>29</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D20">
         <v>1</v>
@@ -10544,10 +10544,10 @@
         <v>29</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D21">
         <v>1</v>
@@ -10558,10 +10558,10 @@
         <v>29</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D22">
         <v>1</v>
@@ -10572,10 +10572,10 @@
         <v>29</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D23">
         <v>1</v>
@@ -10586,10 +10586,10 @@
         <v>29</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D24">
         <v>1</v>
@@ -10600,10 +10600,10 @@
         <v>29</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D25">
         <v>1</v>
@@ -10614,10 +10614,10 @@
         <v>29</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D26">
         <v>1</v>
@@ -10656,11 +10656,11 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="37" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="2" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -10668,10 +10668,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -10679,7 +10679,7 @@
         <v>29</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C3">
         <f>24/8760</f>
@@ -10713,26 +10713,26 @@
   <sheetData>
     <row r="1" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>

--- a/FlexTool_import_template.xlsx
+++ b/FlexTool_import_template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\data\Toolbox_projects\FlexTool3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3F97E5D-6F3D-467C-B9AF-781013E29D35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0901498C-B61B-49BC-B03B-58EA9D517645}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="405" yWindow="1905" windowWidth="24900" windowHeight="17970" tabRatio="1000" activeTab="9" xr2:uid="{D5BEC09F-8FA9-46E6-8F36-396DCDACE376}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="30360" windowHeight="21000" tabRatio="1000" firstSheet="30" activeTab="41" xr2:uid="{D5BEC09F-8FA9-46E6-8F36-396DCDACE376}"/>
   </bookViews>
   <sheets>
     <sheet name="navigate" sheetId="54" r:id="rId1"/>
@@ -205,7 +205,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1308" uniqueCount="457">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1316" uniqueCount="460">
   <si>
     <t>commodity</t>
   </si>
@@ -1515,9 +1515,6 @@
     <t>15.0</t>
   </si>
   <si>
-    <t xml:space="preserve">Added new sheets for state and capacity constraints. Changed </t>
-  </si>
-  <si>
     <t>connection_node_constraint_c</t>
   </si>
   <si>
@@ -1576,6 +1573,18 @@
   </si>
   <si>
     <t>has_storage</t>
+  </si>
+  <si>
+    <t>Added new sheets for state and capacity constraints. Changed location of unit constraint sheets to the end.</t>
+  </si>
+  <si>
+    <t>16.0</t>
+  </si>
+  <si>
+    <t>In 'node_c' 'has_state' to 'has_storage'. In 'node_c' added 'storage_binding_method', 'storage_start_end_method', 'storage_solve_horizon_method', 'storage_state_start', 'storage_state_end', 'storage_state_reference_value', 'storage_state_reference_price'.</t>
+  </si>
+  <si>
+    <t>foo</t>
   </si>
 </sst>
 </file>
@@ -3208,7 +3217,7 @@
   <dimension ref="A1:E38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3485,7 +3494,7 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="48" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B35" s="48"/>
       <c r="C35" s="48"/>
@@ -3569,11 +3578,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A4889F5-3956-475B-A853-BA105023BA1D}">
   <dimension ref="A1:AD8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="R3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F1" sqref="F1"/>
+      <selection pane="bottomRight" activeCell="Z1" sqref="Z1:AC2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3629,13 +3638,13 @@
         <v>185</v>
       </c>
       <c r="H1" t="s">
+        <v>453</v>
+      </c>
+      <c r="I1" t="s">
         <v>454</v>
       </c>
-      <c r="I1" t="s">
-        <v>455</v>
-      </c>
       <c r="J1" s="5" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="K1" t="s">
         <v>154</v>
@@ -3683,16 +3692,16 @@
         <v>72</v>
       </c>
       <c r="Z1" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="AA1" s="5" t="s">
+        <v>441</v>
+      </c>
+      <c r="AB1" t="s">
         <v>442</v>
       </c>
-      <c r="AB1" t="s">
-        <v>443</v>
-      </c>
       <c r="AC1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="AD1" t="s">
         <v>73</v>
@@ -3715,19 +3724,19 @@
         <v>265</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="G2" s="9" t="s">
         <v>11</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="I2" s="9" t="s">
+        <v>443</v>
+      </c>
+      <c r="J2" s="9" t="s">
         <v>444</v>
-      </c>
-      <c r="J2" s="9" t="s">
-        <v>445</v>
       </c>
       <c r="K2" s="9" t="s">
         <v>59</v>
@@ -3775,16 +3784,16 @@
         <v>64</v>
       </c>
       <c r="Z2" s="9" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="AA2" s="9" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="AB2" s="9" t="s">
+        <v>446</v>
+      </c>
+      <c r="AC2" s="9" t="s">
         <v>447</v>
-      </c>
-      <c r="AC2" s="9" t="s">
-        <v>448</v>
       </c>
       <c r="AD2" s="9" t="s">
         <v>65</v>
@@ -3908,13 +3917,13 @@
         <v>146</v>
       </c>
       <c r="H7" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="I7" t="s">
+        <v>449</v>
+      </c>
+      <c r="J7" t="s">
         <v>450</v>
-      </c>
-      <c r="J7" t="s">
-        <v>451</v>
       </c>
       <c r="M7">
         <v>12000</v>
@@ -4698,7 +4707,7 @@
       <pane xSplit="4" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E3" sqref="E3"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5364,10 +5373,10 @@
   <dimension ref="A1:X7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="F3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="X2" sqref="X1:X2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5687,9 +5696,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4446509C-CB62-4FDB-A8D2-BE0D15E8AAF2}">
-  <dimension ref="A1:D31"/>
+  <dimension ref="A1:D33"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D33" sqref="D33"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -6105,7 +6116,32 @@
         <v>193</v>
       </c>
       <c r="D31" t="s">
-        <v>436</v>
+        <v>456</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="5" t="s">
+        <v>457</v>
+      </c>
+      <c r="B32" s="25">
+        <v>44840</v>
+      </c>
+      <c r="C32" t="s">
+        <v>193</v>
+      </c>
+      <c r="D32" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="5" t="s">
+        <v>457</v>
+      </c>
+      <c r="B33" s="25">
+        <v>44840</v>
+      </c>
+      <c r="C33" t="s">
+        <v>193</v>
       </c>
     </row>
   </sheetData>
@@ -7785,7 +7821,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
+      <selection pane="bottomRight" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8783,7 +8819,7 @@
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
       <c r="E1" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="F1" t="s">
         <v>137</v>
@@ -9830,13 +9866,13 @@
 
 <file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF0A3667-1C00-43CD-99E7-8F765FEBD719}">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9877,6 +9913,20 @@
       </c>
       <c r="E2" s="9" t="s">
         <v>429</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>459</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -9947,7 +9997,7 @@
       <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="Q57" sqref="Q57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/FlexTool_import_template.xlsx
+++ b/FlexTool_import_template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\data\Toolbox_projects\FlexTool3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0901498C-B61B-49BC-B03B-58EA9D517645}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D7F03DA-00E3-4261-8F3E-10878A94064B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="30360" windowHeight="21000" tabRatio="1000" firstSheet="30" activeTab="41" xr2:uid="{D5BEC09F-8FA9-46E6-8F36-396DCDACE376}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="30360" windowHeight="21000" tabRatio="1000" activeTab="1" xr2:uid="{D5BEC09F-8FA9-46E6-8F36-396DCDACE376}"/>
   </bookViews>
   <sheets>
     <sheet name="navigate" sheetId="54" r:id="rId1"/>
@@ -205,7 +205,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1316" uniqueCount="460">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1313" uniqueCount="459">
   <si>
     <t>commodity</t>
   </si>
@@ -1582,9 +1582,6 @@
   </si>
   <si>
     <t>In 'node_c' 'has_state' to 'has_storage'. In 'node_c' added 'storage_binding_method', 'storage_start_end_method', 'storage_solve_horizon_method', 'storage_state_start', 'storage_state_end', 'storage_state_reference_value', 'storage_state_reference_price'.</t>
-  </si>
-  <si>
-    <t>foo</t>
   </si>
 </sst>
 </file>
@@ -3216,9 +3213,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F991596-B8AE-4F8F-B051-2E61303D5CC8}">
   <dimension ref="A1:E38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A36" sqref="A36"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -5698,7 +5693,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4446509C-CB62-4FDB-A8D2-BE0D15E8AAF2}">
   <dimension ref="A1:D33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
@@ -9866,9 +9861,9 @@
 
 <file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF0A3667-1C00-43CD-99E7-8F765FEBD719}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
@@ -9913,20 +9908,6 @@
       </c>
       <c r="E2" s="9" t="s">
         <v>429</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>459</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/FlexTool_import_template.xlsx
+++ b/FlexTool_import_template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\data\Toolbox_projects\FlexTool3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D7F03DA-00E3-4261-8F3E-10878A94064B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54A3C16C-8353-4065-92ED-727DADB2179D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="30360" windowHeight="21000" tabRatio="1000" activeTab="1" xr2:uid="{D5BEC09F-8FA9-46E6-8F36-396DCDACE376}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="1000" xr2:uid="{D5BEC09F-8FA9-46E6-8F36-396DCDACE376}"/>
   </bookViews>
   <sheets>
     <sheet name="navigate" sheetId="54" r:id="rId1"/>
@@ -205,7 +205,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1313" uniqueCount="459">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1334" uniqueCount="463">
   <si>
     <t>commodity</t>
   </si>
@@ -1582,6 +1582,18 @@
   </si>
   <si>
     <t>In 'node_c' 'has_state' to 'has_storage'. In 'node_c' added 'storage_binding_method', 'storage_start_end_method', 'storage_solve_horizon_method', 'storage_state_start', 'storage_state_end', 'storage_state_reference_value', 'storage_state_reference_price'.</t>
+  </si>
+  <si>
+    <t>[MW] Size of single connection - used for investments and some technical limits. If not provided, existing capacity is assumed. Constant.</t>
+  </si>
+  <si>
+    <t>Added 'virtual_unitsize' to 'connection_c'</t>
+  </si>
+  <si>
+    <t>16.1</t>
+  </si>
+  <si>
+    <t>battery_tie_kW_kWh</t>
   </si>
 </sst>
 </file>
@@ -2805,7 +2817,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>22</xdr:col>
+      <xdr:col>23</xdr:col>
       <xdr:colOff>447675</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
@@ -3213,7 +3225,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F991596-B8AE-4F8F-B051-2E61303D5CC8}">
   <dimension ref="A1:E38"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3571,13 +3583,13 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A4889F5-3956-475B-A853-BA105023BA1D}">
-  <dimension ref="A1:AD8"/>
+  <dimension ref="A1:AD9"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="R3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="Z1" sqref="Z1:AC2"/>
+      <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3960,6 +3972,32 @@
       </c>
       <c r="O8">
         <v>1000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="G9" t="s">
+        <v>324</v>
+      </c>
+      <c r="P9">
+        <v>800</v>
+      </c>
+      <c r="T9" s="14">
+        <v>200</v>
+      </c>
+      <c r="V9" s="14">
+        <v>0.05</v>
+      </c>
+      <c r="X9">
+        <v>10</v>
+      </c>
+      <c r="AD9">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -4556,7 +4594,7 @@
       <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A6" sqref="A6"/>
+      <selection pane="bottomRight" activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4696,7 +4734,7 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D44D2B2-1DE7-400D-8C40-2CD59BEE6EC3}">
-  <dimension ref="A1:V5"/>
+  <dimension ref="A1:W6"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="4" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
@@ -4727,9 +4765,10 @@
     <col min="20" max="20" width="10.5703125" customWidth="1"/>
     <col min="21" max="21" width="13.140625" customWidth="1"/>
     <col min="22" max="22" width="10" customWidth="1"/>
+    <col min="23" max="23" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A1" s="37" t="s">
         <v>249</v>
       </c>
@@ -4790,8 +4829,11 @@
       <c r="V1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W1" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>1</v>
       </c>
@@ -4858,8 +4900,11 @@
       <c r="V2" s="9" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W2" s="24" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>29</v>
       </c>
@@ -4890,20 +4935,8 @@
       <c r="K3">
         <v>100</v>
       </c>
-      <c r="L3">
-        <v>100</v>
-      </c>
-      <c r="P3">
-        <v>500</v>
-      </c>
-      <c r="R3">
-        <v>0.05</v>
-      </c>
-      <c r="S3">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>296</v>
       </c>
@@ -4935,7 +4968,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>322</v>
       </c>
@@ -4950,6 +4983,53 @@
       </c>
       <c r="H5" t="s">
         <v>324</v>
+      </c>
+      <c r="L5">
+        <v>100</v>
+      </c>
+      <c r="P5">
+        <v>500</v>
+      </c>
+      <c r="R5">
+        <v>0.05</v>
+      </c>
+      <c r="S5">
+        <v>50</v>
+      </c>
+      <c r="W5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>274</v>
+      </c>
+      <c r="H6" t="s">
+        <v>324</v>
+      </c>
+      <c r="L6">
+        <v>100</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0.05</v>
+      </c>
+      <c r="S6">
+        <v>20</v>
+      </c>
+      <c r="W6">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -4969,7 +5049,7 @@
       <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
+      <selection pane="bottomRight" activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5368,10 +5448,10 @@
   <dimension ref="A1:X7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="F3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="X2" sqref="X1:X2"/>
+      <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5693,13 +5773,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4446509C-CB62-4FDB-A8D2-BE0D15E8AAF2}">
   <dimension ref="A1:D33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.140625" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15" customWidth="1"/>
   </cols>
   <sheetData>
@@ -6128,15 +6209,18 @@
         <v>458</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
-        <v>457</v>
+        <v>461</v>
       </c>
       <c r="B33" s="25">
-        <v>44840</v>
+        <v>44850</v>
       </c>
       <c r="C33" t="s">
         <v>193</v>
+      </c>
+      <c r="D33" t="s">
+        <v>460</v>
       </c>
     </row>
   </sheetData>
@@ -6562,7 +6646,7 @@
       <pane xSplit="4" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F19" sqref="F19"/>
+      <selection pane="bottomRight" activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6833,7 +6917,7 @@
       <pane xSplit="2" ySplit="5" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7104,7 +7188,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F2" sqref="F2"/>
+      <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7575,7 +7659,7 @@
       <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B3" sqref="B3"/>
+      <selection pane="bottomRight" activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7816,7 +7900,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C2" sqref="C2"/>
+      <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8044,7 +8128,7 @@
       <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8198,7 +8282,7 @@
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B4" sqref="B4"/>
+      <selection pane="bottomRight" activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9317,19 +9401,19 @@
 
 <file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6C017E3-B844-46CF-8B82-D76F5D9D7ACD}">
-  <dimension ref="A1:L4"/>
+  <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="20.5703125" style="2" customWidth="1"/>
     <col min="3" max="3" width="12.7109375" style="4" customWidth="1"/>
     <col min="4" max="9" width="11.5703125" customWidth="1"/>
   </cols>
@@ -9407,6 +9491,23 @@
         <v>159</v>
       </c>
       <c r="E4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>405</v>
+      </c>
+      <c r="D5" t="s">
+        <v>159</v>
+      </c>
+      <c r="E5">
         <v>0</v>
       </c>
     </row>
@@ -9426,7 +9527,7 @@
       <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9810,7 +9911,7 @@
       <pane xSplit="4" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9861,20 +9962,20 @@
 
 <file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF0A3667-1C00-43CD-99E7-8F765FEBD719}">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D3" sqref="D3"/>
+      <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="11.85546875" style="11" customWidth="1"/>
+    <col min="2" max="2" width="13.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20" style="11" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="26.140625" customWidth="1"/>
     <col min="5" max="5" width="29.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="8" width="11.5703125" customWidth="1"/>
@@ -9908,6 +10009,20 @@
       </c>
       <c r="E2" s="9" t="s">
         <v>429</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>462</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -9972,20 +10087,20 @@
 
 <file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D55AA85F-4B1E-49C3-94EB-B0A94205CD7C}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="Q57" sqref="Q57"/>
+      <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="11.85546875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="11.85546875" style="11" customWidth="1"/>
+    <col min="3" max="3" width="20" style="11" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="29.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="7" width="11.5703125" customWidth="1"/>
   </cols>
@@ -10012,6 +10127,20 @@
       </c>
       <c r="D2" s="9" t="s">
         <v>429</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>462</v>
+      </c>
+      <c r="D3">
+        <v>-8</v>
       </c>
     </row>
   </sheetData>
@@ -10030,7 +10159,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/FlexTool_import_template.xlsx
+++ b/FlexTool_import_template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\data\Toolbox_projects\FlexTool3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54A3C16C-8353-4065-92ED-727DADB2179D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A05485BB-8A58-49E7-9C81-7E55AD0A5D3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="1000" xr2:uid="{D5BEC09F-8FA9-46E6-8F36-396DCDACE376}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="1000" activeTab="9" xr2:uid="{D5BEC09F-8FA9-46E6-8F36-396DCDACE376}"/>
   </bookViews>
   <sheets>
     <sheet name="navigate" sheetId="54" r:id="rId1"/>
@@ -1566,9 +1566,6 @@
     <t>bind_within_period</t>
   </si>
   <si>
-    <t>Choice how the storage state will be maintained over discontinuos timelines. Default 'bind_between_timeblocks' will bind the storage end state at the end of the timeblock to the beginning of the timeblock. 'bind_within_period', 'bind_within_solve' and bind_within_model' will act similarly but over increasingly longer time span. Meanwhile 'bind_forward_only' will bind forward over any holes in the used timeline, but will not bind end to the start. Separate parameters (e.g. 'storage_state_start') can force bindings.</t>
-  </si>
-  <si>
     <t>Choice whether the start and end states of storage are fixed in the beginning and end of the whole model timeline (not between solves). Uses 'storage_state_start' and 'storage_state_end'. Options: 'fix_nothing', 'fix_start', 'fix_end', 'fix_start_end'.</t>
   </si>
   <si>
@@ -1594,6 +1591,9 @@
   </si>
   <si>
     <t>battery_tie_kW_kWh</t>
+  </si>
+  <si>
+    <t>Choice how the storage state will be maintained over discontinuos timelines. Default 'bind_within_timeblock' will bind the storage end state at the end of the timeblock to the beginning of the timeblock. 'bind_within_period', 'bind_within_solve' and bind_within_model' will act similarly but over increasingly longer time span. Meanwhile 'bind_forward_only' will bind forward over any holes in the used timeline, but will not bind end to the start. Separate parameters (e.g. 'storage_state_start') can force bindings.</t>
   </si>
 </sst>
 </file>
@@ -3225,7 +3225,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F991596-B8AE-4F8F-B051-2E61303D5CC8}">
   <dimension ref="A1:E38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3585,11 +3585,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A4889F5-3956-475B-A853-BA105023BA1D}">
   <dimension ref="A1:AD9"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
+      <selection pane="bottomRight" activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3645,10 +3645,10 @@
         <v>185</v>
       </c>
       <c r="H1" t="s">
+        <v>462</v>
+      </c>
+      <c r="I1" t="s">
         <v>453</v>
-      </c>
-      <c r="I1" t="s">
-        <v>454</v>
       </c>
       <c r="J1" s="5" t="s">
         <v>445</v>
@@ -3731,7 +3731,7 @@
         <v>265</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="G2" s="9" t="s">
         <v>11</v>
@@ -4830,7 +4830,7 @@
         <v>19</v>
       </c>
       <c r="W1" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
@@ -6192,12 +6192,12 @@
         <v>193</v>
       </c>
       <c r="D31" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B32" s="25">
         <v>44840</v>
@@ -6206,12 +6206,12 @@
         <v>193</v>
       </c>
       <c r="D32" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B33" s="25">
         <v>44850</v>
@@ -6220,7 +6220,7 @@
         <v>193</v>
       </c>
       <c r="D33" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
   </sheetData>
@@ -9499,7 +9499,7 @@
         <v>322</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>405</v>
@@ -10019,7 +10019,7 @@
         <v>274</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -10137,7 +10137,7 @@
         <v>273</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="D3">
         <v>-8</v>

--- a/FlexTool_import_template.xlsx
+++ b/FlexTool_import_template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\data\Toolbox_projects\FlexTool3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A05485BB-8A58-49E7-9C81-7E55AD0A5D3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BC54E0B-D651-4B61-9105-7A2E1F98F0D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="1000" activeTab="9" xr2:uid="{D5BEC09F-8FA9-46E6-8F36-396DCDACE376}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="1000" firstSheet="3" activeTab="4" xr2:uid="{D5BEC09F-8FA9-46E6-8F36-396DCDACE376}"/>
   </bookViews>
   <sheets>
     <sheet name="navigate" sheetId="54" r:id="rId1"/>
@@ -205,7 +205,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1334" uniqueCount="463">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1375" uniqueCount="476">
   <si>
     <t>commodity</t>
   </si>
@@ -762,9 +762,6 @@
     <t>Choice between minimum up- and downtimes (&lt;empty&gt;, min_downtime, min_uptime, both).</t>
   </si>
   <si>
-    <t>Choice of investment method (only_invest, only_retire, invest_and_retire, not_allowed).</t>
-  </si>
-  <si>
     <t>Can the unit provide this reserve. Empty indicates not allowed. Use 'yes' to indicate true.</t>
   </si>
   <si>
@@ -1179,9 +1176,6 @@
     <t>4solves</t>
   </si>
   <si>
-    <t>only_invest</t>
-  </si>
-  <si>
     <t>alternative_1</t>
   </si>
   <si>
@@ -1594,6 +1588,51 @@
   </si>
   <si>
     <t>Choice how the storage state will be maintained over discontinuos timelines. Default 'bind_within_timeblock' will bind the storage end state at the end of the timeblock to the beginning of the timeblock. 'bind_within_period', 'bind_within_solve' and bind_within_model' will act similarly but over increasingly longer time span. Meanwhile 'bind_forward_only' will bind forward over any holes in the used timeline, but will not bind end to the start. Separate parameters (e.g. 'storage_state_start') can force bindings.</t>
+  </si>
+  <si>
+    <t>invest_total</t>
+  </si>
+  <si>
+    <t>Choice of investment method: not_allowed, invest and retire indicate availability of investment and retirement. no_limit removes all limits even if there are limiting values set. period uses values set in invest/retire_max/min_period. total uses values set in invest/retire_max/min_total.</t>
+  </si>
+  <si>
+    <t>invest_period</t>
+  </si>
+  <si>
+    <t>17.0</t>
+  </si>
+  <si>
+    <t>Changed invest_method choices in node_c, connection_c and unit_c (removed only_invest, only_period and both, added invest_no_limit, invest_period, invest_total, invest_period_total, retire_no_limit, retire_period, retire_total, retire_period_total, invest_retire_no_limit, invest_retire_period, invest_retire_period, invest_retire_period_total)</t>
+  </si>
+  <si>
+    <t>18.0</t>
+  </si>
+  <si>
+    <t>Invest_method for group</t>
+  </si>
+  <si>
+    <t>highs_parallel</t>
+  </si>
+  <si>
+    <t>HiGHS uses presolve ('on') or not ('off'). Useful when solves are large.</t>
+  </si>
+  <si>
+    <t>highs_presolve</t>
+  </si>
+  <si>
+    <t>highs_method</t>
+  </si>
+  <si>
+    <t>HiGHS solver method ('simplex' or 'ipm' which is interior point method)</t>
+  </si>
+  <si>
+    <t>HiGHS parallelises single solves or not ('on' or 'off'). It can be better to turn HiGHS parallel off when executing multiple scnearios in parallel.</t>
+  </si>
+  <si>
+    <t>off</t>
+  </si>
+  <si>
+    <t>simplex</t>
   </si>
 </sst>
 </file>
@@ -2145,10 +2184,10 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>923925</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="5573770" cy="1581459"/>
     <xdr:sp macro="" textlink="">
@@ -2164,7 +2203,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3743325" y="590550"/>
+          <a:off x="7734300" y="638175"/>
           <a:ext cx="5573770" cy="1581459"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3236,74 +3275,74 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="46" t="s">
+        <v>281</v>
+      </c>
+      <c r="B1" s="46" t="s">
+        <v>283</v>
+      </c>
+      <c r="C1" s="46" t="s">
         <v>282</v>
-      </c>
-      <c r="B1" s="46" t="s">
-        <v>284</v>
-      </c>
-      <c r="C1" s="46" t="s">
-        <v>283</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="43" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B2" s="43"/>
       <c r="C2" s="43"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="43" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="B3" s="43"/>
       <c r="C3" s="43"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="43" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B4" s="43"/>
       <c r="C4" s="43"/>
       <c r="E4" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="43" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B5" s="43"/>
       <c r="C5" s="43"/>
       <c r="E5" s="5" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="43" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B6" s="43"/>
       <c r="C6" s="43"/>
       <c r="E6" s="5" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="29" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B7" s="30"/>
       <c r="C7" s="29" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="43" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B8" s="43"/>
       <c r="C8" s="43"/>
@@ -3313,65 +3352,65 @@
       <c r="B9" s="27"/>
       <c r="C9" s="27"/>
       <c r="E9" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="31" t="s">
+        <v>216</v>
+      </c>
+      <c r="B10" s="31" t="s">
         <v>217</v>
       </c>
-      <c r="B10" s="31" t="s">
+      <c r="C10" s="31" t="s">
         <v>218</v>
-      </c>
-      <c r="C10" s="31" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="31" t="s">
+        <v>219</v>
+      </c>
+      <c r="B11" s="31" t="s">
         <v>220</v>
-      </c>
-      <c r="B11" s="31" t="s">
-        <v>221</v>
       </c>
       <c r="C11" s="32"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="44" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B12" s="44"/>
       <c r="C12" s="44"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="31" t="s">
+        <v>222</v>
+      </c>
+      <c r="B13" s="31" t="s">
         <v>223</v>
       </c>
-      <c r="B13" s="31" t="s">
+      <c r="C13" s="31" t="s">
         <v>224</v>
-      </c>
-      <c r="C13" s="31" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="31" t="s">
+        <v>241</v>
+      </c>
+      <c r="B14" s="31" t="s">
         <v>242</v>
       </c>
-      <c r="B14" s="31" t="s">
+      <c r="C14" s="31" t="s">
         <v>243</v>
-      </c>
-      <c r="C14" s="31" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="31" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B15" s="32"/>
       <c r="C15" s="31" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -3383,26 +3422,26 @@
       <c r="A17" s="39"/>
       <c r="B17" s="39"/>
       <c r="C17" s="40" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="45" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B18" s="45"/>
       <c r="C18" s="45"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="45" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B19" s="45"/>
       <c r="C19" s="45"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="45" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B20" s="45"/>
       <c r="C20" s="45"/>
@@ -3414,45 +3453,45 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="34" t="s">
+        <v>237</v>
+      </c>
+      <c r="B22" s="34" t="s">
         <v>238</v>
-      </c>
-      <c r="B22" s="34" t="s">
-        <v>239</v>
       </c>
       <c r="C22" s="34"/>
       <c r="D22" s="28"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="41" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B23" s="41"/>
       <c r="C23" s="41"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="41" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B24" s="41"/>
       <c r="C24" s="41"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="41" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B25" s="41"/>
       <c r="C25" s="41"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="41" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B26" s="41"/>
       <c r="C26" s="41"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="41" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B27" s="41"/>
       <c r="C27" s="41"/>
@@ -3464,65 +3503,65 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="42" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B29" s="42"/>
       <c r="C29" s="42"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="35" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B30" s="36"/>
       <c r="C30" s="35" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="42" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B31" s="42"/>
       <c r="C31" s="42"/>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="48" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B33" s="48"/>
       <c r="C33" s="48"/>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="48" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B34" s="48"/>
       <c r="C34" s="48"/>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="48" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="B35" s="48"/>
       <c r="C35" s="48"/>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="48" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="B36" s="48"/>
       <c r="C36" s="48"/>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="48" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="B37" s="48"/>
       <c r="C37" s="48"/>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="48" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="B38" s="48"/>
       <c r="C38" s="48"/>
@@ -3585,11 +3624,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A4889F5-3956-475B-A853-BA105023BA1D}">
   <dimension ref="A1:AD9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="H1" sqref="H1"/>
+      <selection pane="bottomRight" activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3626,32 +3665,32 @@
   <sheetData>
     <row r="1" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A1" s="37" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D1" t="s">
         <v>182</v>
       </c>
       <c r="E1" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="F1" t="s">
         <v>183</v>
       </c>
       <c r="G1" t="s">
-        <v>185</v>
+        <v>462</v>
       </c>
       <c r="H1" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="I1" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="K1" t="s">
         <v>154</v>
@@ -3660,10 +3699,10 @@
         <v>170</v>
       </c>
       <c r="M1" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="N1" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="O1" t="s">
         <v>67</v>
@@ -3672,25 +3711,25 @@
         <v>70</v>
       </c>
       <c r="Q1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="R1" t="s">
         <v>71</v>
       </c>
       <c r="S1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="T1" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="U1" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="V1" t="s">
         <v>21</v>
       </c>
       <c r="W1" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="X1" t="s">
         <v>24</v>
@@ -3699,16 +3738,16 @@
         <v>72</v>
       </c>
       <c r="Z1" t="s">
+        <v>437</v>
+      </c>
+      <c r="AA1" s="5" t="s">
         <v>439</v>
       </c>
-      <c r="AA1" s="5" t="s">
-        <v>441</v>
-      </c>
       <c r="AB1" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="AC1" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="AD1" t="s">
         <v>73</v>
@@ -3722,28 +3761,28 @@
         <v>58</v>
       </c>
       <c r="C2" s="24" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D2" s="9" t="s">
         <v>60</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="G2" s="9" t="s">
         <v>11</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="K2" s="9" t="s">
         <v>59</v>
@@ -3770,13 +3809,13 @@
         <v>14</v>
       </c>
       <c r="S2" s="9" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="T2" s="9" t="s">
         <v>7</v>
       </c>
       <c r="U2" s="24" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="V2" s="9" t="s">
         <v>6</v>
@@ -3791,16 +3830,16 @@
         <v>64</v>
       </c>
       <c r="Z2" s="9" t="s">
+        <v>436</v>
+      </c>
+      <c r="AA2" s="9" t="s">
         <v>438</v>
       </c>
-      <c r="AA2" s="9" t="s">
-        <v>440</v>
-      </c>
       <c r="AB2" s="9" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="AC2" s="9" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="AD2" s="9" t="s">
         <v>65</v>
@@ -3820,7 +3859,7 @@
         <v>159</v>
       </c>
       <c r="E3" s="14" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="F3" s="14"/>
       <c r="G3" t="s">
@@ -3847,7 +3886,7 @@
         <v>159</v>
       </c>
       <c r="E4" s="14" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="F4" s="14"/>
       <c r="G4" t="s">
@@ -3906,10 +3945,10 @@
     </row>
     <row r="7" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C7" s="14" t="s">
         <v>159</v>
@@ -3924,13 +3963,13 @@
         <v>146</v>
       </c>
       <c r="H7" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="I7" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="J7" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="M7">
         <v>12000</v>
@@ -3953,10 +3992,10 @@
     </row>
     <row r="8" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="C8" s="14" t="s">
         <v>159</v>
@@ -3976,13 +4015,13 @@
     </row>
     <row r="9" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="G9" t="s">
-        <v>324</v>
+        <v>461</v>
       </c>
       <c r="P9">
         <v>800</v>
@@ -4017,7 +4056,7 @@
       <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D3" sqref="D3"/>
+      <selection pane="bottomRight" activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4039,7 +4078,7 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="37" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -4053,19 +4092,19 @@
         <v>69</v>
       </c>
       <c r="G1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="H1" t="s">
+        <v>368</v>
+      </c>
+      <c r="I1" t="s">
+        <v>369</v>
+      </c>
+      <c r="J1" t="s">
+        <v>365</v>
+      </c>
+      <c r="K1" t="s">
         <v>370</v>
-      </c>
-      <c r="I1" t="s">
-        <v>371</v>
-      </c>
-      <c r="J1" t="s">
-        <v>367</v>
-      </c>
-      <c r="K1" t="s">
-        <v>372</v>
       </c>
       <c r="L1" t="s">
         <v>21</v>
@@ -4074,7 +4113,7 @@
         <v>24</v>
       </c>
       <c r="N1" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4103,13 +4142,13 @@
         <v>13</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="J2" s="9" t="s">
         <v>7</v>
       </c>
       <c r="K2" s="24" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="L2" s="9" t="s">
         <v>6</v>
@@ -4159,7 +4198,7 @@
         <v>147</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D5">
         <f>250*8760*1.1</f>
@@ -4195,7 +4234,7 @@
   <sheetData>
     <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="37" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B1" s="8" t="s">
         <v>1</v>
@@ -4528,14 +4567,14 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="37" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B1"/>
       <c r="C1" t="s">
         <v>74</v>
       </c>
       <c r="D1" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -4606,12 +4645,12 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="37" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B1"/>
       <c r="C1"/>
       <c r="D1" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -4664,7 +4703,7 @@
         <v>161</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D5">
         <v>22</v>
@@ -4740,7 +4779,7 @@
       <pane xSplit="4" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4770,13 +4809,13 @@
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A1" s="37" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B1" s="37"/>
       <c r="C1" s="37"/>
       <c r="D1" s="3"/>
       <c r="E1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F1" t="s">
         <v>179</v>
@@ -4785,7 +4824,7 @@
         <v>180</v>
       </c>
       <c r="H1" t="s">
-        <v>185</v>
+        <v>462</v>
       </c>
       <c r="I1" t="s">
         <v>181</v>
@@ -4800,19 +4839,19 @@
         <v>23</v>
       </c>
       <c r="M1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="N1" t="s">
         <v>26</v>
       </c>
       <c r="O1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="P1" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="Q1" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="R1" t="s">
         <v>21</v>
@@ -4821,16 +4860,16 @@
         <v>24</v>
       </c>
       <c r="T1" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="U1" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="V1" t="s">
         <v>19</v>
       </c>
       <c r="W1" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
@@ -4841,13 +4880,13 @@
         <v>27</v>
       </c>
       <c r="C2" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="D2" s="10" t="s">
         <v>280</v>
       </c>
-      <c r="D2" s="10" t="s">
-        <v>281</v>
-      </c>
       <c r="E2" s="24" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F2" s="9" t="s">
         <v>17</v>
@@ -4859,7 +4898,7 @@
         <v>11</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="J2" s="9" t="s">
         <v>15</v>
@@ -4877,13 +4916,13 @@
         <v>14</v>
       </c>
       <c r="O2" s="9" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="P2" s="9" t="s">
         <v>7</v>
       </c>
       <c r="Q2" s="9" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="R2" s="9" t="s">
         <v>6</v>
@@ -4938,16 +4977,16 @@
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>147</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E4" t="s">
         <v>159</v>
@@ -4970,7 +5009,7 @@
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>32</v>
@@ -4982,7 +5021,7 @@
         <v>148</v>
       </c>
       <c r="H5" t="s">
-        <v>324</v>
+        <v>461</v>
       </c>
       <c r="L5">
         <v>100</v>
@@ -5002,19 +5041,19 @@
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>147</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="H6" t="s">
-        <v>324</v>
+        <v>461</v>
       </c>
       <c r="L6">
         <v>100</v>
@@ -5070,7 +5109,7 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="37" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -5078,19 +5117,19 @@
         <v>22</v>
       </c>
       <c r="E1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="F1" t="s">
         <v>25</v>
       </c>
       <c r="G1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="H1" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="I1" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="J1" t="s">
         <v>21</v>
@@ -5099,7 +5138,7 @@
         <v>24</v>
       </c>
       <c r="L1" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
@@ -5122,13 +5161,13 @@
         <v>13</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="H2" s="9" t="s">
         <v>7</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="J2" s="9" t="s">
         <v>6</v>
@@ -5176,7 +5215,7 @@
         <v>32</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D5">
         <v>150</v>
@@ -5211,7 +5250,7 @@
   <sheetData>
     <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="37" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B1" s="8" t="s">
         <v>1</v>
@@ -5451,7 +5490,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
+      <selection pane="bottomRight" activeCell="G1" sqref="G1:G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5483,14 +5522,14 @@
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1" s="37" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E1" t="s">
         <v>180</v>
@@ -5499,7 +5538,7 @@
         <v>184</v>
       </c>
       <c r="G1" t="s">
-        <v>185</v>
+        <v>462</v>
       </c>
       <c r="H1" t="s">
         <v>20</v>
@@ -5508,19 +5547,19 @@
         <v>23</v>
       </c>
       <c r="J1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="K1" t="s">
         <v>26</v>
       </c>
       <c r="L1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="M1" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="N1" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="O1" t="s">
         <v>21</v>
@@ -5529,7 +5568,7 @@
         <v>24</v>
       </c>
       <c r="Q1" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="R1" t="s">
         <v>171</v>
@@ -5538,19 +5577,19 @@
         <v>110</v>
       </c>
       <c r="T1" t="s">
+        <v>312</v>
+      </c>
+      <c r="U1" t="s">
         <v>313</v>
       </c>
-      <c r="U1" t="s">
-        <v>314</v>
-      </c>
       <c r="V1" t="s">
+        <v>197</v>
+      </c>
+      <c r="W1" t="s">
         <v>198</v>
       </c>
-      <c r="W1" t="s">
-        <v>199</v>
-      </c>
       <c r="X1" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
     </row>
     <row r="2" spans="1:24" s="23" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -5561,7 +5600,7 @@
         <v>124</v>
       </c>
       <c r="C2" s="24" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D2" s="24" t="s">
         <v>109</v>
@@ -5588,13 +5627,13 @@
         <v>14</v>
       </c>
       <c r="L2" s="24" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="M2" s="24" t="s">
         <v>7</v>
       </c>
       <c r="N2" s="24" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="O2" s="24" t="s">
         <v>6</v>
@@ -5638,7 +5677,7 @@
         <v>159</v>
       </c>
       <c r="D3" s="47" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E3" s="47" t="s">
         <v>173</v>
@@ -5678,7 +5717,7 @@
         <v>159</v>
       </c>
       <c r="D4" s="47" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E4" s="47" t="s">
         <v>173</v>
@@ -5705,10 +5744,10 @@
         <v>159</v>
       </c>
       <c r="D5" s="47" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E5" s="47" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F5" s="47"/>
       <c r="G5" s="47" t="s">
@@ -5726,27 +5765,27 @@
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>150</v>
       </c>
       <c r="G6" s="47" t="s">
-        <v>324</v>
+        <v>463</v>
       </c>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="C7" s="47" t="s">
         <v>159</v>
       </c>
       <c r="D7" s="47" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E7" s="47" t="s">
         <v>173</v>
@@ -5771,10 +5810,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4446509C-CB62-4FDB-A8D2-BE0D15E8AAF2}">
-  <dimension ref="A1:D33"/>
+  <dimension ref="A1:D35"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5786,441 +5825,469 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B3" t="s">
+        <v>190</v>
+      </c>
+      <c r="C3" t="s">
         <v>191</v>
       </c>
-      <c r="C3" t="s">
-        <v>192</v>
-      </c>
       <c r="D3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B4" s="25">
         <v>44594</v>
       </c>
       <c r="C4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B5" s="25">
         <v>44595</v>
       </c>
       <c r="C5" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D5" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B6" s="25">
         <v>44600</v>
       </c>
       <c r="C6" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D6" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B7" s="25">
         <v>44602</v>
       </c>
       <c r="C7" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D7" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B8" s="25">
         <v>44602</v>
       </c>
       <c r="C8" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D8" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B9" s="25">
         <v>44602</v>
       </c>
       <c r="C9" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D9" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B10" s="25">
         <v>44602</v>
       </c>
       <c r="C10" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D10" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B11" s="25">
         <v>44603</v>
       </c>
       <c r="C11" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D11" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B12" s="25">
         <v>44605</v>
       </c>
       <c r="C12" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D12" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B13" s="25">
         <v>44605</v>
       </c>
       <c r="C13" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D13" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B14" s="25">
         <v>44605</v>
       </c>
       <c r="C14" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D14" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B15" s="25">
         <v>44635</v>
       </c>
       <c r="C15" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D15" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B16" s="25">
         <v>44643</v>
       </c>
       <c r="C16" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D16" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B17" s="25">
         <v>44643</v>
       </c>
       <c r="C17" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D17" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B18" s="25">
         <v>44643</v>
       </c>
       <c r="C18" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D18" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="B19" s="25">
         <v>44656</v>
       </c>
       <c r="C19" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D19" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="B20" s="25">
         <v>44657</v>
       </c>
       <c r="C20" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D20" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B21" s="25">
         <v>44657</v>
       </c>
       <c r="C21" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D21" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="B22" s="25">
         <v>44680</v>
       </c>
       <c r="C22" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D22" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="B23" s="25">
         <v>44680</v>
       </c>
       <c r="C23" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D23" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="B24" s="25">
         <v>44690</v>
       </c>
       <c r="C24" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D24" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="B25" s="25">
         <v>44695</v>
       </c>
       <c r="C25" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D25" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B26" s="25">
         <v>44701</v>
       </c>
       <c r="C26" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D26" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="B27" s="25">
         <v>44701</v>
       </c>
       <c r="C27" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D27" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="B28" s="25">
         <v>44712</v>
       </c>
       <c r="C28" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D28" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="B29" s="25">
         <v>44727</v>
       </c>
       <c r="C29" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D29" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="B30" s="25">
         <v>44734</v>
       </c>
       <c r="C30" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D30" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="B31" s="25">
         <v>44741</v>
       </c>
       <c r="C31" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D31" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="B32" s="25">
         <v>44840</v>
       </c>
       <c r="C32" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D32" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="B33" s="25">
         <v>44850</v>
       </c>
       <c r="C33" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D33" t="s">
-        <v>459</v>
+        <v>457</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="5" t="s">
+        <v>464</v>
+      </c>
+      <c r="B34" s="25">
+        <v>44875</v>
+      </c>
+      <c r="C34" t="s">
+        <v>192</v>
+      </c>
+      <c r="D34" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="5" t="s">
+        <v>466</v>
+      </c>
+      <c r="B35" s="25">
+        <v>44876</v>
+      </c>
+      <c r="C35" t="s">
+        <v>192</v>
+      </c>
+      <c r="D35" t="s">
+        <v>467</v>
       </c>
     </row>
   </sheetData>
@@ -6259,7 +6326,7 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="37" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -6267,19 +6334,19 @@
         <v>22</v>
       </c>
       <c r="E1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="F1" t="s">
         <v>25</v>
       </c>
       <c r="G1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="H1" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="I1" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="J1" t="s">
         <v>21</v>
@@ -6288,7 +6355,7 @@
         <v>24</v>
       </c>
       <c r="L1" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="M1" t="s">
         <v>171</v>
@@ -6314,13 +6381,13 @@
         <v>13</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="H2" s="9" t="s">
         <v>7</v>
       </c>
       <c r="I2" s="24" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="J2" s="9" t="s">
         <v>6</v>
@@ -6371,7 +6438,7 @@
         <v>150</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D5">
         <v>75</v>
@@ -6406,7 +6473,7 @@
   <sheetData>
     <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="37" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B1" s="8" t="s">
         <v>1</v>
@@ -6670,7 +6737,7 @@
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="37" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -6679,19 +6746,19 @@
         <v>142</v>
       </c>
       <c r="F1" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="G1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="I1" t="s">
         <v>119</v>
       </c>
       <c r="J1" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="K1" t="s">
         <v>121</v>
@@ -6700,7 +6767,7 @@
         <v>123</v>
       </c>
       <c r="M1" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="P1" s="3"/>
       <c r="Q1" s="3"/>
@@ -6717,7 +6784,7 @@
         <v>58</v>
       </c>
       <c r="D2" s="19" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="E2" s="9" t="s">
         <v>141</v>
@@ -6726,7 +6793,7 @@
         <v>18</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="H2" s="9" t="s">
         <v>112</v>
@@ -6744,7 +6811,7 @@
         <v>122</v>
       </c>
       <c r="M2" s="9" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="P2" s="3"/>
       <c r="Q2" s="3"/>
@@ -6761,7 +6828,7 @@
         <v>149</v>
       </c>
       <c r="D3" s="20" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -6784,7 +6851,7 @@
         <v>147</v>
       </c>
       <c r="D4" s="20" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -6804,7 +6871,7 @@
         <v>160</v>
       </c>
       <c r="D5" s="20" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -6821,7 +6888,7 @@
         <v>148</v>
       </c>
       <c r="D6" s="20" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -6841,7 +6908,7 @@
         <v>147</v>
       </c>
       <c r="D7" s="20" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -6852,16 +6919,16 @@
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>160</v>
       </c>
       <c r="D8" s="20" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -6869,16 +6936,16 @@
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>147</v>
       </c>
       <c r="D9" s="20" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -6886,16 +6953,16 @@
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="D10" s="20" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -6930,7 +6997,7 @@
   <sheetData>
     <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="37" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B1" s="8" t="s">
         <v>1</v>
@@ -6971,10 +7038,10 @@
         <v>28</v>
       </c>
       <c r="B5" s="19" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="C5" s="20" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -7214,7 +7281,7 @@
         <v>29</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
     </row>
     <row r="2" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -7228,13 +7295,13 @@
         <v>145</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -7673,12 +7740,12 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="37" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
       <c r="D1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -7706,10 +7773,10 @@
         <v>29</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>274</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>275</v>
       </c>
       <c r="D3" t="s">
         <v>176</v>
@@ -7745,12 +7812,12 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="37" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
       <c r="D1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -7781,7 +7848,7 @@
         <v>32</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D3" t="s">
         <v>176</v>
@@ -7818,13 +7885,13 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="37" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
       <c r="E1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -7872,16 +7939,16 @@
         <v>29</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="C4" s="18" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="E4" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
     </row>
   </sheetData>
@@ -7894,13 +7961,13 @@
 
 <file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17A58EF0-B113-4E3B-A099-AB516EC20AF0}">
-  <dimension ref="A1:S7"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
+      <selection pane="bottomRight" activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7918,21 +7985,22 @@
     <col min="11" max="11" width="22" customWidth="1"/>
     <col min="12" max="12" width="24.140625" customWidth="1"/>
     <col min="13" max="13" width="10.42578125" customWidth="1"/>
-    <col min="14" max="14" width="16.7109375" customWidth="1"/>
-    <col min="15" max="15" width="15.7109375" customWidth="1"/>
-    <col min="16" max="17" width="20.85546875" customWidth="1"/>
-    <col min="18" max="19" width="16.7109375" customWidth="1"/>
-    <col min="20" max="20" width="16.42578125" customWidth="1"/>
-    <col min="21" max="25" width="11.5703125" customWidth="1"/>
+    <col min="14" max="14" width="15.140625" customWidth="1"/>
+    <col min="15" max="15" width="16.7109375" customWidth="1"/>
+    <col min="16" max="16" width="15.7109375" customWidth="1"/>
+    <col min="17" max="18" width="20.85546875" customWidth="1"/>
+    <col min="19" max="20" width="16.7109375" customWidth="1"/>
+    <col min="21" max="21" width="16.42578125" customWidth="1"/>
+    <col min="22" max="26" width="11.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="37" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="D1" t="s">
         <v>41</v>
@@ -7941,7 +8009,7 @@
         <v>37</v>
       </c>
       <c r="F1" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="G1" t="s">
         <v>43</v>
@@ -7950,7 +8018,7 @@
         <v>47</v>
       </c>
       <c r="I1" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="J1" t="s">
         <v>45</v>
@@ -7959,31 +8027,34 @@
         <v>55</v>
       </c>
       <c r="L1" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="M1" t="s">
         <v>39</v>
       </c>
       <c r="N1" t="s">
+        <v>462</v>
+      </c>
+      <c r="O1" t="s">
         <v>49</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>53</v>
       </c>
-      <c r="P1" t="s">
-        <v>345</v>
-      </c>
       <c r="Q1" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="R1" t="s">
-        <v>355</v>
+        <v>344</v>
       </c>
       <c r="S1" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+        <v>353</v>
+      </c>
+      <c r="T1" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>1</v>
       </c>
@@ -7991,7 +8062,7 @@
         <v>57</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="D2" s="9" t="s">
         <v>40</v>
@@ -8000,7 +8071,7 @@
         <v>36</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="G2" s="9" t="s">
         <v>42</v>
@@ -8018,31 +8089,34 @@
         <v>54</v>
       </c>
       <c r="L2" s="9" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="M2" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="N2" s="9" t="s">
+      <c r="N2" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="O2" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="O2" s="9" t="s">
+      <c r="P2" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="P2" s="9" t="s">
-        <v>343</v>
-      </c>
       <c r="Q2" s="9" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="R2" s="9" t="s">
-        <v>360</v>
+        <v>342</v>
       </c>
       <c r="S2" s="9" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+        <v>358</v>
+      </c>
+      <c r="T2" s="9" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>29</v>
       </c>
@@ -8052,13 +8126,14 @@
       <c r="E3">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="N3" s="47"/>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="H4">
         <v>200</v>
@@ -8073,12 +8148,12 @@
         <v>5500</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="G5" t="s">
         <v>159</v>
@@ -8087,26 +8162,26 @@
         <v>159</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>348</v>
-      </c>
-      <c r="P6">
+        <v>346</v>
+      </c>
+      <c r="Q6">
         <v>40</v>
       </c>
-      <c r="R6">
+      <c r="S6">
         <v>120</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C7" t="s">
         <v>159</v>
@@ -8148,7 +8223,7 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="37" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -8171,16 +8246,16 @@
         <v>51</v>
       </c>
       <c r="J1" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="K1" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="L1" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="M1" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
@@ -8212,16 +8287,16 @@
         <v>50</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="L2" s="9" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="M2" s="9" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
@@ -8260,7 +8335,7 @@
         <v>153</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G5">
         <v>20</v>
@@ -8293,10 +8368,10 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="37" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B1" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -8305,42 +8380,42 @@
         <v>29</v>
       </c>
       <c r="C2" s="6" t="s">
+        <v>320</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>295</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>322</v>
+      </c>
+      <c r="F2" s="6" t="s">
         <v>321</v>
       </c>
-      <c r="D2" s="6" t="s">
-        <v>296</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>323</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>322</v>
-      </c>
       <c r="G2" s="6" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="I2" s="6" t="s">
+        <v>385</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>386</v>
+      </c>
+      <c r="K2" s="6" t="s">
         <v>387</v>
       </c>
-      <c r="J2" s="6" t="s">
-        <v>388</v>
-      </c>
-      <c r="K2" s="6" t="s">
-        <v>389</v>
-      </c>
       <c r="L2" s="6" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="M2" s="6" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B3" s="14" t="s">
         <v>29</v>
@@ -8381,91 +8456,91 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="B4" s="14"/>
       <c r="C4" s="14" t="s">
+        <v>320</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>295</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>322</v>
+      </c>
+      <c r="F4" t="s">
         <v>321</v>
       </c>
-      <c r="D4" s="14" t="s">
-        <v>296</v>
-      </c>
-      <c r="E4" s="14" t="s">
-        <v>323</v>
-      </c>
-      <c r="F4" t="s">
-        <v>322</v>
-      </c>
       <c r="G4" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="H4" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="I4" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="J4" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="K4" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="L4" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="M4" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B5" s="14"/>
       <c r="G5" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="J5" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="K5" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="B6" s="14"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="B7" s="14"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="B8" s="14"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="B9" s="14"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="B10" s="14"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B11" s="14"/>
     </row>
@@ -8608,7 +8683,7 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>147</v>
@@ -8616,7 +8691,7 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>147</v>
@@ -8624,7 +8699,7 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>148</v>
@@ -8712,7 +8787,7 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>150</v>
@@ -8723,7 +8798,7 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>162</v>
@@ -8766,14 +8841,14 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="37" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
       <c r="F1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G1" t="s">
         <v>129</v>
@@ -8811,7 +8886,7 @@
         <v>58</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="G2" s="9" t="s">
         <v>128</v>
@@ -8834,13 +8909,13 @@
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D3" s="11" t="s">
         <v>32</v>
@@ -8892,22 +8967,22 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="37" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
       <c r="E1" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="F1" t="s">
         <v>137</v>
       </c>
       <c r="G1" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="H1" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="J1" s="3"/>
       <c r="K1" s="3"/>
@@ -8950,19 +9025,19 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C3" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="D3" s="11" t="s">
         <v>285</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="E3" t="s">
         <v>286</v>
-      </c>
-      <c r="E3" t="s">
-        <v>287</v>
       </c>
       <c r="F3">
         <v>50</v>
@@ -9003,7 +9078,7 @@
   <sheetData>
     <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="37" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B1" s="8" t="s">
         <v>1</v>
@@ -9195,14 +9270,14 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="37" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
       <c r="F1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G1" t="s">
         <v>129</v>
@@ -9240,7 +9315,7 @@
         <v>58</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="G2" s="9" t="s">
         <v>128</v>
@@ -9263,13 +9338,13 @@
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D3" s="11" t="s">
         <v>150</v>
@@ -9289,13 +9364,13 @@
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D4" s="11" t="s">
         <v>151</v>
@@ -9315,13 +9390,13 @@
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D5" s="11" t="s">
         <v>150</v>
@@ -9341,13 +9416,13 @@
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D6" s="11" t="s">
         <v>162</v>
@@ -9367,13 +9442,13 @@
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D7" s="11" t="s">
         <v>150</v>
@@ -9420,12 +9495,12 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="37" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
       <c r="D1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E1" t="s">
         <v>157</v>
@@ -9448,7 +9523,7 @@
         <v>155</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E2" s="9" t="s">
         <v>156</v>
@@ -9479,13 +9554,13 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>404</v>
-      </c>
       <c r="C4" s="4" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="D4" t="s">
         <v>159</v>
@@ -9496,13 +9571,13 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="D5" t="s">
         <v>159</v>
@@ -9544,7 +9619,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="37" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -9572,16 +9647,16 @@
         <v>33</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E2" s="9" t="s">
         <v>158</v>
       </c>
       <c r="F2" s="9" t="s">
+        <v>204</v>
+      </c>
+      <c r="G2" s="9" t="s">
         <v>205</v>
-      </c>
-      <c r="G2" s="9" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -9629,7 +9704,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>34</v>
@@ -9649,7 +9724,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>34</v>
@@ -9669,7 +9744,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>163</v>
@@ -9689,7 +9764,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>35</v>
@@ -9709,13 +9784,13 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>35</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D9" t="s">
         <v>167</v>
@@ -9729,10 +9804,10 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>79</v>
@@ -9785,14 +9860,14 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="37" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B1"/>
       <c r="C1"/>
       <c r="D1" s="3"/>
       <c r="E1"/>
       <c r="F1" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -9806,13 +9881,13 @@
         <v>58</v>
       </c>
       <c r="D2" s="19" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="E2" s="10" t="s">
         <v>143</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -9826,7 +9901,7 @@
         <v>149</v>
       </c>
       <c r="D3" s="20" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="E3" s="11" t="s">
         <v>177</v>
@@ -9846,7 +9921,7 @@
         <v>147</v>
       </c>
       <c r="D4" s="20" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="E4" s="11" t="s">
         <v>177</v>
@@ -9857,19 +9932,19 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>160</v>
       </c>
       <c r="D5" s="20" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="F5">
         <v>-1</v>
@@ -9877,19 +9952,19 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>147</v>
       </c>
       <c r="D6" s="20" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="F6">
         <v>4</v>
@@ -9926,13 +10001,13 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="37" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B1"/>
       <c r="C1"/>
       <c r="D1"/>
       <c r="E1" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -9949,7 +10024,7 @@
         <v>143</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
     </row>
   </sheetData>
@@ -9983,15 +10058,15 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="37" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B1"/>
       <c r="C1"/>
       <c r="D1" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="E1" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -10005,21 +10080,21 @@
         <v>143</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -10055,12 +10130,12 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="37" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B1"/>
       <c r="C1"/>
       <c r="D1" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -10074,7 +10149,7 @@
         <v>143</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
   </sheetData>
@@ -10107,12 +10182,12 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="37" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B1"/>
       <c r="C1"/>
       <c r="D1" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -10126,18 +10201,18 @@
         <v>143</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="D3">
         <v>-8</v>
@@ -10153,9 +10228,9 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9640D032-37A5-47CC-8407-C4F7168BB93B}">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
@@ -10167,24 +10242,35 @@
     <col min="1" max="1" width="12.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="14.7109375" style="2" customWidth="1"/>
     <col min="3" max="3" width="14.85546875" customWidth="1"/>
-    <col min="4" max="4" width="19.28515625" customWidth="1"/>
-    <col min="5" max="5" width="16.42578125" customWidth="1"/>
-    <col min="6" max="15" width="11.5703125" customWidth="1"/>
+    <col min="4" max="4" width="10.28515625" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" customWidth="1"/>
+    <col min="6" max="6" width="15" customWidth="1"/>
+    <col min="7" max="7" width="14.140625" customWidth="1"/>
+    <col min="8" max="15" width="11.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="37" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="D1" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>389</v>
+      </c>
+      <c r="E1" t="s">
+        <v>469</v>
+      </c>
+      <c r="F1" t="s">
+        <v>472</v>
+      </c>
+      <c r="G1" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>1</v>
       </c>
@@ -10195,10 +10281,19 @@
         <v>168</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+        <v>388</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>470</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>471</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>29</v>
       </c>
@@ -10209,13 +10304,21 @@
         <v>80</v>
       </c>
       <c r="D3" t="s">
-        <v>392</v>
-      </c>
-      <c r="F3" s="5"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+        <v>390</v>
+      </c>
+      <c r="E3" t="s">
+        <v>474</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>475</v>
+      </c>
+      <c r="G3" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>34</v>
@@ -10224,12 +10327,21 @@
         <v>80</v>
       </c>
       <c r="D4" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+        <v>390</v>
+      </c>
+      <c r="E4" t="s">
+        <v>474</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>475</v>
+      </c>
+      <c r="G4" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>163</v>
@@ -10238,12 +10350,21 @@
         <v>169</v>
       </c>
       <c r="D5" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+        <v>390</v>
+      </c>
+      <c r="E5" t="s">
+        <v>474</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>475</v>
+      </c>
+      <c r="G5" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>35</v>
@@ -10252,65 +10373,119 @@
         <v>80</v>
       </c>
       <c r="D6" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+        <v>390</v>
+      </c>
+      <c r="E6" t="s">
+        <v>474</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>475</v>
+      </c>
+      <c r="G6" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C7" t="s">
         <v>169</v>
       </c>
       <c r="D7" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+        <v>390</v>
+      </c>
+      <c r="E7" t="s">
+        <v>474</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>475</v>
+      </c>
+      <c r="G7" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>34</v>
       </c>
       <c r="D8" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+        <v>398</v>
+      </c>
+      <c r="E8" t="s">
+        <v>474</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>475</v>
+      </c>
+      <c r="G8" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>163</v>
       </c>
       <c r="D9" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+        <v>398</v>
+      </c>
+      <c r="E9" t="s">
+        <v>474</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>475</v>
+      </c>
+      <c r="G9" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>35</v>
       </c>
       <c r="D10" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+        <v>398</v>
+      </c>
+      <c r="E10" t="s">
+        <v>474</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>475</v>
+      </c>
+      <c r="G10" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D11" t="s">
-        <v>400</v>
+        <v>398</v>
+      </c>
+      <c r="E11" t="s">
+        <v>474</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>475</v>
+      </c>
+      <c r="G11" t="s">
+        <v>474</v>
       </c>
     </row>
   </sheetData>
@@ -10344,7 +10519,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="37" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -10357,13 +10532,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>82</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -10425,12 +10600,12 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="37" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
       <c r="D1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="2" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -10441,10 +10616,10 @@
         <v>105</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -10816,7 +10991,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="37" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" t="s">
@@ -10873,7 +11048,7 @@
   <sheetData>
     <row r="1" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B1" s="7" t="s">
         <v>105</v>

--- a/FlexTool_import_template.xlsx
+++ b/FlexTool_import_template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\data\Toolbox_projects\FlexTool3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BC54E0B-D651-4B61-9105-7A2E1F98F0D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{164F0560-B68C-4EEA-9DA0-7D15BBBA3C81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="1000" firstSheet="3" activeTab="4" xr2:uid="{D5BEC09F-8FA9-46E6-8F36-396DCDACE376}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="30360" windowHeight="21000" tabRatio="1000" firstSheet="3" activeTab="9" xr2:uid="{D5BEC09F-8FA9-46E6-8F36-396DCDACE376}"/>
   </bookViews>
   <sheets>
     <sheet name="navigate" sheetId="54" r:id="rId1"/>
@@ -205,7 +205,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1375" uniqueCount="476">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1378" uniqueCount="476">
   <si>
     <t>commodity</t>
   </si>
@@ -3624,11 +3624,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A4889F5-3956-475B-A853-BA105023BA1D}">
   <dimension ref="A1:AD9"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G1" sqref="G1"/>
+      <selection pane="bottomRight" activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4000,9 +4000,18 @@
       <c r="C8" s="14" t="s">
         <v>159</v>
       </c>
+      <c r="D8" t="s">
+        <v>159</v>
+      </c>
+      <c r="F8" t="s">
+        <v>159</v>
+      </c>
       <c r="G8" t="s">
         <v>146</v>
       </c>
+      <c r="I8" t="s">
+        <v>447</v>
+      </c>
       <c r="M8">
         <v>12000</v>
       </c>
@@ -4010,7 +4019,10 @@
         <v>12000</v>
       </c>
       <c r="O8">
-        <v>1000</v>
+        <v>10000000</v>
+      </c>
+      <c r="Z8">
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:30" x14ac:dyDescent="0.25">
@@ -10230,7 +10242,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9640D032-37A5-47CC-8407-C4F7168BB93B}">
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>

--- a/FlexTool_import_template.xlsx
+++ b/FlexTool_import_template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\data\Toolbox_projects\FlexTool3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{164F0560-B68C-4EEA-9DA0-7D15BBBA3C81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0359BA10-CA20-4745-9612-FA620450DE35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="30360" windowHeight="21000" tabRatio="1000" firstSheet="3" activeTab="9" xr2:uid="{D5BEC09F-8FA9-46E6-8F36-396DCDACE376}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="30360" windowHeight="21000" tabRatio="1000" firstSheet="2" activeTab="2" xr2:uid="{D5BEC09F-8FA9-46E6-8F36-396DCDACE376}"/>
   </bookViews>
   <sheets>
     <sheet name="navigate" sheetId="54" r:id="rId1"/>
@@ -205,7 +205,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1378" uniqueCount="476">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1368" uniqueCount="477">
   <si>
     <t>commodity</t>
   </si>
@@ -1633,6 +1633,9 @@
   </si>
   <si>
     <t>simplex</t>
+  </si>
+  <si>
+    <t>bind_forward_only</t>
   </si>
 </sst>
 </file>
@@ -3624,11 +3627,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A4889F5-3956-475B-A853-BA105023BA1D}">
   <dimension ref="A1:AD9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C8" sqref="C8"/>
+      <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4008,6 +4011,9 @@
       </c>
       <c r="G8" t="s">
         <v>146</v>
+      </c>
+      <c r="H8" t="s">
+        <v>476</v>
       </c>
       <c r="I8" t="s">
         <v>447</v>
@@ -8365,11 +8371,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB6AC2C8-7B82-4BFA-94A3-ECFAF63F0D5D}">
   <dimension ref="A1:M11"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G5" sqref="G5"/>
+      <selection pane="bottomRight" activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8499,7 +8505,7 @@
         <v>385</v>
       </c>
       <c r="L4" t="s">
-        <v>397</v>
+        <v>322</v>
       </c>
       <c r="M4" t="s">
         <v>400</v>
@@ -8518,6 +8524,9 @@
       </c>
       <c r="K5" t="s">
         <v>387</v>
+      </c>
+      <c r="L5" t="s">
+        <v>397</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
@@ -10430,15 +10439,7 @@
       <c r="D8" t="s">
         <v>398</v>
       </c>
-      <c r="E8" t="s">
-        <v>474</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>475</v>
-      </c>
-      <c r="G8" t="s">
-        <v>474</v>
-      </c>
+      <c r="F8" s="5"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
@@ -10450,15 +10451,7 @@
       <c r="D9" t="s">
         <v>398</v>
       </c>
-      <c r="E9" t="s">
-        <v>474</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>475</v>
-      </c>
-      <c r="G9" t="s">
-        <v>474</v>
-      </c>
+      <c r="F9" s="5"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
@@ -10470,15 +10463,7 @@
       <c r="D10" t="s">
         <v>398</v>
       </c>
-      <c r="E10" t="s">
-        <v>474</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>475</v>
-      </c>
-      <c r="G10" t="s">
-        <v>474</v>
-      </c>
+      <c r="F10" s="5"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
@@ -10490,15 +10475,7 @@
       <c r="D11" t="s">
         <v>398</v>
       </c>
-      <c r="E11" t="s">
-        <v>474</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>475</v>
-      </c>
-      <c r="G11" t="s">
-        <v>474</v>
-      </c>
+      <c r="F11" s="5"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/FlexTool_import_template.xlsx
+++ b/FlexTool_import_template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\data\Toolbox_projects\FlexTool3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0359BA10-CA20-4745-9612-FA620450DE35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C4A53AB-C756-4A17-8D67-AA481D8A182D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="30360" windowHeight="21000" tabRatio="1000" firstSheet="2" activeTab="2" xr2:uid="{D5BEC09F-8FA9-46E6-8F36-396DCDACE376}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="30360" windowHeight="21000" tabRatio="1000" firstSheet="1" activeTab="1" xr2:uid="{D5BEC09F-8FA9-46E6-8F36-396DCDACE376}"/>
   </bookViews>
   <sheets>
     <sheet name="navigate" sheetId="54" r:id="rId1"/>
@@ -121,7 +121,7 @@
           </rPr>
           <t xml:space="preserve">Possible parameters
 efficiency: [factor] Efficiency of a unit. Constant or time.
-variable_cost: [CUR/MWh] Variable operating cost. Fuel and CO2 cost can be given through separate means. Constant or time.
+other_operational_cost: [CUR/MWh] Other variable operational cost. Fuel and CO2 cost can be given through separate means. Constant or time.
 </t>
         </r>
       </text>
@@ -172,7 +172,7 @@
             <family val="2"/>
           </rPr>
           <t>Possible parameters
-variable_cost: [CUR/MWh] Variable operating cost. Fuel and CO2 cost can be given through separate means. Constant or time.</t>
+other_operational_cost: [CUR/MWh] Other variable operational cost. Fuel and CO2 cost can be given through separate means. Constant or time.</t>
         </r>
       </text>
     </comment>
@@ -205,7 +205,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1368" uniqueCount="477">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1371" uniqueCount="479">
   <si>
     <t>commodity</t>
   </si>
@@ -261,9 +261,6 @@
     <t>transfer_method</t>
   </si>
   <si>
-    <t>variable_cost</t>
-  </si>
-  <si>
     <t>[factor] Efficiency of a connection. Constant or time.</t>
   </si>
   <si>
@@ -1335,18 +1332,12 @@
     <t>[CUR/kW] Annual fixed cost. Constant or period.</t>
   </si>
   <si>
-    <t>[CUR/MWh] Variable cost for trasferring over the connection. Constant or time.</t>
-  </si>
-  <si>
     <t>[CUR/kW] Investment cost of the unit. Constant or period.</t>
   </si>
   <si>
     <t>[CUR/kW] Salvage value of the unit. Constant or period.</t>
   </si>
   <si>
-    <t>[CUR/MWh] Variable cost for energy flows. Constant or time.</t>
-  </si>
-  <si>
     <t>[CUR/MW] Cost of ramping the unit. Constant or period.</t>
   </si>
   <si>
@@ -1636,6 +1627,21 @@
   </si>
   <si>
     <t>bind_forward_only</t>
+  </si>
+  <si>
+    <t>19.0</t>
+  </si>
+  <si>
+    <t>other_operational_cost</t>
+  </si>
+  <si>
+    <t>[CUR/MWh] Other operational cost for energy flows. Constant or time.</t>
+  </si>
+  <si>
+    <t>[CUR/MWh] Other variable operational cost for transferring over the connection. Constant or time.</t>
+  </si>
+  <si>
+    <t>Change variable_cost to other_operational_cost in connection_c, connection_t, unit_node_c, and unit_node_t</t>
   </si>
 </sst>
 </file>
@@ -3278,74 +3284,74 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="46" t="s">
+        <v>280</v>
+      </c>
+      <c r="B1" s="46" t="s">
+        <v>282</v>
+      </c>
+      <c r="C1" s="46" t="s">
         <v>281</v>
-      </c>
-      <c r="B1" s="46" t="s">
-        <v>283</v>
-      </c>
-      <c r="C1" s="46" t="s">
-        <v>282</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="43" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B2" s="43"/>
       <c r="C2" s="43"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="43" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B3" s="43"/>
       <c r="C3" s="43"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="43" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B4" s="43"/>
       <c r="C4" s="43"/>
       <c r="E4" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="43" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B5" s="43"/>
       <c r="C5" s="43"/>
       <c r="E5" s="5" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="43" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B6" s="43"/>
       <c r="C6" s="43"/>
       <c r="E6" s="5" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="29" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B7" s="30"/>
       <c r="C7" s="29" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="43" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B8" s="43"/>
       <c r="C8" s="43"/>
@@ -3355,65 +3361,65 @@
       <c r="B9" s="27"/>
       <c r="C9" s="27"/>
       <c r="E9" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="31" t="s">
+        <v>215</v>
+      </c>
+      <c r="B10" s="31" t="s">
         <v>216</v>
       </c>
-      <c r="B10" s="31" t="s">
+      <c r="C10" s="31" t="s">
         <v>217</v>
-      </c>
-      <c r="C10" s="31" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="31" t="s">
+        <v>218</v>
+      </c>
+      <c r="B11" s="31" t="s">
         <v>219</v>
-      </c>
-      <c r="B11" s="31" t="s">
-        <v>220</v>
       </c>
       <c r="C11" s="32"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="44" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B12" s="44"/>
       <c r="C12" s="44"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="31" t="s">
+        <v>221</v>
+      </c>
+      <c r="B13" s="31" t="s">
         <v>222</v>
       </c>
-      <c r="B13" s="31" t="s">
+      <c r="C13" s="31" t="s">
         <v>223</v>
-      </c>
-      <c r="C13" s="31" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="31" t="s">
+        <v>240</v>
+      </c>
+      <c r="B14" s="31" t="s">
         <v>241</v>
       </c>
-      <c r="B14" s="31" t="s">
+      <c r="C14" s="31" t="s">
         <v>242</v>
-      </c>
-      <c r="C14" s="31" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="31" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B15" s="32"/>
       <c r="C15" s="31" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -3425,26 +3431,26 @@
       <c r="A17" s="39"/>
       <c r="B17" s="39"/>
       <c r="C17" s="40" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="45" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B18" s="45"/>
       <c r="C18" s="45"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="45" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B19" s="45"/>
       <c r="C19" s="45"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="45" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B20" s="45"/>
       <c r="C20" s="45"/>
@@ -3456,45 +3462,45 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="34" t="s">
+        <v>236</v>
+      </c>
+      <c r="B22" s="34" t="s">
         <v>237</v>
-      </c>
-      <c r="B22" s="34" t="s">
-        <v>238</v>
       </c>
       <c r="C22" s="34"/>
       <c r="D22" s="28"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="41" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B23" s="41"/>
       <c r="C23" s="41"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="41" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B24" s="41"/>
       <c r="C24" s="41"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="41" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B25" s="41"/>
       <c r="C25" s="41"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="41" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B26" s="41"/>
       <c r="C26" s="41"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="41" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B27" s="41"/>
       <c r="C27" s="41"/>
@@ -3506,65 +3512,65 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="42" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B29" s="42"/>
       <c r="C29" s="42"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="35" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B30" s="36"/>
       <c r="C30" s="35" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="42" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B31" s="42"/>
       <c r="C31" s="42"/>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="48" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B33" s="48"/>
       <c r="C33" s="48"/>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="48" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B34" s="48"/>
       <c r="C34" s="48"/>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="48" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="B35" s="48"/>
       <c r="C35" s="48"/>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="48" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="B36" s="48"/>
       <c r="C36" s="48"/>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="48" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="B37" s="48"/>
       <c r="C37" s="48"/>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="48" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="B38" s="48"/>
       <c r="C38" s="48"/>
@@ -3668,92 +3674,92 @@
   <sheetData>
     <row r="1" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A1" s="37" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D1" t="s">
+        <v>181</v>
+      </c>
+      <c r="E1" t="s">
+        <v>407</v>
+      </c>
+      <c r="F1" t="s">
         <v>182</v>
       </c>
-      <c r="E1" t="s">
-        <v>410</v>
-      </c>
-      <c r="F1" t="s">
-        <v>183</v>
-      </c>
       <c r="G1" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="H1" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="I1" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="J1" s="5" t="s">
+        <v>440</v>
+      </c>
+      <c r="K1" t="s">
+        <v>153</v>
+      </c>
+      <c r="L1" t="s">
+        <v>169</v>
+      </c>
+      <c r="M1" t="s">
+        <v>362</v>
+      </c>
+      <c r="N1" t="s">
+        <v>363</v>
+      </c>
+      <c r="O1" t="s">
+        <v>66</v>
+      </c>
+      <c r="P1" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>297</v>
+      </c>
+      <c r="R1" t="s">
+        <v>70</v>
+      </c>
+      <c r="S1" t="s">
+        <v>298</v>
+      </c>
+      <c r="T1" t="s">
+        <v>364</v>
+      </c>
+      <c r="U1" t="s">
+        <v>365</v>
+      </c>
+      <c r="V1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" t="s">
+        <v>366</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>71</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>434</v>
+      </c>
+      <c r="AA1" s="5" t="s">
+        <v>436</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>437</v>
+      </c>
+      <c r="AC1" t="s">
         <v>443</v>
       </c>
-      <c r="K1" t="s">
-        <v>154</v>
-      </c>
-      <c r="L1" t="s">
-        <v>170</v>
-      </c>
-      <c r="M1" t="s">
-        <v>363</v>
-      </c>
-      <c r="N1" t="s">
-        <v>364</v>
-      </c>
-      <c r="O1" t="s">
-        <v>67</v>
-      </c>
-      <c r="P1" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>298</v>
-      </c>
-      <c r="R1" t="s">
-        <v>71</v>
-      </c>
-      <c r="S1" t="s">
-        <v>299</v>
-      </c>
-      <c r="T1" t="s">
-        <v>365</v>
-      </c>
-      <c r="U1" t="s">
-        <v>366</v>
-      </c>
-      <c r="V1" t="s">
-        <v>21</v>
-      </c>
-      <c r="W1" t="s">
-        <v>367</v>
-      </c>
-      <c r="X1" t="s">
-        <v>24</v>
-      </c>
-      <c r="Y1" t="s">
+      <c r="AD1" t="s">
         <v>72</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>437</v>
-      </c>
-      <c r="AA1" s="5" t="s">
-        <v>439</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>440</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>446</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3761,43 +3767,43 @@
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C2" s="24" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="G2" s="9" t="s">
         <v>11</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L2" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="M2" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="M2" s="9" t="s">
+      <c r="N2" s="9" t="s">
         <v>62</v>
-      </c>
-      <c r="N2" s="9" t="s">
-        <v>63</v>
       </c>
       <c r="O2" s="9" t="s">
         <v>4</v>
@@ -3806,19 +3812,19 @@
         <v>10</v>
       </c>
       <c r="Q2" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="R2" s="9" t="s">
         <v>14</v>
       </c>
       <c r="S2" s="9" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="T2" s="9" t="s">
         <v>7</v>
       </c>
       <c r="U2" s="24" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="V2" s="9" t="s">
         <v>6</v>
@@ -3830,43 +3836,43 @@
         <v>12</v>
       </c>
       <c r="Y2" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="Z2" s="9" t="s">
+        <v>433</v>
+      </c>
+      <c r="AA2" s="9" t="s">
+        <v>435</v>
+      </c>
+      <c r="AB2" s="9" t="s">
+        <v>441</v>
+      </c>
+      <c r="AC2" s="9" t="s">
+        <v>442</v>
+      </c>
+      <c r="AD2" s="9" t="s">
         <v>64</v>
-      </c>
-      <c r="Z2" s="9" t="s">
-        <v>436</v>
-      </c>
-      <c r="AA2" s="9" t="s">
-        <v>438</v>
-      </c>
-      <c r="AB2" s="9" t="s">
-        <v>444</v>
-      </c>
-      <c r="AC2" s="9" t="s">
-        <v>445</v>
-      </c>
-      <c r="AD2" s="9" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E3" s="14" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="F3" s="14"/>
       <c r="G3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="M3">
         <v>10000</v>
@@ -3877,23 +3883,23 @@
     </row>
     <row r="4" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E4" s="14" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="F4" s="14"/>
       <c r="G4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="K4">
         <f>100*8760</f>
@@ -3908,16 +3914,16 @@
     </row>
     <row r="5" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="M5">
         <v>10000</v>
@@ -3928,16 +3934,16 @@
     </row>
     <row r="6" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G6" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="M6">
         <v>10000</v>
@@ -3948,31 +3954,31 @@
     </row>
     <row r="7" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D7" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F7" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G7" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H7" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="I7" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="J7" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="M7">
         <v>12000</v>
@@ -3995,28 +4001,28 @@
     </row>
     <row r="8" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D8" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F8" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G8" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H8" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="I8" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="M8">
         <v>12000</v>
@@ -4033,13 +4039,13 @@
     </row>
     <row r="9" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="G9" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="P9">
         <v>800</v>
@@ -4096,42 +4102,42 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="37" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
       <c r="D1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F1" t="s">
         <v>68</v>
       </c>
-      <c r="F1" t="s">
-        <v>69</v>
-      </c>
       <c r="G1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="H1" t="s">
+        <v>367</v>
+      </c>
+      <c r="I1" t="s">
         <v>368</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
+        <v>364</v>
+      </c>
+      <c r="K1" t="s">
         <v>369</v>
       </c>
-      <c r="J1" t="s">
-        <v>365</v>
-      </c>
-      <c r="K1" t="s">
-        <v>370</v>
-      </c>
       <c r="L1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="M1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4139,13 +4145,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" s="9" t="s">
         <v>58</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>59</v>
       </c>
       <c r="E2" s="9" t="s">
         <v>8</v>
@@ -4154,19 +4160,19 @@
         <v>9</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H2" s="9" t="s">
         <v>13</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="J2" s="9" t="s">
         <v>7</v>
       </c>
       <c r="K2" s="24" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="L2" s="9" t="s">
         <v>6</v>
@@ -4180,13 +4186,13 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D3">
         <f>250*8760*0.9</f>
@@ -4195,13 +4201,13 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D4">
         <f>250*8760*1</f>
@@ -4210,13 +4216,13 @@
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D5">
         <f>250*8760*1.1</f>
@@ -4252,47 +4258,47 @@
   <sheetData>
     <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="37" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
       <c r="B2" s="15" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>147</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -4303,7 +4309,7 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -4315,7 +4321,7 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -4326,7 +4332,7 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -4337,7 +4343,7 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C8">
         <v>-100</v>
@@ -4348,7 +4354,7 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C9">
         <v>-100</v>
@@ -4359,7 +4365,7 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C10">
         <v>-100</v>
@@ -4370,7 +4376,7 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C11">
         <v>-100</v>
@@ -4381,7 +4387,7 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C12">
         <v>-200</v>
@@ -4392,7 +4398,7 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C13">
         <v>-200</v>
@@ -4403,7 +4409,7 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C14">
         <v>-200</v>
@@ -4414,7 +4420,7 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C15">
         <v>-200</v>
@@ -4425,7 +4431,7 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C16">
         <v>-300</v>
@@ -4436,7 +4442,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C17">
         <v>-300</v>
@@ -4447,7 +4453,7 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C18">
         <v>-300</v>
@@ -4458,7 +4464,7 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C19">
         <v>-300</v>
@@ -4469,7 +4475,7 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C20">
         <v>-400</v>
@@ -4480,7 +4486,7 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C21">
         <v>-400</v>
@@ -4491,7 +4497,7 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C22">
         <v>-400</v>
@@ -4502,7 +4508,7 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C23">
         <v>-400</v>
@@ -4513,7 +4519,7 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C24">
         <v>-500</v>
@@ -4524,7 +4530,7 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C25">
         <v>-500</v>
@@ -4535,7 +4541,7 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C26">
         <v>-500</v>
@@ -4546,7 +4552,7 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C27">
         <v>-500</v>
@@ -4585,14 +4591,14 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="37" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B1"/>
       <c r="C1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D1" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -4606,15 +4612,15 @@
         <v>2</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C3">
         <v>0.34</v>
@@ -4625,10 +4631,10 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C4">
         <v>0.2</v>
@@ -4663,12 +4669,12 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="37" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B1"/>
       <c r="C1"/>
       <c r="D1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -4679,21 +4685,21 @@
         <v>0</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D3">
         <v>20</v>
@@ -4701,13 +4707,13 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D4">
         <v>21</v>
@@ -4715,13 +4721,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D5">
         <v>22</v>
@@ -4756,7 +4762,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
@@ -4770,18 +4776,18 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
   </sheetData>
@@ -4797,7 +4803,7 @@
       <pane xSplit="4" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="H5" sqref="H5"/>
+      <selection pane="bottomRight" activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4820,74 +4826,74 @@
     <col min="17" max="18" width="13" customWidth="1"/>
     <col min="19" max="19" width="9.85546875" customWidth="1"/>
     <col min="20" max="20" width="10.5703125" customWidth="1"/>
-    <col min="21" max="21" width="13.140625" customWidth="1"/>
+    <col min="21" max="21" width="22" customWidth="1"/>
     <col min="22" max="22" width="10" customWidth="1"/>
     <col min="23" max="23" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A1" s="37" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B1" s="37"/>
       <c r="C1" s="37"/>
       <c r="D1" s="3"/>
       <c r="E1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F1" t="s">
+        <v>178</v>
+      </c>
+      <c r="G1" t="s">
         <v>179</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
+        <v>459</v>
+      </c>
+      <c r="I1" t="s">
         <v>180</v>
       </c>
-      <c r="H1" t="s">
-        <v>462</v>
-      </c>
-      <c r="I1" t="s">
-        <v>181</v>
-      </c>
       <c r="J1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="K1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1" t="s">
+        <v>300</v>
+      </c>
+      <c r="N1" t="s">
+        <v>25</v>
+      </c>
+      <c r="O1" t="s">
+        <v>301</v>
+      </c>
+      <c r="P1" t="s">
+        <v>372</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>373</v>
+      </c>
+      <c r="R1" t="s">
         <v>20</v>
       </c>
-      <c r="L1" t="s">
+      <c r="S1" t="s">
         <v>23</v>
       </c>
-      <c r="M1" t="s">
-        <v>301</v>
-      </c>
-      <c r="N1" t="s">
-        <v>26</v>
-      </c>
-      <c r="O1" t="s">
-        <v>302</v>
-      </c>
-      <c r="P1" t="s">
-        <v>373</v>
-      </c>
-      <c r="Q1" t="s">
+      <c r="T1" t="s">
         <v>374</v>
       </c>
-      <c r="R1" t="s">
-        <v>21</v>
-      </c>
-      <c r="S1" t="s">
-        <v>24</v>
-      </c>
-      <c r="T1" t="s">
-        <v>375</v>
-      </c>
       <c r="U1" t="s">
-        <v>376</v>
+        <v>477</v>
       </c>
       <c r="V1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="W1" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
@@ -4895,16 +4901,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C2" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="D2" s="10" t="s">
         <v>279</v>
       </c>
-      <c r="D2" s="10" t="s">
-        <v>280</v>
-      </c>
       <c r="E2" s="24" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F2" s="9" t="s">
         <v>17</v>
@@ -4916,7 +4922,7 @@
         <v>11</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="J2" s="9" t="s">
         <v>15</v>
@@ -4928,19 +4934,19 @@
         <v>10</v>
       </c>
       <c r="M2" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="N2" s="9" t="s">
         <v>14</v>
       </c>
       <c r="O2" s="9" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="P2" s="9" t="s">
         <v>7</v>
       </c>
       <c r="Q2" s="9" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="R2" s="9" t="s">
         <v>6</v>
@@ -4952,42 +4958,42 @@
         <v>5</v>
       </c>
       <c r="U2" s="9" t="s">
-        <v>18</v>
+        <v>475</v>
       </c>
       <c r="V2" s="9" t="s">
         <v>3</v>
       </c>
       <c r="W2" s="24" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C3" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="D3" s="11" t="s">
         <v>147</v>
       </c>
-      <c r="D3" s="11" t="s">
-        <v>148</v>
-      </c>
       <c r="E3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F3" t="s">
+        <v>171</v>
+      </c>
+      <c r="G3" t="s">
         <v>172</v>
       </c>
-      <c r="G3" t="s">
-        <v>173</v>
-      </c>
       <c r="H3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="I3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="K3">
         <v>100</v>
@@ -4995,28 +5001,28 @@
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="D4" s="11" t="s">
         <v>272</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="D4" s="11" t="s">
-        <v>273</v>
-      </c>
       <c r="E4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F4" t="s">
+        <v>171</v>
+      </c>
+      <c r="G4" t="s">
         <v>172</v>
       </c>
-      <c r="G4" t="s">
-        <v>173</v>
-      </c>
       <c r="H4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="K4">
         <v>10</v>
@@ -5027,19 +5033,19 @@
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C5" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="D5" s="11" t="s">
         <v>147</v>
       </c>
-      <c r="D5" s="11" t="s">
-        <v>148</v>
-      </c>
       <c r="H5" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="L5">
         <v>100</v>
@@ -5059,19 +5065,19 @@
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="D6" s="11" t="s">
         <v>272</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="D6" s="11" t="s">
-        <v>273</v>
-      </c>
       <c r="H6" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="L6">
         <v>100</v>
@@ -5127,36 +5133,36 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="37" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
       <c r="D1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="F1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="H1" t="s">
+        <v>372</v>
+      </c>
+      <c r="I1" t="s">
         <v>373</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L1" t="s">
         <v>374</v>
-      </c>
-      <c r="J1" t="s">
-        <v>21</v>
-      </c>
-      <c r="K1" t="s">
-        <v>24</v>
-      </c>
-      <c r="L1" t="s">
-        <v>375</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
@@ -5164,28 +5170,28 @@
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D2" s="9" t="s">
         <v>9</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F2" s="9" t="s">
         <v>13</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="H2" s="9" t="s">
         <v>7</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="J2" s="9" t="s">
         <v>6</v>
@@ -5199,13 +5205,13 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D3">
         <v>50</v>
@@ -5213,13 +5219,13 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D4">
         <v>150</v>
@@ -5227,13 +5233,13 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D5">
         <v>150</v>
@@ -5268,19 +5274,19 @@
   <sheetData>
     <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="37" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
       <c r="B2" s="15" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C2" s="9" t="s">
         <v>3</v>
@@ -5288,18 +5294,18 @@
     </row>
     <row r="3" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C4">
         <v>0.99</v>
@@ -5307,7 +5313,7 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C5">
         <v>0.99</v>
@@ -5316,7 +5322,7 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C6">
         <v>0.99</v>
@@ -5324,7 +5330,7 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C7">
         <v>0.99</v>
@@ -5332,7 +5338,7 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C8">
         <v>0.99</v>
@@ -5340,7 +5346,7 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C9">
         <v>0.99</v>
@@ -5348,7 +5354,7 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C10">
         <v>0.99</v>
@@ -5356,7 +5362,7 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C11">
         <v>0.99</v>
@@ -5364,7 +5370,7 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C12">
         <v>0.99</v>
@@ -5372,7 +5378,7 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C13">
         <v>0.99</v>
@@ -5380,7 +5386,7 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C14">
         <v>0.99</v>
@@ -5388,7 +5394,7 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C15">
         <v>0.99</v>
@@ -5396,7 +5402,7 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C16">
         <v>0.99</v>
@@ -5404,7 +5410,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C17">
         <v>0.99</v>
@@ -5412,7 +5418,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C18">
         <v>0.99</v>
@@ -5420,7 +5426,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C19">
         <v>0.99</v>
@@ -5428,7 +5434,7 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C20">
         <v>0.99</v>
@@ -5436,7 +5442,7 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C21">
         <v>0.99</v>
@@ -5444,7 +5450,7 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C22">
         <v>0.99</v>
@@ -5452,7 +5458,7 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C23">
         <v>0.99</v>
@@ -5460,7 +5466,7 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C24">
         <v>0.99</v>
@@ -5468,7 +5474,7 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C25">
         <v>0.99</v>
@@ -5476,7 +5482,7 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C26">
         <v>0.99</v>
@@ -5484,7 +5490,7 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C27">
         <v>0.99</v>
@@ -5540,74 +5546,74 @@
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1" s="37" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G1" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="H1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J1" t="s">
+        <v>300</v>
+      </c>
+      <c r="K1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L1" t="s">
+        <v>301</v>
+      </c>
+      <c r="M1" t="s">
+        <v>375</v>
+      </c>
+      <c r="N1" t="s">
+        <v>376</v>
+      </c>
+      <c r="O1" t="s">
         <v>20</v>
       </c>
-      <c r="I1" t="s">
+      <c r="P1" t="s">
         <v>23</v>
       </c>
-      <c r="J1" t="s">
-        <v>301</v>
-      </c>
-      <c r="K1" t="s">
-        <v>26</v>
-      </c>
-      <c r="L1" t="s">
-        <v>302</v>
-      </c>
-      <c r="M1" t="s">
-        <v>377</v>
-      </c>
-      <c r="N1" t="s">
-        <v>378</v>
-      </c>
-      <c r="O1" t="s">
-        <v>21</v>
-      </c>
-      <c r="P1" t="s">
-        <v>24</v>
-      </c>
       <c r="Q1" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="R1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="S1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="T1" t="s">
+        <v>311</v>
+      </c>
+      <c r="U1" t="s">
         <v>312</v>
       </c>
-      <c r="U1" t="s">
-        <v>313</v>
-      </c>
       <c r="V1" t="s">
+        <v>196</v>
+      </c>
+      <c r="W1" t="s">
         <v>197</v>
       </c>
-      <c r="W1" t="s">
-        <v>198</v>
-      </c>
       <c r="X1" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
     </row>
     <row r="2" spans="1:24" s="23" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -5615,19 +5621,19 @@
         <v>1</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C2" s="24" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D2" s="24" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E2" s="24" t="s">
         <v>16</v>
       </c>
       <c r="F2" s="24" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G2" s="24" t="s">
         <v>11</v>
@@ -5639,19 +5645,19 @@
         <v>10</v>
       </c>
       <c r="J2" s="24" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K2" s="24" t="s">
         <v>14</v>
       </c>
       <c r="L2" s="24" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="M2" s="24" t="s">
         <v>7</v>
       </c>
       <c r="N2" s="24" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="O2" s="24" t="s">
         <v>6</v>
@@ -5669,40 +5675,40 @@
         <v>3</v>
       </c>
       <c r="T2" s="24" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="U2" s="24" t="s">
+        <v>113</v>
+      </c>
+      <c r="V2" s="24" t="s">
+        <v>112</v>
+      </c>
+      <c r="W2" s="24" t="s">
         <v>114</v>
       </c>
-      <c r="V2" s="24" t="s">
-        <v>113</v>
-      </c>
-      <c r="W2" s="24" t="s">
-        <v>115</v>
-      </c>
       <c r="X2" s="24" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C3" s="47" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D3" s="47" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E3" s="47" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F3" s="47"/>
       <c r="G3" s="47" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H3">
         <v>100</v>
@@ -5726,23 +5732,23 @@
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C4" s="47" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D4" s="47" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E4" s="47" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F4" s="47"/>
       <c r="G4" s="47" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H4">
         <v>100</v>
@@ -5753,23 +5759,23 @@
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C5" s="47" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D5" s="47" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E5" s="47" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F5" s="47"/>
       <c r="G5" s="47" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H5">
         <v>200</v>
@@ -5783,33 +5789,33 @@
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G6" s="47" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="C7" s="47" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D7" s="47" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E7" s="47" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G7" s="47" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H7">
         <v>10</v>
@@ -5828,11 +5834,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4446509C-CB62-4FDB-A8D2-BE0D15E8AAF2}">
-  <dimension ref="A1:D35"/>
+  <dimension ref="A1:D36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -5843,469 +5847,483 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B3" t="s">
+        <v>189</v>
+      </c>
+      <c r="C3" t="s">
         <v>190</v>
       </c>
-      <c r="C3" t="s">
-        <v>191</v>
-      </c>
       <c r="D3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B4" s="25">
         <v>44594</v>
       </c>
       <c r="C4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B5" s="25">
         <v>44595</v>
       </c>
       <c r="C5" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D5" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B6" s="25">
         <v>44600</v>
       </c>
       <c r="C6" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D6" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B7" s="25">
         <v>44602</v>
       </c>
       <c r="C7" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D7" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B8" s="25">
         <v>44602</v>
       </c>
       <c r="C8" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D8" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B9" s="25">
         <v>44602</v>
       </c>
       <c r="C9" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D9" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B10" s="25">
         <v>44602</v>
       </c>
       <c r="C10" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D10" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B11" s="25">
         <v>44603</v>
       </c>
       <c r="C11" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D11" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B12" s="25">
         <v>44605</v>
       </c>
       <c r="C12" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D12" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B13" s="25">
         <v>44605</v>
       </c>
       <c r="C13" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D13" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B14" s="25">
         <v>44605</v>
       </c>
       <c r="C14" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D14" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B15" s="25">
         <v>44635</v>
       </c>
       <c r="C15" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D15" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B16" s="25">
         <v>44643</v>
       </c>
       <c r="C16" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D16" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B17" s="25">
         <v>44643</v>
       </c>
       <c r="C17" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D17" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B18" s="25">
         <v>44643</v>
       </c>
       <c r="C18" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D18" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B19" s="25">
         <v>44656</v>
       </c>
       <c r="C19" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D19" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B20" s="25">
         <v>44657</v>
       </c>
       <c r="C20" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D20" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B21" s="25">
         <v>44657</v>
       </c>
       <c r="C21" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D21" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B22" s="25">
         <v>44680</v>
       </c>
       <c r="C22" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D22" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B23" s="25">
         <v>44680</v>
       </c>
       <c r="C23" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D23" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B24" s="25">
         <v>44690</v>
       </c>
       <c r="C24" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D24" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="B25" s="25">
         <v>44695</v>
       </c>
       <c r="C25" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D25" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="B26" s="25">
         <v>44701</v>
       </c>
       <c r="C26" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D26" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="B27" s="25">
         <v>44701</v>
       </c>
       <c r="C27" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D27" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="B28" s="25">
         <v>44712</v>
       </c>
       <c r="C28" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D28" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="B29" s="25">
         <v>44727</v>
       </c>
       <c r="C29" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D29" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="B30" s="25">
         <v>44734</v>
       </c>
       <c r="C30" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D30" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="B31" s="25">
         <v>44741</v>
       </c>
       <c r="C31" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D31" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="B32" s="25">
         <v>44840</v>
       </c>
       <c r="C32" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D32" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="B33" s="25">
         <v>44850</v>
       </c>
       <c r="C33" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D33" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="B34" s="25">
         <v>44875</v>
       </c>
       <c r="C34" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D34" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="B35" s="25">
         <v>44876</v>
       </c>
       <c r="C35" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D35" t="s">
-        <v>467</v>
+        <v>464</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="5" t="s">
+        <v>474</v>
+      </c>
+      <c r="B36" s="25">
+        <v>44889</v>
+      </c>
+      <c r="C36" t="s">
+        <v>191</v>
+      </c>
+      <c r="D36" t="s">
+        <v>478</v>
       </c>
     </row>
   </sheetData>
@@ -6344,39 +6362,39 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="37" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
       <c r="D1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="F1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="H1" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="I1" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="J1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L1" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="M1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6384,28 +6402,28 @@
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D2" s="9" t="s">
         <v>9</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F2" s="9" t="s">
         <v>13</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="H2" s="9" t="s">
         <v>7</v>
       </c>
       <c r="I2" s="24" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="J2" s="9" t="s">
         <v>6</v>
@@ -6422,13 +6440,13 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D3">
         <v>75</v>
@@ -6436,13 +6454,13 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D4">
         <v>75</v>
@@ -6450,13 +6468,13 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D5">
         <v>75</v>
@@ -6491,19 +6509,19 @@
   <sheetData>
     <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="37" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
       <c r="B2" s="15" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C2" s="9" t="s">
         <v>3</v>
@@ -6511,18 +6529,18 @@
     </row>
     <row r="3" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C4">
         <v>0.5</v>
@@ -6530,7 +6548,7 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C5">
         <v>0.5</v>
@@ -6539,7 +6557,7 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C6">
         <v>0.5</v>
@@ -6547,7 +6565,7 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C7">
         <v>0.5</v>
@@ -6555,7 +6573,7 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C8">
         <v>0.5</v>
@@ -6563,7 +6581,7 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C9">
         <v>0.5</v>
@@ -6571,7 +6589,7 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C10">
         <v>0.5</v>
@@ -6579,7 +6597,7 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C11">
         <v>0.5</v>
@@ -6587,7 +6605,7 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C12">
         <v>0.5</v>
@@ -6595,7 +6613,7 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C13">
         <v>0.5</v>
@@ -6603,7 +6621,7 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C14">
         <v>0.5</v>
@@ -6611,7 +6629,7 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C15">
         <v>0.5</v>
@@ -6619,7 +6637,7 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C16">
         <v>0.5</v>
@@ -6627,7 +6645,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C17">
         <v>0.5</v>
@@ -6635,7 +6653,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C18">
         <v>0.5</v>
@@ -6643,7 +6661,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C19">
         <v>0.5</v>
@@ -6651,7 +6669,7 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C20">
         <v>0.5</v>
@@ -6659,7 +6677,7 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C21">
         <v>0.5</v>
@@ -6667,7 +6685,7 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C22">
         <v>0.5</v>
@@ -6675,7 +6693,7 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C23">
         <v>0.5</v>
@@ -6683,7 +6701,7 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C24">
         <v>0.5</v>
@@ -6691,7 +6709,7 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C25">
         <v>0.5</v>
@@ -6699,7 +6717,7 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C26">
         <v>0.5</v>
@@ -6707,7 +6725,7 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C27">
         <v>0.5</v>
@@ -6741,7 +6759,7 @@
     <col min="3" max="3" width="18.28515625" style="4" customWidth="1"/>
     <col min="4" max="4" width="12.5703125" style="20" customWidth="1"/>
     <col min="5" max="5" width="11.140625" customWidth="1"/>
-    <col min="6" max="6" width="13.28515625" customWidth="1"/>
+    <col min="6" max="6" width="22" customWidth="1"/>
     <col min="7" max="7" width="19.140625" customWidth="1"/>
     <col min="8" max="8" width="16.42578125" customWidth="1"/>
     <col min="9" max="9" width="13.5703125" customWidth="1"/>
@@ -6755,37 +6773,37 @@
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="37" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
       <c r="E1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F1" t="s">
-        <v>379</v>
+        <v>476</v>
       </c>
       <c r="G1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="H1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="I1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J1" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="K1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="L1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="M1" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="P1" s="3"/>
       <c r="Q1" s="3"/>
@@ -6796,40 +6814,40 @@
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D2" s="19" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>18</v>
+        <v>475</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="L2" s="9" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="M2" s="9" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="P2" s="3"/>
       <c r="Q2" s="3"/>
@@ -6837,22 +6855,22 @@
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D3" s="20" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="I3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J3">
         <v>1</v>
@@ -6860,16 +6878,16 @@
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D4" s="20" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -6880,16 +6898,16 @@
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D5" s="20" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -6897,16 +6915,16 @@
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D6" s="20" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -6917,36 +6935,36 @@
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D7" s="20" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E7">
         <v>1</v>
       </c>
       <c r="G7" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D8" s="20" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -6954,16 +6972,16 @@
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D9" s="20" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -6971,16 +6989,16 @@
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="D10" s="20" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -7009,62 +7027,62 @@
   <cols>
     <col min="1" max="1" width="11.85546875" style="4" customWidth="1"/>
     <col min="2" max="2" width="13.140625" style="17" customWidth="1"/>
-    <col min="3" max="3" width="12" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" customWidth="1"/>
     <col min="4" max="4" width="13" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="37" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
       <c r="B2" s="15" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>18</v>
+        <v>475</v>
       </c>
     </row>
     <row r="3" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
       <c r="B3" s="6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="4" spans="1:11" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
       <c r="B4" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C4" s="18" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="5" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B5" s="19" t="s">
+        <v>337</v>
+      </c>
+      <c r="C5" s="20" t="s">
         <v>338</v>
-      </c>
-      <c r="C5" s="20" t="s">
-        <v>339</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C6">
         <v>5</v>
@@ -7072,7 +7090,7 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C7">
         <v>5</v>
@@ -7081,7 +7099,7 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C8">
         <v>5</v>
@@ -7089,7 +7107,7 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C9">
         <v>5</v>
@@ -7097,7 +7115,7 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C10">
         <v>5</v>
@@ -7105,7 +7123,7 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C11">
         <v>5</v>
@@ -7113,7 +7131,7 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C12">
         <v>5</v>
@@ -7121,7 +7139,7 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C13">
         <v>5</v>
@@ -7129,7 +7147,7 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C14">
         <v>5</v>
@@ -7137,7 +7155,7 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C15">
         <v>5</v>
@@ -7145,7 +7163,7 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C16">
         <v>5</v>
@@ -7153,7 +7171,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C17">
         <v>5</v>
@@ -7161,7 +7179,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C18">
         <v>5</v>
@@ -7169,7 +7187,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C19">
         <v>5</v>
@@ -7177,7 +7195,7 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C20">
         <v>5</v>
@@ -7185,7 +7203,7 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C21">
         <v>5</v>
@@ -7193,7 +7211,7 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C22">
         <v>5</v>
@@ -7201,7 +7219,7 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C23">
         <v>5</v>
@@ -7209,7 +7227,7 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C24">
         <v>5</v>
@@ -7217,7 +7235,7 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C25">
         <v>5</v>
@@ -7225,7 +7243,7 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C26">
         <v>5</v>
@@ -7233,7 +7251,7 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C27">
         <v>5</v>
@@ -7241,7 +7259,7 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C28">
         <v>5</v>
@@ -7249,7 +7267,7 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C29">
         <v>5</v>
@@ -7284,47 +7302,47 @@
   <sheetData>
     <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
     </row>
     <row r="2" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B2" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>145</v>
-      </c>
       <c r="D2" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -7341,7 +7359,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C4">
         <v>0.75</v>
@@ -7358,7 +7376,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C5">
         <v>0.25</v>
@@ -7375,7 +7393,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -7392,7 +7410,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -7409,7 +7427,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C8">
         <v>0.75</v>
@@ -7426,7 +7444,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C9">
         <v>0.25</v>
@@ -7443,7 +7461,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -7460,7 +7478,7 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -7477,7 +7495,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C12">
         <v>0.75</v>
@@ -7494,7 +7512,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C13">
         <v>0.25</v>
@@ -7511,7 +7529,7 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -7528,7 +7546,7 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C15">
         <v>1</v>
@@ -7545,7 +7563,7 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C16">
         <v>0.75</v>
@@ -7562,7 +7580,7 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C17">
         <v>0.25</v>
@@ -7579,7 +7597,7 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C18">
         <v>0</v>
@@ -7596,7 +7614,7 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C19">
         <v>1</v>
@@ -7613,7 +7631,7 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C20">
         <v>0.75</v>
@@ -7630,7 +7648,7 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C21">
         <v>0.25</v>
@@ -7647,7 +7665,7 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C22">
         <v>0</v>
@@ -7664,7 +7682,7 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C23">
         <v>1</v>
@@ -7681,7 +7699,7 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C24">
         <v>0.75</v>
@@ -7698,7 +7716,7 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C25">
         <v>0.25</v>
@@ -7715,7 +7733,7 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C26">
         <v>0</v>
@@ -7758,12 +7776,12 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="37" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
       <c r="D1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -7771,13 +7789,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
@@ -7788,16 +7806,16 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>273</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>274</v>
-      </c>
       <c r="D3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
   </sheetData>
@@ -7830,12 +7848,12 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="37" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
       <c r="D1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -7843,13 +7861,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
@@ -7860,16 +7878,16 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
   </sheetData>
@@ -7903,13 +7921,13 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="37" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
       <c r="E1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -7917,16 +7935,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
@@ -7937,36 +7955,36 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C3" s="18" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="C4" s="18" t="s">
+        <v>404</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>405</v>
+      </c>
+      <c r="E4" t="s">
         <v>401</v>
-      </c>
-      <c r="C4" s="18" t="s">
-        <v>407</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>408</v>
-      </c>
-      <c r="E4" t="s">
-        <v>404</v>
       </c>
     </row>
   </sheetData>
@@ -8014,62 +8032,62 @@
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="37" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F1" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="G1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I1" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="J1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L1" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="M1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="N1" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="O1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="P1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="Q1" t="s">
+        <v>342</v>
+      </c>
+      <c r="R1" t="s">
         <v>343</v>
       </c>
-      <c r="R1" t="s">
-        <v>344</v>
-      </c>
       <c r="S1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="T1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
@@ -8077,40 +8095,40 @@
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L2" s="9" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="M2" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="N2" s="24" t="s">
         <v>11</v>
@@ -8119,27 +8137,27 @@
         <v>10</v>
       </c>
       <c r="P2" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="Q2" s="9" t="s">
+        <v>340</v>
+      </c>
+      <c r="R2" s="9" t="s">
         <v>341</v>
       </c>
-      <c r="R2" s="9" t="s">
-        <v>342</v>
-      </c>
       <c r="S2" s="9" t="s">
+        <v>357</v>
+      </c>
+      <c r="T2" s="9" t="s">
         <v>358</v>
-      </c>
-      <c r="T2" s="9" t="s">
-        <v>359</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E3">
         <v>10</v>
@@ -8148,10 +8166,10 @@
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="H4">
         <v>200</v>
@@ -8168,24 +8186,24 @@
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="G5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="J5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="Q6">
         <v>40</v>
@@ -8196,13 +8214,13 @@
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C7" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
   </sheetData>
@@ -8241,39 +8259,39 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="37" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
       <c r="D1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H1" t="s">
         <v>47</v>
       </c>
-      <c r="F1" t="s">
-        <v>55</v>
-      </c>
-      <c r="G1" t="s">
-        <v>39</v>
-      </c>
-      <c r="H1" t="s">
-        <v>48</v>
-      </c>
       <c r="I1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J1" t="s">
+        <v>342</v>
+      </c>
+      <c r="K1" t="s">
         <v>343</v>
       </c>
-      <c r="K1" t="s">
-        <v>344</v>
-      </c>
       <c r="L1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="M1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
@@ -8281,51 +8299,51 @@
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H2" s="9" t="s">
         <v>9</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J2" s="9" t="s">
+        <v>340</v>
+      </c>
+      <c r="K2" s="9" t="s">
         <v>341</v>
       </c>
-      <c r="K2" s="9" t="s">
-        <v>342</v>
-      </c>
       <c r="L2" s="9" t="s">
+        <v>357</v>
+      </c>
+      <c r="M2" s="9" t="s">
         <v>358</v>
-      </c>
-      <c r="M2" s="9" t="s">
-        <v>359</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G3">
         <v>20</v>
@@ -8333,13 +8351,13 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G4">
         <v>20</v>
@@ -8347,13 +8365,13 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G5">
         <v>20</v>
@@ -8371,7 +8389,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB6AC2C8-7B82-4BFA-94A3-ECFAF63F0D5D}">
   <dimension ref="A1:M11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
@@ -8386,182 +8404,182 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="37" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
       <c r="B2" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C2" s="6" t="s">
+        <v>319</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>294</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>321</v>
+      </c>
+      <c r="F2" s="6" t="s">
         <v>320</v>
       </c>
-      <c r="D2" s="6" t="s">
-        <v>295</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>322</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>321</v>
-      </c>
       <c r="G2" s="6" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="K2" s="6" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="L2" s="6" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="M2" s="6" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E3" s="14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F3" s="14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G3" s="14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H3" s="14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I3" s="14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J3" s="14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K3" s="14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L3" s="14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M3" s="14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B4" s="14"/>
       <c r="C4" s="14" t="s">
+        <v>319</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>294</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>321</v>
+      </c>
+      <c r="F4" t="s">
         <v>320</v>
       </c>
-      <c r="D4" s="14" t="s">
-        <v>295</v>
-      </c>
-      <c r="E4" s="14" t="s">
-        <v>322</v>
-      </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
+        <v>294</v>
+      </c>
+      <c r="H4" t="s">
+        <v>345</v>
+      </c>
+      <c r="I4" t="s">
+        <v>382</v>
+      </c>
+      <c r="J4" t="s">
+        <v>382</v>
+      </c>
+      <c r="K4" t="s">
+        <v>382</v>
+      </c>
+      <c r="L4" t="s">
         <v>321</v>
       </c>
-      <c r="G4" t="s">
-        <v>295</v>
-      </c>
-      <c r="H4" t="s">
-        <v>346</v>
-      </c>
-      <c r="I4" t="s">
-        <v>385</v>
-      </c>
-      <c r="J4" t="s">
-        <v>385</v>
-      </c>
-      <c r="K4" t="s">
-        <v>385</v>
-      </c>
-      <c r="L4" t="s">
-        <v>322</v>
-      </c>
       <c r="M4" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B5" s="14"/>
       <c r="G5" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="J5" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="K5" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="L5" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B6" s="14"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B7" s="14"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B8" s="14"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B9" s="14"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B10" s="14"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B11" s="14"/>
     </row>
@@ -8591,10 +8609,10 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
@@ -8630,13 +8648,13 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" s="10" t="s">
         <v>57</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1" s="10" t="s">
-        <v>58</v>
       </c>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
@@ -8671,10 +8689,10 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" s="7" t="s">
         <v>57</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>58</v>
       </c>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
@@ -8688,42 +8706,42 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
   </sheetData>
@@ -8749,10 +8767,10 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
@@ -8788,13 +8806,13 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" s="38" t="s">
+        <v>123</v>
+      </c>
+      <c r="C1" s="10" t="s">
         <v>57</v>
-      </c>
-      <c r="B1" s="38" t="s">
-        <v>124</v>
-      </c>
-      <c r="C1" s="10" t="s">
-        <v>58</v>
       </c>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
@@ -8808,24 +8826,24 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
   </sheetData>
@@ -8862,26 +8880,26 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="37" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
       <c r="F1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="I1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="K1" s="3"/>
       <c r="L1" s="3"/>
@@ -8895,31 +8913,31 @@
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="C2" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="D2" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>295</v>
+      </c>
+      <c r="G2" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="D2" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="E2" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="F2" s="9" t="s">
-        <v>296</v>
-      </c>
-      <c r="G2" s="9" t="s">
-        <v>128</v>
-      </c>
       <c r="H2" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="I2" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="I2" s="9" t="s">
-        <v>131</v>
-      </c>
       <c r="J2" s="9" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="K2" s="3"/>
       <c r="L2" s="3"/>
@@ -8930,22 +8948,22 @@
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -8988,22 +9006,22 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="37" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
       <c r="E1" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="F1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G1" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="H1" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="J1" s="3"/>
       <c r="K1" s="3"/>
@@ -9017,25 +9035,25 @@
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="C2" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="D2" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="H2" s="9" t="s">
         <v>127</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>138</v>
-      </c>
-      <c r="F2" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="G2" s="9" t="s">
-        <v>135</v>
-      </c>
-      <c r="H2" s="9" t="s">
-        <v>128</v>
       </c>
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
@@ -9046,19 +9064,19 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C3" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="D3" s="11" t="s">
         <v>284</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="E3" t="s">
         <v>285</v>
-      </c>
-      <c r="E3" t="s">
-        <v>286</v>
       </c>
       <c r="F3">
         <v>50</v>
@@ -9099,7 +9117,7 @@
   <sheetData>
     <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="37" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B1" s="8" t="s">
         <v>1</v>
@@ -9108,150 +9126,150 @@
     <row r="2" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
       <c r="B2" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="3" spans="1:11" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
       <c r="B3" s="11" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="4" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
       <c r="B4" s="19" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K7" s="16"/>
     </row>
     <row r="8" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B8" s="17"/>
     </row>
     <row r="9" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B9" s="17"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
   </sheetData>
@@ -9291,26 +9309,26 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="37" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
       <c r="F1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="I1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="K1" s="3"/>
       <c r="L1" s="3"/>
@@ -9324,31 +9342,31 @@
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="C2" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="D2" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>295</v>
+      </c>
+      <c r="G2" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="D2" s="10" t="s">
-        <v>124</v>
-      </c>
-      <c r="E2" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="F2" s="9" t="s">
-        <v>296</v>
-      </c>
-      <c r="G2" s="9" t="s">
-        <v>128</v>
-      </c>
       <c r="H2" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="I2" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="I2" s="9" t="s">
-        <v>131</v>
-      </c>
       <c r="J2" s="9" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="K2" s="3"/>
       <c r="L2" s="3"/>
@@ -9359,22 +9377,22 @@
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="I3">
         <v>0.5</v>
@@ -9385,22 +9403,22 @@
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -9411,22 +9429,22 @@
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="I5">
         <v>0.01</v>
@@ -9437,22 +9455,22 @@
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F6" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="I6">
         <v>0.5</v>
@@ -9463,22 +9481,22 @@
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F7" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="I7">
         <v>0.01</v>
@@ -9516,15 +9534,15 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="37" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
       <c r="D1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G1" s="3"/>
       <c r="H1" s="3"/>
@@ -9538,16 +9556,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C2" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>295</v>
+      </c>
+      <c r="E2" s="9" t="s">
         <v>155</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>296</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>156</v>
       </c>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
@@ -9558,16 +9576,16 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>178</v>
-      </c>
       <c r="D3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -9575,16 +9593,16 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>400</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>402</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>403</v>
-      </c>
       <c r="D4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -9592,16 +9610,16 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="D5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -9640,21 +9658,21 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="37" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
       <c r="D1" t="s">
+        <v>163</v>
+      </c>
+      <c r="E1" t="s">
         <v>164</v>
       </c>
-      <c r="E1" t="s">
-        <v>165</v>
-      </c>
       <c r="F1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -9662,185 +9680,185 @@
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F2" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="G2" s="9" t="s">
         <v>204</v>
-      </c>
-      <c r="G2" s="9" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E3" s="5">
         <v>0</v>
       </c>
       <c r="F3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E4">
         <v>5</v>
       </c>
       <c r="G4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="G5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D6" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E6">
         <v>5</v>
       </c>
       <c r="G6" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D7" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D8" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="G8" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D9" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E9">
         <v>5</v>
       </c>
       <c r="G9" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D10" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -9881,14 +9899,14 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="37" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B1"/>
       <c r="C1"/>
       <c r="D1" s="3"/>
       <c r="E1"/>
       <c r="F1" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -9896,36 +9914,36 @@
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D2" s="19" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D3" s="20" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F3">
         <v>1</v>
@@ -9933,19 +9951,19 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D4" s="20" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F4">
         <v>-0.1</v>
@@ -9953,19 +9971,19 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D5" s="20" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="F5">
         <v>-1</v>
@@ -9973,19 +9991,19 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D6" s="20" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="F6">
         <v>4</v>
@@ -10022,13 +10040,13 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="37" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B1"/>
       <c r="C1"/>
       <c r="D1"/>
       <c r="E1" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -10036,16 +10054,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
     </row>
   </sheetData>
@@ -10079,15 +10097,15 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="37" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B1"/>
       <c r="C1"/>
       <c r="D1" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="E1" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -10095,27 +10113,27 @@
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -10151,12 +10169,12 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="37" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B1"/>
       <c r="C1"/>
       <c r="D1" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -10164,13 +10182,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
     </row>
   </sheetData>
@@ -10203,12 +10221,12 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="37" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B1"/>
       <c r="C1"/>
       <c r="D1" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -10216,24 +10234,24 @@
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="D3">
         <v>-8</v>
@@ -10272,23 +10290,23 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="37" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="D1" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="E1" t="s">
+        <v>466</v>
+      </c>
+      <c r="F1" t="s">
         <v>469</v>
       </c>
-      <c r="F1" t="s">
-        <v>472</v>
-      </c>
       <c r="G1" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
     </row>
     <row r="2" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -10296,184 +10314,184 @@
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D3" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="E3" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="G3" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D4" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="E4" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="G4" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D5" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="E5" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="G5" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D6" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="E6" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="G6" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C7" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D7" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="E7" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="G7" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D8" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="F8" s="5"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D9" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="F9" s="5"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D10" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="F10" s="5"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D11" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="F11" s="5"/>
     </row>
@@ -10508,12 +10526,12 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="37" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
       <c r="D1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -10521,24 +10539,24 @@
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>29</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>30</v>
       </c>
       <c r="D3">
         <v>24</v>
@@ -10546,13 +10564,13 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>29</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>30</v>
       </c>
       <c r="D4">
         <v>12</v>
@@ -10589,12 +10607,12 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="37" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
       <c r="D1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="2" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -10602,24 +10620,24 @@
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>29</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>30</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -10627,13 +10645,13 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -10641,13 +10659,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -10655,13 +10673,13 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -10669,13 +10687,13 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -10683,13 +10701,13 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D8">
         <v>1</v>
@@ -10697,13 +10715,13 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D9">
         <v>1</v>
@@ -10711,13 +10729,13 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D10">
         <v>1</v>
@@ -10725,13 +10743,13 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D11">
         <v>1</v>
@@ -10739,13 +10757,13 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D12">
         <v>1</v>
@@ -10753,13 +10771,13 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D13">
         <v>1</v>
@@ -10767,13 +10785,13 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D14">
         <v>1</v>
@@ -10781,13 +10799,13 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D15">
         <v>1</v>
@@ -10795,13 +10813,13 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D16">
         <v>1</v>
@@ -10809,13 +10827,13 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D17">
         <v>1</v>
@@ -10823,13 +10841,13 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D18">
         <v>1</v>
@@ -10837,13 +10855,13 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D19">
         <v>1</v>
@@ -10851,13 +10869,13 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D20">
         <v>1</v>
@@ -10865,13 +10883,13 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D21">
         <v>1</v>
@@ -10879,13 +10897,13 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D22">
         <v>1</v>
@@ -10893,13 +10911,13 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D23">
         <v>1</v>
@@ -10907,13 +10925,13 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D24">
         <v>1</v>
@@ -10921,13 +10939,13 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D25">
         <v>1</v>
@@ -10935,13 +10953,13 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D26">
         <v>1</v>
@@ -10980,11 +10998,11 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="37" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="2" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -10992,18 +11010,18 @@
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C3">
         <f>24/8760</f>
@@ -11037,26 +11055,26 @@
   <sheetData>
     <row r="1" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
   </sheetData>

--- a/FlexTool_import_template.xlsx
+++ b/FlexTool_import_template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\data\Toolbox_projects\FlexTool3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C4A53AB-C756-4A17-8D67-AA481D8A182D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B965210E-F230-4C72-89D2-1986E387FE09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="30360" windowHeight="21000" tabRatio="1000" firstSheet="1" activeTab="1" xr2:uid="{D5BEC09F-8FA9-46E6-8F36-396DCDACE376}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="30360" windowHeight="21000" tabRatio="1000" firstSheet="1" activeTab="15" xr2:uid="{D5BEC09F-8FA9-46E6-8F36-396DCDACE376}"/>
   </bookViews>
   <sheets>
     <sheet name="navigate" sheetId="54" r:id="rId1"/>
@@ -121,7 +121,7 @@
           </rPr>
           <t xml:space="preserve">Possible parameters
 efficiency: [factor] Efficiency of a unit. Constant or time.
-other_operational_cost: [CUR/MWh] Other variable operational cost. Fuel and CO2 cost can be given through separate means. Constant or time.
+other_operational_cost: [CUR/MWh] Other variable operational cost. Fuel and CO2 cost can be given through separate means. Constant, period or time.
 </t>
         </r>
       </text>
@@ -205,7 +205,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1371" uniqueCount="479">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1373" uniqueCount="479">
   <si>
     <t>commodity</t>
   </si>
@@ -1638,10 +1638,10 @@
     <t>[CUR/MWh] Other operational cost for energy flows. Constant or time.</t>
   </si>
   <si>
-    <t>[CUR/MWh] Other variable operational cost for transferring over the connection. Constant or time.</t>
-  </si>
-  <si>
     <t>Change variable_cost to other_operational_cost in connection_c, connection_t, unit_node_c, and unit_node_t</t>
+  </si>
+  <si>
+    <t>[CUR/MWh] Other variable operational cost for transferring over the connection. Constant, period or time.</t>
   </si>
 </sst>
 </file>
@@ -4799,7 +4799,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D44D2B2-1DE7-400D-8C40-2CD59BEE6EC3}">
   <dimension ref="A1:W6"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="4" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
@@ -4887,7 +4887,7 @@
         <v>374</v>
       </c>
       <c r="U1" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="V1" t="s">
         <v>18</v>
@@ -5106,7 +5106,7 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9C5CDA4-FFE3-4938-9213-CC2F8772241C}">
-  <dimension ref="A1:L5"/>
+  <dimension ref="A1:M5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
@@ -5129,9 +5129,10 @@
     <col min="10" max="10" width="12.5703125" customWidth="1"/>
     <col min="11" max="11" width="9.5703125" customWidth="1"/>
     <col min="12" max="12" width="11" customWidth="1"/>
+    <col min="13" max="13" width="21.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="37" t="s">
         <v>247</v>
       </c>
@@ -5164,8 +5165,11 @@
       <c r="L1" t="s">
         <v>374</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M1" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>1</v>
       </c>
@@ -5202,8 +5206,11 @@
       <c r="L2" s="9" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M2" s="9" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>28</v>
       </c>
@@ -5217,7 +5224,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>28</v>
       </c>
@@ -5231,7 +5238,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>28</v>
       </c>
@@ -5836,7 +5843,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4446509C-CB62-4FDB-A8D2-BE0D15E8AAF2}">
   <dimension ref="A1:D36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -6323,7 +6330,7 @@
         <v>191</v>
       </c>
       <c r="D36" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
   </sheetData>

--- a/FlexTool_import_template.xlsx
+++ b/FlexTool_import_template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\data\Toolbox_projects\FlexTool3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B965210E-F230-4C72-89D2-1986E387FE09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7206BFBB-42CC-4A22-96D8-B7B8892C3E70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="30360" windowHeight="21000" tabRatio="1000" firstSheet="1" activeTab="15" xr2:uid="{D5BEC09F-8FA9-46E6-8F36-396DCDACE376}"/>
+    <workbookView xWindow="30360" yWindow="0" windowWidth="21240" windowHeight="21000" tabRatio="1000" firstSheet="1" activeTab="1" xr2:uid="{D5BEC09F-8FA9-46E6-8F36-396DCDACE376}"/>
   </bookViews>
   <sheets>
     <sheet name="navigate" sheetId="54" r:id="rId1"/>
@@ -205,7 +205,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1373" uniqueCount="479">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1380" uniqueCount="483">
   <si>
     <t>commodity</t>
   </si>
@@ -666,9 +666,6 @@
     <t>Commodity_nodes</t>
   </si>
   <si>
-    <t>[MWh] Annual flow in energy units (always positive, the sign of inflow defines in/out). Inflow time series is scaled to match annual flow. Default value is calculated from the absolute of inflow time series. Constant or period.</t>
-  </si>
-  <si>
     <t>sense</t>
   </si>
   <si>
@@ -1425,12 +1422,6 @@
     <t>Gas_export_profile</t>
   </si>
   <si>
-    <t>scale_to_annual_flow</t>
-  </si>
-  <si>
-    <t>Choice how to treat inflow time series. Empty defaults to 'use_original', which does not scale the time series. 'no_inflow' ignores the inflow time series. 'scale_to_annual_flow' will scale the time series to match the 'annual_flow' so that the sum of inflow is multiplied by 8760/'hours_in_solve'. 'scale_in_proprotion' calculates a scaling factor by dividing 'annual_flow' with the sum of time series inflow (after it has been annualized using 'timeline_duration_in_years').</t>
-  </si>
-  <si>
     <t>max_relative_capacity</t>
   </si>
   <si>
@@ -1642,6 +1633,27 @@
   </si>
   <si>
     <t>[CUR/MWh] Other variable operational cost for transferring over the connection. Constant, period or time.</t>
+  </si>
+  <si>
+    <t>[MWh] Annual flow in energy units (always positive, the sign of inflow defines in/out). Inflow time series can be scaled to match annual flow. By default, there is no scaling of inflow. Constant or period.</t>
+  </si>
+  <si>
+    <t>[MWh] Highest absolute flow in scaled inflow. Used only with inflow_method scale_to_annual_and_peak_flow. Constant or period.</t>
+  </si>
+  <si>
+    <t>Choice how to treat inflow time series. Empty defaults to 'use_original', which does not scale the time series. 'no_inflow' ignores the inflow time series. 'scale_to_annual_flow' will scale the time series to match the 'annual_flow' so that the sum of inflow is multiplied by 8760/'hours_in_solve'. 'scale_in_proprotion' calculates a scaling factor by dividing 'annual_flow' with the sum of time series inflow (after it has been annualized using 'timeline_duration_in_years'). 'scale_to_annual_and_peak_flow' scales the inflow to match both the annual flow and the peak flow parameters (be careful, can lead to negative numbers).</t>
+  </si>
+  <si>
+    <t>scale_to_annual_and_peak_flow</t>
+  </si>
+  <si>
+    <t>peak_inflow</t>
+  </si>
+  <si>
+    <t>19.1</t>
+  </si>
+  <si>
+    <t>Add scale_to_annual_and_peak_flow to inflow methods as well as peak_inflow parameter to node_c and node_d</t>
   </si>
 </sst>
 </file>
@@ -2655,7 +2667,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>30</xdr:col>
+      <xdr:col>31</xdr:col>
       <xdr:colOff>371475</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
@@ -3284,74 +3296,74 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="46" t="s">
+        <v>279</v>
+      </c>
+      <c r="B1" s="46" t="s">
+        <v>281</v>
+      </c>
+      <c r="C1" s="46" t="s">
         <v>280</v>
-      </c>
-      <c r="B1" s="46" t="s">
-        <v>282</v>
-      </c>
-      <c r="C1" s="46" t="s">
-        <v>281</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="43" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B2" s="43"/>
       <c r="C2" s="43"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="43" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B3" s="43"/>
       <c r="C3" s="43"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="43" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B4" s="43"/>
       <c r="C4" s="43"/>
       <c r="E4" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="43" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B5" s="43"/>
       <c r="C5" s="43"/>
       <c r="E5" s="5" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="43" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B6" s="43"/>
       <c r="C6" s="43"/>
       <c r="E6" s="5" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="29" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B7" s="30"/>
       <c r="C7" s="29" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="43" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B8" s="43"/>
       <c r="C8" s="43"/>
@@ -3361,65 +3373,65 @@
       <c r="B9" s="27"/>
       <c r="C9" s="27"/>
       <c r="E9" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="31" t="s">
+        <v>214</v>
+      </c>
+      <c r="B10" s="31" t="s">
         <v>215</v>
       </c>
-      <c r="B10" s="31" t="s">
+      <c r="C10" s="31" t="s">
         <v>216</v>
-      </c>
-      <c r="C10" s="31" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="31" t="s">
+        <v>217</v>
+      </c>
+      <c r="B11" s="31" t="s">
         <v>218</v>
-      </c>
-      <c r="B11" s="31" t="s">
-        <v>219</v>
       </c>
       <c r="C11" s="32"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="44" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B12" s="44"/>
       <c r="C12" s="44"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="31" t="s">
+        <v>220</v>
+      </c>
+      <c r="B13" s="31" t="s">
         <v>221</v>
       </c>
-      <c r="B13" s="31" t="s">
+      <c r="C13" s="31" t="s">
         <v>222</v>
-      </c>
-      <c r="C13" s="31" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="31" t="s">
+        <v>239</v>
+      </c>
+      <c r="B14" s="31" t="s">
         <v>240</v>
       </c>
-      <c r="B14" s="31" t="s">
+      <c r="C14" s="31" t="s">
         <v>241</v>
-      </c>
-      <c r="C14" s="31" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="31" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B15" s="32"/>
       <c r="C15" s="31" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -3431,26 +3443,26 @@
       <c r="A17" s="39"/>
       <c r="B17" s="39"/>
       <c r="C17" s="40" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="45" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B18" s="45"/>
       <c r="C18" s="45"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="45" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B19" s="45"/>
       <c r="C19" s="45"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="45" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B20" s="45"/>
       <c r="C20" s="45"/>
@@ -3462,45 +3474,45 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="34" t="s">
+        <v>235</v>
+      </c>
+      <c r="B22" s="34" t="s">
         <v>236</v>
-      </c>
-      <c r="B22" s="34" t="s">
-        <v>237</v>
       </c>
       <c r="C22" s="34"/>
       <c r="D22" s="28"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="41" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B23" s="41"/>
       <c r="C23" s="41"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="41" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B24" s="41"/>
       <c r="C24" s="41"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="41" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B25" s="41"/>
       <c r="C25" s="41"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="41" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B26" s="41"/>
       <c r="C26" s="41"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="41" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B27" s="41"/>
       <c r="C27" s="41"/>
@@ -3512,65 +3524,65 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="42" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B29" s="42"/>
       <c r="C29" s="42"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="35" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B30" s="36"/>
       <c r="C30" s="35" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="42" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B31" s="42"/>
       <c r="C31" s="42"/>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="48" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B33" s="48"/>
       <c r="C33" s="48"/>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="48" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B34" s="48"/>
       <c r="C34" s="48"/>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="48" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="B35" s="48"/>
       <c r="C35" s="48"/>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="48" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="B36" s="48"/>
       <c r="C36" s="48"/>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="48" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="B37" s="48"/>
       <c r="C37" s="48"/>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="48" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="B38" s="48"/>
       <c r="C38" s="48"/>
@@ -3631,7 +3643,7 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A4889F5-3956-475B-A853-BA105023BA1D}">
-  <dimension ref="A1:AD9"/>
+  <dimension ref="A1:AE9"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
@@ -3652,117 +3664,121 @@
     <col min="8" max="8" width="23.140625" customWidth="1"/>
     <col min="9" max="9" width="25.140625" customWidth="1"/>
     <col min="10" max="10" width="29.28515625" customWidth="1"/>
-    <col min="11" max="11" width="12" customWidth="1"/>
-    <col min="12" max="12" width="9" customWidth="1"/>
-    <col min="13" max="13" width="13.7109375" customWidth="1"/>
-    <col min="14" max="14" width="11.7109375" customWidth="1"/>
-    <col min="15" max="15" width="9.5703125" customWidth="1"/>
-    <col min="16" max="16" width="10.5703125" customWidth="1"/>
-    <col min="17" max="17" width="10.28515625" customWidth="1"/>
-    <col min="18" max="18" width="10.140625" style="14" customWidth="1"/>
-    <col min="19" max="19" width="9.85546875" style="14" customWidth="1"/>
-    <col min="20" max="20" width="10.85546875" style="14" customWidth="1"/>
-    <col min="21" max="21" width="13.42578125" customWidth="1"/>
-    <col min="22" max="22" width="12.7109375" style="14" customWidth="1"/>
-    <col min="23" max="23" width="10.5703125" customWidth="1"/>
-    <col min="24" max="24" width="8.140625" customWidth="1"/>
-    <col min="25" max="26" width="18.140625" customWidth="1"/>
-    <col min="27" max="27" width="16.85546875" customWidth="1"/>
-    <col min="28" max="29" width="29.140625" customWidth="1"/>
-    <col min="30" max="30" width="14.7109375" customWidth="1"/>
+    <col min="11" max="11" width="7.28515625" customWidth="1"/>
+    <col min="12" max="12" width="12" customWidth="1"/>
+    <col min="13" max="13" width="10.42578125" customWidth="1"/>
+    <col min="14" max="14" width="13.7109375" customWidth="1"/>
+    <col min="15" max="15" width="11.7109375" customWidth="1"/>
+    <col min="16" max="16" width="9.5703125" customWidth="1"/>
+    <col min="17" max="17" width="10.5703125" customWidth="1"/>
+    <col min="18" max="18" width="10.28515625" customWidth="1"/>
+    <col min="19" max="19" width="10.140625" style="14" customWidth="1"/>
+    <col min="20" max="20" width="9.85546875" style="14" customWidth="1"/>
+    <col min="21" max="21" width="10.85546875" style="14" customWidth="1"/>
+    <col min="22" max="22" width="13.42578125" customWidth="1"/>
+    <col min="23" max="23" width="12.7109375" style="14" customWidth="1"/>
+    <col min="24" max="24" width="10.5703125" customWidth="1"/>
+    <col min="25" max="25" width="8.140625" customWidth="1"/>
+    <col min="26" max="27" width="18.140625" customWidth="1"/>
+    <col min="28" max="28" width="16.85546875" customWidth="1"/>
+    <col min="29" max="30" width="29.140625" customWidth="1"/>
+    <col min="31" max="31" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A1" s="37" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D1" t="s">
+        <v>180</v>
+      </c>
+      <c r="E1" t="s">
+        <v>478</v>
+      </c>
+      <c r="F1" t="s">
         <v>181</v>
       </c>
-      <c r="E1" t="s">
-        <v>407</v>
-      </c>
-      <c r="F1" t="s">
-        <v>182</v>
-      </c>
       <c r="G1" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="H1" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="I1" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="J1" s="5" t="s">
+        <v>437</v>
+      </c>
+      <c r="K1" t="s">
+        <v>168</v>
+      </c>
+      <c r="L1" t="s">
+        <v>476</v>
+      </c>
+      <c r="M1" t="s">
+        <v>477</v>
+      </c>
+      <c r="N1" t="s">
+        <v>361</v>
+      </c>
+      <c r="O1" t="s">
+        <v>362</v>
+      </c>
+      <c r="P1" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>69</v>
+      </c>
+      <c r="R1" t="s">
+        <v>296</v>
+      </c>
+      <c r="S1" t="s">
+        <v>70</v>
+      </c>
+      <c r="T1" t="s">
+        <v>297</v>
+      </c>
+      <c r="U1" t="s">
+        <v>363</v>
+      </c>
+      <c r="V1" t="s">
+        <v>364</v>
+      </c>
+      <c r="W1" t="s">
+        <v>20</v>
+      </c>
+      <c r="X1" t="s">
+        <v>365</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>431</v>
+      </c>
+      <c r="AB1" s="5" t="s">
+        <v>433</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>434</v>
+      </c>
+      <c r="AD1" t="s">
         <v>440</v>
       </c>
-      <c r="K1" t="s">
-        <v>153</v>
-      </c>
-      <c r="L1" t="s">
-        <v>169</v>
-      </c>
-      <c r="M1" t="s">
-        <v>362</v>
-      </c>
-      <c r="N1" t="s">
-        <v>363</v>
-      </c>
-      <c r="O1" t="s">
-        <v>66</v>
-      </c>
-      <c r="P1" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>297</v>
-      </c>
-      <c r="R1" t="s">
-        <v>70</v>
-      </c>
-      <c r="S1" t="s">
-        <v>298</v>
-      </c>
-      <c r="T1" t="s">
-        <v>364</v>
-      </c>
-      <c r="U1" t="s">
-        <v>365</v>
-      </c>
-      <c r="V1" t="s">
-        <v>20</v>
-      </c>
-      <c r="W1" t="s">
-        <v>366</v>
-      </c>
-      <c r="X1" t="s">
-        <v>23</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>71</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>434</v>
-      </c>
-      <c r="AA1" s="5" t="s">
-        <v>436</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>437</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>443</v>
-      </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="2" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>1</v>
       </c>
@@ -3770,91 +3786,94 @@
         <v>57</v>
       </c>
       <c r="C2" s="24" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D2" s="9" t="s">
         <v>59</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="G2" s="9" t="s">
         <v>11</v>
       </c>
       <c r="H2" s="9" t="s">
+        <v>429</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>435</v>
+      </c>
+      <c r="J2" s="9" t="s">
+        <v>436</v>
+      </c>
+      <c r="K2" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="L2" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="M2" s="9" t="s">
+        <v>480</v>
+      </c>
+      <c r="N2" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="O2" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="P2" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q2" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="R2" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="S2" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="T2" s="9" t="s">
+        <v>298</v>
+      </c>
+      <c r="U2" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="V2" s="24" t="s">
+        <v>250</v>
+      </c>
+      <c r="W2" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="X2" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y2" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z2" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA2" s="9" t="s">
+        <v>430</v>
+      </c>
+      <c r="AB2" s="9" t="s">
         <v>432</v>
       </c>
-      <c r="I2" s="9" t="s">
+      <c r="AC2" s="9" t="s">
         <v>438</v>
       </c>
-      <c r="J2" s="9" t="s">
+      <c r="AD2" s="9" t="s">
         <v>439</v>
       </c>
-      <c r="K2" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="L2" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="M2" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="N2" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="O2" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="P2" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q2" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="R2" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="S2" s="9" t="s">
-        <v>299</v>
-      </c>
-      <c r="T2" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="U2" s="24" t="s">
-        <v>251</v>
-      </c>
-      <c r="V2" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="W2" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="X2" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="Y2" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="Z2" s="9" t="s">
-        <v>433</v>
-      </c>
-      <c r="AA2" s="9" t="s">
-        <v>435</v>
-      </c>
-      <c r="AB2" s="9" t="s">
-        <v>441</v>
-      </c>
-      <c r="AC2" s="9" t="s">
-        <v>442</v>
-      </c>
-      <c r="AD2" s="9" t="s">
+      <c r="AE2" s="9" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>28</v>
       </c>
@@ -3862,26 +3881,26 @@
         <v>146</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E3" s="14" t="s">
-        <v>406</v>
+        <v>479</v>
       </c>
       <c r="F3" s="14"/>
       <c r="G3" t="s">
         <v>145</v>
       </c>
-      <c r="M3">
-        <v>10000</v>
-      </c>
       <c r="N3">
         <v>10000</v>
       </c>
-    </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="O3">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>28</v>
       </c>
@@ -3889,30 +3908,30 @@
         <v>147</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E4" s="14" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="F4" s="14"/>
       <c r="G4" t="s">
         <v>145</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <f>100*8760</f>
         <v>876000</v>
       </c>
-      <c r="M4">
-        <v>10000</v>
-      </c>
       <c r="N4">
         <v>10000</v>
       </c>
-    </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="O4">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>28</v>
       </c>
@@ -3920,146 +3939,146 @@
         <v>148</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G5" t="s">
         <v>145</v>
       </c>
-      <c r="M5">
-        <v>10000</v>
-      </c>
       <c r="N5">
         <v>10000</v>
       </c>
-    </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="O5">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G6" t="s">
         <v>145</v>
       </c>
-      <c r="M6">
-        <v>10000</v>
-      </c>
       <c r="N6">
         <v>10000</v>
       </c>
-    </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="O6">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D7" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F7" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G7" t="s">
         <v>145</v>
       </c>
       <c r="H7" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="I7" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="J7" t="s">
-        <v>445</v>
-      </c>
-      <c r="M7">
-        <v>12000</v>
+        <v>442</v>
       </c>
       <c r="N7">
         <v>12000</v>
       </c>
       <c r="O7">
+        <v>12000</v>
+      </c>
+      <c r="P7">
         <v>20</v>
       </c>
-      <c r="Y7">
+      <c r="Z7">
         <v>0.01</v>
       </c>
-      <c r="Z7">
+      <c r="AA7">
         <v>0.1</v>
       </c>
-      <c r="AB7">
+      <c r="AC7">
         <v>0.5</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D8" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F8" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G8" t="s">
         <v>145</v>
       </c>
       <c r="H8" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="I8" t="s">
-        <v>444</v>
-      </c>
-      <c r="M8">
-        <v>12000</v>
+        <v>441</v>
       </c>
       <c r="N8">
         <v>12000</v>
       </c>
       <c r="O8">
+        <v>12000</v>
+      </c>
+      <c r="P8">
         <v>10000000</v>
       </c>
-      <c r="Z8">
+      <c r="AA8">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="G9" t="s">
-        <v>458</v>
-      </c>
-      <c r="P9">
+        <v>455</v>
+      </c>
+      <c r="Q9">
         <v>800</v>
       </c>
-      <c r="T9" s="14">
+      <c r="U9" s="14">
         <v>200</v>
       </c>
-      <c r="V9" s="14">
+      <c r="W9" s="14">
         <v>0.05</v>
       </c>
-      <c r="X9">
+      <c r="Y9">
         <v>10</v>
       </c>
-      <c r="AD9">
+      <c r="AE9">
         <v>1</v>
       </c>
     </row>
@@ -4074,13 +4093,13 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D51F2ED7-E82A-4D3D-A4CE-E6A52C2211BA}">
-  <dimension ref="A1:N5"/>
+  <dimension ref="A1:O5"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E2" sqref="E2"/>
+      <selection pane="bottomRight" activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4088,21 +4107,21 @@
     <col min="1" max="1" width="12.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="11.85546875" style="2" customWidth="1"/>
     <col min="3" max="3" width="11.85546875" style="4" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" customWidth="1"/>
-    <col min="5" max="5" width="13.7109375" customWidth="1"/>
-    <col min="6" max="6" width="10.42578125" customWidth="1"/>
-    <col min="7" max="7" width="10.28515625" customWidth="1"/>
-    <col min="8" max="8" width="10.140625" customWidth="1"/>
-    <col min="9" max="9" width="9.85546875" customWidth="1"/>
-    <col min="10" max="10" width="11.5703125" customWidth="1"/>
-    <col min="11" max="11" width="13.42578125" customWidth="1"/>
-    <col min="12" max="12" width="12.85546875" customWidth="1"/>
-    <col min="14" max="14" width="10.7109375" customWidth="1"/>
+    <col min="4" max="5" width="12.7109375" customWidth="1"/>
+    <col min="6" max="6" width="13.7109375" customWidth="1"/>
+    <col min="7" max="7" width="10.42578125" customWidth="1"/>
+    <col min="8" max="8" width="10.28515625" customWidth="1"/>
+    <col min="9" max="9" width="10.140625" customWidth="1"/>
+    <col min="10" max="10" width="9.85546875" customWidth="1"/>
+    <col min="11" max="11" width="11.5703125" customWidth="1"/>
+    <col min="12" max="12" width="13.42578125" customWidth="1"/>
+    <col min="13" max="13" width="12.85546875" customWidth="1"/>
+    <col min="15" max="15" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="37" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -4110,37 +4129,40 @@
         <v>65</v>
       </c>
       <c r="E1" t="s">
+        <v>477</v>
+      </c>
+      <c r="F1" t="s">
         <v>67</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>68</v>
       </c>
-      <c r="G1" t="s">
-        <v>305</v>
-      </c>
       <c r="H1" t="s">
+        <v>304</v>
+      </c>
+      <c r="I1" t="s">
+        <v>366</v>
+      </c>
+      <c r="J1" t="s">
         <v>367</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
+        <v>363</v>
+      </c>
+      <c r="L1" t="s">
         <v>368</v>
       </c>
-      <c r="J1" t="s">
-        <v>364</v>
-      </c>
-      <c r="K1" t="s">
-        <v>369</v>
-      </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>20</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>23</v>
       </c>
-      <c r="N1" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O1" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>1</v>
       </c>
@@ -4154,37 +4176,40 @@
         <v>58</v>
       </c>
       <c r="E2" s="9" t="s">
+        <v>480</v>
+      </c>
+      <c r="F2" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="G2" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="H2" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="I2" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="I2" s="9" t="s">
-        <v>303</v>
-      </c>
       <c r="J2" s="9" t="s">
+        <v>302</v>
+      </c>
+      <c r="K2" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="K2" s="24" t="s">
-        <v>251</v>
-      </c>
-      <c r="L2" s="9" t="s">
+      <c r="L2" s="24" t="s">
+        <v>250</v>
+      </c>
+      <c r="M2" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="M2" s="9" t="s">
+      <c r="N2" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="N2" s="9" t="s">
+      <c r="O2" s="9" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>28</v>
       </c>
@@ -4198,8 +4223,11 @@
         <f>250*8760*0.9</f>
         <v>1971000</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="E3">
+        <v>-600</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>28</v>
       </c>
@@ -4213,8 +4241,11 @@
         <f>250*8760*1</f>
         <v>2190000</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="E4">
+        <v>-650</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>28</v>
       </c>
@@ -4222,11 +4253,14 @@
         <v>146</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D5">
         <f>250*8760*1.1</f>
         <v>2409000</v>
+      </c>
+      <c r="E5">
+        <v>-700</v>
       </c>
     </row>
   </sheetData>
@@ -4258,7 +4292,7 @@
   <sheetData>
     <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="37" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B1" s="8" t="s">
         <v>1</v>
@@ -4273,7 +4307,7 @@
     <row r="2" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
       <c r="B2" s="15" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C2" s="9" t="s">
         <v>60</v>
@@ -4591,14 +4625,14 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="37" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B1"/>
       <c r="C1" t="s">
         <v>73</v>
       </c>
       <c r="D1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -4634,7 +4668,7 @@
         <v>28</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C4">
         <v>0.2</v>
@@ -4669,12 +4703,12 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="37" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B1"/>
       <c r="C1"/>
       <c r="D1" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -4696,7 +4730,7 @@
         <v>28</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>77</v>
@@ -4710,7 +4744,7 @@
         <v>28</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>78</v>
@@ -4724,10 +4758,10 @@
         <v>28</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D5">
         <v>22</v>
@@ -4784,10 +4818,10 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
   </sheetData>
@@ -4799,7 +4833,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D44D2B2-1DE7-400D-8C40-2CD59BEE6EC3}">
   <dimension ref="A1:W6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="4" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
@@ -4833,28 +4867,28 @@
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A1" s="37" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B1" s="37"/>
       <c r="C1" s="37"/>
       <c r="D1" s="3"/>
       <c r="E1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="F1" t="s">
+        <v>177</v>
+      </c>
+      <c r="G1" t="s">
         <v>178</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
+        <v>456</v>
+      </c>
+      <c r="I1" t="s">
         <v>179</v>
       </c>
-      <c r="H1" t="s">
-        <v>459</v>
-      </c>
-      <c r="I1" t="s">
-        <v>180</v>
-      </c>
       <c r="J1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="K1" t="s">
         <v>19</v>
@@ -4863,19 +4897,19 @@
         <v>22</v>
       </c>
       <c r="M1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="N1" t="s">
         <v>25</v>
       </c>
       <c r="O1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="P1" t="s">
+        <v>371</v>
+      </c>
+      <c r="Q1" t="s">
         <v>372</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>373</v>
       </c>
       <c r="R1" t="s">
         <v>20</v>
@@ -4884,16 +4918,16 @@
         <v>23</v>
       </c>
       <c r="T1" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="U1" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="V1" t="s">
         <v>18</v>
       </c>
       <c r="W1" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
@@ -4904,13 +4938,13 @@
         <v>26</v>
       </c>
       <c r="C2" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="D2" s="10" t="s">
         <v>278</v>
       </c>
-      <c r="D2" s="10" t="s">
-        <v>279</v>
-      </c>
       <c r="E2" s="24" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="F2" s="9" t="s">
         <v>17</v>
@@ -4922,7 +4956,7 @@
         <v>11</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="J2" s="9" t="s">
         <v>15</v>
@@ -4940,13 +4974,13 @@
         <v>14</v>
       </c>
       <c r="O2" s="9" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="P2" s="9" t="s">
         <v>7</v>
       </c>
       <c r="Q2" s="9" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="R2" s="9" t="s">
         <v>6</v>
@@ -4958,7 +4992,7 @@
         <v>5</v>
       </c>
       <c r="U2" s="9" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="V2" s="9" t="s">
         <v>3</v>
@@ -4981,19 +5015,19 @@
         <v>147</v>
       </c>
       <c r="E3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F3" t="s">
+        <v>170</v>
+      </c>
+      <c r="G3" t="s">
         <v>171</v>
-      </c>
-      <c r="G3" t="s">
-        <v>172</v>
       </c>
       <c r="H3" t="s">
         <v>145</v>
       </c>
       <c r="I3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="K3">
         <v>100</v>
@@ -5001,25 +5035,25 @@
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>146</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F4" t="s">
+        <v>170</v>
+      </c>
+      <c r="G4" t="s">
         <v>171</v>
-      </c>
-      <c r="G4" t="s">
-        <v>172</v>
       </c>
       <c r="H4" t="s">
         <v>145</v>
@@ -5033,7 +5067,7 @@
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>31</v>
@@ -5045,7 +5079,7 @@
         <v>147</v>
       </c>
       <c r="H5" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="L5">
         <v>100</v>
@@ -5065,19 +5099,19 @@
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>146</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="H6" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="L6">
         <v>100</v>
@@ -5134,7 +5168,7 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="37" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -5142,19 +5176,19 @@
         <v>21</v>
       </c>
       <c r="E1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="F1" t="s">
         <v>24</v>
       </c>
       <c r="G1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="H1" t="s">
+        <v>371</v>
+      </c>
+      <c r="I1" t="s">
         <v>372</v>
-      </c>
-      <c r="I1" t="s">
-        <v>373</v>
       </c>
       <c r="J1" t="s">
         <v>20</v>
@@ -5163,10 +5197,10 @@
         <v>23</v>
       </c>
       <c r="L1" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="M1" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
@@ -5189,13 +5223,13 @@
         <v>13</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="H2" s="9" t="s">
         <v>7</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="J2" s="9" t="s">
         <v>6</v>
@@ -5207,7 +5241,7 @@
         <v>5</v>
       </c>
       <c r="M2" s="9" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
@@ -5246,7 +5280,7 @@
         <v>31</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D5">
         <v>150</v>
@@ -5281,7 +5315,7 @@
   <sheetData>
     <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="37" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B1" s="8" t="s">
         <v>1</v>
@@ -5293,7 +5327,7 @@
     <row r="2" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
       <c r="B2" s="15" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C2" s="9" t="s">
         <v>3</v>
@@ -5553,23 +5587,23 @@
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1" s="37" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G1" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="H1" t="s">
         <v>19</v>
@@ -5578,19 +5612,19 @@
         <v>22</v>
       </c>
       <c r="J1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="K1" t="s">
         <v>25</v>
       </c>
       <c r="L1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="M1" t="s">
+        <v>374</v>
+      </c>
+      <c r="N1" t="s">
         <v>375</v>
-      </c>
-      <c r="N1" t="s">
-        <v>376</v>
       </c>
       <c r="O1" t="s">
         <v>20</v>
@@ -5599,28 +5633,28 @@
         <v>23</v>
       </c>
       <c r="Q1" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="R1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="S1" t="s">
         <v>109</v>
       </c>
       <c r="T1" t="s">
+        <v>310</v>
+      </c>
+      <c r="U1" t="s">
         <v>311</v>
       </c>
-      <c r="U1" t="s">
-        <v>312</v>
-      </c>
       <c r="V1" t="s">
+        <v>195</v>
+      </c>
+      <c r="W1" t="s">
         <v>196</v>
       </c>
-      <c r="W1" t="s">
-        <v>197</v>
-      </c>
       <c r="X1" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
     </row>
     <row r="2" spans="1:24" s="23" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -5631,7 +5665,7 @@
         <v>123</v>
       </c>
       <c r="C2" s="24" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D2" s="24" t="s">
         <v>108</v>
@@ -5658,13 +5692,13 @@
         <v>14</v>
       </c>
       <c r="L2" s="24" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="M2" s="24" t="s">
         <v>7</v>
       </c>
       <c r="N2" s="24" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="O2" s="24" t="s">
         <v>6</v>
@@ -5705,13 +5739,13 @@
         <v>149</v>
       </c>
       <c r="C3" s="47" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D3" s="47" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E3" s="47" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F3" s="47"/>
       <c r="G3" s="47" t="s">
@@ -5745,13 +5779,13 @@
         <v>150</v>
       </c>
       <c r="C4" s="47" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D4" s="47" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E4" s="47" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F4" s="47"/>
       <c r="G4" s="47" t="s">
@@ -5769,16 +5803,16 @@
         <v>28</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C5" s="47" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D5" s="47" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E5" s="47" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="F5" s="47"/>
       <c r="G5" s="47" t="s">
@@ -5796,30 +5830,30 @@
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>149</v>
       </c>
       <c r="G6" s="47" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>397</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>398</v>
-      </c>
       <c r="C7" s="47" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D7" s="47" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E7" s="47" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G7" s="47" t="s">
         <v>145</v>
@@ -5841,9 +5875,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4446509C-CB62-4FDB-A8D2-BE0D15E8AAF2}">
-  <dimension ref="A1:D36"/>
+  <dimension ref="A1:D37"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A38" sqref="A38"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -5854,483 +5890,497 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B3" t="s">
+        <v>188</v>
+      </c>
+      <c r="C3" t="s">
         <v>189</v>
       </c>
-      <c r="C3" t="s">
-        <v>190</v>
-      </c>
       <c r="D3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B4" s="25">
         <v>44594</v>
       </c>
       <c r="C4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B5" s="25">
         <v>44595</v>
       </c>
       <c r="C5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D5" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B6" s="25">
         <v>44600</v>
       </c>
       <c r="C6" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D6" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B7" s="25">
         <v>44602</v>
       </c>
       <c r="C7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D7" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B8" s="25">
         <v>44602</v>
       </c>
       <c r="C8" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D8" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B9" s="25">
         <v>44602</v>
       </c>
       <c r="C9" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D9" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B10" s="25">
         <v>44602</v>
       </c>
       <c r="C10" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D10" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B11" s="25">
         <v>44603</v>
       </c>
       <c r="C11" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D11" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B12" s="25">
         <v>44605</v>
       </c>
       <c r="C12" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D12" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B13" s="25">
         <v>44605</v>
       </c>
       <c r="C13" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D13" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B14" s="25">
         <v>44605</v>
       </c>
       <c r="C14" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D14" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B15" s="25">
         <v>44635</v>
       </c>
       <c r="C15" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D15" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B16" s="25">
         <v>44643</v>
       </c>
       <c r="C16" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D16" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B17" s="25">
         <v>44643</v>
       </c>
       <c r="C17" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D17" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B18" s="25">
         <v>44643</v>
       </c>
       <c r="C18" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D18" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B19" s="25">
         <v>44656</v>
       </c>
       <c r="C19" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D19" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B20" s="25">
         <v>44657</v>
       </c>
       <c r="C20" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D20" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B21" s="25">
         <v>44657</v>
       </c>
       <c r="C21" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D21" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B22" s="25">
         <v>44680</v>
       </c>
       <c r="C22" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D22" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B23" s="25">
         <v>44680</v>
       </c>
       <c r="C23" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D23" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B24" s="25">
         <v>44690</v>
       </c>
       <c r="C24" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D24" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B25" s="25">
         <v>44695</v>
       </c>
       <c r="C25" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D25" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B26" s="25">
         <v>44701</v>
       </c>
       <c r="C26" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D26" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B27" s="25">
         <v>44701</v>
       </c>
       <c r="C27" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D27" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B28" s="25">
         <v>44712</v>
       </c>
       <c r="C28" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D28" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="B29" s="25">
         <v>44727</v>
       </c>
       <c r="C29" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D29" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="B30" s="25">
         <v>44734</v>
       </c>
       <c r="C30" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D30" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="B31" s="25">
         <v>44741</v>
       </c>
       <c r="C31" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D31" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="B32" s="25">
         <v>44840</v>
       </c>
       <c r="C32" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D32" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="B33" s="25">
         <v>44850</v>
       </c>
       <c r="C33" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D33" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="B34" s="25">
         <v>44875</v>
       </c>
       <c r="C34" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D34" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="B35" s="25">
         <v>44876</v>
       </c>
       <c r="C35" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D35" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="B36" s="25">
         <v>44889</v>
       </c>
       <c r="C36" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D36" t="s">
-        <v>477</v>
+        <v>474</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="5" t="s">
+        <v>481</v>
+      </c>
+      <c r="B37" s="25">
+        <v>44893</v>
+      </c>
+      <c r="C37" t="s">
+        <v>190</v>
+      </c>
+      <c r="D37" t="s">
+        <v>482</v>
       </c>
     </row>
   </sheetData>
@@ -6369,7 +6419,7 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="37" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -6377,19 +6427,19 @@
         <v>21</v>
       </c>
       <c r="E1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="F1" t="s">
         <v>24</v>
       </c>
       <c r="G1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="H1" t="s">
+        <v>374</v>
+      </c>
+      <c r="I1" t="s">
         <v>375</v>
-      </c>
-      <c r="I1" t="s">
-        <v>376</v>
       </c>
       <c r="J1" t="s">
         <v>20</v>
@@ -6398,10 +6448,10 @@
         <v>23</v>
       </c>
       <c r="L1" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="M1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6424,13 +6474,13 @@
         <v>13</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="H2" s="9" t="s">
         <v>7</v>
       </c>
       <c r="I2" s="24" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="J2" s="9" t="s">
         <v>6</v>
@@ -6481,7 +6531,7 @@
         <v>149</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D5">
         <v>75</v>
@@ -6516,7 +6566,7 @@
   <sheetData>
     <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="37" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B1" s="8" t="s">
         <v>1</v>
@@ -6528,7 +6578,7 @@
     <row r="2" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
       <c r="B2" s="15" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C2" s="9" t="s">
         <v>3</v>
@@ -6542,7 +6592,7 @@
         <v>123</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -6780,7 +6830,7 @@
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="37" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -6789,19 +6839,19 @@
         <v>141</v>
       </c>
       <c r="F1" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="G1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="I1" t="s">
         <v>118</v>
       </c>
       <c r="J1" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="K1" t="s">
         <v>120</v>
@@ -6810,7 +6860,7 @@
         <v>122</v>
       </c>
       <c r="M1" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="P1" s="3"/>
       <c r="Q1" s="3"/>
@@ -6827,16 +6877,16 @@
         <v>57</v>
       </c>
       <c r="D2" s="19" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E2" s="9" t="s">
         <v>140</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H2" s="9" t="s">
         <v>111</v>
@@ -6854,7 +6904,7 @@
         <v>121</v>
       </c>
       <c r="M2" s="9" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="P2" s="3"/>
       <c r="Q2" s="3"/>
@@ -6871,7 +6921,7 @@
         <v>148</v>
       </c>
       <c r="D3" s="20" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -6894,7 +6944,7 @@
         <v>146</v>
       </c>
       <c r="D4" s="20" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -6908,13 +6958,13 @@
         <v>28</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D5" s="20" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -6925,13 +6975,13 @@
         <v>28</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>147</v>
       </c>
       <c r="D6" s="20" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -6951,27 +7001,27 @@
         <v>146</v>
       </c>
       <c r="D7" s="20" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E7">
         <v>1</v>
       </c>
       <c r="G7" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>397</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>398</v>
-      </c>
       <c r="C8" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D8" s="20" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -6979,16 +7029,16 @@
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>397</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>398</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>146</v>
       </c>
       <c r="D9" s="20" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -6996,16 +7046,16 @@
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>397</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>398</v>
-      </c>
       <c r="C10" s="4" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D10" s="20" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -7040,7 +7090,7 @@
   <sheetData>
     <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="37" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B1" s="8" t="s">
         <v>1</v>
@@ -7052,10 +7102,10 @@
     <row r="2" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
       <c r="B2" s="15" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
     </row>
     <row r="3" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -7064,7 +7114,7 @@
         <v>123</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="4" spans="1:11" s="18" customFormat="1" x14ac:dyDescent="0.25">
@@ -7073,7 +7123,7 @@
         <v>57</v>
       </c>
       <c r="C4" s="18" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="5" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.25">
@@ -7081,10 +7131,10 @@
         <v>27</v>
       </c>
       <c r="B5" s="19" t="s">
+        <v>336</v>
+      </c>
+      <c r="C5" s="20" t="s">
         <v>337</v>
-      </c>
-      <c r="C5" s="20" t="s">
-        <v>338</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -7324,7 +7374,7 @@
         <v>28</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="2" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -7338,13 +7388,13 @@
         <v>144</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -7783,12 +7833,12 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="37" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
       <c r="D1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -7802,7 +7852,7 @@
         <v>143</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
@@ -7816,13 +7866,13 @@
         <v>28</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>272</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>273</v>
-      </c>
       <c r="D3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
   </sheetData>
@@ -7855,12 +7905,12 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="37" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
       <c r="D1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -7874,7 +7924,7 @@
         <v>143</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
@@ -7891,10 +7941,10 @@
         <v>31</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
   </sheetData>
@@ -7928,13 +7978,13 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="37" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
       <c r="E1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -7951,7 +8001,7 @@
         <v>143</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
@@ -7974,7 +8024,7 @@
         <v>144</v>
       </c>
       <c r="E3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -7982,16 +8032,16 @@
         <v>28</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C4" s="18" t="s">
+        <v>403</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>404</v>
       </c>
-      <c r="D4" s="4" t="s">
-        <v>405</v>
-      </c>
       <c r="E4" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
   </sheetData>
@@ -8039,11 +8089,11 @@
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="37" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D1" t="s">
         <v>40</v>
@@ -8052,7 +8102,7 @@
         <v>36</v>
       </c>
       <c r="F1" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="G1" t="s">
         <v>42</v>
@@ -8061,7 +8111,7 @@
         <v>46</v>
       </c>
       <c r="I1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="J1" t="s">
         <v>44</v>
@@ -8070,13 +8120,13 @@
         <v>54</v>
       </c>
       <c r="L1" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="M1" t="s">
         <v>38</v>
       </c>
       <c r="N1" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="O1" t="s">
         <v>48</v>
@@ -8085,16 +8135,16 @@
         <v>52</v>
       </c>
       <c r="Q1" t="s">
+        <v>341</v>
+      </c>
+      <c r="R1" t="s">
         <v>342</v>
       </c>
-      <c r="R1" t="s">
-        <v>343</v>
-      </c>
       <c r="S1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="T1" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
@@ -8105,7 +8155,7 @@
         <v>56</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D2" s="9" t="s">
         <v>39</v>
@@ -8114,7 +8164,7 @@
         <v>35</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="G2" s="9" t="s">
         <v>41</v>
@@ -8132,7 +8182,7 @@
         <v>53</v>
       </c>
       <c r="L2" s="9" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="M2" s="9" t="s">
         <v>37</v>
@@ -8147,16 +8197,16 @@
         <v>51</v>
       </c>
       <c r="Q2" s="9" t="s">
+        <v>339</v>
+      </c>
+      <c r="R2" s="9" t="s">
         <v>340</v>
       </c>
-      <c r="R2" s="9" t="s">
-        <v>341</v>
-      </c>
       <c r="S2" s="9" t="s">
+        <v>356</v>
+      </c>
+      <c r="T2" s="9" t="s">
         <v>357</v>
-      </c>
-      <c r="T2" s="9" t="s">
-        <v>358</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
@@ -8176,7 +8226,7 @@
         <v>28</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="H4">
         <v>200</v>
@@ -8193,24 +8243,24 @@
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="G5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="J5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="Q6">
         <v>40</v>
@@ -8224,10 +8274,10 @@
         <v>28</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C7" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
   </sheetData>
@@ -8266,7 +8316,7 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="37" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -8289,16 +8339,16 @@
         <v>50</v>
       </c>
       <c r="J1" t="s">
+        <v>341</v>
+      </c>
+      <c r="K1" t="s">
         <v>342</v>
       </c>
-      <c r="K1" t="s">
-        <v>343</v>
-      </c>
       <c r="L1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="M1" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
@@ -8330,16 +8380,16 @@
         <v>49</v>
       </c>
       <c r="J2" s="9" t="s">
+        <v>339</v>
+      </c>
+      <c r="K2" s="9" t="s">
         <v>340</v>
       </c>
-      <c r="K2" s="9" t="s">
-        <v>341</v>
-      </c>
       <c r="L2" s="9" t="s">
+        <v>356</v>
+      </c>
+      <c r="M2" s="9" t="s">
         <v>357</v>
-      </c>
-      <c r="M2" s="9" t="s">
-        <v>358</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
@@ -8378,7 +8428,7 @@
         <v>152</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G5">
         <v>20</v>
@@ -8411,10 +8461,10 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="37" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -8423,42 +8473,42 @@
         <v>28</v>
       </c>
       <c r="C2" s="6" t="s">
+        <v>318</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>293</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>320</v>
+      </c>
+      <c r="F2" s="6" t="s">
         <v>319</v>
       </c>
-      <c r="D2" s="6" t="s">
-        <v>294</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>321</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>320</v>
-      </c>
       <c r="G2" s="6" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="I2" s="6" t="s">
+        <v>381</v>
+      </c>
+      <c r="J2" s="6" t="s">
         <v>382</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="K2" s="6" t="s">
         <v>383</v>
       </c>
-      <c r="K2" s="6" t="s">
-        <v>384</v>
-      </c>
       <c r="L2" s="6" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="M2" s="6" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B3" s="14" t="s">
         <v>28</v>
@@ -8499,94 +8549,94 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B4" s="14"/>
       <c r="C4" s="14" t="s">
+        <v>318</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>293</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>320</v>
+      </c>
+      <c r="F4" t="s">
         <v>319</v>
       </c>
-      <c r="D4" s="14" t="s">
-        <v>294</v>
-      </c>
-      <c r="E4" s="14" t="s">
-        <v>321</v>
-      </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
+        <v>293</v>
+      </c>
+      <c r="H4" t="s">
+        <v>344</v>
+      </c>
+      <c r="I4" t="s">
+        <v>381</v>
+      </c>
+      <c r="J4" t="s">
+        <v>381</v>
+      </c>
+      <c r="K4" t="s">
+        <v>381</v>
+      </c>
+      <c r="L4" t="s">
         <v>320</v>
       </c>
-      <c r="G4" t="s">
-        <v>294</v>
-      </c>
-      <c r="H4" t="s">
-        <v>345</v>
-      </c>
-      <c r="I4" t="s">
-        <v>382</v>
-      </c>
-      <c r="J4" t="s">
-        <v>382</v>
-      </c>
-      <c r="K4" t="s">
-        <v>382</v>
-      </c>
-      <c r="L4" t="s">
-        <v>321</v>
-      </c>
       <c r="M4" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B5" s="14"/>
       <c r="G5" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="J5" t="s">
+        <v>382</v>
+      </c>
+      <c r="K5" t="s">
         <v>383</v>
       </c>
-      <c r="K5" t="s">
-        <v>384</v>
-      </c>
       <c r="L5" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B6" s="14"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B7" s="14"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B8" s="14"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B9" s="14"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B10" s="14"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B11" s="14"/>
     </row>
@@ -8724,12 +8774,12 @@
         <v>152</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>146</v>
@@ -8737,7 +8787,7 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>146</v>
@@ -8745,7 +8795,7 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>147</v>
@@ -8833,7 +8883,7 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>149</v>
@@ -8844,10 +8894,10 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C3" s="11" t="s">
         <v>147</v>
@@ -8887,14 +8937,14 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="37" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
       <c r="F1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G1" t="s">
         <v>128</v>
@@ -8932,7 +8982,7 @@
         <v>57</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="G2" s="9" t="s">
         <v>127</v>
@@ -8955,13 +9005,13 @@
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D3" s="11" t="s">
         <v>31</v>
@@ -8970,7 +9020,7 @@
         <v>146</v>
       </c>
       <c r="F3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -9013,22 +9063,22 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="37" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
       <c r="E1" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="F1" t="s">
         <v>136</v>
       </c>
       <c r="G1" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="H1" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="J1" s="3"/>
       <c r="K1" s="3"/>
@@ -9071,19 +9121,19 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C3" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="D3" s="11" t="s">
         <v>283</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="E3" t="s">
         <v>284</v>
-      </c>
-      <c r="E3" t="s">
-        <v>285</v>
       </c>
       <c r="F3">
         <v>50</v>
@@ -9124,7 +9174,7 @@
   <sheetData>
     <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="37" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B1" s="8" t="s">
         <v>1</v>
@@ -9153,7 +9203,7 @@
         <v>27</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -9316,14 +9366,14 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="37" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
       <c r="F1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G1" t="s">
         <v>128</v>
@@ -9361,7 +9411,7 @@
         <v>57</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="G2" s="9" t="s">
         <v>127</v>
@@ -9384,13 +9434,13 @@
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D3" s="11" t="s">
         <v>149</v>
@@ -9399,7 +9449,7 @@
         <v>146</v>
       </c>
       <c r="F3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="I3">
         <v>0.5</v>
@@ -9410,13 +9460,13 @@
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D4" s="11" t="s">
         <v>150</v>
@@ -9425,7 +9475,7 @@
         <v>146</v>
       </c>
       <c r="F4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -9436,13 +9486,13 @@
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D5" s="11" t="s">
         <v>149</v>
@@ -9451,7 +9501,7 @@
         <v>146</v>
       </c>
       <c r="F5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="I5">
         <v>0.01</v>
@@ -9462,22 +9512,22 @@
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E6" s="13" t="s">
         <v>147</v>
       </c>
       <c r="F6" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="I6">
         <v>0.5</v>
@@ -9488,13 +9538,13 @@
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D7" s="11" t="s">
         <v>149</v>
@@ -9503,7 +9553,7 @@
         <v>146</v>
       </c>
       <c r="F7" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="I7">
         <v>0.01</v>
@@ -9541,15 +9591,15 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="37" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
       <c r="D1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G1" s="3"/>
       <c r="H1" s="3"/>
@@ -9566,13 +9616,13 @@
         <v>142</v>
       </c>
       <c r="C2" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>294</v>
+      </c>
+      <c r="E2" s="9" t="s">
         <v>154</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>295</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>155</v>
       </c>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
@@ -9586,13 +9636,13 @@
         <v>28</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>177</v>
-      </c>
       <c r="D3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -9600,16 +9650,16 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>399</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>400</v>
-      </c>
       <c r="D4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -9617,16 +9667,16 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -9665,15 +9715,15 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="37" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
       <c r="D1" t="s">
+        <v>162</v>
+      </c>
+      <c r="E1" t="s">
         <v>163</v>
-      </c>
-      <c r="E1" t="s">
-        <v>164</v>
       </c>
       <c r="F1" t="s">
         <v>75</v>
@@ -9693,16 +9743,16 @@
         <v>32</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F2" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="G2" s="9" t="s">
         <v>203</v>
-      </c>
-      <c r="G2" s="9" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -9716,16 +9766,16 @@
         <v>77</v>
       </c>
       <c r="D3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E3" s="5">
         <v>0</v>
       </c>
       <c r="F3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -9739,18 +9789,18 @@
         <v>78</v>
       </c>
       <c r="D4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E4">
         <v>5</v>
       </c>
       <c r="G4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>33</v>
@@ -9759,18 +9809,18 @@
         <v>77</v>
       </c>
       <c r="D5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="G5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>33</v>
@@ -9779,38 +9829,38 @@
         <v>78</v>
       </c>
       <c r="D6" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E6">
         <v>5</v>
       </c>
       <c r="G6" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>77</v>
       </c>
       <c r="D7" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>34</v>
@@ -9819,53 +9869,53 @@
         <v>78</v>
       </c>
       <c r="D8" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="G8" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>34</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D9" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E9">
         <v>5</v>
       </c>
       <c r="G9" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>78</v>
       </c>
       <c r="D10" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -9906,14 +9956,14 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="37" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B1"/>
       <c r="C1"/>
       <c r="D1" s="3"/>
       <c r="E1"/>
       <c r="F1" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -9927,13 +9977,13 @@
         <v>57</v>
       </c>
       <c r="D2" s="19" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E2" s="10" t="s">
         <v>142</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -9947,10 +9997,10 @@
         <v>148</v>
       </c>
       <c r="D3" s="20" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F3">
         <v>1</v>
@@ -9967,10 +10017,10 @@
         <v>146</v>
       </c>
       <c r="D4" s="20" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F4">
         <v>-0.1</v>
@@ -9978,19 +10028,19 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>397</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="C5" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="D5" s="20" t="s">
+        <v>337</v>
+      </c>
+      <c r="E5" s="11" t="s">
         <v>398</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="D5" s="20" t="s">
-        <v>338</v>
-      </c>
-      <c r="E5" s="11" t="s">
-        <v>399</v>
       </c>
       <c r="F5">
         <v>-1</v>
@@ -9998,19 +10048,19 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>397</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>398</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>146</v>
       </c>
       <c r="D6" s="20" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="F6">
         <v>4</v>
@@ -10047,13 +10097,13 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="37" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B1"/>
       <c r="C1"/>
       <c r="D1"/>
       <c r="E1" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -10070,7 +10120,7 @@
         <v>142</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
     </row>
   </sheetData>
@@ -10104,15 +10154,15 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="37" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B1"/>
       <c r="C1"/>
       <c r="D1" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="E1" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -10126,21 +10176,21 @@
         <v>142</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -10176,12 +10226,12 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="37" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B1"/>
       <c r="C1"/>
       <c r="D1" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -10195,7 +10245,7 @@
         <v>142</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
     </row>
   </sheetData>
@@ -10228,12 +10278,12 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="37" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B1"/>
       <c r="C1"/>
       <c r="D1" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -10247,18 +10297,18 @@
         <v>142</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="D3">
         <v>-8</v>
@@ -10297,23 +10347,23 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="37" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D1" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E1" t="s">
+        <v>463</v>
+      </c>
+      <c r="F1" t="s">
         <v>466</v>
       </c>
-      <c r="F1" t="s">
-        <v>469</v>
-      </c>
       <c r="G1" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
     </row>
     <row r="2" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -10324,19 +10374,19 @@
         <v>76</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -10350,21 +10400,21 @@
         <v>79</v>
       </c>
       <c r="D3" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E3" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="G3" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>33</v>
@@ -10373,44 +10423,44 @@
         <v>79</v>
       </c>
       <c r="D4" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E4" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="G4" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D5" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E5" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="G5" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>34</v>
@@ -10419,86 +10469,86 @@
         <v>79</v>
       </c>
       <c r="D6" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E6" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="G6" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C7" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D7" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E7" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="G7" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D8" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="F8" s="5"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="D9" t="s">
         <v>394</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="D9" t="s">
-        <v>395</v>
       </c>
       <c r="F9" s="5"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>34</v>
       </c>
       <c r="D10" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="F10" s="5"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="D11" t="s">
         <v>394</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="D11" t="s">
-        <v>395</v>
       </c>
       <c r="F11" s="5"/>
     </row>
@@ -10533,7 +10583,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="37" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -10546,13 +10596,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>81</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -10560,7 +10610,7 @@
         <v>28</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>29</v>
@@ -10574,7 +10624,7 @@
         <v>28</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>29</v>
@@ -10614,12 +10664,12 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="37" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
       <c r="D1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="2" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -10630,10 +10680,10 @@
         <v>104</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -11005,7 +11055,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="37" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" t="s">
@@ -11062,7 +11112,7 @@
   <sheetData>
     <row r="1" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B1" s="7" t="s">
         <v>104</v>
@@ -11070,7 +11120,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>105</v>
@@ -11078,7 +11128,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>105</v>

--- a/FlexTool_import_template.xlsx
+++ b/FlexTool_import_template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\data\Toolbox_projects\FlexTool3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7206BFBB-42CC-4A22-96D8-B7B8892C3E70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA8847FA-9772-4139-99DA-C95158972008}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30360" yWindow="0" windowWidth="21240" windowHeight="21000" tabRatio="1000" firstSheet="1" activeTab="1" xr2:uid="{D5BEC09F-8FA9-46E6-8F36-396DCDACE376}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="30360" windowHeight="21000" tabRatio="1000" firstSheet="9" activeTab="27" xr2:uid="{D5BEC09F-8FA9-46E6-8F36-396DCDACE376}"/>
   </bookViews>
   <sheets>
     <sheet name="navigate" sheetId="54" r:id="rId1"/>
@@ -205,7 +205,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1380" uniqueCount="483">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1389" uniqueCount="491">
   <si>
     <t>commodity</t>
   </si>
@@ -1654,6 +1654,30 @@
   </si>
   <si>
     <t>Add scale_to_annual_and_peak_flow to inflow methods as well as peak_inflow parameter to node_c and node_d</t>
+  </si>
+  <si>
+    <t>20.0</t>
+  </si>
+  <si>
+    <t>Added CO2 method and limit parameters to ghe 'group_c' (and group_p)</t>
+  </si>
+  <si>
+    <t>[tCO2] Maximum limit for emitted CO2 in the whole solve.</t>
+  </si>
+  <si>
+    <t>co2_method</t>
+  </si>
+  <si>
+    <t>co2_max_total</t>
+  </si>
+  <si>
+    <t>[tCO2] Maximum limit for emitted CO2 in each period.</t>
+  </si>
+  <si>
+    <t>co2_max_period</t>
+  </si>
+  <si>
+    <t>Choice of the CO2 method: no_method, price, period, total, price_period, price_total, period_total, price_period_total</t>
   </si>
 </sst>
 </file>
@@ -5875,10 +5899,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4446509C-CB62-4FDB-A8D2-BE0D15E8AAF2}">
-  <dimension ref="A1:D37"/>
+  <dimension ref="A1:D38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A38" sqref="A38"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A39" sqref="A39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6381,6 +6405,20 @@
       </c>
       <c r="D37" t="s">
         <v>482</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="5" t="s">
+        <v>483</v>
+      </c>
+      <c r="B38" s="25">
+        <v>44903</v>
+      </c>
+      <c r="C38" t="s">
+        <v>190</v>
+      </c>
+      <c r="D38" t="s">
+        <v>484</v>
       </c>
     </row>
   </sheetData>
@@ -8054,13 +8092,13 @@
 
 <file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17A58EF0-B113-4E3B-A099-AB516EC20AF0}">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:V7"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C5" sqref="C5"/>
+      <selection pane="bottomRight" activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8077,17 +8115,19 @@
     <col min="10" max="10" width="21" customWidth="1"/>
     <col min="11" max="11" width="22" customWidth="1"/>
     <col min="12" max="12" width="24.140625" customWidth="1"/>
-    <col min="13" max="13" width="10.42578125" customWidth="1"/>
-    <col min="14" max="14" width="15.140625" customWidth="1"/>
-    <col min="15" max="15" width="16.7109375" customWidth="1"/>
-    <col min="16" max="16" width="15.7109375" customWidth="1"/>
-    <col min="17" max="18" width="20.85546875" customWidth="1"/>
-    <col min="19" max="20" width="16.7109375" customWidth="1"/>
-    <col min="21" max="21" width="16.42578125" customWidth="1"/>
-    <col min="22" max="26" width="11.5703125" customWidth="1"/>
+    <col min="13" max="13" width="12.28515625" customWidth="1"/>
+    <col min="14" max="14" width="9.85546875" customWidth="1"/>
+    <col min="15" max="15" width="14" customWidth="1"/>
+    <col min="16" max="16" width="15.140625" customWidth="1"/>
+    <col min="17" max="17" width="16.7109375" customWidth="1"/>
+    <col min="18" max="18" width="15.7109375" customWidth="1"/>
+    <col min="19" max="20" width="20.85546875" customWidth="1"/>
+    <col min="21" max="22" width="16.7109375" customWidth="1"/>
+    <col min="23" max="23" width="16.42578125" customWidth="1"/>
+    <col min="24" max="28" width="11.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" s="37" t="s">
         <v>246</v>
       </c>
@@ -8123,31 +8163,37 @@
         <v>409</v>
       </c>
       <c r="M1" t="s">
+        <v>490</v>
+      </c>
+      <c r="N1" t="s">
         <v>38</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
+        <v>485</v>
+      </c>
+      <c r="P1" t="s">
         <v>456</v>
       </c>
-      <c r="O1" t="s">
+      <c r="Q1" t="s">
         <v>48</v>
       </c>
-      <c r="P1" t="s">
+      <c r="R1" t="s">
         <v>52</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="S1" t="s">
         <v>341</v>
       </c>
-      <c r="R1" t="s">
+      <c r="T1" t="s">
         <v>342</v>
       </c>
-      <c r="S1" t="s">
+      <c r="U1" t="s">
         <v>351</v>
       </c>
-      <c r="T1" t="s">
+      <c r="V1" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>1</v>
       </c>
@@ -8185,31 +8231,37 @@
         <v>289</v>
       </c>
       <c r="M2" s="9" t="s">
+        <v>486</v>
+      </c>
+      <c r="N2" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="N2" s="24" t="s">
+      <c r="O2" s="9" t="s">
+        <v>487</v>
+      </c>
+      <c r="P2" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="O2" s="9" t="s">
+      <c r="Q2" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="P2" s="9" t="s">
+      <c r="R2" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="Q2" s="9" t="s">
+      <c r="S2" s="9" t="s">
         <v>339</v>
       </c>
-      <c r="R2" s="9" t="s">
+      <c r="T2" s="9" t="s">
         <v>340</v>
       </c>
-      <c r="S2" s="9" t="s">
+      <c r="U2" s="9" t="s">
         <v>356</v>
       </c>
-      <c r="T2" s="9" t="s">
+      <c r="V2" s="9" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>28</v>
       </c>
@@ -8219,9 +8271,9 @@
       <c r="E3">
         <v>10</v>
       </c>
-      <c r="N3" s="47"/>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="P3" s="47"/>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>28</v>
       </c>
@@ -8241,7 +8293,7 @@
         <v>5500</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>318</v>
       </c>
@@ -8255,21 +8307,21 @@
         <v>157</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>344</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>344</v>
       </c>
-      <c r="Q6">
+      <c r="S6">
         <v>40</v>
       </c>
-      <c r="S6">
+      <c r="U6">
         <v>120</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>28</v>
       </c>
@@ -8290,7 +8342,7 @@
 
 <file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA54FD9A-FB2F-4111-AC75-F20843B34F53}">
-  <dimension ref="A1:M5"/>
+  <dimension ref="A1:N5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
@@ -8308,13 +8360,14 @@
     <col min="5" max="5" width="13.28515625" customWidth="1"/>
     <col min="6" max="6" width="22.42578125" customWidth="1"/>
     <col min="7" max="7" width="11.5703125" customWidth="1"/>
-    <col min="8" max="8" width="18.85546875" customWidth="1"/>
-    <col min="9" max="9" width="18.140625" customWidth="1"/>
-    <col min="10" max="11" width="20.85546875" customWidth="1"/>
-    <col min="12" max="13" width="16.5703125" customWidth="1"/>
+    <col min="8" max="8" width="16.140625" customWidth="1"/>
+    <col min="9" max="9" width="18.85546875" customWidth="1"/>
+    <col min="10" max="10" width="18.140625" customWidth="1"/>
+    <col min="11" max="12" width="20.85546875" customWidth="1"/>
+    <col min="13" max="14" width="16.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="37" t="s">
         <v>246</v>
       </c>
@@ -8333,25 +8386,28 @@
         <v>38</v>
       </c>
       <c r="H1" t="s">
+        <v>488</v>
+      </c>
+      <c r="I1" t="s">
         <v>47</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>50</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>341</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>342</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>351</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>1</v>
       </c>
@@ -8374,25 +8430,28 @@
         <v>37</v>
       </c>
       <c r="H2" s="9" t="s">
+        <v>489</v>
+      </c>
+      <c r="I2" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="9" t="s">
+      <c r="J2" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="J2" s="9" t="s">
+      <c r="K2" s="9" t="s">
         <v>339</v>
       </c>
-      <c r="K2" s="9" t="s">
+      <c r="L2" s="9" t="s">
         <v>340</v>
       </c>
-      <c r="L2" s="9" t="s">
+      <c r="M2" s="9" t="s">
         <v>356</v>
       </c>
-      <c r="M2" s="9" t="s">
+      <c r="N2" s="9" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>28</v>
       </c>
@@ -8406,7 +8465,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>28</v>
       </c>
@@ -8420,7 +8479,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>28</v>
       </c>

--- a/FlexTool_import_template.xlsx
+++ b/FlexTool_import_template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\data\Toolbox_projects\FlexTool3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA8847FA-9772-4139-99DA-C95158972008}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7A74194-F64F-471E-B9C1-BB27369EC1DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="30360" windowHeight="21000" tabRatio="1000" firstSheet="9" activeTab="27" xr2:uid="{D5BEC09F-8FA9-46E6-8F36-396DCDACE376}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="21240" windowHeight="21000" tabRatio="1000" firstSheet="3" activeTab="4" xr2:uid="{D5BEC09F-8FA9-46E6-8F36-396DCDACE376}"/>
   </bookViews>
   <sheets>
     <sheet name="navigate" sheetId="54" r:id="rId1"/>
@@ -1605,9 +1605,6 @@
     <t>highs_method</t>
   </si>
   <si>
-    <t>HiGHS solver method ('simplex' or 'ipm' which is interior point method)</t>
-  </si>
-  <si>
     <t>HiGHS parallelises single solves or not ('on' or 'off'). It can be better to turn HiGHS parallel off when executing multiple scnearios in parallel.</t>
   </si>
   <si>
@@ -1678,6 +1675,9 @@
   </si>
   <si>
     <t>Choice of the CO2 method: no_method, price, period, total, price_period, price_total, period_total, price_period_total</t>
+  </si>
+  <si>
+    <t>HiGHS solver method (use 'choose' for MIP models, for LP models it's possible to choose 'simplex' or 'ipm' which is interior point method)</t>
   </si>
 </sst>
 </file>
@@ -3721,7 +3721,7 @@
         <v>180</v>
       </c>
       <c r="E1" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="F1" t="s">
         <v>181</v>
@@ -3742,10 +3742,10 @@
         <v>168</v>
       </c>
       <c r="L1" t="s">
+        <v>475</v>
+      </c>
+      <c r="M1" t="s">
         <v>476</v>
-      </c>
-      <c r="M1" t="s">
-        <v>477</v>
       </c>
       <c r="N1" t="s">
         <v>361</v>
@@ -3840,7 +3840,7 @@
         <v>58</v>
       </c>
       <c r="M2" s="9" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="N2" s="9" t="s">
         <v>61</v>
@@ -3911,7 +3911,7 @@
         <v>157</v>
       </c>
       <c r="E3" s="14" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="F3" s="14"/>
       <c r="G3" t="s">
@@ -4062,7 +4062,7 @@
         <v>145</v>
       </c>
       <c r="H8" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="I8" t="s">
         <v>441</v>
@@ -4153,7 +4153,7 @@
         <v>65</v>
       </c>
       <c r="E1" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="F1" t="s">
         <v>67</v>
@@ -4200,7 +4200,7 @@
         <v>58</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="F2" s="9" t="s">
         <v>8</v>
@@ -4945,7 +4945,7 @@
         <v>373</v>
       </c>
       <c r="U1" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="V1" t="s">
         <v>18</v>
@@ -5016,7 +5016,7 @@
         <v>5</v>
       </c>
       <c r="U2" s="9" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="V2" s="9" t="s">
         <v>3</v>
@@ -5224,7 +5224,7 @@
         <v>373</v>
       </c>
       <c r="M1" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
@@ -5265,7 +5265,7 @@
         <v>5</v>
       </c>
       <c r="M2" s="9" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
@@ -6381,7 +6381,7 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B36" s="25">
         <v>44889</v>
@@ -6390,12 +6390,12 @@
         <v>190</v>
       </c>
       <c r="D36" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B37" s="25">
         <v>44893</v>
@@ -6404,12 +6404,12 @@
         <v>190</v>
       </c>
       <c r="D37" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B38" s="25">
         <v>44903</v>
@@ -6418,7 +6418,7 @@
         <v>190</v>
       </c>
       <c r="D38" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
   </sheetData>
@@ -6877,7 +6877,7 @@
         <v>141</v>
       </c>
       <c r="F1" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="G1" t="s">
         <v>253</v>
@@ -6921,7 +6921,7 @@
         <v>140</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="G2" s="9" t="s">
         <v>286</v>
@@ -7143,7 +7143,7 @@
         <v>172</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="3" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -8094,7 +8094,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17A58EF0-B113-4E3B-A099-AB516EC20AF0}">
   <dimension ref="A1:V7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
@@ -8163,13 +8163,13 @@
         <v>409</v>
       </c>
       <c r="M1" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="N1" t="s">
         <v>38</v>
       </c>
       <c r="O1" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="P1" t="s">
         <v>456</v>
@@ -8231,13 +8231,13 @@
         <v>289</v>
       </c>
       <c r="M2" s="9" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="N2" s="9" t="s">
         <v>37</v>
       </c>
       <c r="O2" s="9" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="P2" s="24" t="s">
         <v>11</v>
@@ -8386,7 +8386,7 @@
         <v>38</v>
       </c>
       <c r="H1" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="I1" t="s">
         <v>47</v>
@@ -8430,7 +8430,7 @@
         <v>37</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="I2" s="9" t="s">
         <v>9</v>
@@ -10385,7 +10385,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9640D032-37A5-47CC-8407-C4F7168BB93B}">
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
@@ -10419,10 +10419,10 @@
         <v>463</v>
       </c>
       <c r="F1" t="s">
+        <v>490</v>
+      </c>
+      <c r="G1" t="s">
         <v>466</v>
-      </c>
-      <c r="G1" t="s">
-        <v>467</v>
       </c>
     </row>
     <row r="2" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -10462,13 +10462,13 @@
         <v>386</v>
       </c>
       <c r="E3" t="s">
+        <v>467</v>
+      </c>
+      <c r="F3" s="5" t="s">
         <v>468</v>
       </c>
-      <c r="F3" s="5" t="s">
-        <v>469</v>
-      </c>
       <c r="G3" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -10485,13 +10485,13 @@
         <v>386</v>
       </c>
       <c r="E4" t="s">
+        <v>467</v>
+      </c>
+      <c r="F4" s="5" t="s">
         <v>468</v>
       </c>
-      <c r="F4" s="5" t="s">
-        <v>469</v>
-      </c>
       <c r="G4" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -10508,13 +10508,13 @@
         <v>386</v>
       </c>
       <c r="E5" t="s">
+        <v>467</v>
+      </c>
+      <c r="F5" s="5" t="s">
         <v>468</v>
       </c>
-      <c r="F5" s="5" t="s">
-        <v>469</v>
-      </c>
       <c r="G5" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -10531,13 +10531,13 @@
         <v>386</v>
       </c>
       <c r="E6" t="s">
+        <v>467</v>
+      </c>
+      <c r="F6" s="5" t="s">
         <v>468</v>
       </c>
-      <c r="F6" s="5" t="s">
-        <v>469</v>
-      </c>
       <c r="G6" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -10554,13 +10554,13 @@
         <v>386</v>
       </c>
       <c r="E7" t="s">
+        <v>467</v>
+      </c>
+      <c r="F7" s="5" t="s">
         <v>468</v>
       </c>
-      <c r="F7" s="5" t="s">
-        <v>469</v>
-      </c>
       <c r="G7" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">

--- a/FlexTool_import_template.xlsx
+++ b/FlexTool_import_template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\data\Toolbox_projects\FlexTool3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7A74194-F64F-471E-B9C1-BB27369EC1DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E75839A2-811A-499F-898B-77E44AD3286E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="21240" windowHeight="21000" tabRatio="1000" firstSheet="3" activeTab="4" xr2:uid="{D5BEC09F-8FA9-46E6-8F36-396DCDACE376}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="1000" xr2:uid="{D5BEC09F-8FA9-46E6-8F36-396DCDACE376}"/>
   </bookViews>
   <sheets>
     <sheet name="navigate" sheetId="54" r:id="rId1"/>
@@ -675,9 +675,6 @@
     <t>Constraints and the sense of the constraint (greater_than, equal, less_than) as well as a constant factor for the constraint equation.</t>
   </si>
   <si>
-    <t>discount_years</t>
-  </si>
-  <si>
     <t>yes</t>
   </si>
   <si>
@@ -696,9 +693,6 @@
     <t>Name of timeblock set associated with the period.</t>
   </si>
   <si>
-    <t>How many years from the solve to the different periods included in the solve. Used for discounting.</t>
-  </si>
-  <si>
     <t>half_day</t>
   </si>
   <si>
@@ -1678,6 +1672,12 @@
   </si>
   <si>
     <t>HiGHS solver method (use 'choose' for MIP models, for LP models it's possible to choose 'simplex' or 'ipm' which is interior point method)</t>
+  </si>
+  <si>
+    <t>years_represented</t>
+  </si>
+  <si>
+    <t>How many years the period represents before the next period in the solve. Used for discounting. Can be below one (multiple periods in one year). Index: period, value: years.</t>
   </si>
 </sst>
 </file>
@@ -3309,7 +3309,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F991596-B8AE-4F8F-B051-2E61303D5CC8}">
   <dimension ref="A1:E38"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3320,74 +3320,74 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="46" t="s">
+        <v>277</v>
+      </c>
+      <c r="B1" s="46" t="s">
         <v>279</v>
       </c>
-      <c r="B1" s="46" t="s">
-        <v>281</v>
-      </c>
       <c r="C1" s="46" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="43" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B2" s="43"/>
       <c r="C2" s="43"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="43" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B3" s="43"/>
       <c r="C3" s="43"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="43" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B4" s="43"/>
       <c r="C4" s="43"/>
       <c r="E4" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="43" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B5" s="43"/>
       <c r="C5" s="43"/>
       <c r="E5" s="5" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="43" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B6" s="43"/>
       <c r="C6" s="43"/>
       <c r="E6" s="5" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="29" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B7" s="30"/>
       <c r="C7" s="29" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="43" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B8" s="43"/>
       <c r="C8" s="43"/>
@@ -3397,65 +3397,65 @@
       <c r="B9" s="27"/>
       <c r="C9" s="27"/>
       <c r="E9" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="31" t="s">
+        <v>212</v>
+      </c>
+      <c r="B10" s="31" t="s">
+        <v>213</v>
+      </c>
+      <c r="C10" s="31" t="s">
         <v>214</v>
-      </c>
-      <c r="B10" s="31" t="s">
-        <v>215</v>
-      </c>
-      <c r="C10" s="31" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="31" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B11" s="31" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C11" s="32"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="44" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B12" s="44"/>
       <c r="C12" s="44"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="31" t="s">
+        <v>218</v>
+      </c>
+      <c r="B13" s="31" t="s">
+        <v>219</v>
+      </c>
+      <c r="C13" s="31" t="s">
         <v>220</v>
-      </c>
-      <c r="B13" s="31" t="s">
-        <v>221</v>
-      </c>
-      <c r="C13" s="31" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="31" t="s">
+        <v>237</v>
+      </c>
+      <c r="B14" s="31" t="s">
+        <v>238</v>
+      </c>
+      <c r="C14" s="31" t="s">
         <v>239</v>
-      </c>
-      <c r="B14" s="31" t="s">
-        <v>240</v>
-      </c>
-      <c r="C14" s="31" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="31" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B15" s="32"/>
       <c r="C15" s="31" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -3467,26 +3467,26 @@
       <c r="A17" s="39"/>
       <c r="B17" s="39"/>
       <c r="C17" s="40" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="45" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B18" s="45"/>
       <c r="C18" s="45"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="45" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B19" s="45"/>
       <c r="C19" s="45"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="45" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B20" s="45"/>
       <c r="C20" s="45"/>
@@ -3498,45 +3498,45 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="34" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B22" s="34" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C22" s="34"/>
       <c r="D22" s="28"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="41" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B23" s="41"/>
       <c r="C23" s="41"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="41" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B24" s="41"/>
       <c r="C24" s="41"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="41" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B25" s="41"/>
       <c r="C25" s="41"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="41" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B26" s="41"/>
       <c r="C26" s="41"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="41" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B27" s="41"/>
       <c r="C27" s="41"/>
@@ -3548,65 +3548,65 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="42" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B29" s="42"/>
       <c r="C29" s="42"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="35" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B30" s="36"/>
       <c r="C30" s="35" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="42" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B31" s="42"/>
       <c r="C31" s="42"/>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="48" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B33" s="48"/>
       <c r="C33" s="48"/>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="48" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B34" s="48"/>
       <c r="C34" s="48"/>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="48" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="B35" s="48"/>
       <c r="C35" s="48"/>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="48" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="B36" s="48"/>
       <c r="C36" s="48"/>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="48" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="B37" s="48"/>
       <c r="C37" s="48"/>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="48" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="B38" s="48"/>
       <c r="C38" s="48"/>
@@ -3711,47 +3711,47 @@
   <sheetData>
     <row r="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A1" s="37" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="D1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E1" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="F1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="G1" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="H1" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="I1" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="K1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="L1" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="M1" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="N1" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="O1" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="P1" t="s">
         <v>66</v>
@@ -3760,25 +3760,25 @@
         <v>69</v>
       </c>
       <c r="R1" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="S1" t="s">
         <v>70</v>
       </c>
       <c r="T1" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="U1" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="V1" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="W1" t="s">
         <v>20</v>
       </c>
       <c r="X1" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="Y1" t="s">
         <v>23</v>
@@ -3787,16 +3787,16 @@
         <v>71</v>
       </c>
       <c r="AA1" t="s">
+        <v>429</v>
+      </c>
+      <c r="AB1" s="5" t="s">
         <v>431</v>
       </c>
-      <c r="AB1" s="5" t="s">
-        <v>433</v>
-      </c>
       <c r="AC1" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="AD1" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="AE1" t="s">
         <v>72</v>
@@ -3810,28 +3810,28 @@
         <v>57</v>
       </c>
       <c r="C2" s="24" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="D2" s="9" t="s">
         <v>59</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="G2" s="9" t="s">
         <v>11</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="K2" s="9" t="s">
         <v>60</v>
@@ -3840,7 +3840,7 @@
         <v>58</v>
       </c>
       <c r="M2" s="9" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="N2" s="9" t="s">
         <v>61</v>
@@ -3861,13 +3861,13 @@
         <v>14</v>
       </c>
       <c r="T2" s="9" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="U2" s="9" t="s">
         <v>7</v>
       </c>
       <c r="V2" s="24" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="W2" s="9" t="s">
         <v>6</v>
@@ -3882,16 +3882,16 @@
         <v>63</v>
       </c>
       <c r="AA2" s="9" t="s">
+        <v>428</v>
+      </c>
+      <c r="AB2" s="9" t="s">
         <v>430</v>
       </c>
-      <c r="AB2" s="9" t="s">
-        <v>432</v>
-      </c>
       <c r="AC2" s="9" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="AD2" s="9" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="AE2" s="9" t="s">
         <v>64</v>
@@ -3905,13 +3905,13 @@
         <v>146</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E3" s="14" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="F3" s="14"/>
       <c r="G3" t="s">
@@ -3932,13 +3932,13 @@
         <v>147</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E4" s="14" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="F4" s="14"/>
       <c r="G4" t="s">
@@ -3963,7 +3963,7 @@
         <v>148</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G5" t="s">
         <v>145</v>
@@ -3980,10 +3980,10 @@
         <v>28</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G6" t="s">
         <v>145</v>
@@ -3997,31 +3997,31 @@
     </row>
     <row r="7" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D7" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F7" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G7" t="s">
         <v>145</v>
       </c>
       <c r="H7" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="I7" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="J7" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="N7">
         <v>12000</v>
@@ -4044,28 +4044,28 @@
     </row>
     <row r="8" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D8" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F8" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G8" t="s">
         <v>145</v>
       </c>
       <c r="H8" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="I8" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="N8">
         <v>12000</v>
@@ -4082,13 +4082,13 @@
     </row>
     <row r="9" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="G9" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="Q9">
         <v>800</v>
@@ -4145,7 +4145,7 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="37" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -4153,7 +4153,7 @@
         <v>65</v>
       </c>
       <c r="E1" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="F1" t="s">
         <v>67</v>
@@ -4162,19 +4162,19 @@
         <v>68</v>
       </c>
       <c r="H1" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="I1" t="s">
+        <v>364</v>
+      </c>
+      <c r="J1" t="s">
+        <v>365</v>
+      </c>
+      <c r="K1" t="s">
+        <v>361</v>
+      </c>
+      <c r="L1" t="s">
         <v>366</v>
-      </c>
-      <c r="J1" t="s">
-        <v>367</v>
-      </c>
-      <c r="K1" t="s">
-        <v>363</v>
-      </c>
-      <c r="L1" t="s">
-        <v>368</v>
       </c>
       <c r="M1" t="s">
         <v>20</v>
@@ -4183,7 +4183,7 @@
         <v>23</v>
       </c>
       <c r="O1" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4200,7 +4200,7 @@
         <v>58</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="F2" s="9" t="s">
         <v>8</v>
@@ -4215,13 +4215,13 @@
         <v>13</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="K2" s="9" t="s">
         <v>7</v>
       </c>
       <c r="L2" s="24" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="M2" s="9" t="s">
         <v>6</v>
@@ -4277,7 +4277,7 @@
         <v>146</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D5">
         <f>250*8760*1.1</f>
@@ -4316,7 +4316,7 @@
   <sheetData>
     <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="37" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B1" s="8" t="s">
         <v>1</v>
@@ -4331,7 +4331,7 @@
     <row r="2" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
       <c r="B2" s="15" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C2" s="9" t="s">
         <v>60</v>
@@ -4649,14 +4649,14 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="37" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B1"/>
       <c r="C1" t="s">
         <v>73</v>
       </c>
       <c r="D1" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -4692,7 +4692,7 @@
         <v>28</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C4">
         <v>0.2</v>
@@ -4727,12 +4727,12 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="37" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B1"/>
       <c r="C1"/>
       <c r="D1" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -4754,7 +4754,7 @@
         <v>28</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>77</v>
@@ -4768,7 +4768,7 @@
         <v>28</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>78</v>
@@ -4782,10 +4782,10 @@
         <v>28</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D5">
         <v>22</v>
@@ -4842,10 +4842,10 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
   </sheetData>
@@ -4891,28 +4891,28 @@
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A1" s="37" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B1" s="37"/>
       <c r="C1" s="37"/>
       <c r="D1" s="3"/>
       <c r="E1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="F1" t="s">
+        <v>175</v>
+      </c>
+      <c r="G1" t="s">
+        <v>176</v>
+      </c>
+      <c r="H1" t="s">
+        <v>454</v>
+      </c>
+      <c r="I1" t="s">
         <v>177</v>
       </c>
-      <c r="G1" t="s">
-        <v>178</v>
-      </c>
-      <c r="H1" t="s">
-        <v>456</v>
-      </c>
-      <c r="I1" t="s">
-        <v>179</v>
-      </c>
       <c r="J1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="K1" t="s">
         <v>19</v>
@@ -4921,19 +4921,19 @@
         <v>22</v>
       </c>
       <c r="M1" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="N1" t="s">
         <v>25</v>
       </c>
       <c r="O1" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="P1" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="Q1" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="R1" t="s">
         <v>20</v>
@@ -4942,16 +4942,16 @@
         <v>23</v>
       </c>
       <c r="T1" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="U1" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="V1" t="s">
         <v>18</v>
       </c>
       <c r="W1" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
@@ -4962,13 +4962,13 @@
         <v>26</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="E2" s="24" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="F2" s="9" t="s">
         <v>17</v>
@@ -4980,7 +4980,7 @@
         <v>11</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="J2" s="9" t="s">
         <v>15</v>
@@ -4998,13 +4998,13 @@
         <v>14</v>
       </c>
       <c r="O2" s="9" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="P2" s="9" t="s">
         <v>7</v>
       </c>
       <c r="Q2" s="9" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="R2" s="9" t="s">
         <v>6</v>
@@ -5016,7 +5016,7 @@
         <v>5</v>
       </c>
       <c r="U2" s="9" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="V2" s="9" t="s">
         <v>3</v>
@@ -5039,19 +5039,19 @@
         <v>147</v>
       </c>
       <c r="E3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F3" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="G3" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="H3" t="s">
         <v>145</v>
       </c>
       <c r="I3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="K3">
         <v>100</v>
@@ -5059,25 +5059,25 @@
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>146</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="E4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F4" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="G4" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="H4" t="s">
         <v>145</v>
@@ -5091,7 +5091,7 @@
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>31</v>
@@ -5103,7 +5103,7 @@
         <v>147</v>
       </c>
       <c r="H5" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="L5">
         <v>100</v>
@@ -5123,19 +5123,19 @@
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>146</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="H6" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="L6">
         <v>100</v>
@@ -5192,7 +5192,7 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="37" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -5200,19 +5200,19 @@
         <v>21</v>
       </c>
       <c r="E1" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="F1" t="s">
         <v>24</v>
       </c>
       <c r="G1" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="H1" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="I1" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="J1" t="s">
         <v>20</v>
@@ -5221,10 +5221,10 @@
         <v>23</v>
       </c>
       <c r="L1" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="M1" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
@@ -5247,13 +5247,13 @@
         <v>13</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="H2" s="9" t="s">
         <v>7</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="J2" s="9" t="s">
         <v>6</v>
@@ -5265,7 +5265,7 @@
         <v>5</v>
       </c>
       <c r="M2" s="9" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
@@ -5304,7 +5304,7 @@
         <v>31</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D5">
         <v>150</v>
@@ -5339,7 +5339,7 @@
   <sheetData>
     <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="37" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B1" s="8" t="s">
         <v>1</v>
@@ -5351,7 +5351,7 @@
     <row r="2" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
       <c r="B2" s="15" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C2" s="9" t="s">
         <v>3</v>
@@ -5611,23 +5611,23 @@
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1" s="37" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D1" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="E1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="F1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G1" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="H1" t="s">
         <v>19</v>
@@ -5636,19 +5636,19 @@
         <v>22</v>
       </c>
       <c r="J1" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="K1" t="s">
         <v>25</v>
       </c>
       <c r="L1" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="M1" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="N1" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="O1" t="s">
         <v>20</v>
@@ -5657,28 +5657,28 @@
         <v>23</v>
       </c>
       <c r="Q1" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="R1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="S1" t="s">
         <v>109</v>
       </c>
       <c r="T1" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="U1" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="V1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="W1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="X1" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
     </row>
     <row r="2" spans="1:24" s="23" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -5689,7 +5689,7 @@
         <v>123</v>
       </c>
       <c r="C2" s="24" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="D2" s="24" t="s">
         <v>108</v>
@@ -5716,13 +5716,13 @@
         <v>14</v>
       </c>
       <c r="L2" s="24" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="M2" s="24" t="s">
         <v>7</v>
       </c>
       <c r="N2" s="24" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="O2" s="24" t="s">
         <v>6</v>
@@ -5763,13 +5763,13 @@
         <v>149</v>
       </c>
       <c r="C3" s="47" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D3" s="47" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="E3" s="47" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F3" s="47"/>
       <c r="G3" s="47" t="s">
@@ -5803,13 +5803,13 @@
         <v>150</v>
       </c>
       <c r="C4" s="47" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D4" s="47" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="E4" s="47" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F4" s="47"/>
       <c r="G4" s="47" t="s">
@@ -5827,16 +5827,16 @@
         <v>28</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C5" s="47" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D5" s="47" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="E5" s="47" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="F5" s="47"/>
       <c r="G5" s="47" t="s">
@@ -5854,30 +5854,30 @@
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>149</v>
       </c>
       <c r="G6" s="47" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="C7" s="47" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D7" s="47" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="E7" s="47" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="G7" s="47" t="s">
         <v>145</v>
@@ -5914,511 +5914,511 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>184</v>
+      </c>
+      <c r="B3" t="s">
         <v>186</v>
       </c>
-      <c r="B3" t="s">
-        <v>188</v>
-      </c>
       <c r="C3" t="s">
+        <v>187</v>
+      </c>
+      <c r="D3" t="s">
         <v>189</v>
-      </c>
-      <c r="D3" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B4" s="25">
         <v>44594</v>
       </c>
       <c r="C4" t="s">
+        <v>188</v>
+      </c>
+      <c r="D4" t="s">
         <v>190</v>
-      </c>
-      <c r="D4" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B5" s="25">
         <v>44595</v>
       </c>
       <c r="C5" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D5" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B6" s="25">
         <v>44600</v>
       </c>
       <c r="C6" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D6" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B7" s="25">
         <v>44602</v>
       </c>
       <c r="C7" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D7" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B8" s="25">
         <v>44602</v>
       </c>
       <c r="C8" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D8" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B9" s="25">
         <v>44602</v>
       </c>
       <c r="C9" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D9" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B10" s="25">
         <v>44602</v>
       </c>
       <c r="C10" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D10" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B11" s="25">
         <v>44603</v>
       </c>
       <c r="C11" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D11" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B12" s="25">
         <v>44605</v>
       </c>
       <c r="C12" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D12" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B13" s="25">
         <v>44605</v>
       </c>
       <c r="C13" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D13" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B14" s="25">
         <v>44605</v>
       </c>
       <c r="C14" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D14" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B15" s="25">
         <v>44635</v>
       </c>
       <c r="C15" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D15" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B16" s="25">
         <v>44643</v>
       </c>
       <c r="C16" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D16" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="B17" s="25">
         <v>44643</v>
       </c>
       <c r="C17" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D17" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="B18" s="25">
         <v>44643</v>
       </c>
       <c r="C18" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D18" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="B19" s="25">
         <v>44656</v>
       </c>
       <c r="C19" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D19" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="B20" s="25">
         <v>44657</v>
       </c>
       <c r="C20" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D20" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="B21" s="25">
         <v>44657</v>
       </c>
       <c r="C21" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D21" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="B22" s="25">
         <v>44680</v>
       </c>
       <c r="C22" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D22" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="B23" s="25">
         <v>44680</v>
       </c>
       <c r="C23" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D23" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="B24" s="25">
         <v>44690</v>
       </c>
       <c r="C24" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D24" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="B25" s="25">
         <v>44695</v>
       </c>
       <c r="C25" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D25" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="B26" s="25">
         <v>44701</v>
       </c>
       <c r="C26" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D26" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="B27" s="25">
         <v>44701</v>
       </c>
       <c r="C27" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D27" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="B28" s="25">
         <v>44712</v>
       </c>
       <c r="C28" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D28" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="B29" s="25">
         <v>44727</v>
       </c>
       <c r="C29" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D29" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="B30" s="25">
         <v>44734</v>
       </c>
       <c r="C30" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D30" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="B31" s="25">
         <v>44741</v>
       </c>
       <c r="C31" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D31" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="B32" s="25">
         <v>44840</v>
       </c>
       <c r="C32" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D32" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="B33" s="25">
         <v>44850</v>
       </c>
       <c r="C33" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D33" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="B34" s="25">
         <v>44875</v>
       </c>
       <c r="C34" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D34" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="B35" s="25">
         <v>44876</v>
       </c>
       <c r="C35" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D35" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="B36" s="25">
         <v>44889</v>
       </c>
       <c r="C36" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D36" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="B37" s="25">
         <v>44893</v>
       </c>
       <c r="C37" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D37" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="B38" s="25">
         <v>44903</v>
       </c>
       <c r="C38" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D38" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
     </row>
   </sheetData>
@@ -6457,7 +6457,7 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="37" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -6465,19 +6465,19 @@
         <v>21</v>
       </c>
       <c r="E1" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="F1" t="s">
         <v>24</v>
       </c>
       <c r="G1" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="H1" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="I1" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="J1" t="s">
         <v>20</v>
@@ -6486,10 +6486,10 @@
         <v>23</v>
       </c>
       <c r="L1" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="M1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6512,13 +6512,13 @@
         <v>13</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="H2" s="9" t="s">
         <v>7</v>
       </c>
       <c r="I2" s="24" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="J2" s="9" t="s">
         <v>6</v>
@@ -6569,7 +6569,7 @@
         <v>149</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D5">
         <v>75</v>
@@ -6604,7 +6604,7 @@
   <sheetData>
     <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="37" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B1" s="8" t="s">
         <v>1</v>
@@ -6616,7 +6616,7 @@
     <row r="2" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
       <c r="B2" s="15" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C2" s="9" t="s">
         <v>3</v>
@@ -6630,7 +6630,7 @@
         <v>123</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -6868,7 +6868,7 @@
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="37" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -6877,19 +6877,19 @@
         <v>141</v>
       </c>
       <c r="F1" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="G1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="H1" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="I1" t="s">
         <v>118</v>
       </c>
       <c r="J1" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="K1" t="s">
         <v>120</v>
@@ -6898,7 +6898,7 @@
         <v>122</v>
       </c>
       <c r="M1" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="P1" s="3"/>
       <c r="Q1" s="3"/>
@@ -6915,16 +6915,16 @@
         <v>57</v>
       </c>
       <c r="D2" s="19" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="E2" s="9" t="s">
         <v>140</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="H2" s="9" t="s">
         <v>111</v>
@@ -6942,7 +6942,7 @@
         <v>121</v>
       </c>
       <c r="M2" s="9" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="P2" s="3"/>
       <c r="Q2" s="3"/>
@@ -6959,7 +6959,7 @@
         <v>148</v>
       </c>
       <c r="D3" s="20" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -6982,7 +6982,7 @@
         <v>146</v>
       </c>
       <c r="D4" s="20" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -6996,13 +6996,13 @@
         <v>28</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D5" s="20" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -7013,13 +7013,13 @@
         <v>28</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>147</v>
       </c>
       <c r="D6" s="20" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -7039,27 +7039,27 @@
         <v>146</v>
       </c>
       <c r="D7" s="20" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="E7">
         <v>1</v>
       </c>
       <c r="G7" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D8" s="20" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -7067,16 +7067,16 @@
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>146</v>
       </c>
       <c r="D9" s="20" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -7084,16 +7084,16 @@
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="D10" s="20" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -7128,7 +7128,7 @@
   <sheetData>
     <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="37" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B1" s="8" t="s">
         <v>1</v>
@@ -7140,10 +7140,10 @@
     <row r="2" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
       <c r="B2" s="15" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
     </row>
     <row r="3" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -7152,7 +7152,7 @@
         <v>123</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="4" spans="1:11" s="18" customFormat="1" x14ac:dyDescent="0.25">
@@ -7161,7 +7161,7 @@
         <v>57</v>
       </c>
       <c r="C4" s="18" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="5" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.25">
@@ -7169,10 +7169,10 @@
         <v>27</v>
       </c>
       <c r="B5" s="19" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="C5" s="20" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -7412,7 +7412,7 @@
         <v>28</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
     </row>
     <row r="2" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -7426,13 +7426,13 @@
         <v>144</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -7871,12 +7871,12 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="37" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
       <c r="D1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -7890,7 +7890,7 @@
         <v>143</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
@@ -7904,13 +7904,13 @@
         <v>28</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D3" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
   </sheetData>
@@ -7943,12 +7943,12 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="37" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
       <c r="D1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -7962,7 +7962,7 @@
         <v>143</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
@@ -7979,10 +7979,10 @@
         <v>31</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D3" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
   </sheetData>
@@ -8016,13 +8016,13 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="37" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
       <c r="E1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -8039,7 +8039,7 @@
         <v>143</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
@@ -8062,7 +8062,7 @@
         <v>144</v>
       </c>
       <c r="E3" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -8070,16 +8070,16 @@
         <v>28</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="C4" s="18" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="E4" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
     </row>
   </sheetData>
@@ -8129,11 +8129,11 @@
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" s="37" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="D1" t="s">
         <v>40</v>
@@ -8142,7 +8142,7 @@
         <v>36</v>
       </c>
       <c r="F1" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="G1" t="s">
         <v>42</v>
@@ -8151,7 +8151,7 @@
         <v>46</v>
       </c>
       <c r="I1" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="J1" t="s">
         <v>44</v>
@@ -8160,19 +8160,19 @@
         <v>54</v>
       </c>
       <c r="L1" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="M1" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="N1" t="s">
         <v>38</v>
       </c>
       <c r="O1" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="P1" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="Q1" t="s">
         <v>48</v>
@@ -8181,16 +8181,16 @@
         <v>52</v>
       </c>
       <c r="S1" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="T1" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="U1" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="V1" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.25">
@@ -8201,7 +8201,7 @@
         <v>56</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="D2" s="9" t="s">
         <v>39</v>
@@ -8210,7 +8210,7 @@
         <v>35</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="G2" s="9" t="s">
         <v>41</v>
@@ -8228,16 +8228,16 @@
         <v>53</v>
       </c>
       <c r="L2" s="9" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="M2" s="9" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="N2" s="9" t="s">
         <v>37</v>
       </c>
       <c r="O2" s="9" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="P2" s="24" t="s">
         <v>11</v>
@@ -8249,16 +8249,16 @@
         <v>51</v>
       </c>
       <c r="S2" s="9" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="T2" s="9" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="U2" s="9" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="V2" s="9" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
@@ -8278,7 +8278,7 @@
         <v>28</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="H4">
         <v>200</v>
@@ -8295,24 +8295,24 @@
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="G5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="J5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="S6">
         <v>40</v>
@@ -8326,10 +8326,10 @@
         <v>28</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="C7" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
   </sheetData>
@@ -8369,7 +8369,7 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="37" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -8386,7 +8386,7 @@
         <v>38</v>
       </c>
       <c r="H1" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="I1" t="s">
         <v>47</v>
@@ -8395,16 +8395,16 @@
         <v>50</v>
       </c>
       <c r="K1" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="L1" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="M1" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="N1" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
@@ -8430,7 +8430,7 @@
         <v>37</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="I2" s="9" t="s">
         <v>9</v>
@@ -8439,16 +8439,16 @@
         <v>49</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="L2" s="9" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="M2" s="9" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="N2" s="9" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
@@ -8487,7 +8487,7 @@
         <v>152</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G5">
         <v>20</v>
@@ -8520,10 +8520,10 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="37" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B1" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -8532,42 +8532,42 @@
         <v>28</v>
       </c>
       <c r="C2" s="6" t="s">
+        <v>316</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>291</v>
+      </c>
+      <c r="E2" s="6" t="s">
         <v>318</v>
       </c>
-      <c r="D2" s="6" t="s">
-        <v>293</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>320</v>
-      </c>
       <c r="F2" s="6" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="I2" s="6" t="s">
+        <v>379</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>380</v>
+      </c>
+      <c r="K2" s="6" t="s">
         <v>381</v>
       </c>
-      <c r="J2" s="6" t="s">
-        <v>382</v>
-      </c>
-      <c r="K2" s="6" t="s">
-        <v>383</v>
-      </c>
       <c r="L2" s="6" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="M2" s="6" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B3" s="14" t="s">
         <v>28</v>
@@ -8608,94 +8608,94 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="B4" s="14"/>
       <c r="C4" s="14" t="s">
+        <v>316</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>291</v>
+      </c>
+      <c r="E4" s="14" t="s">
         <v>318</v>
       </c>
-      <c r="D4" s="14" t="s">
-        <v>293</v>
-      </c>
-      <c r="E4" s="14" t="s">
-        <v>320</v>
-      </c>
       <c r="F4" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="G4" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="H4" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="I4" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="J4" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="K4" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="L4" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="M4" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B5" s="14"/>
       <c r="G5" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="J5" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="K5" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="L5" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="B6" s="14"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="B7" s="14"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B8" s="14"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B9" s="14"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="B10" s="14"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="B11" s="14"/>
     </row>
@@ -8833,12 +8833,12 @@
         <v>152</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>146</v>
@@ -8846,7 +8846,7 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>146</v>
@@ -8854,7 +8854,7 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>147</v>
@@ -8942,7 +8942,7 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>149</v>
@@ -8953,10 +8953,10 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C3" s="11" t="s">
         <v>147</v>
@@ -8996,14 +8996,14 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="37" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
       <c r="F1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G1" t="s">
         <v>128</v>
@@ -9041,7 +9041,7 @@
         <v>57</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="G2" s="9" t="s">
         <v>127</v>
@@ -9064,13 +9064,13 @@
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D3" s="11" t="s">
         <v>31</v>
@@ -9079,7 +9079,7 @@
         <v>146</v>
       </c>
       <c r="F3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -9122,22 +9122,22 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="37" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
       <c r="E1" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="F1" t="s">
         <v>136</v>
       </c>
       <c r="G1" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="H1" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="J1" s="3"/>
       <c r="K1" s="3"/>
@@ -9180,19 +9180,19 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C3" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>281</v>
+      </c>
+      <c r="E3" t="s">
         <v>282</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>283</v>
-      </c>
-      <c r="E3" t="s">
-        <v>284</v>
       </c>
       <c r="F3">
         <v>50</v>
@@ -9233,7 +9233,7 @@
   <sheetData>
     <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="37" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B1" s="8" t="s">
         <v>1</v>
@@ -9262,7 +9262,7 @@
         <v>27</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -9425,14 +9425,14 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="37" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
       <c r="F1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="G1" t="s">
         <v>128</v>
@@ -9470,7 +9470,7 @@
         <v>57</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="G2" s="9" t="s">
         <v>127</v>
@@ -9493,13 +9493,13 @@
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D3" s="11" t="s">
         <v>149</v>
@@ -9508,7 +9508,7 @@
         <v>146</v>
       </c>
       <c r="F3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I3">
         <v>0.5</v>
@@ -9519,13 +9519,13 @@
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D4" s="11" t="s">
         <v>150</v>
@@ -9534,7 +9534,7 @@
         <v>146</v>
       </c>
       <c r="F4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -9545,13 +9545,13 @@
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D5" s="11" t="s">
         <v>149</v>
@@ -9560,7 +9560,7 @@
         <v>146</v>
       </c>
       <c r="F5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I5">
         <v>0.01</v>
@@ -9571,22 +9571,22 @@
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E6" s="13" t="s">
         <v>147</v>
       </c>
       <c r="F6" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I6">
         <v>0.5</v>
@@ -9597,13 +9597,13 @@
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D7" s="11" t="s">
         <v>149</v>
@@ -9612,7 +9612,7 @@
         <v>146</v>
       </c>
       <c r="F7" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I7">
         <v>0.01</v>
@@ -9650,12 +9650,12 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="37" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
       <c r="D1" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="E1" t="s">
         <v>155</v>
@@ -9678,7 +9678,7 @@
         <v>153</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="E2" s="9" t="s">
         <v>154</v>
@@ -9695,13 +9695,13 @@
         <v>28</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -9709,16 +9709,16 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>396</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>398</v>
-      </c>
       <c r="C4" s="4" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="D4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -9726,16 +9726,16 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="D5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -9765,8 +9765,8 @@
     <col min="1" max="1" width="12.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="15.140625" style="2" customWidth="1"/>
     <col min="3" max="3" width="10.140625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="21.28515625" customWidth="1"/>
-    <col min="5" max="5" width="15.5703125" customWidth="1"/>
+    <col min="4" max="4" width="15.85546875" customWidth="1"/>
+    <col min="5" max="5" width="18" customWidth="1"/>
     <col min="6" max="6" width="16.5703125" customWidth="1"/>
     <col min="7" max="7" width="16.140625" customWidth="1"/>
     <col min="8" max="14" width="11.5703125" customWidth="1"/>
@@ -9774,15 +9774,15 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="37" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
       <c r="D1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E1" t="s">
-        <v>163</v>
+        <v>490</v>
       </c>
       <c r="F1" t="s">
         <v>75</v>
@@ -9802,16 +9802,16 @@
         <v>32</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>156</v>
+        <v>489</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -9825,16 +9825,16 @@
         <v>77</v>
       </c>
       <c r="D3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E3" s="5">
         <v>0</v>
       </c>
       <c r="F3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -9848,18 +9848,18 @@
         <v>78</v>
       </c>
       <c r="D4" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E4">
         <v>5</v>
       </c>
       <c r="G4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>33</v>
@@ -9868,18 +9868,18 @@
         <v>77</v>
       </c>
       <c r="D5" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="G5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>33</v>
@@ -9888,38 +9888,38 @@
         <v>78</v>
       </c>
       <c r="D6" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E6">
         <v>5</v>
       </c>
       <c r="G6" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>77</v>
       </c>
       <c r="D7" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>34</v>
@@ -9928,53 +9928,53 @@
         <v>78</v>
       </c>
       <c r="D8" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="G8" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>34</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D9" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E9">
         <v>5</v>
       </c>
       <c r="G9" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>78</v>
       </c>
       <c r="D10" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -10015,14 +10015,14 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="37" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B1"/>
       <c r="C1"/>
       <c r="D1" s="3"/>
       <c r="E1"/>
       <c r="F1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -10036,13 +10036,13 @@
         <v>57</v>
       </c>
       <c r="D2" s="19" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="E2" s="10" t="s">
         <v>142</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -10056,10 +10056,10 @@
         <v>148</v>
       </c>
       <c r="D3" s="20" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F3">
         <v>1</v>
@@ -10076,10 +10076,10 @@
         <v>146</v>
       </c>
       <c r="D4" s="20" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F4">
         <v>-0.1</v>
@@ -10087,19 +10087,19 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="D5" s="20" t="s">
+        <v>335</v>
+      </c>
+      <c r="E5" s="11" t="s">
         <v>396</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>397</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="D5" s="20" t="s">
-        <v>337</v>
-      </c>
-      <c r="E5" s="11" t="s">
-        <v>398</v>
       </c>
       <c r="F5">
         <v>-1</v>
@@ -10107,19 +10107,19 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>146</v>
       </c>
       <c r="D6" s="20" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="F6">
         <v>4</v>
@@ -10156,13 +10156,13 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="37" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B1"/>
       <c r="C1"/>
       <c r="D1"/>
       <c r="E1" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -10179,7 +10179,7 @@
         <v>142</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
     </row>
   </sheetData>
@@ -10213,15 +10213,15 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="37" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B1"/>
       <c r="C1"/>
       <c r="D1" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="E1" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -10235,21 +10235,21 @@
         <v>142</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -10285,12 +10285,12 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="37" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B1"/>
       <c r="C1"/>
       <c r="D1" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -10304,7 +10304,7 @@
         <v>142</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
     </row>
   </sheetData>
@@ -10337,12 +10337,12 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="37" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B1"/>
       <c r="C1"/>
       <c r="D1" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -10356,18 +10356,18 @@
         <v>142</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="D3">
         <v>-8</v>
@@ -10385,7 +10385,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9640D032-37A5-47CC-8407-C4F7168BB93B}">
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
@@ -10406,23 +10406,23 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="37" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="D1" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="E1" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="F1" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="G1" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
     </row>
     <row r="2" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -10433,19 +10433,19 @@
         <v>76</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -10459,21 +10459,21 @@
         <v>79</v>
       </c>
       <c r="D3" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="E3" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="G3" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>33</v>
@@ -10482,44 +10482,44 @@
         <v>79</v>
       </c>
       <c r="D4" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="E4" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="G4" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C5" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D5" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="E5" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="G5" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>34</v>
@@ -10528,86 +10528,86 @@
         <v>79</v>
       </c>
       <c r="D6" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="E6" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="G6" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C7" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D7" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="E7" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="G7" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D8" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="F8" s="5"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D9" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="F9" s="5"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>34</v>
       </c>
       <c r="D10" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="F10" s="5"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D11" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="F11" s="5"/>
     </row>
@@ -10642,7 +10642,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="37" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -10655,13 +10655,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>81</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -10669,7 +10669,7 @@
         <v>28</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>29</v>
@@ -10683,7 +10683,7 @@
         <v>28</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>29</v>
@@ -10723,12 +10723,12 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="37" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
       <c r="D1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="2" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -10739,10 +10739,10 @@
         <v>104</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -11114,7 +11114,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="37" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" t="s">
@@ -11171,7 +11171,7 @@
   <sheetData>
     <row r="1" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B1" s="7" t="s">
         <v>104</v>
@@ -11179,7 +11179,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>105</v>
@@ -11187,7 +11187,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>105</v>

--- a/FlexTool_import_template.xlsx
+++ b/FlexTool_import_template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\data\Toolbox_projects\FlexTool3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7A74194-F64F-471E-B9C1-BB27369EC1DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8DAFF5E-FB37-4108-BC0D-71AABEC78529}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="21240" windowHeight="21000" tabRatio="1000" firstSheet="3" activeTab="4" xr2:uid="{D5BEC09F-8FA9-46E6-8F36-396DCDACE376}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="30360" windowHeight="21000" tabRatio="1000" firstSheet="3" activeTab="21" xr2:uid="{D5BEC09F-8FA9-46E6-8F36-396DCDACE376}"/>
   </bookViews>
   <sheets>
     <sheet name="navigate" sheetId="54" r:id="rId1"/>
@@ -148,7 +148,7 @@
           <t>Possible parameters
 efficiency: [factor] Efficiency of a unit. Constant or time.
 efficiency_at_min_load: [e.g. 0.4 means 40%] Efficiency of the unit at minimum load. Applies only if the unit has an online variable. Constant or time.
-min_load: [0-1] Minimum load of the unit. Applies only if the unit has an online variable. Constant or time.</t>
+min_load: [0-1] Minimum load of the unit. Applies only if the unit has an online variable. With linear startups, it is the share of capacity started up. Constant or time.</t>
         </r>
       </text>
     </comment>
@@ -205,7 +205,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1389" uniqueCount="491">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1387" uniqueCount="491">
   <si>
     <t>commodity</t>
   </si>
@@ -423,9 +423,6 @@
     <t>[e.g. 0.01 means 1% every hour] Loss of stored energy over time. Constant or time.</t>
   </si>
   <si>
-    <t>[MW] Size of single storage unit - used for investments and some technical limits. If not provided, the sum of outputs from the storage is assumed. Constant.</t>
-  </si>
-  <si>
     <t>[CO2 ton per MWh] Constant.</t>
   </si>
   <si>
@@ -561,21 +558,12 @@
     <t>ramp_method</t>
   </si>
   <si>
-    <t>Choice of ramp methods.</t>
-  </si>
-  <si>
     <t>ramp_speed_down</t>
   </si>
   <si>
-    <t>[per unit  / minute] Maximum ramp down speed. Constant.</t>
-  </si>
-  <si>
     <t>ramp_speed_up</t>
   </si>
   <si>
-    <t>[per unit  / minute] Maximum ramp up speed. Constant.</t>
-  </si>
-  <si>
     <t>unit</t>
   </si>
   <si>
@@ -630,9 +618,6 @@
     <t>coefficient</t>
   </si>
   <si>
-    <t>[factor] Coefficient to scale the output from a unit to a particular node (also affected by unit efficiency). Constant.</t>
-  </si>
-  <si>
     <t>constraint</t>
   </si>
   <si>
@@ -753,9 +738,6 @@
     <t>A flag whether has a state variable (storage). If empty, then not true. Use 'yes' to indicate true.</t>
   </si>
   <si>
-    <t>Choice between minimum up- and downtimes (&lt;empty&gt;, min_downtime, min_uptime, both).</t>
-  </si>
-  <si>
     <t>Can the unit provide this reserve. Empty indicates not allowed. Use 'yes' to indicate true.</t>
   </si>
   <si>
@@ -1140,9 +1122,6 @@
     <t>[e.g. 0.4 means 40%] Efficiency of the unit at minimum load. Applies only if the unit has an online variable. Constant or time.</t>
   </si>
   <si>
-    <t>[0-1] Minimum load of the unit. Applies only if the unit has an online variable. Constant or time.</t>
-  </si>
-  <si>
     <t>9.1</t>
   </si>
   <si>
@@ -1422,15 +1401,9 @@
     <t>Gas_export_profile</t>
   </si>
   <si>
-    <t>max_relative_capacity</t>
-  </si>
-  <si>
     <t>[MW] Size of single unit - used for investments and some technical limits. If not provided, existing capacity is assumed. Constant.</t>
   </si>
   <si>
-    <t>[factor, typically 0-1] Maximum input/output in relation to the capacity of the unit. Ignored if not provided (existing capacity will limit each output and [existing capacity/efficiency] will limit each input). Constant.</t>
-  </si>
-  <si>
     <t>penalty_capacity_margin</t>
   </si>
   <si>
@@ -1596,9 +1569,6 @@
     <t>highs_parallel</t>
   </si>
   <si>
-    <t>HiGHS uses presolve ('on') or not ('off'). Useful when solves are large.</t>
-  </si>
-  <si>
     <t>highs_presolve</t>
   </si>
   <si>
@@ -1638,9 +1608,6 @@
     <t>[MWh] Highest absolute flow in scaled inflow. Used only with inflow_method scale_to_annual_and_peak_flow. Constant or period.</t>
   </si>
   <si>
-    <t>Choice how to treat inflow time series. Empty defaults to 'use_original', which does not scale the time series. 'no_inflow' ignores the inflow time series. 'scale_to_annual_flow' will scale the time series to match the 'annual_flow' so that the sum of inflow is multiplied by 8760/'hours_in_solve'. 'scale_in_proprotion' calculates a scaling factor by dividing 'annual_flow' with the sum of time series inflow (after it has been annualized using 'timeline_duration_in_years'). 'scale_to_annual_and_peak_flow' scales the inflow to match both the annual flow and the peak flow parameters (be careful, can lead to negative numbers).</t>
-  </si>
-  <si>
     <t>scale_to_annual_and_peak_flow</t>
   </si>
   <si>
@@ -1677,7 +1644,40 @@
     <t>Choice of the CO2 method: no_method, price, period, total, price_period, price_total, period_total, price_period_total</t>
   </si>
   <si>
-    <t>HiGHS solver method (use 'choose' for MIP models, for LP models it's possible to choose 'simplex' or 'ipm' which is interior point method)</t>
+    <t>HiGHS solver method ('simplex' or 'ipm' which is interior point method). Should use 'choose' for MIP models, since 'simplex' and 'ipm' will not work.</t>
+  </si>
+  <si>
+    <t>HiGHS uses presolve ('on') or not ('off'). Can have a large impact on solution time when solves are large.</t>
+  </si>
+  <si>
+    <t>Choice how to treat inflow time series. Empty defaults to 'use_original', which does not scale the time series. 'no_inflow' ignores the inflow time series. 'scale_to_annual_flow' will scale the time series to match the 'annual_flow' so that the sum of inflow is multiplied by 8760/'hours_in_solve'. 'scale_in_proprotion' calculates a scaling factor by dividing 'annual_flow' with the sum of time series inflow (after it has been annualized using 'timeline_duration_in_years'). 'scale_to_annual_and_peak_flow' scales the time series to match the 'annual_flow' target while transforming the time series to match the highest load with the 'peak_inflow'.</t>
+  </si>
+  <si>
+    <t>Choice of investment method: either not_allowed or then a combination of 1) invest and/or retire and 2) investment limits for each period and/or for all periods (total) or no_limits.</t>
+  </si>
+  <si>
+    <t>[MWh] Size of a single storage unit - used for integer investments (lumped investments), minimum loads and start-up costs. If not given, assumed from the existing storage capacity.</t>
+  </si>
+  <si>
+    <t>Choice of startup method (no_startup, linear, binary). Linear startup means that the unit can start partially (anything between 0 and full capacity) but will face startup cost as well as minimum load limit based on the capacity started up. Binary startup means that the unit is either off or fully on, but it is computationally more demanding than linearized startups.</t>
+  </si>
+  <si>
+    <t>Not functional yet. Choice between minimum up- and downtimes (&lt;empty&gt;, min_downtime, min_uptime, both).</t>
+  </si>
+  <si>
+    <t>[0-1] Minimum load of the unit. Applies only if the unit has an online variable. With linear startups, it is the share of capacity started up. Constant or time.</t>
+  </si>
+  <si>
+    <t>[factor] Coefficient to scale the output from a unit to a particular node. Can be used e.g. to change unit of measurement or to remove the flow by using zero as the coefficient (the flow variable can still be used in user constraints). Constant.</t>
+  </si>
+  <si>
+    <t>Choice of ramp method. 'ramp_limit' poses a limit on the speed of ramp. 'ramp_cost' poses a cost on ramping the flow (NOT FUNCTIONAL AS OF 19.3.2023).</t>
+  </si>
+  <si>
+    <t>[per unit / minute] Maximum ramp down speed. Constant.</t>
+  </si>
+  <si>
+    <t>[per unit / minute] Maximum ramp up speed. Constant.</t>
   </si>
 </sst>
 </file>
@@ -3320,74 +3320,74 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="46" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="B1" s="46" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="C1" s="46" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="43" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="B2" s="43"/>
       <c r="C2" s="43"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="43" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="B3" s="43"/>
       <c r="C3" s="43"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="43" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="B4" s="43"/>
       <c r="C4" s="43"/>
       <c r="E4" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="43" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="B5" s="43"/>
       <c r="C5" s="43"/>
       <c r="E5" s="5" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="43" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="B6" s="43"/>
       <c r="C6" s="43"/>
       <c r="E6" s="5" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="29" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="B7" s="30"/>
       <c r="C7" s="29" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="43" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="B8" s="43"/>
       <c r="C8" s="43"/>
@@ -3397,65 +3397,65 @@
       <c r="B9" s="27"/>
       <c r="C9" s="27"/>
       <c r="E9" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="31" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="B10" s="31" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="C10" s="31" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="31" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="B11" s="31" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="C11" s="32"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="44" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="B12" s="44"/>
       <c r="C12" s="44"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="31" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="B13" s="31" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="C13" s="31" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="31" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="B14" s="31" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="C14" s="31" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="31" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="B15" s="32"/>
       <c r="C15" s="31" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -3467,26 +3467,26 @@
       <c r="A17" s="39"/>
       <c r="B17" s="39"/>
       <c r="C17" s="40" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="45" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="B18" s="45"/>
       <c r="C18" s="45"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="45" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="B19" s="45"/>
       <c r="C19" s="45"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="45" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="B20" s="45"/>
       <c r="C20" s="45"/>
@@ -3498,45 +3498,45 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="34" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="B22" s="34" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="C22" s="34"/>
       <c r="D22" s="28"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="41" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="B23" s="41"/>
       <c r="C23" s="41"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="41" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="B24" s="41"/>
       <c r="C24" s="41"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="41" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="B25" s="41"/>
       <c r="C25" s="41"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="41" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="B26" s="41"/>
       <c r="C26" s="41"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="41" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="B27" s="41"/>
       <c r="C27" s="41"/>
@@ -3548,65 +3548,65 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="42" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="B29" s="42"/>
       <c r="C29" s="42"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="35" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="B30" s="36"/>
       <c r="C30" s="35" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="42" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="B31" s="42"/>
       <c r="C31" s="42"/>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="48" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="B33" s="48"/>
       <c r="C33" s="48"/>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="48" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="B34" s="48"/>
       <c r="C34" s="48"/>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="48" t="s">
-        <v>428</v>
+        <v>419</v>
       </c>
       <c r="B35" s="48"/>
       <c r="C35" s="48"/>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="48" t="s">
-        <v>424</v>
+        <v>415</v>
       </c>
       <c r="B36" s="48"/>
       <c r="C36" s="48"/>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="48" t="s">
-        <v>425</v>
+        <v>416</v>
       </c>
       <c r="B37" s="48"/>
       <c r="C37" s="48"/>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="48" t="s">
-        <v>426</v>
+        <v>417</v>
       </c>
       <c r="B38" s="48"/>
       <c r="C38" s="48"/>
@@ -3670,10 +3670,10 @@
   <dimension ref="A1:AE9"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="O3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
+      <selection pane="bottomRight" activeCell="AE1" sqref="AE1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3711,47 +3711,47 @@
   <sheetData>
     <row r="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A1" s="37" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="D1" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="E1" t="s">
-        <v>477</v>
+        <v>481</v>
       </c>
       <c r="F1" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="G1" t="s">
-        <v>456</v>
+        <v>482</v>
       </c>
       <c r="H1" t="s">
-        <v>454</v>
+        <v>445</v>
       </c>
       <c r="I1" t="s">
-        <v>445</v>
+        <v>436</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>437</v>
+        <v>428</v>
       </c>
       <c r="K1" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="L1" t="s">
-        <v>475</v>
+        <v>465</v>
       </c>
       <c r="M1" t="s">
-        <v>476</v>
+        <v>466</v>
       </c>
       <c r="N1" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="O1" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
       <c r="P1" t="s">
         <v>66</v>
@@ -3760,25 +3760,25 @@
         <v>69</v>
       </c>
       <c r="R1" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="S1" t="s">
         <v>70</v>
       </c>
       <c r="T1" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="U1" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="V1" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="W1" t="s">
         <v>20</v>
       </c>
       <c r="X1" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="Y1" t="s">
         <v>23</v>
@@ -3787,19 +3787,19 @@
         <v>71</v>
       </c>
       <c r="AA1" t="s">
+        <v>422</v>
+      </c>
+      <c r="AB1" s="5" t="s">
+        <v>424</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>425</v>
+      </c>
+      <c r="AD1" t="s">
         <v>431</v>
       </c>
-      <c r="AB1" s="5" t="s">
-        <v>433</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>434</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>440</v>
-      </c>
       <c r="AE1" t="s">
-        <v>72</v>
+        <v>483</v>
       </c>
     </row>
     <row r="2" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3810,28 +3810,28 @@
         <v>57</v>
       </c>
       <c r="C2" s="24" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="D2" s="9" t="s">
         <v>59</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>446</v>
+        <v>437</v>
       </c>
       <c r="G2" s="9" t="s">
         <v>11</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>429</v>
+        <v>420</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>435</v>
+        <v>426</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>436</v>
+        <v>427</v>
       </c>
       <c r="K2" s="9" t="s">
         <v>60</v>
@@ -3840,7 +3840,7 @@
         <v>58</v>
       </c>
       <c r="M2" s="9" t="s">
-        <v>479</v>
+        <v>468</v>
       </c>
       <c r="N2" s="9" t="s">
         <v>61</v>
@@ -3861,13 +3861,13 @@
         <v>14</v>
       </c>
       <c r="T2" s="9" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="U2" s="9" t="s">
         <v>7</v>
       </c>
       <c r="V2" s="24" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="W2" s="9" t="s">
         <v>6</v>
@@ -3882,16 +3882,16 @@
         <v>63</v>
       </c>
       <c r="AA2" s="9" t="s">
+        <v>421</v>
+      </c>
+      <c r="AB2" s="9" t="s">
+        <v>423</v>
+      </c>
+      <c r="AC2" s="9" t="s">
+        <v>429</v>
+      </c>
+      <c r="AD2" s="9" t="s">
         <v>430</v>
-      </c>
-      <c r="AB2" s="9" t="s">
-        <v>432</v>
-      </c>
-      <c r="AC2" s="9" t="s">
-        <v>438</v>
-      </c>
-      <c r="AD2" s="9" t="s">
-        <v>439</v>
       </c>
       <c r="AE2" s="9" t="s">
         <v>64</v>
@@ -3902,20 +3902,20 @@
         <v>28</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="E3" s="14" t="s">
-        <v>478</v>
+        <v>467</v>
       </c>
       <c r="F3" s="14"/>
       <c r="G3" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="N3">
         <v>10000</v>
@@ -3929,20 +3929,20 @@
         <v>28</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="E4" s="14" t="s">
-        <v>395</v>
+        <v>388</v>
       </c>
       <c r="F4" s="14"/>
       <c r="G4" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="L4">
         <f>100*8760</f>
@@ -3960,13 +3960,13 @@
         <v>28</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="G5" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="N5">
         <v>10000</v>
@@ -3980,13 +3980,13 @@
         <v>28</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="G6" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="N6">
         <v>10000</v>
@@ -3997,31 +3997,31 @@
     </row>
     <row r="7" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="D7" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="F7" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="G7" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="H7" t="s">
-        <v>444</v>
+        <v>435</v>
       </c>
       <c r="I7" t="s">
-        <v>441</v>
+        <v>432</v>
       </c>
       <c r="J7" t="s">
-        <v>442</v>
+        <v>433</v>
       </c>
       <c r="N7">
         <v>12000</v>
@@ -4044,28 +4044,28 @@
     </row>
     <row r="8" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>396</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>403</v>
-      </c>
       <c r="C8" s="14" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="D8" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="F8" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="G8" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="H8" t="s">
-        <v>469</v>
+        <v>459</v>
       </c>
       <c r="I8" t="s">
-        <v>441</v>
+        <v>432</v>
       </c>
       <c r="N8">
         <v>12000</v>
@@ -4082,13 +4082,13 @@
     </row>
     <row r="9" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="G9" t="s">
-        <v>455</v>
+        <v>446</v>
       </c>
       <c r="Q9">
         <v>800</v>
@@ -4145,7 +4145,7 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="37" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -4153,7 +4153,7 @@
         <v>65</v>
       </c>
       <c r="E1" t="s">
-        <v>476</v>
+        <v>466</v>
       </c>
       <c r="F1" t="s">
         <v>67</v>
@@ -4162,19 +4162,19 @@
         <v>68</v>
       </c>
       <c r="H1" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="I1" t="s">
-        <v>366</v>
+        <v>359</v>
       </c>
       <c r="J1" t="s">
-        <v>367</v>
+        <v>360</v>
       </c>
       <c r="K1" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="L1" t="s">
-        <v>368</v>
+        <v>361</v>
       </c>
       <c r="M1" t="s">
         <v>20</v>
@@ -4183,7 +4183,7 @@
         <v>23</v>
       </c>
       <c r="O1" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4200,7 +4200,7 @@
         <v>58</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>479</v>
+        <v>468</v>
       </c>
       <c r="F2" s="9" t="s">
         <v>8</v>
@@ -4215,13 +4215,13 @@
         <v>13</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="K2" s="9" t="s">
         <v>7</v>
       </c>
       <c r="L2" s="24" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="M2" s="9" t="s">
         <v>6</v>
@@ -4238,10 +4238,10 @@
         <v>28</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D3">
         <f>250*8760*0.9</f>
@@ -4256,10 +4256,10 @@
         <v>28</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D4">
         <f>250*8760*1</f>
@@ -4274,10 +4274,10 @@
         <v>28</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="D5">
         <f>250*8760*1.1</f>
@@ -4316,7 +4316,7 @@
   <sheetData>
     <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="37" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="B1" s="8" t="s">
         <v>1</v>
@@ -4331,7 +4331,7 @@
     <row r="2" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
       <c r="B2" s="15" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="C2" s="9" t="s">
         <v>60</v>
@@ -4348,10 +4348,10 @@
         <v>57</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -4379,7 +4379,7 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -4390,7 +4390,7 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -4401,7 +4401,7 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C8">
         <v>-100</v>
@@ -4412,7 +4412,7 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C9">
         <v>-100</v>
@@ -4423,7 +4423,7 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C10">
         <v>-100</v>
@@ -4434,7 +4434,7 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C11">
         <v>-100</v>
@@ -4445,7 +4445,7 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C12">
         <v>-200</v>
@@ -4456,7 +4456,7 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C13">
         <v>-200</v>
@@ -4467,7 +4467,7 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C14">
         <v>-200</v>
@@ -4478,7 +4478,7 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C15">
         <v>-200</v>
@@ -4489,7 +4489,7 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C16">
         <v>-300</v>
@@ -4500,7 +4500,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C17">
         <v>-300</v>
@@ -4511,7 +4511,7 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C18">
         <v>-300</v>
@@ -4522,7 +4522,7 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C19">
         <v>-300</v>
@@ -4533,7 +4533,7 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C20">
         <v>-400</v>
@@ -4544,7 +4544,7 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C21">
         <v>-400</v>
@@ -4555,7 +4555,7 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C22">
         <v>-400</v>
@@ -4566,7 +4566,7 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C23">
         <v>-400</v>
@@ -4577,7 +4577,7 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C24">
         <v>-500</v>
@@ -4588,7 +4588,7 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C25">
         <v>-500</v>
@@ -4599,7 +4599,7 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C26">
         <v>-500</v>
@@ -4610,7 +4610,7 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C27">
         <v>-500</v>
@@ -4649,14 +4649,14 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="37" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="B1"/>
       <c r="C1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D1" t="s">
-        <v>369</v>
+        <v>362</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -4670,7 +4670,7 @@
         <v>2</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -4678,7 +4678,7 @@
         <v>28</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="C3">
         <v>0.34</v>
@@ -4692,7 +4692,7 @@
         <v>28</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="C4">
         <v>0.2</v>
@@ -4727,12 +4727,12 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="37" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="B1"/>
       <c r="C1"/>
       <c r="D1" t="s">
-        <v>370</v>
+        <v>363</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -4746,7 +4746,7 @@
         <v>32</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -4754,10 +4754,10 @@
         <v>28</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D3">
         <v>20</v>
@@ -4768,10 +4768,10 @@
         <v>28</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D4">
         <v>21</v>
@@ -4782,10 +4782,10 @@
         <v>28</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="D5">
         <v>22</v>
@@ -4834,18 +4834,18 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
     </row>
   </sheetData>
@@ -4891,28 +4891,28 @@
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A1" s="37" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="B1" s="37"/>
       <c r="C1" s="37"/>
       <c r="D1" s="3"/>
       <c r="E1" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="F1" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="G1" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="H1" t="s">
-        <v>456</v>
+        <v>447</v>
       </c>
       <c r="I1" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="J1" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="K1" t="s">
         <v>19</v>
@@ -4921,19 +4921,19 @@
         <v>22</v>
       </c>
       <c r="M1" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="N1" t="s">
         <v>25</v>
       </c>
       <c r="O1" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="P1" t="s">
-        <v>371</v>
+        <v>364</v>
       </c>
       <c r="Q1" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="R1" t="s">
         <v>20</v>
@@ -4942,16 +4942,16 @@
         <v>23</v>
       </c>
       <c r="T1" t="s">
-        <v>373</v>
+        <v>366</v>
       </c>
       <c r="U1" t="s">
-        <v>474</v>
+        <v>464</v>
       </c>
       <c r="V1" t="s">
         <v>18</v>
       </c>
       <c r="W1" t="s">
-        <v>450</v>
+        <v>441</v>
       </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
@@ -4962,13 +4962,13 @@
         <v>26</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="E2" s="24" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="F2" s="9" t="s">
         <v>17</v>
@@ -4980,7 +4980,7 @@
         <v>11</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="J2" s="9" t="s">
         <v>15</v>
@@ -4998,13 +4998,13 @@
         <v>14</v>
       </c>
       <c r="O2" s="9" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="P2" s="9" t="s">
         <v>7</v>
       </c>
       <c r="Q2" s="9" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="R2" s="9" t="s">
         <v>6</v>
@@ -5016,7 +5016,7 @@
         <v>5</v>
       </c>
       <c r="U2" s="9" t="s">
-        <v>471</v>
+        <v>461</v>
       </c>
       <c r="V2" s="9" t="s">
         <v>3</v>
@@ -5033,25 +5033,25 @@
         <v>31</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="E3" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="F3" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="G3" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="H3" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="I3" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="K3">
         <v>100</v>
@@ -5059,28 +5059,28 @@
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="E4" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="F4" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="G4" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="H4" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="K4">
         <v>10</v>
@@ -5091,19 +5091,19 @@
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>31</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="H5" t="s">
-        <v>455</v>
+        <v>446</v>
       </c>
       <c r="L5">
         <v>100</v>
@@ -5123,19 +5123,19 @@
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="H6" t="s">
-        <v>455</v>
+        <v>446</v>
       </c>
       <c r="L6">
         <v>100</v>
@@ -5192,7 +5192,7 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="37" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -5200,19 +5200,19 @@
         <v>21</v>
       </c>
       <c r="E1" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="F1" t="s">
         <v>24</v>
       </c>
       <c r="G1" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="H1" t="s">
-        <v>371</v>
+        <v>364</v>
       </c>
       <c r="I1" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="J1" t="s">
         <v>20</v>
@@ -5221,10 +5221,10 @@
         <v>23</v>
       </c>
       <c r="L1" t="s">
-        <v>373</v>
+        <v>366</v>
       </c>
       <c r="M1" t="s">
-        <v>474</v>
+        <v>464</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
@@ -5247,13 +5247,13 @@
         <v>13</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="H2" s="9" t="s">
         <v>7</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="J2" s="9" t="s">
         <v>6</v>
@@ -5265,7 +5265,7 @@
         <v>5</v>
       </c>
       <c r="M2" s="9" t="s">
-        <v>471</v>
+        <v>461</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
@@ -5276,7 +5276,7 @@
         <v>31</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D3">
         <v>50</v>
@@ -5290,7 +5290,7 @@
         <v>31</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D4">
         <v>150</v>
@@ -5304,7 +5304,7 @@
         <v>31</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="D5">
         <v>150</v>
@@ -5339,7 +5339,7 @@
   <sheetData>
     <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="37" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="B1" s="8" t="s">
         <v>1</v>
@@ -5351,7 +5351,7 @@
     <row r="2" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
       <c r="B2" s="15" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="C2" s="9" t="s">
         <v>3</v>
@@ -5387,7 +5387,7 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C6">
         <v>0.99</v>
@@ -5395,7 +5395,7 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C7">
         <v>0.99</v>
@@ -5403,7 +5403,7 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C8">
         <v>0.99</v>
@@ -5411,7 +5411,7 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C9">
         <v>0.99</v>
@@ -5419,7 +5419,7 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C10">
         <v>0.99</v>
@@ -5427,7 +5427,7 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C11">
         <v>0.99</v>
@@ -5435,7 +5435,7 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C12">
         <v>0.99</v>
@@ -5443,7 +5443,7 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C13">
         <v>0.99</v>
@@ -5451,7 +5451,7 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C14">
         <v>0.99</v>
@@ -5459,7 +5459,7 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C15">
         <v>0.99</v>
@@ -5467,7 +5467,7 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C16">
         <v>0.99</v>
@@ -5475,7 +5475,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C17">
         <v>0.99</v>
@@ -5483,7 +5483,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C18">
         <v>0.99</v>
@@ -5491,7 +5491,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C19">
         <v>0.99</v>
@@ -5499,7 +5499,7 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C20">
         <v>0.99</v>
@@ -5507,7 +5507,7 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C21">
         <v>0.99</v>
@@ -5515,7 +5515,7 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C22">
         <v>0.99</v>
@@ -5523,7 +5523,7 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C23">
         <v>0.99</v>
@@ -5531,7 +5531,7 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C24">
         <v>0.99</v>
@@ -5539,7 +5539,7 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C25">
         <v>0.99</v>
@@ -5547,7 +5547,7 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C26">
         <v>0.99</v>
@@ -5555,7 +5555,7 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C27">
         <v>0.99</v>
@@ -5579,7 +5579,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G1" sqref="G1:G3"/>
+      <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5611,23 +5611,23 @@
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1" s="37" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="D1" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="E1" t="s">
-        <v>178</v>
+        <v>484</v>
       </c>
       <c r="F1" t="s">
-        <v>182</v>
+        <v>485</v>
       </c>
       <c r="G1" t="s">
-        <v>456</v>
+        <v>447</v>
       </c>
       <c r="H1" t="s">
         <v>19</v>
@@ -5636,19 +5636,19 @@
         <v>22</v>
       </c>
       <c r="J1" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="K1" t="s">
         <v>25</v>
       </c>
       <c r="L1" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="M1" t="s">
-        <v>374</v>
+        <v>367</v>
       </c>
       <c r="N1" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="O1" t="s">
         <v>20</v>
@@ -5657,28 +5657,28 @@
         <v>23</v>
       </c>
       <c r="Q1" t="s">
-        <v>373</v>
+        <v>366</v>
       </c>
       <c r="R1" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="S1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="T1" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="U1" t="s">
-        <v>311</v>
+        <v>486</v>
       </c>
       <c r="V1" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="W1" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="X1" t="s">
-        <v>406</v>
+        <v>398</v>
       </c>
     </row>
     <row r="2" spans="1:24" s="23" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -5686,19 +5686,19 @@
         <v>1</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C2" s="24" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="D2" s="24" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E2" s="24" t="s">
         <v>16</v>
       </c>
       <c r="F2" s="24" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G2" s="24" t="s">
         <v>11</v>
@@ -5716,13 +5716,13 @@
         <v>14</v>
       </c>
       <c r="L2" s="24" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="M2" s="24" t="s">
         <v>7</v>
       </c>
       <c r="N2" s="24" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="O2" s="24" t="s">
         <v>6</v>
@@ -5740,16 +5740,16 @@
         <v>3</v>
       </c>
       <c r="T2" s="24" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="U2" s="24" t="s">
+        <v>112</v>
+      </c>
+      <c r="V2" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="W2" s="24" t="s">
         <v>113</v>
-      </c>
-      <c r="V2" s="24" t="s">
-        <v>112</v>
-      </c>
-      <c r="W2" s="24" t="s">
-        <v>114</v>
       </c>
       <c r="X2" s="24" t="s">
         <v>64</v>
@@ -5760,20 +5760,20 @@
         <v>28</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="C3" s="47" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="D3" s="47" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="E3" s="47" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="F3" s="47"/>
       <c r="G3" s="47" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="H3">
         <v>100</v>
@@ -5800,20 +5800,20 @@
         <v>28</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="C4" s="47" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="D4" s="47" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="E4" s="47" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="F4" s="47"/>
       <c r="G4" s="47" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="H4">
         <v>100</v>
@@ -5827,20 +5827,20 @@
         <v>28</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="C5" s="47" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="D5" s="47" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="E5" s="47" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="F5" s="47"/>
       <c r="G5" s="47" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="H5">
         <v>200</v>
@@ -5854,33 +5854,33 @@
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="G6" s="47" t="s">
-        <v>457</v>
+        <v>448</v>
       </c>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>397</v>
+        <v>390</v>
       </c>
       <c r="C7" s="47" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="D7" s="47" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="E7" s="47" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="G7" s="47" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="H7">
         <v>10</v>
@@ -5901,9 +5901,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4446509C-CB62-4FDB-A8D2-BE0D15E8AAF2}">
   <dimension ref="A1:D38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A39" sqref="A39"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -5914,511 +5912,511 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="B3" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="C3" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="D3" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="B4" s="25">
         <v>44594</v>
       </c>
       <c r="C4" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="D4" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="B5" s="25">
         <v>44595</v>
       </c>
       <c r="C5" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="D5" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="B6" s="25">
         <v>44600</v>
       </c>
       <c r="C6" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="D6" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="B7" s="25">
         <v>44602</v>
       </c>
       <c r="C7" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="D7" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="B8" s="25">
         <v>44602</v>
       </c>
       <c r="C8" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="D8" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="B9" s="25">
         <v>44602</v>
       </c>
       <c r="C9" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="D9" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="B10" s="25">
         <v>44602</v>
       </c>
       <c r="C10" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="D10" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="B11" s="25">
         <v>44603</v>
       </c>
       <c r="C11" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="D11" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="B12" s="25">
         <v>44605</v>
       </c>
       <c r="C12" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="D12" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="B13" s="25">
         <v>44605</v>
       </c>
       <c r="C13" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="D13" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="B14" s="25">
         <v>44605</v>
       </c>
       <c r="C14" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="D14" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="B15" s="25">
         <v>44635</v>
       </c>
       <c r="C15" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="D15" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="B16" s="25">
         <v>44643</v>
       </c>
       <c r="C16" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="D16" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="B17" s="25">
         <v>44643</v>
       </c>
       <c r="C17" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="D17" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="B18" s="25">
         <v>44643</v>
       </c>
       <c r="C18" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="D18" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="B19" s="25">
         <v>44656</v>
       </c>
       <c r="C19" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="D19" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="B20" s="25">
         <v>44657</v>
       </c>
       <c r="C20" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="D20" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="B21" s="25">
         <v>44657</v>
       </c>
       <c r="C21" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="D21" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="B22" s="25">
         <v>44680</v>
       </c>
       <c r="C22" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="D22" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="B23" s="25">
         <v>44680</v>
       </c>
       <c r="C23" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="D23" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="B24" s="25">
         <v>44690</v>
       </c>
       <c r="C24" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="D24" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
-        <v>379</v>
+        <v>372</v>
       </c>
       <c r="B25" s="25">
         <v>44695</v>
       </c>
       <c r="C25" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="D25" t="s">
-        <v>380</v>
+        <v>373</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="B26" s="25">
         <v>44701</v>
       </c>
       <c r="C26" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="D26" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
-        <v>390</v>
+        <v>383</v>
       </c>
       <c r="B27" s="25">
         <v>44701</v>
       </c>
       <c r="C27" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="D27" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
-        <v>401</v>
+        <v>394</v>
       </c>
       <c r="B28" s="25">
         <v>44712</v>
       </c>
       <c r="C28" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="D28" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
-        <v>411</v>
+        <v>402</v>
       </c>
       <c r="B29" s="25">
         <v>44727</v>
       </c>
       <c r="C29" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="D29" t="s">
-        <v>412</v>
+        <v>403</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
-        <v>413</v>
+        <v>404</v>
       </c>
       <c r="B30" s="25">
         <v>44734</v>
       </c>
       <c r="C30" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="D30" t="s">
-        <v>414</v>
+        <v>405</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
-        <v>427</v>
+        <v>418</v>
       </c>
       <c r="B31" s="25">
         <v>44741</v>
       </c>
       <c r="C31" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="D31" t="s">
-        <v>447</v>
+        <v>438</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
-        <v>448</v>
+        <v>439</v>
       </c>
       <c r="B32" s="25">
         <v>44840</v>
       </c>
       <c r="C32" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="D32" t="s">
-        <v>449</v>
+        <v>440</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
-        <v>452</v>
+        <v>443</v>
       </c>
       <c r="B33" s="25">
         <v>44850</v>
       </c>
       <c r="C33" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="D33" t="s">
-        <v>451</v>
+        <v>442</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
-        <v>458</v>
+        <v>449</v>
       </c>
       <c r="B34" s="25">
         <v>44875</v>
       </c>
       <c r="C34" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="D34" t="s">
-        <v>459</v>
+        <v>450</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
-        <v>460</v>
+        <v>451</v>
       </c>
       <c r="B35" s="25">
         <v>44876</v>
       </c>
       <c r="C35" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="D35" t="s">
-        <v>461</v>
+        <v>452</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
-        <v>470</v>
+        <v>460</v>
       </c>
       <c r="B36" s="25">
         <v>44889</v>
       </c>
       <c r="C36" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="D36" t="s">
-        <v>473</v>
+        <v>463</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
-        <v>480</v>
+        <v>469</v>
       </c>
       <c r="B37" s="25">
         <v>44893</v>
       </c>
       <c r="C37" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="D37" t="s">
-        <v>481</v>
+        <v>470</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
-        <v>482</v>
+        <v>471</v>
       </c>
       <c r="B38" s="25">
         <v>44903</v>
       </c>
       <c r="C38" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="D38" t="s">
-        <v>483</v>
+        <v>472</v>
       </c>
     </row>
   </sheetData>
@@ -6435,7 +6433,7 @@
       <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D2" sqref="D2"/>
+      <selection pane="bottomRight" activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6457,7 +6455,7 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="37" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -6465,19 +6463,19 @@
         <v>21</v>
       </c>
       <c r="E1" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="F1" t="s">
         <v>24</v>
       </c>
       <c r="G1" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="H1" t="s">
-        <v>374</v>
+        <v>367</v>
       </c>
       <c r="I1" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="J1" t="s">
         <v>20</v>
@@ -6486,10 +6484,10 @@
         <v>23</v>
       </c>
       <c r="L1" t="s">
-        <v>373</v>
+        <v>366</v>
       </c>
       <c r="M1" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6497,7 +6495,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>32</v>
@@ -6512,13 +6510,13 @@
         <v>13</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="H2" s="9" t="s">
         <v>7</v>
       </c>
       <c r="I2" s="24" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="J2" s="9" t="s">
         <v>6</v>
@@ -6538,10 +6536,10 @@
         <v>28</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D3">
         <v>75</v>
@@ -6552,10 +6550,10 @@
         <v>28</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D4">
         <v>75</v>
@@ -6566,10 +6564,10 @@
         <v>28</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="D5">
         <v>75</v>
@@ -6604,7 +6602,7 @@
   <sheetData>
     <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="37" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="B1" s="8" t="s">
         <v>1</v>
@@ -6616,7 +6614,7 @@
     <row r="2" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
       <c r="B2" s="15" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="C2" s="9" t="s">
         <v>3</v>
@@ -6627,10 +6625,10 @@
         <v>27</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -6652,7 +6650,7 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C6">
         <v>0.5</v>
@@ -6660,7 +6658,7 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C7">
         <v>0.5</v>
@@ -6668,7 +6666,7 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C8">
         <v>0.5</v>
@@ -6676,7 +6674,7 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C9">
         <v>0.5</v>
@@ -6684,7 +6682,7 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C10">
         <v>0.5</v>
@@ -6692,7 +6690,7 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C11">
         <v>0.5</v>
@@ -6700,7 +6698,7 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C12">
         <v>0.5</v>
@@ -6708,7 +6706,7 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C13">
         <v>0.5</v>
@@ -6716,7 +6714,7 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C14">
         <v>0.5</v>
@@ -6724,7 +6722,7 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C15">
         <v>0.5</v>
@@ -6732,7 +6730,7 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C16">
         <v>0.5</v>
@@ -6740,7 +6738,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C17">
         <v>0.5</v>
@@ -6748,7 +6746,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C18">
         <v>0.5</v>
@@ -6756,7 +6754,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C19">
         <v>0.5</v>
@@ -6764,7 +6762,7 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C20">
         <v>0.5</v>
@@ -6772,7 +6770,7 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C21">
         <v>0.5</v>
@@ -6780,7 +6778,7 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C22">
         <v>0.5</v>
@@ -6788,7 +6786,7 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C23">
         <v>0.5</v>
@@ -6796,7 +6794,7 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C24">
         <v>0.5</v>
@@ -6804,7 +6802,7 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C25">
         <v>0.5</v>
@@ -6812,7 +6810,7 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C26">
         <v>0.5</v>
@@ -6820,7 +6818,7 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C27">
         <v>0.5</v>
@@ -6838,9 +6836,9 @@
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C13F0C3-2BD2-4859-9713-8823A445C2E8}">
-  <dimension ref="A1:R10"/>
+  <dimension ref="A1:Q10"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="4" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
@@ -6861,128 +6859,121 @@
     <col min="10" max="10" width="10.42578125" customWidth="1"/>
     <col min="11" max="11" width="18.28515625" customWidth="1"/>
     <col min="12" max="12" width="16" customWidth="1"/>
-    <col min="13" max="13" width="21.140625" customWidth="1"/>
-    <col min="14" max="14" width="7.85546875" customWidth="1"/>
-    <col min="15" max="15" width="8.28515625" customWidth="1"/>
+    <col min="13" max="13" width="7.85546875" customWidth="1"/>
+    <col min="14" max="14" width="8.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="37" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
       <c r="E1" t="s">
-        <v>141</v>
+        <v>487</v>
       </c>
       <c r="F1" t="s">
-        <v>472</v>
+        <v>462</v>
       </c>
       <c r="G1" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="H1" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="I1" t="s">
-        <v>118</v>
+        <v>488</v>
       </c>
       <c r="J1" t="s">
-        <v>376</v>
+        <v>369</v>
       </c>
       <c r="K1" t="s">
-        <v>120</v>
+        <v>489</v>
       </c>
       <c r="L1" t="s">
-        <v>122</v>
-      </c>
-      <c r="M1" t="s">
-        <v>407</v>
-      </c>
+        <v>490</v>
+      </c>
+      <c r="O1" s="3"/>
       <c r="P1" s="3"/>
       <c r="Q1" s="3"/>
-      <c r="R1" s="3"/>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>57</v>
       </c>
       <c r="D2" s="19" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>471</v>
+        <v>461</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I2" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="J2" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="K2" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="J2" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="K2" s="9" t="s">
-        <v>119</v>
-      </c>
       <c r="L2" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="M2" s="9" t="s">
-        <v>405</v>
-      </c>
+        <v>118</v>
+      </c>
+      <c r="O2" s="3"/>
       <c r="P2" s="3"/>
       <c r="Q2" s="3"/>
-      <c r="R2" s="3"/>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="D3" s="20" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="I3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="J3">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="D4" s="20" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -6991,35 +6982,35 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="D5" s="20" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="D6" s="20" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -7028,72 +7019,72 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="D7" s="20" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="E7">
         <v>1</v>
       </c>
       <c r="G7" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>397</v>
+        <v>390</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="D8" s="20" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="E8">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>397</v>
+        <v>390</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="D9" s="20" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="C10" s="4" t="s">
         <v>396</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>397</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>403</v>
-      </c>
       <c r="D10" s="20" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -7128,7 +7119,7 @@
   <sheetData>
     <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="37" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="B1" s="8" t="s">
         <v>1</v>
@@ -7140,19 +7131,19 @@
     <row r="2" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
       <c r="B2" s="15" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>471</v>
+        <v>461</v>
       </c>
     </row>
     <row r="3" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
       <c r="B3" s="6" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
     </row>
     <row r="4" spans="1:11" s="18" customFormat="1" x14ac:dyDescent="0.25">
@@ -7161,7 +7152,7 @@
         <v>57</v>
       </c>
       <c r="C4" s="18" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
     </row>
     <row r="5" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.25">
@@ -7169,10 +7160,10 @@
         <v>27</v>
       </c>
       <c r="B5" s="19" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="C5" s="20" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -7194,7 +7185,7 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C8">
         <v>5</v>
@@ -7202,7 +7193,7 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C9">
         <v>5</v>
@@ -7210,7 +7201,7 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C10">
         <v>5</v>
@@ -7218,7 +7209,7 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C11">
         <v>5</v>
@@ -7226,7 +7217,7 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C12">
         <v>5</v>
@@ -7234,7 +7225,7 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C13">
         <v>5</v>
@@ -7242,7 +7233,7 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C14">
         <v>5</v>
@@ -7250,7 +7241,7 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C15">
         <v>5</v>
@@ -7258,7 +7249,7 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C16">
         <v>5</v>
@@ -7266,7 +7257,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C17">
         <v>5</v>
@@ -7274,7 +7265,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C18">
         <v>5</v>
@@ -7282,7 +7273,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C19">
         <v>5</v>
@@ -7290,7 +7281,7 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C20">
         <v>5</v>
@@ -7298,7 +7289,7 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C21">
         <v>5</v>
@@ -7306,7 +7297,7 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C22">
         <v>5</v>
@@ -7314,7 +7305,7 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C23">
         <v>5</v>
@@ -7322,7 +7313,7 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C24">
         <v>5</v>
@@ -7330,7 +7321,7 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C25">
         <v>5</v>
@@ -7338,7 +7329,7 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C26">
         <v>5</v>
@@ -7346,7 +7337,7 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C27">
         <v>5</v>
@@ -7354,7 +7345,7 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C28">
         <v>5</v>
@@ -7362,7 +7353,7 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C29">
         <v>5</v>
@@ -7397,7 +7388,7 @@
   <sheetData>
     <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="B1" s="8" t="s">
         <v>1</v>
@@ -7412,7 +7403,7 @@
         <v>28</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
     </row>
     <row r="2" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -7420,19 +7411,19 @@
         <v>27</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>272</v>
-      </c>
       <c r="F2" s="2" t="s">
-        <v>404</v>
+        <v>397</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -7471,7 +7462,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C5">
         <v>0.25</v>
@@ -7488,7 +7479,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -7505,7 +7496,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -7522,7 +7513,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C8">
         <v>0.75</v>
@@ -7539,7 +7530,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C9">
         <v>0.25</v>
@@ -7556,7 +7547,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -7573,7 +7564,7 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -7590,7 +7581,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C12">
         <v>0.75</v>
@@ -7607,7 +7598,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C13">
         <v>0.25</v>
@@ -7624,7 +7615,7 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -7641,7 +7632,7 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C15">
         <v>1</v>
@@ -7658,7 +7649,7 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C16">
         <v>0.75</v>
@@ -7675,7 +7666,7 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C17">
         <v>0.25</v>
@@ -7692,7 +7683,7 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C18">
         <v>0</v>
@@ -7709,7 +7700,7 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C19">
         <v>1</v>
@@ -7726,7 +7717,7 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C20">
         <v>0.75</v>
@@ -7743,7 +7734,7 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C21">
         <v>0.25</v>
@@ -7760,7 +7751,7 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C22">
         <v>0</v>
@@ -7777,7 +7768,7 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C23">
         <v>1</v>
@@ -7794,7 +7785,7 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C24">
         <v>0.75</v>
@@ -7811,7 +7802,7 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C25">
         <v>0.25</v>
@@ -7828,7 +7819,7 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C26">
         <v>0</v>
@@ -7871,12 +7862,12 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="37" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
       <c r="D1" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -7887,10 +7878,10 @@
         <v>57</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
@@ -7904,13 +7895,13 @@
         <v>28</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="D3" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
     </row>
   </sheetData>
@@ -7943,12 +7934,12 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="37" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
       <c r="D1" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -7959,10 +7950,10 @@
         <v>26</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
@@ -7979,10 +7970,10 @@
         <v>31</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="D3" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
     </row>
   </sheetData>
@@ -8016,13 +8007,13 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="37" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
       <c r="E1" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -8030,16 +8021,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C2" s="11" t="s">
         <v>57</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
@@ -8053,16 +8044,16 @@
         <v>28</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="C3" s="18" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="E3" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -8070,16 +8061,16 @@
         <v>28</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="C4" s="18" t="s">
+        <v>396</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>397</v>
       </c>
-      <c r="C4" s="18" t="s">
-        <v>403</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>404</v>
-      </c>
       <c r="E4" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
     </row>
   </sheetData>
@@ -8129,11 +8120,11 @@
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" s="37" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="D1" t="s">
         <v>40</v>
@@ -8142,7 +8133,7 @@
         <v>36</v>
       </c>
       <c r="F1" t="s">
-        <v>410</v>
+        <v>401</v>
       </c>
       <c r="G1" t="s">
         <v>42</v>
@@ -8151,7 +8142,7 @@
         <v>46</v>
       </c>
       <c r="I1" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="J1" t="s">
         <v>44</v>
@@ -8160,19 +8151,19 @@
         <v>54</v>
       </c>
       <c r="L1" t="s">
-        <v>409</v>
+        <v>400</v>
       </c>
       <c r="M1" t="s">
-        <v>489</v>
+        <v>478</v>
       </c>
       <c r="N1" t="s">
         <v>38</v>
       </c>
       <c r="O1" t="s">
-        <v>484</v>
+        <v>473</v>
       </c>
       <c r="P1" t="s">
-        <v>456</v>
+        <v>447</v>
       </c>
       <c r="Q1" t="s">
         <v>48</v>
@@ -8181,16 +8172,16 @@
         <v>52</v>
       </c>
       <c r="S1" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="T1" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="U1" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="V1" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.25">
@@ -8201,7 +8192,7 @@
         <v>56</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="D2" s="9" t="s">
         <v>39</v>
@@ -8210,7 +8201,7 @@
         <v>35</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>408</v>
+        <v>399</v>
       </c>
       <c r="G2" s="9" t="s">
         <v>41</v>
@@ -8228,16 +8219,16 @@
         <v>53</v>
       </c>
       <c r="L2" s="9" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="M2" s="9" t="s">
-        <v>485</v>
+        <v>474</v>
       </c>
       <c r="N2" s="9" t="s">
         <v>37</v>
       </c>
       <c r="O2" s="9" t="s">
-        <v>486</v>
+        <v>475</v>
       </c>
       <c r="P2" s="24" t="s">
         <v>11</v>
@@ -8249,16 +8240,16 @@
         <v>51</v>
       </c>
       <c r="S2" s="9" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="T2" s="9" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="U2" s="9" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="V2" s="9" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
@@ -8266,7 +8257,7 @@
         <v>28</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="E3">
         <v>10</v>
@@ -8278,7 +8269,7 @@
         <v>28</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="H4">
         <v>200</v>
@@ -8295,24 +8286,24 @@
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="G5" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="J5" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="S6">
         <v>40</v>
@@ -8326,10 +8317,10 @@
         <v>28</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="C7" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
     </row>
   </sheetData>
@@ -8369,7 +8360,7 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="37" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -8386,7 +8377,7 @@
         <v>38</v>
       </c>
       <c r="H1" t="s">
-        <v>487</v>
+        <v>476</v>
       </c>
       <c r="I1" t="s">
         <v>47</v>
@@ -8395,16 +8386,16 @@
         <v>50</v>
       </c>
       <c r="K1" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="L1" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="M1" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="N1" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
@@ -8430,7 +8421,7 @@
         <v>37</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>488</v>
+        <v>477</v>
       </c>
       <c r="I2" s="9" t="s">
         <v>9</v>
@@ -8439,16 +8430,16 @@
         <v>49</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="L2" s="9" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="M2" s="9" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="N2" s="9" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
@@ -8456,10 +8447,10 @@
         <v>28</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G3">
         <v>20</v>
@@ -8470,10 +8461,10 @@
         <v>28</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G4">
         <v>20</v>
@@ -8484,10 +8475,10 @@
         <v>28</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="G5">
         <v>20</v>
@@ -8509,7 +8500,7 @@
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="L5" sqref="L5"/>
+      <selection pane="bottomRight" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8520,10 +8511,10 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="37" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="B1" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -8532,42 +8523,42 @@
         <v>28</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>381</v>
+        <v>374</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>382</v>
+        <v>375</v>
       </c>
       <c r="K2" s="6" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="L2" s="6" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
       <c r="M2" s="6" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="B3" s="14" t="s">
         <v>28</v>
@@ -8608,94 +8599,94 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="B4" s="14"/>
       <c r="C4" s="14" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="E4" s="14" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="F4" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="G4" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="H4" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="I4" t="s">
-        <v>381</v>
+        <v>374</v>
       </c>
       <c r="J4" t="s">
-        <v>381</v>
+        <v>374</v>
       </c>
       <c r="K4" t="s">
-        <v>381</v>
+        <v>374</v>
       </c>
       <c r="L4" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="M4" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="B5" s="14"/>
       <c r="G5" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="J5" t="s">
-        <v>382</v>
+        <v>375</v>
       </c>
       <c r="K5" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="L5" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="B6" s="14"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="B7" s="14"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="B8" s="14"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="B9" s="14"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="B10" s="14"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="B11" s="14"/>
     </row>
@@ -8822,42 +8813,42 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>
@@ -8886,7 +8877,7 @@
         <v>56</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
@@ -8925,7 +8916,7 @@
         <v>56</v>
       </c>
       <c r="B1" s="38" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C1" s="10" t="s">
         <v>57</v>
@@ -8942,24 +8933,24 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>
@@ -8996,26 +8987,26 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="37" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
       <c r="F1" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="G1" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="H1" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="I1" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="J1" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="K1" s="3"/>
       <c r="L1" s="3"/>
@@ -9029,10 +9020,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="D2" s="10" t="s">
         <v>26</v>
@@ -9041,19 +9032,19 @@
         <v>57</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="K2" s="3"/>
       <c r="L2" s="3"/>
@@ -9064,22 +9055,22 @@
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="D3" s="11" t="s">
         <v>31</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="F3" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -9122,22 +9113,22 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="37" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
       <c r="E1" t="s">
-        <v>443</v>
+        <v>434</v>
       </c>
       <c r="F1" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="G1" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
       <c r="H1" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="J1" s="3"/>
       <c r="K1" s="3"/>
@@ -9151,25 +9142,25 @@
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="D2" s="10" t="s">
         <v>56</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
@@ -9180,19 +9171,19 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>381</v>
+        <v>374</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="E3" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="F3">
         <v>50</v>
@@ -9233,7 +9224,7 @@
   <sheetData>
     <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="37" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="B1" s="8" t="s">
         <v>1</v>
@@ -9242,13 +9233,13 @@
     <row r="2" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
       <c r="B2" s="6" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="3" spans="1:11" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
       <c r="B3" s="11" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="4" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.25">
@@ -9262,7 +9253,7 @@
         <v>27</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -9278,114 +9269,114 @@
     </row>
     <row r="8" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B8" s="17"/>
     </row>
     <row r="9" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B9" s="17"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -9425,26 +9416,26 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="37" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
       <c r="F1" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="G1" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="H1" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="I1" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="J1" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="K1" s="3"/>
       <c r="L1" s="3"/>
@@ -9458,31 +9449,31 @@
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="E2" s="12" t="s">
         <v>57</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="K2" s="3"/>
       <c r="L2" s="3"/>
@@ -9493,22 +9484,22 @@
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>381</v>
+        <v>374</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="F3" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="I3">
         <v>0.5</v>
@@ -9519,22 +9510,22 @@
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>382</v>
+        <v>375</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="F4" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -9545,22 +9536,22 @@
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>382</v>
+        <v>375</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="F5" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="I5">
         <v>0.01</v>
@@ -9571,22 +9562,22 @@
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="F6" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="I6">
         <v>0.5</v>
@@ -9597,22 +9588,22 @@
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="F7" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="I7">
         <v>0.01</v>
@@ -9650,15 +9641,15 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="37" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
       <c r="D1" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="E1" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="G1" s="3"/>
       <c r="H1" s="3"/>
@@ -9672,16 +9663,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
@@ -9695,13 +9686,13 @@
         <v>28</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="D3" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -9709,16 +9700,16 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>398</v>
+        <v>391</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>399</v>
+        <v>392</v>
       </c>
       <c r="D4" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -9726,16 +9717,16 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>453</v>
+        <v>444</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>399</v>
+        <v>392</v>
       </c>
       <c r="D5" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -9774,21 +9765,21 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="37" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
       <c r="D1" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="E1" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="F1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -9796,22 +9787,22 @@
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>32</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -9822,19 +9813,19 @@
         <v>33</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D3" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="E3" s="5">
         <v>0</v>
       </c>
       <c r="F3" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="G3" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -9845,136 +9836,136 @@
         <v>33</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D4" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="E4">
         <v>5</v>
       </c>
       <c r="G4" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>33</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D5" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="G5" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>33</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D6" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="E6">
         <v>5</v>
       </c>
       <c r="G6" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D7" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>34</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D8" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="G8" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>34</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="D9" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="E9">
         <v>5</v>
       </c>
       <c r="G9" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D10" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -10015,14 +10006,14 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="37" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="B1"/>
       <c r="C1"/>
       <c r="D1" s="3"/>
       <c r="E1"/>
       <c r="F1" t="s">
-        <v>416</v>
+        <v>407</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -10030,19 +10021,19 @@
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>57</v>
       </c>
       <c r="D2" s="19" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>415</v>
+        <v>406</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -10050,16 +10041,16 @@
         <v>28</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="D3" s="20" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="F3">
         <v>1</v>
@@ -10070,16 +10061,16 @@
         <v>28</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="D4" s="20" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="F4">
         <v>-0.1</v>
@@ -10087,19 +10078,19 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>397</v>
+        <v>390</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="D5" s="20" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>398</v>
+        <v>391</v>
       </c>
       <c r="F5">
         <v>-1</v>
@@ -10107,19 +10098,19 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>397</v>
+        <v>390</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="D6" s="20" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>398</v>
+        <v>391</v>
       </c>
       <c r="F6">
         <v>4</v>
@@ -10156,13 +10147,13 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="37" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="B1"/>
       <c r="C1"/>
       <c r="D1"/>
       <c r="E1" t="s">
-        <v>417</v>
+        <v>408</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -10176,10 +10167,10 @@
         <v>57</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>415</v>
+        <v>406</v>
       </c>
     </row>
   </sheetData>
@@ -10213,15 +10204,15 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="37" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="B1"/>
       <c r="C1"/>
       <c r="D1" t="s">
-        <v>418</v>
+        <v>409</v>
       </c>
       <c r="E1" t="s">
-        <v>419</v>
+        <v>410</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -10232,24 +10223,24 @@
         <v>57</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>420</v>
+        <v>411</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>421</v>
+        <v>412</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>453</v>
+        <v>444</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -10285,12 +10276,12 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="37" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="B1"/>
       <c r="C1"/>
       <c r="D1" t="s">
-        <v>422</v>
+        <v>413</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -10298,13 +10289,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>421</v>
+        <v>412</v>
       </c>
     </row>
   </sheetData>
@@ -10337,12 +10328,12 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="37" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="B1"/>
       <c r="C1"/>
       <c r="D1" t="s">
-        <v>423</v>
+        <v>414</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -10353,21 +10344,21 @@
         <v>26</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>421</v>
+        <v>412</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>453</v>
+        <v>444</v>
       </c>
       <c r="D3">
         <v>-8</v>
@@ -10385,7 +10376,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9640D032-37A5-47CC-8407-C4F7168BB93B}">
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
@@ -10406,23 +10397,23 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="37" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" t="s">
-        <v>389</v>
+        <v>382</v>
       </c>
       <c r="D1" t="s">
-        <v>385</v>
+        <v>378</v>
       </c>
       <c r="E1" t="s">
-        <v>463</v>
+        <v>479</v>
       </c>
       <c r="F1" t="s">
-        <v>490</v>
+        <v>456</v>
       </c>
       <c r="G1" t="s">
-        <v>466</v>
+        <v>480</v>
       </c>
     </row>
     <row r="2" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -10430,22 +10421,22 @@
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>384</v>
+        <v>377</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>464</v>
+        <v>454</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>465</v>
+        <v>455</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>462</v>
+        <v>453</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -10456,158 +10447,158 @@
         <v>33</v>
       </c>
       <c r="C3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D3" t="s">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="E3" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>468</v>
+        <v>458</v>
       </c>
       <c r="G3" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>33</v>
       </c>
       <c r="C4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D4" t="s">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="E4" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>468</v>
+        <v>458</v>
       </c>
       <c r="G4" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="C5" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="D5" t="s">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="E5" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>468</v>
+        <v>458</v>
       </c>
       <c r="G5" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>34</v>
       </c>
       <c r="C6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D6" t="s">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="E6" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>468</v>
+        <v>458</v>
       </c>
       <c r="G6" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="C7" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="D7" t="s">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="E7" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>468</v>
+        <v>458</v>
       </c>
       <c r="G7" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D8" t="s">
-        <v>394</v>
+        <v>387</v>
       </c>
       <c r="F8" s="5"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="D9" t="s">
-        <v>394</v>
+        <v>387</v>
       </c>
       <c r="F9" s="5"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>34</v>
       </c>
       <c r="D10" t="s">
-        <v>394</v>
+        <v>387</v>
       </c>
       <c r="F10" s="5"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="D11" t="s">
-        <v>394</v>
+        <v>387</v>
       </c>
       <c r="F11" s="5"/>
     </row>
@@ -10642,12 +10633,12 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="37" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
       <c r="D1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -10655,13 +10646,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -10669,7 +10660,7 @@
         <v>28</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>29</v>
@@ -10683,7 +10674,7 @@
         <v>28</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>29</v>
@@ -10723,12 +10714,12 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="37" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
       <c r="D1" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
     </row>
     <row r="2" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -10736,13 +10727,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -10750,7 +10741,7 @@
         <v>28</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>29</v>
@@ -10764,7 +10755,7 @@
         <v>28</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>30</v>
@@ -10778,10 +10769,10 @@
         <v>28</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -10792,10 +10783,10 @@
         <v>28</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -10806,10 +10797,10 @@
         <v>28</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -10820,10 +10811,10 @@
         <v>28</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D8">
         <v>1</v>
@@ -10834,10 +10825,10 @@
         <v>28</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D9">
         <v>1</v>
@@ -10848,10 +10839,10 @@
         <v>28</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D10">
         <v>1</v>
@@ -10862,10 +10853,10 @@
         <v>28</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D11">
         <v>1</v>
@@ -10876,10 +10867,10 @@
         <v>28</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D12">
         <v>1</v>
@@ -10890,10 +10881,10 @@
         <v>28</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D13">
         <v>1</v>
@@ -10904,10 +10895,10 @@
         <v>28</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D14">
         <v>1</v>
@@ -10918,10 +10909,10 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D15">
         <v>1</v>
@@ -10932,10 +10923,10 @@
         <v>28</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D16">
         <v>1</v>
@@ -10946,10 +10937,10 @@
         <v>28</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D17">
         <v>1</v>
@@ -10960,10 +10951,10 @@
         <v>28</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D18">
         <v>1</v>
@@ -10974,10 +10965,10 @@
         <v>28</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D19">
         <v>1</v>
@@ -10988,10 +10979,10 @@
         <v>28</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D20">
         <v>1</v>
@@ -11002,10 +10993,10 @@
         <v>28</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D21">
         <v>1</v>
@@ -11016,10 +11007,10 @@
         <v>28</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D22">
         <v>1</v>
@@ -11030,10 +11021,10 @@
         <v>28</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D23">
         <v>1</v>
@@ -11044,10 +11035,10 @@
         <v>28</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D24">
         <v>1</v>
@@ -11058,10 +11049,10 @@
         <v>28</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D25">
         <v>1</v>
@@ -11072,10 +11063,10 @@
         <v>28</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D26">
         <v>1</v>
@@ -11114,11 +11105,11 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="37" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="2" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -11126,10 +11117,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -11137,7 +11128,7 @@
         <v>28</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C3">
         <f>24/8760</f>
@@ -11171,26 +11162,26 @@
   <sheetData>
     <row r="1" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>

--- a/FlexTool_import_template.xlsx
+++ b/FlexTool_import_template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\data\Toolbox_projects\FlexTool3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8DAFF5E-FB37-4108-BC0D-71AABEC78529}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7DA6E7C-D936-4CC2-B994-20A6733E8C81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="30360" windowHeight="21000" tabRatio="1000" firstSheet="3" activeTab="21" xr2:uid="{D5BEC09F-8FA9-46E6-8F36-396DCDACE376}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="30360" windowHeight="21000" tabRatio="1000" firstSheet="25" activeTab="37" xr2:uid="{D5BEC09F-8FA9-46E6-8F36-396DCDACE376}"/>
   </bookViews>
   <sheets>
     <sheet name="navigate" sheetId="54" r:id="rId1"/>
@@ -205,7 +205,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1387" uniqueCount="491">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1387" uniqueCount="492">
   <si>
     <t>commodity</t>
   </si>
@@ -261,9 +261,6 @@
     <t>transfer_method</t>
   </si>
   <si>
-    <t>[factor] Efficiency of a connection. Constant or time.</t>
-  </si>
-  <si>
     <t>[MW] Existing capacity. Constant.</t>
   </si>
   <si>
@@ -579,9 +576,6 @@
     <t>increase_reserve_ratio</t>
   </si>
   <si>
-    <t>[factor] The reserve is increased by generation from this unit multiplied this ratio. Constant.</t>
-  </si>
-  <si>
     <t>large_failure_ratio</t>
   </si>
   <si>
@@ -729,9 +723,6 @@
     <t>Choice of startup method (no_startup, linear, binary).</t>
   </si>
   <si>
-    <t>A flag whether the connection is DC. If empty, then not true. Use 'yes' to indicate true.</t>
-  </si>
-  <si>
     <t>A flag whether the node has a balance constraint. If empty, then not true. Use 'yes' to indicate true.</t>
   </si>
   <si>
@@ -1678,6 +1669,18 @@
   </si>
   <si>
     <t>[per unit / minute] Maximum ramp up speed. Constant.</t>
+  </si>
+  <si>
+    <t>[factor, typically between 0-1] Efficiency of a connection. Constant or time.</t>
+  </si>
+  <si>
+    <t>A flag whether the connection is DC (the flow will not be counted as synchronous if there is a non_synchronous_limit). Use 'yes' to indicate the connection is DC or leave empty.</t>
+  </si>
+  <si>
+    <t>[factor] The reserve requirement is increased by the flow from the connection to the node multiplied by this ratio. Constant.</t>
+  </si>
+  <si>
+    <t>[factor] The reserve requirement is increased by generation from the unit to the node multiplied by this ratio. Constant.</t>
   </si>
 </sst>
 </file>
@@ -3320,74 +3323,74 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="46" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="B1" s="46" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="C1" s="46" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="43" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B2" s="43"/>
       <c r="C2" s="43"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="43" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="B3" s="43"/>
       <c r="C3" s="43"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="43" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="B4" s="43"/>
       <c r="C4" s="43"/>
       <c r="E4" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="43" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="B5" s="43"/>
       <c r="C5" s="43"/>
       <c r="E5" s="5" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="43" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="B6" s="43"/>
       <c r="C6" s="43"/>
       <c r="E6" s="5" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="29" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="B7" s="30"/>
       <c r="C7" s="29" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="43" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="B8" s="43"/>
       <c r="C8" s="43"/>
@@ -3397,65 +3400,65 @@
       <c r="B9" s="27"/>
       <c r="C9" s="27"/>
       <c r="E9" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="31" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="B10" s="31" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C10" s="31" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="31" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="B11" s="31" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="C11" s="32"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="44" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="B12" s="44"/>
       <c r="C12" s="44"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="31" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B13" s="31" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C13" s="31" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="31" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="B14" s="31" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="C14" s="31" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="31" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="B15" s="32"/>
       <c r="C15" s="31" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -3467,26 +3470,26 @@
       <c r="A17" s="39"/>
       <c r="B17" s="39"/>
       <c r="C17" s="40" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="45" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="B18" s="45"/>
       <c r="C18" s="45"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="45" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="B19" s="45"/>
       <c r="C19" s="45"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="45" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="B20" s="45"/>
       <c r="C20" s="45"/>
@@ -3498,45 +3501,45 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="34" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="B22" s="34" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C22" s="34"/>
       <c r="D22" s="28"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="41" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="B23" s="41"/>
       <c r="C23" s="41"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="41" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="B24" s="41"/>
       <c r="C24" s="41"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="41" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="B25" s="41"/>
       <c r="C25" s="41"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="41" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="B26" s="41"/>
       <c r="C26" s="41"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="41" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="B27" s="41"/>
       <c r="C27" s="41"/>
@@ -3548,65 +3551,65 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="42" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="B29" s="42"/>
       <c r="C29" s="42"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="35" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="B30" s="36"/>
       <c r="C30" s="35" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="42" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="B31" s="42"/>
       <c r="C31" s="42"/>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="48" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B33" s="48"/>
       <c r="C33" s="48"/>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="48" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B34" s="48"/>
       <c r="C34" s="48"/>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="48" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="B35" s="48"/>
       <c r="C35" s="48"/>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="48" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="B36" s="48"/>
       <c r="C36" s="48"/>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="48" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="B37" s="48"/>
       <c r="C37" s="48"/>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="48" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="B38" s="48"/>
       <c r="C38" s="48"/>
@@ -3711,95 +3714,95 @@
   <sheetData>
     <row r="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A1" s="37" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="D1" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="E1" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="F1" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="G1" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="H1" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="I1" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="J1" s="5" t="s">
+        <v>425</v>
+      </c>
+      <c r="K1" t="s">
+        <v>161</v>
+      </c>
+      <c r="L1" t="s">
+        <v>462</v>
+      </c>
+      <c r="M1" t="s">
+        <v>463</v>
+      </c>
+      <c r="N1" t="s">
+        <v>351</v>
+      </c>
+      <c r="O1" t="s">
+        <v>352</v>
+      </c>
+      <c r="P1" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>68</v>
+      </c>
+      <c r="R1" t="s">
+        <v>287</v>
+      </c>
+      <c r="S1" t="s">
+        <v>69</v>
+      </c>
+      <c r="T1" t="s">
+        <v>288</v>
+      </c>
+      <c r="U1" t="s">
+        <v>353</v>
+      </c>
+      <c r="V1" t="s">
+        <v>354</v>
+      </c>
+      <c r="W1" t="s">
+        <v>19</v>
+      </c>
+      <c r="X1" t="s">
+        <v>355</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>419</v>
+      </c>
+      <c r="AB1" s="5" t="s">
+        <v>421</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>422</v>
+      </c>
+      <c r="AD1" t="s">
         <v>428</v>
       </c>
-      <c r="K1" t="s">
-        <v>163</v>
-      </c>
-      <c r="L1" t="s">
-        <v>465</v>
-      </c>
-      <c r="M1" t="s">
-        <v>466</v>
-      </c>
-      <c r="N1" t="s">
-        <v>354</v>
-      </c>
-      <c r="O1" t="s">
-        <v>355</v>
-      </c>
-      <c r="P1" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>69</v>
-      </c>
-      <c r="R1" t="s">
-        <v>290</v>
-      </c>
-      <c r="S1" t="s">
-        <v>70</v>
-      </c>
-      <c r="T1" t="s">
-        <v>291</v>
-      </c>
-      <c r="U1" t="s">
-        <v>356</v>
-      </c>
-      <c r="V1" t="s">
-        <v>357</v>
-      </c>
-      <c r="W1" t="s">
-        <v>20</v>
-      </c>
-      <c r="X1" t="s">
-        <v>358</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>23</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>71</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>422</v>
-      </c>
-      <c r="AB1" s="5" t="s">
-        <v>424</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>425</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>431</v>
-      </c>
       <c r="AE1" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
     </row>
     <row r="2" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3807,46 +3810,46 @@
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C2" s="24" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="G2" s="9" t="s">
         <v>11</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="K2" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="L2" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="M2" s="9" t="s">
+        <v>465</v>
+      </c>
+      <c r="N2" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="L2" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="M2" s="9" t="s">
-        <v>468</v>
-      </c>
-      <c r="N2" s="9" t="s">
+      <c r="O2" s="9" t="s">
         <v>61</v>
-      </c>
-      <c r="O2" s="9" t="s">
-        <v>62</v>
       </c>
       <c r="P2" s="9" t="s">
         <v>4</v>
@@ -3855,19 +3858,19 @@
         <v>10</v>
       </c>
       <c r="R2" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="S2" s="9" t="s">
         <v>14</v>
       </c>
       <c r="T2" s="9" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="U2" s="9" t="s">
         <v>7</v>
       </c>
       <c r="V2" s="24" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="W2" s="9" t="s">
         <v>6</v>
@@ -3879,43 +3882,43 @@
         <v>12</v>
       </c>
       <c r="Z2" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="AA2" s="9" t="s">
+        <v>418</v>
+      </c>
+      <c r="AB2" s="9" t="s">
+        <v>420</v>
+      </c>
+      <c r="AC2" s="9" t="s">
+        <v>426</v>
+      </c>
+      <c r="AD2" s="9" t="s">
+        <v>427</v>
+      </c>
+      <c r="AE2" s="9" t="s">
         <v>63</v>
-      </c>
-      <c r="AA2" s="9" t="s">
-        <v>421</v>
-      </c>
-      <c r="AB2" s="9" t="s">
-        <v>423</v>
-      </c>
-      <c r="AC2" s="9" t="s">
-        <v>429</v>
-      </c>
-      <c r="AD2" s="9" t="s">
-        <v>430</v>
-      </c>
-      <c r="AE2" s="9" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E3" s="14" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="F3" s="14"/>
       <c r="G3" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="N3">
         <v>10000</v>
@@ -3926,23 +3929,23 @@
     </row>
     <row r="4" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E4" s="14" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="F4" s="14"/>
       <c r="G4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="L4">
         <f>100*8760</f>
@@ -3957,16 +3960,16 @@
     </row>
     <row r="5" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G5" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="N5">
         <v>10000</v>
@@ -3977,16 +3980,16 @@
     </row>
     <row r="6" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G6" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="N6">
         <v>10000</v>
@@ -3997,31 +4000,31 @@
     </row>
     <row r="7" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D7" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F7" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G7" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="H7" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="I7" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="J7" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="N7">
         <v>12000</v>
@@ -4044,28 +4047,28 @@
     </row>
     <row r="8" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D8" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F8" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G8" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="H8" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="I8" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="N8">
         <v>12000</v>
@@ -4082,13 +4085,13 @@
     </row>
     <row r="9" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="G9" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="Q9">
         <v>800</v>
@@ -4145,45 +4148,45 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="37" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
       <c r="D1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E1" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="F1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G1" t="s">
         <v>67</v>
       </c>
-      <c r="G1" t="s">
-        <v>68</v>
-      </c>
       <c r="H1" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="I1" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="J1" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="K1" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="L1" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="M1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="N1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="O1" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4191,16 +4194,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="C2" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>58</v>
-      </c>
       <c r="E2" s="9" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="F2" s="9" t="s">
         <v>8</v>
@@ -4209,19 +4212,19 @@
         <v>9</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I2" s="9" t="s">
         <v>13</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="K2" s="9" t="s">
         <v>7</v>
       </c>
       <c r="L2" s="24" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="M2" s="9" t="s">
         <v>6</v>
@@ -4235,13 +4238,13 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D3">
         <f>250*8760*0.9</f>
@@ -4253,13 +4256,13 @@
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D4">
         <f>250*8760*1</f>
@@ -4271,13 +4274,13 @@
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="D5">
         <f>250*8760*1.1</f>
@@ -4316,47 +4319,47 @@
   <sheetData>
     <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="37" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
       <c r="B2" s="15" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -4367,7 +4370,7 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -4379,7 +4382,7 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -4390,7 +4393,7 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -4401,7 +4404,7 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C8">
         <v>-100</v>
@@ -4412,7 +4415,7 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C9">
         <v>-100</v>
@@ -4423,7 +4426,7 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C10">
         <v>-100</v>
@@ -4434,7 +4437,7 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C11">
         <v>-100</v>
@@ -4445,7 +4448,7 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C12">
         <v>-200</v>
@@ -4456,7 +4459,7 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C13">
         <v>-200</v>
@@ -4467,7 +4470,7 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C14">
         <v>-200</v>
@@ -4478,7 +4481,7 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C15">
         <v>-200</v>
@@ -4489,7 +4492,7 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C16">
         <v>-300</v>
@@ -4500,7 +4503,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C17">
         <v>-300</v>
@@ -4511,7 +4514,7 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C18">
         <v>-300</v>
@@ -4522,7 +4525,7 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C19">
         <v>-300</v>
@@ -4533,7 +4536,7 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C20">
         <v>-400</v>
@@ -4544,7 +4547,7 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C21">
         <v>-400</v>
@@ -4555,7 +4558,7 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C22">
         <v>-400</v>
@@ -4566,7 +4569,7 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C23">
         <v>-400</v>
@@ -4577,7 +4580,7 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C24">
         <v>-500</v>
@@ -4588,7 +4591,7 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C25">
         <v>-500</v>
@@ -4599,7 +4602,7 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C26">
         <v>-500</v>
@@ -4610,7 +4613,7 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C27">
         <v>-500</v>
@@ -4649,14 +4652,14 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="37" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="B1"/>
       <c r="C1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D1" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -4670,15 +4673,15 @@
         <v>2</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C3">
         <v>0.34</v>
@@ -4689,10 +4692,10 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C4">
         <v>0.2</v>
@@ -4727,12 +4730,12 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="37" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="B1"/>
       <c r="C1"/>
       <c r="D1" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -4743,21 +4746,21 @@
         <v>0</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D3">
         <v>20</v>
@@ -4765,13 +4768,13 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D4">
         <v>21</v>
@@ -4779,13 +4782,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="D5">
         <v>22</v>
@@ -4820,7 +4823,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
@@ -4834,18 +4837,18 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
   </sheetData>
@@ -4861,7 +4864,7 @@
       <pane xSplit="4" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E3" sqref="E3"/>
+      <selection pane="bottomRight" activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4891,67 +4894,67 @@
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A1" s="37" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="B1" s="37"/>
       <c r="C1" s="37"/>
       <c r="D1" s="3"/>
       <c r="E1" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="F1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="G1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="H1" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="I1" t="s">
-        <v>174</v>
+        <v>489</v>
       </c>
       <c r="J1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="K1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L1" t="s">
+        <v>21</v>
+      </c>
+      <c r="M1" t="s">
+        <v>290</v>
+      </c>
+      <c r="N1" t="s">
+        <v>24</v>
+      </c>
+      <c r="O1" t="s">
+        <v>291</v>
+      </c>
+      <c r="P1" t="s">
+        <v>361</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>362</v>
+      </c>
+      <c r="R1" t="s">
         <v>19</v>
       </c>
-      <c r="L1" t="s">
+      <c r="S1" t="s">
         <v>22</v>
       </c>
-      <c r="M1" t="s">
-        <v>293</v>
-      </c>
-      <c r="N1" t="s">
-        <v>25</v>
-      </c>
-      <c r="O1" t="s">
-        <v>294</v>
-      </c>
-      <c r="P1" t="s">
-        <v>364</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>365</v>
-      </c>
-      <c r="R1" t="s">
-        <v>20</v>
-      </c>
-      <c r="S1" t="s">
-        <v>23</v>
-      </c>
       <c r="T1" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="U1" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="V1" t="s">
-        <v>18</v>
+        <v>488</v>
       </c>
       <c r="W1" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
@@ -4959,16 +4962,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="E2" s="24" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="F2" s="9" t="s">
         <v>17</v>
@@ -4980,7 +4983,7 @@
         <v>11</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="J2" s="9" t="s">
         <v>15</v>
@@ -4992,19 +4995,19 @@
         <v>10</v>
       </c>
       <c r="M2" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="N2" s="9" t="s">
         <v>14</v>
       </c>
       <c r="O2" s="9" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="P2" s="9" t="s">
         <v>7</v>
       </c>
       <c r="Q2" s="9" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="R2" s="9" t="s">
         <v>6</v>
@@ -5016,42 +5019,42 @@
         <v>5</v>
       </c>
       <c r="U2" s="9" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="V2" s="9" t="s">
         <v>3</v>
       </c>
       <c r="W2" s="24" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E3" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="G3" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="H3" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="I3" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="K3">
         <v>100</v>
@@ -5059,28 +5062,28 @@
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="E4" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F4" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="G4" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="H4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="K4">
         <v>10</v>
@@ -5091,19 +5094,19 @@
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="H5" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="L5">
         <v>100</v>
@@ -5123,19 +5126,19 @@
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="H6" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="L6">
         <v>100</v>
@@ -5192,39 +5195,39 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="37" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
       <c r="D1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E1" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="F1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G1" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="H1" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="I1" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="J1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L1" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="M1" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
@@ -5232,28 +5235,28 @@
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D2" s="9" t="s">
         <v>9</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F2" s="9" t="s">
         <v>13</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="H2" s="9" t="s">
         <v>7</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="J2" s="9" t="s">
         <v>6</v>
@@ -5265,18 +5268,18 @@
         <v>5</v>
       </c>
       <c r="M2" s="9" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D3">
         <v>50</v>
@@ -5284,13 +5287,13 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D4">
         <v>150</v>
@@ -5298,13 +5301,13 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="D5">
         <v>150</v>
@@ -5339,19 +5342,19 @@
   <sheetData>
     <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="37" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
       <c r="B2" s="15" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C2" s="9" t="s">
         <v>3</v>
@@ -5359,18 +5362,18 @@
     </row>
     <row r="3" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C4">
         <v>0.99</v>
@@ -5378,7 +5381,7 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C5">
         <v>0.99</v>
@@ -5387,7 +5390,7 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C6">
         <v>0.99</v>
@@ -5395,7 +5398,7 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C7">
         <v>0.99</v>
@@ -5403,7 +5406,7 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C8">
         <v>0.99</v>
@@ -5411,7 +5414,7 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C9">
         <v>0.99</v>
@@ -5419,7 +5422,7 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C10">
         <v>0.99</v>
@@ -5427,7 +5430,7 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C11">
         <v>0.99</v>
@@ -5435,7 +5438,7 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C12">
         <v>0.99</v>
@@ -5443,7 +5446,7 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C13">
         <v>0.99</v>
@@ -5451,7 +5454,7 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C14">
         <v>0.99</v>
@@ -5459,7 +5462,7 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C15">
         <v>0.99</v>
@@ -5467,7 +5470,7 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C16">
         <v>0.99</v>
@@ -5475,7 +5478,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C17">
         <v>0.99</v>
@@ -5483,7 +5486,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C18">
         <v>0.99</v>
@@ -5491,7 +5494,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C19">
         <v>0.99</v>
@@ -5499,7 +5502,7 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C20">
         <v>0.99</v>
@@ -5507,7 +5510,7 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C21">
         <v>0.99</v>
@@ -5515,7 +5518,7 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C22">
         <v>0.99</v>
@@ -5523,7 +5526,7 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C23">
         <v>0.99</v>
@@ -5531,7 +5534,7 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C24">
         <v>0.99</v>
@@ -5539,7 +5542,7 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C25">
         <v>0.99</v>
@@ -5547,7 +5550,7 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C26">
         <v>0.99</v>
@@ -5555,7 +5558,7 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C27">
         <v>0.99</v>
@@ -5611,74 +5614,74 @@
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1" s="37" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="D1" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="E1" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="F1" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="G1" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="H1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J1" t="s">
+        <v>290</v>
+      </c>
+      <c r="K1" t="s">
+        <v>24</v>
+      </c>
+      <c r="L1" t="s">
+        <v>291</v>
+      </c>
+      <c r="M1" t="s">
+        <v>364</v>
+      </c>
+      <c r="N1" t="s">
+        <v>365</v>
+      </c>
+      <c r="O1" t="s">
         <v>19</v>
       </c>
-      <c r="I1" t="s">
+      <c r="P1" t="s">
         <v>22</v>
       </c>
-      <c r="J1" t="s">
-        <v>293</v>
-      </c>
-      <c r="K1" t="s">
-        <v>25</v>
-      </c>
-      <c r="L1" t="s">
-        <v>294</v>
-      </c>
-      <c r="M1" t="s">
-        <v>367</v>
-      </c>
-      <c r="N1" t="s">
-        <v>368</v>
-      </c>
-      <c r="O1" t="s">
-        <v>20</v>
-      </c>
-      <c r="P1" t="s">
-        <v>23</v>
-      </c>
       <c r="Q1" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="R1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="S1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="T1" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="U1" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="V1" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="W1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="X1" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
     </row>
     <row r="2" spans="1:24" s="23" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -5686,19 +5689,19 @@
         <v>1</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C2" s="24" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="D2" s="24" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E2" s="24" t="s">
         <v>16</v>
       </c>
       <c r="F2" s="24" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G2" s="24" t="s">
         <v>11</v>
@@ -5710,19 +5713,19 @@
         <v>10</v>
       </c>
       <c r="J2" s="24" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K2" s="24" t="s">
         <v>14</v>
       </c>
       <c r="L2" s="24" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="M2" s="24" t="s">
         <v>7</v>
       </c>
       <c r="N2" s="24" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="O2" s="24" t="s">
         <v>6</v>
@@ -5740,40 +5743,40 @@
         <v>3</v>
       </c>
       <c r="T2" s="24" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="U2" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="V2" s="24" t="s">
+        <v>110</v>
+      </c>
+      <c r="W2" s="24" t="s">
         <v>112</v>
       </c>
-      <c r="V2" s="24" t="s">
-        <v>111</v>
-      </c>
-      <c r="W2" s="24" t="s">
-        <v>113</v>
-      </c>
       <c r="X2" s="24" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C3" s="47" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D3" s="47" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="E3" s="47" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F3" s="47"/>
       <c r="G3" s="47" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="H3">
         <v>100</v>
@@ -5797,23 +5800,23 @@
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C4" s="47" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D4" s="47" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="E4" s="47" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F4" s="47"/>
       <c r="G4" s="47" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="H4">
         <v>100</v>
@@ -5824,23 +5827,23 @@
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C5" s="47" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D5" s="47" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="E5" s="47" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="F5" s="47"/>
       <c r="G5" s="47" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="H5">
         <v>200</v>
@@ -5854,33 +5857,33 @@
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G6" s="47" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="C7" s="47" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D7" s="47" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="E7" s="47" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G7" s="47" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="H7">
         <v>10</v>
@@ -5912,511 +5915,511 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>177</v>
+      </c>
+      <c r="B3" t="s">
+        <v>179</v>
+      </c>
+      <c r="C3" t="s">
         <v>180</v>
       </c>
-      <c r="B3" t="s">
+      <c r="D3" t="s">
         <v>182</v>
-      </c>
-      <c r="C3" t="s">
-        <v>183</v>
-      </c>
-      <c r="D3" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B4" s="25">
         <v>44594</v>
       </c>
       <c r="C4" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="D4" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="B5" s="25">
         <v>44595</v>
       </c>
       <c r="C5" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="D5" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B6" s="25">
         <v>44600</v>
       </c>
       <c r="C6" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="D6" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="B7" s="25">
         <v>44602</v>
       </c>
       <c r="C7" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="D7" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="B8" s="25">
         <v>44602</v>
       </c>
       <c r="C8" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="D8" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="B9" s="25">
         <v>44602</v>
       </c>
       <c r="C9" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="D9" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="B10" s="25">
         <v>44602</v>
       </c>
       <c r="C10" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="D10" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="B11" s="25">
         <v>44603</v>
       </c>
       <c r="C11" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="D11" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="B12" s="25">
         <v>44605</v>
       </c>
       <c r="C12" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="D12" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="B13" s="25">
         <v>44605</v>
       </c>
       <c r="C13" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="D13" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="B14" s="25">
         <v>44605</v>
       </c>
       <c r="C14" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="D14" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="B15" s="25">
         <v>44635</v>
       </c>
       <c r="C15" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="D15" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="B16" s="25">
         <v>44643</v>
       </c>
       <c r="C16" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="D16" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="B17" s="25">
         <v>44643</v>
       </c>
       <c r="C17" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="D17" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="B18" s="25">
         <v>44643</v>
       </c>
       <c r="C18" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="D18" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="B19" s="25">
         <v>44656</v>
       </c>
       <c r="C19" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="D19" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="B20" s="25">
         <v>44657</v>
       </c>
       <c r="C20" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="D20" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="B21" s="25">
         <v>44657</v>
       </c>
       <c r="C21" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="D21" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="B22" s="25">
         <v>44680</v>
       </c>
       <c r="C22" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="D22" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="B23" s="25">
         <v>44680</v>
       </c>
       <c r="C23" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="D23" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="B24" s="25">
         <v>44690</v>
       </c>
       <c r="C24" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="D24" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="B25" s="25">
         <v>44695</v>
       </c>
       <c r="C25" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="D25" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="B26" s="25">
         <v>44701</v>
       </c>
       <c r="C26" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="D26" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="B27" s="25">
         <v>44701</v>
       </c>
       <c r="C27" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="D27" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="B28" s="25">
         <v>44712</v>
       </c>
       <c r="C28" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="D28" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="B29" s="25">
         <v>44727</v>
       </c>
       <c r="C29" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="D29" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="B30" s="25">
         <v>44734</v>
       </c>
       <c r="C30" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="D30" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="B31" s="25">
         <v>44741</v>
       </c>
       <c r="C31" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="D31" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="B32" s="25">
         <v>44840</v>
       </c>
       <c r="C32" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="D32" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="B33" s="25">
         <v>44850</v>
       </c>
       <c r="C33" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="D33" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="B34" s="25">
         <v>44875</v>
       </c>
       <c r="C34" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="D34" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="B35" s="25">
         <v>44876</v>
       </c>
       <c r="C35" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="D35" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="B36" s="25">
         <v>44889</v>
       </c>
       <c r="C36" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="D36" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="B37" s="25">
         <v>44893</v>
       </c>
       <c r="C37" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="D37" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="B38" s="25">
         <v>44903</v>
       </c>
       <c r="C38" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="D38" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
     </row>
   </sheetData>
@@ -6455,39 +6458,39 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="37" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
       <c r="D1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E1" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="F1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G1" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="H1" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="I1" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="J1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L1" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="M1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6495,28 +6498,28 @@
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D2" s="9" t="s">
         <v>9</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F2" s="9" t="s">
         <v>13</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="H2" s="9" t="s">
         <v>7</v>
       </c>
       <c r="I2" s="24" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="J2" s="9" t="s">
         <v>6</v>
@@ -6533,13 +6536,13 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D3">
         <v>75</v>
@@ -6547,13 +6550,13 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D4">
         <v>75</v>
@@ -6561,13 +6564,13 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="D5">
         <v>75</v>
@@ -6602,19 +6605,19 @@
   <sheetData>
     <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="37" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
       <c r="B2" s="15" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C2" s="9" t="s">
         <v>3</v>
@@ -6622,18 +6625,18 @@
     </row>
     <row r="3" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C4">
         <v>0.5</v>
@@ -6641,7 +6644,7 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C5">
         <v>0.5</v>
@@ -6650,7 +6653,7 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C6">
         <v>0.5</v>
@@ -6658,7 +6661,7 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C7">
         <v>0.5</v>
@@ -6666,7 +6669,7 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C8">
         <v>0.5</v>
@@ -6674,7 +6677,7 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C9">
         <v>0.5</v>
@@ -6682,7 +6685,7 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C10">
         <v>0.5</v>
@@ -6690,7 +6693,7 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C11">
         <v>0.5</v>
@@ -6698,7 +6701,7 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C12">
         <v>0.5</v>
@@ -6706,7 +6709,7 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C13">
         <v>0.5</v>
@@ -6714,7 +6717,7 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C14">
         <v>0.5</v>
@@ -6722,7 +6725,7 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C15">
         <v>0.5</v>
@@ -6730,7 +6733,7 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C16">
         <v>0.5</v>
@@ -6738,7 +6741,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C17">
         <v>0.5</v>
@@ -6746,7 +6749,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C18">
         <v>0.5</v>
@@ -6754,7 +6757,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C19">
         <v>0.5</v>
@@ -6762,7 +6765,7 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C20">
         <v>0.5</v>
@@ -6770,7 +6773,7 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C21">
         <v>0.5</v>
@@ -6778,7 +6781,7 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C22">
         <v>0.5</v>
@@ -6786,7 +6789,7 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C23">
         <v>0.5</v>
@@ -6794,7 +6797,7 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C24">
         <v>0.5</v>
@@ -6802,7 +6805,7 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C25">
         <v>0.5</v>
@@ -6810,7 +6813,7 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C26">
         <v>0.5</v>
@@ -6818,7 +6821,7 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C27">
         <v>0.5</v>
@@ -6838,7 +6841,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C13F0C3-2BD2-4859-9713-8823A445C2E8}">
   <dimension ref="A1:Q10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="4" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
@@ -6865,34 +6868,34 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="37" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
       <c r="E1" t="s">
+        <v>484</v>
+      </c>
+      <c r="F1" t="s">
+        <v>459</v>
+      </c>
+      <c r="G1" t="s">
+        <v>244</v>
+      </c>
+      <c r="H1" t="s">
+        <v>243</v>
+      </c>
+      <c r="I1" t="s">
+        <v>485</v>
+      </c>
+      <c r="J1" t="s">
+        <v>366</v>
+      </c>
+      <c r="K1" t="s">
+        <v>486</v>
+      </c>
+      <c r="L1" t="s">
         <v>487</v>
-      </c>
-      <c r="F1" t="s">
-        <v>462</v>
-      </c>
-      <c r="G1" t="s">
-        <v>247</v>
-      </c>
-      <c r="H1" t="s">
-        <v>246</v>
-      </c>
-      <c r="I1" t="s">
-        <v>488</v>
-      </c>
-      <c r="J1" t="s">
-        <v>369</v>
-      </c>
-      <c r="K1" t="s">
-        <v>489</v>
-      </c>
-      <c r="L1" t="s">
-        <v>490</v>
       </c>
       <c r="O1" s="3"/>
       <c r="P1" s="3"/>
@@ -6903,37 +6906,37 @@
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D2" s="19" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I2" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="J2" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="K2" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="J2" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="K2" s="9" t="s">
+      <c r="L2" s="9" t="s">
         <v>117</v>
-      </c>
-      <c r="L2" s="9" t="s">
-        <v>118</v>
       </c>
       <c r="O2" s="3"/>
       <c r="P2" s="3"/>
@@ -6941,22 +6944,22 @@
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D3" s="20" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="I3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="J3">
         <v>1</v>
@@ -6964,16 +6967,16 @@
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D4" s="20" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -6984,16 +6987,16 @@
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D5" s="20" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -7001,16 +7004,16 @@
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D6" s="20" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -7021,36 +7024,36 @@
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D7" s="20" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="E7">
         <v>1</v>
       </c>
       <c r="G7" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D8" s="20" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -7058,16 +7061,16 @@
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D9" s="20" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -7075,16 +7078,16 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="D10" s="20" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -7119,56 +7122,56 @@
   <sheetData>
     <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="37" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
       <c r="B2" s="15" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
     </row>
     <row r="3" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
       <c r="B3" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="4" spans="1:11" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
       <c r="B4" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C4" s="18" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="5" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B5" s="19" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="C5" s="20" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C6">
         <v>5</v>
@@ -7176,7 +7179,7 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C7">
         <v>5</v>
@@ -7185,7 +7188,7 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C8">
         <v>5</v>
@@ -7193,7 +7196,7 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C9">
         <v>5</v>
@@ -7201,7 +7204,7 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C10">
         <v>5</v>
@@ -7209,7 +7212,7 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C11">
         <v>5</v>
@@ -7217,7 +7220,7 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C12">
         <v>5</v>
@@ -7225,7 +7228,7 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C13">
         <v>5</v>
@@ -7233,7 +7236,7 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C14">
         <v>5</v>
@@ -7241,7 +7244,7 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C15">
         <v>5</v>
@@ -7249,7 +7252,7 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C16">
         <v>5</v>
@@ -7257,7 +7260,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C17">
         <v>5</v>
@@ -7265,7 +7268,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C18">
         <v>5</v>
@@ -7273,7 +7276,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C19">
         <v>5</v>
@@ -7281,7 +7284,7 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C20">
         <v>5</v>
@@ -7289,7 +7292,7 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C21">
         <v>5</v>
@@ -7297,7 +7300,7 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C22">
         <v>5</v>
@@ -7305,7 +7308,7 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C23">
         <v>5</v>
@@ -7313,7 +7316,7 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C24">
         <v>5</v>
@@ -7321,7 +7324,7 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C25">
         <v>5</v>
@@ -7329,7 +7332,7 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C26">
         <v>5</v>
@@ -7337,7 +7340,7 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C27">
         <v>5</v>
@@ -7345,7 +7348,7 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C28">
         <v>5</v>
@@ -7353,7 +7356,7 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C29">
         <v>5</v>
@@ -7388,47 +7391,47 @@
   <sheetData>
     <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
     </row>
     <row r="2" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -7445,7 +7448,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C4">
         <v>0.75</v>
@@ -7462,7 +7465,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C5">
         <v>0.25</v>
@@ -7479,7 +7482,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -7496,7 +7499,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -7513,7 +7516,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C8">
         <v>0.75</v>
@@ -7530,7 +7533,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C9">
         <v>0.25</v>
@@ -7547,7 +7550,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -7564,7 +7567,7 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -7581,7 +7584,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C12">
         <v>0.75</v>
@@ -7598,7 +7601,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C13">
         <v>0.25</v>
@@ -7615,7 +7618,7 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -7632,7 +7635,7 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C15">
         <v>1</v>
@@ -7649,7 +7652,7 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C16">
         <v>0.75</v>
@@ -7666,7 +7669,7 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C17">
         <v>0.25</v>
@@ -7683,7 +7686,7 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C18">
         <v>0</v>
@@ -7700,7 +7703,7 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C19">
         <v>1</v>
@@ -7717,7 +7720,7 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C20">
         <v>0.75</v>
@@ -7734,7 +7737,7 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C21">
         <v>0.25</v>
@@ -7751,7 +7754,7 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C22">
         <v>0</v>
@@ -7768,7 +7771,7 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C23">
         <v>1</v>
@@ -7785,7 +7788,7 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C24">
         <v>0.75</v>
@@ -7802,7 +7805,7 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C25">
         <v>0.25</v>
@@ -7819,7 +7822,7 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C26">
         <v>0</v>
@@ -7862,12 +7865,12 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="37" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
       <c r="D1" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -7875,13 +7878,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
@@ -7892,16 +7895,16 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="D3" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
   </sheetData>
@@ -7934,12 +7937,12 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="37" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
       <c r="D1" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -7947,13 +7950,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
@@ -7964,16 +7967,16 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="D3" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
   </sheetData>
@@ -8007,13 +8010,13 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="37" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
       <c r="E1" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -8021,16 +8024,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
@@ -8041,36 +8044,36 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C3" s="18" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E3" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="C4" s="18" t="s">
+        <v>393</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>394</v>
+      </c>
+      <c r="E4" t="s">
         <v>390</v>
-      </c>
-      <c r="C4" s="18" t="s">
-        <v>396</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>397</v>
-      </c>
-      <c r="E4" t="s">
-        <v>393</v>
       </c>
     </row>
   </sheetData>
@@ -8089,7 +8092,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="M1" sqref="M1"/>
+      <selection pane="bottomRight" activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8120,68 +8123,68 @@
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" s="37" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" t="s">
+        <v>338</v>
+      </c>
+      <c r="D1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1" t="s">
+        <v>398</v>
+      </c>
+      <c r="G1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I1" t="s">
+        <v>367</v>
+      </c>
+      <c r="J1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K1" t="s">
+        <v>53</v>
+      </c>
+      <c r="L1" t="s">
+        <v>397</v>
+      </c>
+      <c r="M1" t="s">
+        <v>475</v>
+      </c>
+      <c r="N1" t="s">
+        <v>37</v>
+      </c>
+      <c r="O1" t="s">
+        <v>470</v>
+      </c>
+      <c r="P1" t="s">
+        <v>444</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>47</v>
+      </c>
+      <c r="R1" t="s">
+        <v>51</v>
+      </c>
+      <c r="S1" t="s">
+        <v>331</v>
+      </c>
+      <c r="T1" t="s">
+        <v>332</v>
+      </c>
+      <c r="U1" t="s">
         <v>341</v>
       </c>
-      <c r="D1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F1" t="s">
-        <v>401</v>
-      </c>
-      <c r="G1" t="s">
-        <v>42</v>
-      </c>
-      <c r="H1" t="s">
-        <v>46</v>
-      </c>
-      <c r="I1" t="s">
-        <v>370</v>
-      </c>
-      <c r="J1" t="s">
-        <v>44</v>
-      </c>
-      <c r="K1" t="s">
-        <v>54</v>
-      </c>
-      <c r="L1" t="s">
-        <v>400</v>
-      </c>
-      <c r="M1" t="s">
-        <v>478</v>
-      </c>
-      <c r="N1" t="s">
-        <v>38</v>
-      </c>
-      <c r="O1" t="s">
-        <v>473</v>
-      </c>
-      <c r="P1" t="s">
-        <v>447</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>48</v>
-      </c>
-      <c r="R1" t="s">
-        <v>52</v>
-      </c>
-      <c r="S1" t="s">
-        <v>334</v>
-      </c>
-      <c r="T1" t="s">
-        <v>335</v>
-      </c>
-      <c r="U1" t="s">
-        <v>344</v>
-      </c>
       <c r="V1" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.25">
@@ -8189,46 +8192,46 @@
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L2" s="9" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="M2" s="9" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="N2" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="O2" s="9" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="P2" s="24" t="s">
         <v>11</v>
@@ -8237,27 +8240,27 @@
         <v>10</v>
       </c>
       <c r="R2" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="S2" s="9" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="T2" s="9" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="U2" s="9" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="V2" s="9" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E3">
         <v>10</v>
@@ -8266,10 +8269,10 @@
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="H4">
         <v>200</v>
@@ -8286,24 +8289,24 @@
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="G5" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="J5" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="S6">
         <v>40</v>
@@ -8314,13 +8317,13 @@
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="C7" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
   </sheetData>
@@ -8360,42 +8363,42 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="37" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
       <c r="D1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H1" t="s">
+        <v>473</v>
+      </c>
+      <c r="I1" t="s">
         <v>46</v>
       </c>
-      <c r="F1" t="s">
-        <v>54</v>
-      </c>
-      <c r="G1" t="s">
-        <v>38</v>
-      </c>
-      <c r="H1" t="s">
-        <v>476</v>
-      </c>
-      <c r="I1" t="s">
-        <v>47</v>
-      </c>
       <c r="J1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K1" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="L1" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="M1" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="N1" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
@@ -8403,54 +8406,54 @@
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="I2" s="9" t="s">
         <v>9</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="L2" s="9" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="M2" s="9" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="N2" s="9" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G3">
         <v>20</v>
@@ -8458,13 +8461,13 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G4">
         <v>20</v>
@@ -8472,13 +8475,13 @@
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="G5">
         <v>20</v>
@@ -8511,182 +8514,182 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="37" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="B1" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
       <c r="B2" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="K2" s="6" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="L2" s="6" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="M2" s="6" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E3" s="14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F3" s="14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G3" s="14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H3" s="14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I3" s="14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J3" s="14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K3" s="14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L3" s="14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M3" s="14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="B4" s="14"/>
       <c r="C4" s="14" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="E4" s="14" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="F4" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="G4" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="H4" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="I4" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="J4" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="K4" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="L4" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="M4" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="B5" s="14"/>
       <c r="G5" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="J5" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="K5" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="L5" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="B6" s="14"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="B7" s="14"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="B8" s="14"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="B9" s="14"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="B10" s="14"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="B11" s="14"/>
     </row>
@@ -8716,10 +8719,10 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
@@ -8755,13 +8758,13 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="10" t="s">
         <v>56</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C1" s="10" t="s">
-        <v>57</v>
       </c>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
@@ -8796,10 +8799,10 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" s="7" t="s">
         <v>56</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>57</v>
       </c>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
@@ -8813,42 +8816,42 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -8874,10 +8877,10 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
@@ -8913,13 +8916,13 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" s="38" t="s">
+        <v>118</v>
+      </c>
+      <c r="C1" s="10" t="s">
         <v>56</v>
-      </c>
-      <c r="B1" s="38" t="s">
-        <v>119</v>
-      </c>
-      <c r="C1" s="10" t="s">
-        <v>57</v>
       </c>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
@@ -8933,24 +8936,24 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -8969,7 +8972,7 @@
       <pane xSplit="5" ySplit="2" topLeftCell="F3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F3" sqref="F3"/>
+      <selection pane="bottomRight" activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8987,26 +8990,26 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="37" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
       <c r="F1" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="G1" t="s">
-        <v>124</v>
+        <v>490</v>
       </c>
       <c r="H1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="I1" t="s">
+        <v>125</v>
+      </c>
+      <c r="J1" t="s">
         <v>127</v>
-      </c>
-      <c r="J1" t="s">
-        <v>129</v>
       </c>
       <c r="K1" s="3"/>
       <c r="L1" s="3"/>
@@ -9020,31 +9023,31 @@
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="C2" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="D2" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>285</v>
+      </c>
+      <c r="G2" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="D2" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="E2" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="F2" s="9" t="s">
-        <v>288</v>
-      </c>
-      <c r="G2" s="9" t="s">
+      <c r="H2" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="H2" s="9" t="s">
-        <v>125</v>
-      </c>
       <c r="I2" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="J2" s="9" t="s">
         <v>126</v>
-      </c>
-      <c r="J2" s="9" t="s">
-        <v>128</v>
       </c>
       <c r="K2" s="3"/>
       <c r="L2" s="3"/>
@@ -9055,22 +9058,22 @@
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F3" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -9095,7 +9098,7 @@
       <pane xSplit="4" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E3" sqref="E3"/>
+      <selection pane="bottomRight" activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9113,22 +9116,22 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="37" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
       <c r="E1" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="F1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="G1" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="H1" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="J1" s="3"/>
       <c r="K1" s="3"/>
@@ -9142,25 +9145,25 @@
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="C2" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="D2" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="H2" s="9" t="s">
         <v>122</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>133</v>
-      </c>
-      <c r="F2" s="9" t="s">
-        <v>131</v>
-      </c>
-      <c r="G2" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="H2" s="9" t="s">
-        <v>123</v>
       </c>
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
@@ -9171,19 +9174,19 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="E3" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="F3">
         <v>50</v>
@@ -9224,7 +9227,7 @@
   <sheetData>
     <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="37" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="B1" s="8" t="s">
         <v>1</v>
@@ -9233,150 +9236,150 @@
     <row r="2" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
       <c r="B2" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="3" spans="1:11" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
       <c r="B3" s="11" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="4" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
       <c r="B4" s="19" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K7" s="16"/>
     </row>
     <row r="8" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B8" s="17"/>
     </row>
     <row r="9" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B9" s="17"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -9393,11 +9396,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E8C0D5E-7DB2-4BCF-8A8C-24C978AAECC4}">
   <dimension ref="A1:P7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="5" ySplit="2" topLeftCell="F3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F3" sqref="F3"/>
+      <selection pane="bottomRight" activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9416,26 +9419,26 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="37" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
       <c r="F1" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="G1" t="s">
-        <v>124</v>
+        <v>491</v>
       </c>
       <c r="H1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="I1" t="s">
+        <v>125</v>
+      </c>
+      <c r="J1" t="s">
         <v>127</v>
-      </c>
-      <c r="J1" t="s">
-        <v>129</v>
       </c>
       <c r="K1" s="3"/>
       <c r="L1" s="3"/>
@@ -9449,31 +9452,31 @@
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="C2" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="D2" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>285</v>
+      </c>
+      <c r="G2" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="D2" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="E2" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="F2" s="9" t="s">
-        <v>288</v>
-      </c>
-      <c r="G2" s="9" t="s">
+      <c r="H2" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="H2" s="9" t="s">
-        <v>125</v>
-      </c>
       <c r="I2" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="J2" s="9" t="s">
         <v>126</v>
-      </c>
-      <c r="J2" s="9" t="s">
-        <v>128</v>
       </c>
       <c r="K2" s="3"/>
       <c r="L2" s="3"/>
@@ -9484,22 +9487,22 @@
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F3" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="I3">
         <v>0.5</v>
@@ -9510,22 +9513,22 @@
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F4" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -9536,22 +9539,22 @@
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F5" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="I5">
         <v>0.01</v>
@@ -9562,22 +9565,22 @@
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F6" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="I6">
         <v>0.5</v>
@@ -9588,22 +9591,22 @@
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F7" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="I7">
         <v>0.01</v>
@@ -9641,15 +9644,15 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="37" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
       <c r="D1" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="E1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="G1" s="3"/>
       <c r="H1" s="3"/>
@@ -9663,16 +9666,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
@@ -9683,16 +9686,16 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D3" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -9700,16 +9703,16 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>389</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>391</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>392</v>
-      </c>
       <c r="D4" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -9717,16 +9720,16 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="D5" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -9765,21 +9768,21 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="37" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
       <c r="D1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="F1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -9787,185 +9790,185 @@
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D3" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E3" s="5">
         <v>0</v>
       </c>
       <c r="F3" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G3" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D4" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E4">
         <v>5</v>
       </c>
       <c r="G4" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D5" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="G5" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D6" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E6">
         <v>5</v>
       </c>
       <c r="G6" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D7" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D8" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="G8" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="D9" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E9">
         <v>5</v>
       </c>
       <c r="G9" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D10" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -10006,14 +10009,14 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="37" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="B1"/>
       <c r="C1"/>
       <c r="D1" s="3"/>
       <c r="E1"/>
       <c r="F1" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -10021,36 +10024,36 @@
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D2" s="19" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D3" s="20" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="F3">
         <v>1</v>
@@ -10058,19 +10061,19 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D4" s="20" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="F4">
         <v>-0.1</v>
@@ -10078,19 +10081,19 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D5" s="20" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="F5">
         <v>-1</v>
@@ -10098,19 +10101,19 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D6" s="20" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="F6">
         <v>4</v>
@@ -10147,13 +10150,13 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="37" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="B1"/>
       <c r="C1"/>
       <c r="D1"/>
       <c r="E1" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -10161,16 +10164,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
     </row>
   </sheetData>
@@ -10204,15 +10207,15 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="37" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="B1"/>
       <c r="C1"/>
       <c r="D1" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="E1" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -10220,27 +10223,27 @@
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -10276,12 +10279,12 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="37" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="B1"/>
       <c r="C1"/>
       <c r="D1" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -10289,13 +10292,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
     </row>
   </sheetData>
@@ -10328,12 +10331,12 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="37" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="B1"/>
       <c r="C1"/>
       <c r="D1" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -10341,24 +10344,24 @@
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="D3">
         <v>-8</v>
@@ -10397,23 +10400,23 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="37" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="D1" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="E1" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="F1" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="G1" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
     </row>
     <row r="2" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -10421,184 +10424,184 @@
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D3" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="E3" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="G3" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D4" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="E4" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="G4" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C5" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D5" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="E5" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="G5" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D6" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="E6" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="G6" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C7" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D7" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="E7" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="G7" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D8" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="F8" s="5"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D9" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="F9" s="5"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D10" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="F10" s="5"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="D11" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="F11" s="5"/>
     </row>
@@ -10633,12 +10636,12 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="37" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
       <c r="D1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -10646,24 +10649,24 @@
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>28</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>29</v>
       </c>
       <c r="D3">
         <v>24</v>
@@ -10671,13 +10674,13 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>28</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>29</v>
       </c>
       <c r="D4">
         <v>12</v>
@@ -10714,12 +10717,12 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="37" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
       <c r="D1" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="2" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -10727,24 +10730,24 @@
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>28</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>29</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -10752,13 +10755,13 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -10766,13 +10769,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -10780,13 +10783,13 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -10794,13 +10797,13 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -10808,13 +10811,13 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D8">
         <v>1</v>
@@ -10822,13 +10825,13 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D9">
         <v>1</v>
@@ -10836,13 +10839,13 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D10">
         <v>1</v>
@@ -10850,13 +10853,13 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D11">
         <v>1</v>
@@ -10864,13 +10867,13 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D12">
         <v>1</v>
@@ -10878,13 +10881,13 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D13">
         <v>1</v>
@@ -10892,13 +10895,13 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D14">
         <v>1</v>
@@ -10906,13 +10909,13 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D15">
         <v>1</v>
@@ -10920,13 +10923,13 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D16">
         <v>1</v>
@@ -10934,13 +10937,13 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D17">
         <v>1</v>
@@ -10948,13 +10951,13 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D18">
         <v>1</v>
@@ -10962,13 +10965,13 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D19">
         <v>1</v>
@@ -10976,13 +10979,13 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D20">
         <v>1</v>
@@ -10990,13 +10993,13 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D21">
         <v>1</v>
@@ -11004,13 +11007,13 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D22">
         <v>1</v>
@@ -11018,13 +11021,13 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D23">
         <v>1</v>
@@ -11032,13 +11035,13 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D24">
         <v>1</v>
@@ -11046,13 +11049,13 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D25">
         <v>1</v>
@@ -11060,13 +11063,13 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D26">
         <v>1</v>
@@ -11105,11 +11108,11 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="37" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="2" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -11117,18 +11120,18 @@
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C3">
         <f>24/8760</f>
@@ -11162,26 +11165,26 @@
   <sheetData>
     <row r="1" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
   </sheetData>

--- a/FlexTool_import_template.xlsx
+++ b/FlexTool_import_template.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\data\Toolbox_projects\FlexTool3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AETART\Documents\flextool\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7DA6E7C-D936-4CC2-B994-20A6733E8C81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE57CF65-304E-4EFB-A5EB-8AF8280863C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="30360" windowHeight="21000" tabRatio="1000" firstSheet="25" activeTab="37" xr2:uid="{D5BEC09F-8FA9-46E6-8F36-396DCDACE376}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="1000" activeTab="5" xr2:uid="{D5BEC09F-8FA9-46E6-8F36-396DCDACE376}"/>
   </bookViews>
   <sheets>
     <sheet name="navigate" sheetId="54" r:id="rId1"/>
@@ -18,45 +18,46 @@
     <sheet name="scenario" sheetId="57" r:id="rId3"/>
     <sheet name="solve_period" sheetId="53" r:id="rId4"/>
     <sheet name="solve_sequence" sheetId="11" r:id="rId5"/>
-    <sheet name="timeblockSet" sheetId="14" r:id="rId6"/>
-    <sheet name="timeline_t" sheetId="15" r:id="rId7"/>
-    <sheet name="timeline_c" sheetId="17" r:id="rId8"/>
-    <sheet name="timeblockSet_timeline" sheetId="16" r:id="rId9"/>
-    <sheet name="node_c" sheetId="7" r:id="rId10"/>
-    <sheet name="node_p" sheetId="19" r:id="rId11"/>
-    <sheet name="node_t" sheetId="47" r:id="rId12"/>
-    <sheet name="commodity_c" sheetId="1" r:id="rId13"/>
-    <sheet name="commodity_p" sheetId="45" r:id="rId14"/>
-    <sheet name="commodity_node" sheetId="23" r:id="rId15"/>
-    <sheet name="connection_c" sheetId="2" r:id="rId16"/>
-    <sheet name="connection_p" sheetId="42" r:id="rId17"/>
-    <sheet name="connection_t" sheetId="43" r:id="rId18"/>
-    <sheet name="unit_c" sheetId="18" r:id="rId19"/>
-    <sheet name="unit_p" sheetId="21" r:id="rId20"/>
-    <sheet name="unit_t" sheetId="48" r:id="rId21"/>
-    <sheet name="unit_node_c" sheetId="38" r:id="rId22"/>
-    <sheet name="unit_node_t" sheetId="49" r:id="rId23"/>
-    <sheet name="profile_t" sheetId="10" r:id="rId24"/>
-    <sheet name="node_profile_c" sheetId="55" r:id="rId25"/>
-    <sheet name="connection_profile_c" sheetId="56" r:id="rId26"/>
-    <sheet name="unit_node_profile_c" sheetId="41" r:id="rId27"/>
-    <sheet name="group_c" sheetId="6" r:id="rId28"/>
-    <sheet name="group_p" sheetId="46" r:id="rId29"/>
-    <sheet name="group_connection" sheetId="26" r:id="rId30"/>
-    <sheet name="group_connection_node" sheetId="28" r:id="rId31"/>
-    <sheet name="group_node" sheetId="27" r:id="rId32"/>
-    <sheet name="group_unit" sheetId="29" r:id="rId33"/>
-    <sheet name="group_unit_node" sheetId="30" r:id="rId34"/>
-    <sheet name="reserve_connection_node_c" sheetId="31" r:id="rId35"/>
-    <sheet name="reserve_group_c" sheetId="32" r:id="rId36"/>
-    <sheet name="reserve_group_t" sheetId="50" r:id="rId37"/>
-    <sheet name="reserve_unit_node_c" sheetId="33" r:id="rId38"/>
-    <sheet name="constraint_sense_c" sheetId="44" r:id="rId39"/>
-    <sheet name="unit_node_constraint_c" sheetId="58" r:id="rId40"/>
-    <sheet name="connection_node_constraint_c" sheetId="59" r:id="rId41"/>
-    <sheet name="node_constraint_c" sheetId="60" r:id="rId42"/>
-    <sheet name="unit_constraint_c" sheetId="61" r:id="rId43"/>
-    <sheet name="connection_constraint_c" sheetId="62" r:id="rId44"/>
+    <sheet name="solver_commands" sheetId="63" r:id="rId6"/>
+    <sheet name="timeblockSet" sheetId="14" r:id="rId7"/>
+    <sheet name="timeline_t" sheetId="15" r:id="rId8"/>
+    <sheet name="timeline_c" sheetId="17" r:id="rId9"/>
+    <sheet name="timeblockSet_timeline" sheetId="16" r:id="rId10"/>
+    <sheet name="node_c" sheetId="7" r:id="rId11"/>
+    <sheet name="node_p" sheetId="19" r:id="rId12"/>
+    <sheet name="node_t" sheetId="47" r:id="rId13"/>
+    <sheet name="commodity_c" sheetId="1" r:id="rId14"/>
+    <sheet name="commodity_p" sheetId="45" r:id="rId15"/>
+    <sheet name="commodity_node" sheetId="23" r:id="rId16"/>
+    <sheet name="connection_c" sheetId="2" r:id="rId17"/>
+    <sheet name="connection_p" sheetId="42" r:id="rId18"/>
+    <sheet name="connection_t" sheetId="43" r:id="rId19"/>
+    <sheet name="unit_c" sheetId="18" r:id="rId20"/>
+    <sheet name="unit_p" sheetId="21" r:id="rId21"/>
+    <sheet name="unit_t" sheetId="48" r:id="rId22"/>
+    <sheet name="unit_node_c" sheetId="38" r:id="rId23"/>
+    <sheet name="unit_node_t" sheetId="49" r:id="rId24"/>
+    <sheet name="profile_t" sheetId="10" r:id="rId25"/>
+    <sheet name="node_profile_c" sheetId="55" r:id="rId26"/>
+    <sheet name="connection_profile_c" sheetId="56" r:id="rId27"/>
+    <sheet name="unit_node_profile_c" sheetId="41" r:id="rId28"/>
+    <sheet name="group_c" sheetId="6" r:id="rId29"/>
+    <sheet name="group_p" sheetId="46" r:id="rId30"/>
+    <sheet name="group_connection" sheetId="26" r:id="rId31"/>
+    <sheet name="group_connection_node" sheetId="28" r:id="rId32"/>
+    <sheet name="group_node" sheetId="27" r:id="rId33"/>
+    <sheet name="group_unit" sheetId="29" r:id="rId34"/>
+    <sheet name="group_unit_node" sheetId="30" r:id="rId35"/>
+    <sheet name="reserve_connection_node_c" sheetId="31" r:id="rId36"/>
+    <sheet name="reserve_group_c" sheetId="32" r:id="rId37"/>
+    <sheet name="reserve_group_t" sheetId="50" r:id="rId38"/>
+    <sheet name="reserve_unit_node_c" sheetId="33" r:id="rId39"/>
+    <sheet name="constraint_sense_c" sheetId="44" r:id="rId40"/>
+    <sheet name="unit_node_constraint_c" sheetId="58" r:id="rId41"/>
+    <sheet name="connection_node_constraint_c" sheetId="59" r:id="rId42"/>
+    <sheet name="node_constraint_c" sheetId="60" r:id="rId43"/>
+    <sheet name="unit_constraint_c" sheetId="61" r:id="rId44"/>
+    <sheet name="connection_constraint_c" sheetId="62" r:id="rId45"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -205,7 +206,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1387" uniqueCount="492">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1417" uniqueCount="498">
   <si>
     <t>commodity</t>
   </si>
@@ -1681,6 +1682,24 @@
   </si>
   <si>
     <t>[factor] The reserve requirement is increased by generation from the unit to the node multiplied by this ratio. Constant.</t>
+  </si>
+  <si>
+    <t>solver_wrapper</t>
+  </si>
+  <si>
+    <t>solve_commands</t>
+  </si>
+  <si>
+    <t>set random seed 114</t>
+  </si>
+  <si>
+    <t>set random seed 112</t>
+  </si>
+  <si>
+    <t>This is for CPLEX commands, ignore if not using it</t>
+  </si>
+  <si>
+    <t>command</t>
   </si>
 </sst>
 </file>
@@ -3310,18 +3329,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F991596-B8AE-4F8F-B051-2E61303D5CC8}">
-  <dimension ref="A1:E38"/>
+  <dimension ref="A1:E39"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="28.140625" style="28" customWidth="1"/>
-    <col min="2" max="2" width="17.85546875" style="28" customWidth="1"/>
-    <col min="3" max="3" width="18.42578125" style="28" customWidth="1"/>
+    <col min="1" max="1" width="28.109375" style="28" customWidth="1"/>
+    <col min="2" max="2" width="17.88671875" style="28" customWidth="1"/>
+    <col min="3" max="3" width="18.44140625" style="28" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="46" t="s">
         <v>270</v>
       </c>
@@ -3332,21 +3351,21 @@
         <v>271</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="43" t="s">
         <v>200</v>
       </c>
       <c r="B2" s="43"/>
       <c r="C2" s="43"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="43" t="s">
         <v>333</v>
       </c>
       <c r="B3" s="43"/>
       <c r="C3" s="43"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="43" t="s">
         <v>201</v>
       </c>
@@ -3356,7 +3375,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="43" t="s">
         <v>202</v>
       </c>
@@ -3366,7 +3385,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="43" t="s">
         <v>196</v>
       </c>
@@ -3376,7 +3395,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="29" t="s">
         <v>236</v>
       </c>
@@ -3388,280 +3407,288 @@
         <v>250</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="43" t="s">
         <v>204</v>
       </c>
       <c r="B8" s="43"/>
       <c r="C8" s="43"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="27"/>
-      <c r="B9" s="27"/>
-      <c r="C9" s="27"/>
-      <c r="E9" t="s">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="43" t="s">
+        <v>493</v>
+      </c>
+      <c r="B9" s="43"/>
+      <c r="C9" s="43"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="27"/>
+      <c r="B10" s="27"/>
+      <c r="C10" s="27"/>
+      <c r="E10" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="31" t="s">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="31" t="s">
         <v>205</v>
       </c>
-      <c r="B10" s="31" t="s">
+      <c r="B11" s="31" t="s">
         <v>206</v>
       </c>
-      <c r="C10" s="31" t="s">
+      <c r="C11" s="31" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="31" t="s">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="31" t="s">
         <v>208</v>
       </c>
-      <c r="B11" s="31" t="s">
+      <c r="B12" s="31" t="s">
         <v>209</v>
       </c>
-      <c r="C11" s="32"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="44" t="s">
+      <c r="C12" s="32"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="44" t="s">
         <v>210</v>
       </c>
-      <c r="B12" s="44"/>
-      <c r="C12" s="44"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="31" t="s">
+      <c r="B13" s="44"/>
+      <c r="C13" s="44"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="31" t="s">
         <v>211</v>
       </c>
-      <c r="B13" s="31" t="s">
+      <c r="B14" s="31" t="s">
         <v>212</v>
       </c>
-      <c r="C13" s="31" t="s">
+      <c r="C14" s="31" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="31" t="s">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="31" t="s">
         <v>230</v>
       </c>
-      <c r="B14" s="31" t="s">
+      <c r="B15" s="31" t="s">
         <v>231</v>
       </c>
-      <c r="C14" s="31" t="s">
+      <c r="C15" s="31" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="31" t="s">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="31" t="s">
         <v>229</v>
       </c>
-      <c r="B15" s="32"/>
-      <c r="C15" s="31" t="s">
+      <c r="B16" s="32"/>
+      <c r="C16" s="31" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="33"/>
-      <c r="B16" s="33"/>
-      <c r="C16" s="33"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="39"/>
-      <c r="B17" s="39"/>
-      <c r="C17" s="40" t="s">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="33"/>
+      <c r="B17" s="33"/>
+      <c r="C17" s="33"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="39"/>
+      <c r="B18" s="39"/>
+      <c r="C18" s="40" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="45" t="s">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="45" t="s">
         <v>247</v>
-      </c>
-      <c r="B18" s="45"/>
-      <c r="C18" s="45"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="45" t="s">
-        <v>246</v>
       </c>
       <c r="B19" s="45"/>
       <c r="C19" s="45"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="45" t="s">
-        <v>260</v>
+        <v>246</v>
       </c>
       <c r="B20" s="45"/>
       <c r="C20" s="45"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="33"/>
-      <c r="B21" s="33"/>
-      <c r="C21" s="33"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="34" t="s">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" s="45" t="s">
+        <v>260</v>
+      </c>
+      <c r="B21" s="45"/>
+      <c r="C21" s="45"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" s="33"/>
+      <c r="B22" s="33"/>
+      <c r="C22" s="33"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" s="34" t="s">
         <v>226</v>
       </c>
-      <c r="B22" s="34" t="s">
+      <c r="B23" s="34" t="s">
         <v>227</v>
       </c>
-      <c r="C22" s="34"/>
-      <c r="D22" s="28"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="41" t="s">
+      <c r="C23" s="34"/>
+      <c r="D23" s="28"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" s="41" t="s">
         <v>217</v>
-      </c>
-      <c r="B23" s="41"/>
-      <c r="C23" s="41"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="41" t="s">
-        <v>218</v>
       </c>
       <c r="B24" s="41"/>
       <c r="C24" s="41"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="41" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B25" s="41"/>
       <c r="C25" s="41"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="41" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B26" s="41"/>
       <c r="C26" s="41"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="41" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B27" s="41"/>
       <c r="C27" s="41"/>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="27"/>
-      <c r="B28" s="27"/>
-      <c r="C28" s="27"/>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="42" t="s">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" s="41" t="s">
+        <v>221</v>
+      </c>
+      <c r="B28" s="41"/>
+      <c r="C28" s="41"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" s="27"/>
+      <c r="B29" s="27"/>
+      <c r="C29" s="27"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" s="42" t="s">
         <v>222</v>
       </c>
-      <c r="B29" s="42"/>
-      <c r="C29" s="42"/>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="35" t="s">
+      <c r="B30" s="42"/>
+      <c r="C30" s="42"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" s="35" t="s">
         <v>223</v>
       </c>
-      <c r="B30" s="36"/>
-      <c r="C30" s="35" t="s">
+      <c r="B31" s="36"/>
+      <c r="C31" s="35" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="42" t="s">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" s="42" t="s">
         <v>225</v>
       </c>
-      <c r="B31" s="42"/>
-      <c r="C31" s="42"/>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="48" t="s">
+      <c r="B32" s="42"/>
+      <c r="C32" s="42"/>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" s="48" t="s">
         <v>215</v>
-      </c>
-      <c r="B33" s="48"/>
-      <c r="C33" s="48"/>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="48" t="s">
-        <v>216</v>
       </c>
       <c r="B34" s="48"/>
       <c r="C34" s="48"/>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="48" t="s">
-        <v>416</v>
+        <v>216</v>
       </c>
       <c r="B35" s="48"/>
       <c r="C35" s="48"/>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="48" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="B36" s="48"/>
       <c r="C36" s="48"/>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="48" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B37" s="48"/>
       <c r="C37" s="48"/>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="48" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B38" s="48"/>
       <c r="C38" s="48"/>
     </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39" s="48" t="s">
+        <v>414</v>
+      </c>
+      <c r="B39" s="48"/>
+      <c r="C39" s="48"/>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A29" location="reserve_unit_node_c!A1" display="reserve_connection_node_c" xr:uid="{3F855114-4A57-4E0A-A766-0317F980F4BF}"/>
-    <hyperlink ref="A27" location="group_unit_node!A1" display="group_unit_node" xr:uid="{B7C2FCA3-F9B2-4C44-95E7-EE78C953ADDA}"/>
-    <hyperlink ref="A26" location="group_unit!A1" display="group_unit" xr:uid="{B05CA82D-DD0B-41C5-A4A2-737EB6D8AF37}"/>
-    <hyperlink ref="A25" location="group_node!A1" display="group_node" xr:uid="{920BB948-3B7C-488B-B8B1-7504F3D3AD1A}"/>
-    <hyperlink ref="A24" location="group_connection_node!A1" display="group_connection_node" xr:uid="{811FD465-B06B-4481-9ED6-DE1222C0D3DE}"/>
-    <hyperlink ref="A30" location="reserve_group_c!A1" display="reserve_group_c" xr:uid="{2CFA818C-9B6A-474B-8E40-2E804C4A9677}"/>
-    <hyperlink ref="C30" location="reserve_group_t!A1" display="reserve_group_t" xr:uid="{401EE982-2E1A-4DC0-A8C5-8E9B177FDA74}"/>
-    <hyperlink ref="A31" location="reserve_unit_node_c!A1" display="reserve_unit_node_c" xr:uid="{78371C66-B81A-4E9B-96E1-6659A71B0BF4}"/>
-    <hyperlink ref="A23" location="group_connection!A1" display="group_connection" xr:uid="{A00C70C1-5203-41C9-BCBD-CC42FCD43017}"/>
-    <hyperlink ref="A22" location="group_c!A1" display="group_c" xr:uid="{8516B270-11A5-45FE-B8AE-F8BD21CE42EE}"/>
-    <hyperlink ref="B22" location="group_p!A1" display="group_p" xr:uid="{24A5AB85-580D-4C07-9C0C-EF096DF9B6A4}"/>
-    <hyperlink ref="A34" location="unit_node_constraint_c!A1" display="unit_node_constraint_c" xr:uid="{E752EE81-721A-467B-A89A-558EAD27CD18}"/>
-    <hyperlink ref="A33" location="constraint_sense_c!A1" display="constraint_sense_c" xr:uid="{E3638194-ABA1-4B52-B562-9CB1B5A7326A}"/>
-    <hyperlink ref="A15" location="unit_node_c!A1" display="unit_node_c" xr:uid="{588C2786-F4D1-490C-8299-996C761D1B0B}"/>
-    <hyperlink ref="C15" location="unit_node_t!A1" display="unit_node_t" xr:uid="{848C3082-4242-4C02-A2C8-1DDCCECDDCE4}"/>
-    <hyperlink ref="A14" location="unit_c!A1" display="unit_c" xr:uid="{0B24F06D-DF0D-43E9-A754-3D573B0328ED}"/>
-    <hyperlink ref="B14" location="unit_p!A1" display="unit_p" xr:uid="{6B0EC5F5-0D3E-41BB-B4D8-64F5821432A7}"/>
-    <hyperlink ref="C14" location="unit_t!A1" display="unit_t" xr:uid="{563A1A91-8913-4B2F-8BA5-4D350923C03F}"/>
-    <hyperlink ref="C17" location="profile_t!A1" display="profile_t" xr:uid="{78412094-AA9A-4901-935D-64F3C1AC7206}"/>
-    <hyperlink ref="A13" location="connection_c!A1" display="connection_c" xr:uid="{03E6664B-5F07-4921-A88F-1CC8DA8E9FAE}"/>
-    <hyperlink ref="B13" location="connection_p!A1" display="connection_p" xr:uid="{46902093-FDC0-4939-BBFD-2D41FFBE0F05}"/>
-    <hyperlink ref="C13" location="connection_t!A1" display="connection_t" xr:uid="{5D63301C-ED60-425E-8FC0-334B75B4F98C}"/>
-    <hyperlink ref="A12" location="commodity_node!A1" display="commodity_node" xr:uid="{1A8DF925-BFFA-47C2-B595-2F06AACA43EF}"/>
-    <hyperlink ref="A11" location="commodity_c!A1" display="commodity_c" xr:uid="{37D28BB2-4F57-4EDF-A58D-D5D0B0DFCD29}"/>
-    <hyperlink ref="B11" location="commodity_p!A1" display="commodity_p" xr:uid="{B8974311-BDD6-456A-9C22-7DD64599915A}"/>
-    <hyperlink ref="A10" location="node_c!A1" display="node_c" xr:uid="{96541F46-A5D0-46A0-A7C5-61D6136DE6D8}"/>
-    <hyperlink ref="B10" location="node_p!A1" display="node_p" xr:uid="{AA8FF5EE-A7C6-4A42-B219-867295F74C98}"/>
-    <hyperlink ref="C10" location="node_t!A1" display="node_t" xr:uid="{10D2F31E-4A77-4C8D-A909-F30F7DA9A1B0}"/>
+    <hyperlink ref="A30" location="reserve_unit_node_c!A1" display="reserve_connection_node_c" xr:uid="{3F855114-4A57-4E0A-A766-0317F980F4BF}"/>
+    <hyperlink ref="A28" location="group_unit_node!A1" display="group_unit_node" xr:uid="{B7C2FCA3-F9B2-4C44-95E7-EE78C953ADDA}"/>
+    <hyperlink ref="A27" location="group_unit!A1" display="group_unit" xr:uid="{B05CA82D-DD0B-41C5-A4A2-737EB6D8AF37}"/>
+    <hyperlink ref="A26" location="group_node!A1" display="group_node" xr:uid="{920BB948-3B7C-488B-B8B1-7504F3D3AD1A}"/>
+    <hyperlink ref="A25" location="group_connection_node!A1" display="group_connection_node" xr:uid="{811FD465-B06B-4481-9ED6-DE1222C0D3DE}"/>
+    <hyperlink ref="A31" location="reserve_group_c!A1" display="reserve_group_c" xr:uid="{2CFA818C-9B6A-474B-8E40-2E804C4A9677}"/>
+    <hyperlink ref="C31" location="reserve_group_t!A1" display="reserve_group_t" xr:uid="{401EE982-2E1A-4DC0-A8C5-8E9B177FDA74}"/>
+    <hyperlink ref="A32" location="reserve_unit_node_c!A1" display="reserve_unit_node_c" xr:uid="{78371C66-B81A-4E9B-96E1-6659A71B0BF4}"/>
+    <hyperlink ref="A24" location="group_connection!A1" display="group_connection" xr:uid="{A00C70C1-5203-41C9-BCBD-CC42FCD43017}"/>
+    <hyperlink ref="A23" location="group_c!A1" display="group_c" xr:uid="{8516B270-11A5-45FE-B8AE-F8BD21CE42EE}"/>
+    <hyperlink ref="B23" location="group_p!A1" display="group_p" xr:uid="{24A5AB85-580D-4C07-9C0C-EF096DF9B6A4}"/>
+    <hyperlink ref="A35" location="unit_node_constraint_c!A1" display="unit_node_constraint_c" xr:uid="{E752EE81-721A-467B-A89A-558EAD27CD18}"/>
+    <hyperlink ref="A34" location="constraint_sense_c!A1" display="constraint_sense_c" xr:uid="{E3638194-ABA1-4B52-B562-9CB1B5A7326A}"/>
+    <hyperlink ref="A16" location="unit_node_c!A1" display="unit_node_c" xr:uid="{588C2786-F4D1-490C-8299-996C761D1B0B}"/>
+    <hyperlink ref="C16" location="unit_node_t!A1" display="unit_node_t" xr:uid="{848C3082-4242-4C02-A2C8-1DDCCECDDCE4}"/>
+    <hyperlink ref="A15" location="unit_c!A1" display="unit_c" xr:uid="{0B24F06D-DF0D-43E9-A754-3D573B0328ED}"/>
+    <hyperlink ref="B15" location="unit_p!A1" display="unit_p" xr:uid="{6B0EC5F5-0D3E-41BB-B4D8-64F5821432A7}"/>
+    <hyperlink ref="C15" location="unit_t!A1" display="unit_t" xr:uid="{563A1A91-8913-4B2F-8BA5-4D350923C03F}"/>
+    <hyperlink ref="C18" location="profile_t!A1" display="profile_t" xr:uid="{78412094-AA9A-4901-935D-64F3C1AC7206}"/>
+    <hyperlink ref="A14" location="connection_c!A1" display="connection_c" xr:uid="{03E6664B-5F07-4921-A88F-1CC8DA8E9FAE}"/>
+    <hyperlink ref="B14" location="connection_p!A1" display="connection_p" xr:uid="{46902093-FDC0-4939-BBFD-2D41FFBE0F05}"/>
+    <hyperlink ref="C14" location="connection_t!A1" display="connection_t" xr:uid="{5D63301C-ED60-425E-8FC0-334B75B4F98C}"/>
+    <hyperlink ref="A13" location="commodity_node!A1" display="commodity_node" xr:uid="{1A8DF925-BFFA-47C2-B595-2F06AACA43EF}"/>
+    <hyperlink ref="A12" location="commodity_c!A1" display="commodity_c" xr:uid="{37D28BB2-4F57-4EDF-A58D-D5D0B0DFCD29}"/>
+    <hyperlink ref="B12" location="commodity_p!A1" display="commodity_p" xr:uid="{B8974311-BDD6-456A-9C22-7DD64599915A}"/>
+    <hyperlink ref="A11" location="node_c!A1" display="node_c" xr:uid="{96541F46-A5D0-46A0-A7C5-61D6136DE6D8}"/>
+    <hyperlink ref="B11" location="node_p!A1" display="node_p" xr:uid="{AA8FF5EE-A7C6-4A42-B219-867295F74C98}"/>
+    <hyperlink ref="C11" location="node_t!A1" display="node_t" xr:uid="{10D2F31E-4A77-4C8D-A909-F30F7DA9A1B0}"/>
     <hyperlink ref="A8" location="timeblockSet_timeline!A1" display="timeblockSet_timeline" xr:uid="{7E649E3B-8603-412B-85C7-55801419EDEB}"/>
     <hyperlink ref="C7" location="timeline_t!A1" display="timeline_t" xr:uid="{0049663E-A2F9-49A0-A576-07D0A457655D}"/>
     <hyperlink ref="A7" location="timeline_s!A1" display="timeline_s" xr:uid="{252B2493-68D2-4C5E-A6EA-89A71C7FBE09}"/>
     <hyperlink ref="A2" location="version!A1" display="version" xr:uid="{5528FB5D-B49F-4A94-B79B-BD7CACBF6421}"/>
-    <hyperlink ref="A19" location="unit_profile_c!A1" display="unit_profile_c" xr:uid="{BFEE1E54-8BED-43DB-81D7-EF22B030644E}"/>
-    <hyperlink ref="A20" location="unit_profile_c!A1" display="unit_profile_c" xr:uid="{F130C8C0-C1F9-49C3-9475-FD4618C13C76}"/>
-    <hyperlink ref="A18" location="unit_profile_c!A1" display="unit_profile_c" xr:uid="{844403FD-DCCB-46C7-BE3C-C68DCAAB6B04}"/>
-    <hyperlink ref="A18:C18" location="node_profile_c!A1" display="node_profile_c" xr:uid="{826B47E5-87EB-412A-A0AE-C49CDB5CEB93}"/>
-    <hyperlink ref="A19:C19" location="connection_profile_c!A1" display="connection_profile_c" xr:uid="{DB781E38-3ACC-4F21-8D1E-B47D2A016C51}"/>
-    <hyperlink ref="A20:C20" location="unit_node_profile_c!A1" display="unit_profile_c" xr:uid="{B2BA97AF-8BE5-4D5F-8341-41044F5963AA}"/>
+    <hyperlink ref="A20" location="unit_profile_c!A1" display="unit_profile_c" xr:uid="{BFEE1E54-8BED-43DB-81D7-EF22B030644E}"/>
+    <hyperlink ref="A21" location="unit_profile_c!A1" display="unit_profile_c" xr:uid="{F130C8C0-C1F9-49C3-9475-FD4618C13C76}"/>
+    <hyperlink ref="A19" location="unit_profile_c!A1" display="unit_profile_c" xr:uid="{844403FD-DCCB-46C7-BE3C-C68DCAAB6B04}"/>
+    <hyperlink ref="A19:C19" location="node_profile_c!A1" display="node_profile_c" xr:uid="{826B47E5-87EB-412A-A0AE-C49CDB5CEB93}"/>
+    <hyperlink ref="A20:C20" location="connection_profile_c!A1" display="connection_profile_c" xr:uid="{DB781E38-3ACC-4F21-8D1E-B47D2A016C51}"/>
+    <hyperlink ref="A21:C21" location="unit_node_profile_c!A1" display="unit_profile_c" xr:uid="{B2BA97AF-8BE5-4D5F-8341-41044F5963AA}"/>
     <hyperlink ref="A4" location="solve_period!A1" display="solve_period" xr:uid="{1A642A0E-886B-4C5F-9459-AF06B635D1C8}"/>
     <hyperlink ref="A5" location="solve_sequence!A1" display="solve_sequence" xr:uid="{3B08721C-A5BF-4AD9-9840-41F099D6F77C}"/>
     <hyperlink ref="A6" location="timeblockSet!A1" display="timeblockSet" xr:uid="{4C69C415-5F99-4696-8AE3-CE2F554DC3A9}"/>
     <hyperlink ref="A3" location="scenario!B3" display="scenario" xr:uid="{6595CB33-4050-4638-93A2-B2C50D1ED6D3}"/>
-    <hyperlink ref="A36" location="node_constraint_c!A1" display="node_constraint_c" xr:uid="{AC3AB525-A059-400D-8A88-BB691B8190B0}"/>
-    <hyperlink ref="A37" location="unit_constraint_c!A1" display="unit_constraint_c" xr:uid="{52E2C769-7950-491B-8D4F-A3098C5C0800}"/>
-    <hyperlink ref="A38" location="connection_constraint_c!A1" display="connection_constraint_c" xr:uid="{4F42D9DB-BE6E-4724-A8BC-46902175E215}"/>
-    <hyperlink ref="A35" location="connection_node_constraint_c!A1" display="connection_node_constraint_c" xr:uid="{8884D5A7-21E8-46CA-9DDB-FA2BA31F034A}"/>
+    <hyperlink ref="A37" location="node_constraint_c!A1" display="node_constraint_c" xr:uid="{AC3AB525-A059-400D-8A88-BB691B8190B0}"/>
+    <hyperlink ref="A38" location="unit_constraint_c!A1" display="unit_constraint_c" xr:uid="{52E2C769-7950-491B-8D4F-A3098C5C0800}"/>
+    <hyperlink ref="A39" location="connection_constraint_c!A1" display="connection_constraint_c" xr:uid="{4F42D9DB-BE6E-4724-A8BC-46902175E215}"/>
+    <hyperlink ref="A36" location="connection_node_constraint_c!A1" display="connection_node_constraint_c" xr:uid="{8884D5A7-21E8-46CA-9DDB-FA2BA31F034A}"/>
+    <hyperlink ref="A9" location="solve_commands!A1" display="solve_commands" xr:uid="{8D72B1F0-8235-4F44-A670-254B53148E29}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
@@ -3669,6 +3696,52 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D727460B-F1B2-42C2-90E2-38E181F7AFC8}">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="13.5546875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="10.109375" style="4" customWidth="1"/>
+    <col min="3" max="11" width="11.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>103</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A4889F5-3956-475B-A853-BA105023BA1D}">
   <dimension ref="A1:AE9"/>
   <sheetViews>
@@ -3679,40 +3752,40 @@
       <selection pane="bottomRight" activeCell="AE1" sqref="AE1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.42578125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" customWidth="1"/>
-    <col min="4" max="4" width="11.7109375" customWidth="1"/>
+    <col min="1" max="1" width="12.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.44140625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="9.109375" customWidth="1"/>
+    <col min="4" max="4" width="11.6640625" customWidth="1"/>
     <col min="5" max="5" width="15" customWidth="1"/>
-    <col min="6" max="6" width="11.42578125" customWidth="1"/>
+    <col min="6" max="6" width="11.44140625" customWidth="1"/>
     <col min="7" max="7" width="15" customWidth="1"/>
-    <col min="8" max="8" width="23.140625" customWidth="1"/>
-    <col min="9" max="9" width="25.140625" customWidth="1"/>
-    <col min="10" max="10" width="29.28515625" customWidth="1"/>
-    <col min="11" max="11" width="7.28515625" customWidth="1"/>
+    <col min="8" max="8" width="23.109375" customWidth="1"/>
+    <col min="9" max="9" width="25.109375" customWidth="1"/>
+    <col min="10" max="10" width="29.33203125" customWidth="1"/>
+    <col min="11" max="11" width="7.33203125" customWidth="1"/>
     <col min="12" max="12" width="12" customWidth="1"/>
-    <col min="13" max="13" width="10.42578125" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" customWidth="1"/>
-    <col min="15" max="15" width="11.7109375" customWidth="1"/>
-    <col min="16" max="16" width="9.5703125" customWidth="1"/>
-    <col min="17" max="17" width="10.5703125" customWidth="1"/>
-    <col min="18" max="18" width="10.28515625" customWidth="1"/>
-    <col min="19" max="19" width="10.140625" style="14" customWidth="1"/>
-    <col min="20" max="20" width="9.85546875" style="14" customWidth="1"/>
-    <col min="21" max="21" width="10.85546875" style="14" customWidth="1"/>
-    <col min="22" max="22" width="13.42578125" customWidth="1"/>
-    <col min="23" max="23" width="12.7109375" style="14" customWidth="1"/>
-    <col min="24" max="24" width="10.5703125" customWidth="1"/>
-    <col min="25" max="25" width="8.140625" customWidth="1"/>
-    <col min="26" max="27" width="18.140625" customWidth="1"/>
-    <col min="28" max="28" width="16.85546875" customWidth="1"/>
-    <col min="29" max="30" width="29.140625" customWidth="1"/>
-    <col min="31" max="31" width="14.7109375" customWidth="1"/>
+    <col min="13" max="13" width="10.44140625" customWidth="1"/>
+    <col min="14" max="14" width="13.6640625" customWidth="1"/>
+    <col min="15" max="15" width="11.6640625" customWidth="1"/>
+    <col min="16" max="16" width="9.5546875" customWidth="1"/>
+    <col min="17" max="17" width="10.5546875" customWidth="1"/>
+    <col min="18" max="18" width="10.33203125" customWidth="1"/>
+    <col min="19" max="19" width="10.109375" style="14" customWidth="1"/>
+    <col min="20" max="20" width="9.88671875" style="14" customWidth="1"/>
+    <col min="21" max="21" width="10.88671875" style="14" customWidth="1"/>
+    <col min="22" max="22" width="13.44140625" customWidth="1"/>
+    <col min="23" max="23" width="12.6640625" style="14" customWidth="1"/>
+    <col min="24" max="24" width="10.5546875" customWidth="1"/>
+    <col min="25" max="25" width="8.109375" customWidth="1"/>
+    <col min="26" max="27" width="18.109375" customWidth="1"/>
+    <col min="28" max="28" width="16.88671875" customWidth="1"/>
+    <col min="29" max="30" width="29.109375" customWidth="1"/>
+    <col min="31" max="31" width="14.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A1" s="37" t="s">
         <v>237</v>
       </c>
@@ -3805,7 +3878,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="2" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
         <v>1</v>
       </c>
@@ -3900,7 +3973,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>27</v>
       </c>
@@ -3927,7 +4000,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>27</v>
       </c>
@@ -3958,7 +4031,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>27</v>
       </c>
@@ -3978,7 +4051,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>27</v>
       </c>
@@ -3998,7 +4071,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>284</v>
       </c>
@@ -4045,7 +4118,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>386</v>
       </c>
@@ -4083,7 +4156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>309</v>
       </c>
@@ -4118,7 +4191,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D51F2ED7-E82A-4D3D-A4CE-E6A52C2211BA}">
   <dimension ref="A1:O5"/>
   <sheetViews>
@@ -4129,24 +4202,24 @@
       <selection pane="bottomRight" activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="11.85546875" style="4" customWidth="1"/>
-    <col min="4" max="5" width="12.7109375" customWidth="1"/>
-    <col min="6" max="6" width="13.7109375" customWidth="1"/>
-    <col min="7" max="7" width="10.42578125" customWidth="1"/>
-    <col min="8" max="8" width="10.28515625" customWidth="1"/>
-    <col min="9" max="9" width="10.140625" customWidth="1"/>
-    <col min="10" max="10" width="9.85546875" customWidth="1"/>
-    <col min="11" max="11" width="11.5703125" customWidth="1"/>
-    <col min="12" max="12" width="13.42578125" customWidth="1"/>
-    <col min="13" max="13" width="12.85546875" customWidth="1"/>
-    <col min="15" max="15" width="10.7109375" customWidth="1"/>
+    <col min="1" max="1" width="12.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11.88671875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" style="4" customWidth="1"/>
+    <col min="4" max="5" width="12.6640625" customWidth="1"/>
+    <col min="6" max="6" width="13.6640625" customWidth="1"/>
+    <col min="7" max="7" width="10.44140625" customWidth="1"/>
+    <col min="8" max="8" width="10.33203125" customWidth="1"/>
+    <col min="9" max="9" width="10.109375" customWidth="1"/>
+    <col min="10" max="10" width="9.88671875" customWidth="1"/>
+    <col min="11" max="11" width="11.5546875" customWidth="1"/>
+    <col min="12" max="12" width="13.44140625" customWidth="1"/>
+    <col min="13" max="13" width="12.88671875" customWidth="1"/>
+    <col min="15" max="15" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" s="37" t="s">
         <v>237</v>
       </c>
@@ -4189,7 +4262,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
         <v>1</v>
       </c>
@@ -4236,7 +4309,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>27</v>
       </c>
@@ -4254,7 +4327,7 @@
         <v>-600</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>27</v>
       </c>
@@ -4272,7 +4345,7 @@
         <v>-650</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>27</v>
       </c>
@@ -4298,7 +4371,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D56195B5-58E5-4A49-9514-C11CC17CB482}">
   <dimension ref="A1:K27"/>
   <sheetViews>
@@ -4306,18 +4379,18 @@
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="C4" sqref="C4"/>
+      <selection pane="bottomRight" activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.85546875" style="4" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" style="17" customWidth="1"/>
+    <col min="1" max="1" width="11.88671875" style="4" customWidth="1"/>
+    <col min="2" max="2" width="11.88671875" style="17" customWidth="1"/>
     <col min="3" max="3" width="12" customWidth="1"/>
     <col min="4" max="4" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="37" t="s">
         <v>237</v>
       </c>
@@ -4331,7 +4404,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3"/>
       <c r="B2" s="15" t="s">
         <v>165</v>
@@ -4343,7 +4416,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="3" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>26</v>
       </c>
@@ -4357,7 +4430,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>28</v>
       </c>
@@ -4368,7 +4441,7 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>29</v>
       </c>
@@ -4380,7 +4453,7 @@
       </c>
       <c r="K5" s="16"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>80</v>
       </c>
@@ -4391,7 +4464,7 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>81</v>
       </c>
@@ -4402,7 +4475,7 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>82</v>
       </c>
@@ -4413,7 +4486,7 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>83</v>
       </c>
@@ -4424,7 +4497,7 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>84</v>
       </c>
@@ -4435,7 +4508,7 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>85</v>
       </c>
@@ -4446,7 +4519,7 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>86</v>
       </c>
@@ -4457,7 +4530,7 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>87</v>
       </c>
@@ -4468,7 +4541,7 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>88</v>
       </c>
@@ -4479,7 +4552,7 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
         <v>89</v>
       </c>
@@ -4490,7 +4563,7 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
         <v>90</v>
       </c>
@@ -4501,7 +4574,7 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
         <v>91</v>
       </c>
@@ -4512,7 +4585,7 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
         <v>92</v>
       </c>
@@ -4523,7 +4596,7 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
         <v>93</v>
       </c>
@@ -4534,7 +4607,7 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
         <v>94</v>
       </c>
@@ -4545,7 +4618,7 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
         <v>95</v>
       </c>
@@ -4556,7 +4629,7 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
         <v>96</v>
       </c>
@@ -4567,7 +4640,7 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
         <v>97</v>
       </c>
@@ -4578,7 +4651,7 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
         <v>98</v>
       </c>
@@ -4589,7 +4662,7 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
         <v>99</v>
       </c>
@@ -4600,7 +4673,7 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
         <v>100</v>
       </c>
@@ -4611,7 +4684,7 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
         <v>101</v>
       </c>
@@ -4632,7 +4705,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E99DA432-9F88-4927-B437-CA09DA61AB93}">
   <dimension ref="A1:D4"/>
   <sheetViews>
@@ -4643,14 +4716,14 @@
       <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.85546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="11.5703125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="12.28515625" customWidth="1"/>
+    <col min="1" max="1" width="11.88671875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5546875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="37" t="s">
         <v>237</v>
       </c>
@@ -4662,7 +4735,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
         <v>1</v>
       </c>
@@ -4676,7 +4749,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>27</v>
       </c>
@@ -4690,7 +4763,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>27</v>
       </c>
@@ -4710,7 +4783,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E20CFBA-1F92-463C-919B-31F910121997}">
   <dimension ref="A1:D5"/>
   <sheetViews>
@@ -4721,14 +4794,14 @@
       <selection pane="bottomRight" activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.85546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="11.5703125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="11.5703125" style="4" customWidth="1"/>
+    <col min="1" max="1" width="11.88671875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5546875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="11.5546875" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="37" t="s">
         <v>237</v>
       </c>
@@ -4738,7 +4811,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
         <v>1</v>
       </c>
@@ -4752,7 +4825,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>27</v>
       </c>
@@ -4766,7 +4839,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>27</v>
       </c>
@@ -4780,7 +4853,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>27</v>
       </c>
@@ -4802,23 +4875,23 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6EFF0A7-3963-4998-9482-2033971B0C97}">
   <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.85546875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" style="4" customWidth="1"/>
-    <col min="3" max="8" width="11.5703125" customWidth="1"/>
+    <col min="1" max="1" width="11.88671875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="11.88671875" style="4" customWidth="1"/>
+    <col min="3" max="8" width="11.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -4835,7 +4908,7 @@
       <c r="J1" s="3"/>
       <c r="K1" s="3"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>144</v>
       </c>
@@ -4843,7 +4916,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>152</v>
       </c>
@@ -4856,7 +4929,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D44D2B2-1DE7-400D-8C40-2CD59BEE6EC3}">
   <dimension ref="A1:W6"/>
   <sheetViews>
@@ -4867,32 +4940,32 @@
       <selection pane="bottomRight" activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12.140625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="13.85546875" style="11" customWidth="1"/>
-    <col min="5" max="5" width="9.5703125" customWidth="1"/>
+    <col min="1" max="1" width="12.109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.109375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="4" customWidth="1"/>
+    <col min="4" max="4" width="13.88671875" style="11" customWidth="1"/>
+    <col min="5" max="5" width="9.5546875" customWidth="1"/>
     <col min="6" max="6" width="16" customWidth="1"/>
-    <col min="7" max="7" width="15.5703125" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" customWidth="1"/>
-    <col min="10" max="10" width="11.85546875" customWidth="1"/>
-    <col min="11" max="11" width="8.7109375" customWidth="1"/>
-    <col min="12" max="12" width="10.5703125" customWidth="1"/>
-    <col min="13" max="13" width="10.28515625" customWidth="1"/>
-    <col min="14" max="14" width="10.140625" customWidth="1"/>
-    <col min="15" max="15" width="9.85546875" customWidth="1"/>
-    <col min="16" max="16" width="11.42578125" customWidth="1"/>
+    <col min="7" max="7" width="15.5546875" customWidth="1"/>
+    <col min="8" max="8" width="14.6640625" customWidth="1"/>
+    <col min="10" max="10" width="11.88671875" customWidth="1"/>
+    <col min="11" max="11" width="8.6640625" customWidth="1"/>
+    <col min="12" max="12" width="10.5546875" customWidth="1"/>
+    <col min="13" max="13" width="10.33203125" customWidth="1"/>
+    <col min="14" max="14" width="10.109375" customWidth="1"/>
+    <col min="15" max="15" width="9.88671875" customWidth="1"/>
+    <col min="16" max="16" width="11.44140625" customWidth="1"/>
     <col min="17" max="18" width="13" customWidth="1"/>
-    <col min="19" max="19" width="9.85546875" customWidth="1"/>
-    <col min="20" max="20" width="10.5703125" customWidth="1"/>
+    <col min="19" max="19" width="9.88671875" customWidth="1"/>
+    <col min="20" max="20" width="10.5546875" customWidth="1"/>
     <col min="21" max="21" width="22" customWidth="1"/>
     <col min="22" max="22" width="10" customWidth="1"/>
-    <col min="23" max="23" width="15.7109375" customWidth="1"/>
+    <col min="23" max="23" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A1" s="37" t="s">
         <v>237</v>
       </c>
@@ -4957,7 +5030,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
         <v>1</v>
       </c>
@@ -5028,7 +5101,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>27</v>
       </c>
@@ -5060,7 +5133,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>284</v>
       </c>
@@ -5092,7 +5165,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>309</v>
       </c>
@@ -5124,7 +5197,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>309</v>
       </c>
@@ -5165,7 +5238,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9C5CDA4-FFE3-4938-9213-CC2F8772241C}">
   <dimension ref="A1:M5"/>
   <sheetViews>
@@ -5176,24 +5249,24 @@
       <selection pane="bottomRight" activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="12.109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="12" style="2" customWidth="1"/>
-    <col min="3" max="3" width="11.85546875" style="4" customWidth="1"/>
-    <col min="4" max="4" width="10.42578125" customWidth="1"/>
-    <col min="5" max="5" width="10.28515625" customWidth="1"/>
-    <col min="6" max="6" width="10.140625" customWidth="1"/>
-    <col min="7" max="7" width="9.7109375" customWidth="1"/>
-    <col min="8" max="8" width="10.85546875" customWidth="1"/>
-    <col min="9" max="9" width="13.85546875" customWidth="1"/>
-    <col min="10" max="10" width="12.5703125" customWidth="1"/>
-    <col min="11" max="11" width="9.5703125" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" style="4" customWidth="1"/>
+    <col min="4" max="4" width="10.44140625" customWidth="1"/>
+    <col min="5" max="5" width="10.33203125" customWidth="1"/>
+    <col min="6" max="6" width="10.109375" customWidth="1"/>
+    <col min="7" max="7" width="9.6640625" customWidth="1"/>
+    <col min="8" max="8" width="10.88671875" customWidth="1"/>
+    <col min="9" max="9" width="13.88671875" customWidth="1"/>
+    <col min="10" max="10" width="12.5546875" customWidth="1"/>
+    <col min="11" max="11" width="9.5546875" customWidth="1"/>
     <col min="12" max="12" width="11" customWidth="1"/>
-    <col min="13" max="13" width="21.5703125" customWidth="1"/>
+    <col min="13" max="13" width="21.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" s="37" t="s">
         <v>237</v>
       </c>
@@ -5230,7 +5303,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
         <v>1</v>
       </c>
@@ -5271,7 +5344,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>27</v>
       </c>
@@ -5285,7 +5358,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>27</v>
       </c>
@@ -5299,7 +5372,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>27</v>
       </c>
@@ -5321,7 +5394,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F877950-BDFF-4B0B-89C1-36AC76A9D30A}">
   <dimension ref="A1:K27"/>
   <sheetViews>
@@ -5332,15 +5405,15 @@
       <selection pane="bottomRight" activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.85546875" style="4" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" style="17" customWidth="1"/>
+    <col min="1" max="1" width="11.88671875" style="4" customWidth="1"/>
+    <col min="2" max="2" width="11.88671875" style="17" customWidth="1"/>
     <col min="3" max="3" width="12" customWidth="1"/>
     <col min="4" max="4" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="37" t="s">
         <v>237</v>
       </c>
@@ -5351,7 +5424,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3"/>
       <c r="B2" s="15" t="s">
         <v>165</v>
@@ -5360,7 +5433,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>26</v>
       </c>
@@ -5371,7 +5444,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>28</v>
       </c>
@@ -5379,7 +5452,7 @@
         <v>0.99</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>29</v>
       </c>
@@ -5388,7 +5461,7 @@
       </c>
       <c r="K5" s="16"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>80</v>
       </c>
@@ -5396,7 +5469,7 @@
         <v>0.99</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>81</v>
       </c>
@@ -5404,7 +5477,7 @@
         <v>0.99</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>82</v>
       </c>
@@ -5412,7 +5485,7 @@
         <v>0.99</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>83</v>
       </c>
@@ -5420,7 +5493,7 @@
         <v>0.99</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>84</v>
       </c>
@@ -5428,7 +5501,7 @@
         <v>0.99</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>85</v>
       </c>
@@ -5436,7 +5509,7 @@
         <v>0.99</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>86</v>
       </c>
@@ -5444,7 +5517,7 @@
         <v>0.99</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>87</v>
       </c>
@@ -5452,7 +5525,7 @@
         <v>0.99</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>88</v>
       </c>
@@ -5460,7 +5533,7 @@
         <v>0.99</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
         <v>89</v>
       </c>
@@ -5468,7 +5541,7 @@
         <v>0.99</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
         <v>90</v>
       </c>
@@ -5476,7 +5549,7 @@
         <v>0.99</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
         <v>91</v>
       </c>
@@ -5484,7 +5557,7 @@
         <v>0.99</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
         <v>92</v>
       </c>
@@ -5492,7 +5565,7 @@
         <v>0.99</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
         <v>93</v>
       </c>
@@ -5500,7 +5573,7 @@
         <v>0.99</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
         <v>94</v>
       </c>
@@ -5508,7 +5581,7 @@
         <v>0.99</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
         <v>95</v>
       </c>
@@ -5516,7 +5589,7 @@
         <v>0.99</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
         <v>96</v>
       </c>
@@ -5524,7 +5597,7 @@
         <v>0.99</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
         <v>97</v>
       </c>
@@ -5532,7 +5605,7 @@
         <v>0.99</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
         <v>98</v>
       </c>
@@ -5540,7 +5613,7 @@
         <v>0.99</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
         <v>99</v>
       </c>
@@ -5548,7 +5621,7 @@
         <v>0.99</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
         <v>100</v>
       </c>
@@ -5556,7 +5629,7 @@
         <v>0.99</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
         <v>101</v>
       </c>
@@ -5574,7 +5647,535 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4446509C-CB62-4FDB-A8D2-BE0D15E8AAF2}">
+  <dimension ref="A1:D38"/>
+  <sheetViews>
+    <sheetView topLeftCell="A19" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="18.109375" customWidth="1"/>
+    <col min="2" max="2" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>177</v>
+      </c>
+      <c r="B3" t="s">
+        <v>179</v>
+      </c>
+      <c r="C3" t="s">
+        <v>180</v>
+      </c>
+      <c r="D3" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="B4" s="25">
+        <v>44594</v>
+      </c>
+      <c r="C4" t="s">
+        <v>181</v>
+      </c>
+      <c r="D4" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="B5" s="25">
+        <v>44595</v>
+      </c>
+      <c r="C5" t="s">
+        <v>181</v>
+      </c>
+      <c r="D5" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="B6" s="25">
+        <v>44600</v>
+      </c>
+      <c r="C6" t="s">
+        <v>181</v>
+      </c>
+      <c r="D6" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="B7" s="25">
+        <v>44602</v>
+      </c>
+      <c r="C7" t="s">
+        <v>181</v>
+      </c>
+      <c r="D7" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="B8" s="25">
+        <v>44602</v>
+      </c>
+      <c r="C8" t="s">
+        <v>181</v>
+      </c>
+      <c r="D8" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="B9" s="25">
+        <v>44602</v>
+      </c>
+      <c r="C9" t="s">
+        <v>181</v>
+      </c>
+      <c r="D9" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="B10" s="25">
+        <v>44602</v>
+      </c>
+      <c r="C10" t="s">
+        <v>181</v>
+      </c>
+      <c r="D10" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="B11" s="25">
+        <v>44603</v>
+      </c>
+      <c r="C11" t="s">
+        <v>181</v>
+      </c>
+      <c r="D11" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="B12" s="25">
+        <v>44605</v>
+      </c>
+      <c r="C12" t="s">
+        <v>181</v>
+      </c>
+      <c r="D12" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="B13" s="25">
+        <v>44605</v>
+      </c>
+      <c r="C13" t="s">
+        <v>181</v>
+      </c>
+      <c r="D13" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="B14" s="25">
+        <v>44605</v>
+      </c>
+      <c r="C14" t="s">
+        <v>181</v>
+      </c>
+      <c r="D14" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="B15" s="25">
+        <v>44635</v>
+      </c>
+      <c r="C15" t="s">
+        <v>181</v>
+      </c>
+      <c r="D15" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="5" t="s">
+        <v>299</v>
+      </c>
+      <c r="B16" s="25">
+        <v>44643</v>
+      </c>
+      <c r="C16" t="s">
+        <v>181</v>
+      </c>
+      <c r="D16" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="5" t="s">
+        <v>302</v>
+      </c>
+      <c r="B17" s="25">
+        <v>44643</v>
+      </c>
+      <c r="C17" t="s">
+        <v>181</v>
+      </c>
+      <c r="D17" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="5" t="s">
+        <v>305</v>
+      </c>
+      <c r="B18" s="25">
+        <v>44643</v>
+      </c>
+      <c r="C18" t="s">
+        <v>181</v>
+      </c>
+      <c r="D18" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="5" t="s">
+        <v>322</v>
+      </c>
+      <c r="B19" s="25">
+        <v>44656</v>
+      </c>
+      <c r="C19" t="s">
+        <v>181</v>
+      </c>
+      <c r="D19" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" s="5" t="s">
+        <v>324</v>
+      </c>
+      <c r="B20" s="25">
+        <v>44657</v>
+      </c>
+      <c r="C20" t="s">
+        <v>181</v>
+      </c>
+      <c r="D20" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" s="5" t="s">
+        <v>335</v>
+      </c>
+      <c r="B21" s="25">
+        <v>44657</v>
+      </c>
+      <c r="C21" t="s">
+        <v>181</v>
+      </c>
+      <c r="D21" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" s="5" t="s">
+        <v>343</v>
+      </c>
+      <c r="B22" s="25">
+        <v>44680</v>
+      </c>
+      <c r="C22" t="s">
+        <v>181</v>
+      </c>
+      <c r="D22" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" s="5" t="s">
+        <v>344</v>
+      </c>
+      <c r="B23" s="25">
+        <v>44680</v>
+      </c>
+      <c r="C23" t="s">
+        <v>181</v>
+      </c>
+      <c r="D23" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" s="5" t="s">
+        <v>349</v>
+      </c>
+      <c r="B24" s="25">
+        <v>44690</v>
+      </c>
+      <c r="C24" t="s">
+        <v>181</v>
+      </c>
+      <c r="D24" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="B25" s="25">
+        <v>44695</v>
+      </c>
+      <c r="C25" t="s">
+        <v>181</v>
+      </c>
+      <c r="D25" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" s="5" t="s">
+        <v>377</v>
+      </c>
+      <c r="B26" s="25">
+        <v>44701</v>
+      </c>
+      <c r="C26" t="s">
+        <v>181</v>
+      </c>
+      <c r="D26" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" s="5" t="s">
+        <v>380</v>
+      </c>
+      <c r="B27" s="25">
+        <v>44701</v>
+      </c>
+      <c r="C27" t="s">
+        <v>181</v>
+      </c>
+      <c r="D27" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" s="5" t="s">
+        <v>391</v>
+      </c>
+      <c r="B28" s="25">
+        <v>44712</v>
+      </c>
+      <c r="C28" t="s">
+        <v>181</v>
+      </c>
+      <c r="D28" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" s="5" t="s">
+        <v>399</v>
+      </c>
+      <c r="B29" s="25">
+        <v>44727</v>
+      </c>
+      <c r="C29" t="s">
+        <v>181</v>
+      </c>
+      <c r="D29" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" s="5" t="s">
+        <v>401</v>
+      </c>
+      <c r="B30" s="25">
+        <v>44734</v>
+      </c>
+      <c r="C30" t="s">
+        <v>181</v>
+      </c>
+      <c r="D30" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" s="5" t="s">
+        <v>415</v>
+      </c>
+      <c r="B31" s="25">
+        <v>44741</v>
+      </c>
+      <c r="C31" t="s">
+        <v>181</v>
+      </c>
+      <c r="D31" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" s="5" t="s">
+        <v>436</v>
+      </c>
+      <c r="B32" s="25">
+        <v>44840</v>
+      </c>
+      <c r="C32" t="s">
+        <v>181</v>
+      </c>
+      <c r="D32" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" s="5" t="s">
+        <v>440</v>
+      </c>
+      <c r="B33" s="25">
+        <v>44850</v>
+      </c>
+      <c r="C33" t="s">
+        <v>181</v>
+      </c>
+      <c r="D33" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" s="5" t="s">
+        <v>446</v>
+      </c>
+      <c r="B34" s="25">
+        <v>44875</v>
+      </c>
+      <c r="C34" t="s">
+        <v>181</v>
+      </c>
+      <c r="D34" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" s="5" t="s">
+        <v>448</v>
+      </c>
+      <c r="B35" s="25">
+        <v>44876</v>
+      </c>
+      <c r="C35" t="s">
+        <v>181</v>
+      </c>
+      <c r="D35" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36" s="5" t="s">
+        <v>457</v>
+      </c>
+      <c r="B36" s="25">
+        <v>44889</v>
+      </c>
+      <c r="C36" t="s">
+        <v>181</v>
+      </c>
+      <c r="D36" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37" s="5" t="s">
+        <v>466</v>
+      </c>
+      <c r="B37" s="25">
+        <v>44893</v>
+      </c>
+      <c r="C37" t="s">
+        <v>181</v>
+      </c>
+      <c r="D37" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38" s="5" t="s">
+        <v>468</v>
+      </c>
+      <c r="B38" s="25">
+        <v>44903</v>
+      </c>
+      <c r="C38" t="s">
+        <v>181</v>
+      </c>
+      <c r="D38" t="s">
+        <v>469</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6619729E-584E-41E3-B72E-7B2979330C88}">
   <dimension ref="A1:X7"/>
   <sheetViews>
@@ -5585,34 +6186,34 @@
       <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="17.5703125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" customWidth="1"/>
-    <col min="4" max="4" width="19.140625" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" customWidth="1"/>
-    <col min="6" max="6" width="12.28515625" customWidth="1"/>
+    <col min="1" max="1" width="12.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="17.5546875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" customWidth="1"/>
+    <col min="4" max="4" width="19.109375" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" customWidth="1"/>
+    <col min="6" max="6" width="12.33203125" customWidth="1"/>
     <col min="7" max="7" width="15" customWidth="1"/>
-    <col min="8" max="8" width="11.5703125" customWidth="1"/>
+    <col min="8" max="8" width="11.5546875" customWidth="1"/>
     <col min="9" max="9" width="11" customWidth="1"/>
-    <col min="10" max="10" width="10.5703125" customWidth="1"/>
-    <col min="11" max="11" width="10.42578125" customWidth="1"/>
-    <col min="12" max="12" width="10.28515625" customWidth="1"/>
-    <col min="13" max="13" width="11.5703125" customWidth="1"/>
-    <col min="14" max="14" width="7.7109375" customWidth="1"/>
+    <col min="10" max="10" width="10.5546875" customWidth="1"/>
+    <col min="11" max="11" width="10.44140625" customWidth="1"/>
+    <col min="12" max="12" width="10.33203125" customWidth="1"/>
+    <col min="13" max="13" width="11.5546875" customWidth="1"/>
+    <col min="14" max="14" width="7.6640625" customWidth="1"/>
     <col min="15" max="15" width="8" customWidth="1"/>
-    <col min="16" max="16" width="8.5703125" customWidth="1"/>
-    <col min="17" max="17" width="10.140625" customWidth="1"/>
-    <col min="18" max="18" width="11.7109375" customWidth="1"/>
-    <col min="19" max="19" width="9.85546875" customWidth="1"/>
-    <col min="20" max="20" width="12.140625" customWidth="1"/>
-    <col min="21" max="22" width="10.140625" customWidth="1"/>
+    <col min="16" max="16" width="8.5546875" customWidth="1"/>
+    <col min="17" max="17" width="10.109375" customWidth="1"/>
+    <col min="18" max="18" width="11.6640625" customWidth="1"/>
+    <col min="19" max="19" width="9.88671875" customWidth="1"/>
+    <col min="20" max="20" width="12.109375" customWidth="1"/>
+    <col min="21" max="22" width="10.109375" customWidth="1"/>
     <col min="23" max="24" width="8" customWidth="1"/>
-    <col min="26" max="26" width="8.140625" customWidth="1"/>
+    <col min="26" max="26" width="8.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A1" s="37" t="s">
         <v>237</v>
       </c>
@@ -5684,7 +6285,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="2" spans="1:24" s="23" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" s="23" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="21" t="s">
         <v>1</v>
       </c>
@@ -5758,7 +6359,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>27</v>
       </c>
@@ -5798,7 +6399,7 @@
       </c>
       <c r="T3" s="5"/>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>27</v>
       </c>
@@ -5825,7 +6426,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>27</v>
       </c>
@@ -5855,7 +6456,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>309</v>
       </c>
@@ -5866,7 +6467,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>386</v>
       </c>
@@ -5900,535 +6501,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4446509C-CB62-4FDB-A8D2-BE0D15E8AAF2}">
-  <dimension ref="A1:D38"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="18.140625" customWidth="1"/>
-    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>177</v>
-      </c>
-      <c r="B3" t="s">
-        <v>179</v>
-      </c>
-      <c r="C3" t="s">
-        <v>180</v>
-      </c>
-      <c r="D3" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
-        <v>178</v>
-      </c>
-      <c r="B4" s="25">
-        <v>44594</v>
-      </c>
-      <c r="C4" t="s">
-        <v>181</v>
-      </c>
-      <c r="D4" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
-        <v>184</v>
-      </c>
-      <c r="B5" s="25">
-        <v>44595</v>
-      </c>
-      <c r="C5" t="s">
-        <v>181</v>
-      </c>
-      <c r="D5" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
-        <v>190</v>
-      </c>
-      <c r="B6" s="25">
-        <v>44600</v>
-      </c>
-      <c r="C6" t="s">
-        <v>181</v>
-      </c>
-      <c r="D6" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="B7" s="25">
-        <v>44602</v>
-      </c>
-      <c r="C7" t="s">
-        <v>181</v>
-      </c>
-      <c r="D7" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
-        <v>234</v>
-      </c>
-      <c r="B8" s="25">
-        <v>44602</v>
-      </c>
-      <c r="C8" t="s">
-        <v>181</v>
-      </c>
-      <c r="D8" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
-        <v>242</v>
-      </c>
-      <c r="B9" s="25">
-        <v>44602</v>
-      </c>
-      <c r="C9" t="s">
-        <v>181</v>
-      </c>
-      <c r="D9" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
-        <v>251</v>
-      </c>
-      <c r="B10" s="25">
-        <v>44602</v>
-      </c>
-      <c r="C10" t="s">
-        <v>181</v>
-      </c>
-      <c r="D10" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
-        <v>254</v>
-      </c>
-      <c r="B11" s="25">
-        <v>44603</v>
-      </c>
-      <c r="C11" t="s">
-        <v>181</v>
-      </c>
-      <c r="D11" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
-        <v>258</v>
-      </c>
-      <c r="B12" s="25">
-        <v>44605</v>
-      </c>
-      <c r="C12" t="s">
-        <v>181</v>
-      </c>
-      <c r="D12" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
-        <v>264</v>
-      </c>
-      <c r="B13" s="25">
-        <v>44605</v>
-      </c>
-      <c r="C13" t="s">
-        <v>181</v>
-      </c>
-      <c r="D13" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
-        <v>266</v>
-      </c>
-      <c r="B14" s="25">
-        <v>44605</v>
-      </c>
-      <c r="C14" t="s">
-        <v>181</v>
-      </c>
-      <c r="D14" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="5" t="s">
-        <v>278</v>
-      </c>
-      <c r="B15" s="25">
-        <v>44635</v>
-      </c>
-      <c r="C15" t="s">
-        <v>181</v>
-      </c>
-      <c r="D15" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="5" t="s">
-        <v>299</v>
-      </c>
-      <c r="B16" s="25">
-        <v>44643</v>
-      </c>
-      <c r="C16" t="s">
-        <v>181</v>
-      </c>
-      <c r="D16" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="5" t="s">
-        <v>302</v>
-      </c>
-      <c r="B17" s="25">
-        <v>44643</v>
-      </c>
-      <c r="C17" t="s">
-        <v>181</v>
-      </c>
-      <c r="D17" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="5" t="s">
-        <v>305</v>
-      </c>
-      <c r="B18" s="25">
-        <v>44643</v>
-      </c>
-      <c r="C18" t="s">
-        <v>181</v>
-      </c>
-      <c r="D18" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="5" t="s">
-        <v>322</v>
-      </c>
-      <c r="B19" s="25">
-        <v>44656</v>
-      </c>
-      <c r="C19" t="s">
-        <v>181</v>
-      </c>
-      <c r="D19" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="5" t="s">
-        <v>324</v>
-      </c>
-      <c r="B20" s="25">
-        <v>44657</v>
-      </c>
-      <c r="C20" t="s">
-        <v>181</v>
-      </c>
-      <c r="D20" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="5" t="s">
-        <v>335</v>
-      </c>
-      <c r="B21" s="25">
-        <v>44657</v>
-      </c>
-      <c r="C21" t="s">
-        <v>181</v>
-      </c>
-      <c r="D21" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="5" t="s">
-        <v>343</v>
-      </c>
-      <c r="B22" s="25">
-        <v>44680</v>
-      </c>
-      <c r="C22" t="s">
-        <v>181</v>
-      </c>
-      <c r="D22" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="5" t="s">
-        <v>344</v>
-      </c>
-      <c r="B23" s="25">
-        <v>44680</v>
-      </c>
-      <c r="C23" t="s">
-        <v>181</v>
-      </c>
-      <c r="D23" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="5" t="s">
-        <v>349</v>
-      </c>
-      <c r="B24" s="25">
-        <v>44690</v>
-      </c>
-      <c r="C24" t="s">
-        <v>181</v>
-      </c>
-      <c r="D24" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="B25" s="25">
-        <v>44695</v>
-      </c>
-      <c r="C25" t="s">
-        <v>181</v>
-      </c>
-      <c r="D25" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="5" t="s">
-        <v>377</v>
-      </c>
-      <c r="B26" s="25">
-        <v>44701</v>
-      </c>
-      <c r="C26" t="s">
-        <v>181</v>
-      </c>
-      <c r="D26" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="5" t="s">
-        <v>380</v>
-      </c>
-      <c r="B27" s="25">
-        <v>44701</v>
-      </c>
-      <c r="C27" t="s">
-        <v>181</v>
-      </c>
-      <c r="D27" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="5" t="s">
-        <v>391</v>
-      </c>
-      <c r="B28" s="25">
-        <v>44712</v>
-      </c>
-      <c r="C28" t="s">
-        <v>181</v>
-      </c>
-      <c r="D28" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="5" t="s">
-        <v>399</v>
-      </c>
-      <c r="B29" s="25">
-        <v>44727</v>
-      </c>
-      <c r="C29" t="s">
-        <v>181</v>
-      </c>
-      <c r="D29" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="5" t="s">
-        <v>401</v>
-      </c>
-      <c r="B30" s="25">
-        <v>44734</v>
-      </c>
-      <c r="C30" t="s">
-        <v>181</v>
-      </c>
-      <c r="D30" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="5" t="s">
-        <v>415</v>
-      </c>
-      <c r="B31" s="25">
-        <v>44741</v>
-      </c>
-      <c r="C31" t="s">
-        <v>181</v>
-      </c>
-      <c r="D31" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="5" t="s">
-        <v>436</v>
-      </c>
-      <c r="B32" s="25">
-        <v>44840</v>
-      </c>
-      <c r="C32" t="s">
-        <v>181</v>
-      </c>
-      <c r="D32" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="5" t="s">
-        <v>440</v>
-      </c>
-      <c r="B33" s="25">
-        <v>44850</v>
-      </c>
-      <c r="C33" t="s">
-        <v>181</v>
-      </c>
-      <c r="D33" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="5" t="s">
-        <v>446</v>
-      </c>
-      <c r="B34" s="25">
-        <v>44875</v>
-      </c>
-      <c r="C34" t="s">
-        <v>181</v>
-      </c>
-      <c r="D34" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="5" t="s">
-        <v>448</v>
-      </c>
-      <c r="B35" s="25">
-        <v>44876</v>
-      </c>
-      <c r="C35" t="s">
-        <v>181</v>
-      </c>
-      <c r="D35" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="5" t="s">
-        <v>457</v>
-      </c>
-      <c r="B36" s="25">
-        <v>44889</v>
-      </c>
-      <c r="C36" t="s">
-        <v>181</v>
-      </c>
-      <c r="D36" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="5" t="s">
-        <v>466</v>
-      </c>
-      <c r="B37" s="25">
-        <v>44893</v>
-      </c>
-      <c r="C37" t="s">
-        <v>181</v>
-      </c>
-      <c r="D37" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="5" t="s">
-        <v>468</v>
-      </c>
-      <c r="B38" s="25">
-        <v>44903</v>
-      </c>
-      <c r="C38" t="s">
-        <v>181</v>
-      </c>
-      <c r="D38" t="s">
-        <v>469</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F519FEB-FCA9-4C11-88F7-D4EA23EF6482}">
   <dimension ref="A1:M5"/>
   <sheetViews>
@@ -6439,24 +6512,24 @@
       <selection pane="bottomRight" activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="17.5703125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="11.85546875" style="4" customWidth="1"/>
-    <col min="4" max="4" width="10.7109375" customWidth="1"/>
-    <col min="5" max="5" width="10.140625" customWidth="1"/>
+    <col min="1" max="1" width="12.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="17.5546875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" style="4" customWidth="1"/>
+    <col min="4" max="4" width="10.6640625" customWidth="1"/>
+    <col min="5" max="5" width="10.109375" customWidth="1"/>
     <col min="6" max="6" width="10" customWidth="1"/>
-    <col min="7" max="7" width="9.85546875" customWidth="1"/>
-    <col min="8" max="8" width="11.5703125" customWidth="1"/>
-    <col min="9" max="9" width="13.42578125" customWidth="1"/>
-    <col min="10" max="10" width="12.28515625" customWidth="1"/>
-    <col min="11" max="11" width="9.85546875" customWidth="1"/>
-    <col min="12" max="12" width="11.42578125" customWidth="1"/>
-    <col min="13" max="13" width="12.140625" customWidth="1"/>
+    <col min="7" max="7" width="9.88671875" customWidth="1"/>
+    <col min="8" max="8" width="11.5546875" customWidth="1"/>
+    <col min="9" max="9" width="13.44140625" customWidth="1"/>
+    <col min="10" max="10" width="12.33203125" customWidth="1"/>
+    <col min="11" max="11" width="9.88671875" customWidth="1"/>
+    <col min="12" max="12" width="11.44140625" customWidth="1"/>
+    <col min="13" max="13" width="12.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" s="37" t="s">
         <v>237</v>
       </c>
@@ -6493,7 +6566,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
         <v>1</v>
       </c>
@@ -6534,7 +6607,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>27</v>
       </c>
@@ -6548,7 +6621,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>27</v>
       </c>
@@ -6562,7 +6635,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>27</v>
       </c>
@@ -6584,7 +6657,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66A4A219-02B1-4261-8559-589A0949A31B}">
   <dimension ref="A1:K27"/>
   <sheetViews>
@@ -6595,15 +6668,15 @@
       <selection pane="bottomRight" activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.85546875" style="4" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" style="17" customWidth="1"/>
+    <col min="1" max="1" width="11.88671875" style="4" customWidth="1"/>
+    <col min="2" max="2" width="11.88671875" style="17" customWidth="1"/>
     <col min="3" max="3" width="12" customWidth="1"/>
     <col min="4" max="4" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="37" t="s">
         <v>237</v>
       </c>
@@ -6614,7 +6687,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3"/>
       <c r="B2" s="15" t="s">
         <v>165</v>
@@ -6623,7 +6696,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>26</v>
       </c>
@@ -6634,7 +6707,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>28</v>
       </c>
@@ -6642,7 +6715,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>29</v>
       </c>
@@ -6651,7 +6724,7 @@
       </c>
       <c r="K5" s="16"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>80</v>
       </c>
@@ -6659,7 +6732,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>81</v>
       </c>
@@ -6667,7 +6740,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>82</v>
       </c>
@@ -6675,7 +6748,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>83</v>
       </c>
@@ -6683,7 +6756,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>84</v>
       </c>
@@ -6691,7 +6764,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>85</v>
       </c>
@@ -6699,7 +6772,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>86</v>
       </c>
@@ -6707,7 +6780,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>87</v>
       </c>
@@ -6715,7 +6788,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>88</v>
       </c>
@@ -6723,7 +6796,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
         <v>89</v>
       </c>
@@ -6731,7 +6804,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
         <v>90</v>
       </c>
@@ -6739,7 +6812,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
         <v>91</v>
       </c>
@@ -6747,7 +6820,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
         <v>92</v>
       </c>
@@ -6755,7 +6828,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
         <v>93</v>
       </c>
@@ -6763,7 +6836,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
         <v>94</v>
       </c>
@@ -6771,7 +6844,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
         <v>95</v>
       </c>
@@ -6779,7 +6852,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
         <v>96</v>
       </c>
@@ -6787,7 +6860,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
         <v>97</v>
       </c>
@@ -6795,7 +6868,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
         <v>98</v>
       </c>
@@ -6803,7 +6876,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
         <v>99</v>
       </c>
@@ -6811,7 +6884,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
         <v>100</v>
       </c>
@@ -6819,7 +6892,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
         <v>101</v>
       </c>
@@ -6837,7 +6910,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C13F0C3-2BD2-4859-9713-8823A445C2E8}">
   <dimension ref="A1:Q10"/>
   <sheetViews>
@@ -6848,25 +6921,25 @@
       <selection pane="bottomRight" activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="17.85546875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="18.28515625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="12.5703125" style="20" customWidth="1"/>
-    <col min="5" max="5" width="11.140625" customWidth="1"/>
+    <col min="1" max="1" width="12.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="17.88671875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="18.33203125" style="4" customWidth="1"/>
+    <col min="4" max="4" width="12.5546875" style="20" customWidth="1"/>
+    <col min="5" max="5" width="11.109375" customWidth="1"/>
     <col min="6" max="6" width="22" customWidth="1"/>
-    <col min="7" max="7" width="19.140625" customWidth="1"/>
-    <col min="8" max="8" width="16.42578125" customWidth="1"/>
-    <col min="9" max="9" width="13.5703125" customWidth="1"/>
-    <col min="10" max="10" width="10.42578125" customWidth="1"/>
-    <col min="11" max="11" width="18.28515625" customWidth="1"/>
+    <col min="7" max="7" width="19.109375" customWidth="1"/>
+    <col min="8" max="8" width="16.44140625" customWidth="1"/>
+    <col min="9" max="9" width="13.5546875" customWidth="1"/>
+    <col min="10" max="10" width="10.44140625" customWidth="1"/>
+    <col min="11" max="11" width="18.33203125" customWidth="1"/>
     <col min="12" max="12" width="16" customWidth="1"/>
-    <col min="13" max="13" width="7.85546875" customWidth="1"/>
-    <col min="14" max="14" width="8.28515625" customWidth="1"/>
+    <col min="13" max="13" width="7.88671875" customWidth="1"/>
+    <col min="14" max="14" width="8.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="37" t="s">
         <v>237</v>
       </c>
@@ -6901,7 +6974,7 @@
       <c r="P1" s="3"/>
       <c r="Q1" s="3"/>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
         <v>1</v>
       </c>
@@ -6942,7 +7015,7 @@
       <c r="P2" s="3"/>
       <c r="Q2" s="3"/>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>27</v>
       </c>
@@ -6965,7 +7038,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>27</v>
       </c>
@@ -6985,7 +7058,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>27</v>
       </c>
@@ -7002,7 +7075,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>27</v>
       </c>
@@ -7022,7 +7095,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>27</v>
       </c>
@@ -7042,7 +7115,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>386</v>
       </c>
@@ -7059,7 +7132,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>386</v>
       </c>
@@ -7076,7 +7149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>386</v>
       </c>
@@ -7101,7 +7174,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A54CEF76-2D28-40D4-A5BB-1AAB8A75E52F}">
   <dimension ref="A1:K29"/>
   <sheetViews>
@@ -7112,15 +7185,15 @@
       <selection pane="bottomRight" activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.85546875" style="4" customWidth="1"/>
-    <col min="2" max="2" width="13.140625" style="17" customWidth="1"/>
-    <col min="3" max="3" width="12.28515625" customWidth="1"/>
+    <col min="1" max="1" width="11.88671875" style="4" customWidth="1"/>
+    <col min="2" max="2" width="13.109375" style="17" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" customWidth="1"/>
     <col min="4" max="4" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="37" t="s">
         <v>237</v>
       </c>
@@ -7131,7 +7204,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3"/>
       <c r="B2" s="15" t="s">
         <v>165</v>
@@ -7140,7 +7213,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="3" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3"/>
       <c r="B3" s="6" t="s">
         <v>118</v>
@@ -7149,7 +7222,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="4" spans="1:11" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" s="18" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3"/>
       <c r="B4" s="11" t="s">
         <v>56</v>
@@ -7158,7 +7231,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="5" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>26</v>
       </c>
@@ -7169,7 +7242,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>28</v>
       </c>
@@ -7177,7 +7250,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>29</v>
       </c>
@@ -7186,7 +7259,7 @@
       </c>
       <c r="K7" s="16"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>80</v>
       </c>
@@ -7194,7 +7267,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>81</v>
       </c>
@@ -7202,7 +7275,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>82</v>
       </c>
@@ -7210,7 +7283,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>83</v>
       </c>
@@ -7218,7 +7291,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>84</v>
       </c>
@@ -7226,7 +7299,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>85</v>
       </c>
@@ -7234,7 +7307,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>86</v>
       </c>
@@ -7242,7 +7315,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
         <v>87</v>
       </c>
@@ -7250,7 +7323,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
         <v>88</v>
       </c>
@@ -7258,7 +7331,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
         <v>89</v>
       </c>
@@ -7266,7 +7339,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
         <v>90</v>
       </c>
@@ -7274,7 +7347,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
         <v>91</v>
       </c>
@@ -7282,7 +7355,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
         <v>92</v>
       </c>
@@ -7290,7 +7363,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
         <v>93</v>
       </c>
@@ -7298,7 +7371,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
         <v>94</v>
       </c>
@@ -7306,7 +7379,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
         <v>95</v>
       </c>
@@ -7314,7 +7387,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
         <v>96</v>
       </c>
@@ -7322,7 +7395,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
         <v>97</v>
       </c>
@@ -7330,7 +7403,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
         <v>98</v>
       </c>
@@ -7338,7 +7411,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
         <v>99</v>
       </c>
@@ -7346,7 +7419,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
         <v>100</v>
       </c>
@@ -7354,7 +7427,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
         <v>101</v>
       </c>
@@ -7372,7 +7445,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDE19B28-F2BE-409F-B1A6-1F5F2146177E}">
   <dimension ref="A1:F26"/>
   <sheetViews>
@@ -7383,13 +7456,13 @@
       <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.7109375" style="4" customWidth="1"/>
+    <col min="1" max="1" width="14.6640625" style="4" customWidth="1"/>
     <col min="2" max="2" width="12" style="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
         <v>136</v>
       </c>
@@ -7409,7 +7482,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>26</v>
       </c>
@@ -7429,7 +7502,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>28</v>
       </c>
@@ -7446,7 +7519,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>29</v>
       </c>
@@ -7463,7 +7536,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>80</v>
       </c>
@@ -7480,7 +7553,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>81</v>
       </c>
@@ -7497,7 +7570,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>82</v>
       </c>
@@ -7514,7 +7587,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>83</v>
       </c>
@@ -7531,7 +7604,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>84</v>
       </c>
@@ -7548,7 +7621,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>85</v>
       </c>
@@ -7565,7 +7638,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>86</v>
       </c>
@@ -7582,7 +7655,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>87</v>
       </c>
@@ -7599,7 +7672,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>88</v>
       </c>
@@ -7616,7 +7689,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>89</v>
       </c>
@@ -7633,7 +7706,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
         <v>90</v>
       </c>
@@ -7650,7 +7723,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
         <v>91</v>
       </c>
@@ -7667,7 +7740,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
         <v>92</v>
       </c>
@@ -7684,7 +7757,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
         <v>93</v>
       </c>
@@ -7701,7 +7774,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
         <v>94</v>
       </c>
@@ -7718,7 +7791,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
         <v>95</v>
       </c>
@@ -7735,7 +7808,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
         <v>96</v>
       </c>
@@ -7752,7 +7825,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
         <v>97</v>
       </c>
@@ -7769,7 +7842,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
         <v>98</v>
       </c>
@@ -7786,7 +7859,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
         <v>99</v>
       </c>
@@ -7803,7 +7876,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
         <v>100</v>
       </c>
@@ -7820,7 +7893,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
         <v>101</v>
       </c>
@@ -7843,7 +7916,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F666A2D2-C97B-40BC-8DAB-2941397753E9}">
   <dimension ref="A1:J3"/>
   <sheetViews>
@@ -7854,16 +7927,16 @@
       <selection pane="bottomRight" activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="11.88671875" style="1" customWidth="1"/>
     <col min="2" max="2" width="13" style="2" customWidth="1"/>
-    <col min="3" max="3" width="15.140625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="15.85546875" customWidth="1"/>
-    <col min="5" max="7" width="11.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.109375" style="4" customWidth="1"/>
+    <col min="4" max="4" width="15.88671875" customWidth="1"/>
+    <col min="5" max="7" width="11.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="37" t="s">
         <v>237</v>
       </c>
@@ -7873,7 +7946,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
         <v>1</v>
       </c>
@@ -7893,7 +7966,7 @@
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>27</v>
       </c>
@@ -7915,7 +7988,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3E6DA50-D119-4E64-AFE0-DB17C1EE7F55}">
   <dimension ref="A1:J3"/>
   <sheetViews>
@@ -7926,16 +7999,16 @@
       <selection pane="bottomRight" activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.85546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="15.140625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="15.85546875" customWidth="1"/>
-    <col min="5" max="7" width="11.5703125" customWidth="1"/>
+    <col min="1" max="1" width="11.88671875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="15.109375" style="4" customWidth="1"/>
+    <col min="4" max="4" width="15.88671875" customWidth="1"/>
+    <col min="5" max="7" width="11.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="37" t="s">
         <v>237</v>
       </c>
@@ -7945,7 +8018,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
         <v>1</v>
       </c>
@@ -7965,7 +8038,7 @@
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>27</v>
       </c>
@@ -7987,7 +8060,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D1EE4BC-08B3-4CC5-9A8F-D2957036E873}">
   <dimension ref="A1:K4"/>
   <sheetViews>
@@ -7998,17 +8071,17 @@
       <selection pane="bottomRight" activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.85546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="11.85546875" style="18" customWidth="1"/>
-    <col min="4" max="4" width="11.85546875" style="4" customWidth="1"/>
-    <col min="5" max="5" width="15.85546875" customWidth="1"/>
-    <col min="6" max="8" width="11.5703125" customWidth="1"/>
+    <col min="1" max="1" width="11.88671875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11.88671875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" style="18" customWidth="1"/>
+    <col min="4" max="4" width="11.88671875" style="4" customWidth="1"/>
+    <col min="5" max="5" width="15.88671875" customWidth="1"/>
+    <col min="6" max="8" width="11.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="37" t="s">
         <v>237</v>
       </c>
@@ -8019,7 +8092,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
         <v>1</v>
       </c>
@@ -8042,7 +8115,7 @@
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>27</v>
       </c>
@@ -8059,7 +8132,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>27</v>
       </c>
@@ -8084,7 +8157,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17A58EF0-B113-4E3B-A099-AB516EC20AF0}">
   <dimension ref="A1:V7"/>
   <sheetViews>
@@ -8095,33 +8168,33 @@
       <selection pane="bottomRight" activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="17.5703125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="13.85546875" customWidth="1"/>
-    <col min="4" max="4" width="19.140625" customWidth="1"/>
+    <col min="1" max="1" width="12.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="17.5546875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="13.88671875" customWidth="1"/>
+    <col min="4" max="4" width="19.109375" customWidth="1"/>
     <col min="5" max="5" width="16" customWidth="1"/>
-    <col min="6" max="6" width="22.85546875" customWidth="1"/>
-    <col min="7" max="7" width="11.5703125" customWidth="1"/>
-    <col min="8" max="8" width="12.5703125" customWidth="1"/>
-    <col min="9" max="9" width="15.28515625" customWidth="1"/>
+    <col min="6" max="6" width="22.88671875" customWidth="1"/>
+    <col min="7" max="7" width="11.5546875" customWidth="1"/>
+    <col min="8" max="8" width="12.5546875" customWidth="1"/>
+    <col min="9" max="9" width="15.33203125" customWidth="1"/>
     <col min="10" max="10" width="21" customWidth="1"/>
     <col min="11" max="11" width="22" customWidth="1"/>
-    <col min="12" max="12" width="24.140625" customWidth="1"/>
-    <col min="13" max="13" width="12.28515625" customWidth="1"/>
-    <col min="14" max="14" width="9.85546875" customWidth="1"/>
+    <col min="12" max="12" width="24.109375" customWidth="1"/>
+    <col min="13" max="13" width="12.33203125" customWidth="1"/>
+    <col min="14" max="14" width="9.88671875" customWidth="1"/>
     <col min="15" max="15" width="14" customWidth="1"/>
-    <col min="16" max="16" width="15.140625" customWidth="1"/>
-    <col min="17" max="17" width="16.7109375" customWidth="1"/>
-    <col min="18" max="18" width="15.7109375" customWidth="1"/>
-    <col min="19" max="20" width="20.85546875" customWidth="1"/>
-    <col min="21" max="22" width="16.7109375" customWidth="1"/>
-    <col min="23" max="23" width="16.42578125" customWidth="1"/>
-    <col min="24" max="28" width="11.5703125" customWidth="1"/>
+    <col min="16" max="16" width="15.109375" customWidth="1"/>
+    <col min="17" max="17" width="16.6640625" customWidth="1"/>
+    <col min="18" max="18" width="15.6640625" customWidth="1"/>
+    <col min="19" max="20" width="20.88671875" customWidth="1"/>
+    <col min="21" max="22" width="16.6640625" customWidth="1"/>
+    <col min="23" max="23" width="16.44140625" customWidth="1"/>
+    <col min="24" max="28" width="11.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A1" s="37" t="s">
         <v>237</v>
       </c>
@@ -8187,7 +8260,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
         <v>1</v>
       </c>
@@ -8255,7 +8328,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>27</v>
       </c>
@@ -8267,7 +8340,7 @@
       </c>
       <c r="P3" s="47"/>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>27</v>
       </c>
@@ -8287,7 +8360,7 @@
         <v>5500</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>308</v>
       </c>
@@ -8301,7 +8374,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>334</v>
       </c>
@@ -8315,7 +8388,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>27</v>
       </c>
@@ -8329,167 +8402,6 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A1" location="navigate!A1" display="navigate" xr:uid="{852BC4BD-5998-4D24-BBC1-621B812305CF}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA54FD9A-FB2F-4111-AC75-F20843B34F53}">
-  <dimension ref="A1:N5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D3" sqref="D3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="12.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="17.5703125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" style="4" customWidth="1"/>
-    <col min="4" max="4" width="15.85546875" customWidth="1"/>
-    <col min="5" max="5" width="13.28515625" customWidth="1"/>
-    <col min="6" max="6" width="22.42578125" customWidth="1"/>
-    <col min="7" max="7" width="11.5703125" customWidth="1"/>
-    <col min="8" max="8" width="16.140625" customWidth="1"/>
-    <col min="9" max="9" width="18.85546875" customWidth="1"/>
-    <col min="10" max="10" width="18.140625" customWidth="1"/>
-    <col min="11" max="12" width="20.85546875" customWidth="1"/>
-    <col min="13" max="14" width="16.5703125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="37" t="s">
-        <v>237</v>
-      </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F1" t="s">
-        <v>53</v>
-      </c>
-      <c r="G1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H1" t="s">
-        <v>473</v>
-      </c>
-      <c r="I1" t="s">
-        <v>46</v>
-      </c>
-      <c r="J1" t="s">
-        <v>49</v>
-      </c>
-      <c r="K1" t="s">
-        <v>331</v>
-      </c>
-      <c r="L1" t="s">
-        <v>332</v>
-      </c>
-      <c r="M1" t="s">
-        <v>341</v>
-      </c>
-      <c r="N1" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="F2" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="G2" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="H2" s="9" t="s">
-        <v>474</v>
-      </c>
-      <c r="I2" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="J2" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="K2" s="9" t="s">
-        <v>329</v>
-      </c>
-      <c r="L2" s="9" t="s">
-        <v>330</v>
-      </c>
-      <c r="M2" s="9" t="s">
-        <v>346</v>
-      </c>
-      <c r="N2" s="9" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="G3">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="G4">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="G5">
-        <v>20</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A1" location="navigate!A1" display="navigate" xr:uid="{95BDB1CF-651D-485E-82BF-761F2A502A04}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8506,13 +8418,13 @@
       <selection pane="bottomRight" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.85546875" style="9" customWidth="1"/>
-    <col min="2" max="21" width="14.7109375" customWidth="1"/>
+    <col min="1" max="1" width="21.88671875" style="9" customWidth="1"/>
+    <col min="2" max="21" width="14.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" s="37" t="s">
         <v>237</v>
       </c>
@@ -8520,7 +8432,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3"/>
       <c r="B2" s="6" t="s">
         <v>27</v>
@@ -8559,7 +8471,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
         <v>312</v>
       </c>
@@ -8600,7 +8512,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
         <v>311</v>
       </c>
@@ -8639,7 +8551,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
         <v>313</v>
       </c>
@@ -8657,37 +8569,37 @@
         <v>383</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
         <v>314</v>
       </c>
       <c r="B6" s="14"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
         <v>315</v>
       </c>
       <c r="B7" s="14"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="9" t="s">
         <v>316</v>
       </c>
       <c r="B8" s="14"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="9" t="s">
         <v>317</v>
       </c>
       <c r="B9" s="14"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="9" t="s">
         <v>318</v>
       </c>
       <c r="B10" s="14"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" s="9" t="s">
         <v>319</v>
       </c>
@@ -8702,6 +8614,167 @@
 </file>
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA54FD9A-FB2F-4111-AC75-F20843B34F53}">
+  <dimension ref="A1:N5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="D3" sqref="D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="17.5546875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="15.88671875" customWidth="1"/>
+    <col min="5" max="5" width="13.33203125" customWidth="1"/>
+    <col min="6" max="6" width="22.44140625" customWidth="1"/>
+    <col min="7" max="7" width="11.5546875" customWidth="1"/>
+    <col min="8" max="8" width="16.109375" customWidth="1"/>
+    <col min="9" max="9" width="18.88671875" customWidth="1"/>
+    <col min="10" max="10" width="18.109375" customWidth="1"/>
+    <col min="11" max="12" width="20.88671875" customWidth="1"/>
+    <col min="13" max="14" width="16.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A1" s="37" t="s">
+        <v>237</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H1" t="s">
+        <v>473</v>
+      </c>
+      <c r="I1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J1" t="s">
+        <v>49</v>
+      </c>
+      <c r="K1" t="s">
+        <v>331</v>
+      </c>
+      <c r="L1" t="s">
+        <v>332</v>
+      </c>
+      <c r="M1" t="s">
+        <v>341</v>
+      </c>
+      <c r="N1" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A2" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>474</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="K2" s="9" t="s">
+        <v>329</v>
+      </c>
+      <c r="L2" s="9" t="s">
+        <v>330</v>
+      </c>
+      <c r="M2" s="9" t="s">
+        <v>346</v>
+      </c>
+      <c r="N2" s="9" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="G3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="G4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="G5">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" location="navigate!A1" display="navigate" xr:uid="{95BDB1CF-651D-485E-82BF-761F2A502A04}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B745B3BE-1539-44A7-9F68-00D8AEBADA46}">
   <dimension ref="A1:K1"/>
   <sheetViews>
@@ -8710,14 +8783,14 @@
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.85546875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" style="4" customWidth="1"/>
-    <col min="3" max="8" width="11.5703125" customWidth="1"/>
+    <col min="1" max="1" width="11.88671875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="11.88671875" style="4" customWidth="1"/>
+    <col min="3" max="8" width="11.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>55</v>
       </c>
@@ -8739,7 +8812,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15C65105-DA47-40FD-BED9-039766CD67C2}">
   <dimension ref="A1:L1"/>
   <sheetViews>
@@ -8748,15 +8821,15 @@
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.85546875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" style="4" customWidth="1"/>
-    <col min="3" max="3" width="11.85546875" style="11" customWidth="1"/>
-    <col min="4" max="9" width="11.5703125" customWidth="1"/>
+    <col min="1" max="1" width="11.88671875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="11.88671875" style="4" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" style="11" customWidth="1"/>
+    <col min="4" max="9" width="11.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>55</v>
       </c>
@@ -8781,7 +8854,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DF6F0B0-C8D9-4343-9EA4-859E87C9AF78}">
   <dimension ref="A1:K6"/>
   <sheetViews>
@@ -8790,14 +8863,14 @@
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.28515625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" style="4" customWidth="1"/>
-    <col min="3" max="8" width="11.5703125" customWidth="1"/>
+    <col min="1" max="1" width="18.33203125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="11.88671875" style="4" customWidth="1"/>
+    <col min="3" max="8" width="11.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>55</v>
       </c>
@@ -8814,7 +8887,7 @@
       <c r="J1" s="3"/>
       <c r="K1" s="3"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>145</v>
       </c>
@@ -8822,7 +8895,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>145</v>
       </c>
@@ -8830,7 +8903,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>274</v>
       </c>
@@ -8838,7 +8911,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>337</v>
       </c>
@@ -8846,7 +8919,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>337</v>
       </c>
@@ -8859,7 +8932,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5455887B-7914-47A3-A368-88187BB1082B}">
   <dimension ref="A1:K1"/>
   <sheetViews>
@@ -8868,14 +8941,14 @@
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.85546875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" style="4" customWidth="1"/>
-    <col min="3" max="8" width="11.5703125" customWidth="1"/>
+    <col min="1" max="1" width="11.88671875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="11.88671875" style="4" customWidth="1"/>
+    <col min="3" max="8" width="11.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>55</v>
       </c>
@@ -8897,7 +8970,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8ED891B-8A85-405F-972C-9B1BFE92F9B9}">
   <dimension ref="A1:L3"/>
   <sheetViews>
@@ -8906,15 +8979,15 @@
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.85546875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" style="4" customWidth="1"/>
-    <col min="3" max="3" width="11.85546875" style="11" customWidth="1"/>
-    <col min="4" max="9" width="11.5703125" customWidth="1"/>
+    <col min="1" max="1" width="11.88671875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="11.88671875" style="4" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" style="11" customWidth="1"/>
+    <col min="4" max="9" width="11.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>55</v>
       </c>
@@ -8934,7 +9007,7 @@
       <c r="K1" s="3"/>
       <c r="L1" s="3"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>334</v>
       </c>
@@ -8945,7 +9018,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>334</v>
       </c>
@@ -8964,7 +9037,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB87FF22-BB83-4D5E-B38D-455D581CF757}">
   <dimension ref="A1:P3"/>
   <sheetViews>
@@ -8975,20 +9048,20 @@
       <selection pane="bottomRight" activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="11.85546875" style="4" customWidth="1"/>
-    <col min="4" max="4" width="11.85546875" style="11" customWidth="1"/>
-    <col min="5" max="5" width="11.85546875" style="13" customWidth="1"/>
+    <col min="1" max="1" width="12.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11.88671875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" style="4" customWidth="1"/>
+    <col min="4" max="4" width="11.88671875" style="11" customWidth="1"/>
+    <col min="5" max="5" width="11.88671875" style="13" customWidth="1"/>
     <col min="6" max="6" width="13" customWidth="1"/>
-    <col min="7" max="7" width="21.28515625" customWidth="1"/>
+    <col min="7" max="7" width="21.33203125" customWidth="1"/>
     <col min="8" max="8" width="18" customWidth="1"/>
-    <col min="9" max="13" width="11.5703125" customWidth="1"/>
+    <col min="9" max="13" width="11.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" s="37" t="s">
         <v>237</v>
       </c>
@@ -9018,7 +9091,7 @@
       <c r="O1" s="3"/>
       <c r="P1" s="3"/>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
         <v>1</v>
       </c>
@@ -9056,7 +9129,7 @@
       <c r="O2" s="3"/>
       <c r="P2" s="3"/>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>373</v>
       </c>
@@ -9090,7 +9163,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{866244AD-1571-447F-BAEE-EFE2B5B3F812}">
   <dimension ref="A1:O3"/>
   <sheetViews>
@@ -9098,23 +9171,23 @@
       <pane xSplit="4" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="H1" sqref="H1"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="11.85546875" style="4" customWidth="1"/>
-    <col min="4" max="4" width="11.85546875" style="11" customWidth="1"/>
-    <col min="5" max="5" width="15.7109375" customWidth="1"/>
-    <col min="6" max="6" width="12.85546875" customWidth="1"/>
-    <col min="7" max="7" width="15.85546875" customWidth="1"/>
-    <col min="8" max="8" width="21.42578125" customWidth="1"/>
-    <col min="9" max="12" width="11.5703125" customWidth="1"/>
+    <col min="1" max="1" width="12.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11.88671875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" style="4" customWidth="1"/>
+    <col min="4" max="4" width="11.88671875" style="11" customWidth="1"/>
+    <col min="5" max="5" width="15.6640625" customWidth="1"/>
+    <col min="6" max="6" width="12.88671875" customWidth="1"/>
+    <col min="7" max="7" width="15.88671875" customWidth="1"/>
+    <col min="8" max="8" width="21.44140625" customWidth="1"/>
+    <col min="9" max="12" width="11.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" s="37" t="s">
         <v>237</v>
       </c>
@@ -9140,7 +9213,7 @@
       <c r="N1" s="3"/>
       <c r="O1" s="3"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
         <v>1</v>
       </c>
@@ -9172,7 +9245,7 @@
       <c r="N2" s="3"/>
       <c r="O2" s="3"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>371</v>
       </c>
@@ -9206,7 +9279,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E57CD72E-4345-442F-8DFC-A799FEED107D}">
   <dimension ref="A1:K29"/>
   <sheetViews>
@@ -9217,15 +9290,15 @@
       <selection pane="bottomRight" activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.85546875" style="4" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" style="17" customWidth="1"/>
+    <col min="1" max="1" width="11.88671875" style="4" customWidth="1"/>
+    <col min="2" max="2" width="11.88671875" style="17" customWidth="1"/>
     <col min="3" max="3" width="12" customWidth="1"/>
     <col min="4" max="4" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="37" t="s">
         <v>237</v>
       </c>
@@ -9233,25 +9306,25 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3"/>
       <c r="B2" s="6" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="3" spans="1:11" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" s="18" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3"/>
       <c r="B3" s="11" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="4" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3"/>
       <c r="B4" s="19" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="5" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>26</v>
       </c>
@@ -9259,125 +9332,125 @@
         <v>165</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>29</v>
       </c>
       <c r="K7" s="16"/>
     </row>
-    <row r="8" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>80</v>
       </c>
       <c r="B8" s="17"/>
     </row>
-    <row r="9" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>81</v>
       </c>
       <c r="B9" s="17"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
         <v>101</v>
       </c>
@@ -9392,32 +9465,32 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E8C0D5E-7DB2-4BCF-8A8C-24C978AAECC4}">
   <dimension ref="A1:P7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="5" ySplit="2" topLeftCell="F3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G2" sqref="G2"/>
+      <selection pane="bottomRight" activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.85546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="11.85546875" style="4" customWidth="1"/>
-    <col min="4" max="4" width="11.85546875" style="11" customWidth="1"/>
-    <col min="5" max="5" width="11.85546875" style="13" customWidth="1"/>
+    <col min="1" max="1" width="16.88671875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11.88671875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" style="4" customWidth="1"/>
+    <col min="4" max="4" width="11.88671875" style="11" customWidth="1"/>
+    <col min="5" max="5" width="11.88671875" style="13" customWidth="1"/>
     <col min="6" max="6" width="14" customWidth="1"/>
-    <col min="7" max="7" width="22.140625" customWidth="1"/>
-    <col min="8" max="8" width="17.140625" customWidth="1"/>
-    <col min="9" max="9" width="12.140625" customWidth="1"/>
-    <col min="10" max="13" width="11.5703125" customWidth="1"/>
+    <col min="7" max="7" width="22.109375" customWidth="1"/>
+    <col min="8" max="8" width="17.109375" customWidth="1"/>
+    <col min="9" max="9" width="12.109375" customWidth="1"/>
+    <col min="10" max="13" width="11.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" s="37" t="s">
         <v>237</v>
       </c>
@@ -9447,7 +9520,7 @@
       <c r="O1" s="3"/>
       <c r="P1" s="3"/>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
         <v>1</v>
       </c>
@@ -9485,7 +9558,7 @@
       <c r="O2" s="3"/>
       <c r="P2" s="3"/>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>371</v>
       </c>
@@ -9511,7 +9584,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>372</v>
       </c>
@@ -9537,7 +9610,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>372</v>
       </c>
@@ -9563,7 +9636,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>373</v>
       </c>
@@ -9589,7 +9662,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>373</v>
       </c>
@@ -9618,126 +9691,6 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A1" location="navigate!A1" display="navigate" xr:uid="{B2A6F1D1-6C16-4B66-9828-5A584405A522}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6C017E3-B844-46CF-8B82-D76F5D9D7ACD}">
-  <dimension ref="A1:L5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A3" sqref="A3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="12.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="20.5703125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" style="4" customWidth="1"/>
-    <col min="4" max="9" width="11.5703125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="37" t="s">
-        <v>237</v>
-      </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" t="s">
-        <v>304</v>
-      </c>
-      <c r="E1" t="s">
-        <v>148</v>
-      </c>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>285</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="D3" t="s">
-        <v>150</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>386</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>388</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>389</v>
-      </c>
-      <c r="D4" t="s">
-        <v>150</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>441</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>389</v>
-      </c>
-      <c r="D5" t="s">
-        <v>150</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A1" location="navigate!A1" display="navigate" xr:uid="{C203C3C8-4694-4AC0-9CF9-47EC8DF4B8CC}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -9751,22 +9704,22 @@
       <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D3" sqref="D3"/>
+      <selection pane="bottomRight" activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15.140625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="10.140625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="21.28515625" customWidth="1"/>
-    <col min="5" max="5" width="15.5703125" customWidth="1"/>
-    <col min="6" max="6" width="16.5703125" customWidth="1"/>
-    <col min="7" max="7" width="16.140625" customWidth="1"/>
-    <col min="8" max="14" width="11.5703125" customWidth="1"/>
+    <col min="1" max="1" width="12.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.109375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="10.109375" style="4" customWidth="1"/>
+    <col min="4" max="4" width="21.33203125" customWidth="1"/>
+    <col min="5" max="5" width="15.5546875" customWidth="1"/>
+    <col min="6" max="6" width="16.5546875" customWidth="1"/>
+    <col min="7" max="7" width="16.109375" customWidth="1"/>
+    <col min="8" max="14" width="11.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="37" t="s">
         <v>237</v>
       </c>
@@ -9785,7 +9738,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
         <v>1</v>
       </c>
@@ -9808,7 +9761,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>27</v>
       </c>
@@ -9831,7 +9784,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>27</v>
       </c>
@@ -9851,7 +9804,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>310</v>
       </c>
@@ -9871,7 +9824,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>310</v>
       </c>
@@ -9891,7 +9844,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>310</v>
       </c>
@@ -9911,7 +9864,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>310</v>
       </c>
@@ -9931,7 +9884,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>310</v>
       </c>
@@ -9951,7 +9904,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>310</v>
       </c>
@@ -9971,7 +9924,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E14" s="16"/>
       <c r="F14" s="16"/>
     </row>
@@ -9986,6 +9939,126 @@
 </file>
 
 <file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6C017E3-B844-46CF-8B82-D76F5D9D7ACD}">
+  <dimension ref="A1:L5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="20.5546875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" style="4" customWidth="1"/>
+    <col min="4" max="9" width="11.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1" s="37" t="s">
+        <v>237</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" t="s">
+        <v>304</v>
+      </c>
+      <c r="E1" t="s">
+        <v>148</v>
+      </c>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A2" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>285</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="D3" t="s">
+        <v>150</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>389</v>
+      </c>
+      <c r="D4" t="s">
+        <v>150</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>389</v>
+      </c>
+      <c r="D5" t="s">
+        <v>150</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" location="navigate!A1" display="navigate" xr:uid="{C203C3C8-4694-4AC0-9CF9-47EC8DF4B8CC}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BBE8270-58BA-4E52-BE5C-E66A62EB7AF6}">
   <dimension ref="A1:F6"/>
   <sheetViews>
@@ -9993,21 +10066,21 @@
       <pane xSplit="5" ySplit="2" topLeftCell="F3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F3" sqref="F3"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="11.85546875" style="4" customWidth="1"/>
-    <col min="4" max="4" width="12.85546875" style="20" customWidth="1"/>
-    <col min="5" max="5" width="11.85546875" style="11" customWidth="1"/>
-    <col min="6" max="6" width="26.140625" customWidth="1"/>
-    <col min="7" max="10" width="11.5703125" customWidth="1"/>
+    <col min="1" max="1" width="12.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11.88671875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" style="4" customWidth="1"/>
+    <col min="4" max="4" width="12.88671875" style="20" customWidth="1"/>
+    <col min="5" max="5" width="11.88671875" style="11" customWidth="1"/>
+    <col min="6" max="6" width="26.109375" customWidth="1"/>
+    <col min="7" max="10" width="11.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="37" t="s">
         <v>237</v>
       </c>
@@ -10019,7 +10092,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
         <v>1</v>
       </c>
@@ -10039,7 +10112,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>27</v>
       </c>
@@ -10059,7 +10132,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>27</v>
       </c>
@@ -10079,7 +10152,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>386</v>
       </c>
@@ -10099,7 +10172,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>386</v>
       </c>
@@ -10127,7 +10200,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88D4FAF7-E72B-4120-9C49-7208AF188C66}">
   <dimension ref="A1:E2"/>
   <sheetViews>
@@ -10138,17 +10211,17 @@
       <selection pane="bottomRight" activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="11.85546875" style="4" customWidth="1"/>
-    <col min="4" max="4" width="11.85546875" style="11" customWidth="1"/>
-    <col min="5" max="5" width="26.140625" customWidth="1"/>
-    <col min="6" max="9" width="11.5703125" customWidth="1"/>
+    <col min="1" max="1" width="12.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11.88671875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" style="4" customWidth="1"/>
+    <col min="4" max="4" width="11.88671875" style="11" customWidth="1"/>
+    <col min="5" max="5" width="26.109375" customWidth="1"/>
+    <col min="6" max="9" width="11.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="37" t="s">
         <v>237</v>
       </c>
@@ -10159,7 +10232,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
         <v>1</v>
       </c>
@@ -10184,7 +10257,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF0A3667-1C00-43CD-99E7-8F765FEBD719}">
   <dimension ref="A1:E3"/>
   <sheetViews>
@@ -10195,17 +10268,17 @@
       <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="13.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="13.109375" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20" style="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.140625" customWidth="1"/>
-    <col min="5" max="5" width="29.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="8" width="11.5703125" customWidth="1"/>
+    <col min="4" max="4" width="26.109375" customWidth="1"/>
+    <col min="5" max="5" width="29.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="11.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="37" t="s">
         <v>237</v>
       </c>
@@ -10218,7 +10291,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
         <v>1</v>
       </c>
@@ -10235,7 +10308,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>309</v>
       </c>
@@ -10257,7 +10330,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39F3B7BE-4684-48D7-BC4B-4457FF4B8D3D}">
   <dimension ref="A1:D2"/>
   <sheetViews>
@@ -10268,16 +10341,16 @@
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="11.85546875" style="11" customWidth="1"/>
-    <col min="4" max="4" width="29.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="11.5703125" customWidth="1"/>
+    <col min="1" max="1" width="12.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11.88671875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" style="11" customWidth="1"/>
+    <col min="4" max="4" width="29.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="11.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="37" t="s">
         <v>237</v>
       </c>
@@ -10287,7 +10360,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
         <v>1</v>
       </c>
@@ -10309,7 +10382,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D55AA85F-4B1E-49C3-94EB-B0A94205CD7C}">
   <dimension ref="A1:D3"/>
   <sheetViews>
@@ -10320,16 +10393,16 @@
       <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" style="2" customWidth="1"/>
+    <col min="1" max="1" width="12.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11.88671875" style="2" customWidth="1"/>
     <col min="3" max="3" width="20" style="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="11.5703125" customWidth="1"/>
+    <col min="4" max="4" width="29.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="11.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="37" t="s">
         <v>237</v>
       </c>
@@ -10339,7 +10412,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
         <v>1</v>
       </c>
@@ -10353,7 +10426,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>309</v>
       </c>
@@ -10377,28 +10450,29 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9640D032-37A5-47CC-8407-C4F7168BB93B}">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
+      <selection pane="bottomRight" activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="14.7109375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="14.85546875" customWidth="1"/>
-    <col min="4" max="4" width="10.28515625" customWidth="1"/>
-    <col min="5" max="5" width="15.140625" customWidth="1"/>
+    <col min="1" max="1" width="12.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="14.6640625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="14.88671875" customWidth="1"/>
+    <col min="4" max="4" width="17.88671875" customWidth="1"/>
+    <col min="5" max="5" width="15.109375" customWidth="1"/>
     <col min="6" max="6" width="15" customWidth="1"/>
-    <col min="7" max="7" width="14.140625" customWidth="1"/>
-    <col min="8" max="15" width="11.5703125" customWidth="1"/>
+    <col min="7" max="7" width="14.109375" customWidth="1"/>
+    <col min="8" max="8" width="14" customWidth="1"/>
+    <col min="9" max="15" width="11.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="37" t="s">
         <v>237</v>
       </c>
@@ -10419,7 +10493,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
         <v>1</v>
       </c>
@@ -10441,8 +10515,11 @@
       <c r="G2" s="9" t="s">
         <v>450</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H2" s="9" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>27</v>
       </c>
@@ -10465,7 +10542,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>310</v>
       </c>
@@ -10488,7 +10565,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>310</v>
       </c>
@@ -10511,7 +10588,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>310</v>
       </c>
@@ -10534,7 +10611,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>310</v>
       </c>
@@ -10557,7 +10634,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>383</v>
       </c>
@@ -10569,7 +10646,7 @@
       </c>
       <c r="F8" s="5"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>383</v>
       </c>
@@ -10581,7 +10658,7 @@
       </c>
       <c r="F9" s="5"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>383</v>
       </c>
@@ -10593,7 +10670,7 @@
       </c>
       <c r="F10" s="5"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>383</v>
       </c>
@@ -10615,6 +10692,136 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C486380-7D9B-45B1-832D-00E9454EB024}">
+  <dimension ref="A1:E11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="15.5546875" customWidth="1"/>
+    <col min="3" max="3" width="18.5546875" customWidth="1"/>
+    <col min="4" max="4" width="19" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="37" t="s">
+        <v>237</v>
+      </c>
+      <c r="B1" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2" t="s">
+        <v>497</v>
+      </c>
+      <c r="D2" t="s">
+        <v>497</v>
+      </c>
+      <c r="E2" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" t="s">
+        <v>494</v>
+      </c>
+      <c r="D3" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" location="navigate!A1" display="navigate" xr:uid="{A29BA489-926A-4B8D-8B23-5FE26B3F46EF}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC750BDA-1B66-4AC2-A2C1-8E80C5AE8DE0}">
   <dimension ref="A1:D4"/>
   <sheetViews>
@@ -10625,16 +10832,16 @@
       <selection pane="bottomRight" activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="13.85546875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="10.140625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" customWidth="1"/>
-    <col min="5" max="13" width="11.5703125" customWidth="1"/>
+    <col min="1" max="1" width="12.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="13.88671875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="10.109375" style="4" customWidth="1"/>
+    <col min="4" max="4" width="14.88671875" customWidth="1"/>
+    <col min="5" max="13" width="11.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="37" t="s">
         <v>237</v>
       </c>
@@ -10644,7 +10851,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
         <v>1</v>
       </c>
@@ -10658,7 +10865,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>27</v>
       </c>
@@ -10672,7 +10879,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>27</v>
       </c>
@@ -10695,7 +10902,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71C14DBC-6D65-48AD-9110-D1593FB205E8}">
   <dimension ref="A1:D28"/>
   <sheetViews>
@@ -10706,16 +10913,16 @@
       <selection pane="bottomRight" activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12.140625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="17.7109375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="17.5703125" customWidth="1"/>
-    <col min="5" max="13" width="11.5703125" customWidth="1"/>
+    <col min="1" max="1" width="12.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.109375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="17.6640625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="17.5546875" customWidth="1"/>
+    <col min="5" max="13" width="11.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="37" t="s">
         <v>237</v>
       </c>
@@ -10725,7 +10932,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
         <v>1</v>
       </c>
@@ -10739,7 +10946,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>27</v>
       </c>
@@ -10753,7 +10960,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>27</v>
       </c>
@@ -10767,7 +10974,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>27</v>
       </c>
@@ -10781,7 +10988,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>27</v>
       </c>
@@ -10795,7 +11002,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>27</v>
       </c>
@@ -10809,7 +11016,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>27</v>
       </c>
@@ -10823,7 +11030,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>27</v>
       </c>
@@ -10837,7 +11044,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>27</v>
       </c>
@@ -10851,7 +11058,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>27</v>
       </c>
@@ -10865,7 +11072,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>27</v>
       </c>
@@ -10879,7 +11086,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>27</v>
       </c>
@@ -10893,7 +11100,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>27</v>
       </c>
@@ -10907,7 +11114,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>27</v>
       </c>
@@ -10921,7 +11128,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>27</v>
       </c>
@@ -10935,7 +11142,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>27</v>
       </c>
@@ -10949,7 +11156,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>27</v>
       </c>
@@ -10963,7 +11170,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>27</v>
       </c>
@@ -10977,7 +11184,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>27</v>
       </c>
@@ -10991,7 +11198,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>27</v>
       </c>
@@ -11005,7 +11212,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>27</v>
       </c>
@@ -11019,7 +11226,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>27</v>
       </c>
@@ -11033,7 +11240,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>27</v>
       </c>
@@ -11047,7 +11254,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>27</v>
       </c>
@@ -11061,7 +11268,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>27</v>
       </c>
@@ -11075,7 +11282,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C28" s="26"/>
     </row>
   </sheetData>
@@ -11087,7 +11294,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DD7B3D9-76DA-4A96-8BE2-2966A08AF799}">
   <dimension ref="A1:C3"/>
   <sheetViews>
@@ -11098,15 +11305,15 @@
       <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="11.140625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="27.28515625" customWidth="1"/>
-    <col min="4" max="12" width="11.5703125" customWidth="1"/>
+    <col min="1" max="1" width="12.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11.109375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="27.33203125" customWidth="1"/>
+    <col min="4" max="12" width="11.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="37" t="s">
         <v>237</v>
       </c>
@@ -11115,7 +11322,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
         <v>1</v>
       </c>
@@ -11126,7 +11333,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>27</v>
       </c>
@@ -11145,50 +11352,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D727460B-F1B2-42C2-90E2-38E181F7AFC8}">
-  <dimension ref="A1:B3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="13.5703125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="10.140625" style="4" customWidth="1"/>
-    <col min="3" max="11" width="11.5703125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
-        <v>196</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>103</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
 </file>
--- a/FlexTool_import_template.xlsx
+++ b/FlexTool_import_template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\data\Toolbox_projects\FlexTool3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{356184BC-A55F-4E3D-8367-ECA4BF70C6CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38742156-D32F-47E5-A5F4-B83F865A266F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21240" tabRatio="1000" xr2:uid="{D5BEC09F-8FA9-46E6-8F36-396DCDACE376}"/>
   </bookViews>
@@ -205,7 +205,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1404" uniqueCount="508">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1400" uniqueCount="504">
   <si>
     <t>commodity</t>
   </si>
@@ -651,9 +651,6 @@
     <t>Constraints and the sense of the constraint (greater_than, equal, less_than) as well as a constant factor for the constraint equation.</t>
   </si>
   <si>
-    <t>discount_years</t>
-  </si>
-  <si>
     <t>yes</t>
   </si>
   <si>
@@ -672,9 +669,6 @@
     <t>Name of timeblock set associated with the period.</t>
   </si>
   <si>
-    <t>How many years from the solve to the different periods included in the solve. Used for discounting.</t>
-  </si>
-  <si>
     <t>half_day</t>
   </si>
   <si>
@@ -1719,16 +1713,10 @@
     <t>solver_argument_9</t>
   </si>
   <si>
-    <t>test</t>
-  </si>
-  <si>
-    <t>test this</t>
-  </si>
-  <si>
-    <t>test this too</t>
-  </si>
-  <si>
-    <t>foo</t>
+    <t>years_represented</t>
+  </si>
+  <si>
+    <t>How many years the period represents before the next period in the solve. Used for discounting. Can be below one (multiple periods in one year). Index: period, value: years.</t>
   </si>
 </sst>
 </file>
@@ -3350,81 +3338,81 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="46" t="s">
+        <v>266</v>
+      </c>
+      <c r="B1" s="46" t="s">
         <v>268</v>
       </c>
-      <c r="B1" s="46" t="s">
-        <v>270</v>
-      </c>
       <c r="C1" s="46" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="43" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B2" s="43"/>
       <c r="C2" s="43"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="43" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="B3" s="43"/>
       <c r="C3" s="43"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="43" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B4" s="43"/>
       <c r="C4" s="43"/>
       <c r="E4" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="43" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B5" s="43"/>
       <c r="C5" s="43"/>
       <c r="E5" s="5" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="43" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B6" s="43"/>
       <c r="C6" s="43"/>
       <c r="E6" s="5" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="29" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B7" s="30"/>
       <c r="C7" s="29" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="43" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B8" s="43"/>
       <c r="C8" s="43"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="43" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="B9" s="43"/>
       <c r="C9" s="43"/>
@@ -3434,65 +3422,65 @@
       <c r="B10" s="27"/>
       <c r="C10" s="27"/>
       <c r="E10" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="31" t="s">
+        <v>201</v>
+      </c>
+      <c r="B11" s="31" t="s">
+        <v>202</v>
+      </c>
+      <c r="C11" s="31" t="s">
         <v>203</v>
-      </c>
-      <c r="B11" s="31" t="s">
-        <v>204</v>
-      </c>
-      <c r="C11" s="31" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="31" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B12" s="31" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C12" s="32"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="44" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B13" s="44"/>
       <c r="C13" s="44"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="31" t="s">
+        <v>207</v>
+      </c>
+      <c r="B14" s="31" t="s">
+        <v>208</v>
+      </c>
+      <c r="C14" s="31" t="s">
         <v>209</v>
-      </c>
-      <c r="B14" s="31" t="s">
-        <v>210</v>
-      </c>
-      <c r="C14" s="31" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="31" t="s">
+        <v>226</v>
+      </c>
+      <c r="B15" s="31" t="s">
+        <v>227</v>
+      </c>
+      <c r="C15" s="31" t="s">
         <v>228</v>
-      </c>
-      <c r="B15" s="31" t="s">
-        <v>229</v>
-      </c>
-      <c r="C15" s="31" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="31" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B16" s="32"/>
       <c r="C16" s="31" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -3504,26 +3492,26 @@
       <c r="A18" s="39"/>
       <c r="B18" s="39"/>
       <c r="C18" s="40" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="45" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B19" s="45"/>
       <c r="C19" s="45"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="45" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B20" s="45"/>
       <c r="C20" s="45"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="45" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B21" s="45"/>
       <c r="C21" s="45"/>
@@ -3535,45 +3523,45 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="34" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B23" s="34" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C23" s="34"/>
       <c r="D23" s="28"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="41" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B24" s="41"/>
       <c r="C24" s="41"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="41" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B25" s="41"/>
       <c r="C25" s="41"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="41" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B26" s="41"/>
       <c r="C26" s="41"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="41" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B27" s="41"/>
       <c r="C27" s="41"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="41" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B28" s="41"/>
       <c r="C28" s="41"/>
@@ -3585,65 +3573,65 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="42" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B30" s="42"/>
       <c r="C30" s="42"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="35" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B31" s="36"/>
       <c r="C31" s="35" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="42" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B32" s="42"/>
       <c r="C32" s="42"/>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="48" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B34" s="48"/>
       <c r="C34" s="48"/>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="48" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B35" s="48"/>
       <c r="C35" s="48"/>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="48" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="B36" s="48"/>
       <c r="C36" s="48"/>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="48" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B37" s="48"/>
       <c r="C37" s="48"/>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="48" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="B38" s="48"/>
       <c r="C38" s="48"/>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="48" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="B39" s="48"/>
       <c r="C39" s="48"/>
@@ -3749,47 +3737,47 @@
   <sheetData>
     <row r="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A1" s="37" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E1" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="F1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="G1" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="H1" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="I1" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="K1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="L1" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="M1" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="N1" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="O1" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="P1" t="s">
         <v>65</v>
@@ -3798,25 +3786,25 @@
         <v>68</v>
       </c>
       <c r="R1" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="S1" t="s">
         <v>69</v>
       </c>
       <c r="T1" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="U1" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="V1" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="W1" t="s">
         <v>19</v>
       </c>
       <c r="X1" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="Y1" t="s">
         <v>22</v>
@@ -3825,19 +3813,19 @@
         <v>70</v>
       </c>
       <c r="AA1" t="s">
+        <v>414</v>
+      </c>
+      <c r="AB1" s="5" t="s">
         <v>416</v>
       </c>
-      <c r="AB1" s="5" t="s">
-        <v>418</v>
-      </c>
       <c r="AC1" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="AD1" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="AE1" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
     </row>
     <row r="2" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3848,28 +3836,28 @@
         <v>56</v>
       </c>
       <c r="C2" s="24" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D2" s="9" t="s">
         <v>58</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="G2" s="9" t="s">
         <v>11</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="K2" s="9" t="s">
         <v>59</v>
@@ -3878,7 +3866,7 @@
         <v>57</v>
       </c>
       <c r="M2" s="9" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="N2" s="9" t="s">
         <v>60</v>
@@ -3899,13 +3887,13 @@
         <v>14</v>
       </c>
       <c r="T2" s="9" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="U2" s="9" t="s">
         <v>7</v>
       </c>
       <c r="V2" s="24" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="W2" s="9" t="s">
         <v>6</v>
@@ -3920,16 +3908,16 @@
         <v>62</v>
       </c>
       <c r="AA2" s="9" t="s">
+        <v>413</v>
+      </c>
+      <c r="AB2" s="9" t="s">
         <v>415</v>
       </c>
-      <c r="AB2" s="9" t="s">
-        <v>417</v>
-      </c>
       <c r="AC2" s="9" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="AD2" s="9" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="AE2" s="9" t="s">
         <v>63</v>
@@ -3943,13 +3931,13 @@
         <v>138</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E3" s="14" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="F3" s="14"/>
       <c r="G3" t="s">
@@ -3970,13 +3958,13 @@
         <v>139</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E4" s="14" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="F4" s="14"/>
       <c r="G4" t="s">
@@ -4001,7 +3989,7 @@
         <v>140</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G5" t="s">
         <v>137</v>
@@ -4018,10 +4006,10 @@
         <v>27</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G6" t="s">
         <v>137</v>
@@ -4035,31 +4023,31 @@
     </row>
     <row r="7" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D7" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F7" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G7" t="s">
         <v>137</v>
       </c>
       <c r="H7" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="I7" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="J7" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="N7">
         <v>12000</v>
@@ -4082,28 +4070,28 @@
     </row>
     <row r="8" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D8" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F8" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G8" t="s">
         <v>137</v>
       </c>
       <c r="H8" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="I8" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="N8">
         <v>12000</v>
@@ -4120,13 +4108,13 @@
     </row>
     <row r="9" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="G9" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="Q9">
         <v>800</v>
@@ -4183,7 +4171,7 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="37" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -4191,7 +4179,7 @@
         <v>64</v>
       </c>
       <c r="E1" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="F1" t="s">
         <v>66</v>
@@ -4200,19 +4188,19 @@
         <v>67</v>
       </c>
       <c r="H1" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="I1" t="s">
+        <v>352</v>
+      </c>
+      <c r="J1" t="s">
+        <v>353</v>
+      </c>
+      <c r="K1" t="s">
+        <v>349</v>
+      </c>
+      <c r="L1" t="s">
         <v>354</v>
-      </c>
-      <c r="J1" t="s">
-        <v>355</v>
-      </c>
-      <c r="K1" t="s">
-        <v>351</v>
-      </c>
-      <c r="L1" t="s">
-        <v>356</v>
       </c>
       <c r="M1" t="s">
         <v>19</v>
@@ -4221,7 +4209,7 @@
         <v>22</v>
       </c>
       <c r="O1" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4238,7 +4226,7 @@
         <v>57</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="F2" s="9" t="s">
         <v>8</v>
@@ -4253,13 +4241,13 @@
         <v>13</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="K2" s="9" t="s">
         <v>7</v>
       </c>
       <c r="L2" s="24" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="M2" s="9" t="s">
         <v>6</v>
@@ -4315,7 +4303,7 @@
         <v>138</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D5">
         <f>250*8760*1.1</f>
@@ -4354,7 +4342,7 @@
   <sheetData>
     <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="37" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B1" s="8" t="s">
         <v>1</v>
@@ -4369,7 +4357,7 @@
     <row r="2" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
       <c r="B2" s="15" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C2" s="9" t="s">
         <v>59</v>
@@ -4687,14 +4675,14 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="37" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B1"/>
       <c r="C1" t="s">
         <v>71</v>
       </c>
       <c r="D1" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -4730,7 +4718,7 @@
         <v>27</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C4">
         <v>0.2</v>
@@ -4765,12 +4753,12 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="37" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B1"/>
       <c r="C1"/>
       <c r="D1" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -4792,7 +4780,7 @@
         <v>27</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>75</v>
@@ -4806,7 +4794,7 @@
         <v>27</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>76</v>
@@ -4820,10 +4808,10 @@
         <v>27</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D5">
         <v>22</v>
@@ -4880,10 +4868,10 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
   </sheetData>
@@ -4929,28 +4917,28 @@
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A1" s="37" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B1" s="37"/>
       <c r="C1" s="37"/>
       <c r="D1" s="3"/>
       <c r="E1" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="F1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="H1" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="I1" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="J1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="K1" t="s">
         <v>18</v>
@@ -4959,19 +4947,19 @@
         <v>21</v>
       </c>
       <c r="M1" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="N1" t="s">
         <v>24</v>
       </c>
       <c r="O1" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="P1" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="Q1" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="R1" t="s">
         <v>19</v>
@@ -4980,16 +4968,16 @@
         <v>22</v>
       </c>
       <c r="T1" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="U1" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="V1" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="W1" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
@@ -5000,13 +4988,13 @@
         <v>25</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E2" s="24" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="F2" s="9" t="s">
         <v>17</v>
@@ -5018,7 +5006,7 @@
         <v>11</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="J2" s="9" t="s">
         <v>15</v>
@@ -5036,13 +5024,13 @@
         <v>14</v>
       </c>
       <c r="O2" s="9" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="P2" s="9" t="s">
         <v>7</v>
       </c>
       <c r="Q2" s="9" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="R2" s="9" t="s">
         <v>6</v>
@@ -5054,7 +5042,7 @@
         <v>5</v>
       </c>
       <c r="U2" s="9" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="V2" s="9" t="s">
         <v>3</v>
@@ -5077,19 +5065,19 @@
         <v>139</v>
       </c>
       <c r="E3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F3" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="G3" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="H3" t="s">
         <v>137</v>
       </c>
       <c r="I3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="K3">
         <v>100</v>
@@ -5097,25 +5085,25 @@
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>138</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="E4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F4" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="G4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="H4" t="s">
         <v>137</v>
@@ -5129,7 +5117,7 @@
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>30</v>
@@ -5141,7 +5129,7 @@
         <v>139</v>
       </c>
       <c r="H5" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="L5">
         <v>100</v>
@@ -5161,19 +5149,19 @@
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>138</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="H6" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="L6">
         <v>100</v>
@@ -5230,7 +5218,7 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="37" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -5238,19 +5226,19 @@
         <v>20</v>
       </c>
       <c r="E1" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="F1" t="s">
         <v>23</v>
       </c>
       <c r="G1" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="H1" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="I1" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="J1" t="s">
         <v>19</v>
@@ -5259,10 +5247,10 @@
         <v>22</v>
       </c>
       <c r="L1" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="M1" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
@@ -5285,13 +5273,13 @@
         <v>13</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="H2" s="9" t="s">
         <v>7</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="J2" s="9" t="s">
         <v>6</v>
@@ -5303,7 +5291,7 @@
         <v>5</v>
       </c>
       <c r="M2" s="9" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
@@ -5342,7 +5330,7 @@
         <v>30</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D5">
         <v>150</v>
@@ -5377,7 +5365,7 @@
   <sheetData>
     <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="37" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B1" s="8" t="s">
         <v>1</v>
@@ -5389,7 +5377,7 @@
     <row r="2" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
       <c r="B2" s="15" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C2" s="9" t="s">
         <v>3</v>
@@ -5649,23 +5637,23 @@
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1" s="37" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="D1" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="E1" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="F1" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="G1" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="H1" t="s">
         <v>18</v>
@@ -5674,19 +5662,19 @@
         <v>21</v>
       </c>
       <c r="J1" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="K1" t="s">
         <v>24</v>
       </c>
       <c r="L1" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="M1" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="N1" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="O1" t="s">
         <v>19</v>
@@ -5695,28 +5683,28 @@
         <v>22</v>
       </c>
       <c r="Q1" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="R1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="S1" t="s">
         <v>106</v>
       </c>
       <c r="T1" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="U1" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="V1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="W1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="X1" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
     </row>
     <row r="2" spans="1:24" s="23" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -5727,7 +5715,7 @@
         <v>117</v>
       </c>
       <c r="C2" s="24" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D2" s="24" t="s">
         <v>105</v>
@@ -5754,13 +5742,13 @@
         <v>14</v>
       </c>
       <c r="L2" s="24" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="M2" s="24" t="s">
         <v>7</v>
       </c>
       <c r="N2" s="24" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="O2" s="24" t="s">
         <v>6</v>
@@ -5801,13 +5789,13 @@
         <v>141</v>
       </c>
       <c r="C3" s="47" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D3" s="47" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="E3" s="47" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F3" s="47"/>
       <c r="G3" s="47" t="s">
@@ -5841,13 +5829,13 @@
         <v>142</v>
       </c>
       <c r="C4" s="47" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D4" s="47" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="E4" s="47" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F4" s="47"/>
       <c r="G4" s="47" t="s">
@@ -5865,16 +5853,16 @@
         <v>27</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C5" s="47" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D5" s="47" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="E5" s="47" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="F5" s="47"/>
       <c r="G5" s="47" t="s">
@@ -5892,30 +5880,30 @@
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>141</v>
       </c>
       <c r="G6" s="47" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="C7" s="47" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D7" s="47" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="E7" s="47" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G7" s="47" t="s">
         <v>137</v>
@@ -5950,511 +5938,511 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>173</v>
+      </c>
+      <c r="B3" t="s">
         <v>175</v>
       </c>
-      <c r="B3" t="s">
-        <v>177</v>
-      </c>
       <c r="C3" t="s">
+        <v>176</v>
+      </c>
+      <c r="D3" t="s">
         <v>178</v>
-      </c>
-      <c r="D3" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B4" s="25">
         <v>44594</v>
       </c>
       <c r="C4" t="s">
+        <v>177</v>
+      </c>
+      <c r="D4" t="s">
         <v>179</v>
-      </c>
-      <c r="D4" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B5" s="25">
         <v>44595</v>
       </c>
       <c r="C5" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D5" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B6" s="25">
         <v>44600</v>
       </c>
       <c r="C6" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D6" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B7" s="25">
         <v>44602</v>
       </c>
       <c r="C7" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D7" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B8" s="25">
         <v>44602</v>
       </c>
       <c r="C8" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D8" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B9" s="25">
         <v>44602</v>
       </c>
       <c r="C9" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D9" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B10" s="25">
         <v>44602</v>
       </c>
       <c r="C10" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D10" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B11" s="25">
         <v>44603</v>
       </c>
       <c r="C11" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D11" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B12" s="25">
         <v>44605</v>
       </c>
       <c r="C12" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D12" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B13" s="25">
         <v>44605</v>
       </c>
       <c r="C13" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D13" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B14" s="25">
         <v>44605</v>
       </c>
       <c r="C14" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D14" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B15" s="25">
         <v>44635</v>
       </c>
       <c r="C15" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D15" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B16" s="25">
         <v>44643</v>
       </c>
       <c r="C16" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D16" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="B17" s="25">
         <v>44643</v>
       </c>
       <c r="C17" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D17" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B18" s="25">
         <v>44643</v>
       </c>
       <c r="C18" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D18" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="B19" s="25">
         <v>44656</v>
       </c>
       <c r="C19" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D19" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B20" s="25">
         <v>44657</v>
       </c>
       <c r="C20" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D20" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B21" s="25">
         <v>44657</v>
       </c>
       <c r="C21" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D21" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B22" s="25">
         <v>44680</v>
       </c>
       <c r="C22" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D22" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B23" s="25">
         <v>44680</v>
       </c>
       <c r="C23" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D23" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="B24" s="25">
         <v>44690</v>
       </c>
       <c r="C24" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D24" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="B25" s="25">
         <v>44695</v>
       </c>
       <c r="C25" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D25" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="B26" s="25">
         <v>44701</v>
       </c>
       <c r="C26" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D26" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="B27" s="25">
         <v>44701</v>
       </c>
       <c r="C27" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D27" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="B28" s="25">
         <v>44712</v>
       </c>
       <c r="C28" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D28" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="B29" s="25">
         <v>44727</v>
       </c>
       <c r="C29" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D29" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="B30" s="25">
         <v>44734</v>
       </c>
       <c r="C30" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D30" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="B31" s="25">
         <v>44741</v>
       </c>
       <c r="C31" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D31" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="B32" s="25">
         <v>44840</v>
       </c>
       <c r="C32" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D32" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="B33" s="25">
         <v>44850</v>
       </c>
       <c r="C33" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D33" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="B34" s="25">
         <v>44875</v>
       </c>
       <c r="C34" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D34" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="B35" s="25">
         <v>44876</v>
       </c>
       <c r="C35" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D35" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="B36" s="25">
         <v>44889</v>
       </c>
       <c r="C36" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D36" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="B37" s="25">
         <v>44893</v>
       </c>
       <c r="C37" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D37" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="B38" s="25">
         <v>44903</v>
       </c>
       <c r="C38" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D38" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
     </row>
   </sheetData>
@@ -6493,7 +6481,7 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="37" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -6501,19 +6489,19 @@
         <v>20</v>
       </c>
       <c r="E1" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="F1" t="s">
         <v>23</v>
       </c>
       <c r="G1" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="H1" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="I1" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="J1" t="s">
         <v>19</v>
@@ -6522,10 +6510,10 @@
         <v>22</v>
       </c>
       <c r="L1" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="M1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6548,13 +6536,13 @@
         <v>13</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="H2" s="9" t="s">
         <v>7</v>
       </c>
       <c r="I2" s="24" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="J2" s="9" t="s">
         <v>6</v>
@@ -6605,7 +6593,7 @@
         <v>141</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D5">
         <v>75</v>
@@ -6640,7 +6628,7 @@
   <sheetData>
     <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="37" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B1" s="8" t="s">
         <v>1</v>
@@ -6652,7 +6640,7 @@
     <row r="2" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
       <c r="B2" s="15" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C2" s="9" t="s">
         <v>3</v>
@@ -6666,7 +6654,7 @@
         <v>117</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -6903,34 +6891,34 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="37" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
       <c r="E1" t="s">
+        <v>479</v>
+      </c>
+      <c r="F1" t="s">
+        <v>454</v>
+      </c>
+      <c r="G1" t="s">
+        <v>240</v>
+      </c>
+      <c r="H1" t="s">
+        <v>239</v>
+      </c>
+      <c r="I1" t="s">
+        <v>480</v>
+      </c>
+      <c r="J1" t="s">
+        <v>362</v>
+      </c>
+      <c r="K1" t="s">
         <v>481</v>
       </c>
-      <c r="F1" t="s">
-        <v>456</v>
-      </c>
-      <c r="G1" t="s">
-        <v>242</v>
-      </c>
-      <c r="H1" t="s">
-        <v>241</v>
-      </c>
-      <c r="I1" t="s">
+      <c r="L1" t="s">
         <v>482</v>
-      </c>
-      <c r="J1" t="s">
-        <v>364</v>
-      </c>
-      <c r="K1" t="s">
-        <v>483</v>
-      </c>
-      <c r="L1" t="s">
-        <v>484</v>
       </c>
       <c r="O1" s="3"/>
       <c r="P1" s="3"/>
@@ -6947,16 +6935,16 @@
         <v>56</v>
       </c>
       <c r="D2" s="19" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="E2" s="9" t="s">
         <v>133</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="H2" s="9" t="s">
         <v>108</v>
@@ -6988,7 +6976,7 @@
         <v>140</v>
       </c>
       <c r="D3" s="20" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -7011,7 +6999,7 @@
         <v>138</v>
       </c>
       <c r="D4" s="20" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -7025,13 +7013,13 @@
         <v>27</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D5" s="20" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -7042,13 +7030,13 @@
         <v>27</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>139</v>
       </c>
       <c r="D6" s="20" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -7068,27 +7056,27 @@
         <v>138</v>
       </c>
       <c r="D7" s="20" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="E7">
         <v>1</v>
       </c>
       <c r="G7" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D8" s="20" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -7096,16 +7084,16 @@
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>138</v>
       </c>
       <c r="D9" s="20" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -7113,16 +7101,16 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="D10" s="20" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -7157,7 +7145,7 @@
   <sheetData>
     <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="37" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B1" s="8" t="s">
         <v>1</v>
@@ -7169,10 +7157,10 @@
     <row r="2" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
       <c r="B2" s="15" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
     </row>
     <row r="3" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -7181,7 +7169,7 @@
         <v>117</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="4" spans="1:11" s="18" customFormat="1" x14ac:dyDescent="0.25">
@@ -7190,7 +7178,7 @@
         <v>56</v>
       </c>
       <c r="C4" s="18" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="5" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.25">
@@ -7198,10 +7186,10 @@
         <v>26</v>
       </c>
       <c r="B5" s="19" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C5" s="20" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -7441,7 +7429,7 @@
         <v>27</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
     <row r="2" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -7455,13 +7443,13 @@
         <v>136</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -7900,12 +7888,12 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="37" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
       <c r="D1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -7919,7 +7907,7 @@
         <v>135</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
@@ -7933,13 +7921,13 @@
         <v>27</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
   </sheetData>
@@ -7972,12 +7960,12 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="37" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
       <c r="D1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -7991,7 +7979,7 @@
         <v>135</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
@@ -8008,10 +7996,10 @@
         <v>30</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
   </sheetData>
@@ -8045,13 +8033,13 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="37" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
       <c r="E1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -8068,7 +8056,7 @@
         <v>135</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
@@ -8091,7 +8079,7 @@
         <v>136</v>
       </c>
       <c r="E3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -8099,16 +8087,16 @@
         <v>27</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="C4" s="18" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="E4" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
   </sheetData>
@@ -8158,11 +8146,11 @@
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" s="37" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D1" t="s">
         <v>39</v>
@@ -8171,7 +8159,7 @@
         <v>35</v>
       </c>
       <c r="F1" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="G1" t="s">
         <v>41</v>
@@ -8180,7 +8168,7 @@
         <v>45</v>
       </c>
       <c r="I1" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="J1" t="s">
         <v>43</v>
@@ -8189,19 +8177,19 @@
         <v>53</v>
       </c>
       <c r="L1" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="M1" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="N1" t="s">
         <v>37</v>
       </c>
       <c r="O1" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="P1" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="Q1" t="s">
         <v>47</v>
@@ -8210,16 +8198,16 @@
         <v>51</v>
       </c>
       <c r="S1" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="T1" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="U1" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="V1" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.25">
@@ -8230,7 +8218,7 @@
         <v>55</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="D2" s="9" t="s">
         <v>38</v>
@@ -8239,7 +8227,7 @@
         <v>34</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="G2" s="9" t="s">
         <v>40</v>
@@ -8257,16 +8245,16 @@
         <v>52</v>
       </c>
       <c r="L2" s="9" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="M2" s="9" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="N2" s="9" t="s">
         <v>36</v>
       </c>
       <c r="O2" s="9" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="P2" s="24" t="s">
         <v>11</v>
@@ -8278,16 +8266,16 @@
         <v>50</v>
       </c>
       <c r="S2" s="9" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="T2" s="9" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="U2" s="9" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="V2" s="9" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
@@ -8307,7 +8295,7 @@
         <v>27</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="H4">
         <v>200</v>
@@ -8324,24 +8312,24 @@
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="G5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="J5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="S6">
         <v>40</v>
@@ -8355,10 +8343,10 @@
         <v>27</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C7" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
   </sheetData>
@@ -8398,7 +8386,7 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="37" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -8415,7 +8403,7 @@
         <v>37</v>
       </c>
       <c r="H1" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="I1" t="s">
         <v>46</v>
@@ -8424,16 +8412,16 @@
         <v>49</v>
       </c>
       <c r="K1" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="L1" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="M1" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="N1" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
@@ -8459,7 +8447,7 @@
         <v>36</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="I2" s="9" t="s">
         <v>9</v>
@@ -8468,16 +8456,16 @@
         <v>48</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="L2" s="9" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="M2" s="9" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="N2" s="9" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
@@ -8516,7 +8504,7 @@
         <v>144</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="G5">
         <v>20</v>
@@ -8549,10 +8537,10 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="37" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B1" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -8561,42 +8549,42 @@
         <v>27</v>
       </c>
       <c r="C2" s="6" t="s">
+        <v>304</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="E2" s="6" t="s">
         <v>306</v>
       </c>
-      <c r="D2" s="6" t="s">
-        <v>282</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>308</v>
-      </c>
       <c r="F2" s="6" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="I2" s="6" t="s">
+        <v>367</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>368</v>
+      </c>
+      <c r="K2" s="6" t="s">
         <v>369</v>
       </c>
-      <c r="J2" s="6" t="s">
-        <v>370</v>
-      </c>
-      <c r="K2" s="6" t="s">
-        <v>371</v>
-      </c>
       <c r="L2" s="6" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="M2" s="6" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="B3" s="14" t="s">
         <v>27</v>
@@ -8637,94 +8625,94 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B4" s="14"/>
       <c r="C4" s="14" t="s">
+        <v>304</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>280</v>
+      </c>
+      <c r="E4" s="14" t="s">
         <v>306</v>
       </c>
-      <c r="D4" s="14" t="s">
-        <v>282</v>
-      </c>
-      <c r="E4" s="14" t="s">
-        <v>308</v>
-      </c>
       <c r="F4" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="G4" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="H4" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="I4" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="J4" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="K4" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="L4" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="M4" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B5" s="14"/>
       <c r="G5" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="J5" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="K5" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="L5" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="B6" s="14"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="B7" s="14"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B8" s="14"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="B9" s="14"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B10" s="14"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B11" s="14"/>
     </row>
@@ -8862,12 +8850,12 @@
         <v>144</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>138</v>
@@ -8875,7 +8863,7 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>138</v>
@@ -8883,7 +8871,7 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>139</v>
@@ -8971,7 +8959,7 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>141</v>
@@ -8982,10 +8970,10 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C3" s="11" t="s">
         <v>139</v>
@@ -9025,17 +9013,17 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="37" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
       <c r="F1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="G1" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="H1" t="s">
         <v>132</v>
@@ -9070,7 +9058,7 @@
         <v>56</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="G2" s="9" t="s">
         <v>121</v>
@@ -9093,13 +9081,13 @@
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D3" s="11" t="s">
         <v>30</v>
@@ -9108,7 +9096,7 @@
         <v>138</v>
       </c>
       <c r="F3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -9151,22 +9139,22 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="37" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
       <c r="E1" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="F1" t="s">
         <v>129</v>
       </c>
       <c r="G1" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="H1" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="J1" s="3"/>
       <c r="K1" s="3"/>
@@ -9209,19 +9197,19 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C3" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="E3" t="s">
         <v>271</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>272</v>
-      </c>
-      <c r="E3" t="s">
-        <v>273</v>
       </c>
       <c r="F3">
         <v>50</v>
@@ -9262,7 +9250,7 @@
   <sheetData>
     <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="37" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B1" s="8" t="s">
         <v>1</v>
@@ -9291,7 +9279,7 @@
         <v>26</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -9454,17 +9442,17 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="37" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
       <c r="F1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="G1" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H1" t="s">
         <v>131</v>
@@ -9499,7 +9487,7 @@
         <v>56</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="G2" s="9" t="s">
         <v>121</v>
@@ -9522,13 +9510,13 @@
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D3" s="11" t="s">
         <v>141</v>
@@ -9537,7 +9525,7 @@
         <v>138</v>
       </c>
       <c r="F3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="I3">
         <v>0.5</v>
@@ -9548,13 +9536,13 @@
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D4" s="11" t="s">
         <v>142</v>
@@ -9563,7 +9551,7 @@
         <v>138</v>
       </c>
       <c r="F4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -9574,13 +9562,13 @@
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D5" s="11" t="s">
         <v>141</v>
@@ -9589,7 +9577,7 @@
         <v>138</v>
       </c>
       <c r="F5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="I5">
         <v>0.01</v>
@@ -9600,22 +9588,22 @@
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E6" s="13" t="s">
         <v>139</v>
       </c>
       <c r="F6" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="I6">
         <v>0.5</v>
@@ -9626,13 +9614,13 @@
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D7" s="11" t="s">
         <v>141</v>
@@ -9641,7 +9629,7 @@
         <v>138</v>
       </c>
       <c r="F7" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="I7">
         <v>0.01</v>
@@ -9679,12 +9667,12 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="37" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
       <c r="D1" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="E1" t="s">
         <v>147</v>
@@ -9707,7 +9695,7 @@
         <v>145</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="E2" s="9" t="s">
         <v>146</v>
@@ -9724,13 +9712,13 @@
         <v>27</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -9738,16 +9726,16 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>383</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>385</v>
-      </c>
       <c r="C4" s="4" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="D4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -9755,16 +9743,16 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="D5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -9786,7 +9774,7 @@
       <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9795,7 +9783,7 @@
     <col min="2" max="2" width="15.140625" style="2" customWidth="1"/>
     <col min="3" max="3" width="10.140625" style="4" customWidth="1"/>
     <col min="4" max="4" width="21.28515625" customWidth="1"/>
-    <col min="5" max="5" width="15.5703125" customWidth="1"/>
+    <col min="5" max="5" width="18.140625" customWidth="1"/>
     <col min="6" max="6" width="16.5703125" customWidth="1"/>
     <col min="7" max="7" width="16.140625" customWidth="1"/>
     <col min="8" max="14" width="11.5703125" customWidth="1"/>
@@ -9803,15 +9791,15 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="37" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
       <c r="D1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E1" t="s">
-        <v>155</v>
+        <v>503</v>
       </c>
       <c r="F1" t="s">
         <v>73</v>
@@ -9831,16 +9819,16 @@
         <v>31</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>148</v>
+        <v>502</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -9854,16 +9842,16 @@
         <v>75</v>
       </c>
       <c r="D3" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E3" s="5">
         <v>0</v>
       </c>
       <c r="F3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -9877,18 +9865,18 @@
         <v>76</v>
       </c>
       <c r="D4" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E4">
         <v>5</v>
       </c>
       <c r="G4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>32</v>
@@ -9897,18 +9885,18 @@
         <v>75</v>
       </c>
       <c r="D5" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="G5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>32</v>
@@ -9917,38 +9905,38 @@
         <v>76</v>
       </c>
       <c r="D6" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E6">
         <v>5</v>
       </c>
       <c r="G6" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>75</v>
       </c>
       <c r="D7" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>33</v>
@@ -9957,53 +9945,53 @@
         <v>76</v>
       </c>
       <c r="D8" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="G8" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>33</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D9" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E9">
         <v>5</v>
       </c>
       <c r="G9" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>76</v>
       </c>
       <c r="D10" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -10044,14 +10032,14 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="37" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B1"/>
       <c r="C1"/>
       <c r="D1" s="3"/>
       <c r="E1"/>
       <c r="F1" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -10065,13 +10053,13 @@
         <v>56</v>
       </c>
       <c r="D2" s="19" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="E2" s="10" t="s">
         <v>134</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -10085,10 +10073,10 @@
         <v>140</v>
       </c>
       <c r="D3" s="20" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F3">
         <v>1</v>
@@ -10105,10 +10093,10 @@
         <v>138</v>
       </c>
       <c r="D4" s="20" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F4">
         <v>-0.1</v>
@@ -10116,19 +10104,19 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="D5" s="20" t="s">
+        <v>323</v>
+      </c>
+      <c r="E5" s="11" t="s">
         <v>383</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>384</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="D5" s="20" t="s">
-        <v>325</v>
-      </c>
-      <c r="E5" s="11" t="s">
-        <v>385</v>
       </c>
       <c r="F5">
         <v>-1</v>
@@ -10136,19 +10124,19 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>138</v>
       </c>
       <c r="D6" s="20" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="F6">
         <v>4</v>
@@ -10185,13 +10173,13 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="37" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B1"/>
       <c r="C1"/>
       <c r="D1"/>
       <c r="E1" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -10208,7 +10196,7 @@
         <v>134</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
     </row>
   </sheetData>
@@ -10242,15 +10230,15 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="37" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B1"/>
       <c r="C1"/>
       <c r="D1" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="E1" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -10264,21 +10252,21 @@
         <v>134</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -10314,12 +10302,12 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="37" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B1"/>
       <c r="C1"/>
       <c r="D1" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -10333,7 +10321,7 @@
         <v>134</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
     </row>
   </sheetData>
@@ -10366,12 +10354,12 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="37" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B1"/>
       <c r="C1"/>
       <c r="D1" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -10385,18 +10373,18 @@
         <v>134</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="D3">
         <v>-8</v>
@@ -10436,29 +10424,29 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="37" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" t="s">
+        <v>489</v>
+      </c>
+      <c r="D1" t="s">
+        <v>371</v>
+      </c>
+      <c r="E1" t="s">
+        <v>471</v>
+      </c>
+      <c r="F1" t="s">
+        <v>448</v>
+      </c>
+      <c r="G1" t="s">
+        <v>472</v>
+      </c>
+      <c r="H1" t="s">
         <v>491</v>
       </c>
-      <c r="D1" t="s">
-        <v>373</v>
-      </c>
-      <c r="E1" t="s">
-        <v>473</v>
-      </c>
-      <c r="F1" t="s">
-        <v>450</v>
-      </c>
-      <c r="G1" t="s">
-        <v>474</v>
-      </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>493</v>
-      </c>
-      <c r="I1" t="s">
-        <v>495</v>
       </c>
     </row>
     <row r="2" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -10469,49 +10457,49 @@
         <v>74</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="H2" s="9" t="s">
+        <v>490</v>
+      </c>
+      <c r="I2" s="9" t="s">
         <v>492</v>
       </c>
-      <c r="I2" s="9" t="s">
+      <c r="J2" s="9" t="s">
         <v>494</v>
       </c>
-      <c r="J2" s="9" t="s">
+      <c r="K2" s="9" t="s">
         <v>496</v>
       </c>
-      <c r="K2" s="9" t="s">
+      <c r="L2" s="9" t="s">
+        <v>495</v>
+      </c>
+      <c r="M2" s="9" t="s">
+        <v>497</v>
+      </c>
+      <c r="N2" s="9" t="s">
         <v>498</v>
       </c>
-      <c r="L2" s="9" t="s">
-        <v>497</v>
-      </c>
-      <c r="M2" s="9" t="s">
+      <c r="O2" s="9" t="s">
         <v>499</v>
       </c>
-      <c r="N2" s="9" t="s">
+      <c r="P2" s="9" t="s">
         <v>500</v>
       </c>
-      <c r="O2" s="9" t="s">
+      <c r="Q2" s="9" t="s">
         <v>501</v>
-      </c>
-      <c r="P2" s="9" t="s">
-        <v>502</v>
-      </c>
-      <c r="Q2" s="9" t="s">
-        <v>503</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
@@ -10522,170 +10510,158 @@
         <v>32</v>
       </c>
       <c r="C3" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="D3" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="E3" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="G3" t="s">
-        <v>451</v>
-      </c>
-      <c r="H3" t="s">
-        <v>505</v>
-      </c>
-      <c r="I3" t="s">
-        <v>504</v>
-      </c>
-      <c r="J3" t="s">
-        <v>506</v>
+        <v>449</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>32</v>
       </c>
       <c r="C4" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="D4" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="E4" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="G4" t="s">
-        <v>451</v>
-      </c>
-      <c r="I4" t="s">
-        <v>507</v>
+        <v>449</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C5" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="D5" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="E5" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="G5" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>33</v>
       </c>
       <c r="C6" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="D6" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="E6" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="G6" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C7" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="D7" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="E7" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="G7" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>32</v>
       </c>
       <c r="D8" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="F8" s="5"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D9" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="F9" s="5"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D10" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="F10" s="5"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D11" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="F11" s="5"/>
     </row>
@@ -10720,7 +10696,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="37" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -10733,13 +10709,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>78</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -10747,7 +10723,7 @@
         <v>27</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>28</v>
@@ -10761,7 +10737,7 @@
         <v>27</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>28</v>
@@ -10801,12 +10777,12 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="37" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
       <c r="D1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="2" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -10817,10 +10793,10 @@
         <v>101</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -11192,7 +11168,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="37" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" t="s">
@@ -11249,7 +11225,7 @@
   <sheetData>
     <row r="1" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B1" s="7" t="s">
         <v>101</v>
@@ -11257,7 +11233,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>102</v>
@@ -11265,7 +11241,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>102</v>

--- a/FlexTool_import_template.xlsx
+++ b/FlexTool_import_template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\data\Toolbox_projects\FlexTool3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38742156-D32F-47E5-A5F4-B83F865A266F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19E402EB-88A9-4269-8062-90BD563E90A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21240" tabRatio="1000" xr2:uid="{D5BEC09F-8FA9-46E6-8F36-396DCDACE376}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21240" tabRatio="1000" activeTab="18" xr2:uid="{D5BEC09F-8FA9-46E6-8F36-396DCDACE376}"/>
   </bookViews>
   <sheets>
     <sheet name="navigate" sheetId="54" r:id="rId1"/>
@@ -205,7 +205,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1400" uniqueCount="504">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1409" uniqueCount="508">
   <si>
     <t>commodity</t>
   </si>
@@ -1717,6 +1717,18 @@
   </si>
   <si>
     <t>How many years the period represents before the next period in the solve. Used for discounting. Can be below one (multiple periods in one year). Index: period, value: years.</t>
+  </si>
+  <si>
+    <t>21.0</t>
+  </si>
+  <si>
+    <t>Added lifetime_method to units, connections and nodes</t>
+  </si>
+  <si>
+    <t>lifetime_method</t>
+  </si>
+  <si>
+    <t>Choice how the investments behave after unit runs out of lifetime. Automatic reinvestment (reinvest_automatic - default) causes the model to keep the capacity until the end of model horizon and applies the annualized investment cost without further model choice. Choice of reinvestment (reinvest_choice) removes the capacity at the end of the lifetime and the model needs to decide how much new capacity is to be built.</t>
   </si>
 </sst>
 </file>
@@ -1901,7 +1913,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -1998,6 +2010,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="22" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2709,7 +2724,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>31</xdr:col>
+      <xdr:col>32</xdr:col>
       <xdr:colOff>371475</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
@@ -2919,7 +2934,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>23</xdr:col>
+      <xdr:col>24</xdr:col>
       <xdr:colOff>447675</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
@@ -3327,7 +3342,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F991596-B8AE-4F8F-B051-2E61303D5CC8}">
   <dimension ref="A1:E39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3693,13 +3708,13 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A4889F5-3956-475B-A853-BA105023BA1D}">
-  <dimension ref="A1:AE9"/>
+  <dimension ref="A1:AF9"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="O3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AE1" sqref="AE1"/>
+      <selection pane="bottomRight" activeCell="H1" sqref="H1:H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3711,31 +3726,32 @@
     <col min="5" max="5" width="15" customWidth="1"/>
     <col min="6" max="6" width="11.42578125" customWidth="1"/>
     <col min="7" max="7" width="15" customWidth="1"/>
-    <col min="8" max="8" width="23.140625" customWidth="1"/>
-    <col min="9" max="9" width="25.140625" customWidth="1"/>
-    <col min="10" max="10" width="29.28515625" customWidth="1"/>
-    <col min="11" max="11" width="7.28515625" customWidth="1"/>
-    <col min="12" max="12" width="12" customWidth="1"/>
-    <col min="13" max="13" width="10.42578125" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" customWidth="1"/>
-    <col min="15" max="15" width="11.7109375" customWidth="1"/>
-    <col min="16" max="16" width="9.5703125" customWidth="1"/>
-    <col min="17" max="17" width="10.5703125" customWidth="1"/>
-    <col min="18" max="18" width="10.28515625" customWidth="1"/>
-    <col min="19" max="19" width="10.140625" style="14" customWidth="1"/>
-    <col min="20" max="20" width="9.85546875" style="14" customWidth="1"/>
-    <col min="21" max="21" width="10.85546875" style="14" customWidth="1"/>
-    <col min="22" max="22" width="13.42578125" customWidth="1"/>
-    <col min="23" max="23" width="12.7109375" style="14" customWidth="1"/>
-    <col min="24" max="24" width="10.5703125" customWidth="1"/>
-    <col min="25" max="25" width="8.140625" customWidth="1"/>
-    <col min="26" max="27" width="18.140625" customWidth="1"/>
-    <col min="28" max="28" width="16.85546875" customWidth="1"/>
-    <col min="29" max="30" width="29.140625" customWidth="1"/>
-    <col min="31" max="31" width="14.7109375" customWidth="1"/>
+    <col min="8" max="8" width="15.85546875" customWidth="1"/>
+    <col min="9" max="9" width="23.140625" customWidth="1"/>
+    <col min="10" max="10" width="25.140625" customWidth="1"/>
+    <col min="11" max="11" width="29.28515625" customWidth="1"/>
+    <col min="12" max="12" width="7.28515625" customWidth="1"/>
+    <col min="13" max="13" width="12" customWidth="1"/>
+    <col min="14" max="14" width="10.42578125" customWidth="1"/>
+    <col min="15" max="15" width="13.7109375" customWidth="1"/>
+    <col min="16" max="16" width="11.7109375" customWidth="1"/>
+    <col min="17" max="17" width="9.5703125" customWidth="1"/>
+    <col min="18" max="18" width="10.5703125" customWidth="1"/>
+    <col min="19" max="19" width="10.28515625" customWidth="1"/>
+    <col min="20" max="20" width="10.140625" style="14" customWidth="1"/>
+    <col min="21" max="21" width="9.85546875" style="14" customWidth="1"/>
+    <col min="22" max="22" width="10.85546875" style="14" customWidth="1"/>
+    <col min="23" max="23" width="13.42578125" customWidth="1"/>
+    <col min="24" max="24" width="12.7109375" style="14" customWidth="1"/>
+    <col min="25" max="25" width="10.5703125" customWidth="1"/>
+    <col min="26" max="26" width="8.140625" customWidth="1"/>
+    <col min="27" max="28" width="18.140625" customWidth="1"/>
+    <col min="29" max="29" width="16.85546875" customWidth="1"/>
+    <col min="30" max="31" width="29.140625" customWidth="1"/>
+    <col min="32" max="32" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A1" s="37" t="s">
         <v>233</v>
       </c>
@@ -3756,79 +3772,82 @@
         <v>474</v>
       </c>
       <c r="H1" t="s">
+        <v>507</v>
+      </c>
+      <c r="I1" t="s">
         <v>437</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>428</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="K1" s="5" t="s">
         <v>420</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>157</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>457</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>458</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>347</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>348</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>65</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>68</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>283</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>69</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>284</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>349</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>350</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>19</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>351</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>22</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>70</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>414</v>
       </c>
-      <c r="AB1" s="5" t="s">
+      <c r="AC1" s="5" t="s">
         <v>416</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>417</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>423</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AF1" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="2" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>1</v>
       </c>
@@ -3851,79 +3870,82 @@
         <v>11</v>
       </c>
       <c r="H2" s="9" t="s">
+        <v>506</v>
+      </c>
+      <c r="I2" s="9" t="s">
         <v>412</v>
       </c>
-      <c r="I2" s="9" t="s">
+      <c r="J2" s="9" t="s">
         <v>418</v>
       </c>
-      <c r="J2" s="9" t="s">
+      <c r="K2" s="9" t="s">
         <v>419</v>
       </c>
-      <c r="K2" s="9" t="s">
+      <c r="L2" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="L2" s="9" t="s">
+      <c r="M2" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="M2" s="9" t="s">
+      <c r="N2" s="9" t="s">
         <v>460</v>
       </c>
-      <c r="N2" s="9" t="s">
+      <c r="O2" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="O2" s="9" t="s">
+      <c r="P2" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="P2" s="9" t="s">
+      <c r="Q2" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="Q2" s="9" t="s">
+      <c r="R2" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="R2" s="9" t="s">
+      <c r="S2" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="S2" s="9" t="s">
+      <c r="T2" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="T2" s="9" t="s">
+      <c r="U2" s="9" t="s">
         <v>285</v>
       </c>
-      <c r="U2" s="9" t="s">
+      <c r="V2" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="V2" s="24" t="s">
+      <c r="W2" s="24" t="s">
         <v>237</v>
       </c>
-      <c r="W2" s="9" t="s">
+      <c r="X2" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="X2" s="9" t="s">
+      <c r="Y2" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="Y2" s="9" t="s">
+      <c r="Z2" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="Z2" s="9" t="s">
+      <c r="AA2" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="AA2" s="9" t="s">
+      <c r="AB2" s="9" t="s">
         <v>413</v>
       </c>
-      <c r="AB2" s="9" t="s">
+      <c r="AC2" s="9" t="s">
         <v>415</v>
       </c>
-      <c r="AC2" s="9" t="s">
+      <c r="AD2" s="9" t="s">
         <v>421</v>
       </c>
-      <c r="AD2" s="9" t="s">
+      <c r="AE2" s="9" t="s">
         <v>422</v>
       </c>
-      <c r="AE2" s="9" t="s">
+      <c r="AF2" s="9" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>27</v>
       </c>
@@ -3943,14 +3965,14 @@
       <c r="G3" t="s">
         <v>137</v>
       </c>
-      <c r="N3">
-        <v>10000</v>
-      </c>
       <c r="O3">
         <v>10000</v>
       </c>
-    </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="P3">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>27</v>
       </c>
@@ -3970,18 +3992,18 @@
       <c r="G4" t="s">
         <v>137</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <f>100*8760</f>
         <v>876000</v>
       </c>
-      <c r="N4">
-        <v>10000</v>
-      </c>
       <c r="O4">
         <v>10000</v>
       </c>
-    </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="P4">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>27</v>
       </c>
@@ -3994,14 +4016,14 @@
       <c r="G5" t="s">
         <v>137</v>
       </c>
-      <c r="N5">
-        <v>10000</v>
-      </c>
       <c r="O5">
         <v>10000</v>
       </c>
-    </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="P5">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>27</v>
       </c>
@@ -4014,14 +4036,14 @@
       <c r="G6" t="s">
         <v>137</v>
       </c>
-      <c r="N6">
-        <v>10000</v>
-      </c>
       <c r="O6">
         <v>10000</v>
       </c>
-    </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="P6">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>280</v>
       </c>
@@ -4040,35 +4062,35 @@
       <c r="G7" t="s">
         <v>137</v>
       </c>
-      <c r="H7" t="s">
+      <c r="I7" t="s">
         <v>427</v>
       </c>
-      <c r="I7" t="s">
+      <c r="J7" t="s">
         <v>424</v>
       </c>
-      <c r="J7" t="s">
+      <c r="K7" t="s">
         <v>425</v>
-      </c>
-      <c r="N7">
-        <v>12000</v>
       </c>
       <c r="O7">
         <v>12000</v>
       </c>
       <c r="P7">
+        <v>12000</v>
+      </c>
+      <c r="Q7">
         <v>20</v>
       </c>
-      <c r="Z7">
+      <c r="AA7">
         <v>0.01</v>
       </c>
-      <c r="AA7">
+      <c r="AB7">
         <v>0.1</v>
       </c>
-      <c r="AC7">
+      <c r="AD7">
         <v>0.5</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>381</v>
       </c>
@@ -4087,26 +4109,26 @@
       <c r="G8" t="s">
         <v>137</v>
       </c>
-      <c r="H8" t="s">
+      <c r="I8" t="s">
         <v>451</v>
       </c>
-      <c r="I8" t="s">
+      <c r="J8" t="s">
         <v>424</v>
-      </c>
-      <c r="N8">
-        <v>12000</v>
       </c>
       <c r="O8">
         <v>12000</v>
       </c>
       <c r="P8">
+        <v>12000</v>
+      </c>
+      <c r="Q8">
         <v>10000000</v>
       </c>
-      <c r="AA8">
+      <c r="AB8">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>305</v>
       </c>
@@ -4116,19 +4138,19 @@
       <c r="G9" t="s">
         <v>438</v>
       </c>
-      <c r="Q9">
+      <c r="R9">
         <v>800</v>
       </c>
-      <c r="U9" s="14">
+      <c r="V9" s="14">
         <v>200</v>
       </c>
-      <c r="W9" s="14">
+      <c r="X9" s="14">
         <v>0.05</v>
       </c>
-      <c r="Y9">
+      <c r="Z9">
         <v>10</v>
       </c>
-      <c r="AE9">
+      <c r="AF9">
         <v>1</v>
       </c>
     </row>
@@ -4881,13 +4903,13 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D44D2B2-1DE7-400D-8C40-2CD59BEE6EC3}">
-  <dimension ref="A1:W6"/>
+  <dimension ref="A1:X6"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="4" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="I3" sqref="I3"/>
+      <selection pane="bottomRight" activeCell="I1" sqref="I1:I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4900,22 +4922,23 @@
     <col min="6" max="6" width="16" customWidth="1"/>
     <col min="7" max="7" width="15.5703125" customWidth="1"/>
     <col min="8" max="8" width="14.7109375" customWidth="1"/>
-    <col min="10" max="10" width="11.85546875" customWidth="1"/>
-    <col min="11" max="11" width="8.7109375" customWidth="1"/>
-    <col min="12" max="12" width="10.5703125" customWidth="1"/>
-    <col min="13" max="13" width="10.28515625" customWidth="1"/>
-    <col min="14" max="14" width="10.140625" customWidth="1"/>
-    <col min="15" max="15" width="9.85546875" customWidth="1"/>
-    <col min="16" max="16" width="11.42578125" customWidth="1"/>
-    <col min="17" max="18" width="13" customWidth="1"/>
-    <col min="19" max="19" width="9.85546875" customWidth="1"/>
-    <col min="20" max="20" width="10.5703125" customWidth="1"/>
-    <col min="21" max="21" width="22" customWidth="1"/>
-    <col min="22" max="22" width="10" customWidth="1"/>
-    <col min="23" max="23" width="15.7109375" customWidth="1"/>
+    <col min="9" max="9" width="16.140625" customWidth="1"/>
+    <col min="11" max="11" width="11.85546875" customWidth="1"/>
+    <col min="12" max="12" width="8.7109375" customWidth="1"/>
+    <col min="13" max="13" width="10.5703125" customWidth="1"/>
+    <col min="14" max="14" width="10.28515625" customWidth="1"/>
+    <col min="15" max="15" width="10.140625" customWidth="1"/>
+    <col min="16" max="16" width="9.85546875" customWidth="1"/>
+    <col min="17" max="17" width="11.42578125" customWidth="1"/>
+    <col min="18" max="19" width="13" customWidth="1"/>
+    <col min="20" max="20" width="9.85546875" customWidth="1"/>
+    <col min="21" max="21" width="10.5703125" customWidth="1"/>
+    <col min="22" max="22" width="22" customWidth="1"/>
+    <col min="23" max="23" width="10" customWidth="1"/>
+    <col min="24" max="24" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1" s="37" t="s">
         <v>233</v>
       </c>
@@ -4935,52 +4958,55 @@
         <v>439</v>
       </c>
       <c r="I1" t="s">
+        <v>507</v>
+      </c>
+      <c r="J1" t="s">
         <v>484</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>158</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>18</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>21</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>286</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>24</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>287</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>357</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>358</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>19</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>22</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>359</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>456</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>483</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>1</v>
       </c>
@@ -5006,52 +5032,55 @@
         <v>11</v>
       </c>
       <c r="I2" s="9" t="s">
+        <v>506</v>
+      </c>
+      <c r="J2" s="9" t="s">
         <v>275</v>
       </c>
-      <c r="J2" s="9" t="s">
+      <c r="K2" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="K2" s="9" t="s">
+      <c r="L2" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="L2" s="9" t="s">
+      <c r="M2" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="M2" s="9" t="s">
+      <c r="N2" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="N2" s="9" t="s">
+      <c r="O2" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="9" t="s">
+      <c r="P2" s="9" t="s">
         <v>285</v>
       </c>
-      <c r="P2" s="9" t="s">
+      <c r="Q2" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="Q2" s="9" t="s">
+      <c r="R2" s="9" t="s">
         <v>237</v>
       </c>
-      <c r="R2" s="9" t="s">
+      <c r="S2" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="S2" s="9" t="s">
+      <c r="T2" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="T2" s="9" t="s">
+      <c r="U2" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="U2" s="9" t="s">
+      <c r="V2" s="9" t="s">
         <v>453</v>
       </c>
-      <c r="V2" s="9" t="s">
+      <c r="W2" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="W2" s="24" t="s">
+      <c r="X2" s="24" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>27</v>
       </c>
@@ -5076,14 +5105,14 @@
       <c r="H3" t="s">
         <v>137</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>148</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>280</v>
       </c>
@@ -5108,14 +5137,14 @@
       <c r="H4" t="s">
         <v>137</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>10</v>
       </c>
-      <c r="V4">
+      <c r="W4">
         <v>0.9</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>305</v>
       </c>
@@ -5131,23 +5160,23 @@
       <c r="H5" t="s">
         <v>438</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <v>100</v>
       </c>
-      <c r="P5">
+      <c r="Q5">
         <v>500</v>
       </c>
-      <c r="R5">
+      <c r="S5">
         <v>0.05</v>
       </c>
-      <c r="S5">
+      <c r="T5">
         <v>50</v>
       </c>
-      <c r="W5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>305</v>
       </c>
@@ -5163,19 +5192,19 @@
       <c r="H6" t="s">
         <v>438</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <v>100</v>
       </c>
-      <c r="P6">
+      <c r="Q6">
         <v>0</v>
       </c>
-      <c r="R6">
+      <c r="S6">
         <v>0.05</v>
       </c>
-      <c r="S6">
+      <c r="T6">
         <v>20</v>
       </c>
-      <c r="W6">
+      <c r="X6">
         <v>1</v>
       </c>
     </row>
@@ -5599,13 +5628,13 @@
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6619729E-584E-41E3-B72E-7B2979330C88}">
-  <dimension ref="A1:X7"/>
+  <dimension ref="A1:Y7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
+      <selection pane="bottomRight" activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5617,25 +5646,26 @@
     <col min="5" max="5" width="11.7109375" customWidth="1"/>
     <col min="6" max="6" width="12.28515625" customWidth="1"/>
     <col min="7" max="7" width="15" customWidth="1"/>
-    <col min="8" max="8" width="11.5703125" customWidth="1"/>
-    <col min="9" max="9" width="11" customWidth="1"/>
-    <col min="10" max="10" width="10.5703125" customWidth="1"/>
-    <col min="11" max="11" width="10.42578125" customWidth="1"/>
-    <col min="12" max="12" width="10.28515625" customWidth="1"/>
-    <col min="13" max="13" width="11.5703125" customWidth="1"/>
-    <col min="14" max="14" width="7.7109375" customWidth="1"/>
-    <col min="15" max="15" width="8" customWidth="1"/>
-    <col min="16" max="16" width="8.5703125" customWidth="1"/>
-    <col min="17" max="17" width="10.140625" customWidth="1"/>
-    <col min="18" max="18" width="11.7109375" customWidth="1"/>
-    <col min="19" max="19" width="9.85546875" customWidth="1"/>
-    <col min="20" max="20" width="12.140625" customWidth="1"/>
-    <col min="21" max="22" width="10.140625" customWidth="1"/>
-    <col min="23" max="24" width="8" customWidth="1"/>
-    <col min="26" max="26" width="8.140625" customWidth="1"/>
+    <col min="8" max="8" width="16" customWidth="1"/>
+    <col min="9" max="9" width="11.5703125" customWidth="1"/>
+    <col min="10" max="10" width="11" customWidth="1"/>
+    <col min="11" max="11" width="10.5703125" customWidth="1"/>
+    <col min="12" max="12" width="10.42578125" customWidth="1"/>
+    <col min="13" max="13" width="10.28515625" customWidth="1"/>
+    <col min="14" max="14" width="11.5703125" customWidth="1"/>
+    <col min="15" max="15" width="7.7109375" customWidth="1"/>
+    <col min="16" max="16" width="8" customWidth="1"/>
+    <col min="17" max="17" width="8.5703125" customWidth="1"/>
+    <col min="18" max="18" width="10.140625" customWidth="1"/>
+    <col min="19" max="19" width="11.7109375" customWidth="1"/>
+    <col min="20" max="20" width="9.85546875" customWidth="1"/>
+    <col min="21" max="21" width="12.140625" customWidth="1"/>
+    <col min="22" max="23" width="10.140625" customWidth="1"/>
+    <col min="24" max="25" width="8" customWidth="1"/>
+    <col min="27" max="27" width="8.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" s="37" t="s">
         <v>233</v>
       </c>
@@ -5656,58 +5686,61 @@
         <v>439</v>
       </c>
       <c r="H1" t="s">
+        <v>507</v>
+      </c>
+      <c r="I1" t="s">
         <v>18</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>21</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>286</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>24</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>287</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>360</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>361</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>19</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>22</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>359</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>158</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>106</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>297</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>478</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>182</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>183</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="2" spans="1:24" s="23" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" s="23" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="21" t="s">
         <v>1</v>
       </c>
@@ -5729,59 +5762,62 @@
       <c r="G2" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="24" t="s">
+      <c r="H2" s="49" t="s">
+        <v>506</v>
+      </c>
+      <c r="I2" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="24" t="s">
+      <c r="J2" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="24" t="s">
+      <c r="K2" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="K2" s="24" t="s">
+      <c r="L2" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="L2" s="24" t="s">
+      <c r="M2" s="24" t="s">
         <v>285</v>
       </c>
-      <c r="M2" s="24" t="s">
+      <c r="N2" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="N2" s="24" t="s">
+      <c r="O2" s="24" t="s">
         <v>237</v>
       </c>
-      <c r="O2" s="24" t="s">
+      <c r="P2" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="P2" s="24" t="s">
+      <c r="Q2" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="Q2" s="24" t="s">
+      <c r="R2" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="R2" s="24" t="s">
+      <c r="S2" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="S2" s="24" t="s">
+      <c r="T2" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="T2" s="24" t="s">
+      <c r="U2" s="24" t="s">
         <v>107</v>
       </c>
-      <c r="U2" s="24" t="s">
+      <c r="V2" s="24" t="s">
         <v>110</v>
       </c>
-      <c r="V2" s="24" t="s">
+      <c r="W2" s="24" t="s">
         <v>109</v>
       </c>
-      <c r="W2" s="24" t="s">
+      <c r="X2" s="24" t="s">
         <v>111</v>
       </c>
-      <c r="X2" s="24" t="s">
+      <c r="Y2" s="24" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>27</v>
       </c>
@@ -5801,27 +5837,28 @@
       <c r="G3" s="47" t="s">
         <v>137</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="47"/>
+      <c r="I3">
         <v>100</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>150</v>
       </c>
-      <c r="M3">
+      <c r="N3">
         <v>1000</v>
       </c>
-      <c r="O3">
+      <c r="P3">
         <v>0.08</v>
       </c>
-      <c r="P3">
+      <c r="Q3">
         <v>30</v>
       </c>
-      <c r="S3">
+      <c r="T3">
         <v>0.4</v>
       </c>
-      <c r="T3" s="5"/>
-    </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="U3" s="5"/>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>27</v>
       </c>
@@ -5841,14 +5878,15 @@
       <c r="G4" s="47" t="s">
         <v>137</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="47"/>
+      <c r="I4">
         <v>100</v>
       </c>
-      <c r="S4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="T4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>27</v>
       </c>
@@ -5868,17 +5906,18 @@
       <c r="G5" s="47" t="s">
         <v>137</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="47"/>
+      <c r="I5">
         <v>200</v>
       </c>
-      <c r="T5">
+      <c r="U5">
         <v>0.45</v>
       </c>
-      <c r="U5">
+      <c r="V5">
         <v>0.4</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>305</v>
       </c>
@@ -5888,8 +5927,9 @@
       <c r="G6" s="47" t="s">
         <v>440</v>
       </c>
-    </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="H6" s="47"/>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>381</v>
       </c>
@@ -5908,10 +5948,11 @@
       <c r="G7" s="47" t="s">
         <v>137</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="47"/>
+      <c r="I7">
         <v>10</v>
       </c>
-      <c r="S7">
+      <c r="T7">
         <v>1</v>
       </c>
     </row>
@@ -5925,9 +5966,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4446509C-CB62-4FDB-A8D2-BE0D15E8AAF2}">
-  <dimension ref="A1:D38"/>
+  <dimension ref="A1:D39"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="D39" sqref="D39"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -6443,6 +6486,20 @@
       </c>
       <c r="D38" t="s">
         <v>464</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="5" t="s">
+        <v>504</v>
+      </c>
+      <c r="B39" s="25">
+        <v>45082</v>
+      </c>
+      <c r="C39" t="s">
+        <v>177</v>
+      </c>
+      <c r="D39" t="s">
+        <v>505</v>
       </c>
     </row>
   </sheetData>

--- a/FlexTool_import_template.xlsx
+++ b/FlexTool_import_template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\data\Toolbox_projects\FlexTool3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AETART\Documents\flextool\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19E402EB-88A9-4269-8062-90BD563E90A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FB88066-727A-4AD9-BA7C-402E9FC8B48B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21240" tabRatio="1000" activeTab="18" xr2:uid="{D5BEC09F-8FA9-46E6-8F36-396DCDACE376}"/>
+    <workbookView xWindow="28815" yWindow="-18120" windowWidth="29040" windowHeight="17640" tabRatio="1000" activeTab="10" xr2:uid="{D5BEC09F-8FA9-46E6-8F36-396DCDACE376}"/>
   </bookViews>
   <sheets>
     <sheet name="navigate" sheetId="54" r:id="rId1"/>
@@ -18,45 +18,46 @@
     <sheet name="scenario" sheetId="57" r:id="rId3"/>
     <sheet name="solve_period" sheetId="53" r:id="rId4"/>
     <sheet name="solve_sequence" sheetId="11" r:id="rId5"/>
-    <sheet name="timeblockSet" sheetId="14" r:id="rId6"/>
-    <sheet name="timeline_t" sheetId="15" r:id="rId7"/>
-    <sheet name="timeline_c" sheetId="17" r:id="rId8"/>
-    <sheet name="timeblockSet_timeline" sheetId="16" r:id="rId9"/>
-    <sheet name="node_c" sheetId="7" r:id="rId10"/>
-    <sheet name="node_p" sheetId="19" r:id="rId11"/>
-    <sheet name="node_t" sheetId="47" r:id="rId12"/>
-    <sheet name="commodity_c" sheetId="1" r:id="rId13"/>
-    <sheet name="commodity_p" sheetId="45" r:id="rId14"/>
-    <sheet name="commodity_node" sheetId="23" r:id="rId15"/>
-    <sheet name="connection_c" sheetId="2" r:id="rId16"/>
-    <sheet name="connection_p" sheetId="42" r:id="rId17"/>
-    <sheet name="connection_t" sheetId="43" r:id="rId18"/>
-    <sheet name="unit_c" sheetId="18" r:id="rId19"/>
-    <sheet name="unit_p" sheetId="21" r:id="rId20"/>
-    <sheet name="unit_t" sheetId="48" r:id="rId21"/>
-    <sheet name="unit_node_c" sheetId="38" r:id="rId22"/>
-    <sheet name="unit_node_t" sheetId="49" r:id="rId23"/>
-    <sheet name="profile_t" sheetId="10" r:id="rId24"/>
-    <sheet name="node_profile_c" sheetId="55" r:id="rId25"/>
-    <sheet name="connection_profile_c" sheetId="56" r:id="rId26"/>
-    <sheet name="unit_node_profile_c" sheetId="41" r:id="rId27"/>
-    <sheet name="group_c" sheetId="6" r:id="rId28"/>
-    <sheet name="group_p" sheetId="46" r:id="rId29"/>
-    <sheet name="group_connection" sheetId="26" r:id="rId30"/>
-    <sheet name="group_connection_node" sheetId="28" r:id="rId31"/>
-    <sheet name="group_node" sheetId="27" r:id="rId32"/>
-    <sheet name="group_unit" sheetId="29" r:id="rId33"/>
-    <sheet name="group_unit_node" sheetId="30" r:id="rId34"/>
-    <sheet name="reserve_connection_node_c" sheetId="31" r:id="rId35"/>
-    <sheet name="reserve_group_c" sheetId="32" r:id="rId36"/>
-    <sheet name="reserve_group_t" sheetId="50" r:id="rId37"/>
-    <sheet name="reserve_unit_node_c" sheetId="33" r:id="rId38"/>
-    <sheet name="constraint_sense_c" sheetId="44" r:id="rId39"/>
-    <sheet name="unit_node_constraint_c" sheetId="58" r:id="rId40"/>
-    <sheet name="connection_node_constraint_c" sheetId="59" r:id="rId41"/>
-    <sheet name="node_constraint_c" sheetId="60" r:id="rId42"/>
-    <sheet name="unit_constraint_c" sheetId="61" r:id="rId43"/>
-    <sheet name="connection_constraint_c" sheetId="62" r:id="rId44"/>
+    <sheet name="rolling_parameters" sheetId="63" r:id="rId6"/>
+    <sheet name="timeblockSet" sheetId="14" r:id="rId7"/>
+    <sheet name="timeline_t" sheetId="15" r:id="rId8"/>
+    <sheet name="timeline_c" sheetId="17" r:id="rId9"/>
+    <sheet name="timeblockSet_timeline" sheetId="16" r:id="rId10"/>
+    <sheet name="node_c" sheetId="7" r:id="rId11"/>
+    <sheet name="node_p" sheetId="19" r:id="rId12"/>
+    <sheet name="node_t" sheetId="47" r:id="rId13"/>
+    <sheet name="commodity_c" sheetId="1" r:id="rId14"/>
+    <sheet name="commodity_p" sheetId="45" r:id="rId15"/>
+    <sheet name="commodity_node" sheetId="23" r:id="rId16"/>
+    <sheet name="connection_c" sheetId="2" r:id="rId17"/>
+    <sheet name="connection_p" sheetId="42" r:id="rId18"/>
+    <sheet name="connection_t" sheetId="43" r:id="rId19"/>
+    <sheet name="unit_c" sheetId="18" r:id="rId20"/>
+    <sheet name="unit_p" sheetId="21" r:id="rId21"/>
+    <sheet name="unit_t" sheetId="48" r:id="rId22"/>
+    <sheet name="unit_node_c" sheetId="38" r:id="rId23"/>
+    <sheet name="unit_node_t" sheetId="49" r:id="rId24"/>
+    <sheet name="profile_t" sheetId="10" r:id="rId25"/>
+    <sheet name="node_profile_c" sheetId="55" r:id="rId26"/>
+    <sheet name="connection_profile_c" sheetId="56" r:id="rId27"/>
+    <sheet name="unit_node_profile_c" sheetId="41" r:id="rId28"/>
+    <sheet name="group_c" sheetId="6" r:id="rId29"/>
+    <sheet name="group_p" sheetId="46" r:id="rId30"/>
+    <sheet name="group_connection" sheetId="26" r:id="rId31"/>
+    <sheet name="group_connection_node" sheetId="28" r:id="rId32"/>
+    <sheet name="group_node" sheetId="27" r:id="rId33"/>
+    <sheet name="group_unit" sheetId="29" r:id="rId34"/>
+    <sheet name="group_unit_node" sheetId="30" r:id="rId35"/>
+    <sheet name="reserve_connection_node_c" sheetId="31" r:id="rId36"/>
+    <sheet name="reserve_group_c" sheetId="32" r:id="rId37"/>
+    <sheet name="reserve_group_t" sheetId="50" r:id="rId38"/>
+    <sheet name="reserve_unit_node_c" sheetId="33" r:id="rId39"/>
+    <sheet name="constraint_sense_c" sheetId="44" r:id="rId40"/>
+    <sheet name="unit_node_constraint_c" sheetId="58" r:id="rId41"/>
+    <sheet name="connection_node_constraint_c" sheetId="59" r:id="rId42"/>
+    <sheet name="node_constraint_c" sheetId="60" r:id="rId43"/>
+    <sheet name="unit_constraint_c" sheetId="61" r:id="rId44"/>
+    <sheet name="connection_constraint_c" sheetId="62" r:id="rId45"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -205,7 +206,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1409" uniqueCount="508">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1448" uniqueCount="525">
   <si>
     <t>commodity</t>
   </si>
@@ -774,9 +775,6 @@
     <t>Added y2025_dispatch to solve_sequence, solve and solve_period. Added y2000_12h to timeline_s. Added year 2030 to y2025 investment solve and data to different parameters for year 2030.</t>
   </si>
   <si>
-    <t>is_realized</t>
-  </si>
-  <si>
     <t>can_invest</t>
   </si>
   <si>
@@ -1729,6 +1727,60 @@
   </si>
   <si>
     <t>Choice how the investments behave after unit runs out of lifetime. Automatic reinvestment (reinvest_automatic - default) causes the model to keep the capacity until the end of model horizon and applies the annualized investment cost without further model choice. Choice of reinvestment (reinvest_choice) removes the capacity at the end of the lifetime and the model needs to decide how much new capacity is to be built.</t>
+  </si>
+  <si>
+    <t>realize_dispatch</t>
+  </si>
+  <si>
+    <t>realize_invests</t>
+  </si>
+  <si>
+    <t>fix_storage</t>
+  </si>
+  <si>
+    <t>Solve name</t>
+  </si>
+  <si>
+    <t>contains_solve</t>
+  </si>
+  <si>
+    <t>new_stepduration</t>
+  </si>
+  <si>
+    <t>Choose if this storage's values are passed to the contained solve</t>
+  </si>
+  <si>
+    <t>rolling_duration</t>
+  </si>
+  <si>
+    <t>(Optional) Timestamp from the timeline that is linked to the timeblockSet used. Start of the rolling, if not stated, assumed to be the first timestep</t>
+  </si>
+  <si>
+    <t>(Required if rolling_window solve). The length of the jumps between rolls. Should be smaller than the horizon</t>
+  </si>
+  <si>
+    <t>Hours (Required if rolling_window solve). How long into the future the roll sees</t>
+  </si>
+  <si>
+    <t>Hours (Optional). Duration of rolling, if not stated, assumed to be the whole time of the solve</t>
+  </si>
+  <si>
+    <t>rolling_start_time</t>
+  </si>
+  <si>
+    <t>rolling_solve_jump</t>
+  </si>
+  <si>
+    <t>rolling_solve_horizon</t>
+  </si>
+  <si>
+    <t>Arttu Tupala</t>
+  </si>
+  <si>
+    <t>Added rolling and nested parameters</t>
+  </si>
+  <si>
+    <t>storage_nested_fix_method</t>
   </si>
 </sst>
 </file>
@@ -2043,12 +2095,12 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>247650</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="5153014" cy="1395318"/>
+    <xdr:ext cx="5153014" cy="1953740"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="2" name="TextBox 1">
@@ -2062,8 +2114,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7419975" y="676275"/>
-          <a:ext cx="5153014" cy="1395318"/>
+          <a:off x="9486900" y="704850"/>
+          <a:ext cx="5153014" cy="1953740"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2152,7 +2204,23 @@
             <a:rPr lang="fi-FI" sz="1200" baseline="0">
               <a:latin typeface="Arial Nova" panose="020B0504020202020204" pitchFamily="34" charset="0"/>
             </a:rPr>
-            <a:t>- realised_periods: Results are kept only from these</a:t>
+            <a:t>- realised_dispatch: Results of dispatch are kept only from these</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fi-FI" sz="1200" baseline="0">
+              <a:latin typeface="Arial Nova" panose="020B0504020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>- can_invest: Investments are allowed only from these</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fi-FI" sz="1200" baseline="0">
+              <a:latin typeface="Arial Nova" panose="020B0504020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>- realize_invests: Results of invests are created</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -2161,6 +2229,14 @@
               <a:latin typeface="Arial Nova" panose="020B0504020202020204" pitchFamily="34" charset="0"/>
             </a:rPr>
             <a:t>- invest_periods: Investments are allowed only from these</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fi-FI" sz="1200" baseline="0">
+              <a:latin typeface="Arial Nova" panose="020B0504020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>- Fix_storage: Storage values are passed to the inner solve</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -2179,6 +2255,119 @@
 </file>
 
 <file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="8919750" cy="1209177"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{93102F38-53D8-43D1-828E-C34AF0E8D191}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14820900" y="504825"/>
+          <a:ext cx="8919750" cy="1209177"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg2"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fi-FI" sz="1200">
+              <a:latin typeface="Arial Nova" panose="020B0504020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>Input data for the</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="fi-FI" sz="1200" baseline="0">
+              <a:latin typeface="Arial Nova" panose="020B0504020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t> connections</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fi-FI" sz="1200" baseline="0">
+              <a:latin typeface="Arial Nova" panose="020B0504020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>- transfer_method: Transfer can use different methods since there can be a trade-off between accuracy and computational effort.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fi-FI" sz="1200" baseline="0">
+              <a:latin typeface="Arial Nova" panose="020B0504020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>- startup_method: Startups can be applied also to transfer connections.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fi-FI" sz="1200" baseline="0">
+              <a:latin typeface="Arial Nova" panose="020B0504020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>- invest_method: Choice of investment method (or not allowed) for the connection capacity.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fi-FI" sz="1200" baseline="0">
+              <a:latin typeface="Arial Nova" panose="020B0504020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>- has_DC: marks the connection as DC without synchronous connection</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fi-FI" sz="1200" baseline="0">
+              <a:latin typeface="Arial Nova" panose="020B0504020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>- other parameters define the connection parameters</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
@@ -2283,12 +2472,12 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>733425</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="4088299" cy="1023037"/>
+    <xdr:ext cx="6099555" cy="1209177"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="2" name="TextBox 1">
@@ -2302,8 +2491,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10239375" y="942975"/>
-          <a:ext cx="4088299" cy="1023037"/>
+          <a:off x="10420350" y="1304925"/>
+          <a:ext cx="6099555" cy="1209177"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2368,7 +2557,15 @@
             <a:rPr lang="fi-FI" sz="1200" baseline="0">
               <a:latin typeface="Arial Nova" panose="020B0504020202020204" pitchFamily="34" charset="0"/>
             </a:rPr>
-            <a:t>- Parameterized rolling window is not yet available</a:t>
+            <a:t>- Contains_solve is used for creating a nested solve structure.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fi-FI" sz="1200" baseline="0">
+              <a:latin typeface="Arial Nova" panose="020B0504020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>The contained solve is run after this solve with the passed investment or storage values</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -2382,12 +2579,111 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>409575</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="4227055" cy="836896"/>
+    <xdr:ext cx="5473550" cy="1023037"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{98E6B3D1-357B-41F4-A929-385CD110D621}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10420350" y="1304925"/>
+          <a:ext cx="5473550" cy="1023037"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg2"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fi-FI" sz="1200" baseline="0">
+              <a:latin typeface="Arial Nova" panose="020B0504020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>Define the rolling parameters. Required if the solve_mode is rolling_window:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fi-FI" sz="1200" baseline="0">
+              <a:latin typeface="Arial Nova" panose="020B0504020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>- Rolling_start_time: Allows to set a different start time than the beginning</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fi-FI" sz="1200" baseline="0">
+              <a:latin typeface="Arial Nova" panose="020B0504020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>- Rolling_solve_jump: The solve start and output interval, smaller than horizon</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fi-FI" sz="1200" baseline="0">
+              <a:latin typeface="Arial Nova" panose="020B0504020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>- Rolling_solve_horizon: The solve length</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fi-FI" sz="1200" baseline="0">
+              <a:latin typeface="Arial Nova" panose="020B0504020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>- Rolling_duration: If not to the end, the length of the combined rolls</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="4341701" cy="1209177"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="2" name="TextBox 1">
@@ -2401,8 +2697,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3848100" y="466725"/>
-          <a:ext cx="4227055" cy="836896"/>
+          <a:off x="4972050" y="742950"/>
+          <a:ext cx="4341701" cy="1209177"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2468,6 +2764,22 @@
             <a:t>- block_duration: duration of the block counted in time steps</a:t>
           </a:r>
         </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fi-FI" sz="1200" baseline="0">
+              <a:latin typeface="Arial Nova" panose="020B0504020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>- new_stepduration: creates a new timeline from this timeline </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fi-FI" sz="1200" baseline="0">
+              <a:latin typeface="Arial Nova" panose="020B0504020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>with summed/averaged values</a:t>
+          </a:r>
+        </a:p>
       </xdr:txBody>
     </xdr:sp>
     <xdr:clientData/>
@@ -2475,7 +2787,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
@@ -2572,7 +2884,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
@@ -2650,7 +2962,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
@@ -2720,11 +3032,11 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>32</xdr:col>
+      <xdr:col>33</xdr:col>
       <xdr:colOff>371475</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
@@ -2841,7 +3153,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
@@ -2921,119 +3233,6 @@
               <a:latin typeface="Arial Nova" panose="020B0504020202020204" pitchFamily="34" charset="0"/>
             </a:rPr>
             <a:t>- price: can be positive (model buys the commodity) or negative (model sells the commodity)</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>447675</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="8919750" cy="1209177"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="TextBox 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{93102F38-53D8-43D1-828E-C34AF0E8D191}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="14820900" y="504825"/>
-          <a:ext cx="8919750" cy="1209177"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg2"/>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="fi-FI" sz="1200">
-              <a:latin typeface="Arial Nova" panose="020B0504020202020204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>Input data for the</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="fi-FI" sz="1200" baseline="0">
-              <a:latin typeface="Arial Nova" panose="020B0504020202020204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t> connections</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="fi-FI" sz="1200" baseline="0">
-              <a:latin typeface="Arial Nova" panose="020B0504020202020204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>- transfer_method: Transfer can use different methods since there can be a trade-off between accuracy and computational effort.</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="fi-FI" sz="1200" baseline="0">
-              <a:latin typeface="Arial Nova" panose="020B0504020202020204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>- startup_method: Startups can be applied also to transfer connections.</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="fi-FI" sz="1200" baseline="0">
-              <a:latin typeface="Arial Nova" panose="020B0504020202020204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>- invest_method: Choice of investment method (or not allowed) for the connection capacity.</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="fi-FI" sz="1200" baseline="0">
-              <a:latin typeface="Arial Nova" panose="020B0504020202020204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>- has_DC: marks the connection as DC without synchronous connection</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="fi-FI" sz="1200" baseline="0">
-              <a:latin typeface="Arial Nova" panose="020B0504020202020204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>- other parameters define the connection parameters</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -3353,81 +3552,81 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="46" t="s">
+        <v>265</v>
+      </c>
+      <c r="B1" s="46" t="s">
+        <v>267</v>
+      </c>
+      <c r="C1" s="46" t="s">
         <v>266</v>
-      </c>
-      <c r="B1" s="46" t="s">
-        <v>268</v>
-      </c>
-      <c r="C1" s="46" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="43" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B2" s="43"/>
       <c r="C2" s="43"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="43" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B3" s="43"/>
       <c r="C3" s="43"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="43" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B4" s="43"/>
       <c r="C4" s="43"/>
       <c r="E4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="43" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B5" s="43"/>
       <c r="C5" s="43"/>
       <c r="E5" s="5" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="43" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B6" s="43"/>
       <c r="C6" s="43"/>
       <c r="E6" s="5" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="29" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B7" s="30"/>
       <c r="C7" s="29" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="43" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B8" s="43"/>
       <c r="C8" s="43"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="43" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B9" s="43"/>
       <c r="C9" s="43"/>
@@ -3437,65 +3636,65 @@
       <c r="B10" s="27"/>
       <c r="C10" s="27"/>
       <c r="E10" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="31" t="s">
+        <v>200</v>
+      </c>
+      <c r="B11" s="31" t="s">
         <v>201</v>
       </c>
-      <c r="B11" s="31" t="s">
+      <c r="C11" s="31" t="s">
         <v>202</v>
-      </c>
-      <c r="C11" s="31" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="31" t="s">
+        <v>203</v>
+      </c>
+      <c r="B12" s="31" t="s">
         <v>204</v>
-      </c>
-      <c r="B12" s="31" t="s">
-        <v>205</v>
       </c>
       <c r="C12" s="32"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="44" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B13" s="44"/>
       <c r="C13" s="44"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="31" t="s">
+        <v>206</v>
+      </c>
+      <c r="B14" s="31" t="s">
         <v>207</v>
       </c>
-      <c r="B14" s="31" t="s">
+      <c r="C14" s="31" t="s">
         <v>208</v>
-      </c>
-      <c r="C14" s="31" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="31" t="s">
+        <v>225</v>
+      </c>
+      <c r="B15" s="31" t="s">
         <v>226</v>
       </c>
-      <c r="B15" s="31" t="s">
+      <c r="C15" s="31" t="s">
         <v>227</v>
-      </c>
-      <c r="C15" s="31" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="31" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B16" s="32"/>
       <c r="C16" s="31" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -3507,26 +3706,26 @@
       <c r="A18" s="39"/>
       <c r="B18" s="39"/>
       <c r="C18" s="40" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="45" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B19" s="45"/>
       <c r="C19" s="45"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="45" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B20" s="45"/>
       <c r="C20" s="45"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="45" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B21" s="45"/>
       <c r="C21" s="45"/>
@@ -3538,45 +3737,45 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="34" t="s">
+        <v>221</v>
+      </c>
+      <c r="B23" s="34" t="s">
         <v>222</v>
-      </c>
-      <c r="B23" s="34" t="s">
-        <v>223</v>
       </c>
       <c r="C23" s="34"/>
       <c r="D23" s="28"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="41" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B24" s="41"/>
       <c r="C24" s="41"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="41" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B25" s="41"/>
       <c r="C25" s="41"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="41" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B26" s="41"/>
       <c r="C26" s="41"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="41" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B27" s="41"/>
       <c r="C27" s="41"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="41" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B28" s="41"/>
       <c r="C28" s="41"/>
@@ -3588,65 +3787,65 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="42" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B30" s="42"/>
       <c r="C30" s="42"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="35" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B31" s="36"/>
       <c r="C31" s="35" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="42" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B32" s="42"/>
       <c r="C32" s="42"/>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="48" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B34" s="48"/>
       <c r="C34" s="48"/>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="48" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B35" s="48"/>
       <c r="C35" s="48"/>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="48" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B36" s="48"/>
       <c r="C36" s="48"/>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="48" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B37" s="48"/>
       <c r="C37" s="48"/>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="48" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B38" s="48"/>
       <c r="C38" s="48"/>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="48" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B39" s="48"/>
       <c r="C39" s="48"/>
@@ -3707,14 +3906,60 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D727460B-F1B2-42C2-90E2-38E181F7AFC8}">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.5703125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" style="4" customWidth="1"/>
+    <col min="3" max="11" width="11.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>102</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A4889F5-3956-475B-A853-BA105023BA1D}">
-  <dimension ref="A1:AF9"/>
+  <dimension ref="A1:AG9"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="H1" sqref="H1:H2"/>
+      <selection pane="bottomRight" activeCell="L1" sqref="L1:L1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3727,127 +3972,131 @@
     <col min="6" max="6" width="11.42578125" customWidth="1"/>
     <col min="7" max="7" width="15" customWidth="1"/>
     <col min="8" max="8" width="15.85546875" customWidth="1"/>
-    <col min="9" max="9" width="23.140625" customWidth="1"/>
-    <col min="10" max="10" width="25.140625" customWidth="1"/>
-    <col min="11" max="11" width="29.28515625" customWidth="1"/>
-    <col min="12" max="12" width="7.28515625" customWidth="1"/>
-    <col min="13" max="13" width="12" customWidth="1"/>
-    <col min="14" max="14" width="10.42578125" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" customWidth="1"/>
-    <col min="16" max="16" width="11.7109375" customWidth="1"/>
-    <col min="17" max="17" width="9.5703125" customWidth="1"/>
-    <col min="18" max="18" width="10.5703125" customWidth="1"/>
-    <col min="19" max="19" width="10.28515625" customWidth="1"/>
-    <col min="20" max="20" width="10.140625" style="14" customWidth="1"/>
-    <col min="21" max="21" width="9.85546875" style="14" customWidth="1"/>
-    <col min="22" max="22" width="10.85546875" style="14" customWidth="1"/>
-    <col min="23" max="23" width="13.42578125" customWidth="1"/>
-    <col min="24" max="24" width="12.7109375" style="14" customWidth="1"/>
-    <col min="25" max="25" width="10.5703125" customWidth="1"/>
-    <col min="26" max="26" width="8.140625" customWidth="1"/>
-    <col min="27" max="28" width="18.140625" customWidth="1"/>
-    <col min="29" max="29" width="16.85546875" customWidth="1"/>
-    <col min="30" max="31" width="29.140625" customWidth="1"/>
-    <col min="32" max="32" width="14.7109375" customWidth="1"/>
+    <col min="9" max="9" width="19.42578125" customWidth="1"/>
+    <col min="10" max="10" width="23.140625" customWidth="1"/>
+    <col min="11" max="11" width="25.140625" customWidth="1"/>
+    <col min="12" max="12" width="29.28515625" customWidth="1"/>
+    <col min="13" max="13" width="7.28515625" customWidth="1"/>
+    <col min="14" max="14" width="12" customWidth="1"/>
+    <col min="15" max="15" width="10.42578125" customWidth="1"/>
+    <col min="16" max="16" width="13.7109375" customWidth="1"/>
+    <col min="17" max="17" width="11.7109375" customWidth="1"/>
+    <col min="18" max="18" width="9.5703125" customWidth="1"/>
+    <col min="19" max="19" width="10.5703125" customWidth="1"/>
+    <col min="20" max="20" width="10.28515625" customWidth="1"/>
+    <col min="21" max="21" width="10.140625" style="14" customWidth="1"/>
+    <col min="22" max="22" width="9.85546875" style="14" customWidth="1"/>
+    <col min="23" max="23" width="10.85546875" style="14" customWidth="1"/>
+    <col min="24" max="24" width="13.42578125" customWidth="1"/>
+    <col min="25" max="25" width="12.7109375" style="14" customWidth="1"/>
+    <col min="26" max="26" width="10.5703125" customWidth="1"/>
+    <col min="27" max="27" width="8.140625" customWidth="1"/>
+    <col min="28" max="29" width="18.140625" customWidth="1"/>
+    <col min="30" max="30" width="16.85546875" customWidth="1"/>
+    <col min="31" max="32" width="29.140625" customWidth="1"/>
+    <col min="33" max="33" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A1" s="37" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D1" t="s">
         <v>168</v>
       </c>
       <c r="E1" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="F1" t="s">
         <v>169</v>
       </c>
       <c r="G1" t="s">
+        <v>473</v>
+      </c>
+      <c r="H1" t="s">
+        <v>506</v>
+      </c>
+      <c r="I1" t="s">
+        <v>513</v>
+      </c>
+      <c r="J1" t="s">
+        <v>436</v>
+      </c>
+      <c r="K1" t="s">
+        <v>427</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>419</v>
+      </c>
+      <c r="M1" t="s">
+        <v>157</v>
+      </c>
+      <c r="N1" t="s">
+        <v>456</v>
+      </c>
+      <c r="O1" t="s">
+        <v>457</v>
+      </c>
+      <c r="P1" t="s">
+        <v>346</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>347</v>
+      </c>
+      <c r="R1" t="s">
+        <v>65</v>
+      </c>
+      <c r="S1" t="s">
+        <v>68</v>
+      </c>
+      <c r="T1" t="s">
+        <v>282</v>
+      </c>
+      <c r="U1" t="s">
+        <v>69</v>
+      </c>
+      <c r="V1" t="s">
+        <v>283</v>
+      </c>
+      <c r="W1" t="s">
+        <v>348</v>
+      </c>
+      <c r="X1" t="s">
+        <v>349</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>350</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>22</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>413</v>
+      </c>
+      <c r="AD1" s="5" t="s">
+        <v>415</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>416</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>422</v>
+      </c>
+      <c r="AG1" t="s">
         <v>474</v>
       </c>
-      <c r="H1" t="s">
-        <v>507</v>
-      </c>
-      <c r="I1" t="s">
-        <v>437</v>
-      </c>
-      <c r="J1" t="s">
-        <v>428</v>
-      </c>
-      <c r="K1" s="5" t="s">
-        <v>420</v>
-      </c>
-      <c r="L1" t="s">
-        <v>157</v>
-      </c>
-      <c r="M1" t="s">
-        <v>457</v>
-      </c>
-      <c r="N1" t="s">
-        <v>458</v>
-      </c>
-      <c r="O1" t="s">
-        <v>347</v>
-      </c>
-      <c r="P1" t="s">
-        <v>348</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>65</v>
-      </c>
-      <c r="R1" t="s">
-        <v>68</v>
-      </c>
-      <c r="S1" t="s">
-        <v>283</v>
-      </c>
-      <c r="T1" t="s">
-        <v>69</v>
-      </c>
-      <c r="U1" t="s">
-        <v>284</v>
-      </c>
-      <c r="V1" t="s">
-        <v>349</v>
-      </c>
-      <c r="W1" t="s">
-        <v>350</v>
-      </c>
-      <c r="X1" t="s">
-        <v>19</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>351</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>22</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>414</v>
-      </c>
-      <c r="AC1" s="5" t="s">
-        <v>416</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>417</v>
-      </c>
-      <c r="AE1" t="s">
-        <v>423</v>
-      </c>
-      <c r="AF1" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="2" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>1</v>
       </c>
@@ -3855,97 +4104,100 @@
         <v>56</v>
       </c>
       <c r="C2" s="24" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D2" s="9" t="s">
         <v>58</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="G2" s="9" t="s">
         <v>11</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="I2" s="9" t="s">
+        <v>524</v>
+      </c>
+      <c r="J2" s="9" t="s">
+        <v>411</v>
+      </c>
+      <c r="K2" s="9" t="s">
+        <v>417</v>
+      </c>
+      <c r="L2" s="9" t="s">
+        <v>418</v>
+      </c>
+      <c r="M2" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="N2" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="O2" s="9" t="s">
+        <v>459</v>
+      </c>
+      <c r="P2" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q2" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="R2" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="S2" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="T2" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="U2" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="V2" s="9" t="s">
+        <v>284</v>
+      </c>
+      <c r="W2" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="X2" s="24" t="s">
+        <v>236</v>
+      </c>
+      <c r="Y2" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z2" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA2" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB2" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="AC2" s="9" t="s">
         <v>412</v>
       </c>
-      <c r="J2" s="9" t="s">
-        <v>418</v>
-      </c>
-      <c r="K2" s="9" t="s">
-        <v>419</v>
-      </c>
-      <c r="L2" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="M2" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="N2" s="9" t="s">
-        <v>460</v>
-      </c>
-      <c r="O2" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="P2" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q2" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="R2" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="S2" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="T2" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="U2" s="9" t="s">
-        <v>285</v>
-      </c>
-      <c r="V2" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="W2" s="24" t="s">
-        <v>237</v>
-      </c>
-      <c r="X2" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="Y2" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z2" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="AA2" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="AB2" s="9" t="s">
-        <v>413</v>
-      </c>
-      <c r="AC2" s="9" t="s">
-        <v>415</v>
-      </c>
       <c r="AD2" s="9" t="s">
+        <v>414</v>
+      </c>
+      <c r="AE2" s="9" t="s">
+        <v>420</v>
+      </c>
+      <c r="AF2" s="9" t="s">
         <v>421</v>
       </c>
-      <c r="AE2" s="9" t="s">
-        <v>422</v>
-      </c>
-      <c r="AF2" s="9" t="s">
+      <c r="AG2" s="9" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>27</v>
       </c>
@@ -3959,20 +4211,20 @@
         <v>148</v>
       </c>
       <c r="E3" s="14" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="F3" s="14"/>
       <c r="G3" t="s">
         <v>137</v>
       </c>
-      <c r="O3">
-        <v>10000</v>
-      </c>
       <c r="P3">
         <v>10000</v>
       </c>
-    </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="Q3">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>27</v>
       </c>
@@ -3986,24 +4238,24 @@
         <v>148</v>
       </c>
       <c r="E4" s="14" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="F4" s="14"/>
       <c r="G4" t="s">
         <v>137</v>
       </c>
-      <c r="M4">
+      <c r="N4">
         <f>100*8760</f>
         <v>876000</v>
       </c>
-      <c r="O4">
-        <v>10000</v>
-      </c>
       <c r="P4">
         <v>10000</v>
       </c>
-    </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="Q4">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>27</v>
       </c>
@@ -4016,14 +4268,14 @@
       <c r="G5" t="s">
         <v>137</v>
       </c>
-      <c r="O5">
-        <v>10000</v>
-      </c>
       <c r="P5">
         <v>10000</v>
       </c>
-    </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="Q5">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>27</v>
       </c>
@@ -4036,19 +4288,19 @@
       <c r="G6" t="s">
         <v>137</v>
       </c>
-      <c r="O6">
-        <v>10000</v>
-      </c>
       <c r="P6">
         <v>10000</v>
       </c>
-    </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="Q6">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C7" s="14" t="s">
         <v>148</v>
@@ -4062,40 +4314,40 @@
       <c r="G7" t="s">
         <v>137</v>
       </c>
-      <c r="I7" t="s">
-        <v>427</v>
-      </c>
       <c r="J7" t="s">
+        <v>426</v>
+      </c>
+      <c r="K7" t="s">
+        <v>423</v>
+      </c>
+      <c r="L7" t="s">
         <v>424</v>
-      </c>
-      <c r="K7" t="s">
-        <v>425</v>
-      </c>
-      <c r="O7">
-        <v>12000</v>
       </c>
       <c r="P7">
         <v>12000</v>
       </c>
       <c r="Q7">
+        <v>12000</v>
+      </c>
+      <c r="R7">
         <v>20</v>
       </c>
-      <c r="AA7">
+      <c r="AB7">
         <v>0.01</v>
       </c>
-      <c r="AB7">
+      <c r="AC7">
         <v>0.1</v>
       </c>
-      <c r="AD7">
+      <c r="AE7">
         <v>0.5</v>
       </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C8" s="14" t="s">
         <v>148</v>
@@ -4109,48 +4361,48 @@
       <c r="G8" t="s">
         <v>137</v>
       </c>
-      <c r="I8" t="s">
-        <v>451</v>
-      </c>
       <c r="J8" t="s">
-        <v>424</v>
-      </c>
-      <c r="O8">
-        <v>12000</v>
+        <v>450</v>
+      </c>
+      <c r="K8" t="s">
+        <v>423</v>
       </c>
       <c r="P8">
         <v>12000</v>
       </c>
       <c r="Q8">
+        <v>12000</v>
+      </c>
+      <c r="R8">
         <v>10000000</v>
       </c>
-      <c r="AB8">
+      <c r="AC8">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="G9" t="s">
-        <v>438</v>
-      </c>
-      <c r="R9">
+        <v>437</v>
+      </c>
+      <c r="S9">
         <v>800</v>
       </c>
-      <c r="V9" s="14">
+      <c r="W9" s="14">
         <v>200</v>
       </c>
-      <c r="X9" s="14">
+      <c r="Y9" s="14">
         <v>0.05</v>
       </c>
-      <c r="Z9">
+      <c r="AA9">
         <v>10</v>
       </c>
-      <c r="AF9">
+      <c r="AG9">
         <v>1</v>
       </c>
     </row>
@@ -4163,7 +4415,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D51F2ED7-E82A-4D3D-A4CE-E6A52C2211BA}">
   <dimension ref="A1:O5"/>
   <sheetViews>
@@ -4193,7 +4445,7 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="37" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -4201,7 +4453,7 @@
         <v>64</v>
       </c>
       <c r="E1" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="F1" t="s">
         <v>66</v>
@@ -4210,19 +4462,19 @@
         <v>67</v>
       </c>
       <c r="H1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="I1" t="s">
+        <v>351</v>
+      </c>
+      <c r="J1" t="s">
         <v>352</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
+        <v>348</v>
+      </c>
+      <c r="L1" t="s">
         <v>353</v>
-      </c>
-      <c r="K1" t="s">
-        <v>349</v>
-      </c>
-      <c r="L1" t="s">
-        <v>354</v>
       </c>
       <c r="M1" t="s">
         <v>19</v>
@@ -4231,7 +4483,7 @@
         <v>22</v>
       </c>
       <c r="O1" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4248,7 +4500,7 @@
         <v>57</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="F2" s="9" t="s">
         <v>8</v>
@@ -4263,13 +4515,13 @@
         <v>13</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="K2" s="9" t="s">
         <v>7</v>
       </c>
       <c r="L2" s="24" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="M2" s="9" t="s">
         <v>6</v>
@@ -4343,7 +4595,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D56195B5-58E5-4A49-9514-C11CC17CB482}">
   <dimension ref="A1:K27"/>
   <sheetViews>
@@ -4364,7 +4616,7 @@
   <sheetData>
     <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="37" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B1" s="8" t="s">
         <v>1</v>
@@ -4677,7 +4929,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E99DA432-9F88-4927-B437-CA09DA61AB93}">
   <dimension ref="A1:D4"/>
   <sheetViews>
@@ -4697,14 +4949,14 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="37" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B1"/>
       <c r="C1" t="s">
         <v>71</v>
       </c>
       <c r="D1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -4755,7 +5007,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E20CFBA-1F92-463C-919B-31F910121997}">
   <dimension ref="A1:D5"/>
   <sheetViews>
@@ -4775,12 +5027,12 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="37" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B1"/>
       <c r="C1"/>
       <c r="D1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -4847,7 +5099,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6EFF0A7-3963-4998-9482-2033971B0C97}">
   <dimension ref="A1:K3"/>
   <sheetViews>
@@ -4901,7 +5153,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D44D2B2-1DE7-400D-8C40-2CD59BEE6EC3}">
   <dimension ref="A1:X6"/>
   <sheetViews>
@@ -4940,13 +5192,13 @@
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1" s="37" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B1" s="37"/>
       <c r="C1" s="37"/>
       <c r="D1" s="3"/>
       <c r="E1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="F1" t="s">
         <v>166</v>
@@ -4955,13 +5207,13 @@
         <v>167</v>
       </c>
       <c r="H1" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="I1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="J1" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="K1" t="s">
         <v>158</v>
@@ -4973,19 +5225,19 @@
         <v>21</v>
       </c>
       <c r="N1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="O1" t="s">
         <v>24</v>
       </c>
       <c r="P1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="Q1" t="s">
+        <v>356</v>
+      </c>
+      <c r="R1" t="s">
         <v>357</v>
-      </c>
-      <c r="R1" t="s">
-        <v>358</v>
       </c>
       <c r="S1" t="s">
         <v>19</v>
@@ -4994,16 +5246,16 @@
         <v>22</v>
       </c>
       <c r="U1" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="V1" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="W1" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="X1" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.25">
@@ -5014,13 +5266,13 @@
         <v>25</v>
       </c>
       <c r="C2" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="D2" s="10" t="s">
         <v>264</v>
       </c>
-      <c r="D2" s="10" t="s">
-        <v>265</v>
-      </c>
       <c r="E2" s="24" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="F2" s="9" t="s">
         <v>17</v>
@@ -5032,10 +5284,10 @@
         <v>11</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="K2" s="9" t="s">
         <v>15</v>
@@ -5053,13 +5305,13 @@
         <v>14</v>
       </c>
       <c r="P2" s="9" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="Q2" s="9" t="s">
         <v>7</v>
       </c>
       <c r="R2" s="9" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="S2" s="9" t="s">
         <v>6</v>
@@ -5071,7 +5323,7 @@
         <v>5</v>
       </c>
       <c r="V2" s="9" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="W2" s="9" t="s">
         <v>3</v>
@@ -5114,16 +5366,16 @@
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>138</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E4" t="s">
         <v>148</v>
@@ -5146,7 +5398,7 @@
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>30</v>
@@ -5158,7 +5410,7 @@
         <v>139</v>
       </c>
       <c r="H5" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="M5">
         <v>100</v>
@@ -5178,19 +5430,19 @@
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>138</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H6" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="M6">
         <v>100</v>
@@ -5217,7 +5469,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9C5CDA4-FFE3-4938-9213-CC2F8772241C}">
   <dimension ref="A1:M5"/>
   <sheetViews>
@@ -5247,7 +5499,7 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="37" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -5255,19 +5507,19 @@
         <v>20</v>
       </c>
       <c r="E1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="F1" t="s">
         <v>23</v>
       </c>
       <c r="G1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="H1" t="s">
+        <v>356</v>
+      </c>
+      <c r="I1" t="s">
         <v>357</v>
-      </c>
-      <c r="I1" t="s">
-        <v>358</v>
       </c>
       <c r="J1" t="s">
         <v>19</v>
@@ -5276,10 +5528,10 @@
         <v>22</v>
       </c>
       <c r="L1" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="M1" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
@@ -5302,13 +5554,13 @@
         <v>13</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="H2" s="9" t="s">
         <v>7</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="J2" s="9" t="s">
         <v>6</v>
@@ -5320,7 +5572,7 @@
         <v>5</v>
       </c>
       <c r="M2" s="9" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
@@ -5373,7 +5625,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F877950-BDFF-4B0B-89C1-36AC76A9D30A}">
   <dimension ref="A1:K27"/>
   <sheetViews>
@@ -5394,7 +5646,7 @@
   <sheetData>
     <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="37" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B1" s="8" t="s">
         <v>1</v>
@@ -5626,15 +5878,573 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4446509C-CB62-4FDB-A8D2-BE0D15E8AAF2}">
+  <dimension ref="A1:D40"/>
+  <sheetViews>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B41" sqref="B41"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.140625" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>173</v>
+      </c>
+      <c r="B3" t="s">
+        <v>175</v>
+      </c>
+      <c r="C3" t="s">
+        <v>176</v>
+      </c>
+      <c r="D3" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="B4" s="25">
+        <v>44594</v>
+      </c>
+      <c r="C4" t="s">
+        <v>177</v>
+      </c>
+      <c r="D4" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="B5" s="25">
+        <v>44595</v>
+      </c>
+      <c r="C5" t="s">
+        <v>177</v>
+      </c>
+      <c r="D5" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="B6" s="25">
+        <v>44600</v>
+      </c>
+      <c r="C6" t="s">
+        <v>177</v>
+      </c>
+      <c r="D6" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="B7" s="25">
+        <v>44602</v>
+      </c>
+      <c r="C7" t="s">
+        <v>177</v>
+      </c>
+      <c r="D7" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="B8" s="25">
+        <v>44602</v>
+      </c>
+      <c r="C8" t="s">
+        <v>177</v>
+      </c>
+      <c r="D8" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="B9" s="25">
+        <v>44602</v>
+      </c>
+      <c r="C9" t="s">
+        <v>177</v>
+      </c>
+      <c r="D9" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="B10" s="25">
+        <v>44602</v>
+      </c>
+      <c r="C10" t="s">
+        <v>177</v>
+      </c>
+      <c r="D10" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="B11" s="25">
+        <v>44603</v>
+      </c>
+      <c r="C11" t="s">
+        <v>177</v>
+      </c>
+      <c r="D11" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="B12" s="25">
+        <v>44605</v>
+      </c>
+      <c r="C12" t="s">
+        <v>177</v>
+      </c>
+      <c r="D12" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="B13" s="25">
+        <v>44605</v>
+      </c>
+      <c r="C13" t="s">
+        <v>177</v>
+      </c>
+      <c r="D13" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="B14" s="25">
+        <v>44605</v>
+      </c>
+      <c r="C14" t="s">
+        <v>177</v>
+      </c>
+      <c r="D14" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="B15" s="25">
+        <v>44635</v>
+      </c>
+      <c r="C15" t="s">
+        <v>177</v>
+      </c>
+      <c r="D15" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="B16" s="25">
+        <v>44643</v>
+      </c>
+      <c r="C16" t="s">
+        <v>177</v>
+      </c>
+      <c r="D16" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="B17" s="25">
+        <v>44643</v>
+      </c>
+      <c r="C17" t="s">
+        <v>177</v>
+      </c>
+      <c r="D17" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
+        <v>300</v>
+      </c>
+      <c r="B18" s="25">
+        <v>44643</v>
+      </c>
+      <c r="C18" t="s">
+        <v>177</v>
+      </c>
+      <c r="D18" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
+        <v>317</v>
+      </c>
+      <c r="B19" s="25">
+        <v>44656</v>
+      </c>
+      <c r="C19" t="s">
+        <v>177</v>
+      </c>
+      <c r="D19" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="s">
+        <v>319</v>
+      </c>
+      <c r="B20" s="25">
+        <v>44657</v>
+      </c>
+      <c r="C20" t="s">
+        <v>177</v>
+      </c>
+      <c r="D20" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="5" t="s">
+        <v>330</v>
+      </c>
+      <c r="B21" s="25">
+        <v>44657</v>
+      </c>
+      <c r="C21" t="s">
+        <v>177</v>
+      </c>
+      <c r="D21" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="5" t="s">
+        <v>338</v>
+      </c>
+      <c r="B22" s="25">
+        <v>44680</v>
+      </c>
+      <c r="C22" t="s">
+        <v>177</v>
+      </c>
+      <c r="D22" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="5" t="s">
+        <v>339</v>
+      </c>
+      <c r="B23" s="25">
+        <v>44680</v>
+      </c>
+      <c r="C23" t="s">
+        <v>177</v>
+      </c>
+      <c r="D23" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="5" t="s">
+        <v>344</v>
+      </c>
+      <c r="B24" s="25">
+        <v>44690</v>
+      </c>
+      <c r="C24" t="s">
+        <v>177</v>
+      </c>
+      <c r="D24" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="5" t="s">
+        <v>364</v>
+      </c>
+      <c r="B25" s="25">
+        <v>44695</v>
+      </c>
+      <c r="C25" t="s">
+        <v>177</v>
+      </c>
+      <c r="D25" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="5" t="s">
+        <v>372</v>
+      </c>
+      <c r="B26" s="25">
+        <v>44701</v>
+      </c>
+      <c r="C26" t="s">
+        <v>177</v>
+      </c>
+      <c r="D26" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="5" t="s">
+        <v>374</v>
+      </c>
+      <c r="B27" s="25">
+        <v>44701</v>
+      </c>
+      <c r="C27" t="s">
+        <v>177</v>
+      </c>
+      <c r="D27" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="5" t="s">
+        <v>385</v>
+      </c>
+      <c r="B28" s="25">
+        <v>44712</v>
+      </c>
+      <c r="C28" t="s">
+        <v>177</v>
+      </c>
+      <c r="D28" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="5" t="s">
+        <v>393</v>
+      </c>
+      <c r="B29" s="25">
+        <v>44727</v>
+      </c>
+      <c r="C29" t="s">
+        <v>177</v>
+      </c>
+      <c r="D29" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="5" t="s">
+        <v>395</v>
+      </c>
+      <c r="B30" s="25">
+        <v>44734</v>
+      </c>
+      <c r="C30" t="s">
+        <v>177</v>
+      </c>
+      <c r="D30" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="5" t="s">
+        <v>409</v>
+      </c>
+      <c r="B31" s="25">
+        <v>44741</v>
+      </c>
+      <c r="C31" t="s">
+        <v>177</v>
+      </c>
+      <c r="D31" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="5" t="s">
+        <v>430</v>
+      </c>
+      <c r="B32" s="25">
+        <v>44840</v>
+      </c>
+      <c r="C32" t="s">
+        <v>177</v>
+      </c>
+      <c r="D32" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="5" t="s">
+        <v>434</v>
+      </c>
+      <c r="B33" s="25">
+        <v>44850</v>
+      </c>
+      <c r="C33" t="s">
+        <v>177</v>
+      </c>
+      <c r="D33" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="5" t="s">
+        <v>440</v>
+      </c>
+      <c r="B34" s="25">
+        <v>44875</v>
+      </c>
+      <c r="C34" t="s">
+        <v>177</v>
+      </c>
+      <c r="D34" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="5" t="s">
+        <v>442</v>
+      </c>
+      <c r="B35" s="25">
+        <v>44876</v>
+      </c>
+      <c r="C35" t="s">
+        <v>177</v>
+      </c>
+      <c r="D35" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="5" t="s">
+        <v>451</v>
+      </c>
+      <c r="B36" s="25">
+        <v>44889</v>
+      </c>
+      <c r="C36" t="s">
+        <v>177</v>
+      </c>
+      <c r="D36" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="5" t="s">
+        <v>460</v>
+      </c>
+      <c r="B37" s="25">
+        <v>44893</v>
+      </c>
+      <c r="C37" t="s">
+        <v>177</v>
+      </c>
+      <c r="D37" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="5" t="s">
+        <v>462</v>
+      </c>
+      <c r="B38" s="25">
+        <v>44903</v>
+      </c>
+      <c r="C38" t="s">
+        <v>177</v>
+      </c>
+      <c r="D38" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="5" t="s">
+        <v>503</v>
+      </c>
+      <c r="B39" s="25">
+        <v>45082</v>
+      </c>
+      <c r="C39" t="s">
+        <v>177</v>
+      </c>
+      <c r="D39" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>22</v>
+      </c>
+      <c r="B40" s="25">
+        <v>45156</v>
+      </c>
+      <c r="C40" t="s">
+        <v>522</v>
+      </c>
+      <c r="D40" t="s">
+        <v>523</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6619729E-584E-41E3-B72E-7B2979330C88}">
   <dimension ref="A1:Y7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="H1" sqref="H1"/>
+      <selection pane="bottomRight" activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5667,26 +6477,26 @@
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" s="37" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E1" t="s">
+        <v>475</v>
+      </c>
+      <c r="F1" t="s">
         <v>476</v>
       </c>
-      <c r="F1" t="s">
-        <v>477</v>
-      </c>
       <c r="G1" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="H1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="I1" t="s">
         <v>18</v>
@@ -5695,19 +6505,19 @@
         <v>21</v>
       </c>
       <c r="K1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="L1" t="s">
         <v>24</v>
       </c>
       <c r="M1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="N1" t="s">
+        <v>359</v>
+      </c>
+      <c r="O1" t="s">
         <v>360</v>
-      </c>
-      <c r="O1" t="s">
-        <v>361</v>
       </c>
       <c r="P1" t="s">
         <v>19</v>
@@ -5716,7 +6526,7 @@
         <v>22</v>
       </c>
       <c r="R1" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="S1" t="s">
         <v>158</v>
@@ -5725,10 +6535,10 @@
         <v>106</v>
       </c>
       <c r="U1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="V1" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="W1" t="s">
         <v>182</v>
@@ -5737,7 +6547,7 @@
         <v>183</v>
       </c>
       <c r="Y1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="2" spans="1:25" s="23" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -5748,7 +6558,7 @@
         <v>117</v>
       </c>
       <c r="C2" s="24" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D2" s="24" t="s">
         <v>105</v>
@@ -5763,7 +6573,7 @@
         <v>11</v>
       </c>
       <c r="H2" s="49" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="I2" s="24" t="s">
         <v>4</v>
@@ -5778,13 +6588,13 @@
         <v>14</v>
       </c>
       <c r="M2" s="24" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="N2" s="24" t="s">
         <v>7</v>
       </c>
       <c r="O2" s="24" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="P2" s="24" t="s">
         <v>6</v>
@@ -5828,7 +6638,7 @@
         <v>148</v>
       </c>
       <c r="D3" s="47" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E3" s="47" t="s">
         <v>160</v>
@@ -5869,7 +6679,7 @@
         <v>148</v>
       </c>
       <c r="D4" s="47" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E4" s="47" t="s">
         <v>160</v>
@@ -5897,10 +6707,10 @@
         <v>148</v>
       </c>
       <c r="D5" s="47" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E5" s="47" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="F5" s="47"/>
       <c r="G5" s="47" t="s">
@@ -5919,28 +6729,28 @@
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>141</v>
       </c>
       <c r="G6" s="47" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="H6" s="47"/>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>381</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>382</v>
       </c>
       <c r="C7" s="47" t="s">
         <v>148</v>
       </c>
       <c r="D7" s="47" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E7" s="47" t="s">
         <v>160</v>
@@ -5964,551 +6774,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4446509C-CB62-4FDB-A8D2-BE0D15E8AAF2}">
-  <dimension ref="A1:D39"/>
-  <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="D39" sqref="D39"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="18.140625" customWidth="1"/>
-    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>173</v>
-      </c>
-      <c r="B3" t="s">
-        <v>175</v>
-      </c>
-      <c r="C3" t="s">
-        <v>176</v>
-      </c>
-      <c r="D3" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
-        <v>174</v>
-      </c>
-      <c r="B4" s="25">
-        <v>44594</v>
-      </c>
-      <c r="C4" t="s">
-        <v>177</v>
-      </c>
-      <c r="D4" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
-        <v>180</v>
-      </c>
-      <c r="B5" s="25">
-        <v>44595</v>
-      </c>
-      <c r="C5" t="s">
-        <v>177</v>
-      </c>
-      <c r="D5" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
-        <v>186</v>
-      </c>
-      <c r="B6" s="25">
-        <v>44600</v>
-      </c>
-      <c r="C6" t="s">
-        <v>177</v>
-      </c>
-      <c r="D6" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
-        <v>191</v>
-      </c>
-      <c r="B7" s="25">
-        <v>44602</v>
-      </c>
-      <c r="C7" t="s">
-        <v>177</v>
-      </c>
-      <c r="D7" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
-        <v>230</v>
-      </c>
-      <c r="B8" s="25">
-        <v>44602</v>
-      </c>
-      <c r="C8" t="s">
-        <v>177</v>
-      </c>
-      <c r="D8" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
-        <v>238</v>
-      </c>
-      <c r="B9" s="25">
-        <v>44602</v>
-      </c>
-      <c r="C9" t="s">
-        <v>177</v>
-      </c>
-      <c r="D9" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
-        <v>247</v>
-      </c>
-      <c r="B10" s="25">
-        <v>44602</v>
-      </c>
-      <c r="C10" t="s">
-        <v>177</v>
-      </c>
-      <c r="D10" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
-        <v>250</v>
-      </c>
-      <c r="B11" s="25">
-        <v>44603</v>
-      </c>
-      <c r="C11" t="s">
-        <v>177</v>
-      </c>
-      <c r="D11" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
-        <v>254</v>
-      </c>
-      <c r="B12" s="25">
-        <v>44605</v>
-      </c>
-      <c r="C12" t="s">
-        <v>177</v>
-      </c>
-      <c r="D12" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
-        <v>260</v>
-      </c>
-      <c r="B13" s="25">
-        <v>44605</v>
-      </c>
-      <c r="C13" t="s">
-        <v>177</v>
-      </c>
-      <c r="D13" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
-        <v>262</v>
-      </c>
-      <c r="B14" s="25">
-        <v>44605</v>
-      </c>
-      <c r="C14" t="s">
-        <v>177</v>
-      </c>
-      <c r="D14" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="5" t="s">
-        <v>274</v>
-      </c>
-      <c r="B15" s="25">
-        <v>44635</v>
-      </c>
-      <c r="C15" t="s">
-        <v>177</v>
-      </c>
-      <c r="D15" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="5" t="s">
-        <v>295</v>
-      </c>
-      <c r="B16" s="25">
-        <v>44643</v>
-      </c>
-      <c r="C16" t="s">
-        <v>177</v>
-      </c>
-      <c r="D16" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="5" t="s">
-        <v>298</v>
-      </c>
-      <c r="B17" s="25">
-        <v>44643</v>
-      </c>
-      <c r="C17" t="s">
-        <v>177</v>
-      </c>
-      <c r="D17" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="5" t="s">
-        <v>301</v>
-      </c>
-      <c r="B18" s="25">
-        <v>44643</v>
-      </c>
-      <c r="C18" t="s">
-        <v>177</v>
-      </c>
-      <c r="D18" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="5" t="s">
-        <v>318</v>
-      </c>
-      <c r="B19" s="25">
-        <v>44656</v>
-      </c>
-      <c r="C19" t="s">
-        <v>177</v>
-      </c>
-      <c r="D19" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="5" t="s">
-        <v>320</v>
-      </c>
-      <c r="B20" s="25">
-        <v>44657</v>
-      </c>
-      <c r="C20" t="s">
-        <v>177</v>
-      </c>
-      <c r="D20" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="5" t="s">
-        <v>331</v>
-      </c>
-      <c r="B21" s="25">
-        <v>44657</v>
-      </c>
-      <c r="C21" t="s">
-        <v>177</v>
-      </c>
-      <c r="D21" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="5" t="s">
-        <v>339</v>
-      </c>
-      <c r="B22" s="25">
-        <v>44680</v>
-      </c>
-      <c r="C22" t="s">
-        <v>177</v>
-      </c>
-      <c r="D22" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="5" t="s">
-        <v>340</v>
-      </c>
-      <c r="B23" s="25">
-        <v>44680</v>
-      </c>
-      <c r="C23" t="s">
-        <v>177</v>
-      </c>
-      <c r="D23" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="5" t="s">
-        <v>345</v>
-      </c>
-      <c r="B24" s="25">
-        <v>44690</v>
-      </c>
-      <c r="C24" t="s">
-        <v>177</v>
-      </c>
-      <c r="D24" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="5" t="s">
-        <v>365</v>
-      </c>
-      <c r="B25" s="25">
-        <v>44695</v>
-      </c>
-      <c r="C25" t="s">
-        <v>177</v>
-      </c>
-      <c r="D25" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="5" t="s">
-        <v>373</v>
-      </c>
-      <c r="B26" s="25">
-        <v>44701</v>
-      </c>
-      <c r="C26" t="s">
-        <v>177</v>
-      </c>
-      <c r="D26" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="5" t="s">
-        <v>375</v>
-      </c>
-      <c r="B27" s="25">
-        <v>44701</v>
-      </c>
-      <c r="C27" t="s">
-        <v>177</v>
-      </c>
-      <c r="D27" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="5" t="s">
-        <v>386</v>
-      </c>
-      <c r="B28" s="25">
-        <v>44712</v>
-      </c>
-      <c r="C28" t="s">
-        <v>177</v>
-      </c>
-      <c r="D28" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="5" t="s">
-        <v>394</v>
-      </c>
-      <c r="B29" s="25">
-        <v>44727</v>
-      </c>
-      <c r="C29" t="s">
-        <v>177</v>
-      </c>
-      <c r="D29" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="5" t="s">
-        <v>396</v>
-      </c>
-      <c r="B30" s="25">
-        <v>44734</v>
-      </c>
-      <c r="C30" t="s">
-        <v>177</v>
-      </c>
-      <c r="D30" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="5" t="s">
-        <v>410</v>
-      </c>
-      <c r="B31" s="25">
-        <v>44741</v>
-      </c>
-      <c r="C31" t="s">
-        <v>177</v>
-      </c>
-      <c r="D31" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="5" t="s">
-        <v>431</v>
-      </c>
-      <c r="B32" s="25">
-        <v>44840</v>
-      </c>
-      <c r="C32" t="s">
-        <v>177</v>
-      </c>
-      <c r="D32" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="5" t="s">
-        <v>435</v>
-      </c>
-      <c r="B33" s="25">
-        <v>44850</v>
-      </c>
-      <c r="C33" t="s">
-        <v>177</v>
-      </c>
-      <c r="D33" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="5" t="s">
-        <v>441</v>
-      </c>
-      <c r="B34" s="25">
-        <v>44875</v>
-      </c>
-      <c r="C34" t="s">
-        <v>177</v>
-      </c>
-      <c r="D34" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="5" t="s">
-        <v>443</v>
-      </c>
-      <c r="B35" s="25">
-        <v>44876</v>
-      </c>
-      <c r="C35" t="s">
-        <v>177</v>
-      </c>
-      <c r="D35" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="5" t="s">
-        <v>452</v>
-      </c>
-      <c r="B36" s="25">
-        <v>44889</v>
-      </c>
-      <c r="C36" t="s">
-        <v>177</v>
-      </c>
-      <c r="D36" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="5" t="s">
-        <v>461</v>
-      </c>
-      <c r="B37" s="25">
-        <v>44893</v>
-      </c>
-      <c r="C37" t="s">
-        <v>177</v>
-      </c>
-      <c r="D37" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="5" t="s">
-        <v>463</v>
-      </c>
-      <c r="B38" s="25">
-        <v>44903</v>
-      </c>
-      <c r="C38" t="s">
-        <v>177</v>
-      </c>
-      <c r="D38" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="5" t="s">
-        <v>504</v>
-      </c>
-      <c r="B39" s="25">
-        <v>45082</v>
-      </c>
-      <c r="C39" t="s">
-        <v>177</v>
-      </c>
-      <c r="D39" t="s">
-        <v>505</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F519FEB-FCA9-4C11-88F7-D4EA23EF6482}">
   <dimension ref="A1:M5"/>
   <sheetViews>
@@ -6538,7 +6804,7 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="37" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -6546,19 +6812,19 @@
         <v>20</v>
       </c>
       <c r="E1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="F1" t="s">
         <v>23</v>
       </c>
       <c r="G1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="H1" t="s">
+        <v>359</v>
+      </c>
+      <c r="I1" t="s">
         <v>360</v>
-      </c>
-      <c r="I1" t="s">
-        <v>361</v>
       </c>
       <c r="J1" t="s">
         <v>19</v>
@@ -6567,7 +6833,7 @@
         <v>22</v>
       </c>
       <c r="L1" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="M1" t="s">
         <v>158</v>
@@ -6593,13 +6859,13 @@
         <v>13</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="H2" s="9" t="s">
         <v>7</v>
       </c>
       <c r="I2" s="24" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="J2" s="9" t="s">
         <v>6</v>
@@ -6664,7 +6930,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66A4A219-02B1-4261-8559-589A0949A31B}">
   <dimension ref="A1:K27"/>
   <sheetViews>
@@ -6685,7 +6951,7 @@
   <sheetData>
     <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="37" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B1" s="8" t="s">
         <v>1</v>
@@ -6917,7 +7183,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C13F0C3-2BD2-4859-9713-8823A445C2E8}">
   <dimension ref="A1:Q10"/>
   <sheetViews>
@@ -6948,34 +7214,34 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="37" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
       <c r="E1" t="s">
+        <v>478</v>
+      </c>
+      <c r="F1" t="s">
+        <v>453</v>
+      </c>
+      <c r="G1" t="s">
+        <v>239</v>
+      </c>
+      <c r="H1" t="s">
+        <v>238</v>
+      </c>
+      <c r="I1" t="s">
         <v>479</v>
       </c>
-      <c r="F1" t="s">
-        <v>454</v>
-      </c>
-      <c r="G1" t="s">
-        <v>240</v>
-      </c>
-      <c r="H1" t="s">
-        <v>239</v>
-      </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
+        <v>361</v>
+      </c>
+      <c r="K1" t="s">
         <v>480</v>
       </c>
-      <c r="J1" t="s">
-        <v>362</v>
-      </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>481</v>
-      </c>
-      <c r="L1" t="s">
-        <v>482</v>
       </c>
       <c r="O1" s="3"/>
       <c r="P1" s="3"/>
@@ -6992,16 +7258,16 @@
         <v>56</v>
       </c>
       <c r="D2" s="19" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E2" s="9" t="s">
         <v>133</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H2" s="9" t="s">
         <v>108</v>
@@ -7033,7 +7299,7 @@
         <v>140</v>
       </c>
       <c r="D3" s="20" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -7056,7 +7322,7 @@
         <v>138</v>
       </c>
       <c r="D4" s="20" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -7076,7 +7342,7 @@
         <v>149</v>
       </c>
       <c r="D5" s="20" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -7093,7 +7359,7 @@
         <v>139</v>
       </c>
       <c r="D6" s="20" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -7113,7 +7379,7 @@
         <v>138</v>
       </c>
       <c r="D7" s="20" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -7124,16 +7390,16 @@
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>381</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>382</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>149</v>
       </c>
       <c r="D8" s="20" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -7141,16 +7407,16 @@
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>381</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>382</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>138</v>
       </c>
       <c r="D9" s="20" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -7158,16 +7424,16 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>381</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>382</v>
-      </c>
       <c r="C10" s="4" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D10" s="20" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -7181,7 +7447,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A54CEF76-2D28-40D4-A5BB-1AAB8A75E52F}">
   <dimension ref="A1:K29"/>
   <sheetViews>
@@ -7202,7 +7468,7 @@
   <sheetData>
     <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="37" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B1" s="8" t="s">
         <v>1</v>
@@ -7217,7 +7483,7 @@
         <v>161</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="3" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -7243,10 +7509,10 @@
         <v>26</v>
       </c>
       <c r="B5" s="19" t="s">
+        <v>321</v>
+      </c>
+      <c r="C5" s="20" t="s">
         <v>322</v>
-      </c>
-      <c r="C5" s="20" t="s">
-        <v>323</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -7452,7 +7718,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDE19B28-F2BE-409F-B1A6-1F5F2146177E}">
   <dimension ref="A1:F26"/>
   <sheetViews>
@@ -7486,7 +7752,7 @@
         <v>27</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="2" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -7500,13 +7766,13 @@
         <v>136</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -7923,7 +8189,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F666A2D2-C97B-40BC-8DAB-2941397753E9}">
   <dimension ref="A1:J3"/>
   <sheetViews>
@@ -7945,12 +8211,12 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="37" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
       <c r="D1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -7978,10 +8244,10 @@
         <v>27</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>258</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>259</v>
       </c>
       <c r="D3" t="s">
         <v>163</v>
@@ -7995,7 +8261,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3E6DA50-D119-4E64-AFE0-DB17C1EE7F55}">
   <dimension ref="A1:J3"/>
   <sheetViews>
@@ -8017,12 +8283,12 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="37" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
       <c r="D1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -8053,7 +8319,7 @@
         <v>30</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D3" t="s">
         <v>163</v>
@@ -8067,7 +8333,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D1EE4BC-08B3-4CC5-9A8F-D2957036E873}">
   <dimension ref="A1:K4"/>
   <sheetViews>
@@ -8090,13 +8356,13 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="37" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
       <c r="E1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -8144,16 +8410,16 @@
         <v>27</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C4" s="18" t="s">
+        <v>387</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>388</v>
       </c>
-      <c r="D4" s="4" t="s">
-        <v>389</v>
-      </c>
       <c r="E4" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
   </sheetData>
@@ -8164,7 +8430,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17A58EF0-B113-4E3B-A099-AB516EC20AF0}">
   <dimension ref="A1:V7"/>
   <sheetViews>
@@ -8203,11 +8469,11 @@
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" s="37" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D1" t="s">
         <v>39</v>
@@ -8216,7 +8482,7 @@
         <v>35</v>
       </c>
       <c r="F1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="G1" t="s">
         <v>41</v>
@@ -8225,7 +8491,7 @@
         <v>45</v>
       </c>
       <c r="I1" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="J1" t="s">
         <v>43</v>
@@ -8234,19 +8500,19 @@
         <v>53</v>
       </c>
       <c r="L1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="M1" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="N1" t="s">
         <v>37</v>
       </c>
       <c r="O1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="P1" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="Q1" t="s">
         <v>47</v>
@@ -8255,16 +8521,16 @@
         <v>51</v>
       </c>
       <c r="S1" t="s">
+        <v>326</v>
+      </c>
+      <c r="T1" t="s">
         <v>327</v>
       </c>
-      <c r="T1" t="s">
-        <v>328</v>
-      </c>
       <c r="U1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="V1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.25">
@@ -8275,7 +8541,7 @@
         <v>55</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D2" s="9" t="s">
         <v>38</v>
@@ -8284,7 +8550,7 @@
         <v>34</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="G2" s="9" t="s">
         <v>40</v>
@@ -8302,16 +8568,16 @@
         <v>52</v>
       </c>
       <c r="L2" s="9" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="M2" s="9" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="N2" s="9" t="s">
         <v>36</v>
       </c>
       <c r="O2" s="9" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="P2" s="24" t="s">
         <v>11</v>
@@ -8323,16 +8589,16 @@
         <v>50</v>
       </c>
       <c r="S2" s="9" t="s">
+        <v>324</v>
+      </c>
+      <c r="T2" s="9" t="s">
         <v>325</v>
       </c>
-      <c r="T2" s="9" t="s">
-        <v>326</v>
-      </c>
       <c r="U2" s="9" t="s">
+        <v>341</v>
+      </c>
+      <c r="V2" s="9" t="s">
         <v>342</v>
-      </c>
-      <c r="V2" s="9" t="s">
-        <v>343</v>
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
@@ -8352,7 +8618,7 @@
         <v>27</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H4">
         <v>200</v>
@@ -8369,10 +8635,10 @@
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="G5" t="s">
         <v>148</v>
@@ -8383,10 +8649,10 @@
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="S6">
         <v>40</v>
@@ -8400,7 +8666,7 @@
         <v>27</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C7" t="s">
         <v>148</v>
@@ -8414,7 +8680,213 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB6AC2C8-7B82-4BFA-94A3-ECFAF63F0D5D}">
+  <dimension ref="A1:M11"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21.85546875" style="9" customWidth="1"/>
+    <col min="2" max="21" width="14.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" s="37" t="s">
+        <v>232</v>
+      </c>
+      <c r="B1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3"/>
+      <c r="B2" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>303</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>305</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>304</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>315</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>329</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>366</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>367</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>368</v>
+      </c>
+      <c r="L2" s="6" t="s">
+        <v>376</v>
+      </c>
+      <c r="M2" s="6" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="9" t="s">
+        <v>307</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="G3" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="H3" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="I3" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="J3" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="K3" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="L3" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="M3" s="14" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="9" t="s">
+        <v>306</v>
+      </c>
+      <c r="B4" s="14"/>
+      <c r="C4" s="14" t="s">
+        <v>303</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>279</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>305</v>
+      </c>
+      <c r="F4" t="s">
+        <v>304</v>
+      </c>
+      <c r="G4" t="s">
+        <v>279</v>
+      </c>
+      <c r="H4" t="s">
+        <v>329</v>
+      </c>
+      <c r="I4" t="s">
+        <v>366</v>
+      </c>
+      <c r="J4" t="s">
+        <v>366</v>
+      </c>
+      <c r="K4" t="s">
+        <v>366</v>
+      </c>
+      <c r="L4" t="s">
+        <v>305</v>
+      </c>
+      <c r="M4" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="9" t="s">
+        <v>308</v>
+      </c>
+      <c r="B5" s="14"/>
+      <c r="G5" t="s">
+        <v>304</v>
+      </c>
+      <c r="J5" t="s">
+        <v>367</v>
+      </c>
+      <c r="K5" t="s">
+        <v>368</v>
+      </c>
+      <c r="L5" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="9" t="s">
+        <v>309</v>
+      </c>
+      <c r="B6" s="14"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="9" t="s">
+        <v>310</v>
+      </c>
+      <c r="B7" s="14"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="9" t="s">
+        <v>311</v>
+      </c>
+      <c r="B8" s="14"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="9" t="s">
+        <v>312</v>
+      </c>
+      <c r="B9" s="14"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="9" t="s">
+        <v>313</v>
+      </c>
+      <c r="B10" s="14"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="9" t="s">
+        <v>314</v>
+      </c>
+      <c r="B11" s="14"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" location="navigate!A1" display="navigate" xr:uid="{FDD9E80E-123C-4AC4-B1F5-39B155DC9906}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA54FD9A-FB2F-4111-AC75-F20843B34F53}">
   <dimension ref="A1:N5"/>
   <sheetViews>
@@ -8443,7 +8915,7 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="37" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -8460,7 +8932,7 @@
         <v>37</v>
       </c>
       <c r="H1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="I1" t="s">
         <v>46</v>
@@ -8469,16 +8941,16 @@
         <v>49</v>
       </c>
       <c r="K1" t="s">
+        <v>326</v>
+      </c>
+      <c r="L1" t="s">
         <v>327</v>
       </c>
-      <c r="L1" t="s">
-        <v>328</v>
-      </c>
       <c r="M1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="N1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
@@ -8504,7 +8976,7 @@
         <v>36</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="I2" s="9" t="s">
         <v>9</v>
@@ -8513,16 +8985,16 @@
         <v>48</v>
       </c>
       <c r="K2" s="9" t="s">
+        <v>324</v>
+      </c>
+      <c r="L2" s="9" t="s">
         <v>325</v>
       </c>
-      <c r="L2" s="9" t="s">
-        <v>326</v>
-      </c>
       <c r="M2" s="9" t="s">
+        <v>341</v>
+      </c>
+      <c r="N2" s="9" t="s">
         <v>342</v>
-      </c>
-      <c r="N2" s="9" t="s">
-        <v>343</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
@@ -8575,213 +9047,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB6AC2C8-7B82-4BFA-94A3-ECFAF63F0D5D}">
-  <dimension ref="A1:M11"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B3" sqref="B3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="21.85546875" style="9" customWidth="1"/>
-    <col min="2" max="21" width="14.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="37" t="s">
-        <v>233</v>
-      </c>
-      <c r="B1" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3"/>
-      <c r="B2" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>304</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>280</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>306</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>305</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>316</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>330</v>
-      </c>
-      <c r="I2" s="6" t="s">
-        <v>367</v>
-      </c>
-      <c r="J2" s="6" t="s">
-        <v>368</v>
-      </c>
-      <c r="K2" s="6" t="s">
-        <v>369</v>
-      </c>
-      <c r="L2" s="6" t="s">
-        <v>377</v>
-      </c>
-      <c r="M2" s="6" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
-        <v>308</v>
-      </c>
-      <c r="B3" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="C3" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="D3" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="E3" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="F3" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="G3" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="H3" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="I3" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="J3" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="K3" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="L3" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="M3" s="14" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
-        <v>307</v>
-      </c>
-      <c r="B4" s="14"/>
-      <c r="C4" s="14" t="s">
-        <v>304</v>
-      </c>
-      <c r="D4" s="14" t="s">
-        <v>280</v>
-      </c>
-      <c r="E4" s="14" t="s">
-        <v>306</v>
-      </c>
-      <c r="F4" t="s">
-        <v>305</v>
-      </c>
-      <c r="G4" t="s">
-        <v>280</v>
-      </c>
-      <c r="H4" t="s">
-        <v>330</v>
-      </c>
-      <c r="I4" t="s">
-        <v>367</v>
-      </c>
-      <c r="J4" t="s">
-        <v>367</v>
-      </c>
-      <c r="K4" t="s">
-        <v>367</v>
-      </c>
-      <c r="L4" t="s">
-        <v>306</v>
-      </c>
-      <c r="M4" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
-        <v>309</v>
-      </c>
-      <c r="B5" s="14"/>
-      <c r="G5" t="s">
-        <v>305</v>
-      </c>
-      <c r="J5" t="s">
-        <v>368</v>
-      </c>
-      <c r="K5" t="s">
-        <v>369</v>
-      </c>
-      <c r="L5" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="s">
-        <v>310</v>
-      </c>
-      <c r="B6" s="14"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="9" t="s">
-        <v>311</v>
-      </c>
-      <c r="B7" s="14"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="9" t="s">
-        <v>312</v>
-      </c>
-      <c r="B8" s="14"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="9" t="s">
-        <v>313</v>
-      </c>
-      <c r="B9" s="14"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="9" t="s">
-        <v>314</v>
-      </c>
-      <c r="B10" s="14"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="9" t="s">
-        <v>315</v>
-      </c>
-      <c r="B11" s="14"/>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A1" location="navigate!A1" display="navigate" xr:uid="{FDD9E80E-123C-4AC4-B1F5-39B155DC9906}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B745B3BE-1539-44A7-9F68-00D8AEBADA46}">
   <dimension ref="A1:K1"/>
   <sheetViews>
@@ -8819,7 +9085,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15C65105-DA47-40FD-BED9-039766CD67C2}">
   <dimension ref="A1:L1"/>
   <sheetViews>
@@ -8861,7 +9127,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DF6F0B0-C8D9-4343-9EA4-859E87C9AF78}">
   <dimension ref="A1:K6"/>
   <sheetViews>
@@ -8912,7 +9178,7 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>138</v>
@@ -8920,7 +9186,7 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>138</v>
@@ -8928,7 +9194,7 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>139</v>
@@ -8939,7 +9205,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5455887B-7914-47A3-A368-88187BB1082B}">
   <dimension ref="A1:K1"/>
   <sheetViews>
@@ -8977,7 +9243,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8ED891B-8A85-405F-972C-9B1BFE92F9B9}">
   <dimension ref="A1:L3"/>
   <sheetViews>
@@ -9016,7 +9282,7 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>141</v>
@@ -9027,7 +9293,7 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>151</v>
@@ -9044,7 +9310,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB87FF22-BB83-4D5E-B38D-455D581CF757}">
   <dimension ref="A1:P3"/>
   <sheetViews>
@@ -9070,7 +9336,7 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="37" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -9080,7 +9346,7 @@
         <v>171</v>
       </c>
       <c r="G1" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="H1" t="s">
         <v>132</v>
@@ -9115,7 +9381,7 @@
         <v>56</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="G2" s="9" t="s">
         <v>121</v>
@@ -9138,13 +9404,13 @@
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D3" s="11" t="s">
         <v>30</v>
@@ -9170,7 +9436,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{866244AD-1571-447F-BAEE-EFE2B5B3F812}">
   <dimension ref="A1:O3"/>
   <sheetViews>
@@ -9196,22 +9462,22 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="37" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
       <c r="E1" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F1" t="s">
         <v>129</v>
       </c>
       <c r="G1" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="H1" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="J1" s="3"/>
       <c r="K1" s="3"/>
@@ -9254,19 +9520,19 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C3" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="D3" s="11" t="s">
         <v>269</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="E3" t="s">
         <v>270</v>
-      </c>
-      <c r="E3" t="s">
-        <v>271</v>
       </c>
       <c r="F3">
         <v>50</v>
@@ -9286,7 +9552,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E57CD72E-4345-442F-8DFC-A799FEED107D}">
   <dimension ref="A1:K29"/>
   <sheetViews>
@@ -9307,7 +9573,7 @@
   <sheetData>
     <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="37" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B1" s="8" t="s">
         <v>1</v>
@@ -9472,7 +9738,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E8C0D5E-7DB2-4BCF-8A8C-24C978AAECC4}">
   <dimension ref="A1:P7"/>
   <sheetViews>
@@ -9499,7 +9765,7 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="37" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -9509,7 +9775,7 @@
         <v>170</v>
       </c>
       <c r="G1" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="H1" t="s">
         <v>131</v>
@@ -9544,7 +9810,7 @@
         <v>56</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="G2" s="9" t="s">
         <v>121</v>
@@ -9567,13 +9833,13 @@
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D3" s="11" t="s">
         <v>141</v>
@@ -9593,13 +9859,13 @@
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D4" s="11" t="s">
         <v>142</v>
@@ -9619,13 +9885,13 @@
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D5" s="11" t="s">
         <v>141</v>
@@ -9645,13 +9911,13 @@
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D6" s="11" t="s">
         <v>151</v>
@@ -9671,13 +9937,13 @@
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D7" s="11" t="s">
         <v>141</v>
@@ -9703,7 +9969,256 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5F0779D-09F6-4BFC-A27B-5A43B3911876}">
+  <dimension ref="A1:I14"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="E11" sqref="E11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.140625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="21.28515625" customWidth="1"/>
+    <col min="5" max="5" width="18.140625" customWidth="1"/>
+    <col min="6" max="6" width="16.5703125" customWidth="1"/>
+    <col min="7" max="7" width="16.140625" customWidth="1"/>
+    <col min="8" max="8" width="18.7109375" customWidth="1"/>
+    <col min="9" max="14" width="11.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="37" t="s">
+        <v>232</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" t="s">
+        <v>153</v>
+      </c>
+      <c r="E1" t="s">
+        <v>502</v>
+      </c>
+      <c r="F1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>501</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>507</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>189</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>508</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D3" t="s">
+        <v>155</v>
+      </c>
+      <c r="E3" s="5">
+        <v>5</v>
+      </c>
+      <c r="F3" t="s">
+        <v>148</v>
+      </c>
+      <c r="G3" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="D4" t="s">
+        <v>155</v>
+      </c>
+      <c r="E4">
+        <v>5</v>
+      </c>
+      <c r="G4" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D5" t="s">
+        <v>155</v>
+      </c>
+      <c r="E5">
+        <v>5</v>
+      </c>
+      <c r="G5" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="D6" t="s">
+        <v>155</v>
+      </c>
+      <c r="E6">
+        <v>5</v>
+      </c>
+      <c r="G6" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D7" t="s">
+        <v>154</v>
+      </c>
+      <c r="E7">
+        <v>5</v>
+      </c>
+      <c r="F7" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="D8" t="s">
+        <v>155</v>
+      </c>
+      <c r="E8">
+        <v>5</v>
+      </c>
+      <c r="G8" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="D9" t="s">
+        <v>155</v>
+      </c>
+      <c r="E9">
+        <v>5</v>
+      </c>
+      <c r="G9" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="D10" t="s">
+        <v>154</v>
+      </c>
+      <c r="E10">
+        <v>5</v>
+      </c>
+      <c r="F10" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E14" s="16"/>
+      <c r="F14" s="16"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" location="navigate!A1" display="navigate" xr:uid="{C6E1C94C-815A-4152-B8CE-F4022E1F30E1}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6C017E3-B844-46CF-8B82-D76F5D9D7ACD}">
   <dimension ref="A1:L5"/>
   <sheetViews>
@@ -9724,12 +10239,12 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="37" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
       <c r="D1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E1" t="s">
         <v>147</v>
@@ -9752,7 +10267,7 @@
         <v>145</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E2" s="9" t="s">
         <v>146</v>
@@ -9783,13 +10298,13 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>383</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>384</v>
       </c>
       <c r="D4" t="s">
         <v>148</v>
@@ -9800,13 +10315,13 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D5" t="s">
         <v>148</v>
@@ -9823,249 +10338,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5F0779D-09F6-4BFC-A27B-5A43B3911876}">
-  <dimension ref="A1:G14"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D3" sqref="D3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="12.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15.140625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="10.140625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="21.28515625" customWidth="1"/>
-    <col min="5" max="5" width="18.140625" customWidth="1"/>
-    <col min="6" max="6" width="16.5703125" customWidth="1"/>
-    <col min="7" max="7" width="16.140625" customWidth="1"/>
-    <col min="8" max="14" width="11.5703125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="37" t="s">
-        <v>233</v>
-      </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" t="s">
-        <v>153</v>
-      </c>
-      <c r="E1" t="s">
-        <v>503</v>
-      </c>
-      <c r="F1" t="s">
-        <v>73</v>
-      </c>
-      <c r="G1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>193</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>502</v>
-      </c>
-      <c r="F2" s="9" t="s">
-        <v>189</v>
-      </c>
-      <c r="G2" s="9" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="D3" t="s">
-        <v>155</v>
-      </c>
-      <c r="E3" s="5">
-        <v>0</v>
-      </c>
-      <c r="F3" t="s">
-        <v>148</v>
-      </c>
-      <c r="G3" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="D4" t="s">
-        <v>155</v>
-      </c>
-      <c r="E4">
-        <v>5</v>
-      </c>
-      <c r="G4" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="D5" t="s">
-        <v>155</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="G5" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="D6" t="s">
-        <v>155</v>
-      </c>
-      <c r="E6">
-        <v>5</v>
-      </c>
-      <c r="G6" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="D7" t="s">
-        <v>154</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="D8" t="s">
-        <v>155</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="G8" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="D9" t="s">
-        <v>155</v>
-      </c>
-      <c r="E9">
-        <v>5</v>
-      </c>
-      <c r="G9" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="D10" t="s">
-        <v>154</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E14" s="16"/>
-      <c r="F14" s="16"/>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A1" location="navigate!A1" display="navigate" xr:uid="{C6E1C94C-815A-4152-B8CE-F4022E1F30E1}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BBE8270-58BA-4E52-BE5C-E66A62EB7AF6}">
   <dimension ref="A1:F6"/>
   <sheetViews>
@@ -10089,14 +10362,14 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="37" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B1"/>
       <c r="C1"/>
       <c r="D1" s="3"/>
       <c r="E1"/>
       <c r="F1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -10110,13 +10383,13 @@
         <v>56</v>
       </c>
       <c r="D2" s="19" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E2" s="10" t="s">
         <v>134</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -10130,7 +10403,7 @@
         <v>140</v>
       </c>
       <c r="D3" s="20" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="E3" s="11" t="s">
         <v>164</v>
@@ -10150,7 +10423,7 @@
         <v>138</v>
       </c>
       <c r="D4" s="20" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="E4" s="11" t="s">
         <v>164</v>
@@ -10161,19 +10434,19 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>381</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>382</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>149</v>
       </c>
       <c r="D5" s="20" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="F5">
         <v>-1</v>
@@ -10181,19 +10454,19 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>381</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>382</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>138</v>
       </c>
       <c r="D6" s="20" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="F6">
         <v>4</v>
@@ -10207,7 +10480,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88D4FAF7-E72B-4120-9C49-7208AF188C66}">
   <dimension ref="A1:E2"/>
   <sheetViews>
@@ -10230,13 +10503,13 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="37" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B1"/>
       <c r="C1"/>
       <c r="D1"/>
       <c r="E1" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -10253,7 +10526,7 @@
         <v>134</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
   </sheetData>
@@ -10264,7 +10537,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF0A3667-1C00-43CD-99E7-8F765FEBD719}">
   <dimension ref="A1:E3"/>
   <sheetViews>
@@ -10287,15 +10560,15 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="37" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B1"/>
       <c r="C1"/>
       <c r="D1" t="s">
+        <v>400</v>
+      </c>
+      <c r="E1" t="s">
         <v>401</v>
-      </c>
-      <c r="E1" t="s">
-        <v>402</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -10309,21 +10582,21 @@
         <v>134</v>
       </c>
       <c r="D2" s="9" t="s">
+        <v>402</v>
+      </c>
+      <c r="E2" s="9" t="s">
         <v>403</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>404</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -10337,7 +10610,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39F3B7BE-4684-48D7-BC4B-4457FF4B8D3D}">
   <dimension ref="A1:D2"/>
   <sheetViews>
@@ -10359,12 +10632,12 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="37" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B1"/>
       <c r="C1"/>
       <c r="D1" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -10378,7 +10651,7 @@
         <v>134</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
   </sheetData>
@@ -10389,7 +10662,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D55AA85F-4B1E-49C3-94EB-B0A94205CD7C}">
   <dimension ref="A1:D3"/>
   <sheetViews>
@@ -10411,12 +10684,12 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="37" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B1"/>
       <c r="C1"/>
       <c r="D1" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -10430,18 +10703,18 @@
         <v>134</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="D3">
         <v>-8</v>
@@ -10457,56 +10730,59 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9640D032-37A5-47CC-8407-C4F7168BB93B}">
-  <dimension ref="A1:Q11"/>
+  <dimension ref="A1:R11"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
+      <selection pane="bottomRight" activeCell="D25" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="14.7109375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="14.85546875" customWidth="1"/>
-    <col min="4" max="4" width="17.85546875" customWidth="1"/>
-    <col min="5" max="5" width="15.140625" customWidth="1"/>
-    <col min="6" max="6" width="15" customWidth="1"/>
-    <col min="7" max="7" width="14.140625" customWidth="1"/>
-    <col min="8" max="8" width="20.28515625" customWidth="1"/>
-    <col min="9" max="17" width="18.85546875" customWidth="1"/>
+    <col min="3" max="4" width="22.42578125" customWidth="1"/>
+    <col min="5" max="5" width="17.85546875" customWidth="1"/>
+    <col min="6" max="6" width="15.140625" customWidth="1"/>
+    <col min="7" max="7" width="15" customWidth="1"/>
+    <col min="8" max="8" width="14.140625" customWidth="1"/>
+    <col min="9" max="9" width="20.28515625" customWidth="1"/>
+    <col min="10" max="18" width="18.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="37" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="D1" t="s">
-        <v>371</v>
+        <v>510</v>
       </c>
       <c r="E1" t="s">
+        <v>370</v>
+      </c>
+      <c r="F1" t="s">
+        <v>470</v>
+      </c>
+      <c r="G1" t="s">
+        <v>447</v>
+      </c>
+      <c r="H1" t="s">
         <v>471</v>
       </c>
-      <c r="F1" t="s">
-        <v>448</v>
-      </c>
-      <c r="G1" t="s">
-        <v>472</v>
-      </c>
-      <c r="H1" t="s">
-        <v>491</v>
-      </c>
       <c r="I1" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>490</v>
+      </c>
+      <c r="J1" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>1</v>
       </c>
@@ -10517,49 +10793,52 @@
         <v>156</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>370</v>
+        <v>511</v>
       </c>
       <c r="E2" s="9" t="s">
+        <v>369</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>445</v>
+      </c>
+      <c r="G2" s="9" t="s">
         <v>446</v>
       </c>
-      <c r="F2" s="9" t="s">
-        <v>447</v>
-      </c>
-      <c r="G2" s="9" t="s">
-        <v>445</v>
-      </c>
       <c r="H2" s="9" t="s">
-        <v>490</v>
+        <v>444</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="L2" s="9" t="s">
         <v>495</v>
       </c>
       <c r="M2" s="9" t="s">
+        <v>494</v>
+      </c>
+      <c r="N2" s="9" t="s">
+        <v>496</v>
+      </c>
+      <c r="O2" s="9" t="s">
         <v>497</v>
       </c>
-      <c r="N2" s="9" t="s">
+      <c r="P2" s="9" t="s">
         <v>498</v>
       </c>
-      <c r="O2" s="9" t="s">
+      <c r="Q2" s="9" t="s">
         <v>499</v>
       </c>
-      <c r="P2" s="9" t="s">
+      <c r="R2" s="9" t="s">
         <v>500</v>
       </c>
-      <c r="Q2" s="9" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>27</v>
       </c>
@@ -10567,160 +10846,160 @@
         <v>32</v>
       </c>
       <c r="C3" t="s">
-        <v>488</v>
-      </c>
-      <c r="D3" t="s">
-        <v>372</v>
+        <v>487</v>
       </c>
       <c r="E3" t="s">
+        <v>371</v>
+      </c>
+      <c r="F3" t="s">
+        <v>448</v>
+      </c>
+      <c r="G3" s="5" t="s">
         <v>449</v>
       </c>
-      <c r="F3" s="5" t="s">
-        <v>450</v>
-      </c>
-      <c r="G3" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="H3" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>32</v>
       </c>
       <c r="C4" t="s">
-        <v>488</v>
-      </c>
-      <c r="D4" t="s">
-        <v>372</v>
+        <v>487</v>
       </c>
       <c r="E4" t="s">
+        <v>371</v>
+      </c>
+      <c r="F4" t="s">
+        <v>448</v>
+      </c>
+      <c r="G4" s="5" t="s">
         <v>449</v>
       </c>
-      <c r="F4" s="5" t="s">
-        <v>450</v>
-      </c>
-      <c r="G4" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="H4" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>152</v>
       </c>
       <c r="C5" t="s">
-        <v>488</v>
-      </c>
-      <c r="D5" t="s">
-        <v>372</v>
+        <v>487</v>
       </c>
       <c r="E5" t="s">
+        <v>371</v>
+      </c>
+      <c r="F5" t="s">
+        <v>448</v>
+      </c>
+      <c r="G5" s="5" t="s">
         <v>449</v>
       </c>
-      <c r="F5" s="5" t="s">
-        <v>450</v>
-      </c>
-      <c r="G5" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="H5" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>33</v>
       </c>
       <c r="C6" t="s">
-        <v>488</v>
-      </c>
-      <c r="D6" t="s">
-        <v>372</v>
+        <v>487</v>
       </c>
       <c r="E6" t="s">
+        <v>371</v>
+      </c>
+      <c r="F6" t="s">
+        <v>448</v>
+      </c>
+      <c r="G6" s="5" t="s">
         <v>449</v>
       </c>
-      <c r="F6" s="5" t="s">
-        <v>450</v>
-      </c>
-      <c r="G6" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="H6" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>185</v>
       </c>
       <c r="C7" t="s">
-        <v>488</v>
-      </c>
-      <c r="D7" t="s">
-        <v>372</v>
+        <v>487</v>
       </c>
       <c r="E7" t="s">
+        <v>371</v>
+      </c>
+      <c r="F7" t="s">
+        <v>448</v>
+      </c>
+      <c r="G7" s="5" t="s">
         <v>449</v>
       </c>
-      <c r="F7" s="5" t="s">
-        <v>450</v>
-      </c>
-      <c r="G7" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="H7" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D8" t="s">
-        <v>379</v>
-      </c>
-      <c r="F8" s="5"/>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="E8" t="s">
+        <v>378</v>
+      </c>
+      <c r="G8" s="5"/>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="D9" t="s">
-        <v>379</v>
-      </c>
-      <c r="F9" s="5"/>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="E9" t="s">
+        <v>378</v>
+      </c>
+      <c r="G9" s="5"/>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D10" t="s">
-        <v>379</v>
-      </c>
-      <c r="F10" s="5"/>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="E10" t="s">
+        <v>378</v>
+      </c>
+      <c r="G10" s="5"/>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="D11" t="s">
-        <v>379</v>
-      </c>
-      <c r="F11" s="5"/>
+      <c r="E11" t="s">
+        <v>378</v>
+      </c>
+      <c r="G11" s="5"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -10732,14 +11011,212 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84972591-1FC8-442A-8908-24ECB9BFD99C}">
+  <dimension ref="A1:R11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M18" sqref="M18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="14.7109375" style="2" customWidth="1"/>
+    <col min="3" max="4" width="22.42578125" customWidth="1"/>
+    <col min="5" max="5" width="17.85546875" customWidth="1"/>
+    <col min="6" max="6" width="15.140625" customWidth="1"/>
+    <col min="7" max="7" width="15" customWidth="1"/>
+    <col min="8" max="8" width="14.140625" customWidth="1"/>
+    <col min="9" max="9" width="20.28515625" customWidth="1"/>
+    <col min="10" max="18" width="18.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A1" s="37" t="s">
+        <v>232</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" t="s">
+        <v>515</v>
+      </c>
+      <c r="D1" t="s">
+        <v>516</v>
+      </c>
+      <c r="E1" t="s">
+        <v>517</v>
+      </c>
+      <c r="F1" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>519</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>520</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>521</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>514</v>
+      </c>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="9"/>
+      <c r="N2" s="9"/>
+      <c r="O2" s="9"/>
+      <c r="P2" s="9"/>
+      <c r="Q2" s="9"/>
+      <c r="R2" s="9"/>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D3">
+        <v>4800</v>
+      </c>
+      <c r="E3">
+        <v>6780</v>
+      </c>
+      <c r="F3">
+        <v>15000</v>
+      </c>
+      <c r="G3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="M3" s="5"/>
+      <c r="O3" s="5"/>
+      <c r="Q3" s="5"/>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="M4" s="5"/>
+      <c r="O4" s="5"/>
+      <c r="Q4" s="5"/>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="G5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="M5" s="5"/>
+      <c r="O5" s="5"/>
+      <c r="Q5" s="5"/>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="M6" s="5"/>
+      <c r="O6" s="5"/>
+      <c r="Q6" s="5"/>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="G7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="M7" s="5"/>
+      <c r="O7" s="5"/>
+      <c r="Q7" s="5"/>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G8" s="5"/>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="G9" s="5"/>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G10" s="5"/>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="G11" s="5"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" location="navigate!A1" display="navigate" xr:uid="{E1BCA7DF-EA92-4064-9F4C-DE1B0060B570}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC750BDA-1B66-4AC2-A2C1-8E80C5AE8DE0}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10748,12 +11225,13 @@
     <col min="2" max="2" width="13.85546875" style="2" customWidth="1"/>
     <col min="3" max="3" width="10.140625" style="4" customWidth="1"/>
     <col min="4" max="4" width="14.85546875" customWidth="1"/>
-    <col min="5" max="13" width="11.5703125" customWidth="1"/>
+    <col min="5" max="5" width="17.28515625" customWidth="1"/>
+    <col min="6" max="13" width="11.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="37" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -10761,21 +11239,24 @@
         <v>77</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>78</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+        <v>193</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>27</v>
       </c>
@@ -10789,7 +11270,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>27</v>
       </c>
@@ -10812,7 +11293,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71C14DBC-6D65-48AD-9110-D1593FB205E8}">
   <dimension ref="A1:D28"/>
   <sheetViews>
@@ -10834,7 +11315,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="37" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -10850,10 +11331,10 @@
         <v>101</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -11204,7 +11685,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DD7B3D9-76DA-4A96-8BE2-2966A08AF799}">
   <dimension ref="A1:C3"/>
   <sheetViews>
@@ -11225,7 +11706,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="37" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" t="s">
@@ -11262,50 +11743,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D727460B-F1B2-42C2-90E2-38E181F7AFC8}">
-  <dimension ref="A1:B3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="13.5703125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="10.140625" style="4" customWidth="1"/>
-    <col min="3" max="11" width="11.5703125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
-        <v>192</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>102</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
 </file>
--- a/FlexTool_import_template.xlsx
+++ b/FlexTool_import_template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AETART\Documents\flextool\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FB88066-727A-4AD9-BA7C-402E9FC8B48B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{046A5A00-DB14-495D-8857-016014C1D7DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28815" yWindow="-18120" windowWidth="29040" windowHeight="17640" tabRatio="1000" activeTab="10" xr2:uid="{D5BEC09F-8FA9-46E6-8F36-396DCDACE376}"/>
+    <workbookView xWindow="28815" yWindow="-18120" windowWidth="29040" windowHeight="17640" tabRatio="1000" firstSheet="5" activeTab="16" xr2:uid="{D5BEC09F-8FA9-46E6-8F36-396DCDACE376}"/>
   </bookViews>
   <sheets>
     <sheet name="navigate" sheetId="54" r:id="rId1"/>
@@ -206,7 +206,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1448" uniqueCount="525">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1451" uniqueCount="526">
   <si>
     <t>commodity</t>
   </si>
@@ -1781,6 +1781,9 @@
   </si>
   <si>
     <t>storage_nested_fix_method</t>
+  </si>
+  <si>
+    <t>availability</t>
   </si>
 </sst>
 </file>
@@ -2258,10 +2261,10 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>447675</xdr:colOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="8919750" cy="1209177"/>
     <xdr:sp macro="" textlink="">
@@ -2277,7 +2280,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14820900" y="504825"/>
+          <a:off x="20821650" y="552450"/>
           <a:ext cx="8919750" cy="1209177"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3036,10 +3039,10 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>33</xdr:col>
-      <xdr:colOff>371475</xdr:colOff>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="8092152" cy="1395318"/>
     <xdr:sp macro="" textlink="">
@@ -3055,7 +3058,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="22488525" y="695325"/>
+          <a:off x="33556575" y="704850"/>
           <a:ext cx="8092152" cy="1395318"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3953,13 +3956,13 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A4889F5-3956-475B-A853-BA105023BA1D}">
-  <dimension ref="A1:AG9"/>
+  <dimension ref="A1:AH9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="S3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="L1" sqref="L1:L1048576"/>
+      <selection pane="bottomRight" activeCell="AH3" sqref="AH3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3995,9 +3998,10 @@
     <col min="30" max="30" width="16.85546875" customWidth="1"/>
     <col min="31" max="32" width="29.140625" customWidth="1"/>
     <col min="33" max="33" width="14.7109375" customWidth="1"/>
+    <col min="34" max="34" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A1" s="37" t="s">
         <v>232</v>
       </c>
@@ -4096,7 +4100,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="2" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>1</v>
       </c>
@@ -4196,8 +4200,11 @@
       <c r="AG2" s="9" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AH2" s="9" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>27</v>
       </c>
@@ -4224,7 +4231,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>27</v>
       </c>
@@ -4255,7 +4262,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>27</v>
       </c>
@@ -4275,7 +4282,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>27</v>
       </c>
@@ -4295,7 +4302,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>279</v>
       </c>
@@ -4342,7 +4349,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>380</v>
       </c>
@@ -4380,7 +4387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>304</v>
       </c>
@@ -4603,7 +4610,7 @@
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="B4" sqref="B4"/>
+      <selection pane="bottomRight" activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5155,13 +5162,13 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D44D2B2-1DE7-400D-8C40-2CD59BEE6EC3}">
-  <dimension ref="A1:X6"/>
+  <dimension ref="A1:Y6"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="4" ySplit="2" topLeftCell="V3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="I1" sqref="I1:I2"/>
+      <selection pane="bottomRight" activeCell="Y5" sqref="Y5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5188,9 +5195,10 @@
     <col min="22" max="22" width="22" customWidth="1"/>
     <col min="23" max="23" width="10" customWidth="1"/>
     <col min="24" max="24" width="15.7109375" customWidth="1"/>
+    <col min="25" max="25" width="14.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" s="37" t="s">
         <v>232</v>
       </c>
@@ -5258,7 +5266,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>1</v>
       </c>
@@ -5331,8 +5339,11 @@
       <c r="X2" s="24" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y2" s="24" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>27</v>
       </c>
@@ -5364,7 +5375,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>279</v>
       </c>
@@ -5395,8 +5406,11 @@
       <c r="W4">
         <v>0.9</v>
       </c>
-    </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y4">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>304</v>
       </c>
@@ -5428,7 +5442,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>304</v>
       </c>
@@ -6438,13 +6452,13 @@
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6619729E-584E-41E3-B72E-7B2979330C88}">
-  <dimension ref="A1:Y7"/>
+  <dimension ref="A1:Z7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="H15" sqref="H15"/>
+      <selection pane="bottomRight" activeCell="AA7" sqref="AA7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6472,10 +6486,11 @@
     <col min="21" max="21" width="12.140625" customWidth="1"/>
     <col min="22" max="23" width="10.140625" customWidth="1"/>
     <col min="24" max="25" width="8" customWidth="1"/>
+    <col min="26" max="26" width="9.140625" customWidth="1"/>
     <col min="27" max="27" width="8.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" s="37" t="s">
         <v>232</v>
       </c>
@@ -6550,7 +6565,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="2" spans="1:25" s="23" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" s="23" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="21" t="s">
         <v>1</v>
       </c>
@@ -6626,8 +6641,11 @@
       <c r="Y2" s="24" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z2" s="24" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>27</v>
       </c>
@@ -6668,7 +6686,7 @@
       </c>
       <c r="U3" s="5"/>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>27</v>
       </c>
@@ -6695,8 +6713,11 @@
       <c r="T4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z4">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>27</v>
       </c>
@@ -6727,7 +6748,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>304</v>
       </c>
@@ -6739,7 +6760,7 @@
       </c>
       <c r="H6" s="47"/>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>380</v>
       </c>

--- a/FlexTool_import_template.xlsx
+++ b/FlexTool_import_template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AETART\Documents\flextool\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{046A5A00-DB14-495D-8857-016014C1D7DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{744E1846-CB7E-487A-8218-0FE9E9D477C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28815" yWindow="-18120" windowWidth="29040" windowHeight="17640" tabRatio="1000" firstSheet="5" activeTab="16" xr2:uid="{D5BEC09F-8FA9-46E6-8F36-396DCDACE376}"/>
+    <workbookView xWindow="-15" yWindow="-18120" windowWidth="29040" windowHeight="17640" tabRatio="1000" firstSheet="8" activeTab="10" xr2:uid="{D5BEC09F-8FA9-46E6-8F36-396DCDACE376}"/>
   </bookViews>
   <sheets>
     <sheet name="navigate" sheetId="54" r:id="rId1"/>
@@ -206,7 +206,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1451" uniqueCount="526">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1452" uniqueCount="527">
   <si>
     <t>commodity</t>
   </si>
@@ -1582,9 +1582,6 @@
     <t>[MWh] Highest absolute flow in scaled inflow. Used only with inflow_method scale_to_annual_and_peak_flow. Constant or period.</t>
   </si>
   <si>
-    <t>scale_to_annual_and_peak_flow</t>
-  </si>
-  <si>
     <t>peak_inflow</t>
   </si>
   <si>
@@ -1753,9 +1750,6 @@
     <t>rolling_duration</t>
   </si>
   <si>
-    <t>(Optional) Timestamp from the timeline that is linked to the timeblockSet used. Start of the rolling, if not stated, assumed to be the first timestep</t>
-  </si>
-  <si>
     <t>(Required if rolling_window solve). The length of the jumps between rolls. Should be smaller than the horizon</t>
   </si>
   <si>
@@ -1765,9 +1759,6 @@
     <t>Hours (Optional). Duration of rolling, if not stated, assumed to be the whole time of the solve</t>
   </si>
   <si>
-    <t>rolling_start_time</t>
-  </si>
-  <si>
     <t>rolling_solve_jump</t>
   </si>
   <si>
@@ -1784,6 +1775,18 @@
   </si>
   <si>
     <t>availability</t>
+  </si>
+  <si>
+    <t>output_node_flows</t>
+  </si>
+  <si>
+    <t>output_aggregate_flows</t>
+  </si>
+  <si>
+    <t>Used with group_unit_node or group_connection_node to combine the flows when producing the output_node_flows of a node group.</t>
+  </si>
+  <si>
+    <t>Creates the timewise flow output for this node group (group_flow_t)</t>
   </si>
 </sst>
 </file>
@@ -2582,12 +2585,12 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>104775</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="5473550" cy="1023037"/>
+    <xdr:ext cx="5428794" cy="836896"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="2" name="TextBox 1">
@@ -2601,8 +2604,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10420350" y="1304925"/>
-          <a:ext cx="5473550" cy="1023037"/>
+          <a:off x="8924925" y="1304925"/>
+          <a:ext cx="5428794" cy="836896"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2636,14 +2639,6 @@
               <a:latin typeface="Arial Nova" panose="020B0504020202020204" pitchFamily="34" charset="0"/>
             </a:rPr>
             <a:t>Define the rolling parameters. Required if the solve_mode is rolling_window:</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="fi-FI" sz="1200" baseline="0">
-              <a:latin typeface="Arial Nova" panose="020B0504020202020204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>- Rolling_start_time: Allows to set a different start time than the beginning</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -3544,7 +3539,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F991596-B8AE-4F8F-B051-2E61303D5CC8}">
   <dimension ref="A1:E39"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3629,7 +3626,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="43" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B9" s="43"/>
       <c r="C9" s="43"/>
@@ -3958,11 +3955,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A4889F5-3956-475B-A853-BA105023BA1D}">
   <dimension ref="A1:AH9"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="S3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AH3" sqref="AH3"/>
+      <selection pane="bottomRight" activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4013,19 +4010,19 @@
         <v>168</v>
       </c>
       <c r="E1" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="F1" t="s">
         <v>169</v>
       </c>
       <c r="G1" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H1" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="I1" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="J1" t="s">
         <v>436</v>
@@ -4097,7 +4094,7 @@
         <v>422</v>
       </c>
       <c r="AG1" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="2" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4123,10 +4120,10 @@
         <v>11</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="J2" s="9" t="s">
         <v>411</v>
@@ -4144,7 +4141,7 @@
         <v>57</v>
       </c>
       <c r="O2" s="9" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="P2" s="9" t="s">
         <v>60</v>
@@ -4201,7 +4198,7 @@
         <v>63</v>
       </c>
       <c r="AH2" s="9" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
     </row>
     <row r="3" spans="1:34" x14ac:dyDescent="0.25">
@@ -4217,9 +4214,7 @@
       <c r="D3" s="14" t="s">
         <v>148</v>
       </c>
-      <c r="E3" s="14" t="s">
-        <v>458</v>
-      </c>
+      <c r="E3" s="14"/>
       <c r="F3" s="14"/>
       <c r="G3" t="s">
         <v>137</v>
@@ -4507,7 +4502,7 @@
         <v>57</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="F2" s="9" t="s">
         <v>8</v>
@@ -5164,7 +5159,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D44D2B2-1DE7-400D-8C40-2CD59BEE6EC3}">
   <dimension ref="A1:Y6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="4" ySplit="2" topLeftCell="V3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
@@ -5218,10 +5213,10 @@
         <v>438</v>
       </c>
       <c r="I1" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="J1" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="K1" t="s">
         <v>158</v>
@@ -5260,7 +5255,7 @@
         <v>455</v>
       </c>
       <c r="W1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="X1" t="s">
         <v>432</v>
@@ -5292,7 +5287,7 @@
         <v>11</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="J2" s="9" t="s">
         <v>274</v>
@@ -5340,7 +5335,7 @@
         <v>63</v>
       </c>
       <c r="Y2" s="24" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
@@ -6390,7 +6385,7 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B37" s="25">
         <v>44893</v>
@@ -6399,12 +6394,12 @@
         <v>177</v>
       </c>
       <c r="D37" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B38" s="25">
         <v>44903</v>
@@ -6413,12 +6408,12 @@
         <v>177</v>
       </c>
       <c r="D38" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B39" s="25">
         <v>45082</v>
@@ -6427,7 +6422,7 @@
         <v>177</v>
       </c>
       <c r="D39" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
@@ -6438,10 +6433,10 @@
         <v>45156</v>
       </c>
       <c r="C40" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="D40" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
     </row>
   </sheetData>
@@ -6502,16 +6497,16 @@
         <v>291</v>
       </c>
       <c r="E1" t="s">
+        <v>474</v>
+      </c>
+      <c r="F1" t="s">
         <v>475</v>
-      </c>
-      <c r="F1" t="s">
-        <v>476</v>
       </c>
       <c r="G1" t="s">
         <v>438</v>
       </c>
       <c r="H1" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="I1" t="s">
         <v>18</v>
@@ -6553,7 +6548,7 @@
         <v>296</v>
       </c>
       <c r="V1" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="W1" t="s">
         <v>182</v>
@@ -6588,7 +6583,7 @@
         <v>11</v>
       </c>
       <c r="H2" s="49" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="I2" s="24" t="s">
         <v>4</v>
@@ -6642,7 +6637,7 @@
         <v>63</v>
       </c>
       <c r="Z2" s="24" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.25">
@@ -7241,7 +7236,7 @@
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
       <c r="E1" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="F1" t="s">
         <v>453</v>
@@ -7253,16 +7248,16 @@
         <v>238</v>
       </c>
       <c r="I1" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="J1" t="s">
         <v>361</v>
       </c>
       <c r="K1" t="s">
+        <v>479</v>
+      </c>
+      <c r="L1" t="s">
         <v>480</v>
-      </c>
-      <c r="L1" t="s">
-        <v>481</v>
       </c>
       <c r="O1" s="3"/>
       <c r="P1" s="3"/>
@@ -8453,13 +8448,13 @@
 
 <file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17A58EF0-B113-4E3B-A099-AB516EC20AF0}">
-  <dimension ref="A1:V7"/>
+  <dimension ref="A1:X7"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomRight" activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8468,27 +8463,29 @@
     <col min="2" max="2" width="17.5703125" style="2" customWidth="1"/>
     <col min="3" max="3" width="13.85546875" customWidth="1"/>
     <col min="4" max="4" width="19.140625" customWidth="1"/>
-    <col min="5" max="5" width="16" customWidth="1"/>
-    <col min="6" max="6" width="22.85546875" customWidth="1"/>
-    <col min="7" max="7" width="11.5703125" customWidth="1"/>
-    <col min="8" max="8" width="12.5703125" customWidth="1"/>
-    <col min="9" max="9" width="15.28515625" customWidth="1"/>
-    <col min="10" max="10" width="21" customWidth="1"/>
-    <col min="11" max="11" width="22" customWidth="1"/>
-    <col min="12" max="12" width="24.140625" customWidth="1"/>
-    <col min="13" max="13" width="12.28515625" customWidth="1"/>
-    <col min="14" max="14" width="9.85546875" customWidth="1"/>
-    <col min="15" max="15" width="14" customWidth="1"/>
-    <col min="16" max="16" width="15.140625" customWidth="1"/>
-    <col min="17" max="17" width="16.7109375" customWidth="1"/>
-    <col min="18" max="18" width="15.7109375" customWidth="1"/>
-    <col min="19" max="20" width="20.85546875" customWidth="1"/>
-    <col min="21" max="22" width="16.7109375" customWidth="1"/>
-    <col min="23" max="23" width="16.42578125" customWidth="1"/>
-    <col min="24" max="28" width="11.5703125" customWidth="1"/>
+    <col min="5" max="5" width="22.85546875" customWidth="1"/>
+    <col min="6" max="6" width="19.140625" customWidth="1"/>
+    <col min="7" max="7" width="16" customWidth="1"/>
+    <col min="8" max="8" width="22.85546875" customWidth="1"/>
+    <col min="9" max="9" width="11.5703125" customWidth="1"/>
+    <col min="10" max="10" width="12.5703125" customWidth="1"/>
+    <col min="11" max="11" width="15.28515625" customWidth="1"/>
+    <col min="12" max="12" width="21" customWidth="1"/>
+    <col min="13" max="13" width="22" customWidth="1"/>
+    <col min="14" max="14" width="24.140625" customWidth="1"/>
+    <col min="15" max="15" width="12.28515625" customWidth="1"/>
+    <col min="16" max="16" width="9.85546875" customWidth="1"/>
+    <col min="17" max="17" width="14" customWidth="1"/>
+    <col min="18" max="18" width="15.140625" customWidth="1"/>
+    <col min="19" max="19" width="16.7109375" customWidth="1"/>
+    <col min="20" max="20" width="15.7109375" customWidth="1"/>
+    <col min="21" max="22" width="20.85546875" customWidth="1"/>
+    <col min="23" max="24" width="16.7109375" customWidth="1"/>
+    <col min="25" max="25" width="16.42578125" customWidth="1"/>
+    <col min="26" max="30" width="11.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1" s="37" t="s">
         <v>232</v>
       </c>
@@ -8497,64 +8494,70 @@
         <v>333</v>
       </c>
       <c r="D1" t="s">
+        <v>526</v>
+      </c>
+      <c r="E1" t="s">
+        <v>525</v>
+      </c>
+      <c r="F1" t="s">
         <v>39</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>35</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>392</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>41</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>45</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>362</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>43</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>53</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>391</v>
       </c>
-      <c r="M1" t="s">
-        <v>469</v>
-      </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
+        <v>468</v>
+      </c>
+      <c r="P1" t="s">
         <v>37</v>
       </c>
-      <c r="O1" t="s">
-        <v>464</v>
-      </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
+        <v>463</v>
+      </c>
+      <c r="R1" t="s">
         <v>438</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="S1" t="s">
         <v>47</v>
       </c>
-      <c r="R1" t="s">
+      <c r="T1" t="s">
         <v>51</v>
       </c>
-      <c r="S1" t="s">
+      <c r="U1" t="s">
         <v>326</v>
       </c>
-      <c r="T1" t="s">
+      <c r="V1" t="s">
         <v>327</v>
       </c>
-      <c r="U1" t="s">
+      <c r="W1" t="s">
         <v>336</v>
       </c>
-      <c r="V1" t="s">
+      <c r="X1" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>1</v>
       </c>
@@ -8565,124 +8568,133 @@
         <v>334</v>
       </c>
       <c r="D2" s="9" t="s">
+        <v>523</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>524</v>
+      </c>
+      <c r="F2" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="G2" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="H2" s="9" t="s">
         <v>390</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="I2" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="J2" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="I2" s="9" t="s">
+      <c r="K2" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="J2" s="9" t="s">
+      <c r="L2" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="K2" s="9" t="s">
+      <c r="M2" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="L2" s="9" t="s">
+      <c r="N2" s="9" t="s">
         <v>275</v>
       </c>
-      <c r="M2" s="9" t="s">
+      <c r="O2" s="9" t="s">
+        <v>464</v>
+      </c>
+      <c r="P2" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q2" s="9" t="s">
         <v>465</v>
       </c>
-      <c r="N2" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="O2" s="9" t="s">
-        <v>466</v>
-      </c>
-      <c r="P2" s="24" t="s">
+      <c r="R2" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="Q2" s="9" t="s">
+      <c r="S2" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="R2" s="9" t="s">
+      <c r="T2" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="S2" s="9" t="s">
+      <c r="U2" s="9" t="s">
         <v>324</v>
       </c>
-      <c r="T2" s="9" t="s">
+      <c r="V2" s="9" t="s">
         <v>325</v>
       </c>
-      <c r="U2" s="9" t="s">
+      <c r="W2" s="9" t="s">
         <v>341</v>
       </c>
-      <c r="V2" s="9" t="s">
+      <c r="X2" s="9" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="E3">
+      <c r="D3" t="s">
+        <v>148</v>
+      </c>
+      <c r="G3">
         <v>10</v>
       </c>
-      <c r="P3" s="47"/>
-    </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="R3" s="47"/>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="H4">
+      <c r="J4">
         <v>200</v>
       </c>
-      <c r="I4">
+      <c r="K4">
         <v>5000</v>
       </c>
-      <c r="K4">
+      <c r="M4">
         <v>0.6</v>
       </c>
-      <c r="L4">
+      <c r="N4">
         <v>5500</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>303</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="G5" t="s">
+      <c r="I5" t="s">
         <v>148</v>
       </c>
-      <c r="J5" t="s">
+      <c r="L5" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>329</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>329</v>
       </c>
-      <c r="S6">
+      <c r="U6">
         <v>40</v>
       </c>
-      <c r="U6">
+      <c r="W6">
         <v>120</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>27</v>
       </c>
@@ -8953,7 +8965,7 @@
         <v>37</v>
       </c>
       <c r="H1" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="I1" t="s">
         <v>46</v>
@@ -8997,7 +9009,7 @@
         <v>36</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="I2" s="9" t="s">
         <v>9</v>
@@ -9367,7 +9379,7 @@
         <v>171</v>
       </c>
       <c r="G1" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="H1" t="s">
         <v>132</v>
@@ -9796,7 +9808,7 @@
         <v>170</v>
       </c>
       <c r="G1" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="H1" t="s">
         <v>131</v>
@@ -10024,7 +10036,7 @@
         <v>153</v>
       </c>
       <c r="E1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="F1" t="s">
         <v>73</v>
@@ -10047,19 +10059,19 @@
         <v>192</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="G2" s="9" t="s">
         <v>189</v>
       </c>
       <c r="H2" s="9" t="s">
+        <v>507</v>
+      </c>
+      <c r="I2" s="9" t="s">
         <v>508</v>
-      </c>
-      <c r="I2" s="9" t="s">
-        <v>509</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -10779,28 +10791,28 @@
       </c>
       <c r="B1" s="3"/>
       <c r="C1" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D1" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="E1" t="s">
         <v>370</v>
       </c>
       <c r="F1" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="G1" t="s">
         <v>447</v>
       </c>
       <c r="H1" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="I1" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="J1" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="2" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -10814,7 +10826,7 @@
         <v>156</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="E2" s="9" t="s">
         <v>369</v>
@@ -10829,34 +10841,34 @@
         <v>444</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="K2" s="9" t="s">
+        <v>492</v>
+      </c>
+      <c r="L2" s="9" t="s">
+        <v>494</v>
+      </c>
+      <c r="M2" s="9" t="s">
         <v>493</v>
       </c>
-      <c r="L2" s="9" t="s">
+      <c r="N2" s="9" t="s">
         <v>495</v>
       </c>
-      <c r="M2" s="9" t="s">
-        <v>494</v>
-      </c>
-      <c r="N2" s="9" t="s">
+      <c r="O2" s="9" t="s">
         <v>496</v>
       </c>
-      <c r="O2" s="9" t="s">
+      <c r="P2" s="9" t="s">
         <v>497</v>
       </c>
-      <c r="P2" s="9" t="s">
+      <c r="Q2" s="9" t="s">
         <v>498</v>
       </c>
-      <c r="Q2" s="9" t="s">
+      <c r="R2" s="9" t="s">
         <v>499</v>
-      </c>
-      <c r="R2" s="9" t="s">
-        <v>500</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
@@ -10867,7 +10879,7 @@
         <v>32</v>
       </c>
       <c r="C3" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="E3" t="s">
         <v>371</v>
@@ -10890,7 +10902,7 @@
         <v>32</v>
       </c>
       <c r="C4" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="E4" t="s">
         <v>371</v>
@@ -10913,7 +10925,7 @@
         <v>152</v>
       </c>
       <c r="C5" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="E5" t="s">
         <v>371</v>
@@ -10936,7 +10948,7 @@
         <v>33</v>
       </c>
       <c r="C6" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="E6" t="s">
         <v>371</v>
@@ -10959,7 +10971,7 @@
         <v>185</v>
       </c>
       <c r="C7" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="E7" t="s">
         <v>371</v>
@@ -11033,44 +11045,41 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84972591-1FC8-442A-8908-24ECB9BFD99C}">
-  <dimension ref="A1:R11"/>
+  <dimension ref="A1:Q11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M18" sqref="M18"/>
+      <selection activeCell="L24" sqref="L24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="14.7109375" style="2" customWidth="1"/>
-    <col min="3" max="4" width="22.42578125" customWidth="1"/>
-    <col min="5" max="5" width="17.85546875" customWidth="1"/>
-    <col min="6" max="6" width="15.140625" customWidth="1"/>
-    <col min="7" max="7" width="15" customWidth="1"/>
-    <col min="8" max="8" width="14.140625" customWidth="1"/>
-    <col min="9" max="9" width="20.28515625" customWidth="1"/>
-    <col min="10" max="18" width="18.85546875" customWidth="1"/>
+    <col min="3" max="3" width="22.42578125" customWidth="1"/>
+    <col min="4" max="4" width="17.85546875" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" customWidth="1"/>
+    <col min="6" max="6" width="15" customWidth="1"/>
+    <col min="7" max="7" width="14.140625" customWidth="1"/>
+    <col min="8" max="8" width="20.28515625" customWidth="1"/>
+    <col min="9" max="17" width="18.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="37" t="s">
         <v>232</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" t="s">
+        <v>514</v>
+      </c>
+      <c r="D1" t="s">
         <v>515</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>516</v>
       </c>
-      <c r="E1" t="s">
-        <v>517</v>
-      </c>
-      <c r="F1" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>1</v>
       </c>
@@ -11078,17 +11087,15 @@
         <v>74</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>521</v>
-      </c>
-      <c r="F2" s="9" t="s">
-        <v>514</v>
-      </c>
+        <v>513</v>
+      </c>
+      <c r="F2" s="9"/>
       <c r="G2" s="9"/>
       <c r="H2" s="9"/>
       <c r="I2" s="9"/>
@@ -11100,125 +11107,121 @@
       <c r="O2" s="9"/>
       <c r="P2" s="9"/>
       <c r="Q2" s="9"/>
-      <c r="R2" s="9"/>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C3" t="s">
-        <v>99</v>
+      <c r="C3">
+        <v>4800</v>
       </c>
       <c r="D3">
-        <v>4800</v>
+        <v>6780</v>
       </c>
       <c r="E3">
-        <v>6780</v>
-      </c>
-      <c r="F3">
         <v>15000</v>
       </c>
-      <c r="G3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="K3" s="5"/>
-      <c r="M3" s="5"/>
-      <c r="O3" s="5"/>
-      <c r="Q3" s="5"/>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="F3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="N3" s="5"/>
+      <c r="P3" s="5"/>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>305</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="G4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="K4" s="5"/>
-      <c r="M4" s="5"/>
-      <c r="O4" s="5"/>
-      <c r="Q4" s="5"/>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="F4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="L4" s="5"/>
+      <c r="N4" s="5"/>
+      <c r="P4" s="5"/>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>305</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="G5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="K5" s="5"/>
-      <c r="M5" s="5"/>
-      <c r="O5" s="5"/>
-      <c r="Q5" s="5"/>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="F5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="L5" s="5"/>
+      <c r="N5" s="5"/>
+      <c r="P5" s="5"/>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>305</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="G6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="K6" s="5"/>
-      <c r="M6" s="5"/>
-      <c r="O6" s="5"/>
-      <c r="Q6" s="5"/>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="F6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="L6" s="5"/>
+      <c r="N6" s="5"/>
+      <c r="P6" s="5"/>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>305</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="G7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="K7" s="5"/>
-      <c r="M7" s="5"/>
-      <c r="O7" s="5"/>
-      <c r="Q7" s="5"/>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="F7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="L7" s="5"/>
+      <c r="N7" s="5"/>
+      <c r="P7" s="5"/>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>377</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="G8" s="5"/>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="F8" s="5"/>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>377</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="G9" s="5"/>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="F9" s="5"/>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>377</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="G10" s="5"/>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="F10" s="5"/>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>377</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="G11" s="5"/>
+      <c r="F11" s="5"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -11274,7 +11277,7 @@
         <v>193</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">

--- a/FlexTool_import_template.xlsx
+++ b/FlexTool_import_template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AETART\Documents\flextool\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{744E1846-CB7E-487A-8218-0FE9E9D477C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{101B3C87-F035-4351-9E32-0B89C628E0C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="-18120" windowWidth="29040" windowHeight="17640" tabRatio="1000" firstSheet="8" activeTab="10" xr2:uid="{D5BEC09F-8FA9-46E6-8F36-396DCDACE376}"/>
+    <workbookView xWindow="15" yWindow="-18120" windowWidth="29040" windowHeight="17640" tabRatio="1000" firstSheet="35" activeTab="45" xr2:uid="{D5BEC09F-8FA9-46E6-8F36-396DCDACE376}"/>
   </bookViews>
   <sheets>
     <sheet name="navigate" sheetId="54" r:id="rId1"/>
@@ -58,6 +58,7 @@
     <sheet name="node_constraint_c" sheetId="60" r:id="rId43"/>
     <sheet name="unit_constraint_c" sheetId="61" r:id="rId44"/>
     <sheet name="connection_constraint_c" sheetId="62" r:id="rId45"/>
+    <sheet name="optional_outputs" sheetId="64" r:id="rId46"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -206,7 +207,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1452" uniqueCount="527">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1479" uniqueCount="543">
   <si>
     <t>commodity</t>
   </si>
@@ -1787,6 +1788,54 @@
   </si>
   <si>
     <t>Creates the timewise flow output for this node group (group_flow_t)</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>output_connection__node__node_flow_t</t>
+  </si>
+  <si>
+    <t>output_connection_flow_separate</t>
+  </si>
+  <si>
+    <t>output_node_balance_t</t>
+  </si>
+  <si>
+    <t>output_ramp_envelope</t>
+  </si>
+  <si>
+    <t>output_unit__node_flow_t</t>
+  </si>
+  <si>
+    <t>output_unit__node_ramp_t</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The flows between the nodes for each timestep.</t>
+  </si>
+  <si>
+    <t>Produces the connection flows separately for both directions.</t>
+  </si>
+  <si>
+    <t>Produces detailed inflows and outflows for all the nodes for all timesteps. Mainly useful to diagnose what is wrong with the model.</t>
+  </si>
+  <si>
+    <t>Includes seven parameters that form the ramp room envelope (how much there is additional ramping capability in a given node).</t>
+  </si>
+  <si>
+    <t>The flows from units to the nodes for each timestep.</t>
+  </si>
+  <si>
+    <t>Produces the ramps of individual units for all timesteps.</t>
+  </si>
+  <si>
+    <t>optional_outputs</t>
+  </si>
+  <si>
+    <t>Added optional_outputs sheet and the output_aggregate_flows and output_node_flows to the group_c</t>
   </si>
 </sst>
 </file>
@@ -1971,7 +2020,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -2072,6 +2121,9 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -3537,10 +3589,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F991596-B8AE-4F8F-B051-2E61303D5CC8}">
-  <dimension ref="A1:E39"/>
+  <dimension ref="A1:E40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3632,273 +3684,281 @@
       <c r="C9" s="43"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="27"/>
-      <c r="B10" s="27"/>
-      <c r="C10" s="27"/>
-      <c r="E10" t="s">
+      <c r="A10" s="43" t="s">
+        <v>541</v>
+      </c>
+      <c r="B10" s="43"/>
+      <c r="C10" s="43"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="27"/>
+      <c r="B11" s="27"/>
+      <c r="C11" s="27"/>
+      <c r="E11" t="s">
         <v>235</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="31" t="s">
-        <v>200</v>
-      </c>
-      <c r="B11" s="31" t="s">
-        <v>201</v>
-      </c>
-      <c r="C11" s="31" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="31" t="s">
+        <v>200</v>
+      </c>
+      <c r="B12" s="31" t="s">
+        <v>201</v>
+      </c>
+      <c r="C12" s="31" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="31" t="s">
         <v>203</v>
       </c>
-      <c r="B12" s="31" t="s">
+      <c r="B13" s="31" t="s">
         <v>204</v>
       </c>
-      <c r="C12" s="32"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="44" t="s">
+      <c r="C13" s="32"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="44" t="s">
         <v>205</v>
       </c>
-      <c r="B13" s="44"/>
-      <c r="C13" s="44"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="31" t="s">
-        <v>206</v>
-      </c>
-      <c r="B14" s="31" t="s">
-        <v>207</v>
-      </c>
-      <c r="C14" s="31" t="s">
-        <v>208</v>
-      </c>
+      <c r="B14" s="44"/>
+      <c r="C14" s="44"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="31" t="s">
-        <v>225</v>
+        <v>206</v>
       </c>
       <c r="B15" s="31" t="s">
-        <v>226</v>
+        <v>207</v>
       </c>
       <c r="C15" s="31" t="s">
-        <v>227</v>
+        <v>208</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="31" t="s">
+        <v>225</v>
+      </c>
+      <c r="B16" s="31" t="s">
+        <v>226</v>
+      </c>
+      <c r="C16" s="31" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="31" t="s">
         <v>224</v>
       </c>
-      <c r="B16" s="32"/>
-      <c r="C16" s="31" t="s">
+      <c r="B17" s="32"/>
+      <c r="C17" s="31" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="33"/>
-      <c r="B17" s="33"/>
-      <c r="C17" s="33"/>
-    </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="39"/>
-      <c r="B18" s="39"/>
-      <c r="C18" s="40" t="s">
+      <c r="A18" s="33"/>
+      <c r="B18" s="33"/>
+      <c r="C18" s="33"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="39"/>
+      <c r="B19" s="39"/>
+      <c r="C19" s="40" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="45" t="s">
-        <v>242</v>
-      </c>
-      <c r="B19" s="45"/>
-      <c r="C19" s="45"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="45" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B20" s="45"/>
       <c r="C20" s="45"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="45" t="s">
-        <v>255</v>
+        <v>241</v>
       </c>
       <c r="B21" s="45"/>
       <c r="C21" s="45"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="33"/>
-      <c r="B22" s="33"/>
-      <c r="C22" s="33"/>
+      <c r="A22" s="45" t="s">
+        <v>255</v>
+      </c>
+      <c r="B22" s="45"/>
+      <c r="C22" s="45"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="34" t="s">
+      <c r="A23" s="33"/>
+      <c r="B23" s="33"/>
+      <c r="C23" s="33"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="34" t="s">
         <v>221</v>
       </c>
-      <c r="B23" s="34" t="s">
+      <c r="B24" s="34" t="s">
         <v>222</v>
       </c>
-      <c r="C23" s="34"/>
-      <c r="D23" s="28"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="41" t="s">
-        <v>212</v>
-      </c>
-      <c r="B24" s="41"/>
-      <c r="C24" s="41"/>
+      <c r="C24" s="34"/>
+      <c r="D24" s="28"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="41" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B25" s="41"/>
       <c r="C25" s="41"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="41" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B26" s="41"/>
       <c r="C26" s="41"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="41" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B27" s="41"/>
       <c r="C27" s="41"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="41" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B28" s="41"/>
       <c r="C28" s="41"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="27"/>
-      <c r="B29" s="27"/>
-      <c r="C29" s="27"/>
+      <c r="A29" s="41" t="s">
+        <v>216</v>
+      </c>
+      <c r="B29" s="41"/>
+      <c r="C29" s="41"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="42" t="s">
+      <c r="A30" s="27"/>
+      <c r="B30" s="27"/>
+      <c r="C30" s="27"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="42" t="s">
         <v>217</v>
       </c>
-      <c r="B30" s="42"/>
-      <c r="C30" s="42"/>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="35" t="s">
+      <c r="B31" s="42"/>
+      <c r="C31" s="42"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="35" t="s">
         <v>218</v>
       </c>
-      <c r="B31" s="36"/>
-      <c r="C31" s="35" t="s">
+      <c r="B32" s="36"/>
+      <c r="C32" s="35" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="42" t="s">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="42" t="s">
         <v>220</v>
       </c>
-      <c r="B32" s="42"/>
-      <c r="C32" s="42"/>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="48" t="s">
-        <v>210</v>
-      </c>
-      <c r="B34" s="48"/>
-      <c r="C34" s="48"/>
+      <c r="B33" s="42"/>
+      <c r="C33" s="42"/>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="48" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B35" s="48"/>
       <c r="C35" s="48"/>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="48" t="s">
-        <v>410</v>
+        <v>211</v>
       </c>
       <c r="B36" s="48"/>
       <c r="C36" s="48"/>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="48" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="B37" s="48"/>
       <c r="C37" s="48"/>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="48" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B38" s="48"/>
       <c r="C38" s="48"/>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="48" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B39" s="48"/>
       <c r="C39" s="48"/>
     </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="48" t="s">
+        <v>408</v>
+      </c>
+      <c r="B40" s="48"/>
+      <c r="C40" s="48"/>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A30" location="reserve_unit_node_c!A1" display="reserve_connection_node_c" xr:uid="{3F855114-4A57-4E0A-A766-0317F980F4BF}"/>
-    <hyperlink ref="A28" location="group_unit_node!A1" display="group_unit_node" xr:uid="{B7C2FCA3-F9B2-4C44-95E7-EE78C953ADDA}"/>
-    <hyperlink ref="A27" location="group_unit!A1" display="group_unit" xr:uid="{B05CA82D-DD0B-41C5-A4A2-737EB6D8AF37}"/>
-    <hyperlink ref="A26" location="group_node!A1" display="group_node" xr:uid="{920BB948-3B7C-488B-B8B1-7504F3D3AD1A}"/>
-    <hyperlink ref="A25" location="group_connection_node!A1" display="group_connection_node" xr:uid="{811FD465-B06B-4481-9ED6-DE1222C0D3DE}"/>
-    <hyperlink ref="A31" location="reserve_group_c!A1" display="reserve_group_c" xr:uid="{2CFA818C-9B6A-474B-8E40-2E804C4A9677}"/>
-    <hyperlink ref="C31" location="reserve_group_t!A1" display="reserve_group_t" xr:uid="{401EE982-2E1A-4DC0-A8C5-8E9B177FDA74}"/>
-    <hyperlink ref="A32" location="reserve_unit_node_c!A1" display="reserve_unit_node_c" xr:uid="{78371C66-B81A-4E9B-96E1-6659A71B0BF4}"/>
-    <hyperlink ref="A24" location="group_connection!A1" display="group_connection" xr:uid="{A00C70C1-5203-41C9-BCBD-CC42FCD43017}"/>
-    <hyperlink ref="A23" location="group_c!A1" display="group_c" xr:uid="{8516B270-11A5-45FE-B8AE-F8BD21CE42EE}"/>
-    <hyperlink ref="B23" location="group_p!A1" display="group_p" xr:uid="{24A5AB85-580D-4C07-9C0C-EF096DF9B6A4}"/>
-    <hyperlink ref="A35" location="unit_node_constraint_c!A1" display="unit_node_constraint_c" xr:uid="{E752EE81-721A-467B-A89A-558EAD27CD18}"/>
-    <hyperlink ref="A34" location="constraint_sense_c!A1" display="constraint_sense_c" xr:uid="{E3638194-ABA1-4B52-B562-9CB1B5A7326A}"/>
-    <hyperlink ref="A16" location="unit_node_c!A1" display="unit_node_c" xr:uid="{588C2786-F4D1-490C-8299-996C761D1B0B}"/>
-    <hyperlink ref="C16" location="unit_node_t!A1" display="unit_node_t" xr:uid="{848C3082-4242-4C02-A2C8-1DDCCECDDCE4}"/>
-    <hyperlink ref="A15" location="unit_c!A1" display="unit_c" xr:uid="{0B24F06D-DF0D-43E9-A754-3D573B0328ED}"/>
-    <hyperlink ref="B15" location="unit_p!A1" display="unit_p" xr:uid="{6B0EC5F5-0D3E-41BB-B4D8-64F5821432A7}"/>
-    <hyperlink ref="C15" location="unit_t!A1" display="unit_t" xr:uid="{563A1A91-8913-4B2F-8BA5-4D350923C03F}"/>
-    <hyperlink ref="C18" location="profile_t!A1" display="profile_t" xr:uid="{78412094-AA9A-4901-935D-64F3C1AC7206}"/>
-    <hyperlink ref="A14" location="connection_c!A1" display="connection_c" xr:uid="{03E6664B-5F07-4921-A88F-1CC8DA8E9FAE}"/>
-    <hyperlink ref="B14" location="connection_p!A1" display="connection_p" xr:uid="{46902093-FDC0-4939-BBFD-2D41FFBE0F05}"/>
-    <hyperlink ref="C14" location="connection_t!A1" display="connection_t" xr:uid="{5D63301C-ED60-425E-8FC0-334B75B4F98C}"/>
-    <hyperlink ref="A13" location="commodity_node!A1" display="commodity_node" xr:uid="{1A8DF925-BFFA-47C2-B595-2F06AACA43EF}"/>
-    <hyperlink ref="A12" location="commodity_c!A1" display="commodity_c" xr:uid="{37D28BB2-4F57-4EDF-A58D-D5D0B0DFCD29}"/>
-    <hyperlink ref="B12" location="commodity_p!A1" display="commodity_p" xr:uid="{B8974311-BDD6-456A-9C22-7DD64599915A}"/>
-    <hyperlink ref="A11" location="node_c!A1" display="node_c" xr:uid="{96541F46-A5D0-46A0-A7C5-61D6136DE6D8}"/>
-    <hyperlink ref="B11" location="node_p!A1" display="node_p" xr:uid="{AA8FF5EE-A7C6-4A42-B219-867295F74C98}"/>
-    <hyperlink ref="C11" location="node_t!A1" display="node_t" xr:uid="{10D2F31E-4A77-4C8D-A909-F30F7DA9A1B0}"/>
+    <hyperlink ref="A31" location="reserve_unit_node_c!A1" display="reserve_connection_node_c" xr:uid="{3F855114-4A57-4E0A-A766-0317F980F4BF}"/>
+    <hyperlink ref="A29" location="group_unit_node!A1" display="group_unit_node" xr:uid="{B7C2FCA3-F9B2-4C44-95E7-EE78C953ADDA}"/>
+    <hyperlink ref="A28" location="group_unit!A1" display="group_unit" xr:uid="{B05CA82D-DD0B-41C5-A4A2-737EB6D8AF37}"/>
+    <hyperlink ref="A27" location="group_node!A1" display="group_node" xr:uid="{920BB948-3B7C-488B-B8B1-7504F3D3AD1A}"/>
+    <hyperlink ref="A26" location="group_connection_node!A1" display="group_connection_node" xr:uid="{811FD465-B06B-4481-9ED6-DE1222C0D3DE}"/>
+    <hyperlink ref="A32" location="reserve_group_c!A1" display="reserve_group_c" xr:uid="{2CFA818C-9B6A-474B-8E40-2E804C4A9677}"/>
+    <hyperlink ref="C32" location="reserve_group_t!A1" display="reserve_group_t" xr:uid="{401EE982-2E1A-4DC0-A8C5-8E9B177FDA74}"/>
+    <hyperlink ref="A33" location="reserve_unit_node_c!A1" display="reserve_unit_node_c" xr:uid="{78371C66-B81A-4E9B-96E1-6659A71B0BF4}"/>
+    <hyperlink ref="A25" location="group_connection!A1" display="group_connection" xr:uid="{A00C70C1-5203-41C9-BCBD-CC42FCD43017}"/>
+    <hyperlink ref="A24" location="group_c!A1" display="group_c" xr:uid="{8516B270-11A5-45FE-B8AE-F8BD21CE42EE}"/>
+    <hyperlink ref="B24" location="group_p!A1" display="group_p" xr:uid="{24A5AB85-580D-4C07-9C0C-EF096DF9B6A4}"/>
+    <hyperlink ref="A36" location="unit_node_constraint_c!A1" display="unit_node_constraint_c" xr:uid="{E752EE81-721A-467B-A89A-558EAD27CD18}"/>
+    <hyperlink ref="A35" location="constraint_sense_c!A1" display="constraint_sense_c" xr:uid="{E3638194-ABA1-4B52-B562-9CB1B5A7326A}"/>
+    <hyperlink ref="A17" location="unit_node_c!A1" display="unit_node_c" xr:uid="{588C2786-F4D1-490C-8299-996C761D1B0B}"/>
+    <hyperlink ref="C17" location="unit_node_t!A1" display="unit_node_t" xr:uid="{848C3082-4242-4C02-A2C8-1DDCCECDDCE4}"/>
+    <hyperlink ref="A16" location="unit_c!A1" display="unit_c" xr:uid="{0B24F06D-DF0D-43E9-A754-3D573B0328ED}"/>
+    <hyperlink ref="B16" location="unit_p!A1" display="unit_p" xr:uid="{6B0EC5F5-0D3E-41BB-B4D8-64F5821432A7}"/>
+    <hyperlink ref="C16" location="unit_t!A1" display="unit_t" xr:uid="{563A1A91-8913-4B2F-8BA5-4D350923C03F}"/>
+    <hyperlink ref="C19" location="profile_t!A1" display="profile_t" xr:uid="{78412094-AA9A-4901-935D-64F3C1AC7206}"/>
+    <hyperlink ref="A15" location="connection_c!A1" display="connection_c" xr:uid="{03E6664B-5F07-4921-A88F-1CC8DA8E9FAE}"/>
+    <hyperlink ref="B15" location="connection_p!A1" display="connection_p" xr:uid="{46902093-FDC0-4939-BBFD-2D41FFBE0F05}"/>
+    <hyperlink ref="C15" location="connection_t!A1" display="connection_t" xr:uid="{5D63301C-ED60-425E-8FC0-334B75B4F98C}"/>
+    <hyperlink ref="A14" location="commodity_node!A1" display="commodity_node" xr:uid="{1A8DF925-BFFA-47C2-B595-2F06AACA43EF}"/>
+    <hyperlink ref="A13" location="commodity_c!A1" display="commodity_c" xr:uid="{37D28BB2-4F57-4EDF-A58D-D5D0B0DFCD29}"/>
+    <hyperlink ref="B13" location="commodity_p!A1" display="commodity_p" xr:uid="{B8974311-BDD6-456A-9C22-7DD64599915A}"/>
+    <hyperlink ref="A12" location="node_c!A1" display="node_c" xr:uid="{96541F46-A5D0-46A0-A7C5-61D6136DE6D8}"/>
+    <hyperlink ref="B12" location="node_p!A1" display="node_p" xr:uid="{AA8FF5EE-A7C6-4A42-B219-867295F74C98}"/>
+    <hyperlink ref="C12" location="node_t!A1" display="node_t" xr:uid="{10D2F31E-4A77-4C8D-A909-F30F7DA9A1B0}"/>
     <hyperlink ref="A8" location="timeblockSet_timeline!A1" display="timeblockSet_timeline" xr:uid="{7E649E3B-8603-412B-85C7-55801419EDEB}"/>
     <hyperlink ref="C7" location="timeline_t!A1" display="timeline_t" xr:uid="{0049663E-A2F9-49A0-A576-07D0A457655D}"/>
     <hyperlink ref="A7" location="timeline_s!A1" display="timeline_s" xr:uid="{252B2493-68D2-4C5E-A6EA-89A71C7FBE09}"/>
     <hyperlink ref="A2" location="version!A1" display="version" xr:uid="{5528FB5D-B49F-4A94-B79B-BD7CACBF6421}"/>
-    <hyperlink ref="A20" location="unit_profile_c!A1" display="unit_profile_c" xr:uid="{BFEE1E54-8BED-43DB-81D7-EF22B030644E}"/>
-    <hyperlink ref="A21" location="unit_profile_c!A1" display="unit_profile_c" xr:uid="{F130C8C0-C1F9-49C3-9475-FD4618C13C76}"/>
-    <hyperlink ref="A19" location="unit_profile_c!A1" display="unit_profile_c" xr:uid="{844403FD-DCCB-46C7-BE3C-C68DCAAB6B04}"/>
-    <hyperlink ref="A19:C19" location="node_profile_c!A1" display="node_profile_c" xr:uid="{826B47E5-87EB-412A-A0AE-C49CDB5CEB93}"/>
-    <hyperlink ref="A20:C20" location="connection_profile_c!A1" display="connection_profile_c" xr:uid="{DB781E38-3ACC-4F21-8D1E-B47D2A016C51}"/>
-    <hyperlink ref="A21:C21" location="unit_node_profile_c!A1" display="unit_profile_c" xr:uid="{B2BA97AF-8BE5-4D5F-8341-41044F5963AA}"/>
+    <hyperlink ref="A21" location="unit_profile_c!A1" display="unit_profile_c" xr:uid="{BFEE1E54-8BED-43DB-81D7-EF22B030644E}"/>
+    <hyperlink ref="A22" location="unit_profile_c!A1" display="unit_profile_c" xr:uid="{F130C8C0-C1F9-49C3-9475-FD4618C13C76}"/>
+    <hyperlink ref="A20" location="unit_profile_c!A1" display="unit_profile_c" xr:uid="{844403FD-DCCB-46C7-BE3C-C68DCAAB6B04}"/>
+    <hyperlink ref="A20:C20" location="node_profile_c!A1" display="node_profile_c" xr:uid="{826B47E5-87EB-412A-A0AE-C49CDB5CEB93}"/>
+    <hyperlink ref="A21:C21" location="connection_profile_c!A1" display="connection_profile_c" xr:uid="{DB781E38-3ACC-4F21-8D1E-B47D2A016C51}"/>
+    <hyperlink ref="A22:C22" location="unit_node_profile_c!A1" display="unit_profile_c" xr:uid="{B2BA97AF-8BE5-4D5F-8341-41044F5963AA}"/>
     <hyperlink ref="A4" location="solve_period!A1" display="solve_period" xr:uid="{1A642A0E-886B-4C5F-9459-AF06B635D1C8}"/>
     <hyperlink ref="A5" location="solve_sequence!A1" display="solve_sequence" xr:uid="{3B08721C-A5BF-4AD9-9840-41F099D6F77C}"/>
     <hyperlink ref="A6" location="timeblockSet!A1" display="timeblockSet" xr:uid="{4C69C415-5F99-4696-8AE3-CE2F554DC3A9}"/>
     <hyperlink ref="A3" location="scenario!B3" display="scenario" xr:uid="{6595CB33-4050-4638-93A2-B2C50D1ED6D3}"/>
-    <hyperlink ref="A37" location="node_constraint_c!A1" display="node_constraint_c" xr:uid="{AC3AB525-A059-400D-8A88-BB691B8190B0}"/>
-    <hyperlink ref="A38" location="unit_constraint_c!A1" display="unit_constraint_c" xr:uid="{52E2C769-7950-491B-8D4F-A3098C5C0800}"/>
-    <hyperlink ref="A39" location="connection_constraint_c!A1" display="connection_constraint_c" xr:uid="{4F42D9DB-BE6E-4724-A8BC-46902175E215}"/>
-    <hyperlink ref="A36" location="connection_node_constraint_c!A1" display="connection_node_constraint_c" xr:uid="{8884D5A7-21E8-46CA-9DDB-FA2BA31F034A}"/>
+    <hyperlink ref="A38" location="node_constraint_c!A1" display="node_constraint_c" xr:uid="{AC3AB525-A059-400D-8A88-BB691B8190B0}"/>
+    <hyperlink ref="A39" location="unit_constraint_c!A1" display="unit_constraint_c" xr:uid="{52E2C769-7950-491B-8D4F-A3098C5C0800}"/>
+    <hyperlink ref="A40" location="connection_constraint_c!A1" display="connection_constraint_c" xr:uid="{4F42D9DB-BE6E-4724-A8BC-46902175E215}"/>
+    <hyperlink ref="A37" location="connection_node_constraint_c!A1" display="connection_node_constraint_c" xr:uid="{8884D5A7-21E8-46CA-9DDB-FA2BA31F034A}"/>
     <hyperlink ref="A9" location="solve_commands!A1" display="solve_commands" xr:uid="{8D72B1F0-8235-4F44-A670-254B53148E29}"/>
+    <hyperlink ref="A10" location="optional_outputs!A1" display="optional_outputs" xr:uid="{CEBE0D39-4AF1-4C73-8380-3A7E975CFB9C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
@@ -3955,7 +4015,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A4889F5-3956-475B-A853-BA105023BA1D}">
   <dimension ref="A1:AH9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
@@ -5889,16 +5949,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4446509C-CB62-4FDB-A8D2-BE0D15E8AAF2}">
-  <dimension ref="A1:D40"/>
+  <dimension ref="A1:D41"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B41" sqref="B41"/>
+      <selection activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.140625" customWidth="1"/>
-    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15" customWidth="1"/>
   </cols>
   <sheetData>
@@ -6437,6 +6497,20 @@
       </c>
       <c r="D40" t="s">
         <v>520</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>23</v>
+      </c>
+      <c r="B41" s="25">
+        <v>45282</v>
+      </c>
+      <c r="C41" t="s">
+        <v>519</v>
+      </c>
+      <c r="D41" t="s">
+        <v>542</v>
       </c>
     </row>
   </sheetData>
@@ -10761,6 +10835,121 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9360ADFF-4DA4-424D-81E2-83D3CB4EF97B}">
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="38.7109375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="14" style="52" customWidth="1"/>
+    <col min="4" max="4" width="117.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="37" t="s">
+        <v>232</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="50"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>323</v>
+      </c>
+      <c r="C2" s="51" t="s">
+        <v>527</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>529</v>
+      </c>
+      <c r="D3" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>530</v>
+      </c>
+      <c r="D4" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>531</v>
+      </c>
+      <c r="D5" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>532</v>
+      </c>
+      <c r="D6" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>533</v>
+      </c>
+      <c r="D7" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>534</v>
+      </c>
+      <c r="C8" s="52" t="s">
+        <v>148</v>
+      </c>
+      <c r="D8" t="s">
+        <v>540</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" location="navigate!A1" display="navigate" xr:uid="{714DE2DC-5C1E-48BB-85FF-E3051838D903}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9640D032-37A5-47CC-8407-C4F7168BB93B}">
   <dimension ref="A1:R11"/>
@@ -11240,7 +11429,7 @@
       <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G13" sqref="G13"/>
+      <selection pane="bottomRight" sqref="A1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/FlexTool_import_template.xlsx
+++ b/FlexTool_import_template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AETART\Documents\flextool\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{101B3C87-F035-4351-9E32-0B89C628E0C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2B70396-CE37-49F7-B85E-98CA1D809995}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15" yWindow="-18120" windowWidth="29040" windowHeight="17640" tabRatio="1000" firstSheet="35" activeTab="45" xr2:uid="{D5BEC09F-8FA9-46E6-8F36-396DCDACE376}"/>
+    <workbookView xWindow="15" yWindow="-18120" windowWidth="29040" windowHeight="17640" tabRatio="1000" activeTab="28" xr2:uid="{D5BEC09F-8FA9-46E6-8F36-396DCDACE376}"/>
   </bookViews>
   <sheets>
     <sheet name="navigate" sheetId="54" r:id="rId1"/>
@@ -207,7 +207,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1479" uniqueCount="543">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1482" uniqueCount="546">
   <si>
     <t>commodity</t>
   </si>
@@ -1836,6 +1836,15 @@
   </si>
   <si>
     <t>Added optional_outputs sheet and the output_aggregate_flows and output_node_flows to the group_c</t>
+  </si>
+  <si>
+    <t>Force the upward slack of the nodes in this group to be equal or inflow (demand) weighted</t>
+  </si>
+  <si>
+    <t>share_loss_of_load</t>
+  </si>
+  <si>
+    <t>inflow_weighted</t>
   </si>
 </sst>
 </file>
@@ -8522,13 +8531,13 @@
 
 <file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17A58EF0-B113-4E3B-A099-AB516EC20AF0}">
-  <dimension ref="A1:X7"/>
+  <dimension ref="A1:Y7"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F13" sqref="F13"/>
+      <selection pane="bottomRight" activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8559,7 +8568,7 @@
     <col min="26" max="30" width="11.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" s="37" t="s">
         <v>232</v>
       </c>
@@ -8630,8 +8639,11 @@
       <c r="X1" t="s">
         <v>335</v>
       </c>
-    </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y1" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>1</v>
       </c>
@@ -8704,8 +8716,11 @@
       <c r="X2" s="9" t="s">
         <v>342</v>
       </c>
-    </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y2" s="9" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>27</v>
       </c>
@@ -8720,7 +8735,7 @@
       </c>
       <c r="R3" s="47"/>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>27</v>
       </c>
@@ -8740,7 +8755,7 @@
         <v>5500</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>303</v>
       </c>
@@ -8754,7 +8769,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>329</v>
       </c>
@@ -8768,7 +8783,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>27</v>
       </c>
@@ -8777,6 +8792,9 @@
       </c>
       <c r="C7" t="s">
         <v>148</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>545</v>
       </c>
     </row>
   </sheetData>
@@ -10839,7 +10857,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9360ADFF-4DA4-424D-81E2-83D3CB4EF97B}">
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>

--- a/FlexTool_import_template.xlsx
+++ b/FlexTool_import_template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AETART\Documents\flextool\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2B70396-CE37-49F7-B85E-98CA1D809995}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB93A695-3C01-497C-8355-492643BFADA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15" yWindow="-18120" windowWidth="29040" windowHeight="17640" tabRatio="1000" activeTab="28" xr2:uid="{D5BEC09F-8FA9-46E6-8F36-396DCDACE376}"/>
+    <workbookView xWindow="28815" yWindow="-18120" windowWidth="29040" windowHeight="17640" tabRatio="1000" firstSheet="2" activeTab="2" xr2:uid="{D5BEC09F-8FA9-46E6-8F36-396DCDACE376}"/>
   </bookViews>
   <sheets>
     <sheet name="navigate" sheetId="54" r:id="rId1"/>
@@ -207,7 +207,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1482" uniqueCount="546">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1459" uniqueCount="542">
   <si>
     <t>commodity</t>
   </si>
@@ -719,12 +719,6 @@
     <t>A flag whether has a state variable (storage). If empty, then not true. Use 'yes' to indicate true.</t>
   </si>
   <si>
-    <t>Can the unit provide this reserve. Empty indicates not allowed. Use 'yes' to indicate true.</t>
-  </si>
-  <si>
-    <t>Can the connection provide this reserve. Empty indicates not allowed. Use 'yes' to indicate true.</t>
-  </si>
-  <si>
     <t>Map of timestep durations. Index: timestep name, value: duration of time step [in hours].</t>
   </si>
   <si>
@@ -1043,9 +1037,6 @@
     <t>Whether the unit is present in the alternative.</t>
   </si>
   <si>
-    <t>Whether the node is present in the alternative.</t>
-  </si>
-  <si>
     <t>Battery</t>
   </si>
   <si>
@@ -1104,9 +1095,6 @@
   </si>
   <si>
     <t>Added 'efficiency_at_min_load' and 'min_load' to unit_t sheet.</t>
-  </si>
-  <si>
-    <t>Whether the constraint is active.</t>
   </si>
   <si>
     <t>9.2</t>
@@ -3095,7 +3083,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>34</xdr:col>
+      <xdr:col>33</xdr:col>
       <xdr:colOff>161925</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
@@ -3613,88 +3601,88 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="46" t="s">
+        <v>263</v>
+      </c>
+      <c r="B1" s="46" t="s">
         <v>265</v>
       </c>
-      <c r="B1" s="46" t="s">
-        <v>267</v>
-      </c>
       <c r="C1" s="46" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="43" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B2" s="43"/>
       <c r="C2" s="43"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="43" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="B3" s="43"/>
       <c r="C3" s="43"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="43" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B4" s="43"/>
       <c r="C4" s="43"/>
       <c r="E4" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="43" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B5" s="43"/>
       <c r="C5" s="43"/>
       <c r="E5" s="5" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="43" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B6" s="43"/>
       <c r="C6" s="43"/>
       <c r="E6" s="5" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="29" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B7" s="30"/>
       <c r="C7" s="29" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="43" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B8" s="43"/>
       <c r="C8" s="43"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="43" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="B9" s="43"/>
       <c r="C9" s="43"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="43" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="B10" s="43"/>
       <c r="C10" s="43"/>
@@ -3704,65 +3692,65 @@
       <c r="B11" s="27"/>
       <c r="C11" s="27"/>
       <c r="E11" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="31" t="s">
+        <v>198</v>
+      </c>
+      <c r="B12" s="31" t="s">
+        <v>199</v>
+      </c>
+      <c r="C12" s="31" t="s">
         <v>200</v>
-      </c>
-      <c r="B12" s="31" t="s">
-        <v>201</v>
-      </c>
-      <c r="C12" s="31" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="31" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B13" s="31" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C13" s="32"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="44" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B14" s="44"/>
       <c r="C14" s="44"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="31" t="s">
+        <v>204</v>
+      </c>
+      <c r="B15" s="31" t="s">
+        <v>205</v>
+      </c>
+      <c r="C15" s="31" t="s">
         <v>206</v>
-      </c>
-      <c r="B15" s="31" t="s">
-        <v>207</v>
-      </c>
-      <c r="C15" s="31" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="31" t="s">
+        <v>223</v>
+      </c>
+      <c r="B16" s="31" t="s">
+        <v>224</v>
+      </c>
+      <c r="C16" s="31" t="s">
         <v>225</v>
-      </c>
-      <c r="B16" s="31" t="s">
-        <v>226</v>
-      </c>
-      <c r="C16" s="31" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="31" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B17" s="32"/>
       <c r="C17" s="31" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -3774,26 +3762,26 @@
       <c r="A19" s="39"/>
       <c r="B19" s="39"/>
       <c r="C19" s="40" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="45" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B20" s="45"/>
       <c r="C20" s="45"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="45" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B21" s="45"/>
       <c r="C21" s="45"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="45" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B22" s="45"/>
       <c r="C22" s="45"/>
@@ -3805,45 +3793,45 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="34" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B24" s="34" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C24" s="34"/>
       <c r="D24" s="28"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="41" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B25" s="41"/>
       <c r="C25" s="41"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="41" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B26" s="41"/>
       <c r="C26" s="41"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="41" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B27" s="41"/>
       <c r="C27" s="41"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="41" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B28" s="41"/>
       <c r="C28" s="41"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="41" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B29" s="41"/>
       <c r="C29" s="41"/>
@@ -3855,65 +3843,65 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="42" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B31" s="42"/>
       <c r="C31" s="42"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="35" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B32" s="36"/>
       <c r="C32" s="35" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="42" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B33" s="42"/>
       <c r="C33" s="42"/>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="48" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B35" s="48"/>
       <c r="C35" s="48"/>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="48" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B36" s="48"/>
       <c r="C36" s="48"/>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="48" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="B37" s="48"/>
       <c r="C37" s="48"/>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="48" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="B38" s="48"/>
       <c r="C38" s="48"/>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="48" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="B39" s="48"/>
       <c r="C39" s="48"/>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="48" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="B40" s="48"/>
       <c r="C40" s="48"/>
@@ -3992,7 +3980,7 @@
   <sheetData>
     <row r="1" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B1" s="7" t="s">
         <v>101</v>
@@ -4022,255 +4010,248 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A4889F5-3956-475B-A853-BA105023BA1D}">
-  <dimension ref="A1:AH9"/>
+  <dimension ref="A1:AG9"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E5" sqref="E5"/>
+      <selection pane="bottomRight" activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="16.42578125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" customWidth="1"/>
-    <col min="4" max="4" width="11.7109375" customWidth="1"/>
-    <col min="5" max="5" width="15" customWidth="1"/>
-    <col min="6" max="6" width="11.42578125" customWidth="1"/>
-    <col min="7" max="7" width="15" customWidth="1"/>
-    <col min="8" max="8" width="15.85546875" customWidth="1"/>
-    <col min="9" max="9" width="19.42578125" customWidth="1"/>
-    <col min="10" max="10" width="23.140625" customWidth="1"/>
-    <col min="11" max="11" width="25.140625" customWidth="1"/>
-    <col min="12" max="12" width="29.28515625" customWidth="1"/>
-    <col min="13" max="13" width="7.28515625" customWidth="1"/>
-    <col min="14" max="14" width="12" customWidth="1"/>
-    <col min="15" max="15" width="10.42578125" customWidth="1"/>
-    <col min="16" max="16" width="13.7109375" customWidth="1"/>
-    <col min="17" max="17" width="11.7109375" customWidth="1"/>
-    <col min="18" max="18" width="9.5703125" customWidth="1"/>
-    <col min="19" max="19" width="10.5703125" customWidth="1"/>
-    <col min="20" max="20" width="10.28515625" customWidth="1"/>
-    <col min="21" max="21" width="10.140625" style="14" customWidth="1"/>
-    <col min="22" max="22" width="9.85546875" style="14" customWidth="1"/>
-    <col min="23" max="23" width="10.85546875" style="14" customWidth="1"/>
-    <col min="24" max="24" width="13.42578125" customWidth="1"/>
-    <col min="25" max="25" width="12.7109375" style="14" customWidth="1"/>
-    <col min="26" max="26" width="10.5703125" customWidth="1"/>
-    <col min="27" max="27" width="8.140625" customWidth="1"/>
-    <col min="28" max="29" width="18.140625" customWidth="1"/>
-    <col min="30" max="30" width="16.85546875" customWidth="1"/>
-    <col min="31" max="32" width="29.140625" customWidth="1"/>
-    <col min="33" max="33" width="14.7109375" customWidth="1"/>
-    <col min="34" max="34" width="10" customWidth="1"/>
+    <col min="3" max="3" width="11.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" customWidth="1"/>
+    <col min="6" max="6" width="15" customWidth="1"/>
+    <col min="7" max="7" width="15.85546875" customWidth="1"/>
+    <col min="8" max="8" width="19.42578125" customWidth="1"/>
+    <col min="9" max="9" width="23.140625" customWidth="1"/>
+    <col min="10" max="10" width="25.140625" customWidth="1"/>
+    <col min="11" max="11" width="29.28515625" customWidth="1"/>
+    <col min="12" max="12" width="7.28515625" customWidth="1"/>
+    <col min="13" max="13" width="12" customWidth="1"/>
+    <col min="14" max="14" width="10.42578125" customWidth="1"/>
+    <col min="15" max="15" width="13.7109375" customWidth="1"/>
+    <col min="16" max="16" width="11.7109375" customWidth="1"/>
+    <col min="17" max="17" width="9.5703125" customWidth="1"/>
+    <col min="18" max="18" width="10.5703125" customWidth="1"/>
+    <col min="19" max="19" width="10.28515625" customWidth="1"/>
+    <col min="20" max="20" width="10.140625" style="14" customWidth="1"/>
+    <col min="21" max="21" width="9.85546875" style="14" customWidth="1"/>
+    <col min="22" max="22" width="10.85546875" style="14" customWidth="1"/>
+    <col min="23" max="23" width="13.42578125" customWidth="1"/>
+    <col min="24" max="24" width="12.7109375" style="14" customWidth="1"/>
+    <col min="25" max="25" width="10.5703125" customWidth="1"/>
+    <col min="26" max="26" width="8.140625" customWidth="1"/>
+    <col min="27" max="28" width="18.140625" customWidth="1"/>
+    <col min="29" max="29" width="16.85546875" customWidth="1"/>
+    <col min="30" max="31" width="29.140625" customWidth="1"/>
+    <col min="32" max="32" width="14.7109375" customWidth="1"/>
+    <col min="33" max="33" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A1" s="37" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" t="s">
-        <v>278</v>
+        <v>168</v>
       </c>
       <c r="D1" t="s">
-        <v>168</v>
+        <v>467</v>
       </c>
       <c r="E1" t="s">
-        <v>471</v>
+        <v>169</v>
       </c>
       <c r="F1" t="s">
-        <v>169</v>
+        <v>468</v>
       </c>
       <c r="G1" t="s">
-        <v>472</v>
+        <v>501</v>
       </c>
       <c r="H1" t="s">
-        <v>505</v>
+        <v>508</v>
       </c>
       <c r="I1" t="s">
-        <v>512</v>
+        <v>432</v>
       </c>
       <c r="J1" t="s">
-        <v>436</v>
-      </c>
-      <c r="K1" t="s">
-        <v>427</v>
-      </c>
-      <c r="L1" s="5" t="s">
-        <v>419</v>
+        <v>423</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>415</v>
+      </c>
+      <c r="L1" t="s">
+        <v>157</v>
       </c>
       <c r="M1" t="s">
-        <v>157</v>
+        <v>452</v>
       </c>
       <c r="N1" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="O1" t="s">
-        <v>457</v>
+        <v>342</v>
       </c>
       <c r="P1" t="s">
+        <v>343</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>65</v>
+      </c>
+      <c r="R1" t="s">
+        <v>68</v>
+      </c>
+      <c r="S1" t="s">
+        <v>279</v>
+      </c>
+      <c r="T1" t="s">
+        <v>69</v>
+      </c>
+      <c r="U1" t="s">
+        <v>280</v>
+      </c>
+      <c r="V1" t="s">
+        <v>344</v>
+      </c>
+      <c r="W1" t="s">
+        <v>345</v>
+      </c>
+      <c r="X1" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y1" t="s">
         <v>346</v>
       </c>
-      <c r="Q1" t="s">
-        <v>347</v>
-      </c>
-      <c r="R1" t="s">
-        <v>65</v>
-      </c>
-      <c r="S1" t="s">
-        <v>68</v>
-      </c>
-      <c r="T1" t="s">
-        <v>282</v>
-      </c>
-      <c r="U1" t="s">
-        <v>69</v>
-      </c>
-      <c r="V1" t="s">
-        <v>283</v>
-      </c>
-      <c r="W1" t="s">
-        <v>348</v>
-      </c>
-      <c r="X1" t="s">
-        <v>349</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>19</v>
-      </c>
       <c r="Z1" t="s">
-        <v>350</v>
+        <v>22</v>
       </c>
       <c r="AA1" t="s">
-        <v>22</v>
+        <v>70</v>
       </c>
       <c r="AB1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>413</v>
-      </c>
-      <c r="AD1" s="5" t="s">
-        <v>415</v>
+        <v>409</v>
+      </c>
+      <c r="AC1" s="5" t="s">
+        <v>411</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>412</v>
       </c>
       <c r="AE1" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="AF1" t="s">
-        <v>422</v>
-      </c>
-      <c r="AG1" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="2" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="2" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="C2" s="24" t="s">
-        <v>280</v>
+      <c r="C2" s="9" t="s">
+        <v>58</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>58</v>
+        <v>246</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>248</v>
+        <v>424</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>428</v>
+        <v>11</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>11</v>
+        <v>500</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>504</v>
+        <v>517</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>521</v>
+        <v>407</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="K2" s="9" t="s">
+        <v>414</v>
+      </c>
+      <c r="L2" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="M2" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="N2" s="9" t="s">
+        <v>454</v>
+      </c>
+      <c r="O2" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="P2" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q2" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="R2" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="S2" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="T2" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="U2" s="9" t="s">
+        <v>281</v>
+      </c>
+      <c r="V2" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="W2" s="24" t="s">
+        <v>234</v>
+      </c>
+      <c r="X2" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y2" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z2" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA2" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="AB2" s="9" t="s">
+        <v>408</v>
+      </c>
+      <c r="AC2" s="9" t="s">
+        <v>410</v>
+      </c>
+      <c r="AD2" s="9" t="s">
+        <v>416</v>
+      </c>
+      <c r="AE2" s="9" t="s">
         <v>417</v>
       </c>
-      <c r="L2" s="9" t="s">
-        <v>418</v>
-      </c>
-      <c r="M2" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="N2" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="O2" s="9" t="s">
-        <v>458</v>
-      </c>
-      <c r="P2" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q2" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="R2" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="S2" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="T2" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="U2" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="V2" s="9" t="s">
-        <v>284</v>
-      </c>
-      <c r="W2" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="X2" s="24" t="s">
-        <v>236</v>
-      </c>
-      <c r="Y2" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="Z2" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA2" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="AB2" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="AC2" s="9" t="s">
-        <v>412</v>
-      </c>
-      <c r="AD2" s="9" t="s">
-        <v>414</v>
-      </c>
-      <c r="AE2" s="9" t="s">
-        <v>420</v>
-      </c>
       <c r="AF2" s="9" t="s">
-        <v>421</v>
+        <v>63</v>
       </c>
       <c r="AG2" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="AH2" s="9" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>27</v>
       </c>
@@ -4280,22 +4261,19 @@
       <c r="C3" s="14" t="s">
         <v>148</v>
       </c>
-      <c r="D3" s="14" t="s">
-        <v>148</v>
-      </c>
+      <c r="D3" s="14"/>
       <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3" t="s">
+      <c r="F3" t="s">
         <v>137</v>
+      </c>
+      <c r="O3">
+        <v>10000</v>
       </c>
       <c r="P3">
         <v>10000</v>
       </c>
-      <c r="Q3">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>27</v>
       </c>
@@ -4306,174 +4284,159 @@
         <v>148</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>148</v>
-      </c>
-      <c r="E4" s="14" t="s">
-        <v>379</v>
-      </c>
-      <c r="F4" s="14"/>
-      <c r="G4" t="s">
+        <v>375</v>
+      </c>
+      <c r="E4" s="14"/>
+      <c r="F4" t="s">
         <v>137</v>
       </c>
-      <c r="N4">
+      <c r="M4">
         <f>100*8760</f>
         <v>876000</v>
       </c>
+      <c r="O4">
+        <v>10000</v>
+      </c>
       <c r="P4">
         <v>10000</v>
       </c>
-      <c r="Q4">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="C5" s="14" t="s">
-        <v>148</v>
-      </c>
-      <c r="G5" t="s">
+      <c r="F5" t="s">
         <v>137</v>
+      </c>
+      <c r="O5">
+        <v>10000</v>
       </c>
       <c r="P5">
         <v>10000</v>
       </c>
-      <c r="Q5">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="C6" s="14" t="s">
-        <v>148</v>
-      </c>
-      <c r="G6" t="s">
+      <c r="F6" t="s">
         <v>137</v>
+      </c>
+      <c r="O6">
+        <v>10000</v>
       </c>
       <c r="P6">
         <v>10000</v>
       </c>
-      <c r="Q6">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="C7" s="14" t="s">
+        <v>255</v>
+      </c>
+      <c r="C7" t="s">
         <v>148</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>148</v>
       </c>
       <c r="F7" t="s">
-        <v>148</v>
-      </c>
-      <c r="G7" t="s">
         <v>137</v>
       </c>
+      <c r="I7" t="s">
+        <v>422</v>
+      </c>
       <c r="J7" t="s">
-        <v>426</v>
+        <v>419</v>
       </c>
       <c r="K7" t="s">
-        <v>423</v>
-      </c>
-      <c r="L7" t="s">
-        <v>424</v>
+        <v>420</v>
+      </c>
+      <c r="O7">
+        <v>12000</v>
       </c>
       <c r="P7">
         <v>12000</v>
       </c>
       <c r="Q7">
+        <v>20</v>
+      </c>
+      <c r="AA7">
+        <v>0.01</v>
+      </c>
+      <c r="AB7">
+        <v>0.1</v>
+      </c>
+      <c r="AD7">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="C8" t="s">
+        <v>148</v>
+      </c>
+      <c r="E8" t="s">
+        <v>148</v>
+      </c>
+      <c r="F8" t="s">
+        <v>137</v>
+      </c>
+      <c r="I8" t="s">
+        <v>446</v>
+      </c>
+      <c r="J8" t="s">
+        <v>419</v>
+      </c>
+      <c r="O8">
         <v>12000</v>
-      </c>
-      <c r="R7">
-        <v>20</v>
-      </c>
-      <c r="AB7">
-        <v>0.01</v>
-      </c>
-      <c r="AC7">
-        <v>0.1</v>
-      </c>
-      <c r="AE7">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>380</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>387</v>
-      </c>
-      <c r="C8" s="14" t="s">
-        <v>148</v>
-      </c>
-      <c r="D8" t="s">
-        <v>148</v>
-      </c>
-      <c r="F8" t="s">
-        <v>148</v>
-      </c>
-      <c r="G8" t="s">
-        <v>137</v>
-      </c>
-      <c r="J8" t="s">
-        <v>450</v>
-      </c>
-      <c r="K8" t="s">
-        <v>423</v>
       </c>
       <c r="P8">
         <v>12000</v>
       </c>
       <c r="Q8">
-        <v>12000</v>
-      </c>
-      <c r="R8">
         <v>10000000</v>
       </c>
-      <c r="AC8">
+      <c r="AB8">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="G9" t="s">
-        <v>437</v>
-      </c>
-      <c r="S9">
+        <v>255</v>
+      </c>
+      <c r="F9" t="s">
+        <v>433</v>
+      </c>
+      <c r="R9">
         <v>800</v>
       </c>
-      <c r="W9" s="14">
+      <c r="V9" s="14">
         <v>200</v>
       </c>
-      <c r="Y9" s="14">
+      <c r="X9" s="14">
         <v>0.05</v>
       </c>
-      <c r="AA9">
+      <c r="Z9">
         <v>10</v>
       </c>
-      <c r="AG9">
+      <c r="AF9">
         <v>1</v>
       </c>
     </row>
@@ -4516,7 +4479,7 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="37" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -4524,7 +4487,7 @@
         <v>64</v>
       </c>
       <c r="E1" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="F1" t="s">
         <v>66</v>
@@ -4533,19 +4496,19 @@
         <v>67</v>
       </c>
       <c r="H1" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="I1" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="J1" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="K1" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="L1" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="M1" t="s">
         <v>19</v>
@@ -4554,7 +4517,7 @@
         <v>22</v>
       </c>
       <c r="O1" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4571,7 +4534,7 @@
         <v>57</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="F2" s="9" t="s">
         <v>8</v>
@@ -4586,13 +4549,13 @@
         <v>13</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="K2" s="9" t="s">
         <v>7</v>
       </c>
       <c r="L2" s="24" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="M2" s="9" t="s">
         <v>6</v>
@@ -4648,7 +4611,7 @@
         <v>138</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D5">
         <f>250*8760*1.1</f>
@@ -4674,7 +4637,7 @@
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="E1" sqref="E1"/>
+      <selection pane="bottomRight" activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4687,7 +4650,7 @@
   <sheetData>
     <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="37" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B1" s="8" t="s">
         <v>1</v>
@@ -5020,14 +4983,14 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="37" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B1"/>
       <c r="C1" t="s">
         <v>71</v>
       </c>
       <c r="D1" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -5098,12 +5061,12 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="37" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B1"/>
       <c r="C1"/>
       <c r="D1" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -5156,7 +5119,7 @@
         <v>150</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D5">
         <v>22</v>
@@ -5232,7 +5195,7 @@
       <pane xSplit="4" ySplit="2" topLeftCell="V3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="Y5" sqref="Y5"/>
+      <selection pane="bottomRight" activeCell="AJ19" sqref="AJ19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5264,13 +5227,13 @@
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" s="37" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B1" s="37"/>
       <c r="C1" s="37"/>
       <c r="D1" s="3"/>
       <c r="E1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="F1" t="s">
         <v>166</v>
@@ -5279,13 +5242,13 @@
         <v>167</v>
       </c>
       <c r="H1" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="I1" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="J1" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="K1" t="s">
         <v>158</v>
@@ -5297,19 +5260,19 @@
         <v>21</v>
       </c>
       <c r="N1" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="O1" t="s">
         <v>24</v>
       </c>
       <c r="P1" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="Q1" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="R1" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="S1" t="s">
         <v>19</v>
@@ -5318,16 +5281,16 @@
         <v>22</v>
       </c>
       <c r="U1" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="V1" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="W1" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="X1" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.25">
@@ -5338,13 +5301,13 @@
         <v>25</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="E2" s="24" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="F2" s="9" t="s">
         <v>17</v>
@@ -5356,10 +5319,10 @@
         <v>11</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="K2" s="9" t="s">
         <v>15</v>
@@ -5377,13 +5340,13 @@
         <v>14</v>
       </c>
       <c r="P2" s="9" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="Q2" s="9" t="s">
         <v>7</v>
       </c>
       <c r="R2" s="9" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="S2" s="9" t="s">
         <v>6</v>
@@ -5395,7 +5358,7 @@
         <v>5</v>
       </c>
       <c r="V2" s="9" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="W2" s="9" t="s">
         <v>3</v>
@@ -5404,7 +5367,7 @@
         <v>63</v>
       </c>
       <c r="Y2" s="24" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
@@ -5441,16 +5404,16 @@
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>138</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="E4" t="s">
         <v>148</v>
@@ -5476,7 +5439,7 @@
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>30</v>
@@ -5488,7 +5451,7 @@
         <v>139</v>
       </c>
       <c r="H5" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="M5">
         <v>100</v>
@@ -5508,19 +5471,19 @@
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>138</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="H6" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="M6">
         <v>100</v>
@@ -5577,7 +5540,7 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="37" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -5585,19 +5548,19 @@
         <v>20</v>
       </c>
       <c r="E1" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="F1" t="s">
         <v>23</v>
       </c>
       <c r="G1" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="H1" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="I1" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="J1" t="s">
         <v>19</v>
@@ -5606,10 +5569,10 @@
         <v>22</v>
       </c>
       <c r="L1" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="M1" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
@@ -5632,13 +5595,13 @@
         <v>13</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="H2" s="9" t="s">
         <v>7</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="J2" s="9" t="s">
         <v>6</v>
@@ -5650,7 +5613,7 @@
         <v>5</v>
       </c>
       <c r="M2" s="9" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
@@ -5689,7 +5652,7 @@
         <v>30</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D5">
         <v>150</v>
@@ -5724,7 +5687,7 @@
   <sheetData>
     <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="37" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B1" s="8" t="s">
         <v>1</v>
@@ -5973,525 +5936,525 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>171</v>
+      </c>
+      <c r="B3" t="s">
         <v>173</v>
       </c>
-      <c r="B3" t="s">
-        <v>175</v>
-      </c>
       <c r="C3" t="s">
+        <v>174</v>
+      </c>
+      <c r="D3" t="s">
         <v>176</v>
-      </c>
-      <c r="D3" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B4" s="25">
         <v>44594</v>
       </c>
       <c r="C4" t="s">
+        <v>175</v>
+      </c>
+      <c r="D4" t="s">
         <v>177</v>
-      </c>
-      <c r="D4" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B5" s="25">
         <v>44595</v>
       </c>
       <c r="C5" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D5" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B6" s="25">
         <v>44600</v>
       </c>
       <c r="C6" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D6" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B7" s="25">
         <v>44602</v>
       </c>
       <c r="C7" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D7" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B8" s="25">
         <v>44602</v>
       </c>
       <c r="C8" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D8" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B9" s="25">
         <v>44602</v>
       </c>
       <c r="C9" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D9" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B10" s="25">
         <v>44602</v>
       </c>
       <c r="C10" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D10" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B11" s="25">
         <v>44603</v>
       </c>
       <c r="C11" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D11" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B12" s="25">
         <v>44605</v>
       </c>
       <c r="C12" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D12" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B13" s="25">
         <v>44605</v>
       </c>
       <c r="C13" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D13" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B14" s="25">
         <v>44605</v>
       </c>
       <c r="C14" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D14" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B15" s="25">
         <v>44635</v>
       </c>
       <c r="C15" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D15" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="B16" s="25">
         <v>44643</v>
       </c>
       <c r="C16" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D16" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="B17" s="25">
         <v>44643</v>
       </c>
       <c r="C17" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D17" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="B18" s="25">
         <v>44643</v>
       </c>
       <c r="C18" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D18" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="B19" s="25">
         <v>44656</v>
       </c>
       <c r="C19" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D19" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="B20" s="25">
         <v>44657</v>
       </c>
       <c r="C20" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D20" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="B21" s="25">
         <v>44657</v>
       </c>
       <c r="C21" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D21" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="B22" s="25">
         <v>44680</v>
       </c>
       <c r="C22" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D22" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="B23" s="25">
         <v>44680</v>
       </c>
       <c r="C23" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D23" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="B24" s="25">
         <v>44690</v>
       </c>
       <c r="C24" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D24" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="B25" s="25">
         <v>44695</v>
       </c>
       <c r="C25" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D25" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="B26" s="25">
         <v>44701</v>
       </c>
       <c r="C26" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D26" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="B27" s="25">
         <v>44701</v>
       </c>
       <c r="C27" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D27" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="B28" s="25">
         <v>44712</v>
       </c>
       <c r="C28" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D28" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="B29" s="25">
         <v>44727</v>
       </c>
       <c r="C29" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D29" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="B30" s="25">
         <v>44734</v>
       </c>
       <c r="C30" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D30" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="B31" s="25">
         <v>44741</v>
       </c>
       <c r="C31" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D31" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="B32" s="25">
         <v>44840</v>
       </c>
       <c r="C32" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D32" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="B33" s="25">
         <v>44850</v>
       </c>
       <c r="C33" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D33" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="B34" s="25">
         <v>44875</v>
       </c>
       <c r="C34" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D34" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="B35" s="25">
         <v>44876</v>
       </c>
       <c r="C35" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D35" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="B36" s="25">
         <v>44889</v>
       </c>
       <c r="C36" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D36" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="B37" s="25">
         <v>44893</v>
       </c>
       <c r="C37" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D37" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="B38" s="25">
         <v>44903</v>
       </c>
       <c r="C38" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D38" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="B39" s="25">
         <v>45082</v>
       </c>
       <c r="C39" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D39" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
@@ -6502,10 +6465,10 @@
         <v>45156</v>
       </c>
       <c r="C40" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="D40" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
@@ -6516,10 +6479,10 @@
         <v>45282</v>
       </c>
       <c r="C41" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="D41" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
     </row>
   </sheetData>
@@ -6570,26 +6533,26 @@
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" s="37" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D1" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="E1" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="F1" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="G1" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="H1" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="I1" t="s">
         <v>18</v>
@@ -6598,19 +6561,19 @@
         <v>21</v>
       </c>
       <c r="K1" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="L1" t="s">
         <v>24</v>
       </c>
       <c r="M1" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="N1" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="O1" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="P1" t="s">
         <v>19</v>
@@ -6619,7 +6582,7 @@
         <v>22</v>
       </c>
       <c r="R1" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="S1" t="s">
         <v>158</v>
@@ -6628,19 +6591,19 @@
         <v>106</v>
       </c>
       <c r="U1" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="V1" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="W1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="X1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="Y1" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
     </row>
     <row r="2" spans="1:26" s="23" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -6651,7 +6614,7 @@
         <v>117</v>
       </c>
       <c r="C2" s="24" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="D2" s="24" t="s">
         <v>105</v>
@@ -6666,7 +6629,7 @@
         <v>11</v>
       </c>
       <c r="H2" s="49" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="I2" s="24" t="s">
         <v>4</v>
@@ -6681,13 +6644,13 @@
         <v>14</v>
       </c>
       <c r="M2" s="24" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="N2" s="24" t="s">
         <v>7</v>
       </c>
       <c r="O2" s="24" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="P2" s="24" t="s">
         <v>6</v>
@@ -6720,7 +6683,7 @@
         <v>63</v>
       </c>
       <c r="Z2" s="24" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.25">
@@ -6734,7 +6697,7 @@
         <v>148</v>
       </c>
       <c r="D3" s="47" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="E3" s="47" t="s">
         <v>160</v>
@@ -6775,7 +6738,7 @@
         <v>148</v>
       </c>
       <c r="D4" s="47" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="E4" s="47" t="s">
         <v>160</v>
@@ -6806,10 +6769,10 @@
         <v>148</v>
       </c>
       <c r="D5" s="47" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="E5" s="47" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="F5" s="47"/>
       <c r="G5" s="47" t="s">
@@ -6828,28 +6791,28 @@
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>141</v>
       </c>
       <c r="G6" s="47" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="H6" s="47"/>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="C7" s="47" t="s">
         <v>148</v>
       </c>
       <c r="D7" s="47" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="E7" s="47" t="s">
         <v>160</v>
@@ -6903,7 +6866,7 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="37" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -6911,19 +6874,19 @@
         <v>20</v>
       </c>
       <c r="E1" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="F1" t="s">
         <v>23</v>
       </c>
       <c r="G1" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="H1" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="I1" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="J1" t="s">
         <v>19</v>
@@ -6932,7 +6895,7 @@
         <v>22</v>
       </c>
       <c r="L1" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="M1" t="s">
         <v>158</v>
@@ -6958,13 +6921,13 @@
         <v>13</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="H2" s="9" t="s">
         <v>7</v>
       </c>
       <c r="I2" s="24" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="J2" s="9" t="s">
         <v>6</v>
@@ -7015,7 +6978,7 @@
         <v>141</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D5">
         <v>75</v>
@@ -7050,7 +7013,7 @@
   <sheetData>
     <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="37" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B1" s="8" t="s">
         <v>1</v>
@@ -7313,34 +7276,34 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="37" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
       <c r="E1" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="F1" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="G1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="H1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="I1" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="J1" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="K1" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="L1" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="O1" s="3"/>
       <c r="P1" s="3"/>
@@ -7357,16 +7320,16 @@
         <v>56</v>
       </c>
       <c r="D2" s="19" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="E2" s="9" t="s">
         <v>133</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="H2" s="9" t="s">
         <v>108</v>
@@ -7398,7 +7361,7 @@
         <v>140</v>
       </c>
       <c r="D3" s="20" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -7421,7 +7384,7 @@
         <v>138</v>
       </c>
       <c r="D4" s="20" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -7441,7 +7404,7 @@
         <v>149</v>
       </c>
       <c r="D5" s="20" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -7458,7 +7421,7 @@
         <v>139</v>
       </c>
       <c r="D6" s="20" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -7478,7 +7441,7 @@
         <v>138</v>
       </c>
       <c r="D7" s="20" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -7489,16 +7452,16 @@
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>149</v>
       </c>
       <c r="D8" s="20" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -7506,16 +7469,16 @@
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>138</v>
       </c>
       <c r="D9" s="20" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -7523,16 +7486,16 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="D10" s="20" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -7567,7 +7530,7 @@
   <sheetData>
     <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="37" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B1" s="8" t="s">
         <v>1</v>
@@ -7582,7 +7545,7 @@
         <v>161</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
     </row>
     <row r="3" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -7608,10 +7571,10 @@
         <v>26</v>
       </c>
       <c r="B5" s="19" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="C5" s="20" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -7851,7 +7814,7 @@
         <v>27</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
     </row>
     <row r="2" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -7865,13 +7828,13 @@
         <v>136</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -8310,12 +8273,12 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="37" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
       <c r="D1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -8343,10 +8306,10 @@
         <v>27</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D3" t="s">
         <v>163</v>
@@ -8382,12 +8345,12 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="37" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
       <c r="D1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -8418,7 +8381,7 @@
         <v>30</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D3" t="s">
         <v>163</v>
@@ -8455,13 +8418,13 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="37" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
       <c r="E1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -8509,16 +8472,16 @@
         <v>27</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="C4" s="18" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="E4" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
     </row>
   </sheetData>
@@ -8533,7 +8496,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17A58EF0-B113-4E3B-A099-AB516EC20AF0}">
   <dimension ref="A1:Y7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
@@ -8570,17 +8533,17 @@
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" s="37" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="D1" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="E1" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="F1" t="s">
         <v>39</v>
@@ -8589,7 +8552,7 @@
         <v>35</v>
       </c>
       <c r="H1" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="I1" t="s">
         <v>41</v>
@@ -8598,7 +8561,7 @@
         <v>45</v>
       </c>
       <c r="K1" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="L1" t="s">
         <v>43</v>
@@ -8607,19 +8570,19 @@
         <v>53</v>
       </c>
       <c r="N1" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="O1" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="P1" t="s">
         <v>37</v>
       </c>
       <c r="Q1" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="R1" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="S1" t="s">
         <v>47</v>
@@ -8628,19 +8591,19 @@
         <v>51</v>
       </c>
       <c r="U1" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="V1" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="W1" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="X1" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="Y1" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.25">
@@ -8651,13 +8614,13 @@
         <v>55</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="F2" s="9" t="s">
         <v>38</v>
@@ -8666,7 +8629,7 @@
         <v>34</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="I2" s="9" t="s">
         <v>40</v>
@@ -8684,16 +8647,16 @@
         <v>52</v>
       </c>
       <c r="N2" s="9" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="O2" s="9" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="P2" s="9" t="s">
         <v>36</v>
       </c>
       <c r="Q2" s="9" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="R2" s="24" t="s">
         <v>11</v>
@@ -8705,19 +8668,19 @@
         <v>50</v>
       </c>
       <c r="U2" s="9" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="V2" s="9" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="W2" s="9" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="X2" s="9" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="Y2" s="9" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
@@ -8740,7 +8703,7 @@
         <v>27</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="J4">
         <v>200</v>
@@ -8757,10 +8720,10 @@
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="I5" t="s">
         <v>148</v>
@@ -8771,10 +8734,10 @@
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="U6">
         <v>40</v>
@@ -8788,13 +8751,13 @@
         <v>27</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="C7" t="s">
         <v>148</v>
       </c>
       <c r="Y7" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
     </row>
   </sheetData>
@@ -8809,11 +8772,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB6AC2C8-7B82-4BFA-94A3-ECFAF63F0D5D}">
   <dimension ref="A1:M11"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B3" sqref="B3"/>
+      <selection pane="bottomRight" activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8824,10 +8787,10 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="37" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B1" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -8836,42 +8799,42 @@
         <v>27</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="K2" s="6" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="L2" s="6" t="s">
+        <v>372</v>
+      </c>
+      <c r="M2" s="6" t="s">
         <v>376</v>
-      </c>
-      <c r="M2" s="6" t="s">
-        <v>380</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="B3" s="14" t="s">
         <v>27</v>
@@ -8912,94 +8875,94 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="B4" s="14"/>
       <c r="C4" s="14" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="E4" s="14" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="F4" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="G4" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="H4" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="I4" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="J4" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="K4" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="L4" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="M4" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="B5" s="14"/>
       <c r="G5" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="J5" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="K5" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="L5" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="B6" s="14"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="B7" s="14"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="B8" s="14"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
  